--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>% работы</t>
   </si>
@@ -71,18 +71,34 @@
     <t>2-я машинолиния</t>
   </si>
   <si>
-    <t>III-В-28-2-200-3 (Фляга 0,2 л.)</t>
+    <t>XXI-В-28-2.1-500-14 (Брест Колоски)</t>
   </si>
   <si>
-    <t>XXI-В-28-2.1-500-14 (Брест Колоски)</t>
+    <t>III-2-82-450-1 (Банка 0,45 л. twist)</t>
+  </si>
+  <si>
+    <t>XXI-B-28-2.1б-700-1 (Кристалл Фирменная 2, 0.7 л.)</t>
+  </si>
+  <si>
+    <t>XIII-В-28-2-200-3 (Фляга 0,2 л.)</t>
+  </si>
+  <si>
+    <t>III-3-53-160-2 (Банка 0,16 л. ABC)</t>
+  </si>
+  <si>
+    <t>XXI-В-28-2.1б-500-3 (Дрозды)</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-30-1-700 (Сваяк 0.7 л.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#"/>
+    <numFmt numFmtId="165" formatCode="#,##0_р_.;[Red]\-#,##0_р_.;[White]#,##0_р_."/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -455,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -677,40 +693,73 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -761,40 +810,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -803,6 +840,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1133,21 +1172,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
       <c r="H1" s="51"/>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
     </row>
     <row r="2" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -1189,22 +1228,22 @@
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="93" t="s">
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
       <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1450,11 +1489,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="24">
         <f>SUM(E4:E10)</f>
         <v>829712.88</v>
@@ -1475,12 +1514,12 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="99"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="112"/>
       <c r="H12" s="20"/>
       <c r="I12" s="14"/>
       <c r="J12" s="23"/>
@@ -1493,14 +1532,14 @@
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="116"/>
       <c r="H13" s="20"/>
       <c r="I13" s="14"/>
       <c r="J13" s="23"/>
@@ -1512,12 +1551,12 @@
       <c r="A14" s="3">
         <v>43439</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="109"/>
       <c r="H14" s="20"/>
       <c r="I14" s="14"/>
       <c r="J14" s="23"/>
@@ -1552,9 +1591,9 @@
       <c r="E16" s="11"/>
       <c r="F16" s="38"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="95"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="106"/>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
       <c r="M16" s="24"/>
@@ -1566,9 +1605,9 @@
       <c r="E17" s="11"/>
       <c r="F17" s="38"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="101"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
       <c r="K17" s="11"/>
       <c r="L17" s="33"/>
       <c r="M17" s="11"/>
@@ -1583,12 +1622,12 @@
       <c r="E18" s="11"/>
       <c r="F18" s="38"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="95"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="106"/>
       <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1677,9 +1716,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="93"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="95"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
       <c r="G24" s="24"/>
@@ -1709,12 +1748,12 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="95"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="106"/>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
       <c r="J26" s="23"/>
@@ -1860,9 +1899,9 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="106"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
       <c r="G35" s="24"/>
@@ -1892,12 +1931,12 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="95"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="106"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
       <c r="J37" s="23"/>
@@ -2045,9 +2084,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="93"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="95"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="106"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
       <c r="G46" s="24"/>
@@ -2077,12 +2116,12 @@
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="95"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="106"/>
       <c r="H48" s="30"/>
       <c r="I48" s="31"/>
       <c r="J48" s="23"/>
@@ -2227,15 +2266,15 @@
       <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="93"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="95"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="106"/>
       <c r="E57" s="24"/>
       <c r="F57" s="25"/>
       <c r="G57" s="24"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="95"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="106"/>
       <c r="K57" s="24"/>
       <c r="L57" s="25"/>
       <c r="M57" s="24"/>
@@ -2255,12 +2294,12 @@
       <c r="M58" s="11"/>
     </row>
     <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="93"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="95"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="106"/>
       <c r="H59" s="20"/>
       <c r="I59" s="14"/>
       <c r="J59" s="23"/>
@@ -2272,9 +2311,9 @@
       <c r="A60" s="3">
         <v>43456</v>
       </c>
-      <c r="B60" s="93"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="95"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="106"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
       <c r="G60" s="24"/>
@@ -2286,12 +2325,12 @@
       <c r="M60" s="11"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="106"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="106"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
       <c r="H61" s="20"/>
       <c r="I61" s="14"/>
       <c r="J61" s="23"/>
@@ -2303,12 +2342,12 @@
       <c r="A62" s="3">
         <v>43457</v>
       </c>
-      <c r="B62" s="93"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="104"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="104"/>
-      <c r="G62" s="105"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="116"/>
       <c r="H62" s="20"/>
       <c r="I62" s="14"/>
       <c r="J62" s="23"/>
@@ -2371,9 +2410,9 @@
       <c r="E66" s="11"/>
       <c r="F66" s="38"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="93"/>
-      <c r="I66" s="94"/>
-      <c r="J66" s="95"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="105"/>
+      <c r="J66" s="106"/>
       <c r="K66" s="24"/>
       <c r="L66" s="25"/>
       <c r="M66" s="24"/>
@@ -2402,12 +2441,12 @@
       <c r="E68" s="11"/>
       <c r="F68" s="38"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="108"/>
-      <c r="I68" s="104"/>
-      <c r="J68" s="104"/>
-      <c r="K68" s="104"/>
-      <c r="L68" s="104"/>
-      <c r="M68" s="95"/>
+      <c r="H68" s="119"/>
+      <c r="I68" s="115"/>
+      <c r="J68" s="115"/>
+      <c r="K68" s="115"/>
+      <c r="L68" s="115"/>
+      <c r="M68" s="106"/>
       <c r="N68" s="28"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -2519,9 +2558,9 @@
       <c r="E75" s="11"/>
       <c r="F75" s="38"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="93"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="95"/>
+      <c r="H75" s="104"/>
+      <c r="I75" s="105"/>
+      <c r="J75" s="106"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
       <c r="M75" s="24"/>
@@ -2541,23 +2580,23 @@
       <c r="M76" s="11"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="93"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="95"/>
+      <c r="B77" s="104"/>
+      <c r="C77" s="105"/>
+      <c r="D77" s="106"/>
       <c r="E77" s="24"/>
       <c r="F77" s="25"/>
       <c r="G77" s="24"/>
-      <c r="H77" s="108"/>
-      <c r="I77" s="104"/>
-      <c r="J77" s="104"/>
-      <c r="K77" s="104"/>
-      <c r="L77" s="104"/>
-      <c r="M77" s="95"/>
+      <c r="H77" s="119"/>
+      <c r="I77" s="115"/>
+      <c r="J77" s="115"/>
+      <c r="K77" s="115"/>
+      <c r="L77" s="115"/>
+      <c r="M77" s="106"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="99"/>
-      <c r="C78" s="100"/>
-      <c r="D78" s="101"/>
+      <c r="B78" s="110"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="112"/>
       <c r="E78" s="11"/>
       <c r="F78" s="33"/>
       <c r="G78" s="11"/>
@@ -2572,12 +2611,12 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="93"/>
-      <c r="C79" s="94"/>
-      <c r="D79" s="104"/>
-      <c r="E79" s="94"/>
-      <c r="F79" s="104"/>
-      <c r="G79" s="105"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="115"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="115"/>
+      <c r="G79" s="116"/>
       <c r="H79" s="20"/>
       <c r="I79" s="14"/>
       <c r="J79" s="23"/>
@@ -2620,27 +2659,27 @@
       <c r="M81" s="11"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="93"/>
-      <c r="C82" s="94"/>
-      <c r="D82" s="95"/>
+      <c r="B82" s="104"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="106"/>
       <c r="E82" s="24"/>
       <c r="F82" s="25"/>
       <c r="G82" s="24"/>
-      <c r="H82" s="108"/>
-      <c r="I82" s="104"/>
-      <c r="J82" s="105"/>
+      <c r="H82" s="119"/>
+      <c r="I82" s="115"/>
+      <c r="J82" s="116"/>
       <c r="K82" s="26"/>
       <c r="L82" s="27"/>
       <c r="M82" s="26"/>
       <c r="N82" s="28"/>
     </row>
     <row r="83" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="107"/>
-      <c r="C83" s="107"/>
-      <c r="D83" s="107"/>
-      <c r="E83" s="107"/>
-      <c r="F83" s="107"/>
-      <c r="G83" s="107"/>
+      <c r="B83" s="118"/>
+      <c r="C83" s="118"/>
+      <c r="D83" s="118"/>
+      <c r="E83" s="118"/>
+      <c r="F83" s="118"/>
+      <c r="G83" s="118"/>
       <c r="H83" s="49"/>
       <c r="I83" s="50"/>
       <c r="J83" s="44"/>
@@ -2655,9 +2694,9 @@
       <c r="E84" s="16"/>
       <c r="F84" s="45"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="107"/>
-      <c r="I84" s="107"/>
-      <c r="J84" s="107"/>
+      <c r="H84" s="118"/>
+      <c r="I84" s="118"/>
+      <c r="J84" s="118"/>
       <c r="K84" s="16"/>
       <c r="L84" s="36"/>
       <c r="M84" s="16"/>
@@ -2712,9 +2751,9 @@
       <c r="E88" s="16"/>
       <c r="F88" s="45"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="107"/>
-      <c r="I88" s="107"/>
-      <c r="J88" s="107"/>
+      <c r="H88" s="118"/>
+      <c r="I88" s="118"/>
+      <c r="J88" s="118"/>
       <c r="K88" s="16"/>
       <c r="L88" s="36"/>
       <c r="M88" s="16"/>
@@ -2728,9 +2767,9 @@
       <c r="G89" s="16"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="107"/>
-      <c r="C90" s="107"/>
-      <c r="D90" s="107"/>
+      <c r="B90" s="118"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
       <c r="E90" s="16"/>
       <c r="F90" s="36"/>
       <c r="G90" s="16"/>
@@ -2787,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2811,27 +2850,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="H1" s="121" t="s">
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="H1" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="N1" s="121" t="s">
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="N1" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -2843,10 +2882,10 @@
       <c r="D2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="82" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="67" t="s">
@@ -2858,10 +2897,10 @@
       <c r="J2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="85" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="70" t="s">
@@ -2873,38 +2912,38 @@
       <c r="P2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="87" t="s">
+      <c r="Q2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="87" t="s">
+      <c r="R2" s="86" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="118" t="s">
+      <c r="A3" s="131"/>
+      <c r="B3" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="118" t="s">
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="125" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -2920,7 +2959,7 @@
         <f t="shared" ref="D4" si="0">B4*C4</f>
         <v>109209.59999999999</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="84">
         <v>91.520833333333329</v>
       </c>
       <c r="F4" s="75">
@@ -2940,7 +2979,7 @@
         <f t="shared" ref="J4:J5" si="2">H4*I4</f>
         <v>99187.199999999997</v>
       </c>
-      <c r="K4" s="88">
+      <c r="K4" s="87">
         <v>97.633928571428569</v>
       </c>
       <c r="L4" s="75">
@@ -2960,7 +2999,7 @@
         <f t="shared" ref="P4:P5" si="4">N4*O4</f>
         <v>89794.08</v>
       </c>
-      <c r="Q4" s="88">
+      <c r="Q4" s="87">
         <v>95.813648293963254</v>
       </c>
       <c r="R4" s="75">
@@ -2979,7 +3018,7 @@
         <f t="shared" ref="D5" si="6">B5*C5</f>
         <v>113702.39999999999</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="83">
         <v>95.827256944444457</v>
       </c>
       <c r="F5" s="60">
@@ -2996,7 +3035,7 @@
         <f t="shared" si="2"/>
         <v>98683.199999999997</v>
       </c>
-      <c r="K5" s="84">
+      <c r="K5" s="83">
         <v>90.401785714285708</v>
       </c>
       <c r="L5" s="60">
@@ -3013,7 +3052,7 @@
         <f t="shared" si="4"/>
         <v>90068.4</v>
       </c>
-      <c r="Q5" s="84">
+      <c r="Q5" s="83">
         <v>93.858267716535437</v>
       </c>
       <c r="R5" s="60">
@@ -3035,7 +3074,7 @@
         <f t="shared" ref="D6:D13" si="7">B6*C6</f>
         <v>111744</v>
       </c>
-      <c r="E6" s="89">
+      <c r="E6" s="88">
         <v>91.460069444444443</v>
       </c>
       <c r="F6" s="60">
@@ -3055,7 +3094,7 @@
         <f t="shared" ref="J6:J23" si="9">H6*I6</f>
         <v>97171.199999999997</v>
       </c>
-      <c r="K6" s="89">
+      <c r="K6" s="88">
         <v>94.017857142857139</v>
       </c>
       <c r="L6" s="60">
@@ -3075,7 +3114,7 @@
         <f t="shared" ref="P6:P19" si="11">N6*O6</f>
         <v>89154</v>
       </c>
-      <c r="Q6" s="89">
+      <c r="Q6" s="88">
         <v>93.858267716535437</v>
       </c>
       <c r="R6" s="60">
@@ -3094,7 +3133,7 @@
         <f t="shared" si="7"/>
         <v>115084.8</v>
       </c>
-      <c r="E7" s="89">
+      <c r="E7" s="88">
         <v>99.756944444444443</v>
       </c>
       <c r="F7" s="60">
@@ -3111,7 +3150,7 @@
         <f t="shared" si="9"/>
         <v>99187.199999999997</v>
       </c>
-      <c r="K7" s="89">
+      <c r="K7" s="88">
         <v>94.017857142857139</v>
       </c>
       <c r="L7" s="60">
@@ -3128,7 +3167,7 @@
         <f t="shared" si="11"/>
         <v>89885.52</v>
       </c>
-      <c r="Q7" s="89">
+      <c r="Q7" s="88">
         <v>95.813648293963254</v>
       </c>
       <c r="R7" s="60">
@@ -3150,7 +3189,7 @@
         <f t="shared" si="7"/>
         <v>112435.2</v>
       </c>
-      <c r="E8" s="89">
+      <c r="E8" s="88">
         <v>94.769097222222214</v>
       </c>
       <c r="F8" s="60">
@@ -3170,7 +3209,7 @@
         <f t="shared" si="9"/>
         <v>97372.800000000003</v>
       </c>
-      <c r="K8" s="89">
+      <c r="K8" s="88">
         <v>94.017857142857139</v>
       </c>
       <c r="L8" s="60">
@@ -3190,7 +3229,7 @@
         <f t="shared" si="11"/>
         <v>89154</v>
       </c>
-      <c r="Q8" s="89">
+      <c r="Q8" s="88">
         <v>95.813648293963254</v>
       </c>
       <c r="R8" s="60">
@@ -3209,7 +3248,7 @@
         <f t="shared" si="7"/>
         <v>113241.59999999999</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="88">
         <v>94.769097222222214</v>
       </c>
       <c r="F9" s="60">
@@ -3226,7 +3265,7 @@
         <f t="shared" si="9"/>
         <v>99086.399999999994</v>
       </c>
-      <c r="K9" s="89">
+      <c r="K9" s="88">
         <v>94.017857142857139</v>
       </c>
       <c r="L9" s="60">
@@ -3234,21 +3273,21 @@
         <v>94770</v>
       </c>
       <c r="N9" s="58">
-        <v>91440</v>
+        <v>92160</v>
       </c>
       <c r="O9" s="10">
         <v>0.98799999999999999</v>
       </c>
       <c r="P9" s="60">
         <f t="shared" si="11"/>
-        <v>90342.720000000001</v>
-      </c>
-      <c r="Q9" s="89">
+        <v>91054.080000000002</v>
+      </c>
+      <c r="Q9" s="88">
         <v>95.065104166666671</v>
       </c>
       <c r="R9" s="60">
         <f t="shared" si="12"/>
-        <v>86927.53125</v>
+        <v>87612</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -3265,7 +3304,7 @@
         <f t="shared" si="7"/>
         <v>112204.8</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="88">
         <v>92.481770833333329</v>
       </c>
       <c r="F10" s="60">
@@ -3285,7 +3324,7 @@
         <f t="shared" si="9"/>
         <v>98683.199999999997</v>
       </c>
-      <c r="K10" s="89">
+      <c r="K10" s="88">
         <v>94.017857142857139</v>
       </c>
       <c r="L10" s="60">
@@ -3296,21 +3335,21 @@
         <v>43712</v>
       </c>
       <c r="N10" s="58">
-        <v>91440</v>
+        <v>92160</v>
       </c>
       <c r="O10" s="10">
         <v>0.98299999999999998</v>
       </c>
       <c r="P10" s="60">
         <f t="shared" si="11"/>
-        <v>89885.52</v>
-      </c>
-      <c r="Q10" s="89">
+        <v>90593.279999999999</v>
+      </c>
+      <c r="Q10" s="88">
         <v>95.065104166666671</v>
       </c>
       <c r="R10" s="60">
         <f t="shared" si="12"/>
-        <v>86927.53125</v>
+        <v>87612</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3325,7 +3364,7 @@
         <f t="shared" si="7"/>
         <v>112435.2</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="88">
         <v>93.333333333333329</v>
       </c>
       <c r="F11" s="60">
@@ -3343,7 +3382,7 @@
         <f t="shared" si="9"/>
         <v>98481.599999999991</v>
       </c>
-      <c r="K11" s="89">
+      <c r="K11" s="88">
         <v>94.017857142857139</v>
       </c>
       <c r="L11" s="60">
@@ -3352,25 +3391,27 @@
       </c>
       <c r="M11" s="76"/>
       <c r="N11" s="58">
-        <v>91440</v>
+        <v>92160</v>
       </c>
       <c r="O11" s="10">
         <v>0.98099999999999998</v>
       </c>
       <c r="P11" s="60">
         <f t="shared" si="11"/>
-        <v>89702.64</v>
-      </c>
-      <c r="Q11" s="89">
+        <v>90408.959999999992</v>
+      </c>
+      <c r="Q11" s="88">
         <v>95.065104166666671</v>
       </c>
       <c r="R11" s="60">
         <f t="shared" si="12"/>
-        <v>86927.53125</v>
+        <v>87612</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
+      <c r="A12" s="78">
+        <v>43713</v>
+      </c>
       <c r="B12" s="58">
         <v>115200</v>
       </c>
@@ -3381,7 +3422,7 @@
         <f t="shared" si="7"/>
         <v>112435.2</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="88">
         <v>95.815104166666671</v>
       </c>
       <c r="F12" s="60">
@@ -3401,7 +3442,7 @@
         <f t="shared" si="9"/>
         <v>98985.599999999991</v>
       </c>
-      <c r="K12" s="89">
+      <c r="K12" s="88">
         <v>94.017857142857139</v>
       </c>
       <c r="L12" s="60">
@@ -3412,21 +3453,21 @@
         <v>43713</v>
       </c>
       <c r="N12" s="58">
-        <v>91440</v>
+        <v>92160</v>
       </c>
       <c r="O12" s="10">
         <v>0.98199999999999998</v>
       </c>
       <c r="P12" s="60">
         <f t="shared" si="11"/>
-        <v>89794.08</v>
-      </c>
-      <c r="Q12" s="89">
+        <v>90501.119999999995</v>
+      </c>
+      <c r="Q12" s="88">
         <v>97.005208333333343</v>
       </c>
       <c r="R12" s="60">
         <f t="shared" si="12"/>
-        <v>88701.5625</v>
+        <v>89400</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3434,14 +3475,14 @@
       <c r="B13" s="58">
         <v>115200</v>
       </c>
-      <c r="C13" s="92">
+      <c r="C13" s="91">
         <v>0.98399999999999999</v>
       </c>
       <c r="D13" s="60">
         <f t="shared" si="7"/>
         <v>113356.8</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="83">
         <v>97.275173611111114</v>
       </c>
       <c r="F13" s="60">
@@ -3458,7 +3499,7 @@
         <f t="shared" si="9"/>
         <v>97977.599999999991</v>
       </c>
-      <c r="K13" s="89">
+      <c r="K13" s="88">
         <v>94.017857142857139</v>
       </c>
       <c r="L13" s="60">
@@ -3466,40 +3507,37 @@
         <v>94770</v>
       </c>
       <c r="N13" s="58">
-        <v>91440</v>
+        <v>92160</v>
       </c>
       <c r="O13" s="10">
         <v>0.96399999999999997</v>
       </c>
       <c r="P13" s="60">
         <f t="shared" si="11"/>
-        <v>88148.160000000003</v>
-      </c>
-      <c r="Q13" s="89">
+        <v>88842.239999999991</v>
+      </c>
+      <c r="Q13" s="88">
         <v>87.3046875</v>
       </c>
       <c r="R13" s="60">
         <f t="shared" si="12"/>
-        <v>79831.40625</v>
+        <v>80460</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
-        <v>43713</v>
-      </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="110"/>
+      <c r="C14" s="124"/>
       <c r="D14" s="77">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="89">
         <f>F14/D14</f>
         <v>0.96900509624020836</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F14" s="90">
         <f>SUM(F4:F13)</f>
         <v>1090954</v>
       </c>
@@ -3516,7 +3554,7 @@
         <f t="shared" si="9"/>
         <v>99288</v>
       </c>
-      <c r="K14" s="89">
+      <c r="K14" s="88">
         <v>94.017857142857139</v>
       </c>
       <c r="L14" s="60">
@@ -3527,21 +3565,21 @@
         <v>43714</v>
       </c>
       <c r="N14" s="58">
-        <v>91440</v>
+        <v>92160</v>
       </c>
       <c r="O14" s="10">
         <v>0.999</v>
       </c>
       <c r="P14" s="60">
         <f t="shared" si="11"/>
-        <v>91348.56</v>
-      </c>
-      <c r="Q14" s="89">
+        <v>92067.839999999997</v>
+      </c>
+      <c r="Q14" s="88">
         <v>98.9453125</v>
       </c>
       <c r="R14" s="60">
         <f t="shared" si="12"/>
-        <v>90475.59375</v>
+        <v>91188</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -3560,7 +3598,7 @@
         <f t="shared" si="9"/>
         <v>99388.800000000003</v>
       </c>
-      <c r="K15" s="89">
+      <c r="K15" s="88">
         <v>97.633928571428569</v>
       </c>
       <c r="L15" s="60">
@@ -3568,32 +3606,32 @@
         <v>98415</v>
       </c>
       <c r="N15" s="58">
-        <v>91440</v>
+        <v>92160</v>
       </c>
       <c r="O15" s="10">
         <v>0.98899999999999999</v>
       </c>
       <c r="P15" s="60">
         <f t="shared" si="11"/>
-        <v>90434.16</v>
-      </c>
-      <c r="Q15" s="89">
+        <v>91146.240000000005</v>
+      </c>
+      <c r="Q15" s="88">
         <v>97.005208333333343</v>
       </c>
       <c r="R15" s="60">
         <f t="shared" si="12"/>
-        <v>88701.5625</v>
+        <v>89400</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="73">
-        <v>43714</v>
-      </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
       <c r="G16" s="73">
         <v>43715</v>
       </c>
@@ -3607,7 +3645,7 @@
         <f t="shared" si="9"/>
         <v>98481.599999999991</v>
       </c>
-      <c r="K16" s="89">
+      <c r="K16" s="88">
         <v>94.017857142857139</v>
       </c>
       <c r="L16" s="60">
@@ -3618,29 +3656,44 @@
         <v>43715</v>
       </c>
       <c r="N16" s="58">
-        <v>91440</v>
+        <v>92160</v>
       </c>
       <c r="O16" s="10">
         <v>0.97599999999999998</v>
       </c>
       <c r="P16" s="60">
         <f t="shared" si="11"/>
-        <v>89245.440000000002</v>
-      </c>
-      <c r="Q16" s="89">
+        <v>89948.160000000003</v>
+      </c>
+      <c r="Q16" s="88">
         <v>95.065104166666671</v>
       </c>
       <c r="R16" s="60">
         <f t="shared" si="12"/>
-        <v>86927.53125</v>
+        <v>87612</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="74"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
+      <c r="A17" s="73">
+        <v>43714</v>
+      </c>
+      <c r="B17" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C17" s="54">
+        <v>0.83</v>
+      </c>
+      <c r="D17" s="75">
+        <f t="shared" ref="D17" si="13">B17*C17</f>
+        <v>93823.2</v>
+      </c>
+      <c r="E17" s="88">
+        <v>68.846426043878267</v>
+      </c>
+      <c r="F17" s="75">
+        <f t="shared" ref="F17" si="14">B17*E17/100</f>
+        <v>77823.999999999985</v>
+      </c>
       <c r="H17" s="58">
         <v>100800</v>
       </c>
@@ -3651,7 +3704,7 @@
         <f t="shared" si="9"/>
         <v>98884.800000000003</v>
       </c>
-      <c r="K17" s="89">
+      <c r="K17" s="88">
         <v>94.017857142857139</v>
       </c>
       <c r="L17" s="60">
@@ -3659,32 +3712,41 @@
         <v>94770</v>
       </c>
       <c r="N17" s="58">
-        <v>91440</v>
+        <v>92160</v>
       </c>
       <c r="O17" s="10">
         <v>0.98599999999999999</v>
       </c>
       <c r="P17" s="60">
         <f t="shared" si="11"/>
-        <v>90159.84</v>
-      </c>
-      <c r="Q17" s="89">
+        <v>90869.759999999995</v>
+      </c>
+      <c r="Q17" s="88">
         <v>95.065104166666671</v>
       </c>
       <c r="R17" s="60">
         <f t="shared" si="12"/>
-        <v>86927.53125</v>
+        <v>87612</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73">
-        <v>43715</v>
-      </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
+      <c r="B18" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C18" s="54">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D18" s="75">
+        <f t="shared" ref="D18" si="15">B18*C18</f>
+        <v>110553.12</v>
+      </c>
+      <c r="E18" s="88">
+        <v>82.208067940552027</v>
+      </c>
+      <c r="F18" s="75">
+        <f t="shared" ref="F18" si="16">B18*E18/100</f>
+        <v>92928.000000000015</v>
+      </c>
       <c r="G18" s="73">
         <v>43716</v>
       </c>
@@ -3698,7 +3760,7 @@
         <f t="shared" si="9"/>
         <v>97977.599999999991</v>
       </c>
-      <c r="K18" s="89">
+      <c r="K18" s="88">
         <v>90.401785714285708</v>
       </c>
       <c r="L18" s="60">
@@ -3709,29 +3771,44 @@
         <v>43716</v>
       </c>
       <c r="N18" s="58">
-        <v>91440</v>
+        <v>92160</v>
       </c>
       <c r="O18" s="10">
         <v>0.999</v>
       </c>
       <c r="P18" s="60">
         <f t="shared" si="11"/>
-        <v>91348.56</v>
-      </c>
-      <c r="Q18" s="89">
+        <v>92067.839999999997</v>
+      </c>
+      <c r="Q18" s="88">
         <v>98.9453125</v>
       </c>
       <c r="R18" s="60">
         <f t="shared" si="12"/>
-        <v>90475.59375</v>
+        <v>91188</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="74"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
+      <c r="A19" s="73">
+        <v>43715</v>
+      </c>
+      <c r="B19" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C19" s="54">
+        <v>0.97</v>
+      </c>
+      <c r="D19" s="75">
+        <f t="shared" ref="D19:D28" si="17">B19*C19</f>
+        <v>109648.8</v>
+      </c>
+      <c r="E19" s="88">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F19" s="75">
+        <f t="shared" ref="F19:F28" si="18">B19*E19/100</f>
+        <v>107008</v>
+      </c>
       <c r="H19" s="58">
         <v>100800</v>
       </c>
@@ -3742,7 +3819,7 @@
         <f t="shared" si="9"/>
         <v>98985.599999999991</v>
       </c>
-      <c r="K19" s="89">
+      <c r="K19" s="88">
         <v>94.017857142857139</v>
       </c>
       <c r="L19" s="60">
@@ -3750,32 +3827,41 @@
         <v>94770</v>
       </c>
       <c r="N19" s="58">
-        <v>91440</v>
+        <v>92160</v>
       </c>
       <c r="O19" s="10">
         <v>0.999</v>
       </c>
       <c r="P19" s="60">
         <f t="shared" si="11"/>
-        <v>91348.56</v>
-      </c>
-      <c r="Q19" s="89">
+        <v>92067.839999999997</v>
+      </c>
+      <c r="Q19" s="88">
         <v>98.9453125</v>
       </c>
       <c r="R19" s="60">
         <f t="shared" si="12"/>
-        <v>90475.59375</v>
+        <v>91188</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="73">
-        <v>43716</v>
-      </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
+      <c r="B20" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C20" s="54">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D20" s="75">
+        <f t="shared" si="17"/>
+        <v>109987.92</v>
+      </c>
+      <c r="E20" s="88">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F20" s="75">
+        <f t="shared" si="18"/>
+        <v>107008</v>
+      </c>
       <c r="G20" s="73">
         <v>43717</v>
       </c>
@@ -3789,36 +3875,51 @@
         <f t="shared" si="9"/>
         <v>99792</v>
       </c>
-      <c r="K20" s="89">
+      <c r="K20" s="88">
         <v>97.633928571428569</v>
       </c>
       <c r="L20" s="60">
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="109" t="s">
+      <c r="N20" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="110"/>
+      <c r="O20" s="124"/>
       <c r="P20" s="77">
         <f>SUM(P4:P19)</f>
-        <v>1439814.24</v>
-      </c>
-      <c r="Q20" s="90">
+        <v>1447623.36</v>
+      </c>
+      <c r="Q20" s="89">
         <f>R20/P20</f>
-        <v>0.97080785140033066</v>
-      </c>
-      <c r="R20" s="91">
+        <v>0.97081052905916077</v>
+      </c>
+      <c r="R20" s="90">
         <f>SUM(R4:R19)</f>
-        <v>1397782.96875</v>
+        <v>1405368</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="74"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
+      <c r="A21" s="73">
+        <v>43716</v>
+      </c>
+      <c r="B21" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C21" s="54">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D21" s="75">
+        <f t="shared" si="17"/>
+        <v>110666.16</v>
+      </c>
+      <c r="E21" s="88">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F21" s="75">
+        <f t="shared" si="18"/>
+        <v>107008</v>
+      </c>
       <c r="H21" s="58">
         <v>100800</v>
       </c>
@@ -3829,7 +3930,7 @@
         <f t="shared" si="9"/>
         <v>99489.600000000006</v>
       </c>
-      <c r="K21" s="89">
+      <c r="K21" s="88">
         <v>94.017857142857139</v>
       </c>
       <c r="L21" s="60">
@@ -3841,14 +3942,23 @@
       <c r="P21" s="75"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="73">
-        <v>43717</v>
-      </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
+      <c r="B22" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C22" s="54">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D22" s="75">
+        <f t="shared" si="17"/>
+        <v>111118.31999999999</v>
+      </c>
+      <c r="E22" s="88">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F22" s="75">
+        <f t="shared" si="18"/>
+        <v>107008</v>
+      </c>
       <c r="G22" s="73">
         <v>43718</v>
       </c>
@@ -3862,26 +3972,42 @@
         <f t="shared" si="9"/>
         <v>97675.199999999997</v>
       </c>
-      <c r="K22" s="89">
+      <c r="K22" s="88">
         <v>94.017857142857139</v>
       </c>
       <c r="L22" s="60">
         <f t="shared" si="10"/>
         <v>94770</v>
       </c>
-      <c r="M22" s="73">
+      <c r="N22" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="121"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="121"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="73">
         <v>43717</v>
       </c>
-      <c r="N22" s="74"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="75"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="74"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
+      <c r="B23" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C23" s="54">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D23" s="75">
+        <f t="shared" si="17"/>
+        <v>111344.4</v>
+      </c>
+      <c r="E23" s="88">
+        <v>97.268223637650379</v>
+      </c>
+      <c r="F23" s="75">
+        <f t="shared" si="18"/>
+        <v>109951.99999999999</v>
+      </c>
       <c r="H23" s="58">
         <v>100800</v>
       </c>
@@ -3892,272 +4018,718 @@
         <f t="shared" si="9"/>
         <v>99691.199999999997</v>
       </c>
-      <c r="K23" s="89">
+      <c r="K23" s="88">
         <v>97.633928571428569</v>
       </c>
       <c r="L23" s="60">
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N23" s="74"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="75"/>
+      <c r="M23" s="73">
+        <v>43717</v>
+      </c>
+      <c r="N23" s="101">
+        <v>84240</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="P23" s="75">
+        <f t="shared" ref="P23" si="19">N23*O23</f>
+        <v>75226.320000000007</v>
+      </c>
+      <c r="Q23" s="88">
+        <v>64.038461538461533</v>
+      </c>
+      <c r="R23" s="75">
+        <f t="shared" ref="R23" si="20">N23*Q23/100</f>
+        <v>53946</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="H24" s="109" t="s">
+      <c r="B24" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C24" s="54">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D24" s="75">
+        <f t="shared" si="17"/>
+        <v>111118.31999999999</v>
+      </c>
+      <c r="E24" s="88">
+        <v>94.210898796886056</v>
+      </c>
+      <c r="F24" s="75">
+        <f t="shared" si="18"/>
+        <v>106496</v>
+      </c>
+      <c r="H24" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="110"/>
+      <c r="I24" s="124"/>
       <c r="J24" s="77">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
       </c>
-      <c r="K24" s="90">
+      <c r="K24" s="89">
         <f>L24/J24</f>
         <v>0.96364574520843649</v>
       </c>
-      <c r="L24" s="91">
+      <c r="L24" s="90">
         <f>SUM(L4:L23)</f>
         <v>1902690</v>
       </c>
-      <c r="N24" s="111"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="77"/>
+      <c r="N24" s="101">
+        <v>84240</v>
+      </c>
+      <c r="O24" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P24" s="75">
+        <f t="shared" ref="P24:P36" si="21">N24*O24</f>
+        <v>81797.039999999994</v>
+      </c>
+      <c r="Q24" s="88">
+        <v>90.128205128205124</v>
+      </c>
+      <c r="R24" s="75">
+        <f t="shared" ref="R24:R36" si="22">N24*Q24/100</f>
+        <v>75924</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="74"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
+      <c r="A25" s="73">
+        <v>43718</v>
+      </c>
+      <c r="B25" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C25" s="54">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="D25" s="75">
+        <f t="shared" si="17"/>
+        <v>109422.72</v>
+      </c>
+      <c r="E25" s="88">
+        <v>94.777070063694268</v>
+      </c>
+      <c r="F25" s="75">
+        <f t="shared" si="18"/>
+        <v>107136</v>
+      </c>
       <c r="H25" s="74"/>
       <c r="I25" s="54"/>
       <c r="J25" s="75"/>
       <c r="K25" s="79"/>
       <c r="L25" s="79"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="75"/>
+      <c r="M25" s="73">
+        <v>43718</v>
+      </c>
+      <c r="N25" s="101">
+        <v>84240</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="P25" s="75">
+        <f t="shared" si="21"/>
+        <v>81712.800000000003</v>
+      </c>
+      <c r="Q25" s="88">
+        <v>90.128205128205124</v>
+      </c>
+      <c r="R25" s="75">
+        <f t="shared" si="22"/>
+        <v>75924</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="111"/>
-      <c r="P26" s="111"/>
+      <c r="B26" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C26" s="54">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="D26" s="75">
+        <f t="shared" si="17"/>
+        <v>111570.48</v>
+      </c>
+      <c r="E26" s="88">
+        <v>97.154989384288754</v>
+      </c>
+      <c r="F26" s="75">
+        <f t="shared" si="18"/>
+        <v>109824</v>
+      </c>
+      <c r="H26" s="125" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="126"/>
+      <c r="N26" s="101">
+        <v>84240</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="P26" s="75">
+        <f t="shared" si="21"/>
+        <v>82639.44</v>
+      </c>
+      <c r="Q26" s="88">
+        <v>92.5</v>
+      </c>
+      <c r="R26" s="75">
+        <f t="shared" si="22"/>
+        <v>77922</v>
+      </c>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="73">
-        <v>43718</v>
-      </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
+        <v>43719</v>
+      </c>
+      <c r="B27" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C27" s="54">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D27" s="75">
+        <f t="shared" si="17"/>
+        <v>110327.03999999999</v>
+      </c>
+      <c r="E27" s="88">
+        <v>97.154989384288754</v>
+      </c>
+      <c r="F27" s="75">
+        <f t="shared" si="18"/>
+        <v>109824</v>
+      </c>
+      <c r="G27" s="73">
+        <v>43719</v>
+      </c>
+      <c r="H27" s="74">
+        <v>144000</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="J27" s="75">
+        <f t="shared" ref="J27" si="23">H27*I27</f>
+        <v>106704</v>
+      </c>
+      <c r="K27" s="88">
+        <v>38.722222222222221</v>
+      </c>
+      <c r="L27" s="75">
+        <f t="shared" ref="L27" si="24">H27*K27/100</f>
+        <v>55760</v>
+      </c>
       <c r="M27" s="73">
-        <v>43718</v>
-      </c>
-      <c r="N27" s="58"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="60"/>
+        <v>43719</v>
+      </c>
+      <c r="N27" s="101">
+        <v>84240</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="P27" s="75">
+        <f t="shared" si="21"/>
+        <v>81544.319999999992</v>
+      </c>
+      <c r="Q27" s="88">
+        <v>90.128205128205124</v>
+      </c>
+      <c r="R27" s="75">
+        <f t="shared" si="22"/>
+        <v>75924</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="60"/>
+      <c r="B28" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C28" s="54">
+        <v>0.999</v>
+      </c>
+      <c r="D28" s="75">
+        <f t="shared" si="17"/>
+        <v>112926.96</v>
+      </c>
+      <c r="E28" s="88">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F28" s="75">
+        <f t="shared" si="18"/>
+        <v>107008</v>
+      </c>
+      <c r="H28" s="74">
+        <v>144000</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J28" s="75">
+        <f t="shared" ref="J28:J38" si="25">H28*I28</f>
+        <v>140544</v>
+      </c>
+      <c r="K28" s="88">
+        <v>96.805555555555557</v>
+      </c>
+      <c r="L28" s="75">
+        <f t="shared" ref="L28:L38" si="26">H28*K28/100</f>
+        <v>139400</v>
+      </c>
+      <c r="N28" s="101">
+        <v>85680</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="P28" s="75">
+        <f t="shared" si="21"/>
+        <v>84223.44</v>
+      </c>
+      <c r="Q28" s="88">
+        <v>90.945378151260499</v>
+      </c>
+      <c r="R28" s="75">
+        <f t="shared" si="22"/>
+        <v>77922</v>
+      </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73">
-        <v>43719</v>
-      </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
+      <c r="B29" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="124"/>
+      <c r="D29" s="77">
+        <f>SUM(D17:D28)</f>
+        <v>1312507.44</v>
+      </c>
+      <c r="E29" s="89">
+        <f>F29/D29</f>
+        <v>0.95163193893971376</v>
+      </c>
+      <c r="F29" s="90">
+        <f>SUM(F17:F28)</f>
+        <v>1249024</v>
+      </c>
       <c r="G29" s="73">
-        <v>43719</v>
-      </c>
-      <c r="H29" s="58"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
+        <v>43720</v>
+      </c>
+      <c r="H29" s="74">
+        <v>144000</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="J29" s="75">
+        <f t="shared" si="25"/>
+        <v>137952</v>
+      </c>
+      <c r="K29" s="88">
+        <v>87.125</v>
+      </c>
+      <c r="L29" s="75">
+        <f t="shared" si="26"/>
+        <v>125460</v>
+      </c>
       <c r="M29" s="73">
-        <v>43719</v>
-      </c>
-      <c r="N29" s="58"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="60"/>
+        <v>43720</v>
+      </c>
+      <c r="N29" s="101">
+        <v>83520</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="P29" s="75">
+        <f t="shared" si="21"/>
+        <v>80346.239999999991</v>
+      </c>
+      <c r="Q29" s="88">
+        <v>83.728448275862064</v>
+      </c>
+      <c r="R29" s="75">
+        <f t="shared" si="22"/>
+        <v>69930</v>
+      </c>
     </row>
     <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="58"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="60"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="75"/>
+      <c r="H30" s="74">
+        <v>144000</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="J30" s="75">
+        <f t="shared" si="25"/>
+        <v>139824</v>
+      </c>
+      <c r="K30" s="88">
+        <v>87.125</v>
+      </c>
+      <c r="L30" s="75">
+        <f t="shared" si="26"/>
+        <v>125460</v>
+      </c>
+      <c r="N30" s="101">
+        <v>83520</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="P30" s="75">
+        <f t="shared" si="21"/>
+        <v>80346.239999999991</v>
+      </c>
+      <c r="Q30" s="88">
+        <v>93.297413793103445</v>
+      </c>
+      <c r="R30" s="75">
+        <f t="shared" si="22"/>
+        <v>77922</v>
+      </c>
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73">
+      <c r="B31" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="73">
+        <v>43721</v>
+      </c>
+      <c r="H31" s="74">
+        <v>144000</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="J31" s="75">
+        <f t="shared" si="25"/>
+        <v>139104</v>
+      </c>
+      <c r="K31" s="88">
+        <v>91.965277777777771</v>
+      </c>
+      <c r="L31" s="75">
+        <f t="shared" si="26"/>
+        <v>132430</v>
+      </c>
+      <c r="M31" s="73">
+        <v>43721</v>
+      </c>
+      <c r="N31" s="101">
+        <v>83520</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="P31" s="75">
+        <f t="shared" si="21"/>
+        <v>80763.839999999997</v>
+      </c>
+      <c r="Q31" s="88">
+        <v>90.905172413793096</v>
+      </c>
+      <c r="R31" s="75">
+        <f t="shared" si="22"/>
+        <v>75923.999999999985</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="73">
         <v>43720</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="73">
-        <v>43720</v>
-      </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="73">
-        <v>43720</v>
-      </c>
-      <c r="N31" s="58"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="60"/>
-    </row>
-    <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="58"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="60"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="73">
-        <v>43721</v>
-      </c>
+      <c r="B32" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C32" s="54">
+        <v>0.83</v>
+      </c>
+      <c r="D32" s="75">
+        <f t="shared" ref="D32" si="27">B32*C32</f>
+        <v>93823.2</v>
+      </c>
+      <c r="E32" s="88">
+        <v>68.846426043878267</v>
+      </c>
+      <c r="F32" s="75">
+        <f t="shared" ref="F32" si="28">B32*E32/100</f>
+        <v>77823.999999999985</v>
+      </c>
+      <c r="H32" s="74">
+        <v>144000</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="J32" s="75">
+        <f t="shared" si="25"/>
+        <v>140256</v>
+      </c>
+      <c r="K32" s="88">
+        <v>91.965277777777771</v>
+      </c>
+      <c r="L32" s="75">
+        <f t="shared" si="26"/>
+        <v>132430</v>
+      </c>
+      <c r="N32" s="101">
+        <v>83520</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="P32" s="75">
+        <f t="shared" si="21"/>
+        <v>81682.559999999998</v>
+      </c>
+      <c r="Q32" s="88">
+        <v>93.297413793103445</v>
+      </c>
+      <c r="R32" s="75">
+        <f t="shared" si="22"/>
+        <v>77922</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B33" s="58"/>
       <c r="C33" s="54"/>
       <c r="D33" s="60"/>
       <c r="E33" s="79"/>
       <c r="F33" s="79"/>
       <c r="G33" s="73">
+        <v>43722</v>
+      </c>
+      <c r="H33" s="74">
+        <v>144000</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J33" s="75">
+        <f t="shared" si="25"/>
+        <v>140688</v>
+      </c>
+      <c r="K33" s="88">
+        <v>91.965277777777771</v>
+      </c>
+      <c r="L33" s="75">
+        <f t="shared" si="26"/>
+        <v>132430</v>
+      </c>
+      <c r="M33" s="73">
+        <v>43722</v>
+      </c>
+      <c r="N33" s="101">
+        <v>83520</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="P33" s="75">
+        <f t="shared" si="21"/>
+        <v>82100.160000000003</v>
+      </c>
+      <c r="Q33" s="88">
+        <v>93.297413793103445</v>
+      </c>
+      <c r="R33" s="75">
+        <f t="shared" si="22"/>
+        <v>77922</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="73">
         <v>43721</v>
       </c>
-      <c r="H33" s="58"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="73">
-        <v>43721</v>
-      </c>
-      <c r="N33" s="58"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="60"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B34" s="58"/>
       <c r="C34" s="54"/>
       <c r="D34" s="60"/>
       <c r="E34" s="79"/>
       <c r="F34" s="79"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="60"/>
-    </row>
-    <row r="35" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="111"/>
-      <c r="C35" s="112"/>
+      <c r="H34" s="74">
+        <v>144000</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="J34" s="75">
+        <f t="shared" si="25"/>
+        <v>137808</v>
+      </c>
+      <c r="K34" s="88">
+        <v>87.125</v>
+      </c>
+      <c r="L34" s="75">
+        <f t="shared" si="26"/>
+        <v>125460</v>
+      </c>
+      <c r="N34" s="101">
+        <v>83520</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="P34" s="75">
+        <f t="shared" si="21"/>
+        <v>81766.080000000002</v>
+      </c>
+      <c r="Q34" s="88">
+        <v>93.297413793103445</v>
+      </c>
+      <c r="R34" s="75">
+        <f t="shared" si="22"/>
+        <v>77922</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="94"/>
+      <c r="C35" s="95"/>
       <c r="D35" s="77"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="77"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="73">
+        <v>43723</v>
+      </c>
+      <c r="H35" s="74">
+        <v>144000</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J35" s="75">
+        <f t="shared" si="25"/>
+        <v>140688</v>
+      </c>
+      <c r="K35" s="88">
+        <v>91.965277777777771</v>
+      </c>
+      <c r="L35" s="75">
+        <f t="shared" si="26"/>
+        <v>132430</v>
+      </c>
+      <c r="M35" s="73">
+        <v>43723</v>
+      </c>
+      <c r="N35" s="101">
+        <v>83520</v>
+      </c>
+      <c r="O35" s="10">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="P35" s="75">
+        <f t="shared" si="21"/>
+        <v>75418.559999999998</v>
+      </c>
+      <c r="Q35" s="88">
+        <v>83.728448275862064</v>
+      </c>
+      <c r="R35" s="75">
+        <f t="shared" si="22"/>
+        <v>69930</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B36" s="74"/>
       <c r="C36" s="54"/>
       <c r="D36" s="75"/>
       <c r="E36" s="79"/>
       <c r="F36" s="79"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="75"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="111"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="111"/>
-    </row>
-    <row r="38" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="74">
+        <v>144000</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J36" s="75">
+        <f t="shared" si="25"/>
+        <v>141552</v>
+      </c>
+      <c r="K36" s="88">
+        <v>96.805555555555557</v>
+      </c>
+      <c r="L36" s="75">
+        <f t="shared" si="26"/>
+        <v>139400</v>
+      </c>
+      <c r="N36" s="102">
+        <v>83520</v>
+      </c>
+      <c r="O36" s="103">
+        <v>0.999</v>
+      </c>
+      <c r="P36" s="75">
+        <f t="shared" si="21"/>
+        <v>83436.479999999996</v>
+      </c>
+      <c r="Q36" s="88">
+        <v>98.081896551724128</v>
+      </c>
+      <c r="R36" s="75">
+        <f t="shared" si="22"/>
+        <v>81917.999999999985</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="73">
+        <v>43724</v>
+      </c>
+      <c r="H37" s="74">
+        <v>144000</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J37" s="75">
+        <f t="shared" si="25"/>
+        <v>139392</v>
+      </c>
+      <c r="K37" s="88">
+        <v>91.965277777777771</v>
+      </c>
+      <c r="L37" s="75">
+        <f t="shared" si="26"/>
+        <v>132430</v>
+      </c>
+      <c r="N37" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" s="122"/>
+      <c r="P37" s="77">
+        <f>SUM(P23:P36)</f>
+        <v>1133003.52</v>
+      </c>
+      <c r="Q37" s="89">
+        <f>R37/P37</f>
+        <v>0.92405008591676752</v>
+      </c>
+      <c r="R37" s="90">
+        <f>SUM(R23:R36)</f>
+        <v>1046952</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="73">
         <v>43722</v>
       </c>
@@ -4166,37 +4738,58 @@
       <c r="D38" s="60"/>
       <c r="E38" s="79"/>
       <c r="F38" s="79"/>
-      <c r="G38" s="73">
-        <v>43722</v>
-      </c>
-      <c r="H38" s="58"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="73">
-        <v>43722</v>
+      <c r="H38" s="74">
+        <v>144000</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J38" s="75">
+        <f t="shared" si="25"/>
+        <v>142704</v>
+      </c>
+      <c r="K38" s="88">
+        <v>96.805555555555557</v>
+      </c>
+      <c r="L38" s="75">
+        <f t="shared" si="26"/>
+        <v>139400</v>
       </c>
       <c r="N38" s="58"/>
-      <c r="O38" s="54"/>
+      <c r="O38" s="53"/>
       <c r="P38" s="60"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B39" s="58"/>
       <c r="C39" s="54"/>
       <c r="D39" s="60"/>
       <c r="E39" s="79"/>
       <c r="F39" s="79"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="60"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H39" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="124"/>
+      <c r="J39" s="77">
+        <f>SUM(J27:J38)</f>
+        <v>1647216</v>
+      </c>
+      <c r="K39" s="89">
+        <f>L39/J39</f>
+        <v>0.91820987654320985</v>
+      </c>
+      <c r="L39" s="90">
+        <f>SUM(L27:L38)</f>
+        <v>1512490</v>
+      </c>
+      <c r="N39" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="121"/>
+      <c r="P39" s="121"/>
+      <c r="Q39" s="121"/>
+      <c r="R39" s="121"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="73">
         <v>43723</v>
       </c>
@@ -4205,37 +4798,50 @@
       <c r="D40" s="60"/>
       <c r="E40" s="79"/>
       <c r="F40" s="79"/>
-      <c r="G40" s="73">
-        <v>43723</v>
-      </c>
       <c r="H40" s="58"/>
       <c r="I40" s="54"/>
       <c r="J40" s="60"/>
       <c r="K40" s="79"/>
       <c r="L40" s="79"/>
       <c r="M40" s="73">
-        <v>43723</v>
-      </c>
-      <c r="N40" s="58"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="60"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>43724</v>
+      </c>
+      <c r="N40" s="101">
+        <v>84240</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="P40" s="75">
+        <f t="shared" ref="P40" si="29">N40*O40</f>
+        <v>75226.320000000007</v>
+      </c>
+      <c r="Q40" s="88">
+        <v>64.038461538461533</v>
+      </c>
+      <c r="R40" s="75">
+        <f t="shared" ref="R40" si="30">N40*Q40/100</f>
+        <v>53946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B41" s="58"/>
       <c r="C41" s="54"/>
       <c r="D41" s="60"/>
       <c r="E41" s="79"/>
       <c r="F41" s="79"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
+      <c r="H41" s="125" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="126"/>
+      <c r="J41" s="126"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="126"/>
       <c r="N41" s="58"/>
       <c r="O41" s="54"/>
       <c r="P41" s="60"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="73">
         <v>43724</v>
       </c>
@@ -4245,21 +4851,33 @@
       <c r="E42" s="79"/>
       <c r="F42" s="79"/>
       <c r="G42" s="73">
-        <v>43724</v>
-      </c>
-      <c r="H42" s="58"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="79"/>
+        <v>43725</v>
+      </c>
+      <c r="H42" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I42" s="57">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J42" s="75">
+        <f t="shared" ref="J42" si="31">H42*I42</f>
+        <v>99187.199999999997</v>
+      </c>
+      <c r="K42" s="100">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L42" s="75">
+        <f t="shared" ref="L42" si="32">H42*K42/100</f>
+        <v>98415</v>
+      </c>
       <c r="M42" s="73">
-        <v>43724</v>
+        <v>43725</v>
       </c>
       <c r="N42" s="58"/>
       <c r="O42" s="54"/>
       <c r="P42" s="60"/>
     </row>
-    <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="58"/>
       <c r="C43" s="54"/>
       <c r="D43" s="60"/>
@@ -4274,7 +4892,7 @@
       <c r="O43" s="54"/>
       <c r="P43" s="60"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="73">
         <v>43725</v>
       </c>
@@ -4283,22 +4901,16 @@
       <c r="D44" s="60"/>
       <c r="E44" s="79"/>
       <c r="F44" s="79"/>
-      <c r="G44" s="73">
-        <v>43725</v>
-      </c>
       <c r="H44" s="58"/>
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
       <c r="K44" s="79"/>
       <c r="L44" s="79"/>
-      <c r="M44" s="73">
-        <v>43725</v>
-      </c>
       <c r="N44" s="58"/>
       <c r="O44" s="54"/>
       <c r="P44" s="60"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B45" s="58"/>
       <c r="C45" s="54"/>
       <c r="D45" s="60"/>
@@ -4313,22 +4925,22 @@
       <c r="O45" s="54"/>
       <c r="P45" s="60"/>
     </row>
-    <row r="46" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="111"/>
-      <c r="C46" s="112"/>
+    <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="94"/>
+      <c r="C46" s="95"/>
       <c r="D46" s="77"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="112"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="95"/>
       <c r="J46" s="77"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="N46" s="111"/>
-      <c r="O46" s="112"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="95"/>
       <c r="P46" s="77"/>
     </row>
-    <row r="47" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="74"/>
       <c r="C47" s="54"/>
       <c r="D47" s="75"/>
@@ -4343,20 +4955,20 @@
       <c r="O47" s="54"/>
       <c r="P47" s="75"/>
     </row>
-    <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="111"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="111"/>
-      <c r="J48" s="111"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="N48" s="111"/>
-      <c r="O48" s="111"/>
-      <c r="P48" s="111"/>
+    <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="94"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="93"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="94"/>
     </row>
     <row r="49" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="73">
@@ -4515,18 +5127,18 @@
       <c r="P56" s="60"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="111"/>
-      <c r="C57" s="112"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="95"/>
       <c r="D57" s="77"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="H57" s="111"/>
-      <c r="I57" s="112"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="95"/>
       <c r="J57" s="77"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
-      <c r="N57" s="111"/>
-      <c r="O57" s="112"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
+      <c r="N57" s="94"/>
+      <c r="O57" s="95"/>
       <c r="P57" s="77"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -4545,82 +5157,82 @@
       <c r="P58" s="75"/>
     </row>
     <row r="59" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="111"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="H59" s="111"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="111"/>
-      <c r="K59" s="81"/>
-      <c r="L59" s="81"/>
-      <c r="N59" s="111"/>
-      <c r="O59" s="111"/>
-      <c r="P59" s="111"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="94"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="93"/>
+      <c r="N59" s="94"/>
+      <c r="O59" s="94"/>
+      <c r="P59" s="94"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="73">
         <v>43730</v>
       </c>
-      <c r="B60" s="111"/>
-      <c r="C60" s="112"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="95"/>
       <c r="D60" s="77"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
       <c r="G60" s="73">
         <v>43730</v>
       </c>
-      <c r="H60" s="111"/>
-      <c r="I60" s="112"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="95"/>
       <c r="J60" s="77"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
       <c r="M60" s="73">
         <v>43730</v>
       </c>
-      <c r="N60" s="111"/>
-      <c r="O60" s="112"/>
+      <c r="N60" s="94"/>
+      <c r="O60" s="95"/>
       <c r="P60" s="77"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="114"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="114"/>
-      <c r="J61" s="114"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="N61" s="114"/>
-      <c r="O61" s="114"/>
-      <c r="P61" s="114"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="96"/>
+      <c r="K61" s="92"/>
+      <c r="L61" s="92"/>
+      <c r="N61" s="96"/>
+      <c r="O61" s="96"/>
+      <c r="P61" s="96"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="73">
         <v>43731</v>
       </c>
-      <c r="B62" s="111"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
       <c r="G62" s="73">
         <v>43731</v>
       </c>
-      <c r="H62" s="111"/>
-      <c r="I62" s="115"/>
-      <c r="J62" s="111"/>
-      <c r="K62" s="81"/>
-      <c r="L62" s="81"/>
+      <c r="H62" s="94"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="94"/>
+      <c r="K62" s="93"/>
+      <c r="L62" s="93"/>
       <c r="M62" s="73">
         <v>43731</v>
       </c>
-      <c r="N62" s="111"/>
-      <c r="O62" s="115"/>
-      <c r="P62" s="111"/>
+      <c r="N62" s="94"/>
+      <c r="O62" s="97"/>
+      <c r="P62" s="94"/>
     </row>
     <row r="63" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="74"/>
@@ -4887,49 +5499,49 @@
       <c r="P76" s="75"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B77" s="111"/>
-      <c r="C77" s="112"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="95"/>
       <c r="D77" s="77"/>
-      <c r="E77" s="82"/>
-      <c r="F77" s="82"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="112"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="81"/>
+      <c r="H77" s="94"/>
+      <c r="I77" s="95"/>
       <c r="J77" s="77"/>
-      <c r="K77" s="82"/>
-      <c r="L77" s="82"/>
-      <c r="N77" s="111"/>
-      <c r="O77" s="112"/>
+      <c r="K77" s="81"/>
+      <c r="L77" s="81"/>
+      <c r="N77" s="94"/>
+      <c r="O77" s="95"/>
       <c r="P77" s="77"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B78" s="116"/>
-      <c r="C78" s="117"/>
+      <c r="B78" s="98"/>
+      <c r="C78" s="99"/>
       <c r="D78" s="75"/>
       <c r="E78" s="79"/>
       <c r="F78" s="79"/>
-      <c r="H78" s="116"/>
-      <c r="I78" s="117"/>
+      <c r="H78" s="98"/>
+      <c r="I78" s="99"/>
       <c r="J78" s="75"/>
       <c r="K78" s="79"/>
       <c r="L78" s="79"/>
-      <c r="N78" s="116"/>
-      <c r="O78" s="117"/>
+      <c r="N78" s="98"/>
+      <c r="O78" s="99"/>
       <c r="P78" s="75"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B79" s="111"/>
-      <c r="C79" s="115"/>
-      <c r="D79" s="111"/>
-      <c r="E79" s="81"/>
-      <c r="F79" s="81"/>
-      <c r="H79" s="111"/>
-      <c r="I79" s="115"/>
-      <c r="J79" s="111"/>
-      <c r="K79" s="81"/>
-      <c r="L79" s="81"/>
-      <c r="N79" s="111"/>
-      <c r="O79" s="115"/>
-      <c r="P79" s="111"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="93"/>
+      <c r="F79" s="93"/>
+      <c r="H79" s="94"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="94"/>
+      <c r="K79" s="93"/>
+      <c r="L79" s="93"/>
+      <c r="N79" s="94"/>
+      <c r="O79" s="97"/>
+      <c r="P79" s="94"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="73">
@@ -4971,34 +5583,34 @@
       <c r="P81" s="75"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B82" s="111"/>
-      <c r="C82" s="112"/>
+      <c r="B82" s="94"/>
+      <c r="C82" s="95"/>
       <c r="D82" s="77"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="82"/>
-      <c r="H82" s="111"/>
-      <c r="I82" s="112"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="81"/>
+      <c r="H82" s="94"/>
+      <c r="I82" s="95"/>
       <c r="J82" s="77"/>
-      <c r="K82" s="82"/>
-      <c r="L82" s="82"/>
-      <c r="N82" s="111"/>
-      <c r="O82" s="112"/>
+      <c r="K82" s="81"/>
+      <c r="L82" s="81"/>
+      <c r="N82" s="94"/>
+      <c r="O82" s="95"/>
       <c r="P82" s="77"/>
     </row>
     <row r="83" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="113"/>
-      <c r="C83" s="113"/>
-      <c r="D83" s="113"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="127"/>
+      <c r="D83" s="127"/>
       <c r="E83" s="80"/>
       <c r="F83" s="80"/>
-      <c r="H83" s="113"/>
-      <c r="I83" s="113"/>
-      <c r="J83" s="113"/>
+      <c r="H83" s="127"/>
+      <c r="I83" s="127"/>
+      <c r="J83" s="127"/>
       <c r="K83" s="80"/>
       <c r="L83" s="80"/>
-      <c r="N83" s="113"/>
-      <c r="O83" s="113"/>
-      <c r="P83" s="113"/>
+      <c r="N83" s="127"/>
+      <c r="O83" s="127"/>
+      <c r="P83" s="127"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -5094,81 +5706,46 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B90" s="113"/>
-      <c r="C90" s="113"/>
+      <c r="B90" s="127"/>
+      <c r="C90" s="127"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="113"/>
-      <c r="I90" s="113"/>
+      <c r="H90" s="127"/>
+      <c r="I90" s="127"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="113"/>
-      <c r="O90" s="113"/>
+      <c r="N90" s="127"/>
+      <c r="O90" s="127"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="24">
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H24:I24"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N79:P79"/>
-    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="H41:L41"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H39:I39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>% работы</t>
   </si>
@@ -471,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -762,13 +762,42 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -778,15 +807,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -795,43 +815,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,8 +833,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1172,21 +1175,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
       <c r="H1" s="51"/>
-      <c r="I1" s="113" t="s">
+      <c r="I1" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
     </row>
     <row r="2" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -1228,22 +1231,22 @@
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="104" t="s">
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="106"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="110"/>
       <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1489,11 +1492,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="24">
         <f>SUM(E4:E10)</f>
         <v>829712.88</v>
@@ -1514,12 +1517,12 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="110"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
       <c r="H12" s="20"/>
       <c r="I12" s="14"/>
       <c r="J12" s="23"/>
@@ -1532,13 +1535,13 @@
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="115"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="109"/>
       <c r="G13" s="116"/>
       <c r="H13" s="20"/>
       <c r="I13" s="14"/>
@@ -1551,12 +1554,12 @@
       <c r="A14" s="3">
         <v>43439</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="109"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="120"/>
       <c r="H14" s="20"/>
       <c r="I14" s="14"/>
       <c r="J14" s="23"/>
@@ -1591,9 +1594,9 @@
       <c r="E16" s="11"/>
       <c r="F16" s="38"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="106"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="110"/>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
       <c r="M16" s="24"/>
@@ -1605,9 +1608,9 @@
       <c r="E17" s="11"/>
       <c r="F17" s="38"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="112"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="115"/>
       <c r="K17" s="11"/>
       <c r="L17" s="33"/>
       <c r="M17" s="11"/>
@@ -1622,12 +1625,12 @@
       <c r="E18" s="11"/>
       <c r="F18" s="38"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="106"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="110"/>
       <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1716,9 +1719,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="104"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="110"/>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
       <c r="G24" s="24"/>
@@ -1748,12 +1751,12 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="106"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="110"/>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
       <c r="J26" s="23"/>
@@ -1899,9 +1902,9 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="104"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="106"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="110"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
       <c r="G35" s="24"/>
@@ -1931,12 +1934,12 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="106"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="110"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
       <c r="J37" s="23"/>
@@ -2084,9 +2087,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="106"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="110"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
       <c r="G46" s="24"/>
@@ -2116,12 +2119,12 @@
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="106"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="110"/>
       <c r="H48" s="30"/>
       <c r="I48" s="31"/>
       <c r="J48" s="23"/>
@@ -2266,15 +2269,15 @@
       <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="104"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="106"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="110"/>
       <c r="E57" s="24"/>
       <c r="F57" s="25"/>
       <c r="G57" s="24"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="106"/>
+      <c r="H57" s="111"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="110"/>
       <c r="K57" s="24"/>
       <c r="L57" s="25"/>
       <c r="M57" s="24"/>
@@ -2294,12 +2297,12 @@
       <c r="M58" s="11"/>
     </row>
     <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="104"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="105"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="106"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="110"/>
       <c r="H59" s="20"/>
       <c r="I59" s="14"/>
       <c r="J59" s="23"/>
@@ -2311,9 +2314,9 @@
       <c r="A60" s="3">
         <v>43456</v>
       </c>
-      <c r="B60" s="104"/>
-      <c r="C60" s="105"/>
-      <c r="D60" s="106"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="110"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
       <c r="G60" s="24"/>
@@ -2342,11 +2345,11 @@
       <c r="A62" s="3">
         <v>43457</v>
       </c>
-      <c r="B62" s="104"/>
-      <c r="C62" s="105"/>
-      <c r="D62" s="115"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="115"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="109"/>
       <c r="G62" s="116"/>
       <c r="H62" s="20"/>
       <c r="I62" s="14"/>
@@ -2410,9 +2413,9 @@
       <c r="E66" s="11"/>
       <c r="F66" s="38"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="104"/>
-      <c r="I66" s="105"/>
-      <c r="J66" s="106"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="112"/>
+      <c r="J66" s="110"/>
       <c r="K66" s="24"/>
       <c r="L66" s="25"/>
       <c r="M66" s="24"/>
@@ -2441,12 +2444,12 @@
       <c r="E68" s="11"/>
       <c r="F68" s="38"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="119"/>
-      <c r="I68" s="115"/>
-      <c r="J68" s="115"/>
-      <c r="K68" s="115"/>
-      <c r="L68" s="115"/>
-      <c r="M68" s="106"/>
+      <c r="H68" s="108"/>
+      <c r="I68" s="109"/>
+      <c r="J68" s="109"/>
+      <c r="K68" s="109"/>
+      <c r="L68" s="109"/>
+      <c r="M68" s="110"/>
       <c r="N68" s="28"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -2558,9 +2561,9 @@
       <c r="E75" s="11"/>
       <c r="F75" s="38"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="104"/>
-      <c r="I75" s="105"/>
-      <c r="J75" s="106"/>
+      <c r="H75" s="111"/>
+      <c r="I75" s="112"/>
+      <c r="J75" s="110"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
       <c r="M75" s="24"/>
@@ -2580,23 +2583,23 @@
       <c r="M76" s="11"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="104"/>
-      <c r="C77" s="105"/>
-      <c r="D77" s="106"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="110"/>
       <c r="E77" s="24"/>
       <c r="F77" s="25"/>
       <c r="G77" s="24"/>
-      <c r="H77" s="119"/>
-      <c r="I77" s="115"/>
-      <c r="J77" s="115"/>
-      <c r="K77" s="115"/>
-      <c r="L77" s="115"/>
-      <c r="M77" s="106"/>
+      <c r="H77" s="108"/>
+      <c r="I77" s="109"/>
+      <c r="J77" s="109"/>
+      <c r="K77" s="109"/>
+      <c r="L77" s="109"/>
+      <c r="M77" s="110"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="110"/>
-      <c r="C78" s="111"/>
-      <c r="D78" s="112"/>
+      <c r="B78" s="113"/>
+      <c r="C78" s="114"/>
+      <c r="D78" s="115"/>
       <c r="E78" s="11"/>
       <c r="F78" s="33"/>
       <c r="G78" s="11"/>
@@ -2611,11 +2614,11 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="104"/>
-      <c r="C79" s="105"/>
-      <c r="D79" s="115"/>
-      <c r="E79" s="105"/>
-      <c r="F79" s="115"/>
+      <c r="B79" s="111"/>
+      <c r="C79" s="112"/>
+      <c r="D79" s="109"/>
+      <c r="E79" s="112"/>
+      <c r="F79" s="109"/>
       <c r="G79" s="116"/>
       <c r="H79" s="20"/>
       <c r="I79" s="14"/>
@@ -2659,14 +2662,14 @@
       <c r="M81" s="11"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="104"/>
-      <c r="C82" s="105"/>
-      <c r="D82" s="106"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="112"/>
+      <c r="D82" s="110"/>
       <c r="E82" s="24"/>
       <c r="F82" s="25"/>
       <c r="G82" s="24"/>
-      <c r="H82" s="119"/>
-      <c r="I82" s="115"/>
+      <c r="H82" s="108"/>
+      <c r="I82" s="109"/>
       <c r="J82" s="116"/>
       <c r="K82" s="26"/>
       <c r="L82" s="27"/>
@@ -2674,12 +2677,12 @@
       <c r="N82" s="28"/>
     </row>
     <row r="83" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="118"/>
-      <c r="C83" s="118"/>
-      <c r="D83" s="118"/>
-      <c r="E83" s="118"/>
-      <c r="F83" s="118"/>
-      <c r="G83" s="118"/>
+      <c r="B83" s="107"/>
+      <c r="C83" s="107"/>
+      <c r="D83" s="107"/>
+      <c r="E83" s="107"/>
+      <c r="F83" s="107"/>
+      <c r="G83" s="107"/>
       <c r="H83" s="49"/>
       <c r="I83" s="50"/>
       <c r="J83" s="44"/>
@@ -2694,9 +2697,9 @@
       <c r="E84" s="16"/>
       <c r="F84" s="45"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="118"/>
-      <c r="I84" s="118"/>
-      <c r="J84" s="118"/>
+      <c r="H84" s="107"/>
+      <c r="I84" s="107"/>
+      <c r="J84" s="107"/>
       <c r="K84" s="16"/>
       <c r="L84" s="36"/>
       <c r="M84" s="16"/>
@@ -2751,9 +2754,9 @@
       <c r="E88" s="16"/>
       <c r="F88" s="45"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="118"/>
-      <c r="I88" s="118"/>
-      <c r="J88" s="118"/>
+      <c r="H88" s="107"/>
+      <c r="I88" s="107"/>
+      <c r="J88" s="107"/>
       <c r="K88" s="16"/>
       <c r="L88" s="36"/>
       <c r="M88" s="16"/>
@@ -2767,15 +2770,39 @@
       <c r="G89" s="16"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="118"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="118"/>
+      <c r="B90" s="107"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="107"/>
       <c r="E90" s="16"/>
       <c r="F90" s="36"/>
       <c r="G90" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:G59"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="H68:M68"/>
     <mergeCell ref="H75:J75"/>
@@ -2788,30 +2815,6 @@
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="H84:J84"/>
     <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2826,8 +2829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2850,27 +2854,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="H1" s="128" t="s">
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="H1" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="N1" s="128" t="s">
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="N1" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -2920,30 +2924,30 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="131"/>
-      <c r="B3" s="125" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="125" t="s">
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="120" t="s">
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -3525,10 +3529,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="124"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="77">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
@@ -3624,14 +3628,14 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
-      <c r="B16" s="125" t="s">
+      <c r="A16" s="105"/>
+      <c r="B16" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
       <c r="G16" s="73">
         <v>43715</v>
       </c>
@@ -3882,10 +3886,10 @@
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="123" t="s">
+      <c r="N20" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="124"/>
+      <c r="O20" s="131"/>
       <c r="P20" s="77">
         <f>SUM(P4:P19)</f>
         <v>1447623.36</v>
@@ -3979,13 +3983,14 @@
         <f t="shared" si="10"/>
         <v>94770</v>
       </c>
-      <c r="N22" s="120" t="s">
+      <c r="M22" s="105"/>
+      <c r="N22" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="121"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="121"/>
-      <c r="R22" s="121"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="126"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="73">
@@ -4064,10 +4069,10 @@
         <f t="shared" si="18"/>
         <v>106496</v>
       </c>
-      <c r="H24" s="123" t="s">
+      <c r="H24" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="124"/>
+      <c r="I24" s="131"/>
       <c r="J24" s="77">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
@@ -4163,13 +4168,14 @@
         <f t="shared" si="18"/>
         <v>109824</v>
       </c>
-      <c r="H26" s="125" t="s">
+      <c r="G26" s="105"/>
+      <c r="H26" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
       <c r="N26" s="101">
         <v>84240</v>
       </c>
@@ -4304,10 +4310,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="124"/>
+      <c r="C29" s="131"/>
       <c r="D29" s="77">
         <f>SUM(D17:D28)</f>
         <v>1312507.44</v>
@@ -4403,13 +4409,13 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="125" t="s">
+      <c r="B31" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="124"/>
       <c r="G31" s="73">
         <v>43721</v>
       </c>
@@ -4456,21 +4462,21 @@
         <v>43720</v>
       </c>
       <c r="B32" s="74">
-        <v>113040</v>
+        <v>72000</v>
       </c>
       <c r="C32" s="54">
-        <v>0.83</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="D32" s="75">
         <f t="shared" ref="D32" si="27">B32*C32</f>
-        <v>93823.2</v>
+        <v>52704</v>
       </c>
       <c r="E32" s="88">
-        <v>68.846426043878267</v>
+        <v>42.716666666666661</v>
       </c>
       <c r="F32" s="75">
         <f t="shared" ref="F32" si="28">B32*E32/100</f>
-        <v>77823.999999999985</v>
+        <v>30755.999999999996</v>
       </c>
       <c r="H32" s="74">
         <v>144000</v>
@@ -4508,11 +4514,23 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="58"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
+      <c r="B33" s="74">
+        <v>72000</v>
+      </c>
+      <c r="C33" s="54">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D33" s="75">
+        <f t="shared" ref="D33:D43" si="29">B33*C33</f>
+        <v>70200</v>
+      </c>
+      <c r="E33" s="88">
+        <v>93.2</v>
+      </c>
+      <c r="F33" s="75">
+        <f t="shared" ref="F33:F43" si="30">B33*E33/100</f>
+        <v>67104</v>
+      </c>
       <c r="G33" s="73">
         <v>43722</v>
       </c>
@@ -4558,11 +4576,23 @@
       <c r="A34" s="73">
         <v>43721</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
+      <c r="B34" s="74">
+        <v>72000</v>
+      </c>
+      <c r="C34" s="54">
+        <v>0.999</v>
+      </c>
+      <c r="D34" s="75">
+        <f t="shared" si="29"/>
+        <v>71928</v>
+      </c>
+      <c r="E34" s="88">
+        <v>99.024999999999991</v>
+      </c>
+      <c r="F34" s="75">
+        <f t="shared" si="30"/>
+        <v>71297.999999999985</v>
+      </c>
       <c r="H34" s="74">
         <v>144000</v>
       </c>
@@ -4599,11 +4629,23 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="94"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
+      <c r="B35" s="74">
+        <v>72000</v>
+      </c>
+      <c r="C35" s="54">
+        <v>0.97</v>
+      </c>
+      <c r="D35" s="75">
+        <f t="shared" si="29"/>
+        <v>69840</v>
+      </c>
+      <c r="E35" s="88">
+        <v>91.258333333333326</v>
+      </c>
+      <c r="F35" s="75">
+        <f t="shared" si="30"/>
+        <v>65705.999999999985</v>
+      </c>
       <c r="G35" s="73">
         <v>43723</v>
       </c>
@@ -4646,11 +4688,26 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="74"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
+      <c r="A36" s="73">
+        <v>43722</v>
+      </c>
+      <c r="B36" s="74">
+        <v>72000</v>
+      </c>
+      <c r="C36" s="54">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D36" s="75">
+        <f t="shared" si="29"/>
+        <v>70920</v>
+      </c>
+      <c r="E36" s="88">
+        <v>93.2</v>
+      </c>
+      <c r="F36" s="75">
+        <f t="shared" si="30"/>
+        <v>67104</v>
+      </c>
       <c r="H36" s="74">
         <v>144000</v>
       </c>
@@ -4687,11 +4744,23 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
+      <c r="B37" s="74">
+        <v>72000</v>
+      </c>
+      <c r="C37" s="54">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D37" s="75">
+        <f t="shared" si="29"/>
+        <v>68760</v>
+      </c>
+      <c r="E37" s="88">
+        <v>91.258333333333326</v>
+      </c>
+      <c r="F37" s="75">
+        <f t="shared" si="30"/>
+        <v>65705.999999999985</v>
+      </c>
       <c r="G37" s="73">
         <v>43724</v>
       </c>
@@ -4712,10 +4781,10 @@
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N37" s="122" t="s">
+      <c r="N37" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="122"/>
+      <c r="O37" s="132"/>
       <c r="P37" s="77">
         <f>SUM(P23:P36)</f>
         <v>1133003.52</v>
@@ -4731,13 +4800,25 @@
     </row>
     <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="73">
-        <v>43722</v>
-      </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
+        <v>43723</v>
+      </c>
+      <c r="B38" s="74">
+        <v>72000</v>
+      </c>
+      <c r="C38" s="54">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D38" s="75">
+        <f t="shared" si="29"/>
+        <v>70416</v>
+      </c>
+      <c r="E38" s="88">
+        <v>93.2</v>
+      </c>
+      <c r="F38" s="75">
+        <f t="shared" si="30"/>
+        <v>67104</v>
+      </c>
       <c r="H38" s="74">
         <v>144000</v>
       </c>
@@ -4760,15 +4841,27 @@
       <c r="P38" s="60"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="58"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="H39" s="123" t="s">
+      <c r="B39" s="74">
+        <v>72000</v>
+      </c>
+      <c r="C39" s="54">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="D39" s="75">
+        <f t="shared" si="29"/>
+        <v>69480</v>
+      </c>
+      <c r="E39" s="88">
+        <v>91.258333333333326</v>
+      </c>
+      <c r="F39" s="75">
+        <f t="shared" si="30"/>
+        <v>65705.999999999985</v>
+      </c>
+      <c r="H39" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="124"/>
+      <c r="I39" s="131"/>
       <c r="J39" s="77">
         <f>SUM(J27:J38)</f>
         <v>1647216</v>
@@ -4781,23 +4874,35 @@
         <f>SUM(L27:L38)</f>
         <v>1512490</v>
       </c>
-      <c r="N39" s="120" t="s">
+      <c r="N39" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="O39" s="121"/>
-      <c r="P39" s="121"/>
-      <c r="Q39" s="121"/>
-      <c r="R39" s="121"/>
+      <c r="O39" s="126"/>
+      <c r="P39" s="126"/>
+      <c r="Q39" s="126"/>
+      <c r="R39" s="126"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="73">
-        <v>43723</v>
-      </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
+        <v>43724</v>
+      </c>
+      <c r="B40" s="74">
+        <v>72000</v>
+      </c>
+      <c r="C40" s="54">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="D40" s="75">
+        <f t="shared" si="29"/>
+        <v>69912</v>
+      </c>
+      <c r="E40" s="88">
+        <v>91.258333333333326</v>
+      </c>
+      <c r="F40" s="75">
+        <f t="shared" si="30"/>
+        <v>65705.999999999985</v>
+      </c>
       <c r="H40" s="58"/>
       <c r="I40" s="54"/>
       <c r="J40" s="60"/>
@@ -4813,43 +4918,67 @@
         <v>0.89300000000000002</v>
       </c>
       <c r="P40" s="75">
-        <f t="shared" ref="P40" si="29">N40*O40</f>
+        <f t="shared" ref="P40" si="31">N40*O40</f>
         <v>75226.320000000007</v>
       </c>
       <c r="Q40" s="88">
         <v>64.038461538461533</v>
       </c>
       <c r="R40" s="75">
-        <f t="shared" ref="R40" si="30">N40*Q40/100</f>
+        <f t="shared" ref="R40" si="32">N40*Q40/100</f>
         <v>53946</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="58"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="H41" s="125" t="s">
+      <c r="B41" s="74">
+        <v>72000</v>
+      </c>
+      <c r="C41" s="54">
+        <v>0.98</v>
+      </c>
+      <c r="D41" s="75">
+        <f t="shared" si="29"/>
+        <v>70560</v>
+      </c>
+      <c r="E41" s="88">
+        <v>93.2</v>
+      </c>
+      <c r="F41" s="75">
+        <f t="shared" si="30"/>
+        <v>67104</v>
+      </c>
+      <c r="H41" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="126"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="124"/>
       <c r="N41" s="58"/>
       <c r="O41" s="54"/>
       <c r="P41" s="60"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="73">
-        <v>43724</v>
-      </c>
-      <c r="B42" s="58"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
+        <v>43725</v>
+      </c>
+      <c r="B42" s="74">
+        <v>72000</v>
+      </c>
+      <c r="C42" s="54">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D42" s="75">
+        <f t="shared" si="29"/>
+        <v>69984</v>
+      </c>
+      <c r="E42" s="88">
+        <v>93.2</v>
+      </c>
+      <c r="F42" s="75">
+        <f t="shared" si="30"/>
+        <v>67104</v>
+      </c>
       <c r="G42" s="73">
         <v>43725</v>
       </c>
@@ -4860,14 +4989,14 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="J42" s="75">
-        <f t="shared" ref="J42" si="31">H42*I42</f>
+        <f t="shared" ref="J42" si="33">H42*I42</f>
         <v>99187.199999999997</v>
       </c>
       <c r="K42" s="100">
         <v>97.633928571428569</v>
       </c>
       <c r="L42" s="75">
-        <f t="shared" ref="L42" si="32">H42*K42/100</f>
+        <f t="shared" ref="L42" si="34">H42*K42/100</f>
         <v>98415</v>
       </c>
       <c r="M42" s="73">
@@ -4878,11 +5007,23 @@
       <c r="P42" s="60"/>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="58"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
+      <c r="B43" s="74">
+        <v>72000</v>
+      </c>
+      <c r="C43" s="54">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D43" s="75">
+        <f t="shared" si="29"/>
+        <v>71136</v>
+      </c>
+      <c r="E43" s="88">
+        <v>93.2</v>
+      </c>
+      <c r="F43" s="75">
+        <f t="shared" si="30"/>
+        <v>67104</v>
+      </c>
       <c r="H43" s="58"/>
       <c r="I43" s="54"/>
       <c r="J43" s="60"/>
@@ -4893,14 +5034,22 @@
       <c r="P43" s="60"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="73">
-        <v>43725</v>
-      </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
+      <c r="B44" s="130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="131"/>
+      <c r="D44" s="104">
+        <f>SUM(D32:D43)</f>
+        <v>825840</v>
+      </c>
+      <c r="E44" s="89">
+        <f>F44/D44</f>
+        <v>0.92935919790758503</v>
+      </c>
+      <c r="F44" s="90">
+        <f>SUM(F32:F43)</f>
+        <v>767502</v>
+      </c>
       <c r="H44" s="58"/>
       <c r="I44" s="54"/>
       <c r="J44" s="60"/>
@@ -5598,19 +5747,19 @@
       <c r="P82" s="77"/>
     </row>
     <row r="83" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="127"/>
-      <c r="C83" s="127"/>
-      <c r="D83" s="127"/>
+      <c r="B83" s="129"/>
+      <c r="C83" s="129"/>
+      <c r="D83" s="129"/>
       <c r="E83" s="80"/>
       <c r="F83" s="80"/>
-      <c r="H83" s="127"/>
-      <c r="I83" s="127"/>
-      <c r="J83" s="127"/>
+      <c r="H83" s="129"/>
+      <c r="I83" s="129"/>
+      <c r="J83" s="129"/>
       <c r="K83" s="80"/>
       <c r="L83" s="80"/>
-      <c r="N83" s="127"/>
-      <c r="O83" s="127"/>
-      <c r="P83" s="127"/>
+      <c r="N83" s="129"/>
+      <c r="O83" s="129"/>
+      <c r="P83" s="129"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -5706,35 +5855,22 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B90" s="127"/>
-      <c r="C90" s="127"/>
+      <c r="B90" s="129"/>
+      <c r="C90" s="129"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="127"/>
-      <c r="I90" s="127"/>
+      <c r="H90" s="129"/>
+      <c r="I90" s="129"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="127"/>
-      <c r="O90" s="127"/>
+      <c r="N90" s="129"/>
+      <c r="O90" s="129"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="H41:L41"/>
+  <mergeCells count="25">
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B16:F16"/>
@@ -5746,6 +5882,20 @@
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>% работы</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>XXI-КПМ-30-1-700 (Сваяк 0.7 л.)</t>
+  </si>
+  <si>
+    <t>XXI-B-28-2-500-27 (Евроторг 0.5 л.)</t>
+  </si>
+  <si>
+    <t>XXI-B-28-2-500-28 (Калина 0.5 л.)</t>
+  </si>
+  <si>
+    <t>XХI-В-‎30-4-500-3 (Иван Купала)</t>
+  </si>
+  <si>
+    <t>ХХI-В-28-2-350-1 (Калина 0.35 л.)</t>
   </si>
 </sst>
 </file>
@@ -218,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -466,12 +478,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -762,27 +785,27 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,21 +815,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,16 +823,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,18 +868,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1175,21 +1229,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
       <c r="H1" s="51"/>
-      <c r="I1" s="121" t="s">
+      <c r="I1" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
     </row>
     <row r="2" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -1231,22 +1285,22 @@
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="111" t="s">
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="110"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="109"/>
       <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1492,11 +1546,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="110"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="109"/>
       <c r="E11" s="24">
         <f>SUM(E4:E10)</f>
         <v>829712.88</v>
@@ -1535,14 +1589,14 @@
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="116"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="119"/>
       <c r="H13" s="20"/>
       <c r="I13" s="14"/>
       <c r="J13" s="23"/>
@@ -1554,12 +1608,12 @@
       <c r="A14" s="3">
         <v>43439</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="120"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="112"/>
       <c r="H14" s="20"/>
       <c r="I14" s="14"/>
       <c r="J14" s="23"/>
@@ -1594,9 +1648,9 @@
       <c r="E16" s="11"/>
       <c r="F16" s="38"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="110"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="109"/>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
       <c r="M16" s="24"/>
@@ -1625,12 +1679,12 @@
       <c r="E18" s="11"/>
       <c r="F18" s="38"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="110"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="109"/>
       <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1719,9 +1773,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="110"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="109"/>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
       <c r="G24" s="24"/>
@@ -1751,12 +1805,12 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="110"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="109"/>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
       <c r="J26" s="23"/>
@@ -1902,9 +1956,9 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="111"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="110"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="109"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
       <c r="G35" s="24"/>
@@ -1934,12 +1988,12 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="110"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="109"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
       <c r="J37" s="23"/>
@@ -2087,9 +2141,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="111"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="110"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="109"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
       <c r="G46" s="24"/>
@@ -2119,12 +2173,12 @@
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="112"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="110"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="109"/>
       <c r="H48" s="30"/>
       <c r="I48" s="31"/>
       <c r="J48" s="23"/>
@@ -2269,15 +2323,15 @@
       <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="111"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="110"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="109"/>
       <c r="E57" s="24"/>
       <c r="F57" s="25"/>
       <c r="G57" s="24"/>
-      <c r="H57" s="111"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="110"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="108"/>
+      <c r="J57" s="109"/>
       <c r="K57" s="24"/>
       <c r="L57" s="25"/>
       <c r="M57" s="24"/>
@@ -2297,12 +2351,12 @@
       <c r="M58" s="11"/>
     </row>
     <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="111"/>
-      <c r="C59" s="112"/>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="110"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="109"/>
       <c r="H59" s="20"/>
       <c r="I59" s="14"/>
       <c r="J59" s="23"/>
@@ -2314,9 +2368,9 @@
       <c r="A60" s="3">
         <v>43456</v>
       </c>
-      <c r="B60" s="111"/>
-      <c r="C60" s="112"/>
-      <c r="D60" s="110"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="109"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
       <c r="G60" s="24"/>
@@ -2328,12 +2382,12 @@
       <c r="M60" s="11"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="117"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="117"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="120"/>
+      <c r="E61" s="120"/>
+      <c r="F61" s="120"/>
+      <c r="G61" s="120"/>
       <c r="H61" s="20"/>
       <c r="I61" s="14"/>
       <c r="J61" s="23"/>
@@ -2345,12 +2399,12 @@
       <c r="A62" s="3">
         <v>43457</v>
       </c>
-      <c r="B62" s="111"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="109"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="109"/>
-      <c r="G62" s="116"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="119"/>
       <c r="H62" s="20"/>
       <c r="I62" s="14"/>
       <c r="J62" s="23"/>
@@ -2413,9 +2467,9 @@
       <c r="E66" s="11"/>
       <c r="F66" s="38"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="111"/>
-      <c r="I66" s="112"/>
-      <c r="J66" s="110"/>
+      <c r="H66" s="107"/>
+      <c r="I66" s="108"/>
+      <c r="J66" s="109"/>
       <c r="K66" s="24"/>
       <c r="L66" s="25"/>
       <c r="M66" s="24"/>
@@ -2444,12 +2498,12 @@
       <c r="E68" s="11"/>
       <c r="F68" s="38"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="108"/>
-      <c r="I68" s="109"/>
-      <c r="J68" s="109"/>
-      <c r="K68" s="109"/>
-      <c r="L68" s="109"/>
-      <c r="M68" s="110"/>
+      <c r="H68" s="122"/>
+      <c r="I68" s="118"/>
+      <c r="J68" s="118"/>
+      <c r="K68" s="118"/>
+      <c r="L68" s="118"/>
+      <c r="M68" s="109"/>
       <c r="N68" s="28"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -2561,9 +2615,9 @@
       <c r="E75" s="11"/>
       <c r="F75" s="38"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="111"/>
-      <c r="I75" s="112"/>
-      <c r="J75" s="110"/>
+      <c r="H75" s="107"/>
+      <c r="I75" s="108"/>
+      <c r="J75" s="109"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
       <c r="M75" s="24"/>
@@ -2583,18 +2637,18 @@
       <c r="M76" s="11"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="111"/>
-      <c r="C77" s="112"/>
-      <c r="D77" s="110"/>
+      <c r="B77" s="107"/>
+      <c r="C77" s="108"/>
+      <c r="D77" s="109"/>
       <c r="E77" s="24"/>
       <c r="F77" s="25"/>
       <c r="G77" s="24"/>
-      <c r="H77" s="108"/>
-      <c r="I77" s="109"/>
-      <c r="J77" s="109"/>
-      <c r="K77" s="109"/>
-      <c r="L77" s="109"/>
-      <c r="M77" s="110"/>
+      <c r="H77" s="122"/>
+      <c r="I77" s="118"/>
+      <c r="J77" s="118"/>
+      <c r="K77" s="118"/>
+      <c r="L77" s="118"/>
+      <c r="M77" s="109"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B78" s="113"/>
@@ -2614,12 +2668,12 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="111"/>
-      <c r="C79" s="112"/>
-      <c r="D79" s="109"/>
-      <c r="E79" s="112"/>
-      <c r="F79" s="109"/>
-      <c r="G79" s="116"/>
+      <c r="B79" s="107"/>
+      <c r="C79" s="108"/>
+      <c r="D79" s="118"/>
+      <c r="E79" s="108"/>
+      <c r="F79" s="118"/>
+      <c r="G79" s="119"/>
       <c r="H79" s="20"/>
       <c r="I79" s="14"/>
       <c r="J79" s="23"/>
@@ -2662,27 +2716,27 @@
       <c r="M81" s="11"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="111"/>
-      <c r="C82" s="112"/>
-      <c r="D82" s="110"/>
+      <c r="B82" s="107"/>
+      <c r="C82" s="108"/>
+      <c r="D82" s="109"/>
       <c r="E82" s="24"/>
       <c r="F82" s="25"/>
       <c r="G82" s="24"/>
-      <c r="H82" s="108"/>
-      <c r="I82" s="109"/>
-      <c r="J82" s="116"/>
+      <c r="H82" s="122"/>
+      <c r="I82" s="118"/>
+      <c r="J82" s="119"/>
       <c r="K82" s="26"/>
       <c r="L82" s="27"/>
       <c r="M82" s="26"/>
       <c r="N82" s="28"/>
     </row>
     <row r="83" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="107"/>
-      <c r="C83" s="107"/>
-      <c r="D83" s="107"/>
-      <c r="E83" s="107"/>
-      <c r="F83" s="107"/>
-      <c r="G83" s="107"/>
+      <c r="B83" s="121"/>
+      <c r="C83" s="121"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="121"/>
+      <c r="F83" s="121"/>
+      <c r="G83" s="121"/>
       <c r="H83" s="49"/>
       <c r="I83" s="50"/>
       <c r="J83" s="44"/>
@@ -2697,9 +2751,9 @@
       <c r="E84" s="16"/>
       <c r="F84" s="45"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="107"/>
-      <c r="I84" s="107"/>
-      <c r="J84" s="107"/>
+      <c r="H84" s="121"/>
+      <c r="I84" s="121"/>
+      <c r="J84" s="121"/>
       <c r="K84" s="16"/>
       <c r="L84" s="36"/>
       <c r="M84" s="16"/>
@@ -2754,9 +2808,9 @@
       <c r="E88" s="16"/>
       <c r="F88" s="45"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="107"/>
-      <c r="I88" s="107"/>
-      <c r="J88" s="107"/>
+      <c r="H88" s="121"/>
+      <c r="I88" s="121"/>
+      <c r="J88" s="121"/>
       <c r="K88" s="16"/>
       <c r="L88" s="36"/>
       <c r="M88" s="16"/>
@@ -2770,39 +2824,15 @@
       <c r="G89" s="16"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="107"/>
-      <c r="C90" s="107"/>
-      <c r="D90" s="107"/>
+      <c r="B90" s="121"/>
+      <c r="C90" s="121"/>
+      <c r="D90" s="121"/>
       <c r="E90" s="16"/>
       <c r="F90" s="36"/>
       <c r="G90" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B59:G59"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="H68:M68"/>
     <mergeCell ref="H75:J75"/>
@@ -2815,6 +2845,30 @@
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="H84:J84"/>
     <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2829,23 +2883,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32:E43"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="62" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="63" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="63" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="63" customWidth="1"/>
     <col min="4" max="6" width="11.6640625" style="63" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" style="62" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="63" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="63" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" style="63" customWidth="1"/>
     <col min="10" max="12" width="11.6640625" style="63" customWidth="1"/>
     <col min="13" max="13" width="11.5546875" style="62" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" style="63" customWidth="1"/>
+    <col min="14" max="14" width="11" style="63" customWidth="1"/>
     <col min="15" max="15" width="10.6640625" style="63" customWidth="1"/>
     <col min="16" max="16" width="13.44140625" style="63" customWidth="1"/>
     <col min="17" max="17" width="8.33203125" style="63" bestFit="1" customWidth="1"/>
@@ -2854,27 +2908,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="H1" s="127" t="s">
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="H1" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="N1" s="127" t="s">
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="N1" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -2924,30 +2978,30 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="106"/>
-      <c r="B3" s="123" t="s">
+      <c r="A3" s="105"/>
+      <c r="B3" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="123" t="s">
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="125" t="s">
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -3529,10 +3583,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="131"/>
+      <c r="C14" s="124"/>
       <c r="D14" s="77">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
@@ -3628,14 +3682,14 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="105"/>
-      <c r="B16" s="123" t="s">
+      <c r="A16" s="104"/>
+      <c r="B16" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
       <c r="G16" s="73">
         <v>43715</v>
       </c>
@@ -3886,10 +3940,10 @@
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="130" t="s">
+      <c r="N20" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="131"/>
+      <c r="O20" s="124"/>
       <c r="P20" s="77">
         <f>SUM(P4:P19)</f>
         <v>1447623.36</v>
@@ -3983,14 +4037,14 @@
         <f t="shared" si="10"/>
         <v>94770</v>
       </c>
-      <c r="M22" s="105"/>
-      <c r="N22" s="125" t="s">
+      <c r="M22" s="104"/>
+      <c r="N22" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="126"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="126"/>
+      <c r="O22" s="129"/>
+      <c r="P22" s="129"/>
+      <c r="Q22" s="129"/>
+      <c r="R22" s="129"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="73">
@@ -4069,10 +4123,10 @@
         <f t="shared" si="18"/>
         <v>106496</v>
       </c>
-      <c r="H24" s="130" t="s">
+      <c r="H24" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="131"/>
+      <c r="I24" s="124"/>
       <c r="J24" s="77">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
@@ -4168,14 +4222,14 @@
         <f t="shared" si="18"/>
         <v>109824</v>
       </c>
-      <c r="G26" s="105"/>
-      <c r="H26" s="123" t="s">
+      <c r="G26" s="104"/>
+      <c r="H26" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="126"/>
       <c r="N26" s="101">
         <v>84240</v>
       </c>
@@ -4310,10 +4364,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="130" t="s">
+      <c r="B29" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="131"/>
+      <c r="C29" s="124"/>
       <c r="D29" s="77">
         <f>SUM(D17:D28)</f>
         <v>1312507.44</v>
@@ -4409,13 +4463,14 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="123" t="s">
+      <c r="A31" s="104"/>
+      <c r="B31" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
       <c r="G31" s="73">
         <v>43721</v>
       </c>
@@ -4781,10 +4836,10 @@
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N37" s="132" t="s">
+      <c r="N37" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="132"/>
+      <c r="O37" s="130"/>
       <c r="P37" s="77">
         <f>SUM(P23:P36)</f>
         <v>1133003.52</v>
@@ -4858,10 +4913,10 @@
         <f t="shared" si="30"/>
         <v>65705.999999999985</v>
       </c>
-      <c r="H39" s="130" t="s">
+      <c r="H39" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="131"/>
+      <c r="I39" s="124"/>
       <c r="J39" s="77">
         <f>SUM(J27:J38)</f>
         <v>1647216</v>
@@ -4874,13 +4929,14 @@
         <f>SUM(L27:L38)</f>
         <v>1512490</v>
       </c>
-      <c r="N39" s="125" t="s">
+      <c r="M39" s="104"/>
+      <c r="N39" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="O39" s="126"/>
-      <c r="P39" s="126"/>
-      <c r="Q39" s="126"/>
-      <c r="R39" s="126"/>
+      <c r="O39" s="129"/>
+      <c r="P39" s="129"/>
+      <c r="Q39" s="129"/>
+      <c r="R39" s="129"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="73">
@@ -4912,21 +4968,21 @@
         <v>43724</v>
       </c>
       <c r="N40" s="101">
-        <v>84240</v>
+        <v>64080</v>
       </c>
       <c r="O40" s="10">
-        <v>0.89300000000000002</v>
+        <v>0.877</v>
       </c>
       <c r="P40" s="75">
         <f t="shared" ref="P40" si="31">N40*O40</f>
-        <v>75226.320000000007</v>
+        <v>56198.16</v>
       </c>
       <c r="Q40" s="88">
-        <v>64.038461538461533</v>
+        <v>48.033707865168537</v>
       </c>
       <c r="R40" s="75">
         <f t="shared" ref="R40" si="32">N40*Q40/100</f>
-        <v>53946</v>
+        <v>30780</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -4947,16 +5003,30 @@
         <f t="shared" si="30"/>
         <v>67104</v>
       </c>
-      <c r="H41" s="123" t="s">
+      <c r="H41" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="60"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="126"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="126"/>
+      <c r="N41" s="101">
+        <v>64080</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="P41" s="75">
+        <f t="shared" ref="P41:P47" si="33">N41*O41</f>
+        <v>62542.080000000002</v>
+      </c>
+      <c r="Q41" s="88">
+        <v>93.398876404494374</v>
+      </c>
+      <c r="R41" s="75">
+        <f t="shared" ref="R41:R47" si="34">N41*Q41/100</f>
+        <v>59849.999999999993</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="73">
@@ -4989,22 +5059,36 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="J42" s="75">
-        <f t="shared" ref="J42" si="33">H42*I42</f>
+        <f t="shared" ref="J42" si="35">H42*I42</f>
         <v>99187.199999999997</v>
       </c>
       <c r="K42" s="100">
         <v>97.633928571428569</v>
       </c>
       <c r="L42" s="75">
-        <f t="shared" ref="L42" si="34">H42*K42/100</f>
+        <f t="shared" ref="L42" si="36">H42*K42/100</f>
         <v>98415</v>
       </c>
       <c r="M42" s="73">
         <v>43725</v>
       </c>
-      <c r="N42" s="58"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="60"/>
+      <c r="N42" s="101">
+        <v>64080</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="P42" s="75">
+        <f t="shared" si="33"/>
+        <v>60811.92</v>
+      </c>
+      <c r="Q42" s="88">
+        <v>85.393258426966284</v>
+      </c>
+      <c r="R42" s="75">
+        <f t="shared" si="34"/>
+        <v>54719.999999999993</v>
+      </c>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="74">
@@ -5029,24 +5113,38 @@
       <c r="J43" s="60"/>
       <c r="K43" s="79"/>
       <c r="L43" s="79"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="60"/>
+      <c r="N43" s="101">
+        <v>64080</v>
+      </c>
+      <c r="O43" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="P43" s="75">
+        <f t="shared" si="33"/>
+        <v>63311.040000000001</v>
+      </c>
+      <c r="Q43" s="88">
+        <v>93.398876404494374</v>
+      </c>
+      <c r="R43" s="75">
+        <f t="shared" si="34"/>
+        <v>59849.999999999993</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="130" t="s">
+      <c r="B44" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="131"/>
-      <c r="D44" s="104">
+      <c r="C44" s="124"/>
+      <c r="D44" s="133">
         <f>SUM(D32:D43)</f>
         <v>825840</v>
       </c>
-      <c r="E44" s="89">
+      <c r="E44" s="134">
         <f>F44/D44</f>
         <v>0.92935919790758503</v>
       </c>
-      <c r="F44" s="90">
+      <c r="F44" s="135">
         <f>SUM(F32:F43)</f>
         <v>767502</v>
       </c>
@@ -5055,79 +5153,195 @@
       <c r="J44" s="60"/>
       <c r="K44" s="79"/>
       <c r="L44" s="79"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="60"/>
+      <c r="M44" s="73">
+        <v>43726</v>
+      </c>
+      <c r="N44" s="101">
+        <v>64080</v>
+      </c>
+      <c r="O44" s="10">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="P44" s="75">
+        <f t="shared" si="33"/>
+        <v>60427.439999999995</v>
+      </c>
+      <c r="Q44" s="88">
+        <v>82.724719101123597</v>
+      </c>
+      <c r="R44" s="75">
+        <f t="shared" si="34"/>
+        <v>53010</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="58"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="138"/>
       <c r="H45" s="58"/>
       <c r="I45" s="54"/>
       <c r="J45" s="60"/>
       <c r="K45" s="79"/>
       <c r="L45" s="79"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="60"/>
+      <c r="N45" s="101">
+        <v>65520</v>
+      </c>
+      <c r="O45" s="10">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="P45" s="75">
+        <f t="shared" si="33"/>
+        <v>63750.96</v>
+      </c>
+      <c r="Q45" s="88">
+        <v>88.736263736263737</v>
+      </c>
+      <c r="R45" s="75">
+        <f t="shared" si="34"/>
+        <v>58140</v>
+      </c>
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="94"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
+      <c r="B46" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
       <c r="H46" s="94"/>
       <c r="I46" s="95"/>
       <c r="J46" s="77"/>
       <c r="K46" s="81"/>
       <c r="L46" s="81"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="77"/>
+      <c r="M46" s="73">
+        <v>43727</v>
+      </c>
+      <c r="N46" s="101">
+        <v>65520</v>
+      </c>
+      <c r="O46" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="P46" s="75">
+        <f t="shared" si="33"/>
+        <v>64209.599999999999</v>
+      </c>
+      <c r="Q46" s="88">
+        <v>93.956043956043956</v>
+      </c>
+      <c r="R46" s="75">
+        <f t="shared" si="34"/>
+        <v>61560</v>
+      </c>
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="74"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
+      <c r="A47" s="73">
+        <v>43726</v>
+      </c>
+      <c r="B47" s="101">
+        <v>79200</v>
+      </c>
+      <c r="C47" s="54">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="D47" s="75">
+        <f t="shared" ref="D47" si="37">B47*C47</f>
+        <v>70923.599999999991</v>
+      </c>
+      <c r="E47" s="88">
+        <v>45.151515151515156</v>
+      </c>
+      <c r="F47" s="75">
+        <f t="shared" ref="F47" si="38">B47*E47/100</f>
+        <v>35760.000000000007</v>
+      </c>
       <c r="H47" s="74"/>
       <c r="I47" s="54"/>
       <c r="J47" s="75"/>
       <c r="K47" s="79"/>
       <c r="L47" s="79"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="75"/>
+      <c r="N47" s="101">
+        <v>65520</v>
+      </c>
+      <c r="O47" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="P47" s="75">
+        <f t="shared" si="33"/>
+        <v>65454.48</v>
+      </c>
+      <c r="Q47" s="88">
+        <v>99.175824175824175</v>
+      </c>
+      <c r="R47" s="75">
+        <f t="shared" si="34"/>
+        <v>64980</v>
+      </c>
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
+      <c r="B48" s="101">
+        <v>86400</v>
+      </c>
+      <c r="C48" s="54">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="D48" s="75">
+        <f t="shared" ref="D48:D58" si="39">B48*C48</f>
+        <v>85276.800000000003</v>
+      </c>
+      <c r="E48" s="88">
+        <v>94.8125</v>
+      </c>
+      <c r="F48" s="75">
+        <f t="shared" ref="F48:F58" si="40">B48*E48/100</f>
+        <v>81918</v>
+      </c>
       <c r="H48" s="94"/>
       <c r="I48" s="94"/>
       <c r="J48" s="94"/>
       <c r="K48" s="93"/>
       <c r="L48" s="93"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="94"/>
-      <c r="P48" s="94"/>
-    </row>
-    <row r="49" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N48" s="130" t="s">
+        <v>1</v>
+      </c>
+      <c r="O48" s="130"/>
+      <c r="P48" s="106">
+        <f>SUM(P40:P47)</f>
+        <v>496705.68</v>
+      </c>
+      <c r="Q48" s="89">
+        <f>R48/P48</f>
+        <v>0.89165479243160661</v>
+      </c>
+      <c r="R48" s="90">
+        <f>SUM(R40:R47)</f>
+        <v>442890</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="73">
-        <v>43726</v>
-      </c>
-      <c r="B49" s="58"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
+        <v>43727</v>
+      </c>
+      <c r="B49" s="101">
+        <v>86400</v>
+      </c>
+      <c r="C49" s="54">
+        <v>0.99</v>
+      </c>
+      <c r="D49" s="75">
+        <f t="shared" si="39"/>
+        <v>85536</v>
+      </c>
+      <c r="E49" s="88">
+        <v>97.125</v>
+      </c>
+      <c r="F49" s="75">
+        <f t="shared" si="40"/>
+        <v>83916</v>
+      </c>
       <c r="G49" s="73">
         <v>43726</v>
       </c>
@@ -5136,37 +5350,63 @@
       <c r="J49" s="60"/>
       <c r="K49" s="79"/>
       <c r="L49" s="79"/>
-      <c r="M49" s="73">
-        <v>43726</v>
-      </c>
       <c r="N49" s="58"/>
       <c r="O49" s="54"/>
       <c r="P49" s="60"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="58"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="101">
+        <v>86400</v>
+      </c>
+      <c r="C50" s="54">
+        <v>0.999</v>
+      </c>
+      <c r="D50" s="75">
+        <f t="shared" si="39"/>
+        <v>86313.600000000006</v>
+      </c>
+      <c r="E50" s="88">
+        <v>97.125</v>
+      </c>
+      <c r="F50" s="75">
+        <f t="shared" si="40"/>
+        <v>83916</v>
+      </c>
       <c r="H50" s="58"/>
       <c r="I50" s="54"/>
       <c r="J50" s="60"/>
       <c r="K50" s="79"/>
       <c r="L50" s="79"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="60"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M50" s="104"/>
+      <c r="N50" s="128" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="129"/>
+      <c r="P50" s="129"/>
+      <c r="Q50" s="129"/>
+      <c r="R50" s="129"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="73">
-        <v>43727</v>
-      </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
+        <v>43728</v>
+      </c>
+      <c r="B51" s="101">
+        <v>86400</v>
+      </c>
+      <c r="C51" s="54">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D51" s="75">
+        <f t="shared" si="39"/>
+        <v>85017.600000000006</v>
+      </c>
+      <c r="E51" s="88">
+        <v>90.1875</v>
+      </c>
+      <c r="F51" s="75">
+        <f t="shared" si="40"/>
+        <v>77922</v>
+      </c>
       <c r="G51" s="73">
         <v>43727</v>
       </c>
@@ -5176,36 +5416,88 @@
       <c r="K51" s="79"/>
       <c r="L51" s="79"/>
       <c r="M51" s="73">
-        <v>43727</v>
-      </c>
-      <c r="N51" s="58"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="60"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="58"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
+        <v>43728</v>
+      </c>
+      <c r="N51" s="101">
+        <v>77040</v>
+      </c>
+      <c r="O51" s="10">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="P51" s="75">
+        <f t="shared" ref="P51" si="41">N51*O51</f>
+        <v>70183.44</v>
+      </c>
+      <c r="Q51" s="88">
+        <v>75.700934579439249</v>
+      </c>
+      <c r="R51" s="75">
+        <f t="shared" ref="R51" si="42">N51*Q51/100</f>
+        <v>58320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B52" s="101">
+        <v>86400</v>
+      </c>
+      <c r="C52" s="54">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D52" s="75">
+        <f t="shared" si="39"/>
+        <v>84931.199999999997</v>
+      </c>
+      <c r="E52" s="88">
+        <v>92.5</v>
+      </c>
+      <c r="F52" s="75">
+        <f t="shared" si="40"/>
+        <v>79920</v>
+      </c>
       <c r="H52" s="58"/>
       <c r="I52" s="54"/>
       <c r="J52" s="60"/>
       <c r="K52" s="79"/>
       <c r="L52" s="79"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="60"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N52" s="101">
+        <v>77040</v>
+      </c>
+      <c r="O52" s="10">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P52" s="75">
+        <f t="shared" ref="P52:P56" si="43">N52*O52</f>
+        <v>74651.759999999995</v>
+      </c>
+      <c r="Q52" s="88">
+        <v>88.94859813084112</v>
+      </c>
+      <c r="R52" s="75">
+        <f t="shared" ref="R52:R56" si="44">N52*Q52/100</f>
+        <v>68526</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="73">
-        <v>43728</v>
-      </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
+        <v>43729</v>
+      </c>
+      <c r="B53" s="101">
+        <v>86400</v>
+      </c>
+      <c r="C53" s="54">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D53" s="75">
+        <f t="shared" si="39"/>
+        <v>85363.199999999997</v>
+      </c>
+      <c r="E53" s="88">
+        <v>94.8125</v>
+      </c>
+      <c r="F53" s="75">
+        <f t="shared" si="40"/>
+        <v>81918</v>
+      </c>
       <c r="G53" s="73">
         <v>43728</v>
       </c>
@@ -5215,36 +5507,88 @@
       <c r="K53" s="79"/>
       <c r="L53" s="79"/>
       <c r="M53" s="73">
-        <v>43728</v>
-      </c>
-      <c r="N53" s="58"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="60"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="58"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
+        <v>43729</v>
+      </c>
+      <c r="N53" s="101">
+        <v>77040</v>
+      </c>
+      <c r="O53" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="P53" s="75">
+        <f t="shared" si="43"/>
+        <v>74728.800000000003</v>
+      </c>
+      <c r="Q53" s="88">
+        <v>92.733644859813083</v>
+      </c>
+      <c r="R53" s="75">
+        <f t="shared" si="44"/>
+        <v>71442</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B54" s="101">
+        <v>86400</v>
+      </c>
+      <c r="C54" s="54">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="D54" s="75">
+        <f t="shared" si="39"/>
+        <v>85276.800000000003</v>
+      </c>
+      <c r="E54" s="88">
+        <v>94.8125</v>
+      </c>
+      <c r="F54" s="75">
+        <f t="shared" si="40"/>
+        <v>81918</v>
+      </c>
       <c r="H54" s="58"/>
       <c r="I54" s="54"/>
       <c r="J54" s="60"/>
       <c r="K54" s="79"/>
       <c r="L54" s="79"/>
-      <c r="N54" s="58"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="60"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N54" s="101">
+        <v>77040</v>
+      </c>
+      <c r="O54" s="10">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="P54" s="75">
+        <f t="shared" si="43"/>
+        <v>75422.16</v>
+      </c>
+      <c r="Q54" s="88">
+        <v>92.733644859813083</v>
+      </c>
+      <c r="R54" s="75">
+        <f t="shared" si="44"/>
+        <v>71442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="73">
-        <v>43729</v>
-      </c>
-      <c r="B55" s="58"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
+        <v>43730</v>
+      </c>
+      <c r="B55" s="101">
+        <v>86400</v>
+      </c>
+      <c r="C55" s="54">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D55" s="75">
+        <f t="shared" si="39"/>
+        <v>85363.199999999997</v>
+      </c>
+      <c r="E55" s="88">
+        <v>94.8125</v>
+      </c>
+      <c r="F55" s="75">
+        <f t="shared" si="40"/>
+        <v>81918</v>
+      </c>
       <c r="G55" s="73">
         <v>43729</v>
       </c>
@@ -5254,81 +5598,175 @@
       <c r="K55" s="79"/>
       <c r="L55" s="79"/>
       <c r="M55" s="73">
-        <v>43729</v>
-      </c>
-      <c r="N55" s="58"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="60"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="58"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
+        <v>43730</v>
+      </c>
+      <c r="N55" s="101">
+        <v>77040</v>
+      </c>
+      <c r="O55" s="10">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="P55" s="75">
+        <f t="shared" si="43"/>
+        <v>76500.72</v>
+      </c>
+      <c r="Q55" s="88">
+        <v>94.626168224299064</v>
+      </c>
+      <c r="R55" s="75">
+        <f t="shared" si="44"/>
+        <v>72900</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B56" s="101">
+        <v>86400</v>
+      </c>
+      <c r="C56" s="54">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D56" s="75">
+        <f t="shared" si="39"/>
+        <v>84758.399999999994</v>
+      </c>
+      <c r="E56" s="88">
+        <v>92.5</v>
+      </c>
+      <c r="F56" s="75">
+        <f t="shared" si="40"/>
+        <v>79920</v>
+      </c>
       <c r="H56" s="58"/>
       <c r="I56" s="54"/>
       <c r="J56" s="60"/>
       <c r="K56" s="79"/>
       <c r="L56" s="79"/>
-      <c r="N56" s="58"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="60"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="94"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
+      <c r="N56" s="101">
+        <v>77040</v>
+      </c>
+      <c r="O56" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="P56" s="75">
+        <f t="shared" si="43"/>
+        <v>76962.960000000006</v>
+      </c>
+      <c r="Q56" s="88">
+        <v>96.518691588785046</v>
+      </c>
+      <c r="R56" s="75">
+        <f t="shared" si="44"/>
+        <v>74358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="73">
+        <v>43731</v>
+      </c>
+      <c r="B57" s="101">
+        <v>86400</v>
+      </c>
+      <c r="C57" s="54">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D57" s="75">
+        <f t="shared" si="39"/>
+        <v>85363.199999999997</v>
+      </c>
+      <c r="E57" s="88">
+        <v>94.8125</v>
+      </c>
+      <c r="F57" s="75">
+        <f t="shared" si="40"/>
+        <v>81918</v>
+      </c>
       <c r="H57" s="94"/>
       <c r="I57" s="95"/>
       <c r="J57" s="77"/>
       <c r="K57" s="81"/>
       <c r="L57" s="81"/>
-      <c r="N57" s="94"/>
-      <c r="O57" s="95"/>
-      <c r="P57" s="77"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="74"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
+      <c r="N57" s="139" t="s">
+        <v>1</v>
+      </c>
+      <c r="O57" s="139"/>
+      <c r="P57" s="140">
+        <f>SUM(P49:P56)</f>
+        <v>448449.84</v>
+      </c>
+      <c r="Q57" s="103">
+        <f>R57/P57</f>
+        <v>0.92984312359215016</v>
+      </c>
+      <c r="R57" s="141">
+        <f>SUM(R49:R56)</f>
+        <v>416988</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="101">
+        <v>86400</v>
+      </c>
+      <c r="C58" s="54">
+        <v>0.999</v>
+      </c>
+      <c r="D58" s="75">
+        <f t="shared" si="39"/>
+        <v>86313.600000000006</v>
+      </c>
+      <c r="E58" s="88">
+        <v>99.4375</v>
+      </c>
+      <c r="F58" s="75">
+        <f t="shared" si="40"/>
+        <v>85914</v>
+      </c>
       <c r="H58" s="74"/>
       <c r="I58" s="54"/>
       <c r="J58" s="75"/>
       <c r="K58" s="79"/>
       <c r="L58" s="79"/>
       <c r="N58" s="74"/>
-      <c r="O58" s="54"/>
+      <c r="O58" s="142"/>
       <c r="P58" s="75"/>
-    </row>
-    <row r="59" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="93"/>
+      <c r="Q58" s="143"/>
+      <c r="R58" s="143"/>
+    </row>
+    <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="124"/>
+      <c r="D59" s="106">
+        <f>SUM(D47:D58)</f>
+        <v>1010437.2</v>
+      </c>
+      <c r="E59" s="89">
+        <f>F59/D59</f>
+        <v>0.92718082825929216</v>
+      </c>
+      <c r="F59" s="90">
+        <f>SUM(F47:F58)</f>
+        <v>936858</v>
+      </c>
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
       <c r="J59" s="94"/>
       <c r="K59" s="93"/>
       <c r="L59" s="93"/>
-      <c r="N59" s="94"/>
-      <c r="O59" s="94"/>
-      <c r="P59" s="94"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="73">
-        <v>43730</v>
-      </c>
-      <c r="B60" s="94"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
+      <c r="N59" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="O59" s="129"/>
+      <c r="P59" s="129"/>
+      <c r="Q59" s="129"/>
+      <c r="R59" s="129"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B60" s="98"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
       <c r="G60" s="73">
         <v>43730</v>
       </c>
@@ -5337,19 +5775,32 @@
       <c r="J60" s="77"/>
       <c r="K60" s="81"/>
       <c r="L60" s="81"/>
-      <c r="M60" s="73">
-        <v>43730</v>
-      </c>
-      <c r="N60" s="94"/>
-      <c r="O60" s="95"/>
-      <c r="P60" s="77"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="96"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
+      <c r="N60" s="101">
+        <v>77040</v>
+      </c>
+      <c r="O60" s="10">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="P60" s="75">
+        <f t="shared" ref="P60" si="45">N60*O60</f>
+        <v>70183.44</v>
+      </c>
+      <c r="Q60" s="88">
+        <v>75.700934579439249</v>
+      </c>
+      <c r="R60" s="75">
+        <f t="shared" ref="R60" si="46">N60*Q60/100</f>
+        <v>58320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B61" s="128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="129"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="129"/>
       <c r="H61" s="96"/>
       <c r="I61" s="96"/>
       <c r="J61" s="96"/>
@@ -5359,15 +5810,24 @@
       <c r="O61" s="96"/>
       <c r="P61" s="96"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="73">
-        <v>43731</v>
-      </c>
-      <c r="B62" s="94"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93"/>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B62" s="101">
+        <v>79200</v>
+      </c>
+      <c r="C62" s="54">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="D62" s="75">
+        <f t="shared" ref="D62" si="47">B62*C62</f>
+        <v>70923.599999999991</v>
+      </c>
+      <c r="E62" s="88">
+        <v>45.151515151515156</v>
+      </c>
+      <c r="F62" s="75">
+        <f t="shared" ref="F62" si="48">B62*E62/100</f>
+        <v>35760.000000000007</v>
+      </c>
       <c r="G62" s="73">
         <v>43731</v>
       </c>
@@ -5383,7 +5843,7 @@
       <c r="O62" s="97"/>
       <c r="P62" s="94"/>
     </row>
-    <row r="63" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="74"/>
       <c r="C63" s="54"/>
       <c r="D63" s="75"/>
@@ -5398,7 +5858,7 @@
       <c r="O63" s="54"/>
       <c r="P63" s="75"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="73">
         <v>43732</v>
       </c>
@@ -5747,19 +6207,19 @@
       <c r="P82" s="77"/>
     </row>
     <row r="83" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="129"/>
-      <c r="C83" s="129"/>
-      <c r="D83" s="129"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="127"/>
+      <c r="D83" s="127"/>
       <c r="E83" s="80"/>
       <c r="F83" s="80"/>
-      <c r="H83" s="129"/>
-      <c r="I83" s="129"/>
-      <c r="J83" s="129"/>
+      <c r="H83" s="127"/>
+      <c r="I83" s="127"/>
+      <c r="J83" s="127"/>
       <c r="K83" s="80"/>
       <c r="L83" s="80"/>
-      <c r="N83" s="129"/>
-      <c r="O83" s="129"/>
-      <c r="P83" s="129"/>
+      <c r="N83" s="127"/>
+      <c r="O83" s="127"/>
+      <c r="P83" s="127"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -5855,22 +6315,42 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B90" s="129"/>
-      <c r="C90" s="129"/>
+      <c r="B90" s="127"/>
+      <c r="C90" s="127"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="129"/>
-      <c r="I90" s="129"/>
+      <c r="H90" s="127"/>
+      <c r="I90" s="127"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="129"/>
-      <c r="O90" s="129"/>
+      <c r="N90" s="127"/>
+      <c r="O90" s="127"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="32">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N59:R59"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B16:F16"/>
@@ -5883,25 +6363,12 @@
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="46" max="17" man="1"/>
+    <brk id="45" max="17" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Бланк!$A$1:$N$82</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$R$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$R$76</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>% работы</t>
   </si>
@@ -230,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -489,6 +489,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -716,9 +727,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -748,33 +756,12 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -790,6 +777,48 @@
     <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -862,43 +891,21 @@
     <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1229,21 +1236,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
       <c r="H1" s="51"/>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
     </row>
     <row r="2" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -1285,22 +1292,22 @@
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="107" t="s">
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="109"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="117"/>
       <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1546,11 +1553,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="109"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
       <c r="E11" s="24">
         <f>SUM(E4:E10)</f>
         <v>829712.88</v>
@@ -1571,12 +1578,12 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="115"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="123"/>
       <c r="H12" s="20"/>
       <c r="I12" s="14"/>
       <c r="J12" s="23"/>
@@ -1589,14 +1596,14 @@
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="119"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="127"/>
       <c r="H13" s="20"/>
       <c r="I13" s="14"/>
       <c r="J13" s="23"/>
@@ -1608,12 +1615,12 @@
       <c r="A14" s="3">
         <v>43439</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="112"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="120"/>
       <c r="H14" s="20"/>
       <c r="I14" s="14"/>
       <c r="J14" s="23"/>
@@ -1648,9 +1655,9 @@
       <c r="E16" s="11"/>
       <c r="F16" s="38"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="109"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="117"/>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
       <c r="M16" s="24"/>
@@ -1662,9 +1669,9 @@
       <c r="E17" s="11"/>
       <c r="F17" s="38"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="115"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="123"/>
       <c r="K17" s="11"/>
       <c r="L17" s="33"/>
       <c r="M17" s="11"/>
@@ -1679,12 +1686,12 @@
       <c r="E18" s="11"/>
       <c r="F18" s="38"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="109"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="117"/>
       <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1773,9 +1780,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="107"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="109"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="117"/>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
       <c r="G24" s="24"/>
@@ -1805,12 +1812,12 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="109"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="117"/>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
       <c r="J26" s="23"/>
@@ -1956,9 +1963,9 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="109"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="117"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
       <c r="G35" s="24"/>
@@ -1988,12 +1995,12 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="109"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="117"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
       <c r="J37" s="23"/>
@@ -2141,9 +2148,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="107"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="109"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="117"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
       <c r="G46" s="24"/>
@@ -2173,12 +2180,12 @@
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="109"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="117"/>
       <c r="H48" s="30"/>
       <c r="I48" s="31"/>
       <c r="J48" s="23"/>
@@ -2323,15 +2330,15 @@
       <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="107"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="109"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="24"/>
       <c r="F57" s="25"/>
       <c r="G57" s="24"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="108"/>
-      <c r="J57" s="109"/>
+      <c r="H57" s="115"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="117"/>
       <c r="K57" s="24"/>
       <c r="L57" s="25"/>
       <c r="M57" s="24"/>
@@ -2351,12 +2358,12 @@
       <c r="M58" s="11"/>
     </row>
     <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="107"/>
-      <c r="C59" s="108"/>
-      <c r="D59" s="108"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="108"/>
-      <c r="G59" s="109"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="117"/>
       <c r="H59" s="20"/>
       <c r="I59" s="14"/>
       <c r="J59" s="23"/>
@@ -2368,9 +2375,9 @@
       <c r="A60" s="3">
         <v>43456</v>
       </c>
-      <c r="B60" s="107"/>
-      <c r="C60" s="108"/>
-      <c r="D60" s="109"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="117"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
       <c r="G60" s="24"/>
@@ -2382,12 +2389,12 @@
       <c r="M60" s="11"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="120"/>
-      <c r="C61" s="120"/>
-      <c r="D61" s="120"/>
-      <c r="E61" s="120"/>
-      <c r="F61" s="120"/>
-      <c r="G61" s="120"/>
+      <c r="B61" s="128"/>
+      <c r="C61" s="128"/>
+      <c r="D61" s="128"/>
+      <c r="E61" s="128"/>
+      <c r="F61" s="128"/>
+      <c r="G61" s="128"/>
       <c r="H61" s="20"/>
       <c r="I61" s="14"/>
       <c r="J61" s="23"/>
@@ -2399,12 +2406,12 @@
       <c r="A62" s="3">
         <v>43457</v>
       </c>
-      <c r="B62" s="107"/>
-      <c r="C62" s="108"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="108"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="119"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="126"/>
+      <c r="G62" s="127"/>
       <c r="H62" s="20"/>
       <c r="I62" s="14"/>
       <c r="J62" s="23"/>
@@ -2467,9 +2474,9 @@
       <c r="E66" s="11"/>
       <c r="F66" s="38"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="107"/>
-      <c r="I66" s="108"/>
-      <c r="J66" s="109"/>
+      <c r="H66" s="115"/>
+      <c r="I66" s="116"/>
+      <c r="J66" s="117"/>
       <c r="K66" s="24"/>
       <c r="L66" s="25"/>
       <c r="M66" s="24"/>
@@ -2498,12 +2505,12 @@
       <c r="E68" s="11"/>
       <c r="F68" s="38"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="122"/>
-      <c r="I68" s="118"/>
-      <c r="J68" s="118"/>
-      <c r="K68" s="118"/>
-      <c r="L68" s="118"/>
-      <c r="M68" s="109"/>
+      <c r="H68" s="130"/>
+      <c r="I68" s="126"/>
+      <c r="J68" s="126"/>
+      <c r="K68" s="126"/>
+      <c r="L68" s="126"/>
+      <c r="M68" s="117"/>
       <c r="N68" s="28"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -2615,9 +2622,9 @@
       <c r="E75" s="11"/>
       <c r="F75" s="38"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="107"/>
-      <c r="I75" s="108"/>
-      <c r="J75" s="109"/>
+      <c r="H75" s="115"/>
+      <c r="I75" s="116"/>
+      <c r="J75" s="117"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
       <c r="M75" s="24"/>
@@ -2637,23 +2644,23 @@
       <c r="M76" s="11"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="107"/>
-      <c r="C77" s="108"/>
-      <c r="D77" s="109"/>
+      <c r="B77" s="115"/>
+      <c r="C77" s="116"/>
+      <c r="D77" s="117"/>
       <c r="E77" s="24"/>
       <c r="F77" s="25"/>
       <c r="G77" s="24"/>
-      <c r="H77" s="122"/>
-      <c r="I77" s="118"/>
-      <c r="J77" s="118"/>
-      <c r="K77" s="118"/>
-      <c r="L77" s="118"/>
-      <c r="M77" s="109"/>
+      <c r="H77" s="130"/>
+      <c r="I77" s="126"/>
+      <c r="J77" s="126"/>
+      <c r="K77" s="126"/>
+      <c r="L77" s="126"/>
+      <c r="M77" s="117"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="113"/>
-      <c r="C78" s="114"/>
-      <c r="D78" s="115"/>
+      <c r="B78" s="121"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="11"/>
       <c r="F78" s="33"/>
       <c r="G78" s="11"/>
@@ -2668,12 +2675,12 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="107"/>
-      <c r="C79" s="108"/>
-      <c r="D79" s="118"/>
-      <c r="E79" s="108"/>
-      <c r="F79" s="118"/>
-      <c r="G79" s="119"/>
+      <c r="B79" s="115"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="126"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="126"/>
+      <c r="G79" s="127"/>
       <c r="H79" s="20"/>
       <c r="I79" s="14"/>
       <c r="J79" s="23"/>
@@ -2716,27 +2723,27 @@
       <c r="M81" s="11"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="107"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="109"/>
+      <c r="B82" s="115"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="117"/>
       <c r="E82" s="24"/>
       <c r="F82" s="25"/>
       <c r="G82" s="24"/>
-      <c r="H82" s="122"/>
-      <c r="I82" s="118"/>
-      <c r="J82" s="119"/>
+      <c r="H82" s="130"/>
+      <c r="I82" s="126"/>
+      <c r="J82" s="127"/>
       <c r="K82" s="26"/>
       <c r="L82" s="27"/>
       <c r="M82" s="26"/>
       <c r="N82" s="28"/>
     </row>
     <row r="83" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="121"/>
-      <c r="C83" s="121"/>
-      <c r="D83" s="121"/>
-      <c r="E83" s="121"/>
-      <c r="F83" s="121"/>
-      <c r="G83" s="121"/>
+      <c r="B83" s="129"/>
+      <c r="C83" s="129"/>
+      <c r="D83" s="129"/>
+      <c r="E83" s="129"/>
+      <c r="F83" s="129"/>
+      <c r="G83" s="129"/>
       <c r="H83" s="49"/>
       <c r="I83" s="50"/>
       <c r="J83" s="44"/>
@@ -2751,9 +2758,9 @@
       <c r="E84" s="16"/>
       <c r="F84" s="45"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="121"/>
-      <c r="I84" s="121"/>
-      <c r="J84" s="121"/>
+      <c r="H84" s="129"/>
+      <c r="I84" s="129"/>
+      <c r="J84" s="129"/>
       <c r="K84" s="16"/>
       <c r="L84" s="36"/>
       <c r="M84" s="16"/>
@@ -2808,9 +2815,9 @@
       <c r="E88" s="16"/>
       <c r="F88" s="45"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="121"/>
-      <c r="I88" s="121"/>
-      <c r="J88" s="121"/>
+      <c r="H88" s="129"/>
+      <c r="I88" s="129"/>
+      <c r="J88" s="129"/>
       <c r="K88" s="16"/>
       <c r="L88" s="36"/>
       <c r="M88" s="16"/>
@@ -2824,9 +2831,9 @@
       <c r="G89" s="16"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="121"/>
-      <c r="C90" s="121"/>
-      <c r="D90" s="121"/>
+      <c r="B90" s="129"/>
+      <c r="C90" s="129"/>
+      <c r="D90" s="129"/>
       <c r="E90" s="16"/>
       <c r="F90" s="36"/>
       <c r="G90" s="16"/>
@@ -2883,9 +2890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2908,27 +2915,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="H1" s="131" t="s">
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="H1" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="N1" s="131" t="s">
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="N1" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -2940,10 +2947,10 @@
       <c r="D2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="81" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="67" t="s">
@@ -2955,10 +2962,10 @@
       <c r="J2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="K2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="85" t="s">
+      <c r="L2" s="84" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="70" t="s">
@@ -2970,38 +2977,38 @@
       <c r="P2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="86" t="s">
+      <c r="R2" s="85" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105"/>
-      <c r="B3" s="125" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="125" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="128" t="s">
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -3017,7 +3024,7 @@
         <f t="shared" ref="D4" si="0">B4*C4</f>
         <v>109209.59999999999</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="83">
         <v>91.520833333333329</v>
       </c>
       <c r="F4" s="75">
@@ -3037,7 +3044,7 @@
         <f t="shared" ref="J4:J5" si="2">H4*I4</f>
         <v>99187.199999999997</v>
       </c>
-      <c r="K4" s="87">
+      <c r="K4" s="86">
         <v>97.633928571428569</v>
       </c>
       <c r="L4" s="75">
@@ -3057,7 +3064,7 @@
         <f t="shared" ref="P4:P5" si="4">N4*O4</f>
         <v>89794.08</v>
       </c>
-      <c r="Q4" s="87">
+      <c r="Q4" s="86">
         <v>95.813648293963254</v>
       </c>
       <c r="R4" s="75">
@@ -3076,7 +3083,7 @@
         <f t="shared" ref="D5" si="6">B5*C5</f>
         <v>113702.39999999999</v>
       </c>
-      <c r="E5" s="83">
+      <c r="E5" s="82">
         <v>95.827256944444457</v>
       </c>
       <c r="F5" s="60">
@@ -3093,7 +3100,7 @@
         <f t="shared" si="2"/>
         <v>98683.199999999997</v>
       </c>
-      <c r="K5" s="83">
+      <c r="K5" s="82">
         <v>90.401785714285708</v>
       </c>
       <c r="L5" s="60">
@@ -3110,7 +3117,7 @@
         <f t="shared" si="4"/>
         <v>90068.4</v>
       </c>
-      <c r="Q5" s="83">
+      <c r="Q5" s="82">
         <v>93.858267716535437</v>
       </c>
       <c r="R5" s="60">
@@ -3132,7 +3139,7 @@
         <f t="shared" ref="D6:D13" si="7">B6*C6</f>
         <v>111744</v>
       </c>
-      <c r="E6" s="88">
+      <c r="E6" s="87">
         <v>91.460069444444443</v>
       </c>
       <c r="F6" s="60">
@@ -3152,7 +3159,7 @@
         <f t="shared" ref="J6:J23" si="9">H6*I6</f>
         <v>97171.199999999997</v>
       </c>
-      <c r="K6" s="88">
+      <c r="K6" s="87">
         <v>94.017857142857139</v>
       </c>
       <c r="L6" s="60">
@@ -3172,7 +3179,7 @@
         <f t="shared" ref="P6:P19" si="11">N6*O6</f>
         <v>89154</v>
       </c>
-      <c r="Q6" s="88">
+      <c r="Q6" s="87">
         <v>93.858267716535437</v>
       </c>
       <c r="R6" s="60">
@@ -3191,7 +3198,7 @@
         <f t="shared" si="7"/>
         <v>115084.8</v>
       </c>
-      <c r="E7" s="88">
+      <c r="E7" s="87">
         <v>99.756944444444443</v>
       </c>
       <c r="F7" s="60">
@@ -3208,7 +3215,7 @@
         <f t="shared" si="9"/>
         <v>99187.199999999997</v>
       </c>
-      <c r="K7" s="88">
+      <c r="K7" s="87">
         <v>94.017857142857139</v>
       </c>
       <c r="L7" s="60">
@@ -3225,7 +3232,7 @@
         <f t="shared" si="11"/>
         <v>89885.52</v>
       </c>
-      <c r="Q7" s="88">
+      <c r="Q7" s="87">
         <v>95.813648293963254</v>
       </c>
       <c r="R7" s="60">
@@ -3247,7 +3254,7 @@
         <f t="shared" si="7"/>
         <v>112435.2</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E8" s="87">
         <v>94.769097222222214</v>
       </c>
       <c r="F8" s="60">
@@ -3267,7 +3274,7 @@
         <f t="shared" si="9"/>
         <v>97372.800000000003</v>
       </c>
-      <c r="K8" s="88">
+      <c r="K8" s="87">
         <v>94.017857142857139</v>
       </c>
       <c r="L8" s="60">
@@ -3287,7 +3294,7 @@
         <f t="shared" si="11"/>
         <v>89154</v>
       </c>
-      <c r="Q8" s="88">
+      <c r="Q8" s="87">
         <v>95.813648293963254</v>
       </c>
       <c r="R8" s="60">
@@ -3306,7 +3313,7 @@
         <f t="shared" si="7"/>
         <v>113241.59999999999</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="87">
         <v>94.769097222222214</v>
       </c>
       <c r="F9" s="60">
@@ -3323,7 +3330,7 @@
         <f t="shared" si="9"/>
         <v>99086.399999999994</v>
       </c>
-      <c r="K9" s="88">
+      <c r="K9" s="87">
         <v>94.017857142857139</v>
       </c>
       <c r="L9" s="60">
@@ -3340,7 +3347,7 @@
         <f t="shared" si="11"/>
         <v>91054.080000000002</v>
       </c>
-      <c r="Q9" s="88">
+      <c r="Q9" s="87">
         <v>95.065104166666671</v>
       </c>
       <c r="R9" s="60">
@@ -3362,7 +3369,7 @@
         <f t="shared" si="7"/>
         <v>112204.8</v>
       </c>
-      <c r="E10" s="88">
+      <c r="E10" s="87">
         <v>92.481770833333329</v>
       </c>
       <c r="F10" s="60">
@@ -3382,7 +3389,7 @@
         <f t="shared" si="9"/>
         <v>98683.199999999997</v>
       </c>
-      <c r="K10" s="88">
+      <c r="K10" s="87">
         <v>94.017857142857139</v>
       </c>
       <c r="L10" s="60">
@@ -3402,7 +3409,7 @@
         <f t="shared" si="11"/>
         <v>90593.279999999999</v>
       </c>
-      <c r="Q10" s="88">
+      <c r="Q10" s="87">
         <v>95.065104166666671</v>
       </c>
       <c r="R10" s="60">
@@ -3422,7 +3429,7 @@
         <f t="shared" si="7"/>
         <v>112435.2</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <v>93.333333333333329</v>
       </c>
       <c r="F11" s="60">
@@ -3440,7 +3447,7 @@
         <f t="shared" si="9"/>
         <v>98481.599999999991</v>
       </c>
-      <c r="K11" s="88">
+      <c r="K11" s="87">
         <v>94.017857142857139</v>
       </c>
       <c r="L11" s="60">
@@ -3458,7 +3465,7 @@
         <f t="shared" si="11"/>
         <v>90408.959999999992</v>
       </c>
-      <c r="Q11" s="88">
+      <c r="Q11" s="87">
         <v>95.065104166666671</v>
       </c>
       <c r="R11" s="60">
@@ -3480,7 +3487,7 @@
         <f t="shared" si="7"/>
         <v>112435.2</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <v>95.815104166666671</v>
       </c>
       <c r="F12" s="60">
@@ -3500,7 +3507,7 @@
         <f t="shared" si="9"/>
         <v>98985.599999999991</v>
       </c>
-      <c r="K12" s="88">
+      <c r="K12" s="87">
         <v>94.017857142857139</v>
       </c>
       <c r="L12" s="60">
@@ -3520,7 +3527,7 @@
         <f t="shared" si="11"/>
         <v>90501.119999999995</v>
       </c>
-      <c r="Q12" s="88">
+      <c r="Q12" s="87">
         <v>97.005208333333343</v>
       </c>
       <c r="R12" s="60">
@@ -3533,14 +3540,14 @@
       <c r="B13" s="58">
         <v>115200</v>
       </c>
-      <c r="C13" s="91">
+      <c r="C13" s="90">
         <v>0.98399999999999999</v>
       </c>
       <c r="D13" s="60">
         <f t="shared" si="7"/>
         <v>113356.8</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="82">
         <v>97.275173611111114</v>
       </c>
       <c r="F13" s="60">
@@ -3557,7 +3564,7 @@
         <f t="shared" si="9"/>
         <v>97977.599999999991</v>
       </c>
-      <c r="K13" s="88">
+      <c r="K13" s="87">
         <v>94.017857142857139</v>
       </c>
       <c r="L13" s="60">
@@ -3574,7 +3581,7 @@
         <f t="shared" si="11"/>
         <v>88842.239999999991</v>
       </c>
-      <c r="Q13" s="88">
+      <c r="Q13" s="87">
         <v>87.3046875</v>
       </c>
       <c r="R13" s="60">
@@ -3583,19 +3590,19 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="124"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="77">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
       </c>
-      <c r="E14" s="89">
+      <c r="E14" s="88">
         <f>F14/D14</f>
         <v>0.96900509624020836</v>
       </c>
-      <c r="F14" s="90">
+      <c r="F14" s="89">
         <f>SUM(F4:F13)</f>
         <v>1090954</v>
       </c>
@@ -3612,7 +3619,7 @@
         <f t="shared" si="9"/>
         <v>99288</v>
       </c>
-      <c r="K14" s="88">
+      <c r="K14" s="87">
         <v>94.017857142857139</v>
       </c>
       <c r="L14" s="60">
@@ -3632,7 +3639,7 @@
         <f t="shared" si="11"/>
         <v>92067.839999999997</v>
       </c>
-      <c r="Q14" s="88">
+      <c r="Q14" s="87">
         <v>98.9453125</v>
       </c>
       <c r="R14" s="60">
@@ -3656,7 +3663,7 @@
         <f t="shared" si="9"/>
         <v>99388.800000000003</v>
       </c>
-      <c r="K15" s="88">
+      <c r="K15" s="87">
         <v>97.633928571428569</v>
       </c>
       <c r="L15" s="60">
@@ -3673,7 +3680,7 @@
         <f t="shared" si="11"/>
         <v>91146.240000000005</v>
       </c>
-      <c r="Q15" s="88">
+      <c r="Q15" s="87">
         <v>97.005208333333343</v>
       </c>
       <c r="R15" s="60">
@@ -3682,14 +3689,14 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
-      <c r="B16" s="125" t="s">
+      <c r="A16" s="96"/>
+      <c r="B16" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
       <c r="G16" s="73">
         <v>43715</v>
       </c>
@@ -3703,7 +3710,7 @@
         <f t="shared" si="9"/>
         <v>98481.599999999991</v>
       </c>
-      <c r="K16" s="88">
+      <c r="K16" s="87">
         <v>94.017857142857139</v>
       </c>
       <c r="L16" s="60">
@@ -3723,7 +3730,7 @@
         <f t="shared" si="11"/>
         <v>89948.160000000003</v>
       </c>
-      <c r="Q16" s="88">
+      <c r="Q16" s="87">
         <v>95.065104166666671</v>
       </c>
       <c r="R16" s="60">
@@ -3745,7 +3752,7 @@
         <f t="shared" ref="D17" si="13">B17*C17</f>
         <v>93823.2</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <v>68.846426043878267</v>
       </c>
       <c r="F17" s="75">
@@ -3762,7 +3769,7 @@
         <f t="shared" si="9"/>
         <v>98884.800000000003</v>
       </c>
-      <c r="K17" s="88">
+      <c r="K17" s="87">
         <v>94.017857142857139</v>
       </c>
       <c r="L17" s="60">
@@ -3779,7 +3786,7 @@
         <f t="shared" si="11"/>
         <v>90869.759999999995</v>
       </c>
-      <c r="Q17" s="88">
+      <c r="Q17" s="87">
         <v>95.065104166666671</v>
       </c>
       <c r="R17" s="60">
@@ -3798,7 +3805,7 @@
         <f t="shared" ref="D18" si="15">B18*C18</f>
         <v>110553.12</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <v>82.208067940552027</v>
       </c>
       <c r="F18" s="75">
@@ -3818,7 +3825,7 @@
         <f t="shared" si="9"/>
         <v>97977.599999999991</v>
       </c>
-      <c r="K18" s="88">
+      <c r="K18" s="87">
         <v>90.401785714285708</v>
       </c>
       <c r="L18" s="60">
@@ -3838,7 +3845,7 @@
         <f t="shared" si="11"/>
         <v>92067.839999999997</v>
       </c>
-      <c r="Q18" s="88">
+      <c r="Q18" s="87">
         <v>98.9453125</v>
       </c>
       <c r="R18" s="60">
@@ -3860,7 +3867,7 @@
         <f t="shared" ref="D19:D28" si="17">B19*C19</f>
         <v>109648.8</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <v>94.663835810332628</v>
       </c>
       <c r="F19" s="75">
@@ -3877,7 +3884,7 @@
         <f t="shared" si="9"/>
         <v>98985.599999999991</v>
       </c>
-      <c r="K19" s="88">
+      <c r="K19" s="87">
         <v>94.017857142857139</v>
       </c>
       <c r="L19" s="60">
@@ -3894,7 +3901,7 @@
         <f t="shared" si="11"/>
         <v>92067.839999999997</v>
       </c>
-      <c r="Q19" s="88">
+      <c r="Q19" s="87">
         <v>98.9453125</v>
       </c>
       <c r="R19" s="60">
@@ -3913,7 +3920,7 @@
         <f t="shared" si="17"/>
         <v>109987.92</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <v>94.663835810332628</v>
       </c>
       <c r="F20" s="75">
@@ -3933,26 +3940,26 @@
         <f t="shared" si="9"/>
         <v>99792</v>
       </c>
-      <c r="K20" s="88">
+      <c r="K20" s="87">
         <v>97.633928571428569</v>
       </c>
       <c r="L20" s="60">
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="123" t="s">
+      <c r="N20" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="124"/>
+      <c r="O20" s="132"/>
       <c r="P20" s="77">
         <f>SUM(P4:P19)</f>
         <v>1447623.36</v>
       </c>
-      <c r="Q20" s="89">
+      <c r="Q20" s="88">
         <f>R20/P20</f>
         <v>0.97081052905916077</v>
       </c>
-      <c r="R20" s="90">
+      <c r="R20" s="89">
         <f>SUM(R4:R19)</f>
         <v>1405368</v>
       </c>
@@ -3971,7 +3978,7 @@
         <f t="shared" si="17"/>
         <v>110666.16</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <v>94.663835810332628</v>
       </c>
       <c r="F21" s="75">
@@ -3988,7 +3995,7 @@
         <f t="shared" si="9"/>
         <v>99489.600000000006</v>
       </c>
-      <c r="K21" s="88">
+      <c r="K21" s="87">
         <v>94.017857142857139</v>
       </c>
       <c r="L21" s="60">
@@ -4010,7 +4017,7 @@
         <f t="shared" si="17"/>
         <v>111118.31999999999</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <v>94.663835810332628</v>
       </c>
       <c r="F22" s="75">
@@ -4030,21 +4037,21 @@
         <f t="shared" si="9"/>
         <v>97675.199999999997</v>
       </c>
-      <c r="K22" s="88">
+      <c r="K22" s="87">
         <v>94.017857142857139</v>
       </c>
       <c r="L22" s="60">
         <f t="shared" si="10"/>
         <v>94770</v>
       </c>
-      <c r="M22" s="104"/>
-      <c r="N22" s="128" t="s">
+      <c r="M22" s="96"/>
+      <c r="N22" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="129"/>
-      <c r="P22" s="129"/>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="129"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="137"/>
+      <c r="R22" s="137"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="73">
@@ -4060,7 +4067,7 @@
         <f t="shared" si="17"/>
         <v>111344.4</v>
       </c>
-      <c r="E23" s="88">
+      <c r="E23" s="87">
         <v>97.268223637650379</v>
       </c>
       <c r="F23" s="75">
@@ -4077,7 +4084,7 @@
         <f t="shared" si="9"/>
         <v>99691.199999999997</v>
       </c>
-      <c r="K23" s="88">
+      <c r="K23" s="87">
         <v>97.633928571428569</v>
       </c>
       <c r="L23" s="60">
@@ -4087,7 +4094,7 @@
       <c r="M23" s="73">
         <v>43717</v>
       </c>
-      <c r="N23" s="101">
+      <c r="N23" s="93">
         <v>84240</v>
       </c>
       <c r="O23" s="10">
@@ -4097,7 +4104,7 @@
         <f t="shared" ref="P23" si="19">N23*O23</f>
         <v>75226.320000000007</v>
       </c>
-      <c r="Q23" s="88">
+      <c r="Q23" s="87">
         <v>64.038461538461533</v>
       </c>
       <c r="R23" s="75">
@@ -4116,30 +4123,30 @@
         <f t="shared" si="17"/>
         <v>111118.31999999999</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <v>94.210898796886056</v>
       </c>
       <c r="F24" s="75">
         <f t="shared" si="18"/>
         <v>106496</v>
       </c>
-      <c r="H24" s="123" t="s">
+      <c r="H24" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="124"/>
+      <c r="I24" s="132"/>
       <c r="J24" s="77">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
       </c>
-      <c r="K24" s="89">
+      <c r="K24" s="88">
         <f>L24/J24</f>
         <v>0.96364574520843649</v>
       </c>
-      <c r="L24" s="90">
+      <c r="L24" s="89">
         <f>SUM(L4:L23)</f>
         <v>1902690</v>
       </c>
-      <c r="N24" s="101">
+      <c r="N24" s="93">
         <v>84240</v>
       </c>
       <c r="O24" s="10">
@@ -4149,7 +4156,7 @@
         <f t="shared" ref="P24:P36" si="21">N24*O24</f>
         <v>81797.039999999994</v>
       </c>
-      <c r="Q24" s="88">
+      <c r="Q24" s="87">
         <v>90.128205128205124</v>
       </c>
       <c r="R24" s="75">
@@ -4171,7 +4178,7 @@
         <f t="shared" si="17"/>
         <v>109422.72</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <v>94.777070063694268</v>
       </c>
       <c r="F25" s="75">
@@ -4186,7 +4193,7 @@
       <c r="M25" s="73">
         <v>43718</v>
       </c>
-      <c r="N25" s="101">
+      <c r="N25" s="93">
         <v>84240</v>
       </c>
       <c r="O25" s="10">
@@ -4196,7 +4203,7 @@
         <f t="shared" si="21"/>
         <v>81712.800000000003</v>
       </c>
-      <c r="Q25" s="88">
+      <c r="Q25" s="87">
         <v>90.128205128205124</v>
       </c>
       <c r="R25" s="75">
@@ -4215,22 +4222,22 @@
         <f t="shared" si="17"/>
         <v>111570.48</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <v>97.154989384288754</v>
       </c>
       <c r="F26" s="75">
         <f t="shared" si="18"/>
         <v>109824</v>
       </c>
-      <c r="G26" s="104"/>
-      <c r="H26" s="125" t="s">
+      <c r="G26" s="96"/>
+      <c r="H26" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="N26" s="101">
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="N26" s="93">
         <v>84240</v>
       </c>
       <c r="O26" s="10">
@@ -4240,7 +4247,7 @@
         <f t="shared" si="21"/>
         <v>82639.44</v>
       </c>
-      <c r="Q26" s="88">
+      <c r="Q26" s="87">
         <v>92.5</v>
       </c>
       <c r="R26" s="75">
@@ -4262,7 +4269,7 @@
         <f t="shared" si="17"/>
         <v>110327.03999999999</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <v>97.154989384288754</v>
       </c>
       <c r="F27" s="75">
@@ -4282,7 +4289,7 @@
         <f t="shared" ref="J27" si="23">H27*I27</f>
         <v>106704</v>
       </c>
-      <c r="K27" s="88">
+      <c r="K27" s="87">
         <v>38.722222222222221</v>
       </c>
       <c r="L27" s="75">
@@ -4292,7 +4299,7 @@
       <c r="M27" s="73">
         <v>43719</v>
       </c>
-      <c r="N27" s="101">
+      <c r="N27" s="93">
         <v>84240</v>
       </c>
       <c r="O27" s="10">
@@ -4302,7 +4309,7 @@
         <f t="shared" si="21"/>
         <v>81544.319999999992</v>
       </c>
-      <c r="Q27" s="88">
+      <c r="Q27" s="87">
         <v>90.128205128205124</v>
       </c>
       <c r="R27" s="75">
@@ -4321,7 +4328,7 @@
         <f t="shared" si="17"/>
         <v>112926.96</v>
       </c>
-      <c r="E28" s="88">
+      <c r="E28" s="87">
         <v>94.663835810332628</v>
       </c>
       <c r="F28" s="75">
@@ -4338,14 +4345,14 @@
         <f t="shared" ref="J28:J38" si="25">H28*I28</f>
         <v>140544</v>
       </c>
-      <c r="K28" s="88">
+      <c r="K28" s="87">
         <v>96.805555555555557</v>
       </c>
       <c r="L28" s="75">
         <f t="shared" ref="L28:L38" si="26">H28*K28/100</f>
         <v>139400</v>
       </c>
-      <c r="N28" s="101">
+      <c r="N28" s="93">
         <v>85680</v>
       </c>
       <c r="O28" s="10">
@@ -4355,7 +4362,7 @@
         <f t="shared" si="21"/>
         <v>84223.44</v>
       </c>
-      <c r="Q28" s="88">
+      <c r="Q28" s="87">
         <v>90.945378151260499</v>
       </c>
       <c r="R28" s="75">
@@ -4364,19 +4371,19 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="124"/>
+      <c r="C29" s="132"/>
       <c r="D29" s="77">
         <f>SUM(D17:D28)</f>
         <v>1312507.44</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E29" s="88">
         <f>F29/D29</f>
         <v>0.95163193893971376</v>
       </c>
-      <c r="F29" s="90">
+      <c r="F29" s="89">
         <f>SUM(F17:F28)</f>
         <v>1249024</v>
       </c>
@@ -4393,7 +4400,7 @@
         <f t="shared" si="25"/>
         <v>137952</v>
       </c>
-      <c r="K29" s="88">
+      <c r="K29" s="87">
         <v>87.125</v>
       </c>
       <c r="L29" s="75">
@@ -4403,7 +4410,7 @@
       <c r="M29" s="73">
         <v>43720</v>
       </c>
-      <c r="N29" s="101">
+      <c r="N29" s="93">
         <v>83520</v>
       </c>
       <c r="O29" s="10">
@@ -4413,7 +4420,7 @@
         <f t="shared" si="21"/>
         <v>80346.239999999991</v>
       </c>
-      <c r="Q29" s="88">
+      <c r="Q29" s="87">
         <v>83.728448275862064</v>
       </c>
       <c r="R29" s="75">
@@ -4425,7 +4432,7 @@
       <c r="B30" s="74"/>
       <c r="C30" s="59"/>
       <c r="D30" s="75"/>
-      <c r="E30" s="84"/>
+      <c r="E30" s="83"/>
       <c r="F30" s="75"/>
       <c r="H30" s="74">
         <v>144000</v>
@@ -4437,14 +4444,14 @@
         <f t="shared" si="25"/>
         <v>139824</v>
       </c>
-      <c r="K30" s="88">
+      <c r="K30" s="87">
         <v>87.125</v>
       </c>
       <c r="L30" s="75">
         <f t="shared" si="26"/>
         <v>125460</v>
       </c>
-      <c r="N30" s="101">
+      <c r="N30" s="93">
         <v>83520</v>
       </c>
       <c r="O30" s="10">
@@ -4454,7 +4461,7 @@
         <f t="shared" si="21"/>
         <v>80346.239999999991</v>
       </c>
-      <c r="Q30" s="88">
+      <c r="Q30" s="87">
         <v>93.297413793103445</v>
       </c>
       <c r="R30" s="75">
@@ -4463,14 +4470,14 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="104"/>
-      <c r="B31" s="125" t="s">
+      <c r="A31" s="96"/>
+      <c r="B31" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
       <c r="G31" s="73">
         <v>43721</v>
       </c>
@@ -4484,7 +4491,7 @@
         <f t="shared" si="25"/>
         <v>139104</v>
       </c>
-      <c r="K31" s="88">
+      <c r="K31" s="87">
         <v>91.965277777777771</v>
       </c>
       <c r="L31" s="75">
@@ -4494,7 +4501,7 @@
       <c r="M31" s="73">
         <v>43721</v>
       </c>
-      <c r="N31" s="101">
+      <c r="N31" s="93">
         <v>83520</v>
       </c>
       <c r="O31" s="10">
@@ -4504,7 +4511,7 @@
         <f t="shared" si="21"/>
         <v>80763.839999999997</v>
       </c>
-      <c r="Q31" s="88">
+      <c r="Q31" s="87">
         <v>90.905172413793096</v>
       </c>
       <c r="R31" s="75">
@@ -4526,7 +4533,7 @@
         <f t="shared" ref="D32" si="27">B32*C32</f>
         <v>52704</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <v>42.716666666666661</v>
       </c>
       <c r="F32" s="75">
@@ -4543,14 +4550,14 @@
         <f t="shared" si="25"/>
         <v>140256</v>
       </c>
-      <c r="K32" s="88">
+      <c r="K32" s="87">
         <v>91.965277777777771</v>
       </c>
       <c r="L32" s="75">
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N32" s="101">
+      <c r="N32" s="93">
         <v>83520</v>
       </c>
       <c r="O32" s="10">
@@ -4560,7 +4567,7 @@
         <f t="shared" si="21"/>
         <v>81682.559999999998</v>
       </c>
-      <c r="Q32" s="88">
+      <c r="Q32" s="87">
         <v>93.297413793103445</v>
       </c>
       <c r="R32" s="75">
@@ -4579,7 +4586,7 @@
         <f t="shared" ref="D33:D43" si="29">B33*C33</f>
         <v>70200</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <v>93.2</v>
       </c>
       <c r="F33" s="75">
@@ -4599,7 +4606,7 @@
         <f t="shared" si="25"/>
         <v>140688</v>
       </c>
-      <c r="K33" s="88">
+      <c r="K33" s="87">
         <v>91.965277777777771</v>
       </c>
       <c r="L33" s="75">
@@ -4609,7 +4616,7 @@
       <c r="M33" s="73">
         <v>43722</v>
       </c>
-      <c r="N33" s="101">
+      <c r="N33" s="93">
         <v>83520</v>
       </c>
       <c r="O33" s="10">
@@ -4619,7 +4626,7 @@
         <f t="shared" si="21"/>
         <v>82100.160000000003</v>
       </c>
-      <c r="Q33" s="88">
+      <c r="Q33" s="87">
         <v>93.297413793103445</v>
       </c>
       <c r="R33" s="75">
@@ -4641,7 +4648,7 @@
         <f t="shared" si="29"/>
         <v>71928</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <v>99.024999999999991</v>
       </c>
       <c r="F34" s="75">
@@ -4658,14 +4665,14 @@
         <f t="shared" si="25"/>
         <v>137808</v>
       </c>
-      <c r="K34" s="88">
+      <c r="K34" s="87">
         <v>87.125</v>
       </c>
       <c r="L34" s="75">
         <f t="shared" si="26"/>
         <v>125460</v>
       </c>
-      <c r="N34" s="101">
+      <c r="N34" s="93">
         <v>83520</v>
       </c>
       <c r="O34" s="10">
@@ -4675,7 +4682,7 @@
         <f t="shared" si="21"/>
         <v>81766.080000000002</v>
       </c>
-      <c r="Q34" s="88">
+      <c r="Q34" s="87">
         <v>93.297413793103445</v>
       </c>
       <c r="R34" s="75">
@@ -4694,7 +4701,7 @@
         <f t="shared" si="29"/>
         <v>69840</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <v>91.258333333333326</v>
       </c>
       <c r="F35" s="75">
@@ -4714,7 +4721,7 @@
         <f t="shared" si="25"/>
         <v>140688</v>
       </c>
-      <c r="K35" s="88">
+      <c r="K35" s="87">
         <v>91.965277777777771</v>
       </c>
       <c r="L35" s="75">
@@ -4724,7 +4731,7 @@
       <c r="M35" s="73">
         <v>43723</v>
       </c>
-      <c r="N35" s="101">
+      <c r="N35" s="93">
         <v>83520</v>
       </c>
       <c r="O35" s="10">
@@ -4734,7 +4741,7 @@
         <f t="shared" si="21"/>
         <v>75418.559999999998</v>
       </c>
-      <c r="Q35" s="88">
+      <c r="Q35" s="87">
         <v>83.728448275862064</v>
       </c>
       <c r="R35" s="75">
@@ -4756,7 +4763,7 @@
         <f t="shared" si="29"/>
         <v>70920</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <v>93.2</v>
       </c>
       <c r="F36" s="75">
@@ -4773,24 +4780,24 @@
         <f t="shared" si="25"/>
         <v>141552</v>
       </c>
-      <c r="K36" s="88">
+      <c r="K36" s="87">
         <v>96.805555555555557</v>
       </c>
       <c r="L36" s="75">
         <f t="shared" si="26"/>
         <v>139400</v>
       </c>
-      <c r="N36" s="102">
+      <c r="N36" s="94">
         <v>83520</v>
       </c>
-      <c r="O36" s="103">
+      <c r="O36" s="95">
         <v>0.999</v>
       </c>
       <c r="P36" s="75">
         <f t="shared" si="21"/>
         <v>83436.479999999996</v>
       </c>
-      <c r="Q36" s="88">
+      <c r="Q36" s="87">
         <v>98.081896551724128</v>
       </c>
       <c r="R36" s="75">
@@ -4809,7 +4816,7 @@
         <f t="shared" si="29"/>
         <v>68760</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <v>91.258333333333326</v>
       </c>
       <c r="F37" s="75">
@@ -4829,26 +4836,26 @@
         <f t="shared" si="25"/>
         <v>139392</v>
       </c>
-      <c r="K37" s="88">
+      <c r="K37" s="87">
         <v>91.965277777777771</v>
       </c>
       <c r="L37" s="75">
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N37" s="130" t="s">
+      <c r="N37" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="130"/>
+      <c r="O37" s="138"/>
       <c r="P37" s="77">
         <f>SUM(P23:P36)</f>
         <v>1133003.52</v>
       </c>
-      <c r="Q37" s="89">
+      <c r="Q37" s="88">
         <f>R37/P37</f>
         <v>0.92405008591676752</v>
       </c>
-      <c r="R37" s="90">
+      <c r="R37" s="89">
         <f>SUM(R23:R36)</f>
         <v>1046952</v>
       </c>
@@ -4867,7 +4874,7 @@
         <f t="shared" si="29"/>
         <v>70416</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <v>93.2</v>
       </c>
       <c r="F38" s="75">
@@ -4884,7 +4891,7 @@
         <f t="shared" si="25"/>
         <v>142704</v>
       </c>
-      <c r="K38" s="88">
+      <c r="K38" s="87">
         <v>96.805555555555557</v>
       </c>
       <c r="L38" s="75">
@@ -4906,37 +4913,37 @@
         <f t="shared" si="29"/>
         <v>69480</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <v>91.258333333333326</v>
       </c>
       <c r="F39" s="75">
         <f t="shared" si="30"/>
         <v>65705.999999999985</v>
       </c>
-      <c r="H39" s="123" t="s">
+      <c r="H39" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="124"/>
+      <c r="I39" s="140"/>
       <c r="J39" s="77">
         <f>SUM(J27:J38)</f>
         <v>1647216</v>
       </c>
-      <c r="K39" s="89">
+      <c r="K39" s="88">
         <f>L39/J39</f>
         <v>0.91820987654320985</v>
       </c>
-      <c r="L39" s="90">
+      <c r="L39" s="89">
         <f>SUM(L27:L38)</f>
         <v>1512490</v>
       </c>
-      <c r="M39" s="104"/>
-      <c r="N39" s="128" t="s">
+      <c r="M39" s="96"/>
+      <c r="N39" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="O39" s="129"/>
-      <c r="P39" s="129"/>
-      <c r="Q39" s="129"/>
-      <c r="R39" s="129"/>
+      <c r="O39" s="137"/>
+      <c r="P39" s="137"/>
+      <c r="Q39" s="137"/>
+      <c r="R39" s="137"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="73">
@@ -4952,7 +4959,7 @@
         <f t="shared" si="29"/>
         <v>69912</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <v>91.258333333333326</v>
       </c>
       <c r="F40" s="75">
@@ -4960,14 +4967,14 @@
         <v>65705.999999999985</v>
       </c>
       <c r="H40" s="58"/>
-      <c r="I40" s="54"/>
+      <c r="I40" s="53"/>
       <c r="J40" s="60"/>
       <c r="K40" s="79"/>
       <c r="L40" s="79"/>
       <c r="M40" s="73">
         <v>43724</v>
       </c>
-      <c r="N40" s="101">
+      <c r="N40" s="93">
         <v>64080</v>
       </c>
       <c r="O40" s="10">
@@ -4977,7 +4984,7 @@
         <f t="shared" ref="P40" si="31">N40*O40</f>
         <v>56198.16</v>
       </c>
-      <c r="Q40" s="88">
+      <c r="Q40" s="87">
         <v>48.033707865168537</v>
       </c>
       <c r="R40" s="75">
@@ -4996,21 +5003,22 @@
         <f t="shared" si="29"/>
         <v>70560</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <v>93.2</v>
       </c>
       <c r="F41" s="75">
         <f t="shared" si="30"/>
         <v>67104</v>
       </c>
-      <c r="H41" s="125" t="s">
+      <c r="G41" s="96"/>
+      <c r="H41" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="126"/>
-      <c r="N41" s="101">
+      <c r="I41" s="134"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="134"/>
+      <c r="N41" s="93">
         <v>64080</v>
       </c>
       <c r="O41" s="10">
@@ -5020,7 +5028,7 @@
         <f t="shared" ref="P41:P47" si="33">N41*O41</f>
         <v>62542.080000000002</v>
       </c>
-      <c r="Q41" s="88">
+      <c r="Q41" s="87">
         <v>93.398876404494374</v>
       </c>
       <c r="R41" s="75">
@@ -5042,7 +5050,7 @@
         <f t="shared" si="29"/>
         <v>69984</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <v>93.2</v>
       </c>
       <c r="F42" s="75">
@@ -5055,24 +5063,24 @@
       <c r="H42" s="74">
         <v>100800</v>
       </c>
-      <c r="I42" s="57">
-        <v>0.98399999999999999</v>
+      <c r="I42" s="108">
+        <v>0.81599999999999995</v>
       </c>
       <c r="J42" s="75">
         <f t="shared" ref="J42" si="35">H42*I42</f>
-        <v>99187.199999999997</v>
-      </c>
-      <c r="K42" s="100">
-        <v>97.633928571428569</v>
+        <v>82252.799999999988</v>
+      </c>
+      <c r="K42" s="82">
+        <v>57.857142857142861</v>
       </c>
       <c r="L42" s="75">
         <f t="shared" ref="L42" si="36">H42*K42/100</f>
-        <v>98415</v>
+        <v>58320</v>
       </c>
       <c r="M42" s="73">
         <v>43725</v>
       </c>
-      <c r="N42" s="101">
+      <c r="N42" s="93">
         <v>64080</v>
       </c>
       <c r="O42" s="10">
@@ -5082,7 +5090,7 @@
         <f t="shared" si="33"/>
         <v>60811.92</v>
       </c>
-      <c r="Q42" s="88">
+      <c r="Q42" s="87">
         <v>85.393258426966284</v>
       </c>
       <c r="R42" s="75">
@@ -5101,19 +5109,31 @@
         <f t="shared" si="29"/>
         <v>71136</v>
       </c>
-      <c r="E43" s="88">
+      <c r="E43" s="87">
         <v>93.2</v>
       </c>
       <c r="F43" s="75">
         <f t="shared" si="30"/>
         <v>67104</v>
       </c>
-      <c r="H43" s="58"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="N43" s="101">
+      <c r="H43" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I43" s="108">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J43" s="75">
+        <f t="shared" ref="J43:J69" si="37">H43*I43</f>
+        <v>99388.800000000003</v>
+      </c>
+      <c r="K43" s="82">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L43" s="75">
+        <f t="shared" ref="L43:L69" si="38">H43*K43/100</f>
+        <v>91125</v>
+      </c>
+      <c r="N43" s="93">
         <v>64080</v>
       </c>
       <c r="O43" s="10">
@@ -5123,7 +5143,7 @@
         <f t="shared" si="33"/>
         <v>63311.040000000001</v>
       </c>
-      <c r="Q43" s="88">
+      <c r="Q43" s="87">
         <v>93.398876404494374</v>
       </c>
       <c r="R43" s="75">
@@ -5132,31 +5152,46 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="123" t="s">
+      <c r="B44" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="124"/>
-      <c r="D44" s="133">
+      <c r="C44" s="132"/>
+      <c r="D44" s="100">
         <f>SUM(D32:D43)</f>
         <v>825840</v>
       </c>
-      <c r="E44" s="134">
+      <c r="E44" s="101">
         <f>F44/D44</f>
         <v>0.92935919790758503</v>
       </c>
-      <c r="F44" s="135">
+      <c r="F44" s="102">
         <f>SUM(F32:F43)</f>
         <v>767502</v>
       </c>
-      <c r="H44" s="58"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
+      <c r="G44" s="73">
+        <v>43726</v>
+      </c>
+      <c r="H44" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="J44" s="75">
+        <f t="shared" si="37"/>
+        <v>96566.399999999994</v>
+      </c>
+      <c r="K44" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L44" s="75">
+        <f t="shared" si="38"/>
+        <v>91125</v>
+      </c>
       <c r="M44" s="73">
         <v>43726</v>
       </c>
-      <c r="N44" s="101">
+      <c r="N44" s="93">
         <v>64080</v>
       </c>
       <c r="O44" s="10">
@@ -5166,7 +5201,7 @@
         <f t="shared" si="33"/>
         <v>60427.439999999995</v>
       </c>
-      <c r="Q44" s="88">
+      <c r="Q44" s="87">
         <v>82.724719101123597</v>
       </c>
       <c r="R44" s="75">
@@ -5175,17 +5210,29 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="136"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="138"/>
-      <c r="F45" s="138"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="N45" s="101">
+      <c r="B45" s="103"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="H45" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="J45" s="75">
+        <f t="shared" si="37"/>
+        <v>98784</v>
+      </c>
+      <c r="K45" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L45" s="75">
+        <f t="shared" si="38"/>
+        <v>94770</v>
+      </c>
+      <c r="N45" s="93">
         <v>65520</v>
       </c>
       <c r="O45" s="10">
@@ -5195,7 +5242,7 @@
         <f t="shared" si="33"/>
         <v>63750.96</v>
       </c>
-      <c r="Q45" s="88">
+      <c r="Q45" s="87">
         <v>88.736263736263737</v>
       </c>
       <c r="R45" s="75">
@@ -5204,22 +5251,38 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="128" t="s">
+      <c r="A46" s="96"/>
+      <c r="B46" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="129"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="129"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="73">
+        <v>43727</v>
+      </c>
+      <c r="H46" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="J46" s="75">
+        <f t="shared" si="37"/>
+        <v>97070.399999999994</v>
+      </c>
+      <c r="K46" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L46" s="75">
+        <f t="shared" si="38"/>
+        <v>91125</v>
+      </c>
       <c r="M46" s="73">
         <v>43727</v>
       </c>
-      <c r="N46" s="101">
+      <c r="N46" s="93">
         <v>65520</v>
       </c>
       <c r="O46" s="10">
@@ -5229,7 +5292,7 @@
         <f t="shared" si="33"/>
         <v>64209.599999999999</v>
       </c>
-      <c r="Q46" s="88">
+      <c r="Q46" s="87">
         <v>93.956043956043956</v>
       </c>
       <c r="R46" s="75">
@@ -5241,29 +5304,41 @@
       <c r="A47" s="73">
         <v>43726</v>
       </c>
-      <c r="B47" s="101">
+      <c r="B47" s="93">
         <v>79200</v>
       </c>
       <c r="C47" s="54">
         <v>0.89549999999999996</v>
       </c>
       <c r="D47" s="75">
-        <f t="shared" ref="D47" si="37">B47*C47</f>
+        <f t="shared" ref="D47" si="39">B47*C47</f>
         <v>70923.599999999991</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <v>45.151515151515156</v>
       </c>
       <c r="F47" s="75">
-        <f t="shared" ref="F47" si="38">B47*E47/100</f>
+        <f t="shared" ref="F47" si="40">B47*E47/100</f>
         <v>35760.000000000007</v>
       </c>
-      <c r="H47" s="74"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
-      <c r="N47" s="101">
+      <c r="H47" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="J47" s="75">
+        <f t="shared" si="37"/>
+        <v>98784</v>
+      </c>
+      <c r="K47" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L47" s="75">
+        <f t="shared" si="38"/>
+        <v>98415</v>
+      </c>
+      <c r="N47" s="93">
         <v>65520</v>
       </c>
       <c r="O47" s="10">
@@ -5273,7 +5348,7 @@
         <f t="shared" si="33"/>
         <v>65454.48</v>
       </c>
-      <c r="Q47" s="88">
+      <c r="Q47" s="87">
         <v>99.175824175824175</v>
       </c>
       <c r="R47" s="75">
@@ -5282,41 +5357,56 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="101">
+      <c r="B48" s="93">
         <v>86400</v>
       </c>
       <c r="C48" s="54">
         <v>0.98699999999999999</v>
       </c>
       <c r="D48" s="75">
-        <f t="shared" ref="D48:D58" si="39">B48*C48</f>
+        <f t="shared" ref="D48:D58" si="41">B48*C48</f>
         <v>85276.800000000003</v>
       </c>
-      <c r="E48" s="88">
+      <c r="E48" s="87">
         <v>94.8125</v>
       </c>
       <c r="F48" s="75">
-        <f t="shared" ref="F48:F58" si="40">B48*E48/100</f>
+        <f t="shared" ref="F48:F58" si="42">B48*E48/100</f>
         <v>81918</v>
       </c>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="93"/>
-      <c r="N48" s="130" t="s">
+      <c r="G48" s="73">
+        <v>43728</v>
+      </c>
+      <c r="H48" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="J48" s="75">
+        <f t="shared" si="37"/>
+        <v>98582.399999999994</v>
+      </c>
+      <c r="K48" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L48" s="75">
+        <f t="shared" si="38"/>
+        <v>91125</v>
+      </c>
+      <c r="N48" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="O48" s="130"/>
-      <c r="P48" s="106">
+      <c r="O48" s="138"/>
+      <c r="P48" s="98">
         <f>SUM(P40:P47)</f>
         <v>496705.68</v>
       </c>
-      <c r="Q48" s="89">
+      <c r="Q48" s="88">
         <f>R48/P48</f>
         <v>0.89165479243160661</v>
       </c>
-      <c r="R48" s="90">
+      <c r="R48" s="89">
         <f>SUM(R40:R47)</f>
         <v>442890</v>
       </c>
@@ -5325,155 +5415,203 @@
       <c r="A49" s="73">
         <v>43727</v>
       </c>
-      <c r="B49" s="101">
+      <c r="B49" s="93">
         <v>86400</v>
       </c>
       <c r="C49" s="54">
         <v>0.99</v>
       </c>
       <c r="D49" s="75">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>85536</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <v>97.125</v>
       </c>
       <c r="F49" s="75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>83916</v>
       </c>
-      <c r="G49" s="73">
-        <v>43726</v>
-      </c>
-      <c r="H49" s="58"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
+      <c r="H49" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="J49" s="75">
+        <f t="shared" si="37"/>
+        <v>97977.599999999991</v>
+      </c>
+      <c r="K49" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L49" s="75">
+        <f t="shared" si="38"/>
+        <v>94770</v>
+      </c>
       <c r="N49" s="58"/>
       <c r="O49" s="54"/>
       <c r="P49" s="60"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="101">
+      <c r="B50" s="93">
         <v>86400</v>
       </c>
       <c r="C50" s="54">
         <v>0.999</v>
       </c>
       <c r="D50" s="75">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>86313.600000000006</v>
       </c>
-      <c r="E50" s="88">
+      <c r="E50" s="87">
         <v>97.125</v>
       </c>
       <c r="F50" s="75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>83916</v>
       </c>
-      <c r="H50" s="58"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="104"/>
-      <c r="N50" s="128" t="s">
+      <c r="G50" s="73">
+        <v>43729</v>
+      </c>
+      <c r="H50" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="J50" s="75">
+        <f t="shared" si="37"/>
+        <v>98582.399999999994</v>
+      </c>
+      <c r="K50" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L50" s="75">
+        <f t="shared" si="38"/>
+        <v>91125</v>
+      </c>
+      <c r="M50" s="96"/>
+      <c r="N50" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="O50" s="129"/>
-      <c r="P50" s="129"/>
-      <c r="Q50" s="129"/>
-      <c r="R50" s="129"/>
+      <c r="O50" s="137"/>
+      <c r="P50" s="137"/>
+      <c r="Q50" s="137"/>
+      <c r="R50" s="137"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="73">
         <v>43728</v>
       </c>
-      <c r="B51" s="101">
+      <c r="B51" s="93">
         <v>86400</v>
       </c>
       <c r="C51" s="54">
         <v>0.98399999999999999</v>
       </c>
       <c r="D51" s="75">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>85017.600000000006</v>
       </c>
-      <c r="E51" s="88">
+      <c r="E51" s="87">
         <v>90.1875</v>
       </c>
       <c r="F51" s="75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>77922</v>
       </c>
-      <c r="G51" s="73">
-        <v>43727</v>
-      </c>
-      <c r="H51" s="58"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
+      <c r="H51" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J51" s="75">
+        <f t="shared" si="37"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="K51" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L51" s="75">
+        <f t="shared" si="38"/>
+        <v>91125</v>
+      </c>
       <c r="M51" s="73">
         <v>43728</v>
       </c>
-      <c r="N51" s="101">
+      <c r="N51" s="93">
         <v>77040</v>
       </c>
       <c r="O51" s="10">
         <v>0.91100000000000003</v>
       </c>
       <c r="P51" s="75">
-        <f t="shared" ref="P51" si="41">N51*O51</f>
+        <f t="shared" ref="P51" si="43">N51*O51</f>
         <v>70183.44</v>
       </c>
-      <c r="Q51" s="88">
+      <c r="Q51" s="87">
         <v>75.700934579439249</v>
       </c>
       <c r="R51" s="75">
-        <f t="shared" ref="R51" si="42">N51*Q51/100</f>
+        <f t="shared" ref="R51" si="44">N51*Q51/100</f>
         <v>58320</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="101">
+      <c r="B52" s="93">
         <v>86400</v>
       </c>
       <c r="C52" s="54">
         <v>0.98299999999999998</v>
       </c>
       <c r="D52" s="75">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>84931.199999999997</v>
       </c>
-      <c r="E52" s="88">
+      <c r="E52" s="87">
         <v>92.5</v>
       </c>
       <c r="F52" s="75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>79920</v>
       </c>
-      <c r="H52" s="58"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
-      <c r="N52" s="101">
+      <c r="G52" s="73">
+        <v>43730</v>
+      </c>
+      <c r="H52" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J52" s="75">
+        <f t="shared" si="37"/>
+        <v>98884.800000000003</v>
+      </c>
+      <c r="K52" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L52" s="75">
+        <f t="shared" si="38"/>
+        <v>94770</v>
+      </c>
+      <c r="N52" s="93">
         <v>77040</v>
       </c>
       <c r="O52" s="10">
         <v>0.96899999999999997</v>
       </c>
       <c r="P52" s="75">
-        <f t="shared" ref="P52:P56" si="43">N52*O52</f>
+        <f t="shared" ref="P52:P56" si="45">N52*O52</f>
         <v>74651.759999999995</v>
       </c>
-      <c r="Q52" s="88">
+      <c r="Q52" s="87">
         <v>88.94859813084112</v>
       </c>
       <c r="R52" s="75">
-        <f t="shared" ref="R52:R56" si="44">N52*Q52/100</f>
+        <f t="shared" ref="R52:R56" si="46">N52*Q52/100</f>
         <v>68526</v>
       </c>
     </row>
@@ -5481,90 +5619,114 @@
       <c r="A53" s="73">
         <v>43729</v>
       </c>
-      <c r="B53" s="101">
+      <c r="B53" s="93">
         <v>86400</v>
       </c>
       <c r="C53" s="54">
         <v>0.98799999999999999</v>
       </c>
       <c r="D53" s="75">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>85363.199999999997</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <v>94.8125</v>
       </c>
       <c r="F53" s="75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>81918</v>
       </c>
-      <c r="G53" s="73">
-        <v>43728</v>
-      </c>
-      <c r="H53" s="58"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
+      <c r="H53" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="J53" s="75">
+        <f t="shared" si="37"/>
+        <v>98582.399999999994</v>
+      </c>
+      <c r="K53" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L53" s="75">
+        <f t="shared" si="38"/>
+        <v>94770</v>
+      </c>
       <c r="M53" s="73">
         <v>43729</v>
       </c>
-      <c r="N53" s="101">
+      <c r="N53" s="93">
         <v>77040</v>
       </c>
       <c r="O53" s="10">
         <v>0.97</v>
       </c>
       <c r="P53" s="75">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>74728.800000000003</v>
       </c>
-      <c r="Q53" s="88">
+      <c r="Q53" s="87">
         <v>92.733644859813083</v>
       </c>
       <c r="R53" s="75">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>71442</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B54" s="101">
+      <c r="B54" s="93">
         <v>86400</v>
       </c>
       <c r="C54" s="54">
         <v>0.98699999999999999</v>
       </c>
       <c r="D54" s="75">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>85276.800000000003</v>
       </c>
-      <c r="E54" s="88">
+      <c r="E54" s="87">
         <v>94.8125</v>
       </c>
       <c r="F54" s="75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>81918</v>
       </c>
-      <c r="H54" s="58"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="79"/>
-      <c r="N54" s="101">
+      <c r="G54" s="73">
+        <v>43731</v>
+      </c>
+      <c r="H54" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I54" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J54" s="75">
+        <f t="shared" si="37"/>
+        <v>99187.199999999997</v>
+      </c>
+      <c r="K54" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L54" s="75">
+        <f t="shared" si="38"/>
+        <v>94770</v>
+      </c>
+      <c r="N54" s="93">
         <v>77040</v>
       </c>
       <c r="O54" s="10">
         <v>0.97899999999999998</v>
       </c>
       <c r="P54" s="75">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>75422.16</v>
       </c>
-      <c r="Q54" s="88">
+      <c r="Q54" s="87">
         <v>92.733644859813083</v>
       </c>
       <c r="R54" s="75">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>71442</v>
       </c>
     </row>
@@ -5572,90 +5734,114 @@
       <c r="A55" s="73">
         <v>43730</v>
       </c>
-      <c r="B55" s="101">
+      <c r="B55" s="93">
         <v>86400</v>
       </c>
       <c r="C55" s="54">
         <v>0.98799999999999999</v>
       </c>
       <c r="D55" s="75">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>85363.199999999997</v>
       </c>
-      <c r="E55" s="88">
+      <c r="E55" s="87">
         <v>94.8125</v>
       </c>
       <c r="F55" s="75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>81918</v>
       </c>
-      <c r="G55" s="73">
-        <v>43729</v>
-      </c>
-      <c r="H55" s="58"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
+      <c r="H55" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J55" s="75">
+        <f t="shared" si="37"/>
+        <v>98683.199999999997</v>
+      </c>
+      <c r="K55" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L55" s="75">
+        <f t="shared" si="38"/>
+        <v>91125</v>
+      </c>
       <c r="M55" s="73">
         <v>43730</v>
       </c>
-      <c r="N55" s="101">
+      <c r="N55" s="93">
         <v>77040</v>
       </c>
       <c r="O55" s="10">
         <v>0.99299999999999999</v>
       </c>
       <c r="P55" s="75">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>76500.72</v>
       </c>
-      <c r="Q55" s="88">
+      <c r="Q55" s="87">
         <v>94.626168224299064</v>
       </c>
       <c r="R55" s="75">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>72900</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="101">
+      <c r="B56" s="93">
         <v>86400</v>
       </c>
       <c r="C56" s="54">
         <v>0.98099999999999998</v>
       </c>
       <c r="D56" s="75">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>84758.399999999994</v>
       </c>
-      <c r="E56" s="88">
+      <c r="E56" s="87">
         <v>92.5</v>
       </c>
       <c r="F56" s="75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>79920</v>
       </c>
-      <c r="H56" s="58"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79"/>
-      <c r="N56" s="101">
+      <c r="G56" s="73">
+        <v>43732</v>
+      </c>
+      <c r="H56" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J56" s="75">
+        <f t="shared" si="37"/>
+        <v>99187.199999999997</v>
+      </c>
+      <c r="K56" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L56" s="75">
+        <f t="shared" si="38"/>
+        <v>98415</v>
+      </c>
+      <c r="N56" s="93">
         <v>77040</v>
       </c>
       <c r="O56" s="10">
         <v>0.999</v>
       </c>
       <c r="P56" s="75">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>76962.960000000006</v>
       </c>
-      <c r="Q56" s="88">
+      <c r="Q56" s="87">
         <v>96.518691588785046</v>
       </c>
       <c r="R56" s="75">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>74358</v>
       </c>
     </row>
@@ -5663,565 +5849,1128 @@
       <c r="A57" s="73">
         <v>43731</v>
       </c>
-      <c r="B57" s="101">
+      <c r="B57" s="93">
         <v>86400</v>
       </c>
       <c r="C57" s="54">
         <v>0.98799999999999999</v>
       </c>
       <c r="D57" s="75">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>85363.199999999997</v>
       </c>
-      <c r="E57" s="88">
+      <c r="E57" s="87">
         <v>94.8125</v>
       </c>
       <c r="F57" s="75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>81918</v>
       </c>
-      <c r="H57" s="94"/>
-      <c r="I57" s="95"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
-      <c r="N57" s="139" t="s">
+      <c r="H57" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J57" s="75">
+        <f t="shared" si="37"/>
+        <v>98481.599999999991</v>
+      </c>
+      <c r="K57" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L57" s="75">
+        <f t="shared" si="38"/>
+        <v>91125</v>
+      </c>
+      <c r="N57" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="O57" s="139"/>
-      <c r="P57" s="140">
+      <c r="O57" s="141"/>
+      <c r="P57" s="100">
         <f>SUM(P49:P56)</f>
         <v>448449.84</v>
       </c>
-      <c r="Q57" s="103">
+      <c r="Q57" s="101">
         <f>R57/P57</f>
         <v>0.92984312359215016</v>
       </c>
-      <c r="R57" s="141">
+      <c r="R57" s="102">
         <f>SUM(R49:R56)</f>
         <v>416988</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B58" s="101">
+      <c r="B58" s="93">
         <v>86400</v>
       </c>
       <c r="C58" s="54">
         <v>0.999</v>
       </c>
       <c r="D58" s="75">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>86313.600000000006</v>
       </c>
-      <c r="E58" s="88">
+      <c r="E58" s="87">
         <v>99.4375</v>
       </c>
       <c r="F58" s="75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>85914</v>
       </c>
-      <c r="H58" s="74"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
+      <c r="G58" s="73">
+        <v>43733</v>
+      </c>
+      <c r="H58" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I58" s="10">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="J58" s="75">
+        <f t="shared" si="37"/>
+        <v>98078.399999999994</v>
+      </c>
+      <c r="K58" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L58" s="75">
+        <f t="shared" si="38"/>
+        <v>94770</v>
+      </c>
       <c r="N58" s="74"/>
-      <c r="O58" s="142"/>
+      <c r="O58" s="106"/>
       <c r="P58" s="75"/>
-      <c r="Q58" s="143"/>
-      <c r="R58" s="143"/>
+      <c r="Q58" s="107"/>
+      <c r="R58" s="107"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="124"/>
-      <c r="D59" s="106">
+      <c r="C59" s="132"/>
+      <c r="D59" s="98">
         <f>SUM(D47:D58)</f>
         <v>1010437.2</v>
       </c>
-      <c r="E59" s="89">
+      <c r="E59" s="88">
         <f>F59/D59</f>
         <v>0.92718082825929216</v>
       </c>
-      <c r="F59" s="90">
+      <c r="F59" s="89">
         <f>SUM(F47:F58)</f>
         <v>936858</v>
       </c>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="94"/>
-      <c r="K59" s="93"/>
-      <c r="L59" s="93"/>
-      <c r="N59" s="128" t="s">
+      <c r="H59" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="J59" s="75">
+        <f t="shared" si="37"/>
+        <v>98784</v>
+      </c>
+      <c r="K59" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L59" s="75">
+        <f t="shared" si="38"/>
+        <v>91125</v>
+      </c>
+      <c r="M59" s="96"/>
+      <c r="N59" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="O59" s="129"/>
-      <c r="P59" s="129"/>
-      <c r="Q59" s="129"/>
-      <c r="R59" s="129"/>
+      <c r="O59" s="137"/>
+      <c r="P59" s="137"/>
+      <c r="Q59" s="137"/>
+      <c r="R59" s="137"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B60" s="98"/>
-      <c r="C60" s="99"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="92"/>
       <c r="D60" s="75"/>
       <c r="E60" s="79"/>
       <c r="F60" s="79"/>
       <c r="G60" s="73">
-        <v>43730</v>
-      </c>
-      <c r="H60" s="94"/>
-      <c r="I60" s="95"/>
-      <c r="J60" s="77"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
-      <c r="N60" s="101">
-        <v>77040</v>
+        <v>43734</v>
+      </c>
+      <c r="H60" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I60" s="10">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="J60" s="75">
+        <f t="shared" si="37"/>
+        <v>96667.199999999997</v>
+      </c>
+      <c r="K60" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L60" s="75">
+        <f t="shared" si="38"/>
+        <v>91125</v>
+      </c>
+      <c r="M60" s="73">
+        <v>43731</v>
+      </c>
+      <c r="N60" s="93">
+        <v>104400</v>
       </c>
       <c r="O60" s="10">
-        <v>0.91100000000000003</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="P60" s="75">
-        <f t="shared" ref="P60" si="45">N60*O60</f>
-        <v>70183.44</v>
-      </c>
-      <c r="Q60" s="88">
-        <v>75.700934579439249</v>
+        <f t="shared" ref="P60" si="47">N60*O60</f>
+        <v>90723.6</v>
+      </c>
+      <c r="Q60" s="87">
+        <v>49.750957854406131</v>
       </c>
       <c r="R60" s="75">
-        <f t="shared" ref="R60" si="46">N60*Q60/100</f>
-        <v>58320</v>
+        <f t="shared" ref="R60" si="48">N60*Q60/100</f>
+        <v>51940</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="128" t="s">
+      <c r="A61" s="96"/>
+      <c r="B61" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="129"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="129"/>
-      <c r="F61" s="129"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="96"/>
-      <c r="K61" s="92"/>
-      <c r="L61" s="92"/>
-      <c r="N61" s="96"/>
-      <c r="O61" s="96"/>
-      <c r="P61" s="96"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="H61" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I61" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J61" s="75">
+        <f t="shared" si="37"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="K61" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L61" s="75">
+        <f t="shared" si="38"/>
+        <v>94770</v>
+      </c>
+      <c r="N61" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O61" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="P61" s="75">
+        <f t="shared" ref="P61:P75" si="49">N61*O61</f>
+        <v>101998.8</v>
+      </c>
+      <c r="Q61" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R61" s="75">
+        <f t="shared" ref="R61:R75" si="50">N61*Q61/100</f>
+        <v>98686</v>
+      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="101">
-        <v>79200</v>
+      <c r="A62" s="73">
+        <v>43732</v>
+      </c>
+      <c r="B62" s="93">
+        <v>91440</v>
       </c>
       <c r="C62" s="54">
-        <v>0.89549999999999996</v>
+        <v>0.877</v>
       </c>
       <c r="D62" s="75">
-        <f t="shared" ref="D62" si="47">B62*C62</f>
-        <v>70923.599999999991</v>
-      </c>
-      <c r="E62" s="88">
-        <v>45.151515151515156</v>
+        <f t="shared" ref="D62" si="51">B62*C62</f>
+        <v>80192.88</v>
+      </c>
+      <c r="E62" s="87">
+        <v>71.929133858267718</v>
       </c>
       <c r="F62" s="75">
-        <f t="shared" ref="F62" si="48">B62*E62/100</f>
-        <v>35760.000000000007</v>
+        <f t="shared" ref="F62" si="52">B62*E62/100</f>
+        <v>65772</v>
       </c>
       <c r="G62" s="73">
-        <v>43731</v>
-      </c>
-      <c r="H62" s="94"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="94"/>
-      <c r="K62" s="93"/>
-      <c r="L62" s="93"/>
+        <v>43735</v>
+      </c>
+      <c r="H62" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I62" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="J62" s="75">
+        <f t="shared" si="37"/>
+        <v>96768</v>
+      </c>
+      <c r="K62" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L62" s="75">
+        <f t="shared" si="38"/>
+        <v>91125</v>
+      </c>
       <c r="M62" s="73">
-        <v>43731</v>
-      </c>
-      <c r="N62" s="94"/>
-      <c r="O62" s="97"/>
-      <c r="P62" s="94"/>
+        <v>43732</v>
+      </c>
+      <c r="N62" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O62" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="P62" s="75">
+        <f t="shared" si="49"/>
+        <v>103356</v>
+      </c>
+      <c r="Q62" s="87">
+        <v>97.014367816091948</v>
+      </c>
+      <c r="R62" s="75">
+        <f t="shared" si="50"/>
+        <v>101283</v>
+      </c>
     </row>
     <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="74"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="79"/>
-      <c r="L63" s="79"/>
-      <c r="N63" s="74"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="75"/>
+      <c r="B63" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C63" s="54">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D63" s="75">
+        <f t="shared" ref="D63:D75" si="53">B63*C63</f>
+        <v>89885.52</v>
+      </c>
+      <c r="E63" s="87">
+        <v>94.251968503937007</v>
+      </c>
+      <c r="F63" s="75">
+        <f t="shared" ref="F63:F75" si="54">B63*E63/100</f>
+        <v>86184</v>
+      </c>
+      <c r="H63" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I63" s="10">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J63" s="75">
+        <f t="shared" si="37"/>
+        <v>97171.199999999997</v>
+      </c>
+      <c r="K63" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L63" s="75">
+        <f t="shared" si="38"/>
+        <v>91125</v>
+      </c>
+      <c r="N63" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O63" s="10">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="P63" s="75">
+        <f t="shared" si="49"/>
+        <v>103564.8</v>
+      </c>
+      <c r="Q63" s="87">
+        <v>97.014367816091948</v>
+      </c>
+      <c r="R63" s="75">
+        <f t="shared" si="50"/>
+        <v>101283</v>
+      </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="73">
-        <v>43732</v>
-      </c>
-      <c r="B64" s="74"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
+        <v>43733</v>
+      </c>
+      <c r="B64" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C64" s="54">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D64" s="75">
+        <f t="shared" si="53"/>
+        <v>89062.56</v>
+      </c>
+      <c r="E64" s="87">
+        <v>91.771653543307082</v>
+      </c>
+      <c r="F64" s="75">
+        <f t="shared" si="54"/>
+        <v>83916</v>
+      </c>
       <c r="G64" s="73">
-        <v>43732</v>
-      </c>
-      <c r="H64" s="74"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="79"/>
-      <c r="L64" s="79"/>
+        <v>43736</v>
+      </c>
+      <c r="H64" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I64" s="10">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="J64" s="75">
+        <f t="shared" si="37"/>
+        <v>96868.800000000003</v>
+      </c>
+      <c r="K64" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L64" s="75">
+        <f t="shared" si="38"/>
+        <v>91125</v>
+      </c>
       <c r="M64" s="73">
-        <v>43732</v>
-      </c>
-      <c r="N64" s="74"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="75"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B65" s="74"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="75"/>
-      <c r="K65" s="79"/>
-      <c r="L65" s="79"/>
-      <c r="N65" s="74"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="75"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+        <v>43733</v>
+      </c>
+      <c r="N64" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O64" s="10">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="P64" s="75">
+        <f t="shared" si="49"/>
+        <v>103460.4</v>
+      </c>
+      <c r="Q64" s="87">
+        <v>97.014367816091948</v>
+      </c>
+      <c r="R64" s="75">
+        <f t="shared" si="50"/>
+        <v>101283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B65" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C65" s="54">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D65" s="75">
+        <f t="shared" si="53"/>
+        <v>90799.92</v>
+      </c>
+      <c r="E65" s="87">
+        <v>96.732283464566933</v>
+      </c>
+      <c r="F65" s="75">
+        <f t="shared" si="54"/>
+        <v>88452</v>
+      </c>
+      <c r="H65" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I65" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="J65" s="75">
+        <f t="shared" si="37"/>
+        <v>97776</v>
+      </c>
+      <c r="K65" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L65" s="75">
+        <f t="shared" si="38"/>
+        <v>91125</v>
+      </c>
+      <c r="N65" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O65" s="10">
+        <v>0.995</v>
+      </c>
+      <c r="P65" s="75">
+        <f t="shared" si="49"/>
+        <v>103878</v>
+      </c>
+      <c r="Q65" s="87">
+        <v>97.014367816091948</v>
+      </c>
+      <c r="R65" s="75">
+        <f t="shared" si="50"/>
+        <v>101283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="73">
-        <v>43733</v>
-      </c>
-      <c r="B66" s="74"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
+        <v>43734</v>
+      </c>
+      <c r="B66" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C66" s="54">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D66" s="75">
+        <f t="shared" si="53"/>
+        <v>89885.52</v>
+      </c>
+      <c r="E66" s="87">
+        <v>96.732283464566933</v>
+      </c>
+      <c r="F66" s="75">
+        <f t="shared" si="54"/>
+        <v>88452</v>
+      </c>
       <c r="G66" s="73">
-        <v>43733</v>
-      </c>
-      <c r="H66" s="74"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="75"/>
-      <c r="K66" s="79"/>
-      <c r="L66" s="79"/>
+        <v>43737</v>
+      </c>
+      <c r="H66" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I66" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J66" s="75">
+        <f t="shared" si="37"/>
+        <v>98481.599999999991</v>
+      </c>
+      <c r="K66" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L66" s="75">
+        <f t="shared" si="38"/>
+        <v>91125</v>
+      </c>
       <c r="M66" s="73">
-        <v>43733</v>
-      </c>
-      <c r="N66" s="74"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="75"/>
-    </row>
-    <row r="67" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="74"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="75"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="79"/>
-      <c r="N67" s="74"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="75"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+        <v>43734</v>
+      </c>
+      <c r="N66" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O66" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="P66" s="75">
+        <f t="shared" si="49"/>
+        <v>101894.39999999999</v>
+      </c>
+      <c r="Q66" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R66" s="75">
+        <f t="shared" si="50"/>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C67" s="54">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D67" s="75">
+        <f t="shared" si="53"/>
+        <v>89885.52</v>
+      </c>
+      <c r="E67" s="87">
+        <v>94.251968503937007</v>
+      </c>
+      <c r="F67" s="75">
+        <f t="shared" si="54"/>
+        <v>86184</v>
+      </c>
+      <c r="H67" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I67" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="J67" s="75">
+        <f t="shared" si="37"/>
+        <v>97776</v>
+      </c>
+      <c r="K67" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L67" s="75">
+        <f t="shared" si="38"/>
+        <v>94770</v>
+      </c>
+      <c r="N67" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O67" s="10">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="P67" s="75">
+        <f t="shared" si="49"/>
+        <v>103251.6</v>
+      </c>
+      <c r="Q67" s="87">
+        <v>97.014367816091948</v>
+      </c>
+      <c r="R67" s="75">
+        <f t="shared" si="50"/>
+        <v>101283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="73">
-        <v>43734</v>
-      </c>
-      <c r="B68" s="74"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
+        <v>43735</v>
+      </c>
+      <c r="B68" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C68" s="54">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D68" s="75">
+        <f t="shared" si="53"/>
+        <v>89519.76</v>
+      </c>
+      <c r="E68" s="87">
+        <v>94.251968503937007</v>
+      </c>
+      <c r="F68" s="75">
+        <f t="shared" si="54"/>
+        <v>86184</v>
+      </c>
       <c r="G68" s="73">
-        <v>43734</v>
-      </c>
-      <c r="H68" s="74"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="79"/>
-      <c r="L68" s="79"/>
+        <v>43738</v>
+      </c>
+      <c r="H68" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I68" s="10">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="J68" s="75">
+        <f t="shared" si="37"/>
+        <v>98179.199999999997</v>
+      </c>
+      <c r="K68" s="87">
+        <v>86.785714285714292</v>
+      </c>
+      <c r="L68" s="75">
+        <f t="shared" si="38"/>
+        <v>87480</v>
+      </c>
       <c r="M68" s="73">
-        <v>43734</v>
-      </c>
-      <c r="N68" s="74"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="75"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B69" s="74"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
-      <c r="N69" s="74"/>
-      <c r="O69" s="54"/>
-      <c r="P69" s="75"/>
-    </row>
-    <row r="70" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43735</v>
+      </c>
+      <c r="N68" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O68" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="P68" s="75">
+        <f t="shared" si="49"/>
+        <v>102625.2</v>
+      </c>
+      <c r="Q68" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R68" s="75">
+        <f t="shared" si="50"/>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B69" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C69" s="54">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D69" s="75">
+        <f t="shared" si="53"/>
+        <v>89976.959999999992</v>
+      </c>
+      <c r="E69" s="87">
+        <v>96.732283464566933</v>
+      </c>
+      <c r="F69" s="75">
+        <f t="shared" si="54"/>
+        <v>88452</v>
+      </c>
+      <c r="H69" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I69" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J69" s="75">
+        <f t="shared" si="37"/>
+        <v>99086.399999999994</v>
+      </c>
+      <c r="K69" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L69" s="75">
+        <f t="shared" si="38"/>
+        <v>98415</v>
+      </c>
+      <c r="N69" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O69" s="10">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="P69" s="75">
+        <f t="shared" si="49"/>
+        <v>104379.12</v>
+      </c>
+      <c r="Q69" s="87">
+        <v>97.014367816091948</v>
+      </c>
+      <c r="R69" s="75">
+        <f t="shared" si="50"/>
+        <v>101283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="73">
-        <v>43735</v>
-      </c>
-      <c r="B70" s="74"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="73">
-        <v>43735</v>
-      </c>
-      <c r="H70" s="74"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="75"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
+        <v>43736</v>
+      </c>
+      <c r="B70" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C70" s="54">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D70" s="75">
+        <f t="shared" si="53"/>
+        <v>88971.12</v>
+      </c>
+      <c r="E70" s="87">
+        <v>94.251968503937007</v>
+      </c>
+      <c r="F70" s="75">
+        <f t="shared" si="54"/>
+        <v>86184</v>
+      </c>
+      <c r="H70" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" s="132"/>
+      <c r="J70" s="100">
+        <f>SUM(J42:J69)</f>
+        <v>2733393.6</v>
+      </c>
+      <c r="K70" s="101">
+        <f>L70/J70</f>
+        <v>0.93878905694372006</v>
+      </c>
+      <c r="L70" s="102">
+        <f>SUM(L42:L69)</f>
+        <v>2566080</v>
+      </c>
       <c r="M70" s="73">
-        <v>43735</v>
-      </c>
-      <c r="N70" s="74"/>
-      <c r="O70" s="54"/>
-      <c r="P70" s="75"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B71" s="74"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="H71" s="74"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="75"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="N71" s="74"/>
-      <c r="O71" s="54"/>
-      <c r="P71" s="75"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B72" s="74"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="75"/>
+        <v>43736</v>
+      </c>
+      <c r="N70" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O70" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="P70" s="75">
+        <f t="shared" si="49"/>
+        <v>101998.8</v>
+      </c>
+      <c r="Q70" s="87">
+        <v>92.039272030651347</v>
+      </c>
+      <c r="R70" s="75">
+        <f t="shared" si="50"/>
+        <v>96089</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B71" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C71" s="54">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D71" s="75">
+        <f t="shared" si="53"/>
+        <v>89519.76</v>
+      </c>
+      <c r="E71" s="87">
+        <v>94.251968503937007</v>
+      </c>
+      <c r="F71" s="75">
+        <f t="shared" si="54"/>
+        <v>86184</v>
+      </c>
+      <c r="H71" s="112"/>
+      <c r="I71" s="114"/>
+      <c r="J71" s="112"/>
+      <c r="K71" s="112"/>
+      <c r="L71" s="112"/>
+      <c r="N71" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O71" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="P71" s="75">
+        <f t="shared" si="49"/>
+        <v>102416.4</v>
+      </c>
+      <c r="Q71" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R71" s="75">
+        <f t="shared" si="50"/>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="73">
+        <v>43737</v>
+      </c>
+      <c r="B72" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C72" s="54">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D72" s="75">
+        <f t="shared" si="53"/>
+        <v>90159.84</v>
+      </c>
+      <c r="E72" s="87">
+        <v>94.251968503937007</v>
+      </c>
+      <c r="F72" s="75">
+        <f t="shared" si="54"/>
+        <v>86184</v>
+      </c>
+      <c r="H72" s="79"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="79"/>
       <c r="K72" s="79"/>
       <c r="L72" s="79"/>
-      <c r="N72" s="74"/>
-      <c r="O72" s="54"/>
-      <c r="P72" s="75"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="73">
-        <v>43736</v>
-      </c>
-      <c r="B73" s="74"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="73">
-        <v>43736</v>
-      </c>
-      <c r="H73" s="74"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="75"/>
+      <c r="M72" s="73">
+        <v>43737</v>
+      </c>
+      <c r="N72" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O72" s="10">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="P72" s="75">
+        <f t="shared" si="49"/>
+        <v>101790</v>
+      </c>
+      <c r="Q72" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R72" s="75">
+        <f t="shared" si="50"/>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B73" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C73" s="54">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D73" s="75">
+        <f t="shared" si="53"/>
+        <v>89336.88</v>
+      </c>
+      <c r="E73" s="87">
+        <v>96.732283464566933</v>
+      </c>
+      <c r="F73" s="75">
+        <f t="shared" si="54"/>
+        <v>88452</v>
+      </c>
+      <c r="H73" s="79"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="79"/>
       <c r="K73" s="79"/>
       <c r="L73" s="79"/>
-      <c r="M73" s="73">
-        <v>43736</v>
-      </c>
-      <c r="N73" s="74"/>
-      <c r="O73" s="54"/>
-      <c r="P73" s="75"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B74" s="74"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="75"/>
+      <c r="N73" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O73" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="P73" s="75">
+        <f t="shared" si="49"/>
+        <v>101998.8</v>
+      </c>
+      <c r="Q73" s="87">
+        <v>97.014367816091948</v>
+      </c>
+      <c r="R73" s="75">
+        <f t="shared" si="50"/>
+        <v>101283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="73">
+        <v>43738</v>
+      </c>
+      <c r="B74" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C74" s="54">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D74" s="75">
+        <f t="shared" si="53"/>
+        <v>87050.87999999999</v>
+      </c>
+      <c r="E74" s="87">
+        <v>89.291338582677156</v>
+      </c>
+      <c r="F74" s="75">
+        <f t="shared" si="54"/>
+        <v>81647.999999999985</v>
+      </c>
+      <c r="H74" s="79"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="79"/>
       <c r="K74" s="79"/>
       <c r="L74" s="79"/>
-      <c r="N74" s="74"/>
-      <c r="O74" s="54"/>
-      <c r="P74" s="75"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="73">
-        <v>43737</v>
-      </c>
-      <c r="B75" s="74"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="73">
-        <v>43737</v>
-      </c>
-      <c r="H75" s="74"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="75"/>
+      <c r="M74" s="73">
+        <v>43738</v>
+      </c>
+      <c r="N74" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O74" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="P74" s="75">
+        <f t="shared" si="49"/>
+        <v>100224</v>
+      </c>
+      <c r="Q74" s="87">
+        <v>89.551724137931032</v>
+      </c>
+      <c r="R74" s="75">
+        <f t="shared" si="50"/>
+        <v>93492</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C75" s="54">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D75" s="75">
+        <f t="shared" si="53"/>
+        <v>89336.88</v>
+      </c>
+      <c r="E75" s="87">
+        <v>94.251968503937007</v>
+      </c>
+      <c r="F75" s="75">
+        <f t="shared" si="54"/>
+        <v>86184</v>
+      </c>
+      <c r="H75" s="79"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="79"/>
       <c r="K75" s="79"/>
       <c r="L75" s="79"/>
-      <c r="M75" s="73">
-        <v>43737</v>
-      </c>
-      <c r="N75" s="74"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="75"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="74"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="75"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="H76" s="74"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="75"/>
+      <c r="N75" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O75" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="P75" s="75">
+        <f t="shared" si="49"/>
+        <v>102938.4</v>
+      </c>
+      <c r="Q75" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R75" s="75">
+        <f t="shared" si="50"/>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B76" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="132"/>
+      <c r="D76" s="100">
+        <f>SUM(D62:D75)</f>
+        <v>1243584</v>
+      </c>
+      <c r="E76" s="101">
+        <f>F76/D76</f>
+        <v>0.95565076424270501</v>
+      </c>
+      <c r="F76" s="102">
+        <f>SUM(F62:F75)</f>
+        <v>1188432</v>
+      </c>
+      <c r="H76" s="79"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="79"/>
       <c r="K76" s="79"/>
       <c r="L76" s="79"/>
-      <c r="N76" s="74"/>
-      <c r="O76" s="54"/>
-      <c r="P76" s="75"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B77" s="94"/>
-      <c r="C77" s="95"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="81"/>
-      <c r="F77" s="81"/>
-      <c r="H77" s="94"/>
-      <c r="I77" s="95"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="81"/>
-      <c r="L77" s="81"/>
-      <c r="N77" s="94"/>
-      <c r="O77" s="95"/>
-      <c r="P77" s="77"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B78" s="98"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="75"/>
+      <c r="N76" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="O76" s="141"/>
+      <c r="P76" s="100">
+        <f>SUM(P60:P75)</f>
+        <v>1630498.3199999998</v>
+      </c>
+      <c r="Q76" s="101">
+        <f>R76/P76</f>
+        <v>0.94610217077684577</v>
+      </c>
+      <c r="R76" s="102">
+        <f>SUM(R60:R75)</f>
+        <v>1542618</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B77" s="109"/>
+      <c r="C77" s="109"/>
+      <c r="D77" s="112"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="112"/>
+      <c r="H77" s="110"/>
+      <c r="I77" s="110"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="79"/>
+      <c r="N77" s="109"/>
+      <c r="O77" s="109"/>
+      <c r="P77" s="112"/>
+      <c r="Q77" s="113"/>
+      <c r="R77" s="113"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B78" s="110"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="79"/>
       <c r="E78" s="79"/>
       <c r="F78" s="79"/>
-      <c r="H78" s="98"/>
-      <c r="I78" s="99"/>
-      <c r="J78" s="75"/>
+      <c r="H78" s="110"/>
+      <c r="I78" s="110"/>
+      <c r="J78" s="79"/>
       <c r="K78" s="79"/>
       <c r="L78" s="79"/>
-      <c r="N78" s="98"/>
-      <c r="O78" s="99"/>
-      <c r="P78" s="75"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B79" s="94"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="93"/>
-      <c r="F79" s="93"/>
-      <c r="H79" s="94"/>
-      <c r="I79" s="97"/>
-      <c r="J79" s="94"/>
-      <c r="K79" s="93"/>
-      <c r="L79" s="93"/>
-      <c r="N79" s="94"/>
-      <c r="O79" s="97"/>
-      <c r="P79" s="94"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="73">
-        <v>43738</v>
-      </c>
-      <c r="B80" s="74"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="75"/>
+      <c r="N78" s="110"/>
+      <c r="O78" s="110"/>
+      <c r="P78" s="79"/>
+      <c r="Q78" s="111"/>
+      <c r="R78" s="111"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B79" s="110"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="110"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="110"/>
+      <c r="J79" s="110"/>
+      <c r="K79" s="99"/>
+      <c r="L79" s="99"/>
+      <c r="N79" s="110"/>
+      <c r="O79" s="110"/>
+      <c r="P79" s="110"/>
+      <c r="Q79" s="111"/>
+      <c r="R79" s="111"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B80" s="79"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="79"/>
       <c r="E80" s="79"/>
       <c r="F80" s="79"/>
-      <c r="G80" s="73">
-        <v>43738</v>
-      </c>
-      <c r="H80" s="74"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="75"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="79"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="79"/>
       <c r="K80" s="79"/>
       <c r="L80" s="79"/>
-      <c r="M80" s="73">
-        <v>43738</v>
-      </c>
-      <c r="N80" s="74"/>
-      <c r="O80" s="54"/>
-      <c r="P80" s="75"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B81" s="74"/>
-      <c r="C81" s="54"/>
-      <c r="D81" s="75"/>
+      <c r="N80" s="79"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="79"/>
+      <c r="Q80" s="111"/>
+      <c r="R80" s="111"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B81" s="79"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="79"/>
       <c r="E81" s="79"/>
       <c r="F81" s="79"/>
-      <c r="H81" s="74"/>
-      <c r="I81" s="54"/>
-      <c r="J81" s="75"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="79"/>
       <c r="K81" s="79"/>
       <c r="L81" s="79"/>
-      <c r="N81" s="74"/>
-      <c r="O81" s="54"/>
-      <c r="P81" s="75"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B82" s="94"/>
-      <c r="C82" s="95"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="81"/>
-      <c r="F82" s="81"/>
-      <c r="H82" s="94"/>
-      <c r="I82" s="95"/>
-      <c r="J82" s="77"/>
-      <c r="K82" s="81"/>
-      <c r="L82" s="81"/>
-      <c r="N82" s="94"/>
-      <c r="O82" s="95"/>
-      <c r="P82" s="77"/>
-    </row>
-    <row r="83" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="127"/>
-      <c r="C83" s="127"/>
-      <c r="D83" s="127"/>
+      <c r="N81" s="79"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="79"/>
+      <c r="Q81" s="111"/>
+      <c r="R81" s="111"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="110"/>
+      <c r="J82" s="79"/>
+      <c r="K82" s="79"/>
+      <c r="L82" s="79"/>
+      <c r="N82" s="110"/>
+      <c r="O82" s="110"/>
+      <c r="P82" s="79"/>
+      <c r="Q82" s="111"/>
+      <c r="R82" s="111"/>
+    </row>
+    <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="135"/>
+      <c r="C83" s="135"/>
+      <c r="D83" s="135"/>
       <c r="E83" s="80"/>
       <c r="F83" s="80"/>
-      <c r="H83" s="127"/>
-      <c r="I83" s="127"/>
-      <c r="J83" s="127"/>
+      <c r="H83" s="135"/>
+      <c r="I83" s="135"/>
+      <c r="J83" s="135"/>
       <c r="K83" s="80"/>
       <c r="L83" s="80"/>
-      <c r="N83" s="127"/>
-      <c r="O83" s="127"/>
-      <c r="P83" s="127"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N83" s="135"/>
+      <c r="O83" s="135"/>
+      <c r="P83" s="135"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
       <c r="C84" s="56"/>
       <c r="D84" s="79"/>
@@ -6236,7 +6985,7 @@
       <c r="O84" s="56"/>
       <c r="P84" s="79"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B85" s="79"/>
       <c r="C85" s="56"/>
       <c r="D85" s="79"/>
@@ -6251,7 +7000,7 @@
       <c r="O85" s="56"/>
       <c r="P85" s="79"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B86" s="79"/>
       <c r="C86" s="56"/>
       <c r="D86" s="79"/>
@@ -6266,7 +7015,7 @@
       <c r="O86" s="56"/>
       <c r="P86" s="79"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B87" s="79"/>
       <c r="C87" s="56"/>
       <c r="D87" s="79"/>
@@ -6281,7 +7030,7 @@
       <c r="O87" s="56"/>
       <c r="P87" s="79"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="73"/>
       <c r="B88" s="79"/>
       <c r="C88" s="56"/>
@@ -6299,7 +7048,7 @@
       <c r="O88" s="56"/>
       <c r="P88" s="79"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B89" s="79"/>
       <c r="C89" s="56"/>
       <c r="D89" s="79"/>
@@ -6314,23 +7063,23 @@
       <c r="O89" s="56"/>
       <c r="P89" s="79"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B90" s="127"/>
-      <c r="C90" s="127"/>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B90" s="135"/>
+      <c r="C90" s="135"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="127"/>
-      <c r="I90" s="127"/>
+      <c r="H90" s="135"/>
+      <c r="I90" s="135"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="127"/>
-      <c r="O90" s="127"/>
+      <c r="N90" s="135"/>
+      <c r="O90" s="135"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="35">
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="N3:R3"/>
@@ -6363,6 +7112,9 @@
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="N76:O76"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="14412" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="14412" windowHeight="12456" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Бланк" sheetId="45" r:id="rId1"/>
     <sheet name="Сентябрь" sheetId="53" r:id="rId2"/>
+    <sheet name="Октябрь" sheetId="54" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Бланк!$A$1:$N$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Октябрь!$A$1:$R$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$R$76</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
   <si>
     <t>% работы</t>
   </si>
@@ -102,6 +104,9 @@
   </si>
   <si>
     <t>ХХI-В-28-2-350-1 (Калина 0.35 л.)</t>
+  </si>
+  <si>
+    <t>ХХI-В-28-2-350 (Аквадив 0.35 л.)</t>
   </si>
 </sst>
 </file>
@@ -230,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -500,12 +505,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -819,13 +869,46 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -835,15 +918,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -852,52 +926,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -905,6 +943,54 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1236,21 +1322,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
       <c r="H1" s="51"/>
-      <c r="I1" s="124" t="s">
+      <c r="I1" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
     </row>
     <row r="2" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -1292,22 +1378,22 @@
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="115" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="117"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="121"/>
       <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1553,11 +1639,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="117"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="24">
         <f>SUM(E4:E10)</f>
         <v>829712.88</v>
@@ -1578,12 +1664,12 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="121"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="126"/>
       <c r="H12" s="20"/>
       <c r="I12" s="14"/>
       <c r="J12" s="23"/>
@@ -1596,13 +1682,13 @@
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="126"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="120"/>
       <c r="G13" s="127"/>
       <c r="H13" s="20"/>
       <c r="I13" s="14"/>
@@ -1615,12 +1701,12 @@
       <c r="A14" s="3">
         <v>43439</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="120"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131"/>
       <c r="H14" s="20"/>
       <c r="I14" s="14"/>
       <c r="J14" s="23"/>
@@ -1655,9 +1741,9 @@
       <c r="E16" s="11"/>
       <c r="F16" s="38"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="117"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="121"/>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
       <c r="M16" s="24"/>
@@ -1669,9 +1755,9 @@
       <c r="E17" s="11"/>
       <c r="F17" s="38"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="126"/>
       <c r="K17" s="11"/>
       <c r="L17" s="33"/>
       <c r="M17" s="11"/>
@@ -1686,12 +1772,12 @@
       <c r="E18" s="11"/>
       <c r="F18" s="38"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="117"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="121"/>
       <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1780,9 +1866,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="115"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="117"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="121"/>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
       <c r="G24" s="24"/>
@@ -1812,12 +1898,12 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="117"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="121"/>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
       <c r="J26" s="23"/>
@@ -1963,9 +2049,9 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="115"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="117"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="121"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
       <c r="G35" s="24"/>
@@ -1995,12 +2081,12 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="117"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="121"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
       <c r="J37" s="23"/>
@@ -2148,9 +2234,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="115"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="117"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="121"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
       <c r="G46" s="24"/>
@@ -2180,12 +2266,12 @@
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="117"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="121"/>
       <c r="H48" s="30"/>
       <c r="I48" s="31"/>
       <c r="J48" s="23"/>
@@ -2330,15 +2416,15 @@
       <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="115"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="117"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="121"/>
       <c r="E57" s="24"/>
       <c r="F57" s="25"/>
       <c r="G57" s="24"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="117"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="123"/>
+      <c r="J57" s="121"/>
       <c r="K57" s="24"/>
       <c r="L57" s="25"/>
       <c r="M57" s="24"/>
@@ -2358,12 +2444,12 @@
       <c r="M58" s="11"/>
     </row>
     <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="115"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="116"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="117"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="121"/>
       <c r="H59" s="20"/>
       <c r="I59" s="14"/>
       <c r="J59" s="23"/>
@@ -2375,9 +2461,9 @@
       <c r="A60" s="3">
         <v>43456</v>
       </c>
-      <c r="B60" s="115"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="117"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="123"/>
+      <c r="D60" s="121"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
       <c r="G60" s="24"/>
@@ -2406,11 +2492,11 @@
       <c r="A62" s="3">
         <v>43457</v>
       </c>
-      <c r="B62" s="115"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="116"/>
-      <c r="F62" s="126"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="120"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="120"/>
       <c r="G62" s="127"/>
       <c r="H62" s="20"/>
       <c r="I62" s="14"/>
@@ -2474,9 +2560,9 @@
       <c r="E66" s="11"/>
       <c r="F66" s="38"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="115"/>
-      <c r="I66" s="116"/>
-      <c r="J66" s="117"/>
+      <c r="H66" s="122"/>
+      <c r="I66" s="123"/>
+      <c r="J66" s="121"/>
       <c r="K66" s="24"/>
       <c r="L66" s="25"/>
       <c r="M66" s="24"/>
@@ -2505,12 +2591,12 @@
       <c r="E68" s="11"/>
       <c r="F68" s="38"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="130"/>
-      <c r="I68" s="126"/>
-      <c r="J68" s="126"/>
-      <c r="K68" s="126"/>
-      <c r="L68" s="126"/>
-      <c r="M68" s="117"/>
+      <c r="H68" s="119"/>
+      <c r="I68" s="120"/>
+      <c r="J68" s="120"/>
+      <c r="K68" s="120"/>
+      <c r="L68" s="120"/>
+      <c r="M68" s="121"/>
       <c r="N68" s="28"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -2622,9 +2708,9 @@
       <c r="E75" s="11"/>
       <c r="F75" s="38"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="115"/>
-      <c r="I75" s="116"/>
-      <c r="J75" s="117"/>
+      <c r="H75" s="122"/>
+      <c r="I75" s="123"/>
+      <c r="J75" s="121"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
       <c r="M75" s="24"/>
@@ -2644,23 +2730,23 @@
       <c r="M76" s="11"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="115"/>
-      <c r="C77" s="116"/>
-      <c r="D77" s="117"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="121"/>
       <c r="E77" s="24"/>
       <c r="F77" s="25"/>
       <c r="G77" s="24"/>
-      <c r="H77" s="130"/>
-      <c r="I77" s="126"/>
-      <c r="J77" s="126"/>
-      <c r="K77" s="126"/>
-      <c r="L77" s="126"/>
-      <c r="M77" s="117"/>
+      <c r="H77" s="119"/>
+      <c r="I77" s="120"/>
+      <c r="J77" s="120"/>
+      <c r="K77" s="120"/>
+      <c r="L77" s="120"/>
+      <c r="M77" s="121"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="121"/>
-      <c r="C78" s="122"/>
-      <c r="D78" s="123"/>
+      <c r="B78" s="124"/>
+      <c r="C78" s="125"/>
+      <c r="D78" s="126"/>
       <c r="E78" s="11"/>
       <c r="F78" s="33"/>
       <c r="G78" s="11"/>
@@ -2675,11 +2761,11 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="115"/>
-      <c r="C79" s="116"/>
-      <c r="D79" s="126"/>
-      <c r="E79" s="116"/>
-      <c r="F79" s="126"/>
+      <c r="B79" s="122"/>
+      <c r="C79" s="123"/>
+      <c r="D79" s="120"/>
+      <c r="E79" s="123"/>
+      <c r="F79" s="120"/>
       <c r="G79" s="127"/>
       <c r="H79" s="20"/>
       <c r="I79" s="14"/>
@@ -2723,14 +2809,14 @@
       <c r="M81" s="11"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="115"/>
-      <c r="C82" s="116"/>
-      <c r="D82" s="117"/>
+      <c r="B82" s="122"/>
+      <c r="C82" s="123"/>
+      <c r="D82" s="121"/>
       <c r="E82" s="24"/>
       <c r="F82" s="25"/>
       <c r="G82" s="24"/>
-      <c r="H82" s="130"/>
-      <c r="I82" s="126"/>
+      <c r="H82" s="119"/>
+      <c r="I82" s="120"/>
       <c r="J82" s="127"/>
       <c r="K82" s="26"/>
       <c r="L82" s="27"/>
@@ -2738,12 +2824,12 @@
       <c r="N82" s="28"/>
     </row>
     <row r="83" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="129"/>
-      <c r="C83" s="129"/>
-      <c r="D83" s="129"/>
-      <c r="E83" s="129"/>
-      <c r="F83" s="129"/>
-      <c r="G83" s="129"/>
+      <c r="B83" s="118"/>
+      <c r="C83" s="118"/>
+      <c r="D83" s="118"/>
+      <c r="E83" s="118"/>
+      <c r="F83" s="118"/>
+      <c r="G83" s="118"/>
       <c r="H83" s="49"/>
       <c r="I83" s="50"/>
       <c r="J83" s="44"/>
@@ -2758,9 +2844,9 @@
       <c r="E84" s="16"/>
       <c r="F84" s="45"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="129"/>
-      <c r="I84" s="129"/>
-      <c r="J84" s="129"/>
+      <c r="H84" s="118"/>
+      <c r="I84" s="118"/>
+      <c r="J84" s="118"/>
       <c r="K84" s="16"/>
       <c r="L84" s="36"/>
       <c r="M84" s="16"/>
@@ -2815,9 +2901,9 @@
       <c r="E88" s="16"/>
       <c r="F88" s="45"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="129"/>
-      <c r="I88" s="129"/>
-      <c r="J88" s="129"/>
+      <c r="H88" s="118"/>
+      <c r="I88" s="118"/>
+      <c r="J88" s="118"/>
       <c r="K88" s="16"/>
       <c r="L88" s="36"/>
       <c r="M88" s="16"/>
@@ -2831,15 +2917,39 @@
       <c r="G89" s="16"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="129"/>
-      <c r="C90" s="129"/>
-      <c r="D90" s="129"/>
+      <c r="B90" s="118"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
       <c r="E90" s="16"/>
       <c r="F90" s="36"/>
       <c r="G90" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:G59"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="H68:M68"/>
     <mergeCell ref="H75:J75"/>
@@ -2852,30 +2962,6 @@
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="H84:J84"/>
     <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2890,9 +2976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32:E43"/>
+    <sheetView view="pageBreakPreview" topLeftCell="N1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N57" sqref="N57:R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2915,27 +3001,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="H1" s="142" t="s">
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="H1" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="N1" s="142" t="s">
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="N1" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -2986,21 +3072,21 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
       <c r="G3" s="97"/>
-      <c r="H3" s="133" t="s">
+      <c r="H3" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
       <c r="M3" s="97"/>
       <c r="N3" s="136" t="s">
         <v>15</v>
@@ -3590,10 +3676,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="132"/>
+      <c r="C14" s="142"/>
       <c r="D14" s="77">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
@@ -3690,13 +3776,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="96"/>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
       <c r="G16" s="73">
         <v>43715</v>
       </c>
@@ -3947,10 +4033,10 @@
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="131" t="s">
+      <c r="N20" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="132"/>
+      <c r="O20" s="142"/>
       <c r="P20" s="77">
         <f>SUM(P4:P19)</f>
         <v>1447623.36</v>
@@ -4130,10 +4216,10 @@
         <f t="shared" si="18"/>
         <v>106496</v>
       </c>
-      <c r="H24" s="131" t="s">
+      <c r="H24" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="132"/>
+      <c r="I24" s="142"/>
       <c r="J24" s="77">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
@@ -4230,13 +4316,13 @@
         <v>109824</v>
       </c>
       <c r="G26" s="96"/>
-      <c r="H26" s="133" t="s">
+      <c r="H26" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
       <c r="N26" s="93">
         <v>84240</v>
       </c>
@@ -4371,10 +4457,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="132"/>
+      <c r="C29" s="142"/>
       <c r="D29" s="77">
         <f>SUM(D17:D28)</f>
         <v>1312507.44</v>
@@ -4471,13 +4557,13 @@
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="96"/>
-      <c r="B31" s="133" t="s">
+      <c r="B31" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
       <c r="G31" s="73">
         <v>43721</v>
       </c>
@@ -4843,10 +4929,10 @@
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N37" s="138" t="s">
+      <c r="N37" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="138"/>
+      <c r="O37" s="143"/>
       <c r="P37" s="77">
         <f>SUM(P23:P36)</f>
         <v>1133003.52</v>
@@ -4920,10 +5006,10 @@
         <f t="shared" si="30"/>
         <v>65705.999999999985</v>
       </c>
-      <c r="H39" s="139" t="s">
+      <c r="H39" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="140"/>
+      <c r="I39" s="146"/>
       <c r="J39" s="77">
         <f>SUM(J27:J38)</f>
         <v>1647216</v>
@@ -5011,13 +5097,13 @@
         <v>67104</v>
       </c>
       <c r="G41" s="96"/>
-      <c r="H41" s="133" t="s">
+      <c r="H41" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="134"/>
-      <c r="J41" s="134"/>
-      <c r="K41" s="134"/>
-      <c r="L41" s="134"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="135"/>
       <c r="N41" s="93">
         <v>64080</v>
       </c>
@@ -5152,10 +5238,10 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="131" t="s">
+      <c r="B44" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="132"/>
+      <c r="C44" s="142"/>
       <c r="D44" s="100">
         <f>SUM(D32:D43)</f>
         <v>825840</v>
@@ -5394,10 +5480,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N48" s="138" t="s">
+      <c r="N48" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="O48" s="138"/>
+      <c r="O48" s="143"/>
       <c r="P48" s="98">
         <f>SUM(P40:P47)</f>
         <v>496705.68</v>
@@ -5883,10 +5969,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N57" s="141" t="s">
+      <c r="N57" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="O57" s="141"/>
+      <c r="O57" s="144"/>
       <c r="P57" s="100">
         <f>SUM(P49:P56)</f>
         <v>448449.84</v>
@@ -5945,10 +6031,10 @@
       <c r="R58" s="107"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="131" t="s">
+      <c r="B59" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="132"/>
+      <c r="C59" s="142"/>
       <c r="D59" s="98">
         <f>SUM(D47:D58)</f>
         <v>1010437.2</v>
@@ -6559,10 +6645,10 @@
         <f t="shared" si="54"/>
         <v>86184</v>
       </c>
-      <c r="H70" s="131" t="s">
+      <c r="H70" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="132"/>
+      <c r="I70" s="142"/>
       <c r="J70" s="100">
         <f>SUM(J42:J69)</f>
         <v>2733393.6</v>
@@ -6814,10 +6900,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="131" t="s">
+      <c r="B76" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="132"/>
+      <c r="C76" s="142"/>
       <c r="D76" s="100">
         <f>SUM(D62:D75)</f>
         <v>1243584</v>
@@ -6835,10 +6921,10 @@
       <c r="J76" s="79"/>
       <c r="K76" s="79"/>
       <c r="L76" s="79"/>
-      <c r="N76" s="141" t="s">
+      <c r="N76" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="141"/>
+      <c r="O76" s="144"/>
       <c r="P76" s="100">
         <f>SUM(P60:P75)</f>
         <v>1630498.3199999998</v>
@@ -6956,19 +7042,19 @@
       <c r="R82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="135"/>
-      <c r="C83" s="135"/>
-      <c r="D83" s="135"/>
+      <c r="B83" s="140"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="140"/>
       <c r="E83" s="80"/>
       <c r="F83" s="80"/>
-      <c r="H83" s="135"/>
-      <c r="I83" s="135"/>
-      <c r="J83" s="135"/>
+      <c r="H83" s="140"/>
+      <c r="I83" s="140"/>
+      <c r="J83" s="140"/>
       <c r="K83" s="80"/>
       <c r="L83" s="80"/>
-      <c r="N83" s="135"/>
-      <c r="O83" s="135"/>
-      <c r="P83" s="135"/>
+      <c r="N83" s="140"/>
+      <c r="O83" s="140"/>
+      <c r="P83" s="140"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -7064,42 +7150,22 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="135"/>
-      <c r="C90" s="135"/>
+      <c r="B90" s="140"/>
+      <c r="C90" s="140"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="135"/>
-      <c r="I90" s="135"/>
+      <c r="H90" s="140"/>
+      <c r="I90" s="140"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="135"/>
-      <c r="O90" s="135"/>
+      <c r="N90" s="140"/>
+      <c r="O90" s="140"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N50:R50"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N59:R59"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B16:F16"/>
@@ -7115,6 +7181,2534 @@
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="H70:I70"/>
     <mergeCell ref="N76:O76"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N59:R59"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="45" max="17" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="62" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="63" customWidth="1"/>
+    <col min="4" max="6" width="11.6640625" style="63" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="62" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="63" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="63" customWidth="1"/>
+    <col min="10" max="12" width="11.6640625" style="63" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="62" customWidth="1"/>
+    <col min="14" max="14" width="11" style="63" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="63" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="63" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="63" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="63" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="H1" s="138" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="N1" s="138" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+    </row>
+    <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
+      <c r="B2" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="73">
+        <v>43739</v>
+      </c>
+      <c r="B4" s="153">
+        <v>91440</v>
+      </c>
+      <c r="C4" s="154">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="D4" s="75">
+        <f t="shared" ref="D4" si="0">B4*C4</f>
+        <v>90434.16</v>
+      </c>
+      <c r="E4" s="155">
+        <v>94.251968503937007</v>
+      </c>
+      <c r="F4" s="75">
+        <f t="shared" ref="F4" si="1">B4*E4/100</f>
+        <v>86184</v>
+      </c>
+      <c r="G4" s="73">
+        <v>43739</v>
+      </c>
+      <c r="H4" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I4" s="57">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J4" s="75">
+        <f t="shared" ref="J4:J23" si="2">H4*I4</f>
+        <v>99187.199999999997</v>
+      </c>
+      <c r="K4" s="86">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L4" s="75">
+        <f t="shared" ref="L4:L23" si="3">H4*K4/100</f>
+        <v>98415</v>
+      </c>
+      <c r="M4" s="73">
+        <v>43739</v>
+      </c>
+      <c r="N4" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O4" s="151">
+        <v>0.98</v>
+      </c>
+      <c r="P4" s="75">
+        <f t="shared" ref="P4" si="4">N4*O4</f>
+        <v>102312</v>
+      </c>
+      <c r="Q4" s="152">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R4" s="75">
+        <f t="shared" ref="R4" si="5">N4*Q4/100</f>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C5" s="54">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D5" s="75">
+        <f t="shared" ref="D5:D11" si="6">B5*C5</f>
+        <v>89336.88</v>
+      </c>
+      <c r="E5" s="87">
+        <v>94.251968503937007</v>
+      </c>
+      <c r="F5" s="75">
+        <f t="shared" ref="F5:F11" si="7">B5*E5/100</f>
+        <v>86184</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="60"/>
+      <c r="N5" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="P5" s="75">
+        <f t="shared" ref="P5:P23" si="8">N5*O5</f>
+        <v>102207.59999999999</v>
+      </c>
+      <c r="Q5" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R5" s="75">
+        <f t="shared" ref="R5:R23" si="9">N5*Q5/100</f>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="73">
+        <v>43740</v>
+      </c>
+      <c r="B6" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C6" s="54">
+        <v>0.98</v>
+      </c>
+      <c r="D6" s="75">
+        <f t="shared" si="6"/>
+        <v>89611.199999999997</v>
+      </c>
+      <c r="E6" s="87">
+        <v>96.732283464566933</v>
+      </c>
+      <c r="F6" s="75">
+        <f t="shared" si="7"/>
+        <v>88452</v>
+      </c>
+      <c r="G6" s="73">
+        <v>43740</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="73">
+        <v>43740</v>
+      </c>
+      <c r="N6" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="P6" s="75">
+        <f t="shared" si="8"/>
+        <v>102938.4</v>
+      </c>
+      <c r="Q6" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R6" s="75">
+        <f t="shared" si="9"/>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D7" s="75">
+        <f t="shared" si="6"/>
+        <v>90342.720000000001</v>
+      </c>
+      <c r="E7" s="87">
+        <v>96.732283464566933</v>
+      </c>
+      <c r="F7" s="75">
+        <f t="shared" si="7"/>
+        <v>88452</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="60"/>
+      <c r="N7" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="P7" s="75">
+        <f t="shared" si="8"/>
+        <v>102729.59999999999</v>
+      </c>
+      <c r="Q7" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R7" s="75">
+        <f t="shared" si="9"/>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="73">
+        <v>43741</v>
+      </c>
+      <c r="B8" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C8" s="54">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D8" s="75">
+        <f t="shared" si="6"/>
+        <v>90342.720000000001</v>
+      </c>
+      <c r="E8" s="87">
+        <v>94.251968503937007</v>
+      </c>
+      <c r="F8" s="75">
+        <f t="shared" si="7"/>
+        <v>86184</v>
+      </c>
+      <c r="G8" s="73">
+        <v>43741</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="73">
+        <v>43741</v>
+      </c>
+      <c r="N8" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="P8" s="75">
+        <f t="shared" si="8"/>
+        <v>102207.59999999999</v>
+      </c>
+      <c r="Q8" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R8" s="75">
+        <f t="shared" si="9"/>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C9" s="54">
+        <v>0.99</v>
+      </c>
+      <c r="D9" s="75">
+        <f t="shared" si="6"/>
+        <v>90525.6</v>
+      </c>
+      <c r="E9" s="87">
+        <v>94.251968503937007</v>
+      </c>
+      <c r="F9" s="75">
+        <f t="shared" si="7"/>
+        <v>86184</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="60"/>
+      <c r="N9" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="P9" s="75">
+        <f t="shared" si="8"/>
+        <v>102938.4</v>
+      </c>
+      <c r="Q9" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R9" s="75">
+        <f t="shared" si="9"/>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="73">
+        <v>43742</v>
+      </c>
+      <c r="B10" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C10" s="54">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D10" s="75">
+        <f t="shared" si="6"/>
+        <v>89702.64</v>
+      </c>
+      <c r="E10" s="87">
+        <v>96.732283464566933</v>
+      </c>
+      <c r="F10" s="75">
+        <f t="shared" si="7"/>
+        <v>88452</v>
+      </c>
+      <c r="G10" s="73">
+        <v>43742</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="73">
+        <v>43742</v>
+      </c>
+      <c r="N10" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="P10" s="75">
+        <f t="shared" si="8"/>
+        <v>102416.4</v>
+      </c>
+      <c r="Q10" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R10" s="75">
+        <f t="shared" si="9"/>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="76"/>
+      <c r="B11" s="93">
+        <v>91440</v>
+      </c>
+      <c r="C11" s="54">
+        <v>0.999</v>
+      </c>
+      <c r="D11" s="75">
+        <f t="shared" si="6"/>
+        <v>91348.56</v>
+      </c>
+      <c r="E11" s="87">
+        <v>99.212598425196859</v>
+      </c>
+      <c r="F11" s="75">
+        <f t="shared" si="7"/>
+        <v>90720</v>
+      </c>
+      <c r="G11" s="76"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="P11" s="75">
+        <f t="shared" si="8"/>
+        <v>102625.2</v>
+      </c>
+      <c r="Q11" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R11" s="75">
+        <f t="shared" si="9"/>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="146"/>
+      <c r="D12" s="116">
+        <f>SUM(D4:D11)</f>
+        <v>721644.48</v>
+      </c>
+      <c r="E12" s="149">
+        <f>F12/D12</f>
+        <v>0.97113193466123382</v>
+      </c>
+      <c r="F12" s="89">
+        <f>SUM(F4:F11)</f>
+        <v>700812</v>
+      </c>
+      <c r="G12" s="78">
+        <v>43743</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="78">
+        <v>43743</v>
+      </c>
+      <c r="N12" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="P12" s="75">
+        <f t="shared" si="8"/>
+        <v>100224</v>
+      </c>
+      <c r="Q12" s="87">
+        <v>92.039272030651347</v>
+      </c>
+      <c r="R12" s="75">
+        <f t="shared" si="9"/>
+        <v>96089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="76"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="60"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="60"/>
+      <c r="N13" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="P13" s="75">
+        <f t="shared" si="8"/>
+        <v>102938.4</v>
+      </c>
+      <c r="Q13" s="87">
+        <v>97.014367816091948</v>
+      </c>
+      <c r="R13" s="75">
+        <f t="shared" si="9"/>
+        <v>101283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="73">
+        <v>43744</v>
+      </c>
+      <c r="H14" s="58"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="73">
+        <v>43744</v>
+      </c>
+      <c r="N14" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="P14" s="75">
+        <f t="shared" si="8"/>
+        <v>101268</v>
+      </c>
+      <c r="Q14" s="87">
+        <v>92.039272030651347</v>
+      </c>
+      <c r="R14" s="75">
+        <f t="shared" si="9"/>
+        <v>96089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="78">
+        <v>43743</v>
+      </c>
+      <c r="B15" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C15" s="54">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="D15" s="75">
+        <f t="shared" ref="D15" si="10">B15*C15</f>
+        <v>84879.360000000001</v>
+      </c>
+      <c r="E15" s="87">
+        <v>73.723958333333329</v>
+      </c>
+      <c r="F15" s="75">
+        <f t="shared" ref="F15" si="11">B15*E15/100</f>
+        <v>67944</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="60"/>
+      <c r="N15" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="P15" s="75">
+        <f t="shared" si="8"/>
+        <v>102729.59999999999</v>
+      </c>
+      <c r="Q15" s="87">
+        <v>92.039272030651347</v>
+      </c>
+      <c r="R15" s="75">
+        <f t="shared" si="9"/>
+        <v>96089</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C16" s="54">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D16" s="75">
+        <f t="shared" ref="D16:D32" si="12">B16*C16</f>
+        <v>90593.279999999999</v>
+      </c>
+      <c r="E16" s="87">
+        <v>97.005208333333343</v>
+      </c>
+      <c r="F16" s="75">
+        <f t="shared" ref="F16:F32" si="13">B16*E16/100</f>
+        <v>89400</v>
+      </c>
+      <c r="G16" s="73">
+        <v>43745</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="73">
+        <v>43745</v>
+      </c>
+      <c r="N16" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="P16" s="75">
+        <f t="shared" si="8"/>
+        <v>101998.8</v>
+      </c>
+      <c r="Q16" s="87">
+        <v>97.014367816091948</v>
+      </c>
+      <c r="R16" s="75">
+        <f t="shared" si="9"/>
+        <v>101283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="73">
+        <v>43744</v>
+      </c>
+      <c r="B17" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C17" s="54">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D17" s="75">
+        <f t="shared" si="12"/>
+        <v>89948.160000000003</v>
+      </c>
+      <c r="E17" s="87">
+        <v>89.244791666666671</v>
+      </c>
+      <c r="F17" s="75">
+        <f t="shared" si="13"/>
+        <v>82248</v>
+      </c>
+      <c r="H17" s="58"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="60"/>
+      <c r="N17" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="P17" s="75">
+        <f t="shared" si="8"/>
+        <v>102834</v>
+      </c>
+      <c r="Q17" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R17" s="75">
+        <f t="shared" si="9"/>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C18" s="54">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D18" s="75">
+        <f t="shared" si="12"/>
+        <v>90132.479999999996</v>
+      </c>
+      <c r="E18" s="87">
+        <v>95.065104166666671</v>
+      </c>
+      <c r="F18" s="75">
+        <f t="shared" si="13"/>
+        <v>87612</v>
+      </c>
+      <c r="G18" s="73">
+        <v>43746</v>
+      </c>
+      <c r="H18" s="58"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="73">
+        <v>43746</v>
+      </c>
+      <c r="N18" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="P18" s="75">
+        <f t="shared" si="8"/>
+        <v>102834</v>
+      </c>
+      <c r="Q18" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R18" s="75">
+        <f t="shared" si="9"/>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="73">
+        <v>43745</v>
+      </c>
+      <c r="B19" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C19" s="54">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="D19" s="75">
+        <f t="shared" si="12"/>
+        <v>89487.360000000001</v>
+      </c>
+      <c r="E19" s="87">
+        <v>91.184895833333329</v>
+      </c>
+      <c r="F19" s="75">
+        <f t="shared" si="13"/>
+        <v>84036</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="60"/>
+      <c r="N19" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O19" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="P19" s="75">
+        <f t="shared" si="8"/>
+        <v>102729.59999999999</v>
+      </c>
+      <c r="Q19" s="87">
+        <v>97.014367816091948</v>
+      </c>
+      <c r="R19" s="75">
+        <f t="shared" si="9"/>
+        <v>101283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C20" s="54">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D20" s="75">
+        <f t="shared" si="12"/>
+        <v>90408.959999999992</v>
+      </c>
+      <c r="E20" s="87">
+        <v>93.125</v>
+      </c>
+      <c r="F20" s="75">
+        <f t="shared" si="13"/>
+        <v>85824</v>
+      </c>
+      <c r="G20" s="73">
+        <v>43747</v>
+      </c>
+      <c r="H20" s="58"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="73">
+        <v>43747</v>
+      </c>
+      <c r="N20" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0.996</v>
+      </c>
+      <c r="P20" s="75">
+        <f t="shared" si="8"/>
+        <v>103982.39999999999</v>
+      </c>
+      <c r="Q20" s="87">
+        <v>97.014367816091948</v>
+      </c>
+      <c r="R20" s="75">
+        <f t="shared" si="9"/>
+        <v>101283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="73">
+        <v>43746</v>
+      </c>
+      <c r="B21" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C21" s="54">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D21" s="75">
+        <f t="shared" si="12"/>
+        <v>90685.440000000002</v>
+      </c>
+      <c r="E21" s="87">
+        <v>93.125</v>
+      </c>
+      <c r="F21" s="75">
+        <f t="shared" si="13"/>
+        <v>85824</v>
+      </c>
+      <c r="H21" s="58"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="60"/>
+      <c r="N21" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O21" s="10">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="P21" s="75">
+        <f t="shared" si="8"/>
+        <v>99806.399999999994</v>
+      </c>
+      <c r="Q21" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R21" s="75">
+        <f t="shared" si="9"/>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C22" s="54">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D22" s="75">
+        <f t="shared" si="12"/>
+        <v>90408.959999999992</v>
+      </c>
+      <c r="E22" s="87">
+        <v>95.065104166666671</v>
+      </c>
+      <c r="F22" s="75">
+        <f t="shared" si="13"/>
+        <v>87612</v>
+      </c>
+      <c r="G22" s="73">
+        <v>43748</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="73">
+        <v>43748</v>
+      </c>
+      <c r="N22" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="P22" s="75">
+        <f t="shared" si="8"/>
+        <v>102938.4</v>
+      </c>
+      <c r="Q22" s="87">
+        <v>97.014367816091948</v>
+      </c>
+      <c r="R22" s="75">
+        <f t="shared" si="9"/>
+        <v>101283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="73">
+        <v>43747</v>
+      </c>
+      <c r="B23" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C23" s="54">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D23" s="75">
+        <f t="shared" si="12"/>
+        <v>90777.600000000006</v>
+      </c>
+      <c r="E23" s="87">
+        <v>91.184895833333329</v>
+      </c>
+      <c r="F23" s="75">
+        <f t="shared" si="13"/>
+        <v>84036</v>
+      </c>
+      <c r="H23" s="58"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="60"/>
+      <c r="N23" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="P23" s="75">
+        <f t="shared" si="8"/>
+        <v>103147.2</v>
+      </c>
+      <c r="Q23" s="87">
+        <v>97.014367816091948</v>
+      </c>
+      <c r="R23" s="75">
+        <f t="shared" si="9"/>
+        <v>101283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C24" s="54">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D24" s="75">
+        <f t="shared" si="12"/>
+        <v>89763.839999999997</v>
+      </c>
+      <c r="E24" s="87">
+        <v>95.065104166666671</v>
+      </c>
+      <c r="F24" s="75">
+        <f t="shared" si="13"/>
+        <v>87612</v>
+      </c>
+      <c r="H24" s="141"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="89"/>
+      <c r="N24" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="144"/>
+      <c r="P24" s="117">
+        <f>SUM(P4:P23)</f>
+        <v>2047806</v>
+      </c>
+      <c r="Q24" s="101">
+        <f>R24/P24</f>
+        <v>0.96762632788457503</v>
+      </c>
+      <c r="R24" s="102">
+        <f>SUM(R4:R23)</f>
+        <v>1981511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73">
+        <v>43748</v>
+      </c>
+      <c r="B25" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C25" s="54">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D25" s="75">
+        <f t="shared" si="12"/>
+        <v>89856</v>
+      </c>
+      <c r="E25" s="87">
+        <v>95.065104166666671</v>
+      </c>
+      <c r="F25" s="75">
+        <f t="shared" si="13"/>
+        <v>87612</v>
+      </c>
+      <c r="H25" s="74"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="75"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C26" s="54">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D26" s="75">
+        <f t="shared" si="12"/>
+        <v>90685.440000000002</v>
+      </c>
+      <c r="E26" s="87">
+        <v>93.125</v>
+      </c>
+      <c r="F26" s="75">
+        <f t="shared" si="13"/>
+        <v>85824</v>
+      </c>
+      <c r="H26" s="134"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="N26" s="136" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="137"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="137"/>
+      <c r="R26" s="137"/>
+    </row>
+    <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73">
+        <v>43749</v>
+      </c>
+      <c r="B27" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C27" s="54">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="D27" s="75">
+        <f t="shared" si="12"/>
+        <v>88565.759999999995</v>
+      </c>
+      <c r="E27" s="87">
+        <v>93.125</v>
+      </c>
+      <c r="F27" s="75">
+        <f t="shared" si="13"/>
+        <v>85824</v>
+      </c>
+      <c r="G27" s="73">
+        <v>43749</v>
+      </c>
+      <c r="H27" s="74"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="73">
+        <v>43749</v>
+      </c>
+      <c r="N27" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O27" s="151">
+        <v>0.98</v>
+      </c>
+      <c r="P27" s="75">
+        <f t="shared" ref="P27" si="14">N27*O27</f>
+        <v>102312</v>
+      </c>
+      <c r="Q27" s="152">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="R27" s="75">
+        <f t="shared" ref="R27" si="15">N27*Q27/100</f>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="93">
+        <v>93600</v>
+      </c>
+      <c r="C28" s="54">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D28" s="75">
+        <f t="shared" si="12"/>
+        <v>92851.199999999997</v>
+      </c>
+      <c r="E28" s="87">
+        <v>93.602564102564102</v>
+      </c>
+      <c r="F28" s="75">
+        <f t="shared" si="13"/>
+        <v>87612</v>
+      </c>
+      <c r="H28" s="74"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="75"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="75"/>
+    </row>
+    <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="73">
+        <v>43750</v>
+      </c>
+      <c r="B29" s="93">
+        <v>93600</v>
+      </c>
+      <c r="C29" s="54">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="D29" s="75">
+        <f t="shared" si="12"/>
+        <v>90698.4</v>
+      </c>
+      <c r="E29" s="87">
+        <v>89.782051282051285</v>
+      </c>
+      <c r="F29" s="75">
+        <f t="shared" si="13"/>
+        <v>84036</v>
+      </c>
+      <c r="G29" s="73">
+        <v>43750</v>
+      </c>
+      <c r="H29" s="74"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="73">
+        <v>43750</v>
+      </c>
+      <c r="N29" s="93"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="75"/>
+    </row>
+    <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="93">
+        <v>93600</v>
+      </c>
+      <c r="C30" s="54">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D30" s="75">
+        <f t="shared" si="12"/>
+        <v>91166.399999999994</v>
+      </c>
+      <c r="E30" s="87">
+        <v>93.602564102564102</v>
+      </c>
+      <c r="F30" s="75">
+        <f t="shared" si="13"/>
+        <v>87612</v>
+      </c>
+      <c r="H30" s="74"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="75"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="75"/>
+    </row>
+    <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="73">
+        <v>43751</v>
+      </c>
+      <c r="B31" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C31" s="54">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D31" s="75">
+        <f t="shared" si="12"/>
+        <v>89026.559999999998</v>
+      </c>
+      <c r="E31" s="87">
+        <v>93.125</v>
+      </c>
+      <c r="F31" s="75">
+        <f t="shared" si="13"/>
+        <v>85824</v>
+      </c>
+      <c r="G31" s="73">
+        <v>43751</v>
+      </c>
+      <c r="H31" s="74"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="73">
+        <v>43751</v>
+      </c>
+      <c r="N31" s="93"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="75"/>
+    </row>
+    <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C32" s="54">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D32" s="75">
+        <f t="shared" si="12"/>
+        <v>90224.639999999999</v>
+      </c>
+      <c r="E32" s="87">
+        <v>95.065104166666671</v>
+      </c>
+      <c r="F32" s="75">
+        <f t="shared" si="13"/>
+        <v>87612</v>
+      </c>
+      <c r="H32" s="74"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="75"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="75"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="73">
+        <v>43752</v>
+      </c>
+      <c r="B33" s="74"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="73">
+        <v>43752</v>
+      </c>
+      <c r="H33" s="74"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="73">
+        <v>43752</v>
+      </c>
+      <c r="N33" s="93"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="75"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="74"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="75"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="75"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="75"/>
+    </row>
+    <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="73">
+        <v>43753</v>
+      </c>
+      <c r="B35" s="74"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="73">
+        <v>43753</v>
+      </c>
+      <c r="H35" s="74"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="73">
+        <v>43753</v>
+      </c>
+      <c r="N35" s="93"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="75"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="74"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="75"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="75"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="75"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="73">
+        <v>43754</v>
+      </c>
+      <c r="B37" s="74"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="73">
+        <v>43754</v>
+      </c>
+      <c r="H37" s="74"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="75"/>
+      <c r="N37" s="143"/>
+      <c r="O37" s="143"/>
+      <c r="P37" s="116"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="89"/>
+    </row>
+    <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="74"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="75"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="75"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="60"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="73">
+        <v>43755</v>
+      </c>
+      <c r="B39" s="74"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="75"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="89"/>
+      <c r="N39" s="136"/>
+      <c r="O39" s="137"/>
+      <c r="P39" s="137"/>
+      <c r="Q39" s="137"/>
+      <c r="R39" s="137"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="74"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="75"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="73">
+        <v>43754</v>
+      </c>
+      <c r="N40" s="93"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="75"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="74"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="75"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="135"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="75"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="74"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="73">
+        <v>43755</v>
+      </c>
+      <c r="H42" s="74"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="73">
+        <v>43755</v>
+      </c>
+      <c r="N42" s="93"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="75"/>
+    </row>
+    <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="74"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="75"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="75"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="75"/>
+      <c r="Q43" s="87"/>
+      <c r="R43" s="75"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="141"/>
+      <c r="C44" s="142"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="73">
+        <v>43756</v>
+      </c>
+      <c r="H44" s="74"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="73">
+        <v>43756</v>
+      </c>
+      <c r="N44" s="93"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="75"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="103"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="75"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="75"/>
+      <c r="Q45" s="87"/>
+      <c r="R45" s="75"/>
+    </row>
+    <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="136"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="73">
+        <v>43757</v>
+      </c>
+      <c r="H46" s="74"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="73">
+        <v>43757</v>
+      </c>
+      <c r="N46" s="93"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="75"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="75"/>
+    </row>
+    <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="73">
+        <v>43756</v>
+      </c>
+      <c r="B47" s="93"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="75"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="75"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="75"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="75"/>
+    </row>
+    <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="93"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="73">
+        <v>43758</v>
+      </c>
+      <c r="H48" s="74"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="75"/>
+      <c r="N48" s="143"/>
+      <c r="O48" s="143"/>
+      <c r="P48" s="116"/>
+      <c r="Q48" s="88"/>
+      <c r="R48" s="89"/>
+    </row>
+    <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="73">
+        <v>43757</v>
+      </c>
+      <c r="B49" s="93"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="75"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="75"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="60"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="93"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="73">
+        <v>43759</v>
+      </c>
+      <c r="H50" s="74"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="75"/>
+      <c r="N50" s="136"/>
+      <c r="O50" s="137"/>
+      <c r="P50" s="137"/>
+      <c r="Q50" s="137"/>
+      <c r="R50" s="137"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="73">
+        <v>43758</v>
+      </c>
+      <c r="B51" s="93"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="75"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="73">
+        <v>43758</v>
+      </c>
+      <c r="N51" s="93"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="75"/>
+      <c r="Q51" s="87"/>
+      <c r="R51" s="75"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B52" s="93"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="73">
+        <v>43760</v>
+      </c>
+      <c r="H52" s="74"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="75"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="75"/>
+      <c r="Q52" s="87"/>
+      <c r="R52" s="75"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="73">
+        <v>43759</v>
+      </c>
+      <c r="B53" s="93"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="75"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="87"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="73">
+        <v>43759</v>
+      </c>
+      <c r="N53" s="93"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="87"/>
+      <c r="R53" s="75"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B54" s="93"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="73">
+        <v>43761</v>
+      </c>
+      <c r="H54" s="74"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="75"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="75"/>
+      <c r="Q54" s="87"/>
+      <c r="R54" s="75"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="73">
+        <v>43760</v>
+      </c>
+      <c r="B55" s="93"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="75"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="73">
+        <v>43760</v>
+      </c>
+      <c r="N55" s="93"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="87"/>
+      <c r="R55" s="75"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B56" s="93"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="73">
+        <v>43762</v>
+      </c>
+      <c r="H56" s="74"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="75"/>
+      <c r="N56" s="93"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="75"/>
+      <c r="Q56" s="87"/>
+      <c r="R56" s="75"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="73">
+        <v>43761</v>
+      </c>
+      <c r="B57" s="93"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="75"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="75"/>
+      <c r="N57" s="144"/>
+      <c r="O57" s="144"/>
+      <c r="P57" s="117"/>
+      <c r="Q57" s="101"/>
+      <c r="R57" s="102"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="93"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="73">
+        <v>43763</v>
+      </c>
+      <c r="H58" s="74"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="75"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="106"/>
+      <c r="P58" s="75"/>
+      <c r="Q58" s="107"/>
+      <c r="R58" s="107"/>
+    </row>
+    <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="141"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="89"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="75"/>
+      <c r="N59" s="136"/>
+      <c r="O59" s="137"/>
+      <c r="P59" s="137"/>
+      <c r="Q59" s="137"/>
+      <c r="R59" s="137"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B60" s="91"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="73">
+        <v>43764</v>
+      </c>
+      <c r="H60" s="74"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="87"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="73">
+        <v>43761</v>
+      </c>
+      <c r="N60" s="93"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="75"/>
+      <c r="Q60" s="87"/>
+      <c r="R60" s="75"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B61" s="136"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="87"/>
+      <c r="L61" s="75"/>
+      <c r="N61" s="93"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="75"/>
+      <c r="Q61" s="87"/>
+      <c r="R61" s="75"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="73">
+        <v>43762</v>
+      </c>
+      <c r="B62" s="93"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="73">
+        <v>43765</v>
+      </c>
+      <c r="H62" s="74"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="87"/>
+      <c r="L62" s="75"/>
+      <c r="M62" s="73">
+        <v>43762</v>
+      </c>
+      <c r="N62" s="93"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="75"/>
+      <c r="Q62" s="87"/>
+      <c r="R62" s="75"/>
+    </row>
+    <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="93"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="75"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="87"/>
+      <c r="L63" s="75"/>
+      <c r="N63" s="93"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="75"/>
+      <c r="Q63" s="87"/>
+      <c r="R63" s="75"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="73">
+        <v>43763</v>
+      </c>
+      <c r="B64" s="93"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="73">
+        <v>43766</v>
+      </c>
+      <c r="H64" s="74"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="87"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="73">
+        <v>43763</v>
+      </c>
+      <c r="N64" s="93"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="75"/>
+      <c r="Q64" s="87"/>
+      <c r="R64" s="75"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B65" s="93"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="75"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="75"/>
+      <c r="K65" s="87"/>
+      <c r="L65" s="75"/>
+      <c r="N65" s="93"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="75"/>
+      <c r="Q65" s="87"/>
+      <c r="R65" s="75"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="73">
+        <v>43764</v>
+      </c>
+      <c r="B66" s="93"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="73">
+        <v>43767</v>
+      </c>
+      <c r="H66" s="74"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="87"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="73">
+        <v>43764</v>
+      </c>
+      <c r="N66" s="93"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="75"/>
+      <c r="Q66" s="87"/>
+      <c r="R66" s="75"/>
+    </row>
+    <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="93"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="75"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="87"/>
+      <c r="L67" s="75"/>
+      <c r="N67" s="93"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="75"/>
+      <c r="Q67" s="87"/>
+      <c r="R67" s="75"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="73">
+        <v>43765</v>
+      </c>
+      <c r="B68" s="93"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="73">
+        <v>43768</v>
+      </c>
+      <c r="H68" s="74"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="87"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="73">
+        <v>43765</v>
+      </c>
+      <c r="N68" s="93"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="75"/>
+      <c r="Q68" s="87"/>
+      <c r="R68" s="75"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B69" s="93"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="75"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="87"/>
+      <c r="L69" s="75"/>
+      <c r="N69" s="93"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="75"/>
+      <c r="Q69" s="87"/>
+      <c r="R69" s="75"/>
+    </row>
+    <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="73">
+        <v>43766</v>
+      </c>
+      <c r="B70" s="93"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="75"/>
+      <c r="H70" s="141"/>
+      <c r="I70" s="142"/>
+      <c r="J70" s="117"/>
+      <c r="K70" s="101"/>
+      <c r="L70" s="102"/>
+      <c r="M70" s="73">
+        <v>43766</v>
+      </c>
+      <c r="N70" s="93"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="75"/>
+      <c r="Q70" s="87"/>
+      <c r="R70" s="75"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B71" s="93"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="75"/>
+      <c r="H71" s="112"/>
+      <c r="I71" s="114"/>
+      <c r="J71" s="112"/>
+      <c r="K71" s="112"/>
+      <c r="L71" s="112"/>
+      <c r="N71" s="93"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="75"/>
+      <c r="Q71" s="87"/>
+      <c r="R71" s="75"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="73">
+        <v>43767</v>
+      </c>
+      <c r="B72" s="93"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="75"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
+      <c r="M72" s="73">
+        <v>43767</v>
+      </c>
+      <c r="N72" s="93"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="75"/>
+      <c r="Q72" s="87"/>
+      <c r="R72" s="75"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B73" s="93"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="75"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="N73" s="93"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="75"/>
+      <c r="Q73" s="87"/>
+      <c r="R73" s="75"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="73">
+        <v>43768</v>
+      </c>
+      <c r="B74" s="93"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="75"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
+      <c r="M74" s="73">
+        <v>43768</v>
+      </c>
+      <c r="N74" s="93"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="75"/>
+      <c r="Q74" s="87"/>
+      <c r="R74" s="75"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="93"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="75"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
+      <c r="N75" s="93"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="75"/>
+      <c r="Q75" s="87"/>
+      <c r="R75" s="75"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B76" s="141"/>
+      <c r="C76" s="142"/>
+      <c r="D76" s="117"/>
+      <c r="E76" s="101"/>
+      <c r="F76" s="102"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
+      <c r="N76" s="144"/>
+      <c r="O76" s="144"/>
+      <c r="P76" s="117"/>
+      <c r="Q76" s="101"/>
+      <c r="R76" s="102"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B77" s="109"/>
+      <c r="C77" s="109"/>
+      <c r="D77" s="112"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="112"/>
+      <c r="H77" s="110"/>
+      <c r="I77" s="110"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="79"/>
+      <c r="N77" s="109"/>
+      <c r="O77" s="109"/>
+      <c r="P77" s="112"/>
+      <c r="Q77" s="113"/>
+      <c r="R77" s="113"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B78" s="110"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="H78" s="110"/>
+      <c r="I78" s="110"/>
+      <c r="J78" s="79"/>
+      <c r="K78" s="79"/>
+      <c r="L78" s="79"/>
+      <c r="N78" s="110"/>
+      <c r="O78" s="110"/>
+      <c r="P78" s="79"/>
+      <c r="Q78" s="111"/>
+      <c r="R78" s="111"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B79" s="110"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="110"/>
+      <c r="E79" s="115"/>
+      <c r="F79" s="115"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="110"/>
+      <c r="J79" s="110"/>
+      <c r="K79" s="115"/>
+      <c r="L79" s="115"/>
+      <c r="N79" s="110"/>
+      <c r="O79" s="110"/>
+      <c r="P79" s="110"/>
+      <c r="Q79" s="111"/>
+      <c r="R79" s="111"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B80" s="79"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="79"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="79"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="79"/>
+      <c r="K80" s="79"/>
+      <c r="L80" s="79"/>
+      <c r="N80" s="79"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="79"/>
+      <c r="Q80" s="111"/>
+      <c r="R80" s="111"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B81" s="79"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="79"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="79"/>
+      <c r="K81" s="79"/>
+      <c r="L81" s="79"/>
+      <c r="N81" s="79"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="79"/>
+      <c r="Q81" s="111"/>
+      <c r="R81" s="111"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="110"/>
+      <c r="J82" s="79"/>
+      <c r="K82" s="79"/>
+      <c r="L82" s="79"/>
+      <c r="N82" s="110"/>
+      <c r="O82" s="110"/>
+      <c r="P82" s="79"/>
+      <c r="Q82" s="111"/>
+      <c r="R82" s="111"/>
+    </row>
+    <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="140"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="140"/>
+      <c r="E83" s="115"/>
+      <c r="F83" s="115"/>
+      <c r="H83" s="140"/>
+      <c r="I83" s="140"/>
+      <c r="J83" s="140"/>
+      <c r="K83" s="115"/>
+      <c r="L83" s="115"/>
+      <c r="N83" s="140"/>
+      <c r="O83" s="140"/>
+      <c r="P83" s="140"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B84" s="79"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="H84" s="79"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="79"/>
+      <c r="K84" s="79"/>
+      <c r="L84" s="79"/>
+      <c r="N84" s="79"/>
+      <c r="O84" s="56"/>
+      <c r="P84" s="79"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B85" s="79"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="H85" s="79"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="79"/>
+      <c r="K85" s="79"/>
+      <c r="L85" s="79"/>
+      <c r="N85" s="79"/>
+      <c r="O85" s="56"/>
+      <c r="P85" s="79"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B86" s="79"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="H86" s="79"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="79"/>
+      <c r="K86" s="79"/>
+      <c r="L86" s="79"/>
+      <c r="N86" s="79"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="79"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B87" s="79"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="79"/>
+      <c r="H87" s="79"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="79"/>
+      <c r="K87" s="79"/>
+      <c r="L87" s="79"/>
+      <c r="N87" s="79"/>
+      <c r="O87" s="56"/>
+      <c r="P87" s="79"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="73"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="79"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="79"/>
+      <c r="K88" s="79"/>
+      <c r="L88" s="79"/>
+      <c r="M88" s="73"/>
+      <c r="N88" s="79"/>
+      <c r="O88" s="56"/>
+      <c r="P88" s="79"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B89" s="79"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="79"/>
+      <c r="F89" s="79"/>
+      <c r="H89" s="79"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="79"/>
+      <c r="K89" s="79"/>
+      <c r="L89" s="79"/>
+      <c r="N89" s="79"/>
+      <c r="O89" s="56"/>
+      <c r="P89" s="79"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B90" s="140"/>
+      <c r="C90" s="140"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="79"/>
+      <c r="H90" s="140"/>
+      <c r="I90" s="140"/>
+      <c r="J90" s="79"/>
+      <c r="K90" s="79"/>
+      <c r="L90" s="79"/>
+      <c r="N90" s="140"/>
+      <c r="O90" s="140"/>
+      <c r="P90" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="N59:R59"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="N3:R3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
   <si>
     <t>% работы</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>ХХI-В-28-2-350 (Аквадив 0.35 л.)</t>
+  </si>
+  <si>
+    <t>XXI-В-28-2.1б-700 (Фирменная 2, 0.7 л.)</t>
+  </si>
+  <si>
+    <t>XXI-В-28-1-200-5 (Круглая 0,2 л.)</t>
+  </si>
+  <si>
+    <t>ХХI-В-28-2.1-500-4 (Ведьма)</t>
+  </si>
+  <si>
+    <t>ХХI-В-30-4А-500 (Байрон 0.5 л.)</t>
   </si>
 </sst>
 </file>
@@ -235,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -550,12 +562,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -878,6 +901,45 @@
     <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -965,31 +1027,13 @@
     <xf numFmtId="3" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1322,21 +1366,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
       <c r="H1" s="51"/>
-      <c r="I1" s="132" t="s">
+      <c r="I1" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
     </row>
     <row r="2" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -1378,22 +1422,22 @@
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="122" t="s">
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="121"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="134"/>
       <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1639,11 +1683,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="121"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="134"/>
       <c r="E11" s="24">
         <f>SUM(E4:E10)</f>
         <v>829712.88</v>
@@ -1664,12 +1708,12 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="124"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="126"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="139"/>
       <c r="H12" s="20"/>
       <c r="I12" s="14"/>
       <c r="J12" s="23"/>
@@ -1682,14 +1726,14 @@
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="127"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="140"/>
       <c r="H13" s="20"/>
       <c r="I13" s="14"/>
       <c r="J13" s="23"/>
@@ -1701,12 +1745,12 @@
       <c r="A14" s="3">
         <v>43439</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="131"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="144"/>
       <c r="H14" s="20"/>
       <c r="I14" s="14"/>
       <c r="J14" s="23"/>
@@ -1741,9 +1785,9 @@
       <c r="E16" s="11"/>
       <c r="F16" s="38"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="121"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="134"/>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
       <c r="M16" s="24"/>
@@ -1755,9 +1799,9 @@
       <c r="E17" s="11"/>
       <c r="F17" s="38"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="126"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="139"/>
       <c r="K17" s="11"/>
       <c r="L17" s="33"/>
       <c r="M17" s="11"/>
@@ -1772,12 +1816,12 @@
       <c r="E18" s="11"/>
       <c r="F18" s="38"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="121"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="134"/>
       <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1866,9 +1910,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="121"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="134"/>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
       <c r="G24" s="24"/>
@@ -1898,12 +1942,12 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="121"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="134"/>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
       <c r="J26" s="23"/>
@@ -2049,9 +2093,9 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="122"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="121"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="134"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
       <c r="G35" s="24"/>
@@ -2081,12 +2125,12 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="122"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="121"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="134"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
       <c r="J37" s="23"/>
@@ -2234,9 +2278,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="122"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="121"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="134"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
       <c r="G46" s="24"/>
@@ -2266,12 +2310,12 @@
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="122"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="121"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="134"/>
       <c r="H48" s="30"/>
       <c r="I48" s="31"/>
       <c r="J48" s="23"/>
@@ -2416,15 +2460,15 @@
       <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="122"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="121"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="134"/>
       <c r="E57" s="24"/>
       <c r="F57" s="25"/>
       <c r="G57" s="24"/>
-      <c r="H57" s="122"/>
-      <c r="I57" s="123"/>
-      <c r="J57" s="121"/>
+      <c r="H57" s="135"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="134"/>
       <c r="K57" s="24"/>
       <c r="L57" s="25"/>
       <c r="M57" s="24"/>
@@ -2444,12 +2488,12 @@
       <c r="M58" s="11"/>
     </row>
     <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="122"/>
-      <c r="C59" s="123"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="123"/>
-      <c r="G59" s="121"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="134"/>
       <c r="H59" s="20"/>
       <c r="I59" s="14"/>
       <c r="J59" s="23"/>
@@ -2461,9 +2505,9 @@
       <c r="A60" s="3">
         <v>43456</v>
       </c>
-      <c r="B60" s="122"/>
-      <c r="C60" s="123"/>
-      <c r="D60" s="121"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="134"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
       <c r="G60" s="24"/>
@@ -2475,12 +2519,12 @@
       <c r="M60" s="11"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="128"/>
-      <c r="C61" s="128"/>
-      <c r="D61" s="128"/>
-      <c r="E61" s="128"/>
-      <c r="F61" s="128"/>
-      <c r="G61" s="128"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="141"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="141"/>
       <c r="H61" s="20"/>
       <c r="I61" s="14"/>
       <c r="J61" s="23"/>
@@ -2492,12 +2536,12 @@
       <c r="A62" s="3">
         <v>43457</v>
       </c>
-      <c r="B62" s="122"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="120"/>
-      <c r="E62" s="123"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="127"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="136"/>
+      <c r="F62" s="133"/>
+      <c r="G62" s="140"/>
       <c r="H62" s="20"/>
       <c r="I62" s="14"/>
       <c r="J62" s="23"/>
@@ -2560,9 +2604,9 @@
       <c r="E66" s="11"/>
       <c r="F66" s="38"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="122"/>
-      <c r="I66" s="123"/>
-      <c r="J66" s="121"/>
+      <c r="H66" s="135"/>
+      <c r="I66" s="136"/>
+      <c r="J66" s="134"/>
       <c r="K66" s="24"/>
       <c r="L66" s="25"/>
       <c r="M66" s="24"/>
@@ -2591,12 +2635,12 @@
       <c r="E68" s="11"/>
       <c r="F68" s="38"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="119"/>
-      <c r="I68" s="120"/>
-      <c r="J68" s="120"/>
-      <c r="K68" s="120"/>
-      <c r="L68" s="120"/>
-      <c r="M68" s="121"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="133"/>
+      <c r="J68" s="133"/>
+      <c r="K68" s="133"/>
+      <c r="L68" s="133"/>
+      <c r="M68" s="134"/>
       <c r="N68" s="28"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -2708,9 +2752,9 @@
       <c r="E75" s="11"/>
       <c r="F75" s="38"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="122"/>
-      <c r="I75" s="123"/>
-      <c r="J75" s="121"/>
+      <c r="H75" s="135"/>
+      <c r="I75" s="136"/>
+      <c r="J75" s="134"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
       <c r="M75" s="24"/>
@@ -2730,23 +2774,23 @@
       <c r="M76" s="11"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="122"/>
-      <c r="C77" s="123"/>
-      <c r="D77" s="121"/>
+      <c r="B77" s="135"/>
+      <c r="C77" s="136"/>
+      <c r="D77" s="134"/>
       <c r="E77" s="24"/>
       <c r="F77" s="25"/>
       <c r="G77" s="24"/>
-      <c r="H77" s="119"/>
-      <c r="I77" s="120"/>
-      <c r="J77" s="120"/>
-      <c r="K77" s="120"/>
-      <c r="L77" s="120"/>
-      <c r="M77" s="121"/>
+      <c r="H77" s="132"/>
+      <c r="I77" s="133"/>
+      <c r="J77" s="133"/>
+      <c r="K77" s="133"/>
+      <c r="L77" s="133"/>
+      <c r="M77" s="134"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="124"/>
-      <c r="C78" s="125"/>
-      <c r="D78" s="126"/>
+      <c r="B78" s="137"/>
+      <c r="C78" s="138"/>
+      <c r="D78" s="139"/>
       <c r="E78" s="11"/>
       <c r="F78" s="33"/>
       <c r="G78" s="11"/>
@@ -2761,12 +2805,12 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="122"/>
-      <c r="C79" s="123"/>
-      <c r="D79" s="120"/>
-      <c r="E79" s="123"/>
-      <c r="F79" s="120"/>
-      <c r="G79" s="127"/>
+      <c r="B79" s="135"/>
+      <c r="C79" s="136"/>
+      <c r="D79" s="133"/>
+      <c r="E79" s="136"/>
+      <c r="F79" s="133"/>
+      <c r="G79" s="140"/>
       <c r="H79" s="20"/>
       <c r="I79" s="14"/>
       <c r="J79" s="23"/>
@@ -2809,27 +2853,27 @@
       <c r="M81" s="11"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="122"/>
-      <c r="C82" s="123"/>
-      <c r="D82" s="121"/>
+      <c r="B82" s="135"/>
+      <c r="C82" s="136"/>
+      <c r="D82" s="134"/>
       <c r="E82" s="24"/>
       <c r="F82" s="25"/>
       <c r="G82" s="24"/>
-      <c r="H82" s="119"/>
-      <c r="I82" s="120"/>
-      <c r="J82" s="127"/>
+      <c r="H82" s="132"/>
+      <c r="I82" s="133"/>
+      <c r="J82" s="140"/>
       <c r="K82" s="26"/>
       <c r="L82" s="27"/>
       <c r="M82" s="26"/>
       <c r="N82" s="28"/>
     </row>
     <row r="83" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="118"/>
-      <c r="C83" s="118"/>
-      <c r="D83" s="118"/>
-      <c r="E83" s="118"/>
-      <c r="F83" s="118"/>
-      <c r="G83" s="118"/>
+      <c r="B83" s="131"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131"/>
+      <c r="F83" s="131"/>
+      <c r="G83" s="131"/>
       <c r="H83" s="49"/>
       <c r="I83" s="50"/>
       <c r="J83" s="44"/>
@@ -2844,9 +2888,9 @@
       <c r="E84" s="16"/>
       <c r="F84" s="45"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="118"/>
-      <c r="I84" s="118"/>
-      <c r="J84" s="118"/>
+      <c r="H84" s="131"/>
+      <c r="I84" s="131"/>
+      <c r="J84" s="131"/>
       <c r="K84" s="16"/>
       <c r="L84" s="36"/>
       <c r="M84" s="16"/>
@@ -2901,9 +2945,9 @@
       <c r="E88" s="16"/>
       <c r="F88" s="45"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="118"/>
-      <c r="I88" s="118"/>
-      <c r="J88" s="118"/>
+      <c r="H88" s="131"/>
+      <c r="I88" s="131"/>
+      <c r="J88" s="131"/>
       <c r="K88" s="16"/>
       <c r="L88" s="36"/>
       <c r="M88" s="16"/>
@@ -2917,9 +2961,9 @@
       <c r="G89" s="16"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="118"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="118"/>
+      <c r="B90" s="131"/>
+      <c r="C90" s="131"/>
+      <c r="D90" s="131"/>
       <c r="E90" s="16"/>
       <c r="F90" s="36"/>
       <c r="G90" s="16"/>
@@ -3001,27 +3045,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="H1" s="138" t="s">
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="H1" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="N1" s="138" t="s">
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="N1" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -3072,29 +3116,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="97"/>
-      <c r="H3" s="134" t="s">
+      <c r="H3" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
       <c r="M3" s="97"/>
-      <c r="N3" s="136" t="s">
+      <c r="N3" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -3676,10 +3720,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="142"/>
+      <c r="C14" s="155"/>
       <c r="D14" s="77">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
@@ -3776,13 +3820,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="96"/>
-      <c r="B16" s="134" t="s">
+      <c r="B16" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
       <c r="G16" s="73">
         <v>43715</v>
       </c>
@@ -4033,10 +4077,10 @@
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="141" t="s">
+      <c r="N20" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="142"/>
+      <c r="O20" s="155"/>
       <c r="P20" s="77">
         <f>SUM(P4:P19)</f>
         <v>1447623.36</v>
@@ -4131,13 +4175,13 @@
         <v>94770</v>
       </c>
       <c r="M22" s="96"/>
-      <c r="N22" s="136" t="s">
+      <c r="N22" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="137"/>
-      <c r="P22" s="137"/>
-      <c r="Q22" s="137"/>
-      <c r="R22" s="137"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="150"/>
+      <c r="Q22" s="150"/>
+      <c r="R22" s="150"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="73">
@@ -4216,10 +4260,10 @@
         <f t="shared" si="18"/>
         <v>106496</v>
       </c>
-      <c r="H24" s="141" t="s">
+      <c r="H24" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="142"/>
+      <c r="I24" s="155"/>
       <c r="J24" s="77">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
@@ -4316,13 +4360,13 @@
         <v>109824</v>
       </c>
       <c r="G26" s="96"/>
-      <c r="H26" s="134" t="s">
+      <c r="H26" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
       <c r="N26" s="93">
         <v>84240</v>
       </c>
@@ -4457,10 +4501,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="141" t="s">
+      <c r="B29" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="142"/>
+      <c r="C29" s="155"/>
       <c r="D29" s="77">
         <f>SUM(D17:D28)</f>
         <v>1312507.44</v>
@@ -4557,13 +4601,13 @@
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="96"/>
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
       <c r="G31" s="73">
         <v>43721</v>
       </c>
@@ -4929,10 +4973,10 @@
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N37" s="143" t="s">
+      <c r="N37" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="143"/>
+      <c r="O37" s="156"/>
       <c r="P37" s="77">
         <f>SUM(P23:P36)</f>
         <v>1133003.52</v>
@@ -5006,10 +5050,10 @@
         <f t="shared" si="30"/>
         <v>65705.999999999985</v>
       </c>
-      <c r="H39" s="145" t="s">
+      <c r="H39" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="146"/>
+      <c r="I39" s="159"/>
       <c r="J39" s="77">
         <f>SUM(J27:J38)</f>
         <v>1647216</v>
@@ -5023,13 +5067,13 @@
         <v>1512490</v>
       </c>
       <c r="M39" s="96"/>
-      <c r="N39" s="136" t="s">
+      <c r="N39" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="O39" s="137"/>
-      <c r="P39" s="137"/>
-      <c r="Q39" s="137"/>
-      <c r="R39" s="137"/>
+      <c r="O39" s="150"/>
+      <c r="P39" s="150"/>
+      <c r="Q39" s="150"/>
+      <c r="R39" s="150"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="73">
@@ -5097,13 +5141,13 @@
         <v>67104</v>
       </c>
       <c r="G41" s="96"/>
-      <c r="H41" s="134" t="s">
+      <c r="H41" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="135"/>
-      <c r="J41" s="135"/>
-      <c r="K41" s="135"/>
-      <c r="L41" s="135"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
       <c r="N41" s="93">
         <v>64080</v>
       </c>
@@ -5238,10 +5282,10 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="141" t="s">
+      <c r="B44" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="142"/>
+      <c r="C44" s="155"/>
       <c r="D44" s="100">
         <f>SUM(D32:D43)</f>
         <v>825840</v>
@@ -5338,13 +5382,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="96"/>
-      <c r="B46" s="136" t="s">
+      <c r="B46" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="150"/>
+      <c r="F46" s="150"/>
       <c r="G46" s="73">
         <v>43727</v>
       </c>
@@ -5480,10 +5524,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N48" s="143" t="s">
+      <c r="N48" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="O48" s="143"/>
+      <c r="O48" s="156"/>
       <c r="P48" s="98">
         <f>SUM(P40:P47)</f>
         <v>496705.68</v>
@@ -5578,13 +5622,13 @@
         <v>91125</v>
       </c>
       <c r="M50" s="96"/>
-      <c r="N50" s="136" t="s">
+      <c r="N50" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="O50" s="137"/>
-      <c r="P50" s="137"/>
-      <c r="Q50" s="137"/>
-      <c r="R50" s="137"/>
+      <c r="O50" s="150"/>
+      <c r="P50" s="150"/>
+      <c r="Q50" s="150"/>
+      <c r="R50" s="150"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="73">
@@ -5969,10 +6013,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N57" s="144" t="s">
+      <c r="N57" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="O57" s="144"/>
+      <c r="O57" s="157"/>
       <c r="P57" s="100">
         <f>SUM(P49:P56)</f>
         <v>448449.84</v>
@@ -6031,10 +6075,10 @@
       <c r="R58" s="107"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="141" t="s">
+      <c r="B59" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="142"/>
+      <c r="C59" s="155"/>
       <c r="D59" s="98">
         <f>SUM(D47:D58)</f>
         <v>1010437.2</v>
@@ -6065,13 +6109,13 @@
         <v>91125</v>
       </c>
       <c r="M59" s="96"/>
-      <c r="N59" s="136" t="s">
+      <c r="N59" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="O59" s="137"/>
-      <c r="P59" s="137"/>
-      <c r="Q59" s="137"/>
-      <c r="R59" s="137"/>
+      <c r="O59" s="150"/>
+      <c r="P59" s="150"/>
+      <c r="Q59" s="150"/>
+      <c r="R59" s="150"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60" s="91"/>
@@ -6122,13 +6166,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="96"/>
-      <c r="B61" s="136" t="s">
+      <c r="B61" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
+      <c r="C61" s="150"/>
+      <c r="D61" s="150"/>
+      <c r="E61" s="150"/>
+      <c r="F61" s="150"/>
       <c r="H61" s="74">
         <v>100800</v>
       </c>
@@ -6645,10 +6689,10 @@
         <f t="shared" si="54"/>
         <v>86184</v>
       </c>
-      <c r="H70" s="141" t="s">
+      <c r="H70" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="142"/>
+      <c r="I70" s="155"/>
       <c r="J70" s="100">
         <f>SUM(J42:J69)</f>
         <v>2733393.6</v>
@@ -6900,10 +6944,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="141" t="s">
+      <c r="B76" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="142"/>
+      <c r="C76" s="155"/>
       <c r="D76" s="100">
         <f>SUM(D62:D75)</f>
         <v>1243584</v>
@@ -6921,10 +6965,10 @@
       <c r="J76" s="79"/>
       <c r="K76" s="79"/>
       <c r="L76" s="79"/>
-      <c r="N76" s="144" t="s">
+      <c r="N76" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="144"/>
+      <c r="O76" s="157"/>
       <c r="P76" s="100">
         <f>SUM(P60:P75)</f>
         <v>1630498.3199999998</v>
@@ -7042,19 +7086,19 @@
       <c r="R82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="140"/>
-      <c r="C83" s="140"/>
-      <c r="D83" s="140"/>
+      <c r="B83" s="153"/>
+      <c r="C83" s="153"/>
+      <c r="D83" s="153"/>
       <c r="E83" s="80"/>
       <c r="F83" s="80"/>
-      <c r="H83" s="140"/>
-      <c r="I83" s="140"/>
-      <c r="J83" s="140"/>
+      <c r="H83" s="153"/>
+      <c r="I83" s="153"/>
+      <c r="J83" s="153"/>
       <c r="K83" s="80"/>
       <c r="L83" s="80"/>
-      <c r="N83" s="140"/>
-      <c r="O83" s="140"/>
-      <c r="P83" s="140"/>
+      <c r="N83" s="153"/>
+      <c r="O83" s="153"/>
+      <c r="P83" s="153"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -7150,18 +7194,18 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="140"/>
-      <c r="C90" s="140"/>
+      <c r="B90" s="153"/>
+      <c r="C90" s="153"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="140"/>
-      <c r="I90" s="140"/>
+      <c r="H90" s="153"/>
+      <c r="I90" s="153"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="140"/>
-      <c r="O90" s="140"/>
+      <c r="N90" s="153"/>
+      <c r="O90" s="153"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
@@ -7215,9 +7259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7240,27 +7284,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="H1" s="138" t="s">
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="H1" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="N1" s="138" t="s">
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="N1" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -7310,46 +7354,46 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="136" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="134" t="s">
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
       <c r="M3" s="73"/>
-      <c r="N3" s="136" t="s">
+      <c r="N3" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
         <v>43739</v>
       </c>
-      <c r="B4" s="153">
+      <c r="B4" s="125">
         <v>91440</v>
       </c>
-      <c r="C4" s="154">
+      <c r="C4" s="126">
         <v>0.98899999999999999</v>
       </c>
       <c r="D4" s="75">
         <f t="shared" ref="D4" si="0">B4*C4</f>
         <v>90434.16</v>
       </c>
-      <c r="E4" s="155">
+      <c r="E4" s="127">
         <v>94.251968503937007</v>
       </c>
       <c r="F4" s="75">
@@ -7359,22 +7403,22 @@
       <c r="G4" s="73">
         <v>43739</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="58">
         <v>100800</v>
       </c>
-      <c r="I4" s="57">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="J4" s="75">
-        <f t="shared" ref="J4:J23" si="2">H4*I4</f>
-        <v>99187.199999999997</v>
-      </c>
-      <c r="K4" s="86">
-        <v>97.633928571428569</v>
-      </c>
-      <c r="L4" s="75">
-        <f t="shared" ref="L4:L23" si="3">H4*K4/100</f>
-        <v>98415</v>
+      <c r="I4" s="129">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J4" s="60">
+        <f t="shared" ref="J4" si="2">H4*I4</f>
+        <v>98985.599999999991</v>
+      </c>
+      <c r="K4" s="130">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L4" s="60">
+        <f t="shared" ref="L4" si="3">H4*K4/100</f>
+        <v>91125</v>
       </c>
       <c r="M4" s="73">
         <v>43739</v>
@@ -7382,14 +7426,14 @@
       <c r="N4" s="93">
         <v>104400</v>
       </c>
-      <c r="O4" s="151">
+      <c r="O4" s="123">
         <v>0.98</v>
       </c>
       <c r="P4" s="75">
         <f t="shared" ref="P4" si="4">N4*O4</f>
         <v>102312</v>
       </c>
-      <c r="Q4" s="152">
+      <c r="Q4" s="124">
         <v>94.526819923371647</v>
       </c>
       <c r="R4" s="75">
@@ -7415,11 +7459,23 @@
         <f t="shared" ref="F5:F11" si="7">B5*E5/100</f>
         <v>86184</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="60"/>
+      <c r="H5" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="J5" s="75">
+        <f t="shared" ref="J5:J33" si="8">H5*I5</f>
+        <v>98582.399999999994</v>
+      </c>
+      <c r="K5" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L5" s="75">
+        <f t="shared" ref="L5:L33" si="9">H5*K5/100</f>
+        <v>94770</v>
+      </c>
       <c r="N5" s="93">
         <v>104400</v>
       </c>
@@ -7427,14 +7483,14 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="P5" s="75">
-        <f t="shared" ref="P5:P23" si="8">N5*O5</f>
+        <f t="shared" ref="P5:P23" si="10">N5*O5</f>
         <v>102207.59999999999</v>
       </c>
       <c r="Q5" s="87">
         <v>94.526819923371647</v>
       </c>
       <c r="R5" s="75">
-        <f t="shared" ref="R5:R23" si="9">N5*Q5/100</f>
+        <f t="shared" ref="R5:R23" si="11">N5*Q5/100</f>
         <v>98686</v>
       </c>
     </row>
@@ -7462,11 +7518,23 @@
       <c r="G6" s="73">
         <v>43740</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="60"/>
+      <c r="H6" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J6" s="75">
+        <f t="shared" si="8"/>
+        <v>97171.199999999997</v>
+      </c>
+      <c r="K6" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L6" s="75">
+        <f t="shared" si="9"/>
+        <v>91125</v>
+      </c>
       <c r="M6" s="73">
         <v>43740</v>
       </c>
@@ -7477,14 +7545,14 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="P6" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>102938.4</v>
       </c>
       <c r="Q6" s="87">
         <v>94.526819923371647</v>
       </c>
       <c r="R6" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>98686</v>
       </c>
     </row>
@@ -7506,11 +7574,23 @@
         <f t="shared" si="7"/>
         <v>88452</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="60"/>
+      <c r="H7" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J7" s="75">
+        <f t="shared" si="8"/>
+        <v>98884.800000000003</v>
+      </c>
+      <c r="K7" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L7" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="N7" s="93">
         <v>104400</v>
       </c>
@@ -7518,14 +7598,14 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="P7" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>102729.59999999999</v>
       </c>
       <c r="Q7" s="87">
         <v>94.526819923371647</v>
       </c>
       <c r="R7" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>98686</v>
       </c>
     </row>
@@ -7553,11 +7633,23 @@
       <c r="G8" s="73">
         <v>43741</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="60"/>
+      <c r="H8" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="J8" s="75">
+        <f t="shared" si="8"/>
+        <v>98078.399999999994</v>
+      </c>
+      <c r="K8" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L8" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M8" s="73">
         <v>43741</v>
       </c>
@@ -7568,14 +7660,14 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="P8" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>102207.59999999999</v>
       </c>
       <c r="Q8" s="87">
         <v>94.526819923371647</v>
       </c>
       <c r="R8" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>98686</v>
       </c>
     </row>
@@ -7597,11 +7689,23 @@
         <f t="shared" si="7"/>
         <v>86184</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="60"/>
+      <c r="H9" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J9" s="75">
+        <f t="shared" si="8"/>
+        <v>98884.800000000003</v>
+      </c>
+      <c r="K9" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L9" s="75">
+        <f t="shared" si="9"/>
+        <v>91125</v>
+      </c>
       <c r="N9" s="93">
         <v>104400</v>
       </c>
@@ -7609,14 +7713,14 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="P9" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>102938.4</v>
       </c>
       <c r="Q9" s="87">
         <v>94.526819923371647</v>
       </c>
       <c r="R9" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>98686</v>
       </c>
     </row>
@@ -7644,11 +7748,23 @@
       <c r="G10" s="73">
         <v>43742</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="60"/>
+      <c r="H10" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="J10" s="75">
+        <f t="shared" si="8"/>
+        <v>97776</v>
+      </c>
+      <c r="K10" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L10" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M10" s="73">
         <v>43742</v>
       </c>
@@ -7659,14 +7775,14 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="P10" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>102416.4</v>
       </c>
       <c r="Q10" s="87">
         <v>94.526819923371647</v>
       </c>
       <c r="R10" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>98686</v>
       </c>
     </row>
@@ -7690,11 +7806,23 @@
         <v>90720</v>
       </c>
       <c r="G11" s="76"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="60"/>
+      <c r="H11" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J11" s="75">
+        <f t="shared" si="8"/>
+        <v>99288</v>
+      </c>
+      <c r="K11" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L11" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M11" s="76"/>
       <c r="N11" s="93">
         <v>104400</v>
@@ -7703,27 +7831,27 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="P11" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>102625.2</v>
       </c>
       <c r="Q11" s="87">
         <v>94.526819923371647</v>
       </c>
       <c r="R11" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>98686</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="145" t="s">
+      <c r="B12" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="146"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="116">
         <f>SUM(D4:D11)</f>
         <v>721644.48</v>
       </c>
-      <c r="E12" s="149">
+      <c r="E12" s="122">
         <f>F12/D12</f>
         <v>0.97113193466123382</v>
       </c>
@@ -7734,11 +7862,23 @@
       <c r="G12" s="78">
         <v>43743</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="60"/>
+      <c r="H12" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="J12" s="75">
+        <f t="shared" si="8"/>
+        <v>97372.800000000003</v>
+      </c>
+      <c r="K12" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L12" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M12" s="78">
         <v>43743</v>
       </c>
@@ -7749,29 +7889,41 @@
         <v>0.96</v>
       </c>
       <c r="P12" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100224</v>
       </c>
       <c r="Q12" s="87">
         <v>92.039272030651347</v>
       </c>
       <c r="R12" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>96089</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76"/>
       <c r="B13" s="58"/>
-      <c r="C13" s="147"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="60"/>
-      <c r="E13" s="148"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="60"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="60"/>
+      <c r="H13" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J13" s="75">
+        <f t="shared" si="8"/>
+        <v>99086.399999999994</v>
+      </c>
+      <c r="K13" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L13" s="75">
+        <f t="shared" si="9"/>
+        <v>98415</v>
+      </c>
       <c r="N13" s="93">
         <v>104400</v>
       </c>
@@ -7779,33 +7931,46 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="P13" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>102938.4</v>
       </c>
       <c r="Q13" s="87">
         <v>97.014367816091948</v>
       </c>
       <c r="R13" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>101283</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="136" t="s">
+      <c r="A14" s="96"/>
+      <c r="B14" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="150"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="160"/>
       <c r="G14" s="73">
         <v>43744</v>
       </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="60"/>
+      <c r="H14" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J14" s="75">
+        <f t="shared" si="8"/>
+        <v>99086.399999999994</v>
+      </c>
+      <c r="K14" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L14" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M14" s="73">
         <v>43744</v>
       </c>
@@ -7816,14 +7981,14 @@
         <v>0.97</v>
       </c>
       <c r="P14" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>101268</v>
       </c>
       <c r="Q14" s="87">
         <v>92.039272030651347</v>
       </c>
       <c r="R14" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>96089</v>
       </c>
     </row>
@@ -7838,21 +8003,33 @@
         <v>0.92100000000000004</v>
       </c>
       <c r="D15" s="75">
-        <f t="shared" ref="D15" si="10">B15*C15</f>
+        <f t="shared" ref="D15" si="12">B15*C15</f>
         <v>84879.360000000001</v>
       </c>
       <c r="E15" s="87">
         <v>73.723958333333329</v>
       </c>
       <c r="F15" s="75">
-        <f t="shared" ref="F15" si="11">B15*E15/100</f>
+        <f t="shared" ref="F15" si="13">B15*E15/100</f>
         <v>67944</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="60"/>
+      <c r="H15" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="J15" s="75">
+        <f t="shared" si="8"/>
+        <v>97675.199999999997</v>
+      </c>
+      <c r="K15" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L15" s="75">
+        <f t="shared" si="9"/>
+        <v>91125</v>
+      </c>
       <c r="N15" s="93">
         <v>104400</v>
       </c>
@@ -7860,14 +8037,14 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="P15" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>102729.59999999999</v>
       </c>
       <c r="Q15" s="87">
         <v>92.039272030651347</v>
       </c>
       <c r="R15" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>96089</v>
       </c>
     </row>
@@ -7879,24 +8056,36 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="D16" s="75">
-        <f t="shared" ref="D16:D32" si="12">B16*C16</f>
+        <f t="shared" ref="D16:D32" si="14">B16*C16</f>
         <v>90593.279999999999</v>
       </c>
       <c r="E16" s="87">
         <v>97.005208333333343</v>
       </c>
       <c r="F16" s="75">
-        <f t="shared" ref="F16:F32" si="13">B16*E16/100</f>
+        <f t="shared" ref="F16:F32" si="15">B16*E16/100</f>
         <v>89400</v>
       </c>
       <c r="G16" s="73">
         <v>43745</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="60"/>
+      <c r="H16" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J16" s="75">
+        <f t="shared" si="8"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="K16" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L16" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M16" s="73">
         <v>43745</v>
       </c>
@@ -7907,14 +8096,14 @@
         <v>0.97699999999999998</v>
       </c>
       <c r="P16" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>101998.8</v>
       </c>
       <c r="Q16" s="87">
         <v>97.014367816091948</v>
       </c>
       <c r="R16" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>101283</v>
       </c>
     </row>
@@ -7929,21 +8118,33 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="D17" s="75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>89948.160000000003</v>
       </c>
       <c r="E17" s="87">
         <v>89.244791666666671</v>
       </c>
       <c r="F17" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82248</v>
       </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="60"/>
+      <c r="H17" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J17" s="75">
+        <f t="shared" si="8"/>
+        <v>99388.800000000003</v>
+      </c>
+      <c r="K17" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L17" s="75">
+        <f t="shared" si="9"/>
+        <v>98415</v>
+      </c>
       <c r="N17" s="93">
         <v>104400</v>
       </c>
@@ -7951,14 +8152,14 @@
         <v>0.98499999999999999</v>
       </c>
       <c r="P17" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>102834</v>
       </c>
       <c r="Q17" s="87">
         <v>94.526819923371647</v>
       </c>
       <c r="R17" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>98686</v>
       </c>
     </row>
@@ -7970,24 +8171,36 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="D18" s="75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>90132.479999999996</v>
       </c>
       <c r="E18" s="87">
         <v>95.065104166666671</v>
       </c>
       <c r="F18" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>87612</v>
       </c>
       <c r="G18" s="73">
         <v>43746</v>
       </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="60"/>
+      <c r="H18" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J18" s="75">
+        <f t="shared" si="8"/>
+        <v>99388.800000000003</v>
+      </c>
+      <c r="K18" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L18" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M18" s="73">
         <v>43746</v>
       </c>
@@ -7998,14 +8211,14 @@
         <v>0.98499999999999999</v>
       </c>
       <c r="P18" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>102834</v>
       </c>
       <c r="Q18" s="87">
         <v>94.526819923371647</v>
       </c>
       <c r="R18" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>98686</v>
       </c>
     </row>
@@ -8020,21 +8233,33 @@
         <v>0.97099999999999997</v>
       </c>
       <c r="D19" s="75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>89487.360000000001</v>
       </c>
       <c r="E19" s="87">
         <v>91.184895833333329</v>
       </c>
       <c r="F19" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>84036</v>
       </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="60"/>
+      <c r="H19" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="J19" s="75">
+        <f t="shared" si="8"/>
+        <v>97876.800000000003</v>
+      </c>
+      <c r="K19" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L19" s="75">
+        <f t="shared" si="9"/>
+        <v>91125</v>
+      </c>
       <c r="N19" s="93">
         <v>104400</v>
       </c>
@@ -8042,14 +8267,14 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="P19" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>102729.59999999999</v>
       </c>
       <c r="Q19" s="87">
         <v>97.014367816091948</v>
       </c>
       <c r="R19" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>101283</v>
       </c>
     </row>
@@ -8061,24 +8286,36 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="D20" s="75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>90408.959999999992</v>
       </c>
       <c r="E20" s="87">
         <v>93.125</v>
       </c>
       <c r="F20" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>85824</v>
       </c>
       <c r="G20" s="73">
         <v>43747</v>
       </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="60"/>
+      <c r="H20" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J20" s="75">
+        <f t="shared" si="8"/>
+        <v>98985.599999999991</v>
+      </c>
+      <c r="K20" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L20" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M20" s="73">
         <v>43747</v>
       </c>
@@ -8089,14 +8326,14 @@
         <v>0.996</v>
       </c>
       <c r="P20" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>103982.39999999999</v>
       </c>
       <c r="Q20" s="87">
         <v>97.014367816091948</v>
       </c>
       <c r="R20" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>101283</v>
       </c>
     </row>
@@ -8111,21 +8348,33 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="D21" s="75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>90685.440000000002</v>
       </c>
       <c r="E21" s="87">
         <v>93.125</v>
       </c>
       <c r="F21" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>85824</v>
       </c>
-      <c r="H21" s="58"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="60"/>
+      <c r="H21" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="J21" s="75">
+        <f t="shared" si="8"/>
+        <v>98784</v>
+      </c>
+      <c r="K21" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L21" s="75">
+        <f t="shared" si="9"/>
+        <v>98415</v>
+      </c>
       <c r="N21" s="93">
         <v>104400</v>
       </c>
@@ -8133,14 +8382,14 @@
         <v>0.95599999999999996</v>
       </c>
       <c r="P21" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>99806.399999999994</v>
       </c>
       <c r="Q21" s="87">
         <v>94.526819923371647</v>
       </c>
       <c r="R21" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>98686</v>
       </c>
     </row>
@@ -8152,24 +8401,36 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="D22" s="75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>90408.959999999992</v>
       </c>
       <c r="E22" s="87">
         <v>95.065104166666671</v>
       </c>
       <c r="F22" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>87612</v>
       </c>
       <c r="G22" s="73">
         <v>43748</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="60"/>
+      <c r="H22" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J22" s="75">
+        <f t="shared" si="8"/>
+        <v>98683.199999999997</v>
+      </c>
+      <c r="K22" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L22" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M22" s="73">
         <v>43748</v>
       </c>
@@ -8180,14 +8441,14 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="P22" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>102938.4</v>
       </c>
       <c r="Q22" s="87">
         <v>97.014367816091948</v>
       </c>
       <c r="R22" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>101283</v>
       </c>
     </row>
@@ -8202,21 +8463,33 @@
         <v>0.98499999999999999</v>
       </c>
       <c r="D23" s="75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>90777.600000000006</v>
       </c>
       <c r="E23" s="87">
         <v>91.184895833333329</v>
       </c>
       <c r="F23" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>84036</v>
       </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="60"/>
+      <c r="H23" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="J23" s="75">
+        <f t="shared" si="8"/>
+        <v>99489.600000000006</v>
+      </c>
+      <c r="K23" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L23" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="N23" s="93">
         <v>104400</v>
       </c>
@@ -8224,14 +8497,14 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="P23" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>103147.2</v>
       </c>
       <c r="Q23" s="87">
         <v>97.014367816091948</v>
       </c>
       <c r="R23" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>101283</v>
       </c>
     </row>
@@ -8243,25 +8516,40 @@
         <v>0.97399999999999998</v>
       </c>
       <c r="D24" s="75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>89763.839999999997</v>
       </c>
       <c r="E24" s="87">
         <v>95.065104166666671</v>
       </c>
       <c r="F24" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>87612</v>
       </c>
-      <c r="H24" s="141"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="89"/>
-      <c r="N24" s="144" t="s">
+      <c r="G24" s="73">
+        <v>43749</v>
+      </c>
+      <c r="H24" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J24" s="75">
+        <f t="shared" si="8"/>
+        <v>99288</v>
+      </c>
+      <c r="K24" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L24" s="75">
+        <f t="shared" si="9"/>
+        <v>98415</v>
+      </c>
+      <c r="N24" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="144"/>
+      <c r="O24" s="157"/>
       <c r="P24" s="117">
         <f>SUM(P4:P23)</f>
         <v>2047806</v>
@@ -8286,21 +8574,33 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="D25" s="75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>89856</v>
       </c>
       <c r="E25" s="87">
         <v>95.065104166666671</v>
       </c>
       <c r="F25" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>87612</v>
       </c>
-      <c r="H25" s="74"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
+      <c r="H25" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="J25" s="75">
+        <f t="shared" si="8"/>
+        <v>99590.399999999994</v>
+      </c>
+      <c r="K25" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L25" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="N25" s="93"/>
       <c r="O25" s="10"/>
       <c r="P25" s="75"/>
@@ -8315,28 +8615,43 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="D26" s="75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>90685.440000000002</v>
       </c>
       <c r="E26" s="87">
         <v>93.125</v>
       </c>
       <c r="F26" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>85824</v>
       </c>
-      <c r="H26" s="134"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="N26" s="136" t="s">
+      <c r="G26" s="73">
+        <v>43750</v>
+      </c>
+      <c r="H26" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="J26" s="75">
+        <f t="shared" si="8"/>
+        <v>97876.800000000003</v>
+      </c>
+      <c r="K26" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L26" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N26" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="137"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="137"/>
+      <c r="O26" s="150"/>
+      <c r="P26" s="150"/>
+      <c r="Q26" s="150"/>
+      <c r="R26" s="150"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="73">
@@ -8349,43 +8664,52 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="D27" s="75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>88565.759999999995</v>
       </c>
       <c r="E27" s="87">
         <v>93.125</v>
       </c>
       <c r="F27" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>85824</v>
       </c>
-      <c r="G27" s="73">
-        <v>43749</v>
-      </c>
-      <c r="H27" s="74"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="75"/>
+      <c r="H27" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J27" s="75">
+        <f t="shared" si="8"/>
+        <v>99187.199999999997</v>
+      </c>
+      <c r="K27" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L27" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M27" s="73">
         <v>43749</v>
       </c>
       <c r="N27" s="93">
         <v>104400</v>
       </c>
-      <c r="O27" s="151">
-        <v>0.98</v>
+      <c r="O27" s="10">
+        <v>0.89</v>
       </c>
       <c r="P27" s="75">
-        <f t="shared" ref="P27" si="14">N27*O27</f>
-        <v>102312</v>
-      </c>
-      <c r="Q27" s="152">
-        <v>94.526819923371647</v>
+        <f t="shared" ref="P27" si="16">N27*O27</f>
+        <v>92916</v>
+      </c>
+      <c r="Q27" s="87">
+        <v>68.505747126436773</v>
       </c>
       <c r="R27" s="75">
-        <f t="shared" ref="R27" si="15">N27*Q27/100</f>
-        <v>98686</v>
+        <f t="shared" ref="R27" si="17">N27*Q27/100</f>
+        <v>71519.999999999985</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8396,26 +8720,53 @@
         <v>0.99199999999999999</v>
       </c>
       <c r="D28" s="75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>92851.199999999997</v>
       </c>
       <c r="E28" s="87">
         <v>93.602564102564102</v>
       </c>
       <c r="F28" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>87612</v>
       </c>
-      <c r="H28" s="74"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="75"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="75"/>
+      <c r="G28" s="73">
+        <v>43751</v>
+      </c>
+      <c r="H28" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J28" s="75">
+        <f t="shared" si="8"/>
+        <v>99288</v>
+      </c>
+      <c r="K28" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L28" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N28" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="P28" s="75">
+        <f t="shared" ref="P28:P38" si="18">N28*O28</f>
+        <v>103460.4</v>
+      </c>
+      <c r="Q28" s="87">
+        <v>95.908045977011497</v>
+      </c>
+      <c r="R28" s="75">
+        <f t="shared" ref="R28:R38" si="19">N28*Q28/100</f>
+        <v>100128</v>
+      </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="73">
@@ -8428,32 +8779,53 @@
         <v>0.96899999999999997</v>
       </c>
       <c r="D29" s="75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>90698.4</v>
       </c>
       <c r="E29" s="87">
         <v>89.782051282051285</v>
       </c>
       <c r="F29" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>84036</v>
       </c>
-      <c r="G29" s="73">
-        <v>43750</v>
-      </c>
-      <c r="H29" s="74"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="75"/>
+      <c r="H29" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="J29" s="75">
+        <f t="shared" si="8"/>
+        <v>98784</v>
+      </c>
+      <c r="K29" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L29" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M29" s="73">
         <v>43750</v>
       </c>
-      <c r="N29" s="93"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="75"/>
+      <c r="N29" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="P29" s="75">
+        <f t="shared" si="18"/>
+        <v>101685.59999999999</v>
+      </c>
+      <c r="Q29" s="87">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="R29" s="75">
+        <f t="shared" si="19"/>
+        <v>97744</v>
+      </c>
     </row>
     <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="93">
@@ -8463,26 +8835,53 @@
         <v>0.97399999999999998</v>
       </c>
       <c r="D30" s="75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>91166.399999999994</v>
       </c>
       <c r="E30" s="87">
         <v>93.602564102564102</v>
       </c>
       <c r="F30" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>87612</v>
       </c>
-      <c r="H30" s="74"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="75"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="75"/>
+      <c r="G30" s="73">
+        <v>43752</v>
+      </c>
+      <c r="H30" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J30" s="75">
+        <f t="shared" si="8"/>
+        <v>99388.800000000003</v>
+      </c>
+      <c r="K30" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L30" s="75">
+        <f t="shared" si="9"/>
+        <v>98415</v>
+      </c>
+      <c r="N30" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="P30" s="75">
+        <f t="shared" si="18"/>
+        <v>102729.59999999999</v>
+      </c>
+      <c r="Q30" s="87">
+        <v>98.191570881226056</v>
+      </c>
+      <c r="R30" s="75">
+        <f t="shared" si="19"/>
+        <v>102512</v>
+      </c>
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="73">
@@ -8495,32 +8894,53 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="D31" s="75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>89026.559999999998</v>
       </c>
       <c r="E31" s="87">
         <v>93.125</v>
       </c>
       <c r="F31" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>85824</v>
       </c>
-      <c r="G31" s="73">
-        <v>43751</v>
-      </c>
-      <c r="H31" s="74"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="75"/>
+      <c r="H31" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J31" s="75">
+        <f t="shared" si="8"/>
+        <v>98280</v>
+      </c>
+      <c r="K31" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L31" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M31" s="73">
         <v>43751</v>
       </c>
-      <c r="N31" s="93"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="75"/>
+      <c r="N31" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="P31" s="75">
+        <f t="shared" si="18"/>
+        <v>101998.8</v>
+      </c>
+      <c r="Q31" s="87">
+        <v>95.908045977011497</v>
+      </c>
+      <c r="R31" s="75">
+        <f t="shared" si="19"/>
+        <v>100128</v>
+      </c>
     </row>
     <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="93">
@@ -8530,81 +8950,185 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="D32" s="75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>90224.639999999999</v>
       </c>
       <c r="E32" s="87">
         <v>95.065104166666671</v>
       </c>
       <c r="F32" s="75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>87612</v>
       </c>
-      <c r="H32" s="74"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="75"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="75"/>
+      <c r="G32" s="73">
+        <v>43753</v>
+      </c>
+      <c r="H32" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="J32" s="75">
+        <f t="shared" si="8"/>
+        <v>98784</v>
+      </c>
+      <c r="K32" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L32" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N32" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="P32" s="75">
+        <f t="shared" si="18"/>
+        <v>103042.8</v>
+      </c>
+      <c r="Q32" s="87">
+        <v>95.908045977011497</v>
+      </c>
+      <c r="R32" s="75">
+        <f t="shared" si="19"/>
+        <v>100128</v>
+      </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="73">
         <v>43752</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="73">
-        <v>43752</v>
-      </c>
-      <c r="H33" s="74"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="75"/>
+      <c r="B33" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C33" s="54">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D33" s="75">
+        <f t="shared" ref="D33:D40" si="20">B33*C33</f>
+        <v>89026.559999999998</v>
+      </c>
+      <c r="E33" s="87">
+        <v>91.184895833333329</v>
+      </c>
+      <c r="F33" s="75">
+        <f t="shared" ref="F33:F40" si="21">B33*E33/100</f>
+        <v>84036</v>
+      </c>
+      <c r="H33" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="J33" s="75">
+        <f t="shared" si="8"/>
+        <v>99792</v>
+      </c>
+      <c r="K33" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L33" s="75">
+        <f t="shared" si="9"/>
+        <v>98415</v>
+      </c>
       <c r="M33" s="73">
         <v>43752</v>
       </c>
-      <c r="N33" s="93"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="75"/>
+      <c r="N33" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P33" s="75">
+        <f t="shared" si="18"/>
+        <v>101163.59999999999</v>
+      </c>
+      <c r="Q33" s="87">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="R33" s="75">
+        <f t="shared" si="19"/>
+        <v>97744</v>
+      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="74"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="75"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="75"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="75"/>
+      <c r="B34" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C34" s="54">
+        <v>0.97</v>
+      </c>
+      <c r="D34" s="75">
+        <f t="shared" si="20"/>
+        <v>89395.199999999997</v>
+      </c>
+      <c r="E34" s="87">
+        <v>93.125</v>
+      </c>
+      <c r="F34" s="75">
+        <f t="shared" si="21"/>
+        <v>85824</v>
+      </c>
+      <c r="H34" s="158" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="159"/>
+      <c r="J34" s="118">
+        <f>SUM(J4:J33)</f>
+        <v>2962108.8000000003</v>
+      </c>
+      <c r="K34" s="122">
+        <f>L34/J34</f>
+        <v>0.9610534900000971</v>
+      </c>
+      <c r="L34" s="89">
+        <f>SUM(L4:L33)</f>
+        <v>2846745</v>
+      </c>
+      <c r="N34" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P34" s="75">
+        <f t="shared" si="18"/>
+        <v>101372.4</v>
+      </c>
+      <c r="Q34" s="87">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="R34" s="75">
+        <f t="shared" si="19"/>
+        <v>97744</v>
+      </c>
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="73">
         <v>43753</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="73">
-        <v>43753</v>
+      <c r="B35" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C35" s="54">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D35" s="75">
+        <f t="shared" si="20"/>
+        <v>90224.639999999999</v>
+      </c>
+      <c r="E35" s="87">
+        <v>95.065104166666671</v>
+      </c>
+      <c r="F35" s="75">
+        <f t="shared" si="21"/>
+        <v>87612</v>
       </c>
       <c r="H35" s="74"/>
       <c r="I35" s="10"/>
@@ -8614,101 +9138,236 @@
       <c r="M35" s="73">
         <v>43753</v>
       </c>
-      <c r="N35" s="93"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="75"/>
+      <c r="N35" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O35" s="10">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="P35" s="75">
+        <f t="shared" si="18"/>
+        <v>101581.2</v>
+      </c>
+      <c r="Q35" s="87">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="R35" s="75">
+        <f t="shared" si="19"/>
+        <v>97744</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="74"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="75"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="75"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="75"/>
+      <c r="B36" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C36" s="54">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="D36" s="75">
+        <f t="shared" si="20"/>
+        <v>88565.759999999995</v>
+      </c>
+      <c r="E36" s="87">
+        <v>93.125</v>
+      </c>
+      <c r="F36" s="75">
+        <f t="shared" si="21"/>
+        <v>85824</v>
+      </c>
+      <c r="H36" s="161" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="162"/>
+      <c r="J36" s="162"/>
+      <c r="K36" s="162"/>
+      <c r="L36" s="162"/>
+      <c r="N36" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P36" s="75">
+        <f t="shared" si="18"/>
+        <v>101372.4</v>
+      </c>
+      <c r="Q36" s="87">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="R36" s="75">
+        <f t="shared" si="19"/>
+        <v>97744</v>
+      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="73">
         <v>43754</v>
       </c>
-      <c r="B37" s="74"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="75"/>
+      <c r="B37" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C37" s="54">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="D37" s="75">
+        <f t="shared" si="20"/>
+        <v>91146.240000000005</v>
+      </c>
+      <c r="E37" s="87">
+        <v>91.184895833333329</v>
+      </c>
+      <c r="F37" s="75">
+        <f t="shared" si="21"/>
+        <v>84036</v>
+      </c>
       <c r="G37" s="73">
         <v>43754</v>
       </c>
-      <c r="H37" s="74"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="75"/>
-      <c r="N37" s="143"/>
-      <c r="O37" s="143"/>
-      <c r="P37" s="116"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="89"/>
+      <c r="H37" s="58">
+        <v>100800</v>
+      </c>
+      <c r="I37" s="129">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J37" s="60">
+        <f t="shared" ref="J37" si="22">H37*I37</f>
+        <v>98985.599999999991</v>
+      </c>
+      <c r="K37" s="130">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L37" s="60">
+        <f t="shared" ref="L37" si="23">H37*K37/100</f>
+        <v>91125</v>
+      </c>
+      <c r="M37" s="73">
+        <v>43754</v>
+      </c>
+      <c r="N37" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="P37" s="75">
+        <f t="shared" si="18"/>
+        <v>103564.8</v>
+      </c>
+      <c r="Q37" s="87">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="R37" s="75">
+        <f t="shared" si="19"/>
+        <v>97744</v>
+      </c>
     </row>
     <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="74"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="75"/>
+      <c r="B38" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C38" s="54">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D38" s="75">
+        <f t="shared" si="20"/>
+        <v>90040.319999999992</v>
+      </c>
+      <c r="E38" s="87">
+        <v>95.065104166666671</v>
+      </c>
+      <c r="F38" s="75">
+        <f t="shared" si="21"/>
+        <v>87612</v>
+      </c>
       <c r="H38" s="74"/>
       <c r="I38" s="10"/>
       <c r="J38" s="75"/>
       <c r="K38" s="87"/>
       <c r="L38" s="75"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="60"/>
+      <c r="N38" s="93">
+        <v>104400</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="P38" s="75">
+        <f t="shared" si="18"/>
+        <v>104295.6</v>
+      </c>
+      <c r="Q38" s="87">
+        <v>95.908045977011497</v>
+      </c>
+      <c r="R38" s="75">
+        <f t="shared" si="19"/>
+        <v>100128</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="73">
         <v>43755</v>
       </c>
-      <c r="B39" s="74"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="75"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="146"/>
+      <c r="B39" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C39" s="54">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D39" s="75">
+        <f t="shared" si="20"/>
+        <v>91422.720000000001</v>
+      </c>
+      <c r="E39" s="87">
+        <v>97.005208333333343</v>
+      </c>
+      <c r="F39" s="75">
+        <f t="shared" si="21"/>
+        <v>89400</v>
+      </c>
+      <c r="H39" s="158"/>
+      <c r="I39" s="159"/>
       <c r="J39" s="116"/>
       <c r="K39" s="88"/>
       <c r="L39" s="89"/>
-      <c r="N39" s="136"/>
-      <c r="O39" s="137"/>
-      <c r="P39" s="137"/>
-      <c r="Q39" s="137"/>
-      <c r="R39" s="137"/>
+      <c r="N39" s="157" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" s="157"/>
+      <c r="P39" s="119">
+        <f>SUM(P27:P38)</f>
+        <v>1219183.2</v>
+      </c>
+      <c r="Q39" s="101">
+        <f>R39/P39</f>
+        <v>0.9522834632235746</v>
+      </c>
+      <c r="R39" s="102">
+        <f>SUM(R27:R38)</f>
+        <v>1161008</v>
+      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="74"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="75"/>
+      <c r="B40" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C40" s="54">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="D40" s="75">
+        <f t="shared" si="20"/>
+        <v>85063.680000000008</v>
+      </c>
+      <c r="E40" s="87">
+        <v>95.065104166666671</v>
+      </c>
+      <c r="F40" s="75">
+        <f t="shared" si="21"/>
+        <v>87612</v>
+      </c>
       <c r="H40" s="58"/>
       <c r="I40" s="53"/>
       <c r="J40" s="60"/>
       <c r="K40" s="79"/>
       <c r="L40" s="79"/>
-      <c r="M40" s="73">
-        <v>43754</v>
-      </c>
       <c r="N40" s="93"/>
       <c r="O40" s="10"/>
       <c r="P40" s="75"/>
@@ -8716,21 +9375,34 @@
       <c r="R40" s="75"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="74"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="75"/>
-      <c r="H41" s="134"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="135"/>
-      <c r="K41" s="135"/>
-      <c r="L41" s="135"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="75"/>
+      <c r="B41" s="158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="159"/>
+      <c r="D41" s="118">
+        <f>SUM(D15:D40)</f>
+        <v>2335044.96</v>
+      </c>
+      <c r="E41" s="122">
+        <f>F41/D41</f>
+        <v>0.95332639762105487</v>
+      </c>
+      <c r="F41" s="89">
+        <f>SUM(F15:F40)</f>
+        <v>2226060</v>
+      </c>
+      <c r="H41" s="147"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="N41" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="150"/>
+      <c r="P41" s="150"/>
+      <c r="Q41" s="150"/>
+      <c r="R41" s="150"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" s="74"/>
@@ -8749,35 +9421,76 @@
       <c r="M42" s="73">
         <v>43755</v>
       </c>
-      <c r="N42" s="93"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="75"/>
+      <c r="N42" s="93">
+        <v>84240</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="P42" s="75">
+        <f t="shared" ref="P42" si="24">N42*O42</f>
+        <v>72867.600000000006</v>
+      </c>
+      <c r="Q42" s="87">
+        <v>9.0455840455840466</v>
+      </c>
+      <c r="R42" s="75">
+        <f t="shared" ref="R42" si="25">N42*Q42/100</f>
+        <v>7620.0000000000009</v>
+      </c>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="74"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="75"/>
+      <c r="B43" s="149" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="150"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="160"/>
       <c r="H43" s="74"/>
       <c r="I43" s="108"/>
       <c r="J43" s="75"/>
       <c r="K43" s="82"/>
       <c r="L43" s="75"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="75"/>
+      <c r="N43" s="93">
+        <v>84240</v>
+      </c>
+      <c r="O43" s="10">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="P43" s="75">
+        <f t="shared" ref="P43:P49" si="26">N43*O43</f>
+        <v>82049.759999999995</v>
+      </c>
+      <c r="Q43" s="87">
+        <v>66.93732193732194</v>
+      </c>
+      <c r="R43" s="75">
+        <f t="shared" ref="R43:R49" si="27">N43*Q43/100</f>
+        <v>56388</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="141"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="102"/>
+      <c r="A44" s="73">
+        <v>43756</v>
+      </c>
+      <c r="B44" s="93">
+        <v>92160</v>
+      </c>
+      <c r="C44" s="54">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="D44" s="75">
+        <f t="shared" ref="D44" si="28">B44*C44</f>
+        <v>84879.360000000001</v>
+      </c>
+      <c r="E44" s="87">
+        <v>73.723958333333329</v>
+      </c>
+      <c r="F44" s="75">
+        <f t="shared" ref="F44" si="29">B44*E44/100</f>
+        <v>67944</v>
+      </c>
       <c r="G44" s="73">
         <v>43756</v>
       </c>
@@ -8789,11 +9502,23 @@
       <c r="M44" s="73">
         <v>43756</v>
       </c>
-      <c r="N44" s="93"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="75"/>
+      <c r="N44" s="93">
+        <v>84240</v>
+      </c>
+      <c r="O44" s="10">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="P44" s="75">
+        <f t="shared" si="26"/>
+        <v>82134</v>
+      </c>
+      <c r="Q44" s="87">
+        <v>75.113960113960104</v>
+      </c>
+      <c r="R44" s="75">
+        <f t="shared" si="27"/>
+        <v>63275.999999999993</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B45" s="103"/>
@@ -8806,18 +9531,33 @@
       <c r="J45" s="75"/>
       <c r="K45" s="87"/>
       <c r="L45" s="75"/>
-      <c r="N45" s="93"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="75"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="75"/>
+      <c r="N45" s="93">
+        <v>84240</v>
+      </c>
+      <c r="O45" s="10">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="P45" s="75">
+        <f t="shared" si="26"/>
+        <v>82049.759999999995</v>
+      </c>
+      <c r="Q45" s="87">
+        <v>74.074074074074076</v>
+      </c>
+      <c r="R45" s="75">
+        <f t="shared" si="27"/>
+        <v>62400</v>
+      </c>
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="136"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
+      <c r="A46" s="73">
+        <v>43757</v>
+      </c>
+      <c r="B46" s="149"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="150"/>
+      <c r="F46" s="150"/>
       <c r="G46" s="73">
         <v>43757</v>
       </c>
@@ -8829,16 +9569,25 @@
       <c r="M46" s="73">
         <v>43757</v>
       </c>
-      <c r="N46" s="93"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="75"/>
+      <c r="N46" s="93">
+        <v>84240</v>
+      </c>
+      <c r="O46" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="P46" s="75">
+        <f t="shared" si="26"/>
+        <v>84155.76</v>
+      </c>
+      <c r="Q46" s="87">
+        <v>98.148148148148152</v>
+      </c>
+      <c r="R46" s="75">
+        <f t="shared" si="27"/>
+        <v>82680</v>
+      </c>
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="73">
-        <v>43756</v>
-      </c>
       <c r="B47" s="93"/>
       <c r="C47" s="54"/>
       <c r="D47" s="75"/>
@@ -8849,13 +9598,28 @@
       <c r="J47" s="75"/>
       <c r="K47" s="87"/>
       <c r="L47" s="75"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="75"/>
+      <c r="N47" s="93">
+        <v>84240</v>
+      </c>
+      <c r="O47" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="P47" s="75">
+        <f t="shared" si="26"/>
+        <v>82723.679999999993</v>
+      </c>
+      <c r="Q47" s="87">
+        <v>79.629629629629633</v>
+      </c>
+      <c r="R47" s="75">
+        <f t="shared" si="27"/>
+        <v>67080</v>
+      </c>
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="73">
+        <v>43758</v>
+      </c>
       <c r="B48" s="93"/>
       <c r="C48" s="54"/>
       <c r="D48" s="75"/>
@@ -8869,16 +9633,28 @@
       <c r="J48" s="75"/>
       <c r="K48" s="87"/>
       <c r="L48" s="75"/>
-      <c r="N48" s="143"/>
-      <c r="O48" s="143"/>
-      <c r="P48" s="116"/>
-      <c r="Q48" s="88"/>
-      <c r="R48" s="89"/>
+      <c r="M48" s="73">
+        <v>43758</v>
+      </c>
+      <c r="N48" s="93">
+        <v>84240</v>
+      </c>
+      <c r="O48" s="10">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="P48" s="75">
+        <f t="shared" si="26"/>
+        <v>80112.239999999991</v>
+      </c>
+      <c r="Q48" s="87">
+        <v>88.888888888888886</v>
+      </c>
+      <c r="R48" s="75">
+        <f t="shared" si="27"/>
+        <v>74880</v>
+      </c>
     </row>
     <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="73">
-        <v>43757</v>
-      </c>
       <c r="B49" s="93"/>
       <c r="C49" s="54"/>
       <c r="D49" s="75"/>
@@ -8889,11 +9665,28 @@
       <c r="J49" s="75"/>
       <c r="K49" s="87"/>
       <c r="L49" s="75"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="60"/>
+      <c r="N49" s="93">
+        <v>84240</v>
+      </c>
+      <c r="O49" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="P49" s="75">
+        <f t="shared" si="26"/>
+        <v>84231.576000000001</v>
+      </c>
+      <c r="Q49" s="87">
+        <v>98.148148148148152</v>
+      </c>
+      <c r="R49" s="75">
+        <f t="shared" si="27"/>
+        <v>82680</v>
+      </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="73">
+        <v>43759</v>
+      </c>
       <c r="B50" s="93"/>
       <c r="C50" s="54"/>
       <c r="D50" s="75"/>
@@ -8907,16 +9700,24 @@
       <c r="J50" s="75"/>
       <c r="K50" s="87"/>
       <c r="L50" s="75"/>
-      <c r="N50" s="136"/>
-      <c r="O50" s="137"/>
-      <c r="P50" s="137"/>
-      <c r="Q50" s="137"/>
-      <c r="R50" s="137"/>
+      <c r="N50" s="157" t="s">
+        <v>1</v>
+      </c>
+      <c r="O50" s="157"/>
+      <c r="P50" s="128">
+        <f>SUM(P42:P49)</f>
+        <v>650324.37600000005</v>
+      </c>
+      <c r="Q50" s="101">
+        <f>R50/P50</f>
+        <v>0.76424015205605633</v>
+      </c>
+      <c r="R50" s="102">
+        <f>SUM(R42:R49)</f>
+        <v>497004</v>
+      </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="73">
-        <v>43758</v>
-      </c>
       <c r="B51" s="93"/>
       <c r="C51" s="54"/>
       <c r="D51" s="75"/>
@@ -8927,9 +9728,6 @@
       <c r="J51" s="75"/>
       <c r="K51" s="87"/>
       <c r="L51" s="75"/>
-      <c r="M51" s="73">
-        <v>43758</v>
-      </c>
       <c r="N51" s="93"/>
       <c r="O51" s="10"/>
       <c r="P51" s="75"/>
@@ -8937,6 +9735,9 @@
       <c r="R51" s="75"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="73">
+        <v>43760</v>
+      </c>
       <c r="B52" s="93"/>
       <c r="C52" s="54"/>
       <c r="D52" s="75"/>
@@ -8950,16 +9751,15 @@
       <c r="J52" s="75"/>
       <c r="K52" s="87"/>
       <c r="L52" s="75"/>
-      <c r="N52" s="93"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="75"/>
-      <c r="Q52" s="87"/>
-      <c r="R52" s="75"/>
+      <c r="N52" s="149" t="s">
+        <v>30</v>
+      </c>
+      <c r="O52" s="150"/>
+      <c r="P52" s="150"/>
+      <c r="Q52" s="150"/>
+      <c r="R52" s="150"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="73">
-        <v>43759</v>
-      </c>
       <c r="B53" s="93"/>
       <c r="C53" s="54"/>
       <c r="D53" s="75"/>
@@ -8973,13 +9773,28 @@
       <c r="M53" s="73">
         <v>43759</v>
       </c>
-      <c r="N53" s="93"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="75"/>
+      <c r="N53" s="93">
+        <v>84240</v>
+      </c>
+      <c r="O53" s="10">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="P53" s="75">
+        <f t="shared" ref="P53" si="30">N53*O53</f>
+        <v>72867.600000000006</v>
+      </c>
+      <c r="Q53" s="87">
+        <v>9.0455840455840466</v>
+      </c>
+      <c r="R53" s="75">
+        <f t="shared" ref="R53" si="31">N53*Q53/100</f>
+        <v>7620.0000000000009</v>
+      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="73">
+        <v>43761</v>
+      </c>
       <c r="B54" s="93"/>
       <c r="C54" s="54"/>
       <c r="D54" s="75"/>
@@ -9000,9 +9815,6 @@
       <c r="R54" s="75"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="73">
-        <v>43760</v>
-      </c>
       <c r="B55" s="93"/>
       <c r="C55" s="54"/>
       <c r="D55" s="75"/>
@@ -9023,6 +9835,9 @@
       <c r="R55" s="75"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="73">
+        <v>43762</v>
+      </c>
       <c r="B56" s="93"/>
       <c r="C56" s="54"/>
       <c r="D56" s="75"/>
@@ -9043,9 +9858,6 @@
       <c r="R56" s="75"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="73">
-        <v>43761</v>
-      </c>
       <c r="B57" s="93"/>
       <c r="C57" s="54"/>
       <c r="D57" s="75"/>
@@ -9056,13 +9868,16 @@
       <c r="J57" s="75"/>
       <c r="K57" s="87"/>
       <c r="L57" s="75"/>
-      <c r="N57" s="144"/>
-      <c r="O57" s="144"/>
+      <c r="N57" s="157"/>
+      <c r="O57" s="157"/>
       <c r="P57" s="117"/>
       <c r="Q57" s="101"/>
       <c r="R57" s="102"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="73">
+        <v>43763</v>
+      </c>
       <c r="B58" s="93"/>
       <c r="C58" s="54"/>
       <c r="D58" s="75"/>
@@ -9083,8 +9898,8 @@
       <c r="R58" s="107"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="141"/>
-      <c r="C59" s="142"/>
+      <c r="B59" s="154"/>
+      <c r="C59" s="155"/>
       <c r="D59" s="116"/>
       <c r="E59" s="88"/>
       <c r="F59" s="89"/>
@@ -9093,13 +9908,16 @@
       <c r="J59" s="75"/>
       <c r="K59" s="87"/>
       <c r="L59" s="75"/>
-      <c r="N59" s="136"/>
-      <c r="O59" s="137"/>
-      <c r="P59" s="137"/>
-      <c r="Q59" s="137"/>
-      <c r="R59" s="137"/>
+      <c r="N59" s="149"/>
+      <c r="O59" s="150"/>
+      <c r="P59" s="150"/>
+      <c r="Q59" s="150"/>
+      <c r="R59" s="150"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="73">
+        <v>43764</v>
+      </c>
       <c r="B60" s="91"/>
       <c r="C60" s="92"/>
       <c r="D60" s="75"/>
@@ -9123,11 +9941,11 @@
       <c r="R60" s="75"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="136"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
+      <c r="B61" s="149"/>
+      <c r="C61" s="150"/>
+      <c r="D61" s="150"/>
+      <c r="E61" s="150"/>
+      <c r="F61" s="150"/>
       <c r="H61" s="74"/>
       <c r="I61" s="10"/>
       <c r="J61" s="75"/>
@@ -9141,7 +9959,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="73">
-        <v>43762</v>
+        <v>43765</v>
       </c>
       <c r="B62" s="93"/>
       <c r="C62" s="54"/>
@@ -9183,9 +10001,6 @@
       <c r="R63" s="75"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="73">
-        <v>43763</v>
-      </c>
       <c r="B64" s="93"/>
       <c r="C64" s="54"/>
       <c r="D64" s="75"/>
@@ -9226,9 +10041,6 @@
       <c r="R65" s="75"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="73">
-        <v>43764</v>
-      </c>
       <c r="B66" s="93"/>
       <c r="C66" s="54"/>
       <c r="D66" s="75"/>
@@ -9269,9 +10081,6 @@
       <c r="R67" s="75"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="73">
-        <v>43765</v>
-      </c>
       <c r="B68" s="93"/>
       <c r="C68" s="54"/>
       <c r="D68" s="75"/>
@@ -9320,8 +10129,8 @@
       <c r="D70" s="75"/>
       <c r="E70" s="87"/>
       <c r="F70" s="75"/>
-      <c r="H70" s="141"/>
-      <c r="I70" s="142"/>
+      <c r="H70" s="154"/>
+      <c r="I70" s="155"/>
       <c r="J70" s="117"/>
       <c r="K70" s="101"/>
       <c r="L70" s="102"/>
@@ -9432,8 +10241,8 @@
       <c r="R75" s="75"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="141"/>
-      <c r="C76" s="142"/>
+      <c r="B76" s="154"/>
+      <c r="C76" s="155"/>
       <c r="D76" s="117"/>
       <c r="E76" s="101"/>
       <c r="F76" s="102"/>
@@ -9442,8 +10251,8 @@
       <c r="J76" s="79"/>
       <c r="K76" s="79"/>
       <c r="L76" s="79"/>
-      <c r="N76" s="144"/>
-      <c r="O76" s="144"/>
+      <c r="N76" s="157"/>
+      <c r="O76" s="157"/>
       <c r="P76" s="117"/>
       <c r="Q76" s="101"/>
       <c r="R76" s="102"/>
@@ -9552,19 +10361,19 @@
       <c r="R82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="140"/>
-      <c r="C83" s="140"/>
-      <c r="D83" s="140"/>
+      <c r="B83" s="153"/>
+      <c r="C83" s="153"/>
+      <c r="D83" s="153"/>
       <c r="E83" s="115"/>
       <c r="F83" s="115"/>
-      <c r="H83" s="140"/>
-      <c r="I83" s="140"/>
-      <c r="J83" s="140"/>
+      <c r="H83" s="153"/>
+      <c r="I83" s="153"/>
+      <c r="J83" s="153"/>
       <c r="K83" s="115"/>
       <c r="L83" s="115"/>
-      <c r="N83" s="140"/>
-      <c r="O83" s="140"/>
-      <c r="P83" s="140"/>
+      <c r="N83" s="153"/>
+      <c r="O83" s="153"/>
+      <c r="P83" s="153"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -9660,22 +10469,22 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="140"/>
-      <c r="C90" s="140"/>
+      <c r="B90" s="153"/>
+      <c r="C90" s="153"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="140"/>
-      <c r="I90" s="140"/>
+      <c r="H90" s="153"/>
+      <c r="I90" s="153"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="140"/>
-      <c r="O90" s="140"/>
+      <c r="N90" s="153"/>
+      <c r="O90" s="153"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="H90:I90"/>
     <mergeCell ref="N90:O90"/>
@@ -9690,31 +10499,29 @@
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="H83:J83"/>
     <mergeCell ref="N83:P83"/>
-    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B46:F46"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="N50:O50"/>
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="N59:R59"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="N52:R52"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="N3:R3"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H41:L41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="45" max="17" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
   <si>
     <t>% работы</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>ХХI-В-30-4А-500 (Байрон 0.5 л.)</t>
+  </si>
+  <si>
+    <t>XI-28МСА-700 (Баден 0.7 л.)</t>
+  </si>
+  <si>
+    <t>XIII-В-28-2-500-4 (Фляга 0,5 л.)</t>
   </si>
 </sst>
 </file>
@@ -578,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -938,6 +944,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1366,21 +1378,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="145" t="s">
+      <c r="C1" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
       <c r="H1" s="51"/>
-      <c r="I1" s="145" t="s">
+      <c r="I1" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
     </row>
     <row r="2" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -1422,22 +1434,22 @@
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="135" t="s">
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="134"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="136"/>
       <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1683,11 +1695,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="136"/>
-      <c r="D11" s="134"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="136"/>
       <c r="E11" s="24">
         <f>SUM(E4:E10)</f>
         <v>829712.88</v>
@@ -1708,12 +1720,12 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="137"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="139"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="20"/>
       <c r="I12" s="14"/>
       <c r="J12" s="23"/>
@@ -1726,14 +1738,14 @@
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="136"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="140"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="142"/>
       <c r="H13" s="20"/>
       <c r="I13" s="14"/>
       <c r="J13" s="23"/>
@@ -1745,12 +1757,12 @@
       <c r="A14" s="3">
         <v>43439</v>
       </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="144"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="146"/>
       <c r="H14" s="20"/>
       <c r="I14" s="14"/>
       <c r="J14" s="23"/>
@@ -1785,9 +1797,9 @@
       <c r="E16" s="11"/>
       <c r="F16" s="38"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="134"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="136"/>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
       <c r="M16" s="24"/>
@@ -1799,9 +1811,9 @@
       <c r="E17" s="11"/>
       <c r="F17" s="38"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
       <c r="K17" s="11"/>
       <c r="L17" s="33"/>
       <c r="M17" s="11"/>
@@ -1816,12 +1828,12 @@
       <c r="E18" s="11"/>
       <c r="F18" s="38"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="134"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="136"/>
       <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1910,9 +1922,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="135"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="134"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="136"/>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
       <c r="G24" s="24"/>
@@ -1942,12 +1954,12 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="134"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="136"/>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
       <c r="J26" s="23"/>
@@ -2093,9 +2105,9 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="135"/>
-      <c r="C35" s="136"/>
-      <c r="D35" s="134"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="136"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
       <c r="G35" s="24"/>
@@ -2125,12 +2137,12 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="134"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="136"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
       <c r="J37" s="23"/>
@@ -2278,9 +2290,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="135"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="134"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="136"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
       <c r="G46" s="24"/>
@@ -2310,12 +2322,12 @@
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="135"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="134"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="138"/>
+      <c r="F48" s="138"/>
+      <c r="G48" s="136"/>
       <c r="H48" s="30"/>
       <c r="I48" s="31"/>
       <c r="J48" s="23"/>
@@ -2460,15 +2472,15 @@
       <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="135"/>
-      <c r="C57" s="136"/>
-      <c r="D57" s="134"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="138"/>
+      <c r="D57" s="136"/>
       <c r="E57" s="24"/>
       <c r="F57" s="25"/>
       <c r="G57" s="24"/>
-      <c r="H57" s="135"/>
-      <c r="I57" s="136"/>
-      <c r="J57" s="134"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="138"/>
+      <c r="J57" s="136"/>
       <c r="K57" s="24"/>
       <c r="L57" s="25"/>
       <c r="M57" s="24"/>
@@ -2488,12 +2500,12 @@
       <c r="M58" s="11"/>
     </row>
     <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="135"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="134"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="138"/>
+      <c r="F59" s="138"/>
+      <c r="G59" s="136"/>
       <c r="H59" s="20"/>
       <c r="I59" s="14"/>
       <c r="J59" s="23"/>
@@ -2505,9 +2517,9 @@
       <c r="A60" s="3">
         <v>43456</v>
       </c>
-      <c r="B60" s="135"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="134"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="136"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
       <c r="G60" s="24"/>
@@ -2519,12 +2531,12 @@
       <c r="M60" s="11"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="141"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="141"/>
-      <c r="G61" s="141"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="143"/>
       <c r="H61" s="20"/>
       <c r="I61" s="14"/>
       <c r="J61" s="23"/>
@@ -2536,12 +2548,12 @@
       <c r="A62" s="3">
         <v>43457</v>
       </c>
-      <c r="B62" s="135"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="133"/>
-      <c r="E62" s="136"/>
-      <c r="F62" s="133"/>
-      <c r="G62" s="140"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="135"/>
+      <c r="G62" s="142"/>
       <c r="H62" s="20"/>
       <c r="I62" s="14"/>
       <c r="J62" s="23"/>
@@ -2604,9 +2616,9 @@
       <c r="E66" s="11"/>
       <c r="F66" s="38"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="135"/>
-      <c r="I66" s="136"/>
-      <c r="J66" s="134"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="138"/>
+      <c r="J66" s="136"/>
       <c r="K66" s="24"/>
       <c r="L66" s="25"/>
       <c r="M66" s="24"/>
@@ -2635,12 +2647,12 @@
       <c r="E68" s="11"/>
       <c r="F68" s="38"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="133"/>
-      <c r="J68" s="133"/>
-      <c r="K68" s="133"/>
-      <c r="L68" s="133"/>
-      <c r="M68" s="134"/>
+      <c r="H68" s="134"/>
+      <c r="I68" s="135"/>
+      <c r="J68" s="135"/>
+      <c r="K68" s="135"/>
+      <c r="L68" s="135"/>
+      <c r="M68" s="136"/>
       <c r="N68" s="28"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -2752,9 +2764,9 @@
       <c r="E75" s="11"/>
       <c r="F75" s="38"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="135"/>
-      <c r="I75" s="136"/>
-      <c r="J75" s="134"/>
+      <c r="H75" s="137"/>
+      <c r="I75" s="138"/>
+      <c r="J75" s="136"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
       <c r="M75" s="24"/>
@@ -2774,23 +2786,23 @@
       <c r="M76" s="11"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="135"/>
-      <c r="C77" s="136"/>
-      <c r="D77" s="134"/>
+      <c r="B77" s="137"/>
+      <c r="C77" s="138"/>
+      <c r="D77" s="136"/>
       <c r="E77" s="24"/>
       <c r="F77" s="25"/>
       <c r="G77" s="24"/>
-      <c r="H77" s="132"/>
-      <c r="I77" s="133"/>
-      <c r="J77" s="133"/>
-      <c r="K77" s="133"/>
-      <c r="L77" s="133"/>
-      <c r="M77" s="134"/>
+      <c r="H77" s="134"/>
+      <c r="I77" s="135"/>
+      <c r="J77" s="135"/>
+      <c r="K77" s="135"/>
+      <c r="L77" s="135"/>
+      <c r="M77" s="136"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="137"/>
-      <c r="C78" s="138"/>
-      <c r="D78" s="139"/>
+      <c r="B78" s="139"/>
+      <c r="C78" s="140"/>
+      <c r="D78" s="141"/>
       <c r="E78" s="11"/>
       <c r="F78" s="33"/>
       <c r="G78" s="11"/>
@@ -2805,12 +2817,12 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="135"/>
-      <c r="C79" s="136"/>
-      <c r="D79" s="133"/>
-      <c r="E79" s="136"/>
-      <c r="F79" s="133"/>
-      <c r="G79" s="140"/>
+      <c r="B79" s="137"/>
+      <c r="C79" s="138"/>
+      <c r="D79" s="135"/>
+      <c r="E79" s="138"/>
+      <c r="F79" s="135"/>
+      <c r="G79" s="142"/>
       <c r="H79" s="20"/>
       <c r="I79" s="14"/>
       <c r="J79" s="23"/>
@@ -2853,27 +2865,27 @@
       <c r="M81" s="11"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="135"/>
-      <c r="C82" s="136"/>
-      <c r="D82" s="134"/>
+      <c r="B82" s="137"/>
+      <c r="C82" s="138"/>
+      <c r="D82" s="136"/>
       <c r="E82" s="24"/>
       <c r="F82" s="25"/>
       <c r="G82" s="24"/>
-      <c r="H82" s="132"/>
-      <c r="I82" s="133"/>
-      <c r="J82" s="140"/>
+      <c r="H82" s="134"/>
+      <c r="I82" s="135"/>
+      <c r="J82" s="142"/>
       <c r="K82" s="26"/>
       <c r="L82" s="27"/>
       <c r="M82" s="26"/>
       <c r="N82" s="28"/>
     </row>
     <row r="83" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="131"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
-      <c r="F83" s="131"/>
-      <c r="G83" s="131"/>
+      <c r="B83" s="133"/>
+      <c r="C83" s="133"/>
+      <c r="D83" s="133"/>
+      <c r="E83" s="133"/>
+      <c r="F83" s="133"/>
+      <c r="G83" s="133"/>
       <c r="H83" s="49"/>
       <c r="I83" s="50"/>
       <c r="J83" s="44"/>
@@ -2888,9 +2900,9 @@
       <c r="E84" s="16"/>
       <c r="F84" s="45"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="131"/>
-      <c r="I84" s="131"/>
-      <c r="J84" s="131"/>
+      <c r="H84" s="133"/>
+      <c r="I84" s="133"/>
+      <c r="J84" s="133"/>
       <c r="K84" s="16"/>
       <c r="L84" s="36"/>
       <c r="M84" s="16"/>
@@ -2945,9 +2957,9 @@
       <c r="E88" s="16"/>
       <c r="F88" s="45"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="131"/>
-      <c r="I88" s="131"/>
-      <c r="J88" s="131"/>
+      <c r="H88" s="133"/>
+      <c r="I88" s="133"/>
+      <c r="J88" s="133"/>
       <c r="K88" s="16"/>
       <c r="L88" s="36"/>
       <c r="M88" s="16"/>
@@ -2961,9 +2973,9 @@
       <c r="G89" s="16"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="131"/>
-      <c r="C90" s="131"/>
-      <c r="D90" s="131"/>
+      <c r="B90" s="133"/>
+      <c r="C90" s="133"/>
+      <c r="D90" s="133"/>
       <c r="E90" s="16"/>
       <c r="F90" s="36"/>
       <c r="G90" s="16"/>
@@ -3020,8 +3032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="N1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N57" sqref="N57:R57"/>
     </sheetView>
   </sheetViews>
@@ -3045,27 +3057,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="H1" s="151" t="s">
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="H1" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="N1" s="151" t="s">
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="N1" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="152"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -3116,29 +3128,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
       <c r="G3" s="97"/>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
       <c r="M3" s="97"/>
-      <c r="N3" s="149" t="s">
+      <c r="N3" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -3720,10 +3732,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="154" t="s">
+      <c r="B14" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="155"/>
+      <c r="C14" s="157"/>
       <c r="D14" s="77">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
@@ -3820,13 +3832,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="96"/>
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
       <c r="G16" s="73">
         <v>43715</v>
       </c>
@@ -4077,10 +4089,10 @@
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="154" t="s">
+      <c r="N20" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="155"/>
+      <c r="O20" s="157"/>
       <c r="P20" s="77">
         <f>SUM(P4:P19)</f>
         <v>1447623.36</v>
@@ -4175,13 +4187,13 @@
         <v>94770</v>
       </c>
       <c r="M22" s="96"/>
-      <c r="N22" s="149" t="s">
+      <c r="N22" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="150"/>
-      <c r="P22" s="150"/>
-      <c r="Q22" s="150"/>
-      <c r="R22" s="150"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="152"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="73">
@@ -4260,10 +4272,10 @@
         <f t="shared" si="18"/>
         <v>106496</v>
       </c>
-      <c r="H24" s="154" t="s">
+      <c r="H24" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="155"/>
+      <c r="I24" s="157"/>
       <c r="J24" s="77">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
@@ -4360,13 +4372,13 @@
         <v>109824</v>
       </c>
       <c r="G26" s="96"/>
-      <c r="H26" s="147" t="s">
+      <c r="H26" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="148"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
       <c r="N26" s="93">
         <v>84240</v>
       </c>
@@ -4501,10 +4513,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="154" t="s">
+      <c r="B29" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="155"/>
+      <c r="C29" s="157"/>
       <c r="D29" s="77">
         <f>SUM(D17:D28)</f>
         <v>1312507.44</v>
@@ -4601,13 +4613,13 @@
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="96"/>
-      <c r="B31" s="147" t="s">
+      <c r="B31" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
       <c r="G31" s="73">
         <v>43721</v>
       </c>
@@ -4973,10 +4985,10 @@
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N37" s="156" t="s">
+      <c r="N37" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="156"/>
+      <c r="O37" s="158"/>
       <c r="P37" s="77">
         <f>SUM(P23:P36)</f>
         <v>1133003.52</v>
@@ -5050,10 +5062,10 @@
         <f t="shared" si="30"/>
         <v>65705.999999999985</v>
       </c>
-      <c r="H39" s="158" t="s">
+      <c r="H39" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="159"/>
+      <c r="I39" s="161"/>
       <c r="J39" s="77">
         <f>SUM(J27:J38)</f>
         <v>1647216</v>
@@ -5067,13 +5079,13 @@
         <v>1512490</v>
       </c>
       <c r="M39" s="96"/>
-      <c r="N39" s="149" t="s">
+      <c r="N39" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="O39" s="150"/>
-      <c r="P39" s="150"/>
-      <c r="Q39" s="150"/>
-      <c r="R39" s="150"/>
+      <c r="O39" s="152"/>
+      <c r="P39" s="152"/>
+      <c r="Q39" s="152"/>
+      <c r="R39" s="152"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="73">
@@ -5141,13 +5153,13 @@
         <v>67104</v>
       </c>
       <c r="G41" s="96"/>
-      <c r="H41" s="147" t="s">
+      <c r="H41" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="148"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="148"/>
-      <c r="L41" s="148"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
       <c r="N41" s="93">
         <v>64080</v>
       </c>
@@ -5282,10 +5294,10 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="154" t="s">
+      <c r="B44" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="155"/>
+      <c r="C44" s="157"/>
       <c r="D44" s="100">
         <f>SUM(D32:D43)</f>
         <v>825840</v>
@@ -5382,13 +5394,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="96"/>
-      <c r="B46" s="149" t="s">
+      <c r="B46" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="150"/>
-      <c r="D46" s="150"/>
-      <c r="E46" s="150"/>
-      <c r="F46" s="150"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
       <c r="G46" s="73">
         <v>43727</v>
       </c>
@@ -5524,10 +5536,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N48" s="156" t="s">
+      <c r="N48" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="O48" s="156"/>
+      <c r="O48" s="158"/>
       <c r="P48" s="98">
         <f>SUM(P40:P47)</f>
         <v>496705.68</v>
@@ -5622,13 +5634,13 @@
         <v>91125</v>
       </c>
       <c r="M50" s="96"/>
-      <c r="N50" s="149" t="s">
+      <c r="N50" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="O50" s="150"/>
-      <c r="P50" s="150"/>
-      <c r="Q50" s="150"/>
-      <c r="R50" s="150"/>
+      <c r="O50" s="152"/>
+      <c r="P50" s="152"/>
+      <c r="Q50" s="152"/>
+      <c r="R50" s="152"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="73">
@@ -6013,10 +6025,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N57" s="157" t="s">
+      <c r="N57" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="O57" s="157"/>
+      <c r="O57" s="159"/>
       <c r="P57" s="100">
         <f>SUM(P49:P56)</f>
         <v>448449.84</v>
@@ -6075,10 +6087,10 @@
       <c r="R58" s="107"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="154" t="s">
+      <c r="B59" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="155"/>
+      <c r="C59" s="157"/>
       <c r="D59" s="98">
         <f>SUM(D47:D58)</f>
         <v>1010437.2</v>
@@ -6109,13 +6121,13 @@
         <v>91125</v>
       </c>
       <c r="M59" s="96"/>
-      <c r="N59" s="149" t="s">
+      <c r="N59" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="O59" s="150"/>
-      <c r="P59" s="150"/>
-      <c r="Q59" s="150"/>
-      <c r="R59" s="150"/>
+      <c r="O59" s="152"/>
+      <c r="P59" s="152"/>
+      <c r="Q59" s="152"/>
+      <c r="R59" s="152"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60" s="91"/>
@@ -6166,13 +6178,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="96"/>
-      <c r="B61" s="149" t="s">
+      <c r="B61" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="150"/>
-      <c r="D61" s="150"/>
-      <c r="E61" s="150"/>
-      <c r="F61" s="150"/>
+      <c r="C61" s="152"/>
+      <c r="D61" s="152"/>
+      <c r="E61" s="152"/>
+      <c r="F61" s="152"/>
       <c r="H61" s="74">
         <v>100800</v>
       </c>
@@ -6689,10 +6701,10 @@
         <f t="shared" si="54"/>
         <v>86184</v>
       </c>
-      <c r="H70" s="154" t="s">
+      <c r="H70" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="155"/>
+      <c r="I70" s="157"/>
       <c r="J70" s="100">
         <f>SUM(J42:J69)</f>
         <v>2733393.6</v>
@@ -6944,10 +6956,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="154" t="s">
+      <c r="B76" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="155"/>
+      <c r="C76" s="157"/>
       <c r="D76" s="100">
         <f>SUM(D62:D75)</f>
         <v>1243584</v>
@@ -6965,10 +6977,10 @@
       <c r="J76" s="79"/>
       <c r="K76" s="79"/>
       <c r="L76" s="79"/>
-      <c r="N76" s="157" t="s">
+      <c r="N76" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="157"/>
+      <c r="O76" s="159"/>
       <c r="P76" s="100">
         <f>SUM(P60:P75)</f>
         <v>1630498.3199999998</v>
@@ -7086,19 +7098,19 @@
       <c r="R82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="153"/>
-      <c r="C83" s="153"/>
-      <c r="D83" s="153"/>
+      <c r="B83" s="155"/>
+      <c r="C83" s="155"/>
+      <c r="D83" s="155"/>
       <c r="E83" s="80"/>
       <c r="F83" s="80"/>
-      <c r="H83" s="153"/>
-      <c r="I83" s="153"/>
-      <c r="J83" s="153"/>
+      <c r="H83" s="155"/>
+      <c r="I83" s="155"/>
+      <c r="J83" s="155"/>
       <c r="K83" s="80"/>
       <c r="L83" s="80"/>
-      <c r="N83" s="153"/>
-      <c r="O83" s="153"/>
-      <c r="P83" s="153"/>
+      <c r="N83" s="155"/>
+      <c r="O83" s="155"/>
+      <c r="P83" s="155"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -7194,18 +7206,18 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="153"/>
-      <c r="C90" s="153"/>
+      <c r="B90" s="155"/>
+      <c r="C90" s="155"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="153"/>
-      <c r="I90" s="153"/>
+      <c r="H90" s="155"/>
+      <c r="I90" s="155"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="153"/>
-      <c r="O90" s="153"/>
+      <c r="N90" s="155"/>
+      <c r="O90" s="155"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
@@ -7259,9 +7271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7269,42 +7281,44 @@
     <col min="1" max="1" width="11.5546875" style="62" customWidth="1"/>
     <col min="2" max="2" width="11.21875" style="63" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="63" customWidth="1"/>
-    <col min="4" max="6" width="11.6640625" style="63" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" style="63" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="63" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" style="62" customWidth="1"/>
     <col min="8" max="8" width="11.109375" style="63" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" style="63" customWidth="1"/>
-    <col min="10" max="12" width="11.6640625" style="63" customWidth="1"/>
+    <col min="10" max="11" width="11.6640625" style="63" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="63" customWidth="1"/>
     <col min="13" max="13" width="11.5546875" style="62" customWidth="1"/>
     <col min="14" max="14" width="11" style="63" customWidth="1"/>
     <col min="15" max="15" width="10.6640625" style="63" customWidth="1"/>
     <col min="16" max="16" width="13.44140625" style="63" customWidth="1"/>
     <col min="17" max="17" width="8.33203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="63" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" style="63" customWidth="1"/>
     <col min="19" max="16384" width="8.88671875" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="H1" s="151" t="s">
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="H1" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="N1" s="151" t="s">
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="N1" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="152"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -7355,29 +7369,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
       <c r="G3" s="97"/>
-      <c r="H3" s="161" t="s">
+      <c r="H3" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="149" t="s">
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -7843,10 +7857,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="161"/>
       <c r="D12" s="116">
         <f>SUM(D4:D11)</f>
         <v>721644.48</v>
@@ -7944,13 +7958,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="96"/>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="160"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="162"/>
       <c r="G14" s="73">
         <v>43744</v>
       </c>
@@ -8546,10 +8560,10 @@
         <f t="shared" si="9"/>
         <v>98415</v>
       </c>
-      <c r="N24" s="157" t="s">
+      <c r="N24" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="157"/>
+      <c r="O24" s="159"/>
       <c r="P24" s="117">
         <f>SUM(P4:P23)</f>
         <v>2047806</v>
@@ -8645,13 +8659,14 @@
         <f t="shared" si="9"/>
         <v>94770</v>
       </c>
-      <c r="N26" s="149" t="s">
+      <c r="M26" s="96"/>
+      <c r="N26" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="150"/>
-      <c r="P26" s="150"/>
-      <c r="Q26" s="150"/>
-      <c r="R26" s="150"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="152"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="73">
@@ -9075,10 +9090,10 @@
         <f t="shared" si="21"/>
         <v>85824</v>
       </c>
-      <c r="H34" s="158" t="s">
+      <c r="H34" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="159"/>
+      <c r="I34" s="161"/>
       <c r="J34" s="118">
         <f>SUM(J4:J33)</f>
         <v>2962108.8000000003</v>
@@ -9174,13 +9189,13 @@
         <f t="shared" si="21"/>
         <v>85824</v>
       </c>
-      <c r="H36" s="161" t="s">
+      <c r="H36" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="162"/>
-      <c r="J36" s="162"/>
-      <c r="K36" s="162"/>
-      <c r="L36" s="162"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="164"/>
       <c r="N36" s="93">
         <v>104400</v>
       </c>
@@ -9224,21 +9239,21 @@
         <v>43754</v>
       </c>
       <c r="H37" s="58">
-        <v>100800</v>
-      </c>
-      <c r="I37" s="129">
-        <v>0.98199999999999998</v>
+        <v>108000</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.91800000000000004</v>
       </c>
       <c r="J37" s="60">
         <f t="shared" ref="J37" si="22">H37*I37</f>
-        <v>98985.599999999991</v>
-      </c>
-      <c r="K37" s="130">
-        <v>90.401785714285708</v>
+        <v>99144</v>
+      </c>
+      <c r="K37" s="87">
+        <v>18.033333333333335</v>
       </c>
       <c r="L37" s="60">
         <f t="shared" ref="L37" si="23">H37*K37/100</f>
-        <v>91125</v>
+        <v>19476.000000000004</v>
       </c>
       <c r="M37" s="73">
         <v>43754</v>
@@ -9279,11 +9294,23 @@
         <f t="shared" si="21"/>
         <v>87612</v>
       </c>
-      <c r="H38" s="74"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="75"/>
+      <c r="H38" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="J38" s="60">
+        <f t="shared" ref="J38:J62" si="24">H38*I38</f>
+        <v>105084</v>
+      </c>
+      <c r="K38" s="87">
+        <v>94.674999999999997</v>
+      </c>
+      <c r="L38" s="60">
+        <f t="shared" ref="L38:L62" si="25">H38*K38/100</f>
+        <v>102249</v>
+      </c>
       <c r="N38" s="93">
         <v>104400</v>
       </c>
@@ -9323,15 +9350,30 @@
         <f t="shared" si="21"/>
         <v>89400</v>
       </c>
-      <c r="H39" s="158"/>
-      <c r="I39" s="159"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="89"/>
-      <c r="N39" s="157" t="s">
+      <c r="G39" s="73">
+        <v>43755</v>
+      </c>
+      <c r="H39" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J39" s="60">
+        <f t="shared" si="24"/>
+        <v>106380</v>
+      </c>
+      <c r="K39" s="87">
+        <v>90.166666666666657</v>
+      </c>
+      <c r="L39" s="60">
+        <f t="shared" si="25"/>
+        <v>97379.999999999985</v>
+      </c>
+      <c r="N39" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="O39" s="157"/>
+      <c r="O39" s="159"/>
       <c r="P39" s="119">
         <f>SUM(P27:P38)</f>
         <v>1219183.2</v>
@@ -9363,11 +9405,23 @@
         <f t="shared" si="21"/>
         <v>87612</v>
       </c>
-      <c r="H40" s="58"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
+      <c r="H40" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J40" s="60">
+        <f t="shared" si="24"/>
+        <v>105408</v>
+      </c>
+      <c r="K40" s="87">
+        <v>94.674999999999997</v>
+      </c>
+      <c r="L40" s="60">
+        <f t="shared" si="25"/>
+        <v>102249</v>
+      </c>
       <c r="N40" s="93"/>
       <c r="O40" s="10"/>
       <c r="P40" s="75"/>
@@ -9375,10 +9429,10 @@
       <c r="R40" s="75"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="158" t="s">
+      <c r="B41" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="159"/>
+      <c r="C41" s="161"/>
       <c r="D41" s="118">
         <f>SUM(D15:D40)</f>
         <v>2335044.96</v>
@@ -9391,18 +9445,34 @@
         <f>SUM(F15:F40)</f>
         <v>2226060</v>
       </c>
-      <c r="H41" s="147"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="148"/>
-      <c r="L41" s="148"/>
-      <c r="N41" s="149" t="s">
+      <c r="G41" s="73">
+        <v>43756</v>
+      </c>
+      <c r="H41" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J41" s="60">
+        <f t="shared" si="24"/>
+        <v>105516</v>
+      </c>
+      <c r="K41" s="87">
+        <v>90.166666666666657</v>
+      </c>
+      <c r="L41" s="60">
+        <f t="shared" si="25"/>
+        <v>97379.999999999985</v>
+      </c>
+      <c r="M41" s="96"/>
+      <c r="N41" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="O41" s="150"/>
-      <c r="P41" s="150"/>
-      <c r="Q41" s="150"/>
-      <c r="R41" s="150"/>
+      <c r="O41" s="152"/>
+      <c r="P41" s="152"/>
+      <c r="Q41" s="152"/>
+      <c r="R41" s="152"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" s="74"/>
@@ -9410,14 +9480,23 @@
       <c r="D42" s="75"/>
       <c r="E42" s="87"/>
       <c r="F42" s="75"/>
-      <c r="G42" s="73">
-        <v>43755</v>
-      </c>
-      <c r="H42" s="74"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="75"/>
+      <c r="H42" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J42" s="60">
+        <f t="shared" si="24"/>
+        <v>105408</v>
+      </c>
+      <c r="K42" s="87">
+        <v>94.674999999999997</v>
+      </c>
+      <c r="L42" s="60">
+        <f t="shared" si="25"/>
+        <v>102249</v>
+      </c>
       <c r="M42" s="73">
         <v>43755</v>
       </c>
@@ -9428,30 +9507,45 @@
         <v>0.86499999999999999</v>
       </c>
       <c r="P42" s="75">
-        <f t="shared" ref="P42" si="24">N42*O42</f>
+        <f t="shared" ref="P42" si="26">N42*O42</f>
         <v>72867.600000000006</v>
       </c>
       <c r="Q42" s="87">
         <v>9.0455840455840466</v>
       </c>
       <c r="R42" s="75">
-        <f t="shared" ref="R42" si="25">N42*Q42/100</f>
+        <f t="shared" ref="R42" si="27">N42*Q42/100</f>
         <v>7620.0000000000009</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="149" t="s">
+      <c r="B43" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="150"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="160"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="75"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="162"/>
+      <c r="G43" s="73">
+        <v>43757</v>
+      </c>
+      <c r="H43" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J43" s="60">
+        <f t="shared" si="24"/>
+        <v>105516</v>
+      </c>
+      <c r="K43" s="87">
+        <v>94.674999999999997</v>
+      </c>
+      <c r="L43" s="60">
+        <f t="shared" si="25"/>
+        <v>102249</v>
+      </c>
       <c r="N43" s="93">
         <v>84240</v>
       </c>
@@ -9459,14 +9553,14 @@
         <v>0.97399999999999998</v>
       </c>
       <c r="P43" s="75">
-        <f t="shared" ref="P43:P49" si="26">N43*O43</f>
+        <f t="shared" ref="P43:P49" si="28">N43*O43</f>
         <v>82049.759999999995</v>
       </c>
       <c r="Q43" s="87">
         <v>66.93732193732194</v>
       </c>
       <c r="R43" s="75">
-        <f t="shared" ref="R43:R49" si="27">N43*Q43/100</f>
+        <f t="shared" ref="R43:R49" si="29">N43*Q43/100</f>
         <v>56388</v>
       </c>
     </row>
@@ -9475,30 +9569,39 @@
         <v>43756</v>
       </c>
       <c r="B44" s="93">
-        <v>92160</v>
+        <v>72000</v>
       </c>
       <c r="C44" s="54">
-        <v>0.92100000000000004</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D44" s="75">
-        <f t="shared" ref="D44" si="28">B44*C44</f>
-        <v>84879.360000000001</v>
+        <f t="shared" ref="D44" si="30">B44*C44</f>
+        <v>61488</v>
       </c>
       <c r="E44" s="87">
-        <v>73.723958333333329</v>
+        <v>54.36666666666666</v>
       </c>
       <c r="F44" s="75">
-        <f t="shared" ref="F44" si="29">B44*E44/100</f>
-        <v>67944</v>
-      </c>
-      <c r="G44" s="73">
-        <v>43756</v>
-      </c>
-      <c r="H44" s="74"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="75"/>
+        <f t="shared" ref="F44" si="31">B44*E44/100</f>
+        <v>39143.999999999993</v>
+      </c>
+      <c r="H44" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="J44" s="60">
+        <f t="shared" si="24"/>
+        <v>104976</v>
+      </c>
+      <c r="K44" s="87">
+        <v>85.658333333333331</v>
+      </c>
+      <c r="L44" s="60">
+        <f t="shared" si="25"/>
+        <v>92511</v>
+      </c>
       <c r="M44" s="73">
         <v>43756</v>
       </c>
@@ -9509,28 +9612,55 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="P44" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>82134</v>
       </c>
       <c r="Q44" s="87">
         <v>75.113960113960104</v>
       </c>
       <c r="R44" s="75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>63275.999999999993</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="103"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="75"/>
+      <c r="B45" s="93">
+        <v>72000</v>
+      </c>
+      <c r="C45" s="54">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="D45" s="75">
+        <f t="shared" ref="D45:D67" si="32">B45*C45</f>
+        <v>66456</v>
+      </c>
+      <c r="E45" s="87">
+        <v>95.141666666666666</v>
+      </c>
+      <c r="F45" s="75">
+        <f t="shared" ref="F45:F67" si="33">B45*E45/100</f>
+        <v>68502</v>
+      </c>
+      <c r="G45" s="73">
+        <v>43758</v>
+      </c>
+      <c r="H45" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J45" s="60">
+        <f t="shared" si="24"/>
+        <v>104112</v>
+      </c>
+      <c r="K45" s="87">
+        <v>90.166666666666657</v>
+      </c>
+      <c r="L45" s="60">
+        <f t="shared" si="25"/>
+        <v>97379.999999999985</v>
+      </c>
       <c r="N45" s="93">
         <v>84240</v>
       </c>
@@ -9538,14 +9668,14 @@
         <v>0.97399999999999998</v>
       </c>
       <c r="P45" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>82049.759999999995</v>
       </c>
       <c r="Q45" s="87">
         <v>74.074074074074076</v>
       </c>
       <c r="R45" s="75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>62400</v>
       </c>
     </row>
@@ -9553,19 +9683,40 @@
       <c r="A46" s="73">
         <v>43757</v>
       </c>
-      <c r="B46" s="149"/>
-      <c r="C46" s="150"/>
-      <c r="D46" s="150"/>
-      <c r="E46" s="150"/>
-      <c r="F46" s="150"/>
-      <c r="G46" s="73">
-        <v>43757</v>
-      </c>
-      <c r="H46" s="74"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="75"/>
+      <c r="B46" s="93">
+        <v>72000</v>
+      </c>
+      <c r="C46" s="54">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D46" s="75">
+        <f t="shared" si="32"/>
+        <v>70200</v>
+      </c>
+      <c r="E46" s="87">
+        <v>95.141666666666666</v>
+      </c>
+      <c r="F46" s="75">
+        <f t="shared" si="33"/>
+        <v>68502</v>
+      </c>
+      <c r="H46" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="J46" s="60">
+        <f t="shared" si="24"/>
+        <v>104220</v>
+      </c>
+      <c r="K46" s="87">
+        <v>90.166666666666657</v>
+      </c>
+      <c r="L46" s="60">
+        <f t="shared" si="25"/>
+        <v>97379.999999999985</v>
+      </c>
       <c r="M46" s="73">
         <v>43757</v>
       </c>
@@ -9576,28 +9727,55 @@
         <v>0.999</v>
       </c>
       <c r="P46" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>84155.76</v>
       </c>
       <c r="Q46" s="87">
         <v>98.148148148148152</v>
       </c>
       <c r="R46" s="75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>82680</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="93"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="75"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="75"/>
+      <c r="B47" s="93">
+        <v>72000</v>
+      </c>
+      <c r="C47" s="54">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D47" s="75">
+        <f t="shared" si="32"/>
+        <v>71424</v>
+      </c>
+      <c r="E47" s="87">
+        <v>95.141666666666666</v>
+      </c>
+      <c r="F47" s="75">
+        <f t="shared" si="33"/>
+        <v>68502</v>
+      </c>
+      <c r="G47" s="73">
+        <v>43759</v>
+      </c>
+      <c r="H47" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="J47" s="60">
+        <f t="shared" si="24"/>
+        <v>103896</v>
+      </c>
+      <c r="K47" s="87">
+        <v>85.658333333333331</v>
+      </c>
+      <c r="L47" s="60">
+        <f t="shared" si="25"/>
+        <v>92511</v>
+      </c>
       <c r="N47" s="93">
         <v>84240</v>
       </c>
@@ -9605,14 +9783,14 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="P47" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>82723.679999999993</v>
       </c>
       <c r="Q47" s="87">
         <v>79.629629629629633</v>
       </c>
       <c r="R47" s="75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>67080</v>
       </c>
     </row>
@@ -9620,19 +9798,40 @@
       <c r="A48" s="73">
         <v>43758</v>
       </c>
-      <c r="B48" s="93"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="73">
-        <v>43758</v>
-      </c>
-      <c r="H48" s="74"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="75"/>
+      <c r="B48" s="93">
+        <v>72000</v>
+      </c>
+      <c r="C48" s="54">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D48" s="75">
+        <f t="shared" si="32"/>
+        <v>70344</v>
+      </c>
+      <c r="E48" s="87">
+        <v>93.2</v>
+      </c>
+      <c r="F48" s="75">
+        <f t="shared" si="33"/>
+        <v>67104</v>
+      </c>
+      <c r="H48" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J48" s="60">
+        <f t="shared" si="24"/>
+        <v>105732</v>
+      </c>
+      <c r="K48" s="87">
+        <v>94.674999999999997</v>
+      </c>
+      <c r="L48" s="60">
+        <f t="shared" si="25"/>
+        <v>102249</v>
+      </c>
       <c r="M48" s="73">
         <v>43758</v>
       </c>
@@ -9643,28 +9842,55 @@
         <v>0.95099999999999996</v>
       </c>
       <c r="P48" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>80112.239999999991</v>
       </c>
       <c r="Q48" s="87">
         <v>88.888888888888886</v>
       </c>
       <c r="R48" s="75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>74880</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="93"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="75"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="75"/>
+      <c r="B49" s="93">
+        <v>72000</v>
+      </c>
+      <c r="C49" s="54">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D49" s="75">
+        <f t="shared" si="32"/>
+        <v>71992.800000000003</v>
+      </c>
+      <c r="E49" s="87">
+        <v>99.024999999999991</v>
+      </c>
+      <c r="F49" s="75">
+        <f t="shared" si="33"/>
+        <v>71297.999999999985</v>
+      </c>
+      <c r="G49" s="73">
+        <v>43760</v>
+      </c>
+      <c r="H49" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="J49" s="60">
+        <f t="shared" si="24"/>
+        <v>105192</v>
+      </c>
+      <c r="K49" s="87">
+        <v>94.674999999999997</v>
+      </c>
+      <c r="L49" s="60">
+        <f t="shared" si="25"/>
+        <v>102249</v>
+      </c>
       <c r="N49" s="93">
         <v>84240</v>
       </c>
@@ -9672,14 +9898,14 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="P49" s="75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>84231.576000000001</v>
       </c>
       <c r="Q49" s="87">
         <v>98.148148148148152</v>
       </c>
       <c r="R49" s="75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>82680</v>
       </c>
     </row>
@@ -9687,23 +9913,44 @@
       <c r="A50" s="73">
         <v>43759</v>
       </c>
-      <c r="B50" s="93"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="73">
-        <v>43759</v>
-      </c>
-      <c r="H50" s="74"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="75"/>
-      <c r="N50" s="157" t="s">
+      <c r="B50" s="93">
+        <v>72000</v>
+      </c>
+      <c r="C50" s="54">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D50" s="75">
+        <f t="shared" si="32"/>
+        <v>70920</v>
+      </c>
+      <c r="E50" s="87">
+        <v>97.083333333333329</v>
+      </c>
+      <c r="F50" s="75">
+        <f t="shared" si="33"/>
+        <v>69900</v>
+      </c>
+      <c r="H50" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="J50" s="60">
+        <f t="shared" si="24"/>
+        <v>103464</v>
+      </c>
+      <c r="K50" s="87">
+        <v>90.166666666666657</v>
+      </c>
+      <c r="L50" s="60">
+        <f t="shared" si="25"/>
+        <v>97379.999999999985</v>
+      </c>
+      <c r="N50" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="O50" s="157"/>
+      <c r="O50" s="159"/>
       <c r="P50" s="128">
         <f>SUM(P42:P49)</f>
         <v>650324.37600000005</v>
@@ -9718,16 +9965,43 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B51" s="93"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="75"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="75"/>
+      <c r="B51" s="93">
+        <v>72000</v>
+      </c>
+      <c r="C51" s="54">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D51" s="75">
+        <f t="shared" si="32"/>
+        <v>70704</v>
+      </c>
+      <c r="E51" s="87">
+        <v>95.141666666666666</v>
+      </c>
+      <c r="F51" s="75">
+        <f t="shared" si="33"/>
+        <v>68502</v>
+      </c>
+      <c r="G51" s="73">
+        <v>43761</v>
+      </c>
+      <c r="H51" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="J51" s="60">
+        <f t="shared" si="24"/>
+        <v>104868</v>
+      </c>
+      <c r="K51" s="87">
+        <v>94.674999999999997</v>
+      </c>
+      <c r="L51" s="60">
+        <f t="shared" si="25"/>
+        <v>102249</v>
+      </c>
       <c r="N51" s="93"/>
       <c r="O51" s="10"/>
       <c r="P51" s="75"/>
@@ -9738,354 +10012,884 @@
       <c r="A52" s="73">
         <v>43760</v>
       </c>
-      <c r="B52" s="93"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="73">
-        <v>43760</v>
-      </c>
-      <c r="H52" s="74"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="75"/>
-      <c r="N52" s="149" t="s">
+      <c r="B52" s="93">
+        <v>72000</v>
+      </c>
+      <c r="C52" s="54">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D52" s="75">
+        <f t="shared" si="32"/>
+        <v>70992</v>
+      </c>
+      <c r="E52" s="87">
+        <v>95.141666666666666</v>
+      </c>
+      <c r="F52" s="75">
+        <f t="shared" si="33"/>
+        <v>68502</v>
+      </c>
+      <c r="H52" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="J52" s="60">
+        <f t="shared" si="24"/>
+        <v>103248</v>
+      </c>
+      <c r="K52" s="87">
+        <v>90.166666666666657</v>
+      </c>
+      <c r="L52" s="60">
+        <f t="shared" si="25"/>
+        <v>97379.999999999985</v>
+      </c>
+      <c r="N52" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="O52" s="150"/>
-      <c r="P52" s="150"/>
-      <c r="Q52" s="150"/>
-      <c r="R52" s="150"/>
+      <c r="O52" s="152"/>
+      <c r="P52" s="152"/>
+      <c r="Q52" s="152"/>
+      <c r="R52" s="152"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B53" s="93"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="75"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="75"/>
+      <c r="B53" s="93">
+        <v>73440</v>
+      </c>
+      <c r="C53" s="54">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D53" s="75">
+        <f t="shared" si="32"/>
+        <v>72338.399999999994</v>
+      </c>
+      <c r="E53" s="87">
+        <v>97.843137254901961</v>
+      </c>
+      <c r="F53" s="75">
+        <f t="shared" si="33"/>
+        <v>71856</v>
+      </c>
+      <c r="G53" s="73">
+        <v>43762</v>
+      </c>
+      <c r="H53" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="J53" s="60">
+        <f t="shared" si="24"/>
+        <v>106704</v>
+      </c>
+      <c r="K53" s="87">
+        <v>94.674999999999997</v>
+      </c>
+      <c r="L53" s="60">
+        <f t="shared" si="25"/>
+        <v>102249</v>
+      </c>
       <c r="M53" s="73">
         <v>43759</v>
       </c>
       <c r="N53" s="93">
-        <v>84240</v>
+        <v>79920</v>
       </c>
       <c r="O53" s="10">
-        <v>0.86499999999999999</v>
+        <v>0.89549999999999996</v>
       </c>
       <c r="P53" s="75">
-        <f t="shared" ref="P53" si="30">N53*O53</f>
-        <v>72867.600000000006</v>
+        <f t="shared" ref="P53" si="34">N53*O53</f>
+        <v>71568.36</v>
       </c>
       <c r="Q53" s="87">
-        <v>9.0455840455840466</v>
+        <v>67.987987987987992</v>
       </c>
       <c r="R53" s="75">
-        <f t="shared" ref="R53" si="31">N53*Q53/100</f>
-        <v>7620.0000000000009</v>
+        <f t="shared" ref="R53" si="35">N53*Q53/100</f>
+        <v>54336</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="73">
         <v>43761</v>
       </c>
-      <c r="B54" s="93"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="73">
-        <v>43761</v>
-      </c>
-      <c r="H54" s="74"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="87"/>
-      <c r="L54" s="75"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="75"/>
-      <c r="Q54" s="87"/>
-      <c r="R54" s="75"/>
+      <c r="B54" s="93">
+        <v>74880</v>
+      </c>
+      <c r="C54" s="54">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D54" s="75">
+        <f t="shared" si="32"/>
+        <v>71660.160000000003</v>
+      </c>
+      <c r="E54" s="87">
+        <v>95.21634615384616</v>
+      </c>
+      <c r="F54" s="75">
+        <f t="shared" si="33"/>
+        <v>71298.000000000015</v>
+      </c>
+      <c r="H54" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I54" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="J54" s="60">
+        <f t="shared" si="24"/>
+        <v>105840</v>
+      </c>
+      <c r="K54" s="87">
+        <v>94.674999999999997</v>
+      </c>
+      <c r="L54" s="60">
+        <f t="shared" si="25"/>
+        <v>102249</v>
+      </c>
+      <c r="N54" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O54" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="P54" s="75">
+        <f t="shared" ref="P54:P66" si="36">N54*O54</f>
+        <v>74692.800000000003</v>
+      </c>
+      <c r="Q54" s="87">
+        <v>95.666666666666671</v>
+      </c>
+      <c r="R54" s="75">
+        <f t="shared" ref="R54:R66" si="37">N54*Q54/100</f>
+        <v>72324</v>
+      </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B55" s="93"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="75"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="75"/>
+      <c r="B55" s="93">
+        <v>74880</v>
+      </c>
+      <c r="C55" s="54">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="D55" s="75">
+        <f t="shared" si="32"/>
+        <v>72259.199999999997</v>
+      </c>
+      <c r="E55" s="87">
+        <v>95.21634615384616</v>
+      </c>
+      <c r="F55" s="75">
+        <f t="shared" si="33"/>
+        <v>71298.000000000015</v>
+      </c>
+      <c r="G55" s="73">
+        <v>43763</v>
+      </c>
+      <c r="H55" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J55" s="60">
+        <f t="shared" si="24"/>
+        <v>106380</v>
+      </c>
+      <c r="K55" s="87">
+        <v>90.166666666666657</v>
+      </c>
+      <c r="L55" s="60">
+        <f t="shared" si="25"/>
+        <v>97379.999999999985</v>
+      </c>
       <c r="M55" s="73">
         <v>43760</v>
       </c>
-      <c r="N55" s="93"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="75"/>
-      <c r="Q55" s="87"/>
-      <c r="R55" s="75"/>
+      <c r="N55" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O55" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P55" s="75">
+        <f t="shared" si="36"/>
+        <v>73407.599999999991</v>
+      </c>
+      <c r="Q55" s="87">
+        <v>87.1111111111111</v>
+      </c>
+      <c r="R55" s="75">
+        <f t="shared" si="37"/>
+        <v>65855.999999999985</v>
+      </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="73">
         <v>43762</v>
       </c>
-      <c r="B56" s="93"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="73">
-        <v>43762</v>
-      </c>
-      <c r="H56" s="74"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="75"/>
-      <c r="N56" s="93"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="75"/>
-      <c r="Q56" s="87"/>
-      <c r="R56" s="75"/>
+      <c r="B56" s="93">
+        <v>74880</v>
+      </c>
+      <c r="C56" s="54">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D56" s="75">
+        <f t="shared" si="32"/>
+        <v>73981.440000000002</v>
+      </c>
+      <c r="E56" s="87">
+        <v>95.21634615384616</v>
+      </c>
+      <c r="F56" s="75">
+        <f t="shared" si="33"/>
+        <v>71298.000000000015</v>
+      </c>
+      <c r="H56" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="J56" s="60">
+        <f t="shared" si="24"/>
+        <v>105840</v>
+      </c>
+      <c r="K56" s="87">
+        <v>94.674999999999997</v>
+      </c>
+      <c r="L56" s="60">
+        <f t="shared" si="25"/>
+        <v>102249</v>
+      </c>
+      <c r="N56" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O56" s="10">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="P56" s="75">
+        <f t="shared" si="36"/>
+        <v>73483.199999999997</v>
+      </c>
+      <c r="Q56" s="87">
+        <v>91.388888888888886</v>
+      </c>
+      <c r="R56" s="75">
+        <f t="shared" si="37"/>
+        <v>69090</v>
+      </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B57" s="93"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="75"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="75"/>
-      <c r="N57" s="157"/>
-      <c r="O57" s="157"/>
-      <c r="P57" s="117"/>
-      <c r="Q57" s="101"/>
-      <c r="R57" s="102"/>
+      <c r="B57" s="93">
+        <v>74880</v>
+      </c>
+      <c r="C57" s="54">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D57" s="75">
+        <f t="shared" si="32"/>
+        <v>73157.759999999995</v>
+      </c>
+      <c r="E57" s="87">
+        <v>95.21634615384616</v>
+      </c>
+      <c r="F57" s="75">
+        <f t="shared" si="33"/>
+        <v>71298.000000000015</v>
+      </c>
+      <c r="G57" s="73">
+        <v>43764</v>
+      </c>
+      <c r="H57" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J57" s="60">
+        <f t="shared" si="24"/>
+        <v>105300</v>
+      </c>
+      <c r="K57" s="87">
+        <v>94.674999999999997</v>
+      </c>
+      <c r="L57" s="60">
+        <f t="shared" si="25"/>
+        <v>102249</v>
+      </c>
+      <c r="M57" s="73">
+        <v>43761</v>
+      </c>
+      <c r="N57" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O57" s="10">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="P57" s="75">
+        <f t="shared" si="36"/>
+        <v>73558.8</v>
+      </c>
+      <c r="Q57" s="87">
+        <v>91.388888888888886</v>
+      </c>
+      <c r="R57" s="75">
+        <f t="shared" si="37"/>
+        <v>69090</v>
+      </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="73">
         <v>43763</v>
       </c>
-      <c r="B58" s="93"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="73">
-        <v>43763</v>
-      </c>
-      <c r="H58" s="74"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="75"/>
-      <c r="N58" s="74"/>
-      <c r="O58" s="106"/>
-      <c r="P58" s="75"/>
-      <c r="Q58" s="107"/>
-      <c r="R58" s="107"/>
+      <c r="B58" s="93">
+        <v>74880</v>
+      </c>
+      <c r="C58" s="54">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D58" s="75">
+        <f t="shared" si="32"/>
+        <v>74280.960000000006</v>
+      </c>
+      <c r="E58" s="87">
+        <v>95.21634615384616</v>
+      </c>
+      <c r="F58" s="75">
+        <f t="shared" si="33"/>
+        <v>71298.000000000015</v>
+      </c>
+      <c r="H58" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I58" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J58" s="60">
+        <f t="shared" si="24"/>
+        <v>106488</v>
+      </c>
+      <c r="K58" s="87">
+        <v>94.674999999999997</v>
+      </c>
+      <c r="L58" s="60">
+        <f t="shared" si="25"/>
+        <v>102249</v>
+      </c>
+      <c r="N58" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O58" s="10">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P58" s="75">
+        <f t="shared" si="36"/>
+        <v>73256.399999999994</v>
+      </c>
+      <c r="Q58" s="87">
+        <v>95.277777777777771</v>
+      </c>
+      <c r="R58" s="75">
+        <f t="shared" si="37"/>
+        <v>72029.999999999985</v>
+      </c>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="154"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="89"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="75"/>
-      <c r="N59" s="149"/>
-      <c r="O59" s="150"/>
-      <c r="P59" s="150"/>
-      <c r="Q59" s="150"/>
-      <c r="R59" s="150"/>
+      <c r="B59" s="93">
+        <v>74880</v>
+      </c>
+      <c r="C59" s="54">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D59" s="75">
+        <f t="shared" si="32"/>
+        <v>73232.639999999999</v>
+      </c>
+      <c r="E59" s="87">
+        <v>97.083333333333329</v>
+      </c>
+      <c r="F59" s="75">
+        <f t="shared" si="33"/>
+        <v>72696</v>
+      </c>
+      <c r="G59" s="73">
+        <v>43765</v>
+      </c>
+      <c r="H59" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="J59" s="60">
+        <f t="shared" si="24"/>
+        <v>105840</v>
+      </c>
+      <c r="K59" s="87">
+        <v>94.674999999999997</v>
+      </c>
+      <c r="L59" s="60">
+        <f t="shared" si="25"/>
+        <v>102249</v>
+      </c>
+      <c r="M59" s="73">
+        <v>43762</v>
+      </c>
+      <c r="N59" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O59" s="10">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="P59" s="75">
+        <f t="shared" si="36"/>
+        <v>73105.2</v>
+      </c>
+      <c r="Q59" s="87">
+        <v>79.722222222222229</v>
+      </c>
+      <c r="R59" s="75">
+        <f t="shared" si="37"/>
+        <v>60270.000000000007</v>
+      </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="73">
         <v>43764</v>
       </c>
-      <c r="B60" s="91"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="73">
-        <v>43764</v>
-      </c>
-      <c r="H60" s="74"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="75"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="75"/>
-      <c r="M60" s="73">
-        <v>43761</v>
-      </c>
-      <c r="N60" s="93"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="75"/>
-      <c r="Q60" s="87"/>
-      <c r="R60" s="75"/>
+      <c r="B60" s="93">
+        <v>74880</v>
+      </c>
+      <c r="C60" s="54">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="D60" s="75">
+        <f t="shared" si="32"/>
+        <v>73906.559999999998</v>
+      </c>
+      <c r="E60" s="87">
+        <v>97.083333333333329</v>
+      </c>
+      <c r="F60" s="75">
+        <f t="shared" si="33"/>
+        <v>72696</v>
+      </c>
+      <c r="H60" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I60" s="10">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="J60" s="60">
+        <f t="shared" si="24"/>
+        <v>106596</v>
+      </c>
+      <c r="K60" s="87">
+        <v>94.674999999999997</v>
+      </c>
+      <c r="L60" s="60">
+        <f t="shared" si="25"/>
+        <v>102249</v>
+      </c>
+      <c r="N60" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O60" s="10">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="P60" s="75">
+        <f t="shared" si="36"/>
+        <v>73180.800000000003</v>
+      </c>
+      <c r="Q60" s="87">
+        <v>91.388888888888886</v>
+      </c>
+      <c r="R60" s="75">
+        <f t="shared" si="37"/>
+        <v>69090</v>
+      </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="149"/>
-      <c r="C61" s="150"/>
-      <c r="D61" s="150"/>
-      <c r="E61" s="150"/>
-      <c r="F61" s="150"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="87"/>
-      <c r="L61" s="75"/>
-      <c r="N61" s="93"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="75"/>
-      <c r="Q61" s="87"/>
-      <c r="R61" s="75"/>
+      <c r="B61" s="93">
+        <v>74880</v>
+      </c>
+      <c r="C61" s="54">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D61" s="75">
+        <f t="shared" si="32"/>
+        <v>74355.839999999997</v>
+      </c>
+      <c r="E61" s="87">
+        <v>95.21634615384616</v>
+      </c>
+      <c r="F61" s="75">
+        <f t="shared" si="33"/>
+        <v>71298.000000000015</v>
+      </c>
+      <c r="G61" s="73">
+        <v>43766</v>
+      </c>
+      <c r="H61" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I61" s="10">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="J61" s="60">
+        <f t="shared" si="24"/>
+        <v>104976</v>
+      </c>
+      <c r="K61" s="87">
+        <v>94.674999999999997</v>
+      </c>
+      <c r="L61" s="60">
+        <f t="shared" si="25"/>
+        <v>102249</v>
+      </c>
+      <c r="M61" s="73">
+        <v>43763</v>
+      </c>
+      <c r="N61" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O61" s="10">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="P61" s="75">
+        <f t="shared" si="36"/>
+        <v>74617.2</v>
+      </c>
+      <c r="Q61" s="87">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="R61" s="75">
+        <f t="shared" si="37"/>
+        <v>70560</v>
+      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="73">
         <v>43765</v>
       </c>
-      <c r="B62" s="93"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="73">
-        <v>43765</v>
-      </c>
-      <c r="H62" s="74"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="75"/>
-      <c r="K62" s="87"/>
-      <c r="L62" s="75"/>
-      <c r="M62" s="73">
-        <v>43762</v>
-      </c>
-      <c r="N62" s="93"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="75"/>
-      <c r="Q62" s="87"/>
-      <c r="R62" s="75"/>
+      <c r="B62" s="93">
+        <v>74880</v>
+      </c>
+      <c r="C62" s="54">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D62" s="75">
+        <f t="shared" si="32"/>
+        <v>73082.880000000005</v>
+      </c>
+      <c r="E62" s="87">
+        <v>95.21634615384616</v>
+      </c>
+      <c r="F62" s="75">
+        <f t="shared" si="33"/>
+        <v>71298.000000000015</v>
+      </c>
+      <c r="H62" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I62" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="J62" s="60">
+        <f t="shared" si="24"/>
+        <v>107892</v>
+      </c>
+      <c r="K62" s="87">
+        <v>99.183333333333337</v>
+      </c>
+      <c r="L62" s="60">
+        <f t="shared" si="25"/>
+        <v>107118</v>
+      </c>
+      <c r="N62" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O62" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="P62" s="75">
+        <f t="shared" si="36"/>
+        <v>73861.2</v>
+      </c>
+      <c r="Q62" s="87">
+        <v>91.388888888888886</v>
+      </c>
+      <c r="R62" s="75">
+        <f t="shared" si="37"/>
+        <v>69090</v>
+      </c>
     </row>
     <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="93"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="75"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="75"/>
-      <c r="N63" s="93"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="75"/>
-      <c r="Q63" s="87"/>
-      <c r="R63" s="75"/>
+      <c r="B63" s="93">
+        <v>74880</v>
+      </c>
+      <c r="C63" s="54">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D63" s="75">
+        <f t="shared" si="32"/>
+        <v>74206.080000000002</v>
+      </c>
+      <c r="E63" s="87">
+        <v>93.349358974358978</v>
+      </c>
+      <c r="F63" s="75">
+        <f t="shared" si="33"/>
+        <v>69900</v>
+      </c>
+      <c r="H63" s="160" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" s="161"/>
+      <c r="J63" s="131">
+        <f>SUM(J37:J62)</f>
+        <v>2734020</v>
+      </c>
+      <c r="K63" s="122">
+        <f>L63/J63</f>
+        <v>0.92428402133122656</v>
+      </c>
+      <c r="L63" s="89">
+        <f>SUM(L37:L62)</f>
+        <v>2527011</v>
+      </c>
+      <c r="M63" s="73">
+        <v>43764</v>
+      </c>
+      <c r="N63" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O63" s="10">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="P63" s="75">
+        <f t="shared" si="36"/>
+        <v>74995.199999999997</v>
+      </c>
+      <c r="Q63" s="87">
+        <v>91.388888888888886</v>
+      </c>
+      <c r="R63" s="75">
+        <f t="shared" si="37"/>
+        <v>69090</v>
+      </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="93"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="73">
+      <c r="A64" s="73">
         <v>43766</v>
+      </c>
+      <c r="B64" s="93">
+        <v>74880</v>
+      </c>
+      <c r="C64" s="54">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D64" s="75">
+        <f t="shared" si="32"/>
+        <v>73232.639999999999</v>
+      </c>
+      <c r="E64" s="87">
+        <v>95.21634615384616</v>
+      </c>
+      <c r="F64" s="75">
+        <f t="shared" si="33"/>
+        <v>71298.000000000015</v>
       </c>
       <c r="H64" s="74"/>
       <c r="I64" s="10"/>
       <c r="J64" s="75"/>
       <c r="K64" s="87"/>
       <c r="L64" s="75"/>
-      <c r="M64" s="73">
-        <v>43763</v>
-      </c>
-      <c r="N64" s="93"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="75"/>
-      <c r="Q64" s="87"/>
-      <c r="R64" s="75"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B65" s="93"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="75"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="75"/>
-      <c r="K65" s="87"/>
-      <c r="L65" s="75"/>
-      <c r="N65" s="93"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="75"/>
-      <c r="Q65" s="87"/>
-      <c r="R65" s="75"/>
+      <c r="N64" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O64" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="P64" s="75">
+        <f t="shared" si="36"/>
+        <v>74163.600000000006</v>
+      </c>
+      <c r="Q64" s="87">
+        <v>89.444444444444443</v>
+      </c>
+      <c r="R64" s="75">
+        <f t="shared" si="37"/>
+        <v>67620</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="93">
+        <v>74880</v>
+      </c>
+      <c r="C65" s="54">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D65" s="75">
+        <f t="shared" si="32"/>
+        <v>73607.039999999994</v>
+      </c>
+      <c r="E65" s="87">
+        <v>95.21634615384616</v>
+      </c>
+      <c r="F65" s="75">
+        <f t="shared" si="33"/>
+        <v>71298.000000000015</v>
+      </c>
+      <c r="H65" s="163" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="164"/>
+      <c r="J65" s="164"/>
+      <c r="K65" s="164"/>
+      <c r="L65" s="164"/>
+      <c r="M65" s="73">
+        <v>43765</v>
+      </c>
+      <c r="N65" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O65" s="10">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="P65" s="75">
+        <f t="shared" si="36"/>
+        <v>74617.2</v>
+      </c>
+      <c r="Q65" s="87">
+        <v>95.277777777777771</v>
+      </c>
+      <c r="R65" s="75">
+        <f t="shared" si="37"/>
+        <v>72029.999999999985</v>
+      </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="93"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="75"/>
+      <c r="A66" s="73">
+        <v>43767</v>
+      </c>
+      <c r="B66" s="93">
+        <v>74880</v>
+      </c>
+      <c r="C66" s="54">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D66" s="75">
+        <f t="shared" si="32"/>
+        <v>72334.080000000002</v>
+      </c>
+      <c r="E66" s="87">
+        <v>93.349358974358978</v>
+      </c>
+      <c r="F66" s="75">
+        <f t="shared" si="33"/>
+        <v>69900</v>
+      </c>
       <c r="G66" s="73">
         <v>43767</v>
       </c>
-      <c r="H66" s="74"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="75"/>
-      <c r="K66" s="87"/>
-      <c r="L66" s="75"/>
-      <c r="M66" s="73">
-        <v>43764</v>
-      </c>
-      <c r="N66" s="93"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="75"/>
-      <c r="Q66" s="87"/>
-      <c r="R66" s="75"/>
+      <c r="H66" s="58">
+        <v>100800</v>
+      </c>
+      <c r="I66" s="129">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J66" s="60">
+        <f t="shared" ref="J66" si="38">H66*I66</f>
+        <v>98985.599999999991</v>
+      </c>
+      <c r="K66" s="130">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L66" s="60">
+        <f t="shared" ref="L66" si="39">H66*K66/100</f>
+        <v>91125</v>
+      </c>
+      <c r="N66" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O66" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P66" s="75">
+        <f t="shared" si="36"/>
+        <v>73407.599999999991</v>
+      </c>
+      <c r="Q66" s="87">
+        <v>89.444444444444443</v>
+      </c>
+      <c r="R66" s="75">
+        <f t="shared" si="37"/>
+        <v>67620</v>
+      </c>
     </row>
     <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="93"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="75"/>
+      <c r="B67" s="93">
+        <v>74880</v>
+      </c>
+      <c r="C67" s="54">
+        <v>0.999</v>
+      </c>
+      <c r="D67" s="75">
+        <f t="shared" si="32"/>
+        <v>74805.119999999995</v>
+      </c>
+      <c r="E67" s="87">
+        <v>98.950320512820511</v>
+      </c>
+      <c r="F67" s="75">
+        <f t="shared" si="33"/>
+        <v>74094</v>
+      </c>
       <c r="H67" s="74"/>
       <c r="I67" s="10"/>
       <c r="J67" s="75"/>
       <c r="K67" s="87"/>
       <c r="L67" s="75"/>
-      <c r="N67" s="93"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="75"/>
-      <c r="Q67" s="87"/>
-      <c r="R67" s="75"/>
+      <c r="N67" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="O67" s="159"/>
+      <c r="P67" s="132">
+        <f>SUM(P53:P66)</f>
+        <v>1031915.1599999998</v>
+      </c>
+      <c r="Q67" s="101">
+        <f>R67/P67</f>
+        <v>0.91877320612287561</v>
+      </c>
+      <c r="R67" s="102">
+        <f>SUM(R53:R66)</f>
+        <v>948096</v>
+      </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="93"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="75"/>
+      <c r="B68" s="160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="161"/>
+      <c r="D68" s="131">
+        <f>SUM(D44:D67)</f>
+        <v>1724961.6</v>
+      </c>
+      <c r="E68" s="122">
+        <f>F68/D68</f>
+        <v>0.9639518931899701</v>
+      </c>
+      <c r="F68" s="89">
+        <f>SUM(F44:F67)</f>
+        <v>1662780</v>
+      </c>
       <c r="G68" s="73">
         <v>43768</v>
       </c>
@@ -10094,9 +10898,6 @@
       <c r="J68" s="75"/>
       <c r="K68" s="87"/>
       <c r="L68" s="75"/>
-      <c r="M68" s="73">
-        <v>43765</v>
-      </c>
       <c r="N68" s="93"/>
       <c r="O68" s="10"/>
       <c r="P68" s="75"/>
@@ -10114,41 +10915,72 @@
       <c r="J69" s="75"/>
       <c r="K69" s="87"/>
       <c r="L69" s="75"/>
-      <c r="N69" s="93"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="75"/>
-      <c r="Q69" s="87"/>
-      <c r="R69" s="75"/>
+      <c r="N69" s="163" t="s">
+        <v>32</v>
+      </c>
+      <c r="O69" s="164"/>
+      <c r="P69" s="164"/>
+      <c r="Q69" s="164"/>
+      <c r="R69" s="164"/>
     </row>
     <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="73">
-        <v>43766</v>
-      </c>
-      <c r="B70" s="93"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="75"/>
-      <c r="H70" s="154"/>
-      <c r="I70" s="155"/>
+      <c r="B70" s="151" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="152"/>
+      <c r="D70" s="152"/>
+      <c r="E70" s="152"/>
+      <c r="F70" s="162"/>
+      <c r="G70" s="73">
+        <v>43769</v>
+      </c>
+      <c r="H70" s="156"/>
+      <c r="I70" s="157"/>
       <c r="J70" s="117"/>
       <c r="K70" s="101"/>
       <c r="L70" s="102"/>
       <c r="M70" s="73">
         <v>43766</v>
       </c>
-      <c r="N70" s="93"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="75"/>
-      <c r="Q70" s="87"/>
-      <c r="R70" s="75"/>
+      <c r="N70" s="58">
+        <v>100800</v>
+      </c>
+      <c r="O70" s="129">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="P70" s="60">
+        <f t="shared" ref="P70" si="40">N70*O70</f>
+        <v>98985.599999999991</v>
+      </c>
+      <c r="Q70" s="130">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="R70" s="60">
+        <f t="shared" ref="R70" si="41">N70*Q70/100</f>
+        <v>91125</v>
+      </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B71" s="93"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="75"/>
+      <c r="A71" s="73">
+        <v>43768</v>
+      </c>
+      <c r="B71" s="93">
+        <v>72000</v>
+      </c>
+      <c r="C71" s="54">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="D71" s="75">
+        <f t="shared" ref="D71" si="42">B71*C71</f>
+        <v>61488</v>
+      </c>
+      <c r="E71" s="87">
+        <v>54.36666666666666</v>
+      </c>
+      <c r="F71" s="75">
+        <f t="shared" ref="F71" si="43">B71*E71/100</f>
+        <v>39143.999999999993</v>
+      </c>
       <c r="H71" s="112"/>
       <c r="I71" s="114"/>
       <c r="J71" s="112"/>
@@ -10161,9 +10993,6 @@
       <c r="R71" s="75"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="73">
-        <v>43767</v>
-      </c>
       <c r="B72" s="93"/>
       <c r="C72" s="54"/>
       <c r="D72" s="75"/>
@@ -10201,9 +11030,6 @@
       <c r="R73" s="75"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="73">
-        <v>43768</v>
-      </c>
       <c r="B74" s="93"/>
       <c r="C74" s="54"/>
       <c r="D74" s="75"/>
@@ -10241,8 +11067,8 @@
       <c r="R75" s="75"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="154"/>
-      <c r="C76" s="155"/>
+      <c r="B76" s="156"/>
+      <c r="C76" s="157"/>
       <c r="D76" s="117"/>
       <c r="E76" s="101"/>
       <c r="F76" s="102"/>
@@ -10251,8 +11077,11 @@
       <c r="J76" s="79"/>
       <c r="K76" s="79"/>
       <c r="L76" s="79"/>
-      <c r="N76" s="157"/>
-      <c r="O76" s="157"/>
+      <c r="M76" s="73">
+        <v>43769</v>
+      </c>
+      <c r="N76" s="159"/>
+      <c r="O76" s="159"/>
       <c r="P76" s="117"/>
       <c r="Q76" s="101"/>
       <c r="R76" s="102"/>
@@ -10361,19 +11190,19 @@
       <c r="R82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="153"/>
-      <c r="C83" s="153"/>
-      <c r="D83" s="153"/>
+      <c r="B83" s="155"/>
+      <c r="C83" s="155"/>
+      <c r="D83" s="155"/>
       <c r="E83" s="115"/>
       <c r="F83" s="115"/>
-      <c r="H83" s="153"/>
-      <c r="I83" s="153"/>
-      <c r="J83" s="153"/>
+      <c r="H83" s="155"/>
+      <c r="I83" s="155"/>
+      <c r="J83" s="155"/>
       <c r="K83" s="115"/>
       <c r="L83" s="115"/>
-      <c r="N83" s="153"/>
-      <c r="O83" s="153"/>
-      <c r="P83" s="153"/>
+      <c r="N83" s="155"/>
+      <c r="O83" s="155"/>
+      <c r="P83" s="155"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -10469,22 +11298,22 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="153"/>
-      <c r="C90" s="153"/>
+      <c r="B90" s="155"/>
+      <c r="C90" s="155"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="153"/>
-      <c r="I90" s="153"/>
+      <c r="H90" s="155"/>
+      <c r="I90" s="155"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="153"/>
-      <c r="O90" s="153"/>
+      <c r="N90" s="155"/>
+      <c r="O90" s="155"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="33">
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="H90:I90"/>
     <mergeCell ref="N90:O90"/>
@@ -10492,18 +11321,15 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N26:R26"/>
-    <mergeCell ref="B61:F61"/>
     <mergeCell ref="H70:I70"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="N76:O76"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="H83:J83"/>
     <mergeCell ref="N83:P83"/>
-    <mergeCell ref="B46:F46"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="N59:R59"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N69:R69"/>
     <mergeCell ref="N52:R52"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
@@ -10517,11 +11343,13 @@
     <mergeCell ref="H36:L36"/>
     <mergeCell ref="N39:O39"/>
     <mergeCell ref="N41:R41"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H65:L65"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Бланк!$A$1:$N$82</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Октябрь!$A$1:$R$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Октябрь!$A$1:$R$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$R$76</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="33">
   <si>
     <t>% работы</t>
   </si>
@@ -253,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -579,12 +579,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -952,22 +980,25 @@
     <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,21 +1008,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,16 +1016,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,27 +1070,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1046,6 +1077,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1378,21 +1433,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
       <c r="H1" s="51"/>
-      <c r="I1" s="147" t="s">
+      <c r="I1" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
     </row>
     <row r="2" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -1434,21 +1489,21 @@
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="137" t="s">
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
       <c r="M3" s="136"/>
       <c r="N3" s="39"/>
     </row>
@@ -1695,10 +1750,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="138"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="136"/>
       <c r="E11" s="24">
         <f>SUM(E4:E10)</f>
@@ -1720,12 +1775,12 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="139"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="141"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="142"/>
       <c r="H12" s="20"/>
       <c r="I12" s="14"/>
       <c r="J12" s="23"/>
@@ -1738,14 +1793,14 @@
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="138"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="142"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="146"/>
       <c r="H13" s="20"/>
       <c r="I13" s="14"/>
       <c r="J13" s="23"/>
@@ -1757,12 +1812,12 @@
       <c r="A14" s="3">
         <v>43439</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="146"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="139"/>
       <c r="H14" s="20"/>
       <c r="I14" s="14"/>
       <c r="J14" s="23"/>
@@ -1797,8 +1852,8 @@
       <c r="E16" s="11"/>
       <c r="F16" s="38"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="138"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="135"/>
       <c r="J16" s="136"/>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
@@ -1811,9 +1866,9 @@
       <c r="E17" s="11"/>
       <c r="F17" s="38"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="141"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="142"/>
       <c r="K17" s="11"/>
       <c r="L17" s="33"/>
       <c r="M17" s="11"/>
@@ -1828,11 +1883,11 @@
       <c r="E18" s="11"/>
       <c r="F18" s="38"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
       <c r="M18" s="136"/>
       <c r="N18" s="39"/>
     </row>
@@ -1922,8 +1977,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="137"/>
-      <c r="C24" s="138"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="135"/>
       <c r="D24" s="136"/>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
@@ -1954,11 +2009,11 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
       <c r="G26" s="136"/>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
@@ -2105,8 +2160,8 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="137"/>
-      <c r="C35" s="138"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="135"/>
       <c r="D35" s="136"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
@@ -2137,11 +2192,11 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="137"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="138"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
       <c r="G37" s="136"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
@@ -2290,8 +2345,8 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="137"/>
-      <c r="C46" s="138"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="135"/>
       <c r="D46" s="136"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
@@ -2322,11 +2377,11 @@
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="137"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135"/>
       <c r="G48" s="136"/>
       <c r="H48" s="30"/>
       <c r="I48" s="31"/>
@@ -2472,14 +2527,14 @@
       <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="137"/>
-      <c r="C57" s="138"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="135"/>
       <c r="D57" s="136"/>
       <c r="E57" s="24"/>
       <c r="F57" s="25"/>
       <c r="G57" s="24"/>
-      <c r="H57" s="137"/>
-      <c r="I57" s="138"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="135"/>
       <c r="J57" s="136"/>
       <c r="K57" s="24"/>
       <c r="L57" s="25"/>
@@ -2500,11 +2555,11 @@
       <c r="M58" s="11"/>
     </row>
     <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="137"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="138"/>
-      <c r="F59" s="138"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="135"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="135"/>
+      <c r="F59" s="135"/>
       <c r="G59" s="136"/>
       <c r="H59" s="20"/>
       <c r="I59" s="14"/>
@@ -2517,8 +2572,8 @@
       <c r="A60" s="3">
         <v>43456</v>
       </c>
-      <c r="B60" s="137"/>
-      <c r="C60" s="138"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="135"/>
       <c r="D60" s="136"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
@@ -2531,12 +2586,12 @@
       <c r="M60" s="11"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="143"/>
-      <c r="E61" s="143"/>
-      <c r="F61" s="143"/>
-      <c r="G61" s="143"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="147"/>
+      <c r="F61" s="147"/>
+      <c r="G61" s="147"/>
       <c r="H61" s="20"/>
       <c r="I61" s="14"/>
       <c r="J61" s="23"/>
@@ -2548,12 +2603,12 @@
       <c r="A62" s="3">
         <v>43457</v>
       </c>
-      <c r="B62" s="137"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="138"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="142"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="145"/>
+      <c r="G62" s="146"/>
       <c r="H62" s="20"/>
       <c r="I62" s="14"/>
       <c r="J62" s="23"/>
@@ -2616,8 +2671,8 @@
       <c r="E66" s="11"/>
       <c r="F66" s="38"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="137"/>
-      <c r="I66" s="138"/>
+      <c r="H66" s="134"/>
+      <c r="I66" s="135"/>
       <c r="J66" s="136"/>
       <c r="K66" s="24"/>
       <c r="L66" s="25"/>
@@ -2647,11 +2702,11 @@
       <c r="E68" s="11"/>
       <c r="F68" s="38"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="134"/>
-      <c r="I68" s="135"/>
-      <c r="J68" s="135"/>
-      <c r="K68" s="135"/>
-      <c r="L68" s="135"/>
+      <c r="H68" s="149"/>
+      <c r="I68" s="145"/>
+      <c r="J68" s="145"/>
+      <c r="K68" s="145"/>
+      <c r="L68" s="145"/>
       <c r="M68" s="136"/>
       <c r="N68" s="28"/>
     </row>
@@ -2764,8 +2819,8 @@
       <c r="E75" s="11"/>
       <c r="F75" s="38"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="137"/>
-      <c r="I75" s="138"/>
+      <c r="H75" s="134"/>
+      <c r="I75" s="135"/>
       <c r="J75" s="136"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
@@ -2786,23 +2841,23 @@
       <c r="M76" s="11"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="137"/>
-      <c r="C77" s="138"/>
+      <c r="B77" s="134"/>
+      <c r="C77" s="135"/>
       <c r="D77" s="136"/>
       <c r="E77" s="24"/>
       <c r="F77" s="25"/>
       <c r="G77" s="24"/>
-      <c r="H77" s="134"/>
-      <c r="I77" s="135"/>
-      <c r="J77" s="135"/>
-      <c r="K77" s="135"/>
-      <c r="L77" s="135"/>
+      <c r="H77" s="149"/>
+      <c r="I77" s="145"/>
+      <c r="J77" s="145"/>
+      <c r="K77" s="145"/>
+      <c r="L77" s="145"/>
       <c r="M77" s="136"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="139"/>
-      <c r="C78" s="140"/>
-      <c r="D78" s="141"/>
+      <c r="B78" s="140"/>
+      <c r="C78" s="141"/>
+      <c r="D78" s="142"/>
       <c r="E78" s="11"/>
       <c r="F78" s="33"/>
       <c r="G78" s="11"/>
@@ -2817,12 +2872,12 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="137"/>
-      <c r="C79" s="138"/>
-      <c r="D79" s="135"/>
-      <c r="E79" s="138"/>
-      <c r="F79" s="135"/>
-      <c r="G79" s="142"/>
+      <c r="B79" s="134"/>
+      <c r="C79" s="135"/>
+      <c r="D79" s="145"/>
+      <c r="E79" s="135"/>
+      <c r="F79" s="145"/>
+      <c r="G79" s="146"/>
       <c r="H79" s="20"/>
       <c r="I79" s="14"/>
       <c r="J79" s="23"/>
@@ -2865,27 +2920,27 @@
       <c r="M81" s="11"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="137"/>
-      <c r="C82" s="138"/>
+      <c r="B82" s="134"/>
+      <c r="C82" s="135"/>
       <c r="D82" s="136"/>
       <c r="E82" s="24"/>
       <c r="F82" s="25"/>
       <c r="G82" s="24"/>
-      <c r="H82" s="134"/>
-      <c r="I82" s="135"/>
-      <c r="J82" s="142"/>
+      <c r="H82" s="149"/>
+      <c r="I82" s="145"/>
+      <c r="J82" s="146"/>
       <c r="K82" s="26"/>
       <c r="L82" s="27"/>
       <c r="M82" s="26"/>
       <c r="N82" s="28"/>
     </row>
     <row r="83" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="133"/>
-      <c r="C83" s="133"/>
-      <c r="D83" s="133"/>
-      <c r="E83" s="133"/>
-      <c r="F83" s="133"/>
-      <c r="G83" s="133"/>
+      <c r="B83" s="148"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="148"/>
+      <c r="E83" s="148"/>
+      <c r="F83" s="148"/>
+      <c r="G83" s="148"/>
       <c r="H83" s="49"/>
       <c r="I83" s="50"/>
       <c r="J83" s="44"/>
@@ -2900,9 +2955,9 @@
       <c r="E84" s="16"/>
       <c r="F84" s="45"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="133"/>
-      <c r="I84" s="133"/>
-      <c r="J84" s="133"/>
+      <c r="H84" s="148"/>
+      <c r="I84" s="148"/>
+      <c r="J84" s="148"/>
       <c r="K84" s="16"/>
       <c r="L84" s="36"/>
       <c r="M84" s="16"/>
@@ -2957,9 +3012,9 @@
       <c r="E88" s="16"/>
       <c r="F88" s="45"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="133"/>
-      <c r="I88" s="133"/>
-      <c r="J88" s="133"/>
+      <c r="H88" s="148"/>
+      <c r="I88" s="148"/>
+      <c r="J88" s="148"/>
       <c r="K88" s="16"/>
       <c r="L88" s="36"/>
       <c r="M88" s="16"/>
@@ -2973,39 +3028,15 @@
       <c r="G89" s="16"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="133"/>
-      <c r="C90" s="133"/>
-      <c r="D90" s="133"/>
+      <c r="B90" s="148"/>
+      <c r="C90" s="148"/>
+      <c r="D90" s="148"/>
       <c r="E90" s="16"/>
       <c r="F90" s="36"/>
       <c r="G90" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B59:G59"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="H68:M68"/>
     <mergeCell ref="H75:J75"/>
@@ -3018,6 +3049,30 @@
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="H84:J84"/>
     <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3057,27 +3112,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="H1" s="153" t="s">
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="H1" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="N1" s="153" t="s">
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="N1" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -3128,29 +3183,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
       <c r="G3" s="97"/>
-      <c r="H3" s="149" t="s">
+      <c r="H3" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
       <c r="M3" s="97"/>
-      <c r="N3" s="151" t="s">
+      <c r="N3" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -3732,10 +3787,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="157"/>
+      <c r="C14" s="151"/>
       <c r="D14" s="77">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
@@ -3832,13 +3887,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="96"/>
-      <c r="B16" s="149" t="s">
+      <c r="B16" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="150"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
       <c r="G16" s="73">
         <v>43715</v>
       </c>
@@ -4089,10 +4144,10 @@
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="156" t="s">
+      <c r="N20" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="157"/>
+      <c r="O20" s="151"/>
       <c r="P20" s="77">
         <f>SUM(P4:P19)</f>
         <v>1447623.36</v>
@@ -4187,13 +4242,13 @@
         <v>94770</v>
       </c>
       <c r="M22" s="96"/>
-      <c r="N22" s="151" t="s">
+      <c r="N22" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="156"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="156"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="73">
@@ -4272,10 +4327,10 @@
         <f t="shared" si="18"/>
         <v>106496</v>
       </c>
-      <c r="H24" s="156" t="s">
+      <c r="H24" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="157"/>
+      <c r="I24" s="151"/>
       <c r="J24" s="77">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
@@ -4372,13 +4427,13 @@
         <v>109824</v>
       </c>
       <c r="G26" s="96"/>
-      <c r="H26" s="149" t="s">
+      <c r="H26" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="153"/>
       <c r="N26" s="93">
         <v>84240</v>
       </c>
@@ -4513,10 +4568,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="156" t="s">
+      <c r="B29" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="157"/>
+      <c r="C29" s="151"/>
       <c r="D29" s="77">
         <f>SUM(D17:D28)</f>
         <v>1312507.44</v>
@@ -4613,13 +4668,13 @@
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="96"/>
-      <c r="B31" s="149" t="s">
+      <c r="B31" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
       <c r="G31" s="73">
         <v>43721</v>
       </c>
@@ -4985,10 +5040,10 @@
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N37" s="158" t="s">
+      <c r="N37" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="158"/>
+      <c r="O37" s="157"/>
       <c r="P37" s="77">
         <f>SUM(P23:P36)</f>
         <v>1133003.52</v>
@@ -5062,10 +5117,10 @@
         <f t="shared" si="30"/>
         <v>65705.999999999985</v>
       </c>
-      <c r="H39" s="160" t="s">
+      <c r="H39" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="161"/>
+      <c r="I39" s="159"/>
       <c r="J39" s="77">
         <f>SUM(J27:J38)</f>
         <v>1647216</v>
@@ -5079,13 +5134,13 @@
         <v>1512490</v>
       </c>
       <c r="M39" s="96"/>
-      <c r="N39" s="151" t="s">
+      <c r="N39" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="O39" s="152"/>
-      <c r="P39" s="152"/>
-      <c r="Q39" s="152"/>
-      <c r="R39" s="152"/>
+      <c r="O39" s="156"/>
+      <c r="P39" s="156"/>
+      <c r="Q39" s="156"/>
+      <c r="R39" s="156"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="73">
@@ -5153,13 +5208,13 @@
         <v>67104</v>
       </c>
       <c r="G41" s="96"/>
-      <c r="H41" s="149" t="s">
+      <c r="H41" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
+      <c r="I41" s="153"/>
+      <c r="J41" s="153"/>
+      <c r="K41" s="153"/>
+      <c r="L41" s="153"/>
       <c r="N41" s="93">
         <v>64080</v>
       </c>
@@ -5294,10 +5349,10 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="156" t="s">
+      <c r="B44" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="157"/>
+      <c r="C44" s="151"/>
       <c r="D44" s="100">
         <f>SUM(D32:D43)</f>
         <v>825840</v>
@@ -5394,13 +5449,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="96"/>
-      <c r="B46" s="151" t="s">
+      <c r="B46" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="152"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="152"/>
-      <c r="F46" s="152"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="156"/>
+      <c r="F46" s="156"/>
       <c r="G46" s="73">
         <v>43727</v>
       </c>
@@ -5536,10 +5591,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N48" s="158" t="s">
+      <c r="N48" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="O48" s="158"/>
+      <c r="O48" s="157"/>
       <c r="P48" s="98">
         <f>SUM(P40:P47)</f>
         <v>496705.68</v>
@@ -5634,13 +5689,13 @@
         <v>91125</v>
       </c>
       <c r="M50" s="96"/>
-      <c r="N50" s="151" t="s">
+      <c r="N50" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="O50" s="152"/>
-      <c r="P50" s="152"/>
-      <c r="Q50" s="152"/>
-      <c r="R50" s="152"/>
+      <c r="O50" s="156"/>
+      <c r="P50" s="156"/>
+      <c r="Q50" s="156"/>
+      <c r="R50" s="156"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="73">
@@ -6025,10 +6080,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N57" s="159" t="s">
+      <c r="N57" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="O57" s="159"/>
+      <c r="O57" s="160"/>
       <c r="P57" s="100">
         <f>SUM(P49:P56)</f>
         <v>448449.84</v>
@@ -6087,10 +6142,10 @@
       <c r="R58" s="107"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="156" t="s">
+      <c r="B59" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="157"/>
+      <c r="C59" s="151"/>
       <c r="D59" s="98">
         <f>SUM(D47:D58)</f>
         <v>1010437.2</v>
@@ -6121,13 +6176,13 @@
         <v>91125</v>
       </c>
       <c r="M59" s="96"/>
-      <c r="N59" s="151" t="s">
+      <c r="N59" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="O59" s="152"/>
-      <c r="P59" s="152"/>
-      <c r="Q59" s="152"/>
-      <c r="R59" s="152"/>
+      <c r="O59" s="156"/>
+      <c r="P59" s="156"/>
+      <c r="Q59" s="156"/>
+      <c r="R59" s="156"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60" s="91"/>
@@ -6178,13 +6233,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="96"/>
-      <c r="B61" s="151" t="s">
+      <c r="B61" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="152"/>
-      <c r="D61" s="152"/>
-      <c r="E61" s="152"/>
-      <c r="F61" s="152"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
       <c r="H61" s="74">
         <v>100800</v>
       </c>
@@ -6701,10 +6756,10 @@
         <f t="shared" si="54"/>
         <v>86184</v>
       </c>
-      <c r="H70" s="156" t="s">
+      <c r="H70" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="157"/>
+      <c r="I70" s="151"/>
       <c r="J70" s="100">
         <f>SUM(J42:J69)</f>
         <v>2733393.6</v>
@@ -6956,10 +7011,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="156" t="s">
+      <c r="B76" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="157"/>
+      <c r="C76" s="151"/>
       <c r="D76" s="100">
         <f>SUM(D62:D75)</f>
         <v>1243584</v>
@@ -6977,10 +7032,10 @@
       <c r="J76" s="79"/>
       <c r="K76" s="79"/>
       <c r="L76" s="79"/>
-      <c r="N76" s="159" t="s">
+      <c r="N76" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="159"/>
+      <c r="O76" s="160"/>
       <c r="P76" s="100">
         <f>SUM(P60:P75)</f>
         <v>1630498.3199999998</v>
@@ -7098,19 +7153,19 @@
       <c r="R82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="155"/>
-      <c r="C83" s="155"/>
-      <c r="D83" s="155"/>
+      <c r="B83" s="154"/>
+      <c r="C83" s="154"/>
+      <c r="D83" s="154"/>
       <c r="E83" s="80"/>
       <c r="F83" s="80"/>
-      <c r="H83" s="155"/>
-      <c r="I83" s="155"/>
-      <c r="J83" s="155"/>
+      <c r="H83" s="154"/>
+      <c r="I83" s="154"/>
+      <c r="J83" s="154"/>
       <c r="K83" s="80"/>
       <c r="L83" s="80"/>
-      <c r="N83" s="155"/>
-      <c r="O83" s="155"/>
-      <c r="P83" s="155"/>
+      <c r="N83" s="154"/>
+      <c r="O83" s="154"/>
+      <c r="P83" s="154"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -7206,22 +7261,42 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="155"/>
-      <c r="C90" s="155"/>
+      <c r="B90" s="154"/>
+      <c r="C90" s="154"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="155"/>
-      <c r="I90" s="155"/>
+      <c r="H90" s="154"/>
+      <c r="I90" s="154"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="155"/>
-      <c r="O90" s="155"/>
+      <c r="N90" s="154"/>
+      <c r="O90" s="154"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N59:R59"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B16:F16"/>
@@ -7237,26 +7312,6 @@
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="H70:I70"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N50:R50"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N59:R59"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7271,9 +7326,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7298,29 +7353,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="H1" s="153" t="s">
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="H1" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="N1" s="153" t="s">
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="N1" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-    </row>
-    <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+    </row>
+    <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
         <v>2</v>
       </c>
@@ -7369,29 +7424,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
       <c r="G3" s="97"/>
-      <c r="H3" s="163" t="s">
+      <c r="H3" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
       <c r="M3" s="97"/>
-      <c r="N3" s="151" t="s">
+      <c r="N3" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -7857,10 +7912,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="161"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="116">
         <f>SUM(D4:D11)</f>
         <v>721644.48</v>
@@ -7958,13 +8013,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="96"/>
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="162"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="163"/>
       <c r="G14" s="73">
         <v>43744</v>
       </c>
@@ -8560,10 +8615,10 @@
         <f t="shared" si="9"/>
         <v>98415</v>
       </c>
-      <c r="N24" s="159" t="s">
+      <c r="N24" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="159"/>
+      <c r="O24" s="160"/>
       <c r="P24" s="117">
         <f>SUM(P4:P23)</f>
         <v>2047806</v>
@@ -8660,13 +8715,13 @@
         <v>94770</v>
       </c>
       <c r="M26" s="96"/>
-      <c r="N26" s="151" t="s">
+      <c r="N26" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="152"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="152"/>
-      <c r="R26" s="152"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="156"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="156"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="73">
@@ -9090,10 +9145,10 @@
         <f t="shared" si="21"/>
         <v>85824</v>
       </c>
-      <c r="H34" s="160" t="s">
+      <c r="H34" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="161"/>
+      <c r="I34" s="159"/>
       <c r="J34" s="118">
         <f>SUM(J4:J33)</f>
         <v>2962108.8000000003</v>
@@ -9189,13 +9244,14 @@
         <f t="shared" si="21"/>
         <v>85824</v>
       </c>
-      <c r="H36" s="163" t="s">
+      <c r="G36" s="96"/>
+      <c r="H36" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="164"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="164"/>
-      <c r="L36" s="164"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="165"/>
+      <c r="L36" s="165"/>
       <c r="N36" s="93">
         <v>104400</v>
       </c>
@@ -9370,10 +9426,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N39" s="159" t="s">
+      <c r="N39" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="O39" s="159"/>
+      <c r="O39" s="160"/>
       <c r="P39" s="119">
         <f>SUM(P27:P38)</f>
         <v>1219183.2</v>
@@ -9429,10 +9485,10 @@
       <c r="R40" s="75"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="160" t="s">
+      <c r="B41" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="161"/>
+      <c r="C41" s="159"/>
       <c r="D41" s="118">
         <f>SUM(D15:D40)</f>
         <v>2335044.96</v>
@@ -9466,13 +9522,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M41" s="96"/>
-      <c r="N41" s="151" t="s">
+      <c r="N41" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="O41" s="152"/>
-      <c r="P41" s="152"/>
-      <c r="Q41" s="152"/>
-      <c r="R41" s="152"/>
+      <c r="O41" s="156"/>
+      <c r="P41" s="156"/>
+      <c r="Q41" s="156"/>
+      <c r="R41" s="156"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" s="74"/>
@@ -9519,13 +9575,14 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="151" t="s">
+      <c r="A43" s="96"/>
+      <c r="B43" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="152"/>
-      <c r="D43" s="152"/>
-      <c r="E43" s="152"/>
-      <c r="F43" s="162"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="163"/>
       <c r="G43" s="73">
         <v>43757</v>
       </c>
@@ -9947,10 +10004,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N50" s="159" t="s">
+      <c r="N50" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="O50" s="159"/>
+      <c r="O50" s="160"/>
       <c r="P50" s="128">
         <f>SUM(P42:P49)</f>
         <v>650324.37600000005</v>
@@ -10046,13 +10103,14 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N52" s="151" t="s">
+      <c r="M52" s="96"/>
+      <c r="N52" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="O52" s="152"/>
-      <c r="P52" s="152"/>
-      <c r="Q52" s="152"/>
-      <c r="R52" s="152"/>
+      <c r="O52" s="156"/>
+      <c r="P52" s="156"/>
+      <c r="Q52" s="156"/>
+      <c r="R52" s="156"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B53" s="93">
@@ -10647,10 +10705,10 @@
         <f t="shared" si="33"/>
         <v>69900</v>
       </c>
-      <c r="H63" s="160" t="s">
+      <c r="H63" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="161"/>
+      <c r="I63" s="159"/>
       <c r="J63" s="131">
         <f>SUM(J37:J62)</f>
         <v>2734020</v>
@@ -10746,13 +10804,13 @@
         <f t="shared" si="33"/>
         <v>71298.000000000015</v>
       </c>
-      <c r="H65" s="163" t="s">
+      <c r="H65" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="164"/>
-      <c r="J65" s="164"/>
-      <c r="K65" s="164"/>
-      <c r="L65" s="164"/>
+      <c r="I65" s="165"/>
+      <c r="J65" s="165"/>
+      <c r="K65" s="165"/>
+      <c r="L65" s="165"/>
       <c r="M65" s="73">
         <v>43765</v>
       </c>
@@ -10801,19 +10859,19 @@
       <c r="H66" s="58">
         <v>100800</v>
       </c>
-      <c r="I66" s="129">
-        <v>0.98199999999999998</v>
+      <c r="I66" s="10">
+        <v>0.91400000000000003</v>
       </c>
       <c r="J66" s="60">
         <f t="shared" ref="J66" si="38">H66*I66</f>
-        <v>98985.599999999991</v>
-      </c>
-      <c r="K66" s="130">
-        <v>90.401785714285708</v>
+        <v>92131.199999999997</v>
+      </c>
+      <c r="K66" s="87">
+        <v>43.392857142857146</v>
       </c>
       <c r="L66" s="60">
         <f t="shared" ref="L66" si="39">H66*K66/100</f>
-        <v>91125</v>
+        <v>43740</v>
       </c>
       <c r="N66" s="93">
         <v>75600</v>
@@ -10851,15 +10909,27 @@
         <f t="shared" si="33"/>
         <v>74094</v>
       </c>
-      <c r="H67" s="74"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="75"/>
-      <c r="K67" s="87"/>
-      <c r="L67" s="75"/>
-      <c r="N67" s="159" t="s">
+      <c r="H67" s="58">
+        <v>100800</v>
+      </c>
+      <c r="I67" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="J67" s="60">
+        <f t="shared" ref="J67:J71" si="40">H67*I67</f>
+        <v>98784</v>
+      </c>
+      <c r="K67" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L67" s="60">
+        <f t="shared" ref="L67:L71" si="41">H67*K67/100</f>
+        <v>94770</v>
+      </c>
+      <c r="N67" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="O67" s="159"/>
+      <c r="O67" s="160"/>
       <c r="P67" s="132">
         <f>SUM(P53:P66)</f>
         <v>1031915.1599999998</v>
@@ -10874,10 +10944,10 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="160" t="s">
+      <c r="B68" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="161"/>
+      <c r="C68" s="159"/>
       <c r="D68" s="131">
         <f>SUM(D44:D67)</f>
         <v>1724961.6</v>
@@ -10893,11 +10963,23 @@
       <c r="G68" s="73">
         <v>43768</v>
       </c>
-      <c r="H68" s="74"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="87"/>
-      <c r="L68" s="75"/>
+      <c r="H68" s="58">
+        <v>100800</v>
+      </c>
+      <c r="I68" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J68" s="60">
+        <f t="shared" si="40"/>
+        <v>98985.599999999991</v>
+      </c>
+      <c r="K68" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L68" s="60">
+        <f t="shared" si="41"/>
+        <v>94770</v>
+      </c>
       <c r="N68" s="93"/>
       <c r="O68" s="10"/>
       <c r="P68" s="75"/>
@@ -10910,57 +10992,81 @@
       <c r="D69" s="75"/>
       <c r="E69" s="87"/>
       <c r="F69" s="75"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="87"/>
-      <c r="L69" s="75"/>
-      <c r="N69" s="163" t="s">
+      <c r="H69" s="58">
+        <v>100800</v>
+      </c>
+      <c r="I69" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="J69" s="60">
+        <f t="shared" si="40"/>
+        <v>99792</v>
+      </c>
+      <c r="K69" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L69" s="60">
+        <f t="shared" si="41"/>
+        <v>98415</v>
+      </c>
+      <c r="N69" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="O69" s="164"/>
-      <c r="P69" s="164"/>
-      <c r="Q69" s="164"/>
-      <c r="R69" s="164"/>
+      <c r="O69" s="165"/>
+      <c r="P69" s="165"/>
+      <c r="Q69" s="165"/>
+      <c r="R69" s="165"/>
     </row>
     <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="151" t="s">
+      <c r="B70" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="152"/>
-      <c r="D70" s="152"/>
-      <c r="E70" s="152"/>
-      <c r="F70" s="162"/>
+      <c r="C70" s="156"/>
+      <c r="D70" s="156"/>
+      <c r="E70" s="156"/>
+      <c r="F70" s="163"/>
       <c r="G70" s="73">
         <v>43769</v>
       </c>
-      <c r="H70" s="156"/>
-      <c r="I70" s="157"/>
-      <c r="J70" s="117"/>
-      <c r="K70" s="101"/>
-      <c r="L70" s="102"/>
+      <c r="H70" s="58">
+        <v>100800</v>
+      </c>
+      <c r="I70" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J70" s="60">
+        <f t="shared" si="40"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="K70" s="168">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L70" s="60">
+        <f t="shared" si="41"/>
+        <v>94770</v>
+      </c>
       <c r="M70" s="73">
         <v>43766</v>
       </c>
-      <c r="N70" s="58">
-        <v>100800</v>
-      </c>
-      <c r="O70" s="129">
-        <v>0.98199999999999998</v>
+      <c r="N70" s="93">
+        <v>80640</v>
+      </c>
+      <c r="O70" s="10">
+        <v>0.89400000000000002</v>
       </c>
       <c r="P70" s="60">
-        <f t="shared" ref="P70" si="40">N70*O70</f>
-        <v>98985.599999999991</v>
-      </c>
-      <c r="Q70" s="130">
-        <v>90.401785714285708</v>
+        <f t="shared" ref="P70" si="42">N70*O70</f>
+        <v>72092.160000000003</v>
+      </c>
+      <c r="Q70" s="87">
+        <v>60.238095238095234</v>
       </c>
       <c r="R70" s="60">
-        <f t="shared" ref="R70" si="41">N70*Q70/100</f>
-        <v>91125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R70" si="43">N70*Q70/100</f>
+        <v>48576</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="73">
         <v>43768</v>
       </c>
@@ -10971,70 +11077,168 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="D71" s="75">
-        <f t="shared" ref="D71" si="42">B71*C71</f>
+        <f t="shared" ref="D71" si="44">B71*C71</f>
         <v>61488</v>
       </c>
       <c r="E71" s="87">
-        <v>54.36666666666666</v>
+        <v>51.041666666666664</v>
       </c>
       <c r="F71" s="75">
-        <f t="shared" ref="F71" si="43">B71*E71/100</f>
-        <v>39143.999999999993</v>
-      </c>
-      <c r="H71" s="112"/>
-      <c r="I71" s="114"/>
-      <c r="J71" s="112"/>
-      <c r="K71" s="112"/>
-      <c r="L71" s="112"/>
-      <c r="N71" s="93"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="75"/>
-      <c r="Q71" s="87"/>
-      <c r="R71" s="75"/>
+        <f t="shared" ref="F71" si="45">B71*E71/100</f>
+        <v>36750</v>
+      </c>
+      <c r="H71" s="58">
+        <v>100800</v>
+      </c>
+      <c r="I71" s="173">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J71" s="60">
+        <f t="shared" si="40"/>
+        <v>99691.199999999997</v>
+      </c>
+      <c r="K71" s="169">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L71" s="60">
+        <f t="shared" si="41"/>
+        <v>98415</v>
+      </c>
+      <c r="N71" s="93">
+        <v>77040</v>
+      </c>
+      <c r="O71" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="P71" s="60">
+        <f t="shared" ref="P71:P77" si="46">N71*O71</f>
+        <v>75807.360000000001</v>
+      </c>
+      <c r="Q71" s="87">
+        <v>89.299065420560751</v>
+      </c>
+      <c r="R71" s="60">
+        <f t="shared" ref="R71:R77" si="47">N71*Q71/100</f>
+        <v>68796</v>
+      </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B72" s="93"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="75"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="79"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="79"/>
+      <c r="B72" s="93">
+        <v>72000</v>
+      </c>
+      <c r="C72" s="54">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D72" s="75">
+        <f t="shared" ref="D72:D74" si="48">B72*C72</f>
+        <v>70632</v>
+      </c>
+      <c r="E72" s="87">
+        <v>95.958333333333329</v>
+      </c>
+      <c r="F72" s="75">
+        <f t="shared" ref="F72:F74" si="49">B72*E72/100</f>
+        <v>69090</v>
+      </c>
+      <c r="H72" s="158" t="s">
+        <v>1</v>
+      </c>
+      <c r="I72" s="159"/>
+      <c r="J72" s="133">
+        <f>SUM(J66:J71)</f>
+        <v>587764.79999999993</v>
+      </c>
+      <c r="K72" s="171">
+        <f>L72/J72</f>
+        <v>0.89301026533062211</v>
+      </c>
+      <c r="L72" s="89">
+        <f>SUM(L66:L71)</f>
+        <v>524880</v>
+      </c>
       <c r="M72" s="73">
         <v>43767</v>
       </c>
-      <c r="N72" s="93"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="75"/>
-      <c r="Q72" s="87"/>
-      <c r="R72" s="75"/>
+      <c r="N72" s="93">
+        <v>77040</v>
+      </c>
+      <c r="O72" s="10">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="P72" s="60">
+        <f t="shared" si="46"/>
+        <v>75036.959999999992</v>
+      </c>
+      <c r="Q72" s="87">
+        <v>89.299065420560751</v>
+      </c>
+      <c r="R72" s="60">
+        <f t="shared" si="47"/>
+        <v>68796</v>
+      </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B73" s="93"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="75"/>
+      <c r="A73" s="73">
+        <v>43769</v>
+      </c>
+      <c r="B73" s="93">
+        <v>72000</v>
+      </c>
+      <c r="C73" s="54">
+        <v>0.999</v>
+      </c>
+      <c r="D73" s="75">
+        <f t="shared" si="48"/>
+        <v>71928</v>
+      </c>
+      <c r="E73" s="168">
+        <v>98</v>
+      </c>
+      <c r="F73" s="75">
+        <f t="shared" si="49"/>
+        <v>70560</v>
+      </c>
       <c r="H73" s="79"/>
       <c r="I73" s="56"/>
       <c r="J73" s="79"/>
       <c r="K73" s="79"/>
       <c r="L73" s="79"/>
-      <c r="N73" s="93"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="75"/>
-      <c r="Q73" s="87"/>
-      <c r="R73" s="75"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B74" s="93"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="75"/>
+      <c r="N73" s="93">
+        <v>77040</v>
+      </c>
+      <c r="O73" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="P73" s="60">
+        <f t="shared" si="46"/>
+        <v>75730.319999999992</v>
+      </c>
+      <c r="Q73" s="87">
+        <v>87.009345794392516</v>
+      </c>
+      <c r="R73" s="60">
+        <f t="shared" si="47"/>
+        <v>67031.999999999985</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="93">
+        <v>72000</v>
+      </c>
+      <c r="C74" s="170">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="D74" s="75">
+        <f t="shared" si="48"/>
+        <v>71208</v>
+      </c>
+      <c r="E74" s="169">
+        <v>98</v>
+      </c>
+      <c r="F74" s="75">
+        <f t="shared" si="49"/>
+        <v>70560</v>
+      </c>
       <c r="H74" s="79"/>
       <c r="I74" s="56"/>
       <c r="J74" s="79"/>
@@ -11043,35 +11247,70 @@
       <c r="M74" s="73">
         <v>43768</v>
       </c>
-      <c r="N74" s="93"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="75"/>
-      <c r="Q74" s="87"/>
-      <c r="R74" s="75"/>
+      <c r="N74" s="93">
+        <v>77040</v>
+      </c>
+      <c r="O74" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="P74" s="60">
+        <f t="shared" si="46"/>
+        <v>75191.039999999994</v>
+      </c>
+      <c r="Q74" s="87">
+        <v>87.009345794392516</v>
+      </c>
+      <c r="R74" s="60">
+        <f t="shared" si="47"/>
+        <v>67031.999999999985</v>
+      </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="93"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="75"/>
+      <c r="B75" s="158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="159"/>
+      <c r="D75" s="133">
+        <f>SUM(D71:D74)</f>
+        <v>275256</v>
+      </c>
+      <c r="E75" s="122">
+        <f>F75/D75</f>
+        <v>0.8972011509285901</v>
+      </c>
+      <c r="F75" s="89">
+        <f>SUM(F71:F74)</f>
+        <v>246960</v>
+      </c>
       <c r="H75" s="79"/>
       <c r="I75" s="56"/>
       <c r="J75" s="79"/>
       <c r="K75" s="79"/>
       <c r="L75" s="79"/>
-      <c r="N75" s="93"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="75"/>
-      <c r="Q75" s="87"/>
-      <c r="R75" s="75"/>
+      <c r="N75" s="93">
+        <v>77040</v>
+      </c>
+      <c r="O75" s="10">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="P75" s="60">
+        <f t="shared" si="46"/>
+        <v>74959.92</v>
+      </c>
+      <c r="Q75" s="87">
+        <v>91.588785046728972</v>
+      </c>
+      <c r="R75" s="60">
+        <f t="shared" si="47"/>
+        <v>70560</v>
+      </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="156"/>
-      <c r="C76" s="157"/>
-      <c r="D76" s="117"/>
-      <c r="E76" s="101"/>
-      <c r="F76" s="102"/>
+      <c r="B76" s="166"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="167"/>
+      <c r="F76" s="79"/>
       <c r="H76" s="79"/>
       <c r="I76" s="56"/>
       <c r="J76" s="79"/>
@@ -11080,28 +11319,52 @@
       <c r="M76" s="73">
         <v>43769</v>
       </c>
-      <c r="N76" s="159"/>
-      <c r="O76" s="159"/>
-      <c r="P76" s="117"/>
-      <c r="Q76" s="101"/>
-      <c r="R76" s="102"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B77" s="109"/>
-      <c r="C77" s="109"/>
-      <c r="D77" s="112"/>
-      <c r="E77" s="112"/>
-      <c r="F77" s="112"/>
+      <c r="N76" s="93">
+        <v>77040</v>
+      </c>
+      <c r="O76" s="10">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P76" s="60">
+        <f t="shared" si="46"/>
+        <v>74266.559999999998</v>
+      </c>
+      <c r="Q76" s="168">
+        <v>89.299065420560751</v>
+      </c>
+      <c r="R76" s="60">
+        <f t="shared" si="47"/>
+        <v>68796</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="110"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
       <c r="H77" s="110"/>
       <c r="I77" s="110"/>
       <c r="J77" s="79"/>
       <c r="K77" s="79"/>
       <c r="L77" s="79"/>
-      <c r="N77" s="109"/>
-      <c r="O77" s="109"/>
-      <c r="P77" s="112"/>
-      <c r="Q77" s="113"/>
-      <c r="R77" s="113"/>
+      <c r="N77" s="172">
+        <v>77040</v>
+      </c>
+      <c r="O77" s="173">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="P77" s="60">
+        <f t="shared" si="46"/>
+        <v>74497.679999999993</v>
+      </c>
+      <c r="Q77" s="169">
+        <v>91.588785046728972</v>
+      </c>
+      <c r="R77" s="60">
+        <f t="shared" si="47"/>
+        <v>70560</v>
+      </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B78" s="110"/>
@@ -11114,11 +11377,22 @@
       <c r="J78" s="79"/>
       <c r="K78" s="79"/>
       <c r="L78" s="79"/>
-      <c r="N78" s="110"/>
-      <c r="O78" s="110"/>
-      <c r="P78" s="79"/>
-      <c r="Q78" s="111"/>
-      <c r="R78" s="111"/>
+      <c r="N78" s="158" t="s">
+        <v>1</v>
+      </c>
+      <c r="O78" s="159"/>
+      <c r="P78" s="133">
+        <f>SUM(P70:P77)</f>
+        <v>597582</v>
+      </c>
+      <c r="Q78" s="171">
+        <f>R78/P78</f>
+        <v>0.88715523559946585</v>
+      </c>
+      <c r="R78" s="89">
+        <f>SUM(R70:R77)</f>
+        <v>530148</v>
+      </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B79" s="110"/>
@@ -11190,19 +11464,19 @@
       <c r="R82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="155"/>
-      <c r="C83" s="155"/>
-      <c r="D83" s="155"/>
+      <c r="B83" s="154"/>
+      <c r="C83" s="154"/>
+      <c r="D83" s="154"/>
       <c r="E83" s="115"/>
       <c r="F83" s="115"/>
-      <c r="H83" s="155"/>
-      <c r="I83" s="155"/>
-      <c r="J83" s="155"/>
+      <c r="H83" s="154"/>
+      <c r="I83" s="154"/>
+      <c r="J83" s="154"/>
       <c r="K83" s="115"/>
       <c r="L83" s="115"/>
-      <c r="N83" s="155"/>
-      <c r="O83" s="155"/>
-      <c r="P83" s="155"/>
+      <c r="N83" s="154"/>
+      <c r="O83" s="154"/>
+      <c r="P83" s="154"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -11298,38 +11572,29 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="155"/>
-      <c r="C90" s="155"/>
+      <c r="B90" s="154"/>
+      <c r="C90" s="154"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="155"/>
-      <c r="I90" s="155"/>
+      <c r="H90" s="154"/>
+      <c r="I90" s="154"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="155"/>
-      <c r="O90" s="155"/>
+      <c r="N90" s="154"/>
+      <c r="O90" s="154"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N69:R69"/>
+  <mergeCells count="34">
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="H72:I72"/>
     <mergeCell ref="N52:R52"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
@@ -11343,10 +11608,20 @@
     <mergeCell ref="H36:L36"/>
     <mergeCell ref="N39:O39"/>
     <mergeCell ref="N41:R41"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N69:R69"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
@@ -9,24 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="14412" windowHeight="12456" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="14412" windowHeight="12456" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Бланк" sheetId="45" r:id="rId1"/>
     <sheet name="Сентябрь" sheetId="53" r:id="rId2"/>
     <sheet name="Октябрь" sheetId="54" r:id="rId3"/>
+    <sheet name="Ноябрь" sheetId="55" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Бланк!$A$1:$N$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Ноябрь!$A$1:$R$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Октябрь!$A$1:$R$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$R$76</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
   <si>
     <t>% работы</t>
   </si>
@@ -125,6 +128,24 @@
   </si>
   <si>
     <t>XIII-В-28-2-500-4 (Фляга 0,5 л.)</t>
+  </si>
+  <si>
+    <t>31.11.2019</t>
+  </si>
+  <si>
+    <t>V-GPI-630-200 (Тоник 0,2 л.)</t>
+  </si>
+  <si>
+    <t>XXI-В-28-2-500-29 (Кепил 0,5 л.)</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-30-1-500-2 (Медофф 0,5 л.)</t>
+  </si>
+  <si>
+    <t>XXI-КПМ-30-1-500-7 (Каласы 0,5 л.)</t>
+  </si>
+  <si>
+    <t>ХХI-В-25-500-1 (Беларуская калекцыя)</t>
   </si>
 </sst>
 </file>
@@ -612,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -983,6 +1004,82 @@
     <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1073,34 +1170,22 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1433,21 +1518,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
       <c r="H1" s="51"/>
-      <c r="I1" s="143" t="s">
+      <c r="I1" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
     </row>
     <row r="2" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -1489,22 +1574,22 @@
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="134" t="s">
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="136"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="162"/>
       <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1750,11 +1835,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="136"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="162"/>
       <c r="E11" s="24">
         <f>SUM(E4:E10)</f>
         <v>829712.88</v>
@@ -1775,12 +1860,12 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="140"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="142"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="168"/>
       <c r="H12" s="20"/>
       <c r="I12" s="14"/>
       <c r="J12" s="23"/>
@@ -1793,14 +1878,14 @@
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="135"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="146"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="172"/>
       <c r="H13" s="20"/>
       <c r="I13" s="14"/>
       <c r="J13" s="23"/>
@@ -1812,12 +1897,12 @@
       <c r="A14" s="3">
         <v>43439</v>
       </c>
-      <c r="B14" s="137"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="139"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="165"/>
       <c r="H14" s="20"/>
       <c r="I14" s="14"/>
       <c r="J14" s="23"/>
@@ -1852,9 +1937,9 @@
       <c r="E16" s="11"/>
       <c r="F16" s="38"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="136"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="162"/>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
       <c r="M16" s="24"/>
@@ -1866,9 +1951,9 @@
       <c r="E17" s="11"/>
       <c r="F17" s="38"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="142"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="168"/>
       <c r="K17" s="11"/>
       <c r="L17" s="33"/>
       <c r="M17" s="11"/>
@@ -1883,12 +1968,12 @@
       <c r="E18" s="11"/>
       <c r="F18" s="38"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="136"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="162"/>
       <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1977,9 +2062,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="134"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="136"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="162"/>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
       <c r="G24" s="24"/>
@@ -2009,12 +2094,12 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="136"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="162"/>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
       <c r="J26" s="23"/>
@@ -2160,9 +2245,9 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="134"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="136"/>
+      <c r="B35" s="160"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="162"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
       <c r="G35" s="24"/>
@@ -2192,12 +2277,12 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="134"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="136"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="161"/>
+      <c r="D37" s="161"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="162"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
       <c r="J37" s="23"/>
@@ -2345,9 +2430,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="134"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="136"/>
+      <c r="B46" s="160"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="162"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
       <c r="G46" s="24"/>
@@ -2377,12 +2462,12 @@
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="134"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="135"/>
-      <c r="F48" s="135"/>
-      <c r="G48" s="136"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="161"/>
+      <c r="D48" s="161"/>
+      <c r="E48" s="161"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="162"/>
       <c r="H48" s="30"/>
       <c r="I48" s="31"/>
       <c r="J48" s="23"/>
@@ -2527,15 +2612,15 @@
       <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="134"/>
-      <c r="C57" s="135"/>
-      <c r="D57" s="136"/>
+      <c r="B57" s="160"/>
+      <c r="C57" s="161"/>
+      <c r="D57" s="162"/>
       <c r="E57" s="24"/>
       <c r="F57" s="25"/>
       <c r="G57" s="24"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="135"/>
-      <c r="J57" s="136"/>
+      <c r="H57" s="160"/>
+      <c r="I57" s="161"/>
+      <c r="J57" s="162"/>
       <c r="K57" s="24"/>
       <c r="L57" s="25"/>
       <c r="M57" s="24"/>
@@ -2555,12 +2640,12 @@
       <c r="M58" s="11"/>
     </row>
     <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="134"/>
-      <c r="C59" s="135"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="135"/>
-      <c r="G59" s="136"/>
+      <c r="B59" s="160"/>
+      <c r="C59" s="161"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="161"/>
+      <c r="F59" s="161"/>
+      <c r="G59" s="162"/>
       <c r="H59" s="20"/>
       <c r="I59" s="14"/>
       <c r="J59" s="23"/>
@@ -2572,9 +2657,9 @@
       <c r="A60" s="3">
         <v>43456</v>
       </c>
-      <c r="B60" s="134"/>
-      <c r="C60" s="135"/>
-      <c r="D60" s="136"/>
+      <c r="B60" s="160"/>
+      <c r="C60" s="161"/>
+      <c r="D60" s="162"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
       <c r="G60" s="24"/>
@@ -2586,12 +2671,12 @@
       <c r="M60" s="11"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="147"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="147"/>
-      <c r="F61" s="147"/>
-      <c r="G61" s="147"/>
+      <c r="B61" s="173"/>
+      <c r="C61" s="173"/>
+      <c r="D61" s="173"/>
+      <c r="E61" s="173"/>
+      <c r="F61" s="173"/>
+      <c r="G61" s="173"/>
       <c r="H61" s="20"/>
       <c r="I61" s="14"/>
       <c r="J61" s="23"/>
@@ -2603,12 +2688,12 @@
       <c r="A62" s="3">
         <v>43457</v>
       </c>
-      <c r="B62" s="134"/>
-      <c r="C62" s="135"/>
-      <c r="D62" s="145"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="145"/>
-      <c r="G62" s="146"/>
+      <c r="B62" s="160"/>
+      <c r="C62" s="161"/>
+      <c r="D62" s="171"/>
+      <c r="E62" s="161"/>
+      <c r="F62" s="171"/>
+      <c r="G62" s="172"/>
       <c r="H62" s="20"/>
       <c r="I62" s="14"/>
       <c r="J62" s="23"/>
@@ -2671,9 +2756,9 @@
       <c r="E66" s="11"/>
       <c r="F66" s="38"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="134"/>
-      <c r="I66" s="135"/>
-      <c r="J66" s="136"/>
+      <c r="H66" s="160"/>
+      <c r="I66" s="161"/>
+      <c r="J66" s="162"/>
       <c r="K66" s="24"/>
       <c r="L66" s="25"/>
       <c r="M66" s="24"/>
@@ -2702,12 +2787,12 @@
       <c r="E68" s="11"/>
       <c r="F68" s="38"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="149"/>
-      <c r="I68" s="145"/>
-      <c r="J68" s="145"/>
-      <c r="K68" s="145"/>
-      <c r="L68" s="145"/>
-      <c r="M68" s="136"/>
+      <c r="H68" s="175"/>
+      <c r="I68" s="171"/>
+      <c r="J68" s="171"/>
+      <c r="K68" s="171"/>
+      <c r="L68" s="171"/>
+      <c r="M68" s="162"/>
       <c r="N68" s="28"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -2819,9 +2904,9 @@
       <c r="E75" s="11"/>
       <c r="F75" s="38"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="134"/>
-      <c r="I75" s="135"/>
-      <c r="J75" s="136"/>
+      <c r="H75" s="160"/>
+      <c r="I75" s="161"/>
+      <c r="J75" s="162"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
       <c r="M75" s="24"/>
@@ -2841,23 +2926,23 @@
       <c r="M76" s="11"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="134"/>
-      <c r="C77" s="135"/>
-      <c r="D77" s="136"/>
+      <c r="B77" s="160"/>
+      <c r="C77" s="161"/>
+      <c r="D77" s="162"/>
       <c r="E77" s="24"/>
       <c r="F77" s="25"/>
       <c r="G77" s="24"/>
-      <c r="H77" s="149"/>
-      <c r="I77" s="145"/>
-      <c r="J77" s="145"/>
-      <c r="K77" s="145"/>
-      <c r="L77" s="145"/>
-      <c r="M77" s="136"/>
+      <c r="H77" s="175"/>
+      <c r="I77" s="171"/>
+      <c r="J77" s="171"/>
+      <c r="K77" s="171"/>
+      <c r="L77" s="171"/>
+      <c r="M77" s="162"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="140"/>
-      <c r="C78" s="141"/>
-      <c r="D78" s="142"/>
+      <c r="B78" s="166"/>
+      <c r="C78" s="167"/>
+      <c r="D78" s="168"/>
       <c r="E78" s="11"/>
       <c r="F78" s="33"/>
       <c r="G78" s="11"/>
@@ -2872,12 +2957,12 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="134"/>
-      <c r="C79" s="135"/>
-      <c r="D79" s="145"/>
-      <c r="E79" s="135"/>
-      <c r="F79" s="145"/>
-      <c r="G79" s="146"/>
+      <c r="B79" s="160"/>
+      <c r="C79" s="161"/>
+      <c r="D79" s="171"/>
+      <c r="E79" s="161"/>
+      <c r="F79" s="171"/>
+      <c r="G79" s="172"/>
       <c r="H79" s="20"/>
       <c r="I79" s="14"/>
       <c r="J79" s="23"/>
@@ -2920,27 +3005,27 @@
       <c r="M81" s="11"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="134"/>
-      <c r="C82" s="135"/>
-      <c r="D82" s="136"/>
+      <c r="B82" s="160"/>
+      <c r="C82" s="161"/>
+      <c r="D82" s="162"/>
       <c r="E82" s="24"/>
       <c r="F82" s="25"/>
       <c r="G82" s="24"/>
-      <c r="H82" s="149"/>
-      <c r="I82" s="145"/>
-      <c r="J82" s="146"/>
+      <c r="H82" s="175"/>
+      <c r="I82" s="171"/>
+      <c r="J82" s="172"/>
       <c r="K82" s="26"/>
       <c r="L82" s="27"/>
       <c r="M82" s="26"/>
       <c r="N82" s="28"/>
     </row>
     <row r="83" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="148"/>
-      <c r="C83" s="148"/>
-      <c r="D83" s="148"/>
-      <c r="E83" s="148"/>
-      <c r="F83" s="148"/>
-      <c r="G83" s="148"/>
+      <c r="B83" s="174"/>
+      <c r="C83" s="174"/>
+      <c r="D83" s="174"/>
+      <c r="E83" s="174"/>
+      <c r="F83" s="174"/>
+      <c r="G83" s="174"/>
       <c r="H83" s="49"/>
       <c r="I83" s="50"/>
       <c r="J83" s="44"/>
@@ -2955,9 +3040,9 @@
       <c r="E84" s="16"/>
       <c r="F84" s="45"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="148"/>
-      <c r="I84" s="148"/>
-      <c r="J84" s="148"/>
+      <c r="H84" s="174"/>
+      <c r="I84" s="174"/>
+      <c r="J84" s="174"/>
       <c r="K84" s="16"/>
       <c r="L84" s="36"/>
       <c r="M84" s="16"/>
@@ -3012,9 +3097,9 @@
       <c r="E88" s="16"/>
       <c r="F88" s="45"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="148"/>
-      <c r="I88" s="148"/>
-      <c r="J88" s="148"/>
+      <c r="H88" s="174"/>
+      <c r="I88" s="174"/>
+      <c r="J88" s="174"/>
       <c r="K88" s="16"/>
       <c r="L88" s="36"/>
       <c r="M88" s="16"/>
@@ -3028,9 +3113,9 @@
       <c r="G89" s="16"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="148"/>
-      <c r="C90" s="148"/>
-      <c r="D90" s="148"/>
+      <c r="B90" s="174"/>
+      <c r="C90" s="174"/>
+      <c r="D90" s="174"/>
       <c r="E90" s="16"/>
       <c r="F90" s="36"/>
       <c r="G90" s="16"/>
@@ -3087,9 +3172,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N57" sqref="N57:R57"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3112,27 +3197,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="H1" s="161" t="s">
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="H1" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="N1" s="161" t="s">
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="N1" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
+      <c r="O1" s="188"/>
+      <c r="P1" s="188"/>
+      <c r="Q1" s="188"/>
+      <c r="R1" s="188"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -3183,29 +3268,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="97"/>
-      <c r="H3" s="152" t="s">
+      <c r="H3" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
       <c r="M3" s="97"/>
-      <c r="N3" s="155" t="s">
+      <c r="N3" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="182"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -3787,10 +3872,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="151"/>
+      <c r="C14" s="177"/>
       <c r="D14" s="77">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
@@ -3887,13 +3972,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="96"/>
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
       <c r="G16" s="73">
         <v>43715</v>
       </c>
@@ -4144,10 +4229,10 @@
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="150" t="s">
+      <c r="N20" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="151"/>
+      <c r="O20" s="177"/>
       <c r="P20" s="77">
         <f>SUM(P4:P19)</f>
         <v>1447623.36</v>
@@ -4242,13 +4327,13 @@
         <v>94770</v>
       </c>
       <c r="M22" s="96"/>
-      <c r="N22" s="155" t="s">
+      <c r="N22" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="156"/>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="156"/>
-      <c r="R22" s="156"/>
+      <c r="O22" s="182"/>
+      <c r="P22" s="182"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="182"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="73">
@@ -4327,10 +4412,10 @@
         <f t="shared" si="18"/>
         <v>106496</v>
       </c>
-      <c r="H24" s="150" t="s">
+      <c r="H24" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="151"/>
+      <c r="I24" s="177"/>
       <c r="J24" s="77">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
@@ -4427,13 +4512,13 @@
         <v>109824</v>
       </c>
       <c r="G26" s="96"/>
-      <c r="H26" s="152" t="s">
+      <c r="H26" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="153"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="179"/>
       <c r="N26" s="93">
         <v>84240</v>
       </c>
@@ -4568,10 +4653,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="150" t="s">
+      <c r="B29" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="151"/>
+      <c r="C29" s="177"/>
       <c r="D29" s="77">
         <f>SUM(D17:D28)</f>
         <v>1312507.44</v>
@@ -4668,13 +4753,13 @@
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="96"/>
-      <c r="B31" s="152" t="s">
+      <c r="B31" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
+      <c r="C31" s="179"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
       <c r="G31" s="73">
         <v>43721</v>
       </c>
@@ -5040,10 +5125,10 @@
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N37" s="157" t="s">
+      <c r="N37" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="157"/>
+      <c r="O37" s="183"/>
       <c r="P37" s="77">
         <f>SUM(P23:P36)</f>
         <v>1133003.52</v>
@@ -5117,10 +5202,10 @@
         <f t="shared" si="30"/>
         <v>65705.999999999985</v>
       </c>
-      <c r="H39" s="158" t="s">
+      <c r="H39" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="159"/>
+      <c r="I39" s="185"/>
       <c r="J39" s="77">
         <f>SUM(J27:J38)</f>
         <v>1647216</v>
@@ -5134,13 +5219,13 @@
         <v>1512490</v>
       </c>
       <c r="M39" s="96"/>
-      <c r="N39" s="155" t="s">
+      <c r="N39" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="O39" s="156"/>
-      <c r="P39" s="156"/>
-      <c r="Q39" s="156"/>
-      <c r="R39" s="156"/>
+      <c r="O39" s="182"/>
+      <c r="P39" s="182"/>
+      <c r="Q39" s="182"/>
+      <c r="R39" s="182"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="73">
@@ -5208,13 +5293,13 @@
         <v>67104</v>
       </c>
       <c r="G41" s="96"/>
-      <c r="H41" s="152" t="s">
+      <c r="H41" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="153"/>
-      <c r="L41" s="153"/>
+      <c r="I41" s="179"/>
+      <c r="J41" s="179"/>
+      <c r="K41" s="179"/>
+      <c r="L41" s="179"/>
       <c r="N41" s="93">
         <v>64080</v>
       </c>
@@ -5349,10 +5434,10 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="150" t="s">
+      <c r="B44" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="151"/>
+      <c r="C44" s="177"/>
       <c r="D44" s="100">
         <f>SUM(D32:D43)</f>
         <v>825840</v>
@@ -5449,13 +5534,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="96"/>
-      <c r="B46" s="155" t="s">
+      <c r="B46" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="156"/>
-      <c r="D46" s="156"/>
-      <c r="E46" s="156"/>
-      <c r="F46" s="156"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="182"/>
+      <c r="F46" s="182"/>
       <c r="G46" s="73">
         <v>43727</v>
       </c>
@@ -5591,10 +5676,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N48" s="157" t="s">
+      <c r="N48" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="O48" s="157"/>
+      <c r="O48" s="183"/>
       <c r="P48" s="98">
         <f>SUM(P40:P47)</f>
         <v>496705.68</v>
@@ -5689,13 +5774,13 @@
         <v>91125</v>
       </c>
       <c r="M50" s="96"/>
-      <c r="N50" s="155" t="s">
+      <c r="N50" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="O50" s="156"/>
-      <c r="P50" s="156"/>
-      <c r="Q50" s="156"/>
-      <c r="R50" s="156"/>
+      <c r="O50" s="182"/>
+      <c r="P50" s="182"/>
+      <c r="Q50" s="182"/>
+      <c r="R50" s="182"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="73">
@@ -6080,10 +6165,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N57" s="160" t="s">
+      <c r="N57" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="O57" s="160"/>
+      <c r="O57" s="186"/>
       <c r="P57" s="100">
         <f>SUM(P49:P56)</f>
         <v>448449.84</v>
@@ -6142,10 +6227,10 @@
       <c r="R58" s="107"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="150" t="s">
+      <c r="B59" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="151"/>
+      <c r="C59" s="177"/>
       <c r="D59" s="98">
         <f>SUM(D47:D58)</f>
         <v>1010437.2</v>
@@ -6176,13 +6261,13 @@
         <v>91125</v>
       </c>
       <c r="M59" s="96"/>
-      <c r="N59" s="155" t="s">
+      <c r="N59" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="O59" s="156"/>
-      <c r="P59" s="156"/>
-      <c r="Q59" s="156"/>
-      <c r="R59" s="156"/>
+      <c r="O59" s="182"/>
+      <c r="P59" s="182"/>
+      <c r="Q59" s="182"/>
+      <c r="R59" s="182"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60" s="91"/>
@@ -6233,13 +6318,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="96"/>
-      <c r="B61" s="155" t="s">
+      <c r="B61" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="156"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="156"/>
-      <c r="F61" s="156"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="182"/>
+      <c r="E61" s="182"/>
+      <c r="F61" s="182"/>
       <c r="H61" s="74">
         <v>100800</v>
       </c>
@@ -6756,10 +6841,10 @@
         <f t="shared" si="54"/>
         <v>86184</v>
       </c>
-      <c r="H70" s="150" t="s">
+      <c r="H70" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="151"/>
+      <c r="I70" s="177"/>
       <c r="J70" s="100">
         <f>SUM(J42:J69)</f>
         <v>2733393.6</v>
@@ -7011,10 +7096,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="150" t="s">
+      <c r="B76" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="151"/>
+      <c r="C76" s="177"/>
       <c r="D76" s="100">
         <f>SUM(D62:D75)</f>
         <v>1243584</v>
@@ -7032,10 +7117,10 @@
       <c r="J76" s="79"/>
       <c r="K76" s="79"/>
       <c r="L76" s="79"/>
-      <c r="N76" s="160" t="s">
+      <c r="N76" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="160"/>
+      <c r="O76" s="186"/>
       <c r="P76" s="100">
         <f>SUM(P60:P75)</f>
         <v>1630498.3199999998</v>
@@ -7153,19 +7238,19 @@
       <c r="R82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="154"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="154"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
       <c r="E83" s="80"/>
       <c r="F83" s="80"/>
-      <c r="H83" s="154"/>
-      <c r="I83" s="154"/>
-      <c r="J83" s="154"/>
+      <c r="H83" s="180"/>
+      <c r="I83" s="180"/>
+      <c r="J83" s="180"/>
       <c r="K83" s="80"/>
       <c r="L83" s="80"/>
-      <c r="N83" s="154"/>
-      <c r="O83" s="154"/>
-      <c r="P83" s="154"/>
+      <c r="N83" s="180"/>
+      <c r="O83" s="180"/>
+      <c r="P83" s="180"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -7261,18 +7346,18 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="154"/>
-      <c r="C90" s="154"/>
+      <c r="B90" s="180"/>
+      <c r="C90" s="180"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="154"/>
-      <c r="I90" s="154"/>
+      <c r="H90" s="180"/>
+      <c r="I90" s="180"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="154"/>
-      <c r="O90" s="154"/>
+      <c r="N90" s="180"/>
+      <c r="O90" s="180"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
@@ -7326,9 +7411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H72" sqref="H72:L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7353,27 +7438,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="H1" s="161" t="s">
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="H1" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="N1" s="161" t="s">
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="N1" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
+      <c r="O1" s="188"/>
+      <c r="P1" s="188"/>
+      <c r="Q1" s="188"/>
+      <c r="R1" s="188"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -7424,29 +7509,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
       <c r="G3" s="97"/>
-      <c r="H3" s="164" t="s">
+      <c r="H3" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
       <c r="M3" s="97"/>
-      <c r="N3" s="155" t="s">
+      <c r="N3" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="182"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -7912,10 +7997,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="159"/>
+      <c r="C12" s="185"/>
       <c r="D12" s="116">
         <f>SUM(D4:D11)</f>
         <v>721644.48</v>
@@ -8013,13 +8098,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="96"/>
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="163"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="189"/>
       <c r="G14" s="73">
         <v>43744</v>
       </c>
@@ -8615,10 +8700,10 @@
         <f t="shared" si="9"/>
         <v>98415</v>
       </c>
-      <c r="N24" s="160" t="s">
+      <c r="N24" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="160"/>
+      <c r="O24" s="186"/>
       <c r="P24" s="117">
         <f>SUM(P4:P23)</f>
         <v>2047806</v>
@@ -8715,13 +8800,13 @@
         <v>94770</v>
       </c>
       <c r="M26" s="96"/>
-      <c r="N26" s="155" t="s">
+      <c r="N26" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="156"/>
-      <c r="P26" s="156"/>
-      <c r="Q26" s="156"/>
-      <c r="R26" s="156"/>
+      <c r="O26" s="182"/>
+      <c r="P26" s="182"/>
+      <c r="Q26" s="182"/>
+      <c r="R26" s="182"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="73">
@@ -9145,10 +9230,10 @@
         <f t="shared" si="21"/>
         <v>85824</v>
       </c>
-      <c r="H34" s="158" t="s">
+      <c r="H34" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="159"/>
+      <c r="I34" s="185"/>
       <c r="J34" s="118">
         <f>SUM(J4:J33)</f>
         <v>2962108.8000000003</v>
@@ -9245,13 +9330,13 @@
         <v>85824</v>
       </c>
       <c r="G36" s="96"/>
-      <c r="H36" s="164" t="s">
+      <c r="H36" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="165"/>
-      <c r="L36" s="165"/>
+      <c r="I36" s="192"/>
+      <c r="J36" s="192"/>
+      <c r="K36" s="192"/>
+      <c r="L36" s="192"/>
       <c r="N36" s="93">
         <v>104400</v>
       </c>
@@ -9426,10 +9511,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N39" s="160" t="s">
+      <c r="N39" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="O39" s="160"/>
+      <c r="O39" s="186"/>
       <c r="P39" s="119">
         <f>SUM(P27:P38)</f>
         <v>1219183.2</v>
@@ -9485,10 +9570,10 @@
       <c r="R40" s="75"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="158" t="s">
+      <c r="B41" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="159"/>
+      <c r="C41" s="185"/>
       <c r="D41" s="118">
         <f>SUM(D15:D40)</f>
         <v>2335044.96</v>
@@ -9522,13 +9607,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M41" s="96"/>
-      <c r="N41" s="155" t="s">
+      <c r="N41" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="O41" s="156"/>
-      <c r="P41" s="156"/>
-      <c r="Q41" s="156"/>
-      <c r="R41" s="156"/>
+      <c r="O41" s="182"/>
+      <c r="P41" s="182"/>
+      <c r="Q41" s="182"/>
+      <c r="R41" s="182"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" s="74"/>
@@ -9576,13 +9661,13 @@
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="96"/>
-      <c r="B43" s="155" t="s">
+      <c r="B43" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="163"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="182"/>
+      <c r="F43" s="189"/>
       <c r="G43" s="73">
         <v>43757</v>
       </c>
@@ -10004,10 +10089,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N50" s="160" t="s">
+      <c r="N50" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="O50" s="160"/>
+      <c r="O50" s="186"/>
       <c r="P50" s="128">
         <f>SUM(P42:P49)</f>
         <v>650324.37600000005</v>
@@ -10104,13 +10189,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M52" s="96"/>
-      <c r="N52" s="155" t="s">
+      <c r="N52" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="O52" s="156"/>
-      <c r="P52" s="156"/>
-      <c r="Q52" s="156"/>
-      <c r="R52" s="156"/>
+      <c r="O52" s="182"/>
+      <c r="P52" s="182"/>
+      <c r="Q52" s="182"/>
+      <c r="R52" s="182"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B53" s="93">
@@ -10705,10 +10790,10 @@
         <f t="shared" si="33"/>
         <v>69900</v>
       </c>
-      <c r="H63" s="158" t="s">
+      <c r="H63" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="159"/>
+      <c r="I63" s="185"/>
       <c r="J63" s="131">
         <f>SUM(J37:J62)</f>
         <v>2734020</v>
@@ -10804,13 +10889,13 @@
         <f t="shared" si="33"/>
         <v>71298.000000000015</v>
       </c>
-      <c r="H65" s="164" t="s">
+      <c r="H65" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="165"/>
-      <c r="J65" s="165"/>
-      <c r="K65" s="165"/>
-      <c r="L65" s="165"/>
+      <c r="I65" s="192"/>
+      <c r="J65" s="192"/>
+      <c r="K65" s="192"/>
+      <c r="L65" s="192"/>
       <c r="M65" s="73">
         <v>43765</v>
       </c>
@@ -10926,10 +11011,10 @@
         <f t="shared" ref="L67:L71" si="41">H67*K67/100</f>
         <v>94770</v>
       </c>
-      <c r="N67" s="160" t="s">
+      <c r="N67" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="O67" s="160"/>
+      <c r="O67" s="186"/>
       <c r="P67" s="132">
         <f>SUM(P53:P66)</f>
         <v>1031915.1599999998</v>
@@ -10944,10 +11029,10 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="158" t="s">
+      <c r="B68" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="159"/>
+      <c r="C68" s="185"/>
       <c r="D68" s="131">
         <f>SUM(D44:D67)</f>
         <v>1724961.6</v>
@@ -11009,22 +11094,22 @@
         <f t="shared" si="41"/>
         <v>98415</v>
       </c>
-      <c r="N69" s="164" t="s">
+      <c r="N69" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="O69" s="165"/>
-      <c r="P69" s="165"/>
-      <c r="Q69" s="165"/>
-      <c r="R69" s="165"/>
+      <c r="O69" s="192"/>
+      <c r="P69" s="192"/>
+      <c r="Q69" s="192"/>
+      <c r="R69" s="192"/>
     </row>
     <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="155" t="s">
+      <c r="B70" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="156"/>
-      <c r="D70" s="156"/>
-      <c r="E70" s="156"/>
-      <c r="F70" s="163"/>
+      <c r="C70" s="182"/>
+      <c r="D70" s="182"/>
+      <c r="E70" s="182"/>
+      <c r="F70" s="189"/>
       <c r="G70" s="73">
         <v>43769</v>
       </c>
@@ -11038,7 +11123,7 @@
         <f t="shared" si="40"/>
         <v>98380.800000000003</v>
       </c>
-      <c r="K70" s="168">
+      <c r="K70" s="138">
         <v>94.017857142857139</v>
       </c>
       <c r="L70" s="60">
@@ -11090,14 +11175,14 @@
       <c r="H71" s="58">
         <v>100800</v>
       </c>
-      <c r="I71" s="173">
+      <c r="I71" s="143">
         <v>0.98899999999999999</v>
       </c>
       <c r="J71" s="60">
         <f t="shared" si="40"/>
         <v>99691.199999999997</v>
       </c>
-      <c r="K71" s="169">
+      <c r="K71" s="139">
         <v>97.633928571428569</v>
       </c>
       <c r="L71" s="60">
@@ -11140,15 +11225,15 @@
         <f t="shared" ref="F72:F74" si="49">B72*E72/100</f>
         <v>69090</v>
       </c>
-      <c r="H72" s="158" t="s">
+      <c r="H72" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="159"/>
+      <c r="I72" s="185"/>
       <c r="J72" s="133">
         <f>SUM(J66:J71)</f>
         <v>587764.79999999993</v>
       </c>
-      <c r="K72" s="171">
+      <c r="K72" s="141">
         <f>L72/J72</f>
         <v>0.89301026533062211</v>
       </c>
@@ -11191,7 +11276,7 @@
         <f t="shared" si="48"/>
         <v>71928</v>
       </c>
-      <c r="E73" s="168">
+      <c r="E73" s="138">
         <v>98</v>
       </c>
       <c r="F73" s="75">
@@ -11225,14 +11310,14 @@
       <c r="B74" s="93">
         <v>72000</v>
       </c>
-      <c r="C74" s="170">
+      <c r="C74" s="140">
         <v>0.98899999999999999</v>
       </c>
       <c r="D74" s="75">
         <f t="shared" si="48"/>
         <v>71208</v>
       </c>
-      <c r="E74" s="169">
+      <c r="E74" s="139">
         <v>98</v>
       </c>
       <c r="F74" s="75">
@@ -11266,10 +11351,10 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="158" t="s">
+      <c r="B75" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="159"/>
+      <c r="C75" s="185"/>
       <c r="D75" s="133">
         <f>SUM(D71:D74)</f>
         <v>275256</v>
@@ -11306,10 +11391,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="166"/>
-      <c r="C76" s="166"/>
+      <c r="B76" s="190"/>
+      <c r="C76" s="190"/>
       <c r="D76" s="79"/>
-      <c r="E76" s="167"/>
+      <c r="E76" s="137"/>
       <c r="F76" s="79"/>
       <c r="H76" s="79"/>
       <c r="I76" s="56"/>
@@ -11329,7 +11414,7 @@
         <f t="shared" si="46"/>
         <v>74266.559999999998</v>
       </c>
-      <c r="Q76" s="168">
+      <c r="Q76" s="138">
         <v>89.299065420560751</v>
       </c>
       <c r="R76" s="60">
@@ -11348,17 +11433,17 @@
       <c r="J77" s="79"/>
       <c r="K77" s="79"/>
       <c r="L77" s="79"/>
-      <c r="N77" s="172">
+      <c r="N77" s="142">
         <v>77040</v>
       </c>
-      <c r="O77" s="173">
+      <c r="O77" s="143">
         <v>0.96699999999999997</v>
       </c>
       <c r="P77" s="60">
         <f t="shared" si="46"/>
         <v>74497.679999999993</v>
       </c>
-      <c r="Q77" s="169">
+      <c r="Q77" s="139">
         <v>91.588785046728972</v>
       </c>
       <c r="R77" s="60">
@@ -11377,15 +11462,15 @@
       <c r="J78" s="79"/>
       <c r="K78" s="79"/>
       <c r="L78" s="79"/>
-      <c r="N78" s="158" t="s">
+      <c r="N78" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="O78" s="159"/>
+      <c r="O78" s="185"/>
       <c r="P78" s="133">
         <f>SUM(P70:P77)</f>
         <v>597582</v>
       </c>
-      <c r="Q78" s="171">
+      <c r="Q78" s="141">
         <f>R78/P78</f>
         <v>0.88715523559946585</v>
       </c>
@@ -11464,19 +11549,19 @@
       <c r="R82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="154"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="154"/>
+      <c r="B83" s="180"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
       <c r="E83" s="115"/>
       <c r="F83" s="115"/>
-      <c r="H83" s="154"/>
-      <c r="I83" s="154"/>
-      <c r="J83" s="154"/>
+      <c r="H83" s="180"/>
+      <c r="I83" s="180"/>
+      <c r="J83" s="180"/>
       <c r="K83" s="115"/>
       <c r="L83" s="115"/>
-      <c r="N83" s="154"/>
-      <c r="O83" s="154"/>
-      <c r="P83" s="154"/>
+      <c r="N83" s="180"/>
+      <c r="O83" s="180"/>
+      <c r="P83" s="180"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -11572,18 +11657,18 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="154"/>
-      <c r="C90" s="154"/>
+      <c r="B90" s="180"/>
+      <c r="C90" s="180"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="154"/>
-      <c r="I90" s="154"/>
+      <c r="H90" s="180"/>
+      <c r="I90" s="180"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="154"/>
-      <c r="O90" s="154"/>
+      <c r="N90" s="180"/>
+      <c r="O90" s="180"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
@@ -11595,19 +11680,17 @@
     <mergeCell ref="H65:L65"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="H72:I72"/>
-    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N41:R41"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="N3:R3"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N41:R41"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="H90:I90"/>
     <mergeCell ref="N90:O90"/>
@@ -11622,6 +11705,2824 @@
     <mergeCell ref="N50:O50"/>
     <mergeCell ref="N67:O67"/>
     <mergeCell ref="N69:R69"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="B41:C41"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="62" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="63" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" style="63" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="63" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="62" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="63" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="63" customWidth="1"/>
+    <col min="10" max="11" width="11.6640625" style="63" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="63" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="62" customWidth="1"/>
+    <col min="14" max="14" width="11" style="63" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="63" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="63" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="63" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" style="63" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="H1" s="187" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="N1" s="187" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="188"/>
+      <c r="P1" s="188"/>
+      <c r="Q1" s="188"/>
+      <c r="R1" s="188"/>
+    </row>
+    <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B2" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="97"/>
+      <c r="B3" s="193" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="178" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="194" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="193"/>
+      <c r="P3" s="193"/>
+      <c r="Q3" s="193"/>
+      <c r="R3" s="193"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="73">
+        <v>43770</v>
+      </c>
+      <c r="B4" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C4" s="106">
+        <v>0.879</v>
+      </c>
+      <c r="D4" s="75">
+        <f t="shared" ref="D4" si="0">B4*C4</f>
+        <v>91767.6</v>
+      </c>
+      <c r="E4" s="155">
+        <v>47.954022988505749</v>
+      </c>
+      <c r="F4" s="75">
+        <f t="shared" ref="F4" si="1">B4*E4/100</f>
+        <v>50064</v>
+      </c>
+      <c r="G4" s="73">
+        <v>43770</v>
+      </c>
+      <c r="H4" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I4" s="154">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J4" s="75">
+        <f t="shared" ref="J4" si="2">H4*I4</f>
+        <v>99388.800000000003</v>
+      </c>
+      <c r="K4" s="155">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L4" s="75">
+        <f t="shared" ref="L4" si="3">H4*K4/100</f>
+        <v>94770</v>
+      </c>
+      <c r="M4" s="73">
+        <v>43770</v>
+      </c>
+      <c r="N4" s="159">
+        <v>77040</v>
+      </c>
+      <c r="O4" s="154">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P4" s="75">
+        <f t="shared" ref="P4" si="4">N4*O4</f>
+        <v>74651.759999999995</v>
+      </c>
+      <c r="Q4" s="155">
+        <v>87.009345794392516</v>
+      </c>
+      <c r="R4" s="75">
+        <f t="shared" ref="R4" si="5">N4*Q4/100</f>
+        <v>67031.999999999985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C5" s="106">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="D5" s="75">
+        <f t="shared" ref="D5:D23" si="6">B5*C5</f>
+        <v>101163.59999999999</v>
+      </c>
+      <c r="E5" s="155">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="F5" s="75">
+        <f t="shared" ref="F5:F23" si="7">B5*E5/100</f>
+        <v>97744</v>
+      </c>
+      <c r="H5" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I5" s="154">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J5" s="75">
+        <f t="shared" ref="J5:J17" si="8">H5*I5</f>
+        <v>98985.599999999991</v>
+      </c>
+      <c r="K5" s="155">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L5" s="75">
+        <f t="shared" ref="L5:L17" si="9">H5*K5/100</f>
+        <v>94770</v>
+      </c>
+      <c r="N5" s="195">
+        <v>77040</v>
+      </c>
+      <c r="O5" s="154">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="P5" s="75">
+        <f t="shared" ref="P5:P11" si="10">N5*O5</f>
+        <v>74189.52</v>
+      </c>
+      <c r="Q5" s="155">
+        <v>89.299065420560751</v>
+      </c>
+      <c r="R5" s="75">
+        <f t="shared" ref="R5:R11" si="11">N5*Q5/100</f>
+        <v>68796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="73">
+        <v>43771</v>
+      </c>
+      <c r="B6" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C6" s="106">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D6" s="75">
+        <f t="shared" si="6"/>
+        <v>102416.4</v>
+      </c>
+      <c r="E6" s="155">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="F6" s="75">
+        <f t="shared" si="7"/>
+        <v>97744</v>
+      </c>
+      <c r="G6" s="73">
+        <v>43771</v>
+      </c>
+      <c r="H6" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I6" s="154">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J6" s="75">
+        <f t="shared" si="8"/>
+        <v>99187.199999999997</v>
+      </c>
+      <c r="K6" s="155">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L6" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="M6" s="73">
+        <v>43771</v>
+      </c>
+      <c r="N6" s="93">
+        <v>77040</v>
+      </c>
+      <c r="O6" s="154">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="P6" s="75">
+        <f t="shared" si="10"/>
+        <v>75114</v>
+      </c>
+      <c r="Q6" s="155">
+        <v>91.588785046728972</v>
+      </c>
+      <c r="R6" s="75">
+        <f t="shared" si="11"/>
+        <v>70560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C7" s="106">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D7" s="75">
+        <f t="shared" si="6"/>
+        <v>101476.8</v>
+      </c>
+      <c r="E7" s="155">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="F7" s="75">
+        <f t="shared" si="7"/>
+        <v>97744</v>
+      </c>
+      <c r="H7" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I7" s="154">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J7" s="75">
+        <f t="shared" si="8"/>
+        <v>99388.800000000003</v>
+      </c>
+      <c r="K7" s="155">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L7" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N7" s="93">
+        <v>77040</v>
+      </c>
+      <c r="O7" s="154">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="P7" s="75">
+        <f t="shared" si="10"/>
+        <v>75036.959999999992</v>
+      </c>
+      <c r="Q7" s="155">
+        <v>89.299065420560751</v>
+      </c>
+      <c r="R7" s="75">
+        <f t="shared" si="11"/>
+        <v>68796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="73">
+        <v>43772</v>
+      </c>
+      <c r="B8" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C8" s="106">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D8" s="75">
+        <f t="shared" si="6"/>
+        <v>101685.59999999999</v>
+      </c>
+      <c r="E8" s="155">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="F8" s="75">
+        <f t="shared" si="7"/>
+        <v>97744</v>
+      </c>
+      <c r="G8" s="73">
+        <v>43772</v>
+      </c>
+      <c r="H8" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I8" s="154">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="J8" s="75">
+        <f t="shared" si="8"/>
+        <v>98179.199999999997</v>
+      </c>
+      <c r="K8" s="155">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L8" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="M8" s="73">
+        <v>43772</v>
+      </c>
+      <c r="N8" s="93">
+        <v>77760</v>
+      </c>
+      <c r="O8" s="154">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="P8" s="75">
+        <f t="shared" si="10"/>
+        <v>75971.520000000004</v>
+      </c>
+      <c r="Q8" s="155">
+        <v>88.472222222222214</v>
+      </c>
+      <c r="R8" s="75">
+        <f t="shared" si="11"/>
+        <v>68795.999999999985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C9" s="106">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D9" s="75">
+        <f t="shared" si="6"/>
+        <v>103669.2</v>
+      </c>
+      <c r="E9" s="155">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="F9" s="75">
+        <f t="shared" si="7"/>
+        <v>97744</v>
+      </c>
+      <c r="H9" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I9" s="154">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J9" s="75">
+        <f t="shared" si="8"/>
+        <v>99288</v>
+      </c>
+      <c r="K9" s="155">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L9" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N9" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O9" s="154">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="P9" s="75">
+        <f t="shared" si="10"/>
+        <v>76596.479999999996</v>
+      </c>
+      <c r="Q9" s="155">
+        <v>87.660550458715591</v>
+      </c>
+      <c r="R9" s="75">
+        <f t="shared" si="11"/>
+        <v>68796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="73">
+        <v>43773</v>
+      </c>
+      <c r="B10" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C10" s="106">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D10" s="75">
+        <f t="shared" si="6"/>
+        <v>102729.59999999999</v>
+      </c>
+      <c r="E10" s="155">
+        <v>95.908045977011497</v>
+      </c>
+      <c r="F10" s="75">
+        <f t="shared" si="7"/>
+        <v>100128</v>
+      </c>
+      <c r="G10" s="73">
+        <v>43773</v>
+      </c>
+      <c r="H10" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I10" s="154">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="J10" s="75">
+        <f t="shared" si="8"/>
+        <v>98078.399999999994</v>
+      </c>
+      <c r="K10" s="155">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L10" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="M10" s="73">
+        <v>43773</v>
+      </c>
+      <c r="N10" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O10" s="154">
+        <v>0.97</v>
+      </c>
+      <c r="P10" s="75">
+        <f t="shared" si="10"/>
+        <v>76125.599999999991</v>
+      </c>
+      <c r="Q10" s="155">
+        <v>94.403669724770651</v>
+      </c>
+      <c r="R10" s="75">
+        <f t="shared" si="11"/>
+        <v>74088.000000000015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="111"/>
+      <c r="B11" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C11" s="106">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D11" s="75">
+        <f t="shared" si="6"/>
+        <v>102625.2</v>
+      </c>
+      <c r="E11" s="155">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="F11" s="75">
+        <f t="shared" si="7"/>
+        <v>97744</v>
+      </c>
+      <c r="G11" s="76"/>
+      <c r="H11" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I11" s="154">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="J11" s="75">
+        <f t="shared" si="8"/>
+        <v>99489.600000000006</v>
+      </c>
+      <c r="K11" s="155">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L11" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="M11" s="111"/>
+      <c r="N11" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O11" s="154">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="P11" s="75">
+        <f t="shared" si="10"/>
+        <v>77067.360000000001</v>
+      </c>
+      <c r="Q11" s="155">
+        <v>92.155963302752298</v>
+      </c>
+      <c r="R11" s="75">
+        <f t="shared" si="11"/>
+        <v>72324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="158">
+        <v>43774</v>
+      </c>
+      <c r="B12" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C12" s="106">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="D12" s="75">
+        <f t="shared" si="6"/>
+        <v>100537.2</v>
+      </c>
+      <c r="E12" s="155">
+        <v>89.05747126436782</v>
+      </c>
+      <c r="F12" s="75">
+        <f t="shared" si="7"/>
+        <v>92976</v>
+      </c>
+      <c r="G12" s="78">
+        <v>43774</v>
+      </c>
+      <c r="H12" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I12" s="154">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J12" s="75">
+        <f t="shared" si="8"/>
+        <v>97574.399999999994</v>
+      </c>
+      <c r="K12" s="155">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L12" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N12" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="185"/>
+      <c r="P12" s="89">
+        <f>SUM(P4:P11)</f>
+        <v>604753.19999999995</v>
+      </c>
+      <c r="Q12" s="141">
+        <f>R12/P12</f>
+        <v>0.92465488400888174</v>
+      </c>
+      <c r="R12" s="89">
+        <f>SUM(R4:R11)</f>
+        <v>559188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C13" s="106">
+        <v>0.97</v>
+      </c>
+      <c r="D13" s="75">
+        <f t="shared" si="6"/>
+        <v>101268</v>
+      </c>
+      <c r="E13" s="155">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="F13" s="75">
+        <f t="shared" si="7"/>
+        <v>97744</v>
+      </c>
+      <c r="H13" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I13" s="154">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J13" s="75">
+        <f t="shared" si="8"/>
+        <v>99187.199999999997</v>
+      </c>
+      <c r="K13" s="155">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L13" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N13" s="93"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="75"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="73">
+        <v>43775</v>
+      </c>
+      <c r="B14" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C14" s="106">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="D14" s="75">
+        <f t="shared" si="6"/>
+        <v>100954.8</v>
+      </c>
+      <c r="E14" s="155">
+        <v>95.908045977011497</v>
+      </c>
+      <c r="F14" s="75">
+        <f t="shared" si="7"/>
+        <v>100128</v>
+      </c>
+      <c r="G14" s="73">
+        <v>43775</v>
+      </c>
+      <c r="H14" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I14" s="154">
+        <v>0.99</v>
+      </c>
+      <c r="J14" s="75">
+        <f t="shared" si="8"/>
+        <v>99792</v>
+      </c>
+      <c r="K14" s="155">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L14" s="75">
+        <f t="shared" si="9"/>
+        <v>98415</v>
+      </c>
+      <c r="N14" s="194" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="193"/>
+      <c r="P14" s="193"/>
+      <c r="Q14" s="193"/>
+      <c r="R14" s="193"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C15" s="106">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D15" s="75">
+        <f t="shared" si="6"/>
+        <v>101581.2</v>
+      </c>
+      <c r="E15" s="155">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="F15" s="75">
+        <f t="shared" si="7"/>
+        <v>97744</v>
+      </c>
+      <c r="H15" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I15" s="154">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J15" s="75">
+        <f t="shared" si="8"/>
+        <v>98884.800000000003</v>
+      </c>
+      <c r="K15" s="155">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L15" s="75">
+        <f t="shared" si="9"/>
+        <v>98415</v>
+      </c>
+      <c r="M15" s="78">
+        <v>43774</v>
+      </c>
+      <c r="N15" s="159">
+        <v>84960</v>
+      </c>
+      <c r="O15" s="154">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P15" s="75">
+        <f t="shared" ref="P15" si="12">N15*O15</f>
+        <v>82326.239999999991</v>
+      </c>
+      <c r="Q15" s="155">
+        <v>87.009345794392516</v>
+      </c>
+      <c r="R15" s="75">
+        <f t="shared" ref="R15" si="13">N15*Q15/100</f>
+        <v>73923.140186915887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="73">
+        <v>43776</v>
+      </c>
+      <c r="B16" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C16" s="106">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D16" s="75">
+        <f t="shared" si="6"/>
+        <v>101790</v>
+      </c>
+      <c r="E16" s="155">
+        <v>95.908045977011497</v>
+      </c>
+      <c r="F16" s="75">
+        <f t="shared" si="7"/>
+        <v>100128</v>
+      </c>
+      <c r="G16" s="73">
+        <v>43776</v>
+      </c>
+      <c r="H16" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I16" s="154">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J16" s="75">
+        <f t="shared" si="8"/>
+        <v>98985.599999999991</v>
+      </c>
+      <c r="K16" s="155">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L16" s="75">
+        <f t="shared" si="9"/>
+        <v>98415</v>
+      </c>
+      <c r="N16" s="159">
+        <v>84960</v>
+      </c>
+      <c r="O16" s="154">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P16" s="75">
+        <f t="shared" ref="P16:P22" si="14">N16*O16</f>
+        <v>82326.239999999991</v>
+      </c>
+      <c r="Q16" s="155">
+        <v>87.009345794392516</v>
+      </c>
+      <c r="R16" s="75">
+        <f t="shared" ref="R16:R22" si="15">N16*Q16/100</f>
+        <v>73923.140186915887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C17" s="106">
+        <v>0.97</v>
+      </c>
+      <c r="D17" s="75">
+        <f t="shared" si="6"/>
+        <v>101268</v>
+      </c>
+      <c r="E17" s="155">
+        <v>91.340996168582379</v>
+      </c>
+      <c r="F17" s="75">
+        <f t="shared" si="7"/>
+        <v>95360</v>
+      </c>
+      <c r="H17" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I17" s="154">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J17" s="75">
+        <f t="shared" si="8"/>
+        <v>98985.599999999991</v>
+      </c>
+      <c r="K17" s="155">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L17" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="M17" s="73">
+        <v>43775</v>
+      </c>
+      <c r="N17" s="159">
+        <v>84960</v>
+      </c>
+      <c r="O17" s="154">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P17" s="75">
+        <f t="shared" si="14"/>
+        <v>82326.239999999991</v>
+      </c>
+      <c r="Q17" s="155">
+        <v>87.009345794392516</v>
+      </c>
+      <c r="R17" s="75">
+        <f t="shared" si="15"/>
+        <v>73923.140186915887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="73">
+        <v>43777</v>
+      </c>
+      <c r="B18" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C18" s="106">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D18" s="75">
+        <f t="shared" si="6"/>
+        <v>101476.8</v>
+      </c>
+      <c r="E18" s="155">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="F18" s="75">
+        <f t="shared" si="7"/>
+        <v>97744</v>
+      </c>
+      <c r="H18" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="185"/>
+      <c r="J18" s="89">
+        <f>SUM(J4:J17)</f>
+        <v>1385395.2000000002</v>
+      </c>
+      <c r="K18" s="141">
+        <f>L18/J18</f>
+        <v>0.96558368326958244</v>
+      </c>
+      <c r="L18" s="89">
+        <f>SUM(L4:L17)</f>
+        <v>1337715</v>
+      </c>
+      <c r="N18" s="159">
+        <v>84960</v>
+      </c>
+      <c r="O18" s="154">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P18" s="75">
+        <f t="shared" si="14"/>
+        <v>82326.239999999991</v>
+      </c>
+      <c r="Q18" s="155">
+        <v>87.009345794392516</v>
+      </c>
+      <c r="R18" s="75">
+        <f t="shared" si="15"/>
+        <v>73923.140186915887</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C19" s="106">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="D19" s="75">
+        <f t="shared" si="6"/>
+        <v>100328.4</v>
+      </c>
+      <c r="E19" s="155">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="F19" s="75">
+        <f t="shared" si="7"/>
+        <v>97744</v>
+      </c>
+      <c r="H19" s="75"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="73">
+        <v>43776</v>
+      </c>
+      <c r="N19" s="159">
+        <v>84960</v>
+      </c>
+      <c r="O19" s="154">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P19" s="75">
+        <f t="shared" si="14"/>
+        <v>82326.239999999991</v>
+      </c>
+      <c r="Q19" s="155">
+        <v>87.009345794392516</v>
+      </c>
+      <c r="R19" s="75">
+        <f t="shared" si="15"/>
+        <v>73923.140186915887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="73">
+        <v>43778</v>
+      </c>
+      <c r="B20" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C20" s="106">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D20" s="75">
+        <f t="shared" si="6"/>
+        <v>103460.4</v>
+      </c>
+      <c r="E20" s="155">
+        <v>93.624521072796938</v>
+      </c>
+      <c r="F20" s="75">
+        <f t="shared" si="7"/>
+        <v>97744</v>
+      </c>
+      <c r="G20" s="96"/>
+      <c r="H20" s="178" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="179"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="179"/>
+      <c r="N20" s="159">
+        <v>84960</v>
+      </c>
+      <c r="O20" s="154">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P20" s="75">
+        <f t="shared" si="14"/>
+        <v>82326.239999999991</v>
+      </c>
+      <c r="Q20" s="155">
+        <v>87.009345794392516</v>
+      </c>
+      <c r="R20" s="75">
+        <f t="shared" si="15"/>
+        <v>73923.140186915887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C21" s="106">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="D21" s="75">
+        <f t="shared" si="6"/>
+        <v>101059.2</v>
+      </c>
+      <c r="E21" s="155">
+        <v>95.908045977011497</v>
+      </c>
+      <c r="F21" s="75">
+        <f t="shared" si="7"/>
+        <v>100128</v>
+      </c>
+      <c r="G21" s="73">
+        <v>43777</v>
+      </c>
+      <c r="H21" s="74">
+        <v>104400</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="J21" s="75">
+        <f t="shared" ref="J21" si="16">H21*I21</f>
+        <v>92498.4</v>
+      </c>
+      <c r="K21" s="87">
+        <v>46.110153256704983</v>
+      </c>
+      <c r="L21" s="75">
+        <f t="shared" ref="L21" si="17">H21*K21/100</f>
+        <v>48139</v>
+      </c>
+      <c r="M21" s="73">
+        <v>43777</v>
+      </c>
+      <c r="N21" s="159">
+        <v>84960</v>
+      </c>
+      <c r="O21" s="154">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P21" s="75">
+        <f t="shared" si="14"/>
+        <v>82326.239999999991</v>
+      </c>
+      <c r="Q21" s="155">
+        <v>87.009345794392516</v>
+      </c>
+      <c r="R21" s="75">
+        <f t="shared" si="15"/>
+        <v>73923.140186915887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="73">
+        <v>43779</v>
+      </c>
+      <c r="B22" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C22" s="106">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D22" s="75">
+        <f t="shared" si="6"/>
+        <v>103460.4</v>
+      </c>
+      <c r="E22" s="155">
+        <v>95.908045977011497</v>
+      </c>
+      <c r="F22" s="75">
+        <f t="shared" si="7"/>
+        <v>100128</v>
+      </c>
+      <c r="H22" s="74">
+        <v>104400</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="J22" s="75">
+        <f t="shared" ref="J22:J30" si="18">H22*I22</f>
+        <v>100119.59999999999</v>
+      </c>
+      <c r="K22" s="87">
+        <v>88.673371647509583</v>
+      </c>
+      <c r="L22" s="75">
+        <f t="shared" ref="L22:L30" si="19">H22*K22/100</f>
+        <v>92575</v>
+      </c>
+      <c r="N22" s="159">
+        <v>84960</v>
+      </c>
+      <c r="O22" s="154">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P22" s="75">
+        <f t="shared" si="14"/>
+        <v>82326.239999999991</v>
+      </c>
+      <c r="Q22" s="155">
+        <v>87.009345794392516</v>
+      </c>
+      <c r="R22" s="75">
+        <f t="shared" si="15"/>
+        <v>73923.140186915887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C23" s="106">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="D23" s="75">
+        <f t="shared" si="6"/>
+        <v>100746</v>
+      </c>
+      <c r="E23" s="155">
+        <v>95.908045977011497</v>
+      </c>
+      <c r="F23" s="75">
+        <f t="shared" si="7"/>
+        <v>100128</v>
+      </c>
+      <c r="G23" s="73">
+        <v>43778</v>
+      </c>
+      <c r="H23" s="74">
+        <v>104400</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J23" s="75">
+        <f t="shared" si="18"/>
+        <v>102625.2</v>
+      </c>
+      <c r="K23" s="87">
+        <v>92.220306513409966</v>
+      </c>
+      <c r="L23" s="75">
+        <f t="shared" si="19"/>
+        <v>96278</v>
+      </c>
+      <c r="N23" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="185"/>
+      <c r="P23" s="89">
+        <f>SUM(P15:P22)</f>
+        <v>658609.91999999993</v>
+      </c>
+      <c r="Q23" s="141">
+        <f>R23/P23</f>
+        <v>0.89792926516400962</v>
+      </c>
+      <c r="R23" s="89">
+        <f>SUM(R15:R22)</f>
+        <v>591385.1214953271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="185"/>
+      <c r="D24" s="135">
+        <f>SUM(D4:D23)</f>
+        <v>2025464.3999999994</v>
+      </c>
+      <c r="E24" s="122">
+        <f>F24/D24</f>
+        <v>0.94514225972078336</v>
+      </c>
+      <c r="F24" s="89">
+        <f>SUM(F4:F23)</f>
+        <v>1914352</v>
+      </c>
+      <c r="H24" s="74">
+        <v>104400</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="J24" s="75">
+        <f t="shared" si="18"/>
+        <v>99910.8</v>
+      </c>
+      <c r="K24" s="87">
+        <v>92.220306513409966</v>
+      </c>
+      <c r="L24" s="75">
+        <f t="shared" si="19"/>
+        <v>96278</v>
+      </c>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="150"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="151"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="93"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="73">
+        <v>43779</v>
+      </c>
+      <c r="H25" s="74">
+        <v>104400</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J25" s="75">
+        <f t="shared" si="18"/>
+        <v>102625.2</v>
+      </c>
+      <c r="K25" s="87">
+        <v>92.220306513409966</v>
+      </c>
+      <c r="L25" s="75">
+        <f t="shared" si="19"/>
+        <v>96278</v>
+      </c>
+      <c r="N25" s="194" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="193"/>
+      <c r="P25" s="193"/>
+      <c r="Q25" s="193"/>
+      <c r="R25" s="193"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="193" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="193"/>
+      <c r="D26" s="193"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="H26" s="74">
+        <v>104400</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="J26" s="75">
+        <f t="shared" si="18"/>
+        <v>99493.2</v>
+      </c>
+      <c r="K26" s="87">
+        <v>92.220306513409966</v>
+      </c>
+      <c r="L26" s="75">
+        <f t="shared" si="19"/>
+        <v>96278</v>
+      </c>
+      <c r="M26" s="73">
+        <v>43778</v>
+      </c>
+      <c r="N26" s="93">
+        <v>81720</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="P26" s="75">
+        <f t="shared" ref="P26" si="20">N26*O26</f>
+        <v>68031.899999999994</v>
+      </c>
+      <c r="Q26" s="87">
+        <v>65.602055800293684</v>
+      </c>
+      <c r="R26" s="75">
+        <f t="shared" ref="R26" si="21">N26*Q26/100</f>
+        <v>53610</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73">
+        <v>43780</v>
+      </c>
+      <c r="B27" s="159">
+        <v>104400</v>
+      </c>
+      <c r="C27" s="106">
+        <v>0.879</v>
+      </c>
+      <c r="D27" s="75">
+        <f t="shared" ref="D27" si="22">B27*C27</f>
+        <v>91767.6</v>
+      </c>
+      <c r="E27" s="155">
+        <v>47.954022988505749</v>
+      </c>
+      <c r="F27" s="75">
+        <f t="shared" ref="F27" si="23">B27*E27/100</f>
+        <v>50064</v>
+      </c>
+      <c r="G27" s="73">
+        <v>43780</v>
+      </c>
+      <c r="H27" s="74">
+        <v>104400</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="J27" s="75">
+        <f t="shared" si="18"/>
+        <v>99910.8</v>
+      </c>
+      <c r="K27" s="87">
+        <v>92.220306513409966</v>
+      </c>
+      <c r="L27" s="75">
+        <f t="shared" si="19"/>
+        <v>96278</v>
+      </c>
+      <c r="N27" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="P27" s="75">
+        <f t="shared" ref="P27:P31" si="24">N27*O27</f>
+        <v>75419.28</v>
+      </c>
+      <c r="Q27" s="87">
+        <v>90.275229357798167</v>
+      </c>
+      <c r="R27" s="75">
+        <f t="shared" ref="R27:R31" si="25">N27*Q27/100</f>
+        <v>70848</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="93"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="75"/>
+      <c r="H28" s="74">
+        <v>104400</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="J28" s="75">
+        <f t="shared" si="18"/>
+        <v>102312</v>
+      </c>
+      <c r="K28" s="87">
+        <v>92.220306513409966</v>
+      </c>
+      <c r="L28" s="75">
+        <f t="shared" si="19"/>
+        <v>96278</v>
+      </c>
+      <c r="M28" s="73">
+        <v>43779</v>
+      </c>
+      <c r="N28" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="P28" s="75">
+        <f t="shared" si="24"/>
+        <v>77538.240000000005</v>
+      </c>
+      <c r="Q28" s="87">
+        <v>99.082568807339456</v>
+      </c>
+      <c r="R28" s="75">
+        <f t="shared" si="25"/>
+        <v>77760.000000000015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="73">
+        <v>43781</v>
+      </c>
+      <c r="B29" s="93"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="73">
+        <v>43781</v>
+      </c>
+      <c r="H29" s="74">
+        <v>104400</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="J29" s="75">
+        <f t="shared" si="18"/>
+        <v>101372.4</v>
+      </c>
+      <c r="K29" s="87">
+        <v>92.220306513409966</v>
+      </c>
+      <c r="L29" s="75">
+        <f t="shared" si="19"/>
+        <v>96278</v>
+      </c>
+      <c r="N29" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="P29" s="75">
+        <f t="shared" si="24"/>
+        <v>76439.520000000004</v>
+      </c>
+      <c r="Q29" s="87">
+        <v>94.678899082568819</v>
+      </c>
+      <c r="R29" s="75">
+        <f t="shared" si="25"/>
+        <v>74304.000000000015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="93"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="75"/>
+      <c r="H30" s="74">
+        <v>104400</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="J30" s="75">
+        <f t="shared" si="18"/>
+        <v>104295.6</v>
+      </c>
+      <c r="K30" s="87">
+        <v>99.314176245210732</v>
+      </c>
+      <c r="L30" s="75">
+        <f t="shared" si="19"/>
+        <v>103684</v>
+      </c>
+      <c r="M30" s="73">
+        <v>43780</v>
+      </c>
+      <c r="N30" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="P30" s="75">
+        <f t="shared" si="24"/>
+        <v>77381.279999999999</v>
+      </c>
+      <c r="Q30" s="87">
+        <v>96.88073394495413</v>
+      </c>
+      <c r="R30" s="75">
+        <f t="shared" si="25"/>
+        <v>76032</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="73">
+        <v>43782</v>
+      </c>
+      <c r="B31" s="93"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="75"/>
+      <c r="H31" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="185"/>
+      <c r="J31" s="89">
+        <f>SUM(J21:J30)</f>
+        <v>1005163.2000000001</v>
+      </c>
+      <c r="K31" s="141">
+        <f>L31/J31</f>
+        <v>0.91362676230088802</v>
+      </c>
+      <c r="L31" s="89">
+        <f>SUM(L21:L30)</f>
+        <v>918344</v>
+      </c>
+      <c r="N31" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="P31" s="75">
+        <f t="shared" si="24"/>
+        <v>78401.52</v>
+      </c>
+      <c r="Q31" s="87">
+        <v>96.88073394495413</v>
+      </c>
+      <c r="R31" s="75">
+        <f t="shared" si="25"/>
+        <v>76032</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="93"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="75"/>
+      <c r="N32" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" s="185"/>
+      <c r="P32" s="89">
+        <f>SUM(P26:P31)</f>
+        <v>453211.74</v>
+      </c>
+      <c r="Q32" s="141">
+        <f>R32/P32</f>
+        <v>0.94566394065608272</v>
+      </c>
+      <c r="R32" s="89">
+        <f>SUM(R26:R31)</f>
+        <v>428586</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="73">
+        <v>43783</v>
+      </c>
+      <c r="B33" s="93"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="75"/>
+      <c r="H33" s="178" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="179"/>
+      <c r="J33" s="179"/>
+      <c r="K33" s="179"/>
+      <c r="L33" s="179"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="75"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="93"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="73">
+        <v>43782</v>
+      </c>
+      <c r="H34" s="74">
+        <v>144000</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="J34" s="75">
+        <f t="shared" ref="J34" si="26">H34*I34</f>
+        <v>106704</v>
+      </c>
+      <c r="K34" s="87">
+        <v>38.722222222222221</v>
+      </c>
+      <c r="L34" s="75">
+        <f t="shared" ref="L34" si="27">H34*K34/100</f>
+        <v>55760</v>
+      </c>
+      <c r="N34" s="194" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" s="193"/>
+      <c r="P34" s="193"/>
+      <c r="Q34" s="193"/>
+      <c r="R34" s="193"/>
+    </row>
+    <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="73">
+        <v>43784</v>
+      </c>
+      <c r="B35" s="93"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="73">
+        <v>43781</v>
+      </c>
+      <c r="N35" s="93">
+        <v>81720</v>
+      </c>
+      <c r="O35" s="10">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="P35" s="75">
+        <f t="shared" ref="P35" si="28">N35*O35</f>
+        <v>68031.899999999994</v>
+      </c>
+      <c r="Q35" s="87">
+        <v>65.602055800293684</v>
+      </c>
+      <c r="R35" s="75">
+        <f t="shared" ref="R35" si="29">N35*Q35/100</f>
+        <v>53610</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="93"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="73">
+        <v>43783</v>
+      </c>
+      <c r="H36" s="75"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="75"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="75"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="73">
+        <v>43785</v>
+      </c>
+      <c r="B37" s="93"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="73">
+        <v>43782</v>
+      </c>
+      <c r="N37" s="93"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="75"/>
+    </row>
+    <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="93"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="73">
+        <v>43784</v>
+      </c>
+      <c r="H38" s="75"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="75"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="75"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="73">
+        <v>43786</v>
+      </c>
+      <c r="B39" s="93"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="73">
+        <v>43783</v>
+      </c>
+      <c r="N39" s="152"/>
+      <c r="O39" s="152"/>
+      <c r="P39" s="150"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="151"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="93"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="73">
+        <v>43785</v>
+      </c>
+      <c r="H40" s="75"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="75"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="75"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="145"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="60"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="73">
+        <v>43784</v>
+      </c>
+      <c r="N41" s="144"/>
+      <c r="O41" s="110"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="110"/>
+      <c r="R41" s="110"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="75"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="73">
+        <v>43786</v>
+      </c>
+      <c r="H42" s="75"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="75"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="75"/>
+    </row>
+    <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="144"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="148"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="73">
+        <v>43785</v>
+      </c>
+      <c r="N43" s="93"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="75"/>
+      <c r="Q43" s="87"/>
+      <c r="R43" s="75"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="73">
+        <v>43787</v>
+      </c>
+      <c r="B44" s="93"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="73">
+        <v>43787</v>
+      </c>
+      <c r="H44" s="74"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="75"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="75"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="93"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="75"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="73">
+        <v>43786</v>
+      </c>
+      <c r="N45" s="93"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="75"/>
+      <c r="Q45" s="87"/>
+      <c r="R45" s="75"/>
+    </row>
+    <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="73">
+        <v>43788</v>
+      </c>
+      <c r="B46" s="93"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="73">
+        <v>43788</v>
+      </c>
+      <c r="H46" s="74"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="75"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="75"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="75"/>
+    </row>
+    <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="93"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="155"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="73">
+        <v>43787</v>
+      </c>
+      <c r="N47" s="93"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="75"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="75"/>
+    </row>
+    <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="73">
+        <v>43789</v>
+      </c>
+      <c r="B48" s="93"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="73">
+        <v>43789</v>
+      </c>
+      <c r="H48" s="75"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="155"/>
+      <c r="L48" s="75"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="75"/>
+      <c r="Q48" s="87"/>
+      <c r="R48" s="75"/>
+    </row>
+    <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="93"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="155"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="73">
+        <v>43788</v>
+      </c>
+      <c r="N49" s="93"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="75"/>
+      <c r="Q49" s="87"/>
+      <c r="R49" s="75"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="73">
+        <v>43790</v>
+      </c>
+      <c r="B50" s="93"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="73">
+        <v>43790</v>
+      </c>
+      <c r="H50" s="75"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="155"/>
+      <c r="L50" s="75"/>
+      <c r="N50" s="152"/>
+      <c r="O50" s="152"/>
+      <c r="P50" s="150"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="151"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B51" s="93"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="155"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="73">
+        <v>43789</v>
+      </c>
+      <c r="N51" s="93"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="75"/>
+      <c r="Q51" s="87"/>
+      <c r="R51" s="75"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="73">
+        <v>43791</v>
+      </c>
+      <c r="B52" s="93"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="73">
+        <v>43791</v>
+      </c>
+      <c r="H52" s="75"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="155"/>
+      <c r="L52" s="75"/>
+      <c r="N52" s="144"/>
+      <c r="O52" s="110"/>
+      <c r="P52" s="110"/>
+      <c r="Q52" s="110"/>
+      <c r="R52" s="110"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B53" s="93"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="154"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="155"/>
+      <c r="L53" s="75"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="87"/>
+      <c r="R53" s="75"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="73">
+        <v>43792</v>
+      </c>
+      <c r="B54" s="93"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="73">
+        <v>43792</v>
+      </c>
+      <c r="H54" s="75"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="155"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="73">
+        <v>43790</v>
+      </c>
+      <c r="N54" s="93"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="75"/>
+      <c r="Q54" s="87"/>
+      <c r="R54" s="75"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B55" s="93"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="75"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="155"/>
+      <c r="L55" s="75"/>
+      <c r="N55" s="93"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="87"/>
+      <c r="R55" s="75"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="73">
+        <v>43793</v>
+      </c>
+      <c r="B56" s="93"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="73">
+        <v>43793</v>
+      </c>
+      <c r="H56" s="75"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="155"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="73">
+        <v>43791</v>
+      </c>
+      <c r="N56" s="93"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="75"/>
+      <c r="Q56" s="87"/>
+      <c r="R56" s="75"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B57" s="93"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="154"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="155"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="73">
+        <v>43792</v>
+      </c>
+      <c r="N57" s="93"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="75"/>
+      <c r="Q57" s="87"/>
+      <c r="R57" s="75"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="73">
+        <v>43794</v>
+      </c>
+      <c r="B58" s="93"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="73">
+        <v>43794</v>
+      </c>
+      <c r="H58" s="75"/>
+      <c r="I58" s="154"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="75"/>
+      <c r="N58" s="93"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="75"/>
+      <c r="Q58" s="87"/>
+      <c r="R58" s="75"/>
+    </row>
+    <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="93"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="154"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="155"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="73">
+        <v>43793</v>
+      </c>
+      <c r="N59" s="93"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="75"/>
+      <c r="Q59" s="87"/>
+      <c r="R59" s="75"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="73">
+        <v>43795</v>
+      </c>
+      <c r="B60" s="93"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="73">
+        <v>43795</v>
+      </c>
+      <c r="H60" s="75"/>
+      <c r="I60" s="154"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="155"/>
+      <c r="L60" s="75"/>
+      <c r="N60" s="93"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="75"/>
+      <c r="Q60" s="87"/>
+      <c r="R60" s="75"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B61" s="93"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="75"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="154"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="155"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="73">
+        <v>43794</v>
+      </c>
+      <c r="N61" s="93"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="75"/>
+      <c r="Q61" s="87"/>
+      <c r="R61" s="75"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="73">
+        <v>43796</v>
+      </c>
+      <c r="B62" s="93"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="73">
+        <v>43796</v>
+      </c>
+      <c r="H62" s="75"/>
+      <c r="I62" s="154"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="155"/>
+      <c r="L62" s="75"/>
+      <c r="N62" s="93"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="75"/>
+      <c r="Q62" s="87"/>
+      <c r="R62" s="75"/>
+    </row>
+    <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="93"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="75"/>
+      <c r="H63" s="156"/>
+      <c r="I63" s="156"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="154"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="73">
+        <v>43795</v>
+      </c>
+      <c r="N63" s="93"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="75"/>
+      <c r="Q63" s="87"/>
+      <c r="R63" s="75"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="73">
+        <v>43797</v>
+      </c>
+      <c r="B64" s="93"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="73">
+        <v>43797</v>
+      </c>
+      <c r="H64" s="75"/>
+      <c r="I64" s="154"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="155"/>
+      <c r="L64" s="75"/>
+      <c r="N64" s="93"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="75"/>
+      <c r="Q64" s="87"/>
+      <c r="R64" s="75"/>
+    </row>
+    <row r="65" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="93"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="75"/>
+      <c r="H65" s="157"/>
+      <c r="I65" s="157"/>
+      <c r="J65" s="157"/>
+      <c r="K65" s="157"/>
+      <c r="L65" s="157"/>
+      <c r="M65" s="73">
+        <v>43796</v>
+      </c>
+      <c r="N65" s="93"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="75"/>
+      <c r="Q65" s="87"/>
+      <c r="R65" s="75"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="73">
+        <v>43798</v>
+      </c>
+      <c r="B66" s="93"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="73">
+        <v>43798</v>
+      </c>
+      <c r="H66" s="75"/>
+      <c r="I66" s="154"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="155"/>
+      <c r="L66" s="75"/>
+      <c r="N66" s="93"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="75"/>
+      <c r="Q66" s="87"/>
+      <c r="R66" s="75"/>
+    </row>
+    <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="93"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="154"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="155"/>
+      <c r="L67" s="75"/>
+      <c r="N67" s="152"/>
+      <c r="O67" s="152"/>
+      <c r="P67" s="150"/>
+      <c r="Q67" s="95"/>
+      <c r="R67" s="151"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B68" s="145"/>
+      <c r="C68" s="146"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="147"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="73">
+        <v>43799</v>
+      </c>
+      <c r="H68" s="75"/>
+      <c r="I68" s="154"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="155"/>
+      <c r="L68" s="75"/>
+      <c r="N68" s="93"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="75"/>
+      <c r="Q68" s="87"/>
+      <c r="R68" s="75"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B69" s="93"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="75"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="154"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="155"/>
+      <c r="L69" s="75"/>
+      <c r="N69" s="153"/>
+      <c r="O69" s="91"/>
+      <c r="P69" s="91"/>
+      <c r="Q69" s="91"/>
+      <c r="R69" s="91"/>
+    </row>
+    <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="144"/>
+      <c r="C70" s="110"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="148"/>
+      <c r="G70" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="75"/>
+      <c r="I70" s="154"/>
+      <c r="J70" s="75"/>
+      <c r="K70" s="155"/>
+      <c r="L70" s="75"/>
+      <c r="M70" s="73">
+        <v>43797</v>
+      </c>
+      <c r="N70" s="93"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="60"/>
+      <c r="Q70" s="87"/>
+      <c r="R70" s="60"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="73">
+        <v>43799</v>
+      </c>
+      <c r="B71" s="93"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="75"/>
+      <c r="H71" s="75"/>
+      <c r="I71" s="154"/>
+      <c r="J71" s="75"/>
+      <c r="K71" s="155"/>
+      <c r="L71" s="75"/>
+      <c r="N71" s="93"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="60"/>
+      <c r="Q71" s="87"/>
+      <c r="R71" s="60"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B72" s="93"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="75"/>
+      <c r="H72" s="156"/>
+      <c r="I72" s="156"/>
+      <c r="J72" s="75"/>
+      <c r="K72" s="154"/>
+      <c r="L72" s="75"/>
+      <c r="M72" s="73">
+        <v>43798</v>
+      </c>
+      <c r="N72" s="93"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="60"/>
+      <c r="Q72" s="87"/>
+      <c r="R72" s="60"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="93"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="138"/>
+      <c r="F73" s="75"/>
+      <c r="H73" s="136"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="136"/>
+      <c r="K73" s="136"/>
+      <c r="L73" s="136"/>
+      <c r="N73" s="93"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="60"/>
+      <c r="Q73" s="87"/>
+      <c r="R73" s="60"/>
+    </row>
+    <row r="74" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="93"/>
+      <c r="C74" s="140"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="139"/>
+      <c r="F74" s="75"/>
+      <c r="H74" s="136"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="136"/>
+      <c r="K74" s="136"/>
+      <c r="L74" s="136"/>
+      <c r="M74" s="73">
+        <v>43799</v>
+      </c>
+      <c r="N74" s="93"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="60"/>
+      <c r="Q74" s="87"/>
+      <c r="R74" s="60"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="145"/>
+      <c r="C75" s="146"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="147"/>
+      <c r="F75" s="60"/>
+      <c r="H75" s="136"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="136"/>
+      <c r="K75" s="136"/>
+      <c r="L75" s="136"/>
+      <c r="N75" s="93"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="60"/>
+      <c r="Q75" s="87"/>
+      <c r="R75" s="60"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B76" s="190"/>
+      <c r="C76" s="190"/>
+      <c r="D76" s="136"/>
+      <c r="E76" s="137"/>
+      <c r="F76" s="136"/>
+      <c r="H76" s="136"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="136"/>
+      <c r="K76" s="136"/>
+      <c r="L76" s="136"/>
+      <c r="M76" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="N76" s="93"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="60"/>
+      <c r="Q76" s="138"/>
+      <c r="R76" s="60"/>
+    </row>
+    <row r="77" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="110"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="136"/>
+      <c r="E77" s="136"/>
+      <c r="F77" s="136"/>
+      <c r="H77" s="110"/>
+      <c r="I77" s="110"/>
+      <c r="J77" s="136"/>
+      <c r="K77" s="136"/>
+      <c r="L77" s="136"/>
+      <c r="N77" s="142"/>
+      <c r="O77" s="143"/>
+      <c r="P77" s="60"/>
+      <c r="Q77" s="139"/>
+      <c r="R77" s="60"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B78" s="110"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="136"/>
+      <c r="E78" s="136"/>
+      <c r="F78" s="136"/>
+      <c r="H78" s="110"/>
+      <c r="I78" s="110"/>
+      <c r="J78" s="136"/>
+      <c r="K78" s="136"/>
+      <c r="L78" s="136"/>
+      <c r="N78" s="145"/>
+      <c r="O78" s="146"/>
+      <c r="P78" s="75"/>
+      <c r="Q78" s="149"/>
+      <c r="R78" s="60"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B79" s="110"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="110"/>
+      <c r="E79" s="134"/>
+      <c r="F79" s="134"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="110"/>
+      <c r="J79" s="110"/>
+      <c r="K79" s="134"/>
+      <c r="L79" s="134"/>
+      <c r="N79" s="110"/>
+      <c r="O79" s="110"/>
+      <c r="P79" s="110"/>
+      <c r="Q79" s="111"/>
+      <c r="R79" s="111"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B80" s="136"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="136"/>
+      <c r="E80" s="136"/>
+      <c r="F80" s="136"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="136"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="136"/>
+      <c r="K80" s="136"/>
+      <c r="L80" s="136"/>
+      <c r="N80" s="136"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="136"/>
+      <c r="Q80" s="111"/>
+      <c r="R80" s="111"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B81" s="136"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="136"/>
+      <c r="E81" s="136"/>
+      <c r="F81" s="136"/>
+      <c r="H81" s="136"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="136"/>
+      <c r="K81" s="136"/>
+      <c r="L81" s="136"/>
+      <c r="N81" s="136"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="136"/>
+      <c r="Q81" s="111"/>
+      <c r="R81" s="111"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="136"/>
+      <c r="E82" s="136"/>
+      <c r="F82" s="136"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="110"/>
+      <c r="J82" s="136"/>
+      <c r="K82" s="136"/>
+      <c r="L82" s="136"/>
+      <c r="N82" s="110"/>
+      <c r="O82" s="110"/>
+      <c r="P82" s="136"/>
+      <c r="Q82" s="111"/>
+      <c r="R82" s="111"/>
+    </row>
+    <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="180"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="134"/>
+      <c r="F83" s="134"/>
+      <c r="H83" s="180"/>
+      <c r="I83" s="180"/>
+      <c r="J83" s="180"/>
+      <c r="K83" s="134"/>
+      <c r="L83" s="134"/>
+      <c r="N83" s="180"/>
+      <c r="O83" s="180"/>
+      <c r="P83" s="180"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B84" s="136"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="136"/>
+      <c r="F84" s="136"/>
+      <c r="H84" s="136"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="136"/>
+      <c r="K84" s="136"/>
+      <c r="L84" s="136"/>
+      <c r="N84" s="136"/>
+      <c r="O84" s="56"/>
+      <c r="P84" s="136"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B85" s="136"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="136"/>
+      <c r="E85" s="136"/>
+      <c r="F85" s="136"/>
+      <c r="H85" s="136"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="136"/>
+      <c r="K85" s="136"/>
+      <c r="L85" s="136"/>
+      <c r="N85" s="136"/>
+      <c r="O85" s="56"/>
+      <c r="P85" s="136"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B86" s="136"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="136"/>
+      <c r="E86" s="136"/>
+      <c r="F86" s="136"/>
+      <c r="H86" s="136"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="136"/>
+      <c r="K86" s="136"/>
+      <c r="L86" s="136"/>
+      <c r="N86" s="136"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="136"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B87" s="136"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="136"/>
+      <c r="E87" s="136"/>
+      <c r="F87" s="136"/>
+      <c r="H87" s="136"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="136"/>
+      <c r="K87" s="136"/>
+      <c r="L87" s="136"/>
+      <c r="N87" s="136"/>
+      <c r="O87" s="56"/>
+      <c r="P87" s="136"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="73"/>
+      <c r="B88" s="136"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="136"/>
+      <c r="E88" s="136"/>
+      <c r="F88" s="136"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="136"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="136"/>
+      <c r="K88" s="136"/>
+      <c r="L88" s="136"/>
+      <c r="M88" s="73"/>
+      <c r="N88" s="136"/>
+      <c r="O88" s="56"/>
+      <c r="P88" s="136"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B89" s="136"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="136"/>
+      <c r="E89" s="136"/>
+      <c r="F89" s="136"/>
+      <c r="H89" s="136"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="136"/>
+      <c r="K89" s="136"/>
+      <c r="L89" s="136"/>
+      <c r="N89" s="136"/>
+      <c r="O89" s="56"/>
+      <c r="P89" s="136"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B90" s="180"/>
+      <c r="C90" s="180"/>
+      <c r="D90" s="136"/>
+      <c r="E90" s="136"/>
+      <c r="F90" s="136"/>
+      <c r="H90" s="180"/>
+      <c r="I90" s="180"/>
+      <c r="J90" s="136"/>
+      <c r="K90" s="136"/>
+      <c r="L90" s="136"/>
+      <c r="N90" s="180"/>
+      <c r="O90" s="180"/>
+      <c r="P90" s="136"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="B26:F26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
@@ -24,12 +24,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$R$76</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="43">
   <si>
     <t>% работы</t>
   </si>
@@ -145,7 +144,19 @@
     <t>XXI-КПМ-30-1-500-7 (Каласы 0,5 л.)</t>
   </si>
   <si>
-    <t>ХХI-В-25-500-1 (Беларуская калекцыя)</t>
+    <t>ХХI-В-28-2б-500-1 (Штофф Колоски)</t>
+  </si>
+  <si>
+    <t>ХХI-П-25-500-1 (Беларуская калекцыя)</t>
+  </si>
+  <si>
+    <t>ХХI-В-28-2-500-27 (Евроторг)</t>
+  </si>
+  <si>
+    <t>ХХI-В-28-2.1б-500-3 (Дрозды)</t>
+  </si>
+  <si>
+    <t>ХХI-КПМ-30-1-500-9 (Штофф Земляк)</t>
   </si>
 </sst>
 </file>
@@ -633,7 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1080,13 +1091,43 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1096,15 +1137,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1113,52 +1145,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,25 +1163,43 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1518,21 +1532,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="169" t="s">
+      <c r="C1" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
       <c r="H1" s="51"/>
-      <c r="I1" s="169" t="s">
+      <c r="I1" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
     </row>
     <row r="2" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -1574,22 +1588,22 @@
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="160" t="s">
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="162"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="165"/>
       <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1835,11 +1849,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="162"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="24">
         <f>SUM(E4:E10)</f>
         <v>829712.88</v>
@@ -1860,12 +1874,12 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="166"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="168"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="170"/>
       <c r="H12" s="20"/>
       <c r="I12" s="14"/>
       <c r="J12" s="23"/>
@@ -1878,14 +1892,14 @@
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="172"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="171"/>
       <c r="H13" s="20"/>
       <c r="I13" s="14"/>
       <c r="J13" s="23"/>
@@ -1897,12 +1911,12 @@
       <c r="A14" s="3">
         <v>43439</v>
       </c>
-      <c r="B14" s="163"/>
-      <c r="C14" s="164"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="165"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="175"/>
       <c r="H14" s="20"/>
       <c r="I14" s="14"/>
       <c r="J14" s="23"/>
@@ -1937,9 +1951,9 @@
       <c r="E16" s="11"/>
       <c r="F16" s="38"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="162"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="165"/>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
       <c r="M16" s="24"/>
@@ -1951,9 +1965,9 @@
       <c r="E17" s="11"/>
       <c r="F17" s="38"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="168"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="170"/>
       <c r="K17" s="11"/>
       <c r="L17" s="33"/>
       <c r="M17" s="11"/>
@@ -1968,12 +1982,12 @@
       <c r="E18" s="11"/>
       <c r="F18" s="38"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="162"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
+      <c r="L18" s="167"/>
+      <c r="M18" s="165"/>
       <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2062,9 +2076,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="160"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="162"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="165"/>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
       <c r="G24" s="24"/>
@@ -2094,12 +2108,12 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="160"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="162"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="165"/>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
       <c r="J26" s="23"/>
@@ -2245,9 +2259,9 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="160"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="162"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
       <c r="G35" s="24"/>
@@ -2277,12 +2291,12 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="160"/>
-      <c r="C37" s="161"/>
-      <c r="D37" s="161"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="162"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="165"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
       <c r="J37" s="23"/>
@@ -2430,9 +2444,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="160"/>
-      <c r="C46" s="161"/>
-      <c r="D46" s="162"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
       <c r="G46" s="24"/>
@@ -2462,12 +2476,12 @@
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="160"/>
-      <c r="C48" s="161"/>
-      <c r="D48" s="161"/>
-      <c r="E48" s="161"/>
-      <c r="F48" s="161"/>
-      <c r="G48" s="162"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="165"/>
       <c r="H48" s="30"/>
       <c r="I48" s="31"/>
       <c r="J48" s="23"/>
@@ -2612,15 +2626,15 @@
       <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="160"/>
-      <c r="C57" s="161"/>
-      <c r="D57" s="162"/>
+      <c r="B57" s="166"/>
+      <c r="C57" s="167"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="24"/>
       <c r="F57" s="25"/>
       <c r="G57" s="24"/>
-      <c r="H57" s="160"/>
-      <c r="I57" s="161"/>
-      <c r="J57" s="162"/>
+      <c r="H57" s="166"/>
+      <c r="I57" s="167"/>
+      <c r="J57" s="165"/>
       <c r="K57" s="24"/>
       <c r="L57" s="25"/>
       <c r="M57" s="24"/>
@@ -2640,12 +2654,12 @@
       <c r="M58" s="11"/>
     </row>
     <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="160"/>
-      <c r="C59" s="161"/>
-      <c r="D59" s="161"/>
-      <c r="E59" s="161"/>
-      <c r="F59" s="161"/>
-      <c r="G59" s="162"/>
+      <c r="B59" s="166"/>
+      <c r="C59" s="167"/>
+      <c r="D59" s="167"/>
+      <c r="E59" s="167"/>
+      <c r="F59" s="167"/>
+      <c r="G59" s="165"/>
       <c r="H59" s="20"/>
       <c r="I59" s="14"/>
       <c r="J59" s="23"/>
@@ -2657,9 +2671,9 @@
       <c r="A60" s="3">
         <v>43456</v>
       </c>
-      <c r="B60" s="160"/>
-      <c r="C60" s="161"/>
-      <c r="D60" s="162"/>
+      <c r="B60" s="166"/>
+      <c r="C60" s="167"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
       <c r="G60" s="24"/>
@@ -2671,12 +2685,12 @@
       <c r="M60" s="11"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="173"/>
-      <c r="C61" s="173"/>
-      <c r="D61" s="173"/>
-      <c r="E61" s="173"/>
-      <c r="F61" s="173"/>
-      <c r="G61" s="173"/>
+      <c r="B61" s="172"/>
+      <c r="C61" s="172"/>
+      <c r="D61" s="172"/>
+      <c r="E61" s="172"/>
+      <c r="F61" s="172"/>
+      <c r="G61" s="172"/>
       <c r="H61" s="20"/>
       <c r="I61" s="14"/>
       <c r="J61" s="23"/>
@@ -2688,12 +2702,12 @@
       <c r="A62" s="3">
         <v>43457</v>
       </c>
-      <c r="B62" s="160"/>
-      <c r="C62" s="161"/>
-      <c r="D62" s="171"/>
-      <c r="E62" s="161"/>
-      <c r="F62" s="171"/>
-      <c r="G62" s="172"/>
+      <c r="B62" s="166"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="164"/>
+      <c r="E62" s="167"/>
+      <c r="F62" s="164"/>
+      <c r="G62" s="171"/>
       <c r="H62" s="20"/>
       <c r="I62" s="14"/>
       <c r="J62" s="23"/>
@@ -2756,9 +2770,9 @@
       <c r="E66" s="11"/>
       <c r="F66" s="38"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="160"/>
-      <c r="I66" s="161"/>
-      <c r="J66" s="162"/>
+      <c r="H66" s="166"/>
+      <c r="I66" s="167"/>
+      <c r="J66" s="165"/>
       <c r="K66" s="24"/>
       <c r="L66" s="25"/>
       <c r="M66" s="24"/>
@@ -2787,12 +2801,12 @@
       <c r="E68" s="11"/>
       <c r="F68" s="38"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="175"/>
-      <c r="I68" s="171"/>
-      <c r="J68" s="171"/>
-      <c r="K68" s="171"/>
-      <c r="L68" s="171"/>
-      <c r="M68" s="162"/>
+      <c r="H68" s="163"/>
+      <c r="I68" s="164"/>
+      <c r="J68" s="164"/>
+      <c r="K68" s="164"/>
+      <c r="L68" s="164"/>
+      <c r="M68" s="165"/>
       <c r="N68" s="28"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -2904,9 +2918,9 @@
       <c r="E75" s="11"/>
       <c r="F75" s="38"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="160"/>
-      <c r="I75" s="161"/>
-      <c r="J75" s="162"/>
+      <c r="H75" s="166"/>
+      <c r="I75" s="167"/>
+      <c r="J75" s="165"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
       <c r="M75" s="24"/>
@@ -2926,23 +2940,23 @@
       <c r="M76" s="11"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="160"/>
-      <c r="C77" s="161"/>
-      <c r="D77" s="162"/>
+      <c r="B77" s="166"/>
+      <c r="C77" s="167"/>
+      <c r="D77" s="165"/>
       <c r="E77" s="24"/>
       <c r="F77" s="25"/>
       <c r="G77" s="24"/>
-      <c r="H77" s="175"/>
-      <c r="I77" s="171"/>
-      <c r="J77" s="171"/>
-      <c r="K77" s="171"/>
-      <c r="L77" s="171"/>
-      <c r="M77" s="162"/>
+      <c r="H77" s="163"/>
+      <c r="I77" s="164"/>
+      <c r="J77" s="164"/>
+      <c r="K77" s="164"/>
+      <c r="L77" s="164"/>
+      <c r="M77" s="165"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="166"/>
-      <c r="C78" s="167"/>
-      <c r="D78" s="168"/>
+      <c r="B78" s="168"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="170"/>
       <c r="E78" s="11"/>
       <c r="F78" s="33"/>
       <c r="G78" s="11"/>
@@ -2957,12 +2971,12 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="160"/>
-      <c r="C79" s="161"/>
-      <c r="D79" s="171"/>
-      <c r="E79" s="161"/>
-      <c r="F79" s="171"/>
-      <c r="G79" s="172"/>
+      <c r="B79" s="166"/>
+      <c r="C79" s="167"/>
+      <c r="D79" s="164"/>
+      <c r="E79" s="167"/>
+      <c r="F79" s="164"/>
+      <c r="G79" s="171"/>
       <c r="H79" s="20"/>
       <c r="I79" s="14"/>
       <c r="J79" s="23"/>
@@ -3005,27 +3019,27 @@
       <c r="M81" s="11"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="160"/>
-      <c r="C82" s="161"/>
-      <c r="D82" s="162"/>
+      <c r="B82" s="166"/>
+      <c r="C82" s="167"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="24"/>
       <c r="F82" s="25"/>
       <c r="G82" s="24"/>
-      <c r="H82" s="175"/>
-      <c r="I82" s="171"/>
-      <c r="J82" s="172"/>
+      <c r="H82" s="163"/>
+      <c r="I82" s="164"/>
+      <c r="J82" s="171"/>
       <c r="K82" s="26"/>
       <c r="L82" s="27"/>
       <c r="M82" s="26"/>
       <c r="N82" s="28"/>
     </row>
     <row r="83" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="174"/>
-      <c r="C83" s="174"/>
-      <c r="D83" s="174"/>
-      <c r="E83" s="174"/>
-      <c r="F83" s="174"/>
-      <c r="G83" s="174"/>
+      <c r="B83" s="162"/>
+      <c r="C83" s="162"/>
+      <c r="D83" s="162"/>
+      <c r="E83" s="162"/>
+      <c r="F83" s="162"/>
+      <c r="G83" s="162"/>
       <c r="H83" s="49"/>
       <c r="I83" s="50"/>
       <c r="J83" s="44"/>
@@ -3040,9 +3054,9 @@
       <c r="E84" s="16"/>
       <c r="F84" s="45"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="174"/>
-      <c r="I84" s="174"/>
-      <c r="J84" s="174"/>
+      <c r="H84" s="162"/>
+      <c r="I84" s="162"/>
+      <c r="J84" s="162"/>
       <c r="K84" s="16"/>
       <c r="L84" s="36"/>
       <c r="M84" s="16"/>
@@ -3097,9 +3111,9 @@
       <c r="E88" s="16"/>
       <c r="F88" s="45"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="174"/>
-      <c r="I88" s="174"/>
-      <c r="J88" s="174"/>
+      <c r="H88" s="162"/>
+      <c r="I88" s="162"/>
+      <c r="J88" s="162"/>
       <c r="K88" s="16"/>
       <c r="L88" s="36"/>
       <c r="M88" s="16"/>
@@ -3113,15 +3127,39 @@
       <c r="G89" s="16"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="174"/>
-      <c r="C90" s="174"/>
-      <c r="D90" s="174"/>
+      <c r="B90" s="162"/>
+      <c r="C90" s="162"/>
+      <c r="D90" s="162"/>
       <c r="E90" s="16"/>
       <c r="F90" s="36"/>
       <c r="G90" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:G59"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="H68:M68"/>
     <mergeCell ref="H75:J75"/>
@@ -3134,30 +3172,6 @@
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="H84:J84"/>
     <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3197,27 +3211,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="H1" s="187" t="s">
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="H1" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="N1" s="187" t="s">
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="N1" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -3284,13 +3298,13 @@
       <c r="K3" s="179"/>
       <c r="L3" s="179"/>
       <c r="M3" s="97"/>
-      <c r="N3" s="181" t="s">
+      <c r="N3" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="182"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="181"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -3872,10 +3886,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="176" t="s">
+      <c r="B14" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="177"/>
+      <c r="C14" s="186"/>
       <c r="D14" s="77">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
@@ -4229,10 +4243,10 @@
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="176" t="s">
+      <c r="N20" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="177"/>
+      <c r="O20" s="186"/>
       <c r="P20" s="77">
         <f>SUM(P4:P19)</f>
         <v>1447623.36</v>
@@ -4327,13 +4341,13 @@
         <v>94770</v>
       </c>
       <c r="M22" s="96"/>
-      <c r="N22" s="181" t="s">
+      <c r="N22" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="182"/>
-      <c r="P22" s="182"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="182"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="181"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="73">
@@ -4412,10 +4426,10 @@
         <f t="shared" si="18"/>
         <v>106496</v>
       </c>
-      <c r="H24" s="176" t="s">
+      <c r="H24" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="177"/>
+      <c r="I24" s="186"/>
       <c r="J24" s="77">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
@@ -4653,10 +4667,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="176" t="s">
+      <c r="B29" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="177"/>
+      <c r="C29" s="186"/>
       <c r="D29" s="77">
         <f>SUM(D17:D28)</f>
         <v>1312507.44</v>
@@ -5125,10 +5139,10 @@
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N37" s="183" t="s">
+      <c r="N37" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="183"/>
+      <c r="O37" s="187"/>
       <c r="P37" s="77">
         <f>SUM(P23:P36)</f>
         <v>1133003.52</v>
@@ -5202,10 +5216,10 @@
         <f t="shared" si="30"/>
         <v>65705.999999999985</v>
       </c>
-      <c r="H39" s="184" t="s">
+      <c r="H39" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="185"/>
+      <c r="I39" s="190"/>
       <c r="J39" s="77">
         <f>SUM(J27:J38)</f>
         <v>1647216</v>
@@ -5219,13 +5233,13 @@
         <v>1512490</v>
       </c>
       <c r="M39" s="96"/>
-      <c r="N39" s="181" t="s">
+      <c r="N39" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="O39" s="182"/>
-      <c r="P39" s="182"/>
-      <c r="Q39" s="182"/>
-      <c r="R39" s="182"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="73">
@@ -5434,10 +5448,10 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="176" t="s">
+      <c r="B44" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="177"/>
+      <c r="C44" s="186"/>
       <c r="D44" s="100">
         <f>SUM(D32:D43)</f>
         <v>825840</v>
@@ -5534,13 +5548,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="96"/>
-      <c r="B46" s="181" t="s">
+      <c r="B46" s="180" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="182"/>
-      <c r="D46" s="182"/>
-      <c r="E46" s="182"/>
-      <c r="F46" s="182"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="181"/>
       <c r="G46" s="73">
         <v>43727</v>
       </c>
@@ -5676,10 +5690,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N48" s="183" t="s">
+      <c r="N48" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="O48" s="183"/>
+      <c r="O48" s="187"/>
       <c r="P48" s="98">
         <f>SUM(P40:P47)</f>
         <v>496705.68</v>
@@ -5774,13 +5788,13 @@
         <v>91125</v>
       </c>
       <c r="M50" s="96"/>
-      <c r="N50" s="181" t="s">
+      <c r="N50" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="O50" s="182"/>
-      <c r="P50" s="182"/>
-      <c r="Q50" s="182"/>
-      <c r="R50" s="182"/>
+      <c r="O50" s="181"/>
+      <c r="P50" s="181"/>
+      <c r="Q50" s="181"/>
+      <c r="R50" s="181"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="73">
@@ -6165,10 +6179,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N57" s="186" t="s">
+      <c r="N57" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="O57" s="186"/>
+      <c r="O57" s="188"/>
       <c r="P57" s="100">
         <f>SUM(P49:P56)</f>
         <v>448449.84</v>
@@ -6227,10 +6241,10 @@
       <c r="R58" s="107"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="176" t="s">
+      <c r="B59" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="177"/>
+      <c r="C59" s="186"/>
       <c r="D59" s="98">
         <f>SUM(D47:D58)</f>
         <v>1010437.2</v>
@@ -6261,13 +6275,13 @@
         <v>91125</v>
       </c>
       <c r="M59" s="96"/>
-      <c r="N59" s="181" t="s">
+      <c r="N59" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="O59" s="182"/>
-      <c r="P59" s="182"/>
-      <c r="Q59" s="182"/>
-      <c r="R59" s="182"/>
+      <c r="O59" s="181"/>
+      <c r="P59" s="181"/>
+      <c r="Q59" s="181"/>
+      <c r="R59" s="181"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60" s="91"/>
@@ -6318,13 +6332,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="96"/>
-      <c r="B61" s="181" t="s">
+      <c r="B61" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="182"/>
-      <c r="D61" s="182"/>
-      <c r="E61" s="182"/>
-      <c r="F61" s="182"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="181"/>
+      <c r="E61" s="181"/>
+      <c r="F61" s="181"/>
       <c r="H61" s="74">
         <v>100800</v>
       </c>
@@ -6841,10 +6855,10 @@
         <f t="shared" si="54"/>
         <v>86184</v>
       </c>
-      <c r="H70" s="176" t="s">
+      <c r="H70" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="177"/>
+      <c r="I70" s="186"/>
       <c r="J70" s="100">
         <f>SUM(J42:J69)</f>
         <v>2733393.6</v>
@@ -7096,10 +7110,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="176" t="s">
+      <c r="B76" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="177"/>
+      <c r="C76" s="186"/>
       <c r="D76" s="100">
         <f>SUM(D62:D75)</f>
         <v>1243584</v>
@@ -7117,10 +7131,10 @@
       <c r="J76" s="79"/>
       <c r="K76" s="79"/>
       <c r="L76" s="79"/>
-      <c r="N76" s="186" t="s">
+      <c r="N76" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="186"/>
+      <c r="O76" s="188"/>
       <c r="P76" s="100">
         <f>SUM(P60:P75)</f>
         <v>1630498.3199999998</v>
@@ -7238,19 +7252,19 @@
       <c r="R82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="180"/>
-      <c r="C83" s="180"/>
-      <c r="D83" s="180"/>
+      <c r="B83" s="184"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
       <c r="E83" s="80"/>
       <c r="F83" s="80"/>
-      <c r="H83" s="180"/>
-      <c r="I83" s="180"/>
-      <c r="J83" s="180"/>
+      <c r="H83" s="184"/>
+      <c r="I83" s="184"/>
+      <c r="J83" s="184"/>
       <c r="K83" s="80"/>
       <c r="L83" s="80"/>
-      <c r="N83" s="180"/>
-      <c r="O83" s="180"/>
-      <c r="P83" s="180"/>
+      <c r="N83" s="184"/>
+      <c r="O83" s="184"/>
+      <c r="P83" s="184"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -7346,42 +7360,22 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="180"/>
-      <c r="C90" s="180"/>
+      <c r="B90" s="184"/>
+      <c r="C90" s="184"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="180"/>
-      <c r="I90" s="180"/>
+      <c r="H90" s="184"/>
+      <c r="I90" s="184"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="180"/>
-      <c r="O90" s="180"/>
+      <c r="N90" s="184"/>
+      <c r="O90" s="184"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N50:R50"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N59:R59"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B16:F16"/>
@@ -7397,6 +7391,26 @@
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="H70:I70"/>
     <mergeCell ref="N76:O76"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N59:R59"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7438,27 +7452,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="H1" s="187" t="s">
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="H1" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="N1" s="187" t="s">
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="N1" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -7509,29 +7523,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
       <c r="G3" s="97"/>
-      <c r="H3" s="191" t="s">
+      <c r="H3" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
       <c r="M3" s="97"/>
-      <c r="N3" s="181" t="s">
+      <c r="N3" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="182"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="181"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="181"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -7997,10 +8011,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="184" t="s">
+      <c r="B12" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="185"/>
+      <c r="C12" s="190"/>
       <c r="D12" s="116">
         <f>SUM(D4:D11)</f>
         <v>721644.48</v>
@@ -8098,13 +8112,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="96"/>
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="189"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="191"/>
       <c r="G14" s="73">
         <v>43744</v>
       </c>
@@ -8700,10 +8714,10 @@
         <f t="shared" si="9"/>
         <v>98415</v>
       </c>
-      <c r="N24" s="186" t="s">
+      <c r="N24" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="186"/>
+      <c r="O24" s="188"/>
       <c r="P24" s="117">
         <f>SUM(P4:P23)</f>
         <v>2047806</v>
@@ -8800,13 +8814,13 @@
         <v>94770</v>
       </c>
       <c r="M26" s="96"/>
-      <c r="N26" s="181" t="s">
+      <c r="N26" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="182"/>
-      <c r="P26" s="182"/>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="182"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="181"/>
+      <c r="R26" s="181"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="73">
@@ -9230,10 +9244,10 @@
         <f t="shared" si="21"/>
         <v>85824</v>
       </c>
-      <c r="H34" s="184" t="s">
+      <c r="H34" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="185"/>
+      <c r="I34" s="190"/>
       <c r="J34" s="118">
         <f>SUM(J4:J33)</f>
         <v>2962108.8000000003</v>
@@ -9330,13 +9344,13 @@
         <v>85824</v>
       </c>
       <c r="G36" s="96"/>
-      <c r="H36" s="191" t="s">
+      <c r="H36" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="192"/>
-      <c r="J36" s="192"/>
-      <c r="K36" s="192"/>
-      <c r="L36" s="192"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="193"/>
+      <c r="K36" s="193"/>
+      <c r="L36" s="193"/>
       <c r="N36" s="93">
         <v>104400</v>
       </c>
@@ -9511,10 +9525,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N39" s="186" t="s">
+      <c r="N39" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="O39" s="186"/>
+      <c r="O39" s="188"/>
       <c r="P39" s="119">
         <f>SUM(P27:P38)</f>
         <v>1219183.2</v>
@@ -9570,10 +9584,10 @@
       <c r="R40" s="75"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="184" t="s">
+      <c r="B41" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="185"/>
+      <c r="C41" s="190"/>
       <c r="D41" s="118">
         <f>SUM(D15:D40)</f>
         <v>2335044.96</v>
@@ -9607,13 +9621,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M41" s="96"/>
-      <c r="N41" s="181" t="s">
+      <c r="N41" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="O41" s="182"/>
-      <c r="P41" s="182"/>
-      <c r="Q41" s="182"/>
-      <c r="R41" s="182"/>
+      <c r="O41" s="181"/>
+      <c r="P41" s="181"/>
+      <c r="Q41" s="181"/>
+      <c r="R41" s="181"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" s="74"/>
@@ -9661,13 +9675,13 @@
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="96"/>
-      <c r="B43" s="181" t="s">
+      <c r="B43" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="182"/>
-      <c r="D43" s="182"/>
-      <c r="E43" s="182"/>
-      <c r="F43" s="189"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
+      <c r="E43" s="181"/>
+      <c r="F43" s="191"/>
       <c r="G43" s="73">
         <v>43757</v>
       </c>
@@ -10089,10 +10103,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N50" s="186" t="s">
+      <c r="N50" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="O50" s="186"/>
+      <c r="O50" s="188"/>
       <c r="P50" s="128">
         <f>SUM(P42:P49)</f>
         <v>650324.37600000005</v>
@@ -10189,13 +10203,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M52" s="96"/>
-      <c r="N52" s="181" t="s">
+      <c r="N52" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="O52" s="182"/>
-      <c r="P52" s="182"/>
-      <c r="Q52" s="182"/>
-      <c r="R52" s="182"/>
+      <c r="O52" s="181"/>
+      <c r="P52" s="181"/>
+      <c r="Q52" s="181"/>
+      <c r="R52" s="181"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B53" s="93">
@@ -10790,10 +10804,10 @@
         <f t="shared" si="33"/>
         <v>69900</v>
       </c>
-      <c r="H63" s="184" t="s">
+      <c r="H63" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="185"/>
+      <c r="I63" s="190"/>
       <c r="J63" s="131">
         <f>SUM(J37:J62)</f>
         <v>2734020</v>
@@ -10889,13 +10903,13 @@
         <f t="shared" si="33"/>
         <v>71298.000000000015</v>
       </c>
-      <c r="H65" s="191" t="s">
+      <c r="H65" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="192"/>
-      <c r="J65" s="192"/>
-      <c r="K65" s="192"/>
-      <c r="L65" s="192"/>
+      <c r="I65" s="193"/>
+      <c r="J65" s="193"/>
+      <c r="K65" s="193"/>
+      <c r="L65" s="193"/>
       <c r="M65" s="73">
         <v>43765</v>
       </c>
@@ -11011,10 +11025,10 @@
         <f t="shared" ref="L67:L71" si="41">H67*K67/100</f>
         <v>94770</v>
       </c>
-      <c r="N67" s="186" t="s">
+      <c r="N67" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="O67" s="186"/>
+      <c r="O67" s="188"/>
       <c r="P67" s="132">
         <f>SUM(P53:P66)</f>
         <v>1031915.1599999998</v>
@@ -11029,10 +11043,10 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="184" t="s">
+      <c r="B68" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="185"/>
+      <c r="C68" s="190"/>
       <c r="D68" s="131">
         <f>SUM(D44:D67)</f>
         <v>1724961.6</v>
@@ -11094,22 +11108,22 @@
         <f t="shared" si="41"/>
         <v>98415</v>
       </c>
-      <c r="N69" s="191" t="s">
+      <c r="N69" s="192" t="s">
         <v>32</v>
       </c>
-      <c r="O69" s="192"/>
-      <c r="P69" s="192"/>
-      <c r="Q69" s="192"/>
-      <c r="R69" s="192"/>
+      <c r="O69" s="193"/>
+      <c r="P69" s="193"/>
+      <c r="Q69" s="193"/>
+      <c r="R69" s="193"/>
     </row>
     <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="181" t="s">
+      <c r="B70" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="182"/>
-      <c r="D70" s="182"/>
-      <c r="E70" s="182"/>
-      <c r="F70" s="189"/>
+      <c r="C70" s="181"/>
+      <c r="D70" s="181"/>
+      <c r="E70" s="181"/>
+      <c r="F70" s="191"/>
       <c r="G70" s="73">
         <v>43769</v>
       </c>
@@ -11225,10 +11239,10 @@
         <f t="shared" ref="F72:F74" si="49">B72*E72/100</f>
         <v>69090</v>
       </c>
-      <c r="H72" s="184" t="s">
+      <c r="H72" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="185"/>
+      <c r="I72" s="190"/>
       <c r="J72" s="133">
         <f>SUM(J66:J71)</f>
         <v>587764.79999999993</v>
@@ -11351,10 +11365,10 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="184" t="s">
+      <c r="B75" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="185"/>
+      <c r="C75" s="190"/>
       <c r="D75" s="133">
         <f>SUM(D71:D74)</f>
         <v>275256</v>
@@ -11391,8 +11405,8 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="190"/>
-      <c r="C76" s="190"/>
+      <c r="B76" s="194"/>
+      <c r="C76" s="194"/>
       <c r="D76" s="79"/>
       <c r="E76" s="137"/>
       <c r="F76" s="79"/>
@@ -11462,10 +11476,10 @@
       <c r="J78" s="79"/>
       <c r="K78" s="79"/>
       <c r="L78" s="79"/>
-      <c r="N78" s="184" t="s">
+      <c r="N78" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="O78" s="185"/>
+      <c r="O78" s="190"/>
       <c r="P78" s="133">
         <f>SUM(P70:P77)</f>
         <v>597582</v>
@@ -11549,19 +11563,19 @@
       <c r="R82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="180"/>
-      <c r="C83" s="180"/>
-      <c r="D83" s="180"/>
+      <c r="B83" s="184"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
       <c r="E83" s="115"/>
       <c r="F83" s="115"/>
-      <c r="H83" s="180"/>
-      <c r="I83" s="180"/>
-      <c r="J83" s="180"/>
+      <c r="H83" s="184"/>
+      <c r="I83" s="184"/>
+      <c r="J83" s="184"/>
       <c r="K83" s="115"/>
       <c r="L83" s="115"/>
-      <c r="N83" s="180"/>
-      <c r="O83" s="180"/>
-      <c r="P83" s="180"/>
+      <c r="N83" s="184"/>
+      <c r="O83" s="184"/>
+      <c r="P83" s="184"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -11657,40 +11671,22 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="180"/>
-      <c r="C90" s="180"/>
+      <c r="B90" s="184"/>
+      <c r="C90" s="184"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="180"/>
-      <c r="I90" s="180"/>
+      <c r="H90" s="184"/>
+      <c r="I90" s="184"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="180"/>
-      <c r="O90" s="180"/>
+      <c r="N90" s="184"/>
+      <c r="O90" s="184"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="N3:R3"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="H90:I90"/>
     <mergeCell ref="N90:O90"/>
@@ -11707,6 +11703,24 @@
     <mergeCell ref="N69:R69"/>
     <mergeCell ref="N52:R52"/>
     <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="H72:I72"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11718,9 +11732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11745,27 +11759,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="H1" s="187" t="s">
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="H1" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="N1" s="187" t="s">
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="N1" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -11816,13 +11830,13 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
       <c r="G3" s="97"/>
       <c r="H3" s="178" t="s">
         <v>18</v>
@@ -11831,14 +11845,14 @@
       <c r="J3" s="179"/>
       <c r="K3" s="179"/>
       <c r="L3" s="179"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="194" t="s">
+      <c r="M3" s="97"/>
+      <c r="N3" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="193"/>
-      <c r="P3" s="193"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="193"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="196"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -11937,7 +11951,7 @@
         <f t="shared" ref="L5:L17" si="9">H5*K5/100</f>
         <v>94770</v>
       </c>
-      <c r="N5" s="195">
+      <c r="N5" s="161">
         <v>77040</v>
       </c>
       <c r="O5" s="154">
@@ -12344,10 +12358,10 @@
         <f t="shared" si="9"/>
         <v>94770</v>
       </c>
-      <c r="N12" s="184" t="s">
+      <c r="N12" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="O12" s="185"/>
+      <c r="O12" s="190"/>
       <c r="P12" s="89">
         <f>SUM(P4:P11)</f>
         <v>604753.19999999995</v>
@@ -12443,13 +12457,14 @@
         <f t="shared" si="9"/>
         <v>98415</v>
       </c>
-      <c r="N14" s="194" t="s">
+      <c r="M14" s="96"/>
+      <c r="N14" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="193"/>
-      <c r="P14" s="193"/>
-      <c r="Q14" s="193"/>
-      <c r="R14" s="193"/>
+      <c r="O14" s="196"/>
+      <c r="P14" s="196"/>
+      <c r="Q14" s="196"/>
+      <c r="R14" s="196"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="159">
@@ -12643,10 +12658,10 @@
         <f t="shared" si="7"/>
         <v>97744</v>
       </c>
-      <c r="H18" s="184" t="s">
+      <c r="H18" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="185"/>
+      <c r="I18" s="190"/>
       <c r="J18" s="89">
         <f>SUM(J4:J17)</f>
         <v>1385395.2000000002</v>
@@ -12921,10 +12936,10 @@
         <f t="shared" si="19"/>
         <v>96278</v>
       </c>
-      <c r="N23" s="184" t="s">
+      <c r="N23" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="O23" s="185"/>
+      <c r="O23" s="190"/>
       <c r="P23" s="89">
         <f>SUM(P15:P22)</f>
         <v>658609.91999999993</v>
@@ -12939,10 +12954,10 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="184" t="s">
+      <c r="B24" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="185"/>
+      <c r="C24" s="190"/>
       <c r="D24" s="135">
         <f>SUM(D4:D23)</f>
         <v>2025464.3999999994</v>
@@ -13004,22 +13019,24 @@
         <f t="shared" si="19"/>
         <v>96278</v>
       </c>
-      <c r="N25" s="194" t="s">
+      <c r="M25" s="96"/>
+      <c r="N25" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="193"/>
-      <c r="P25" s="193"/>
-      <c r="Q25" s="193"/>
-      <c r="R25" s="193"/>
+      <c r="O25" s="196"/>
+      <c r="P25" s="196"/>
+      <c r="Q25" s="196"/>
+      <c r="R25" s="196"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="193" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="193"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="196" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="196"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="196"/>
+      <c r="F26" s="196"/>
       <c r="H26" s="74">
         <v>104400</v>
       </c>
@@ -13063,21 +13080,21 @@
         <v>43780</v>
       </c>
       <c r="B27" s="159">
-        <v>104400</v>
-      </c>
-      <c r="C27" s="106">
-        <v>0.879</v>
+        <v>87840</v>
+      </c>
+      <c r="C27" s="54">
+        <v>0.86599999999999999</v>
       </c>
       <c r="D27" s="75">
         <f t="shared" ref="D27" si="22">B27*C27</f>
-        <v>91767.6</v>
-      </c>
-      <c r="E27" s="155">
-        <v>47.954022988505749</v>
+        <v>76069.440000000002</v>
+      </c>
+      <c r="E27" s="87">
+        <v>69.726775956284143</v>
       </c>
       <c r="F27" s="75">
         <f t="shared" ref="F27" si="23">B27*E27/100</f>
-        <v>50064</v>
+        <v>61247.999999999993</v>
       </c>
       <c r="G27" s="73">
         <v>43780</v>
@@ -13118,11 +13135,23 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="93"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="75"/>
+      <c r="B28" s="159">
+        <v>87840</v>
+      </c>
+      <c r="C28" s="54">
+        <v>0.995</v>
+      </c>
+      <c r="D28" s="75">
+        <f t="shared" ref="D28:D40" si="26">B28*C28</f>
+        <v>87400.8</v>
+      </c>
+      <c r="E28" s="87">
+        <v>96.174863387978135</v>
+      </c>
+      <c r="F28" s="75">
+        <f t="shared" ref="F28:F40" si="27">B28*E28/100</f>
+        <v>84480</v>
+      </c>
       <c r="H28" s="74">
         <v>104400</v>
       </c>
@@ -13165,11 +13194,23 @@
       <c r="A29" s="73">
         <v>43781</v>
       </c>
-      <c r="B29" s="93"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="75"/>
+      <c r="B29" s="159">
+        <v>87840</v>
+      </c>
+      <c r="C29" s="54">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D29" s="75">
+        <f t="shared" si="26"/>
+        <v>86258.880000000005</v>
+      </c>
+      <c r="E29" s="87">
+        <v>96.174863387978135</v>
+      </c>
+      <c r="F29" s="75">
+        <f t="shared" si="27"/>
+        <v>84480</v>
+      </c>
       <c r="G29" s="73">
         <v>43781</v>
       </c>
@@ -13209,11 +13250,23 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="93"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="75"/>
+      <c r="B30" s="159">
+        <v>87840</v>
+      </c>
+      <c r="C30" s="54">
+        <v>0.98</v>
+      </c>
+      <c r="D30" s="75">
+        <f t="shared" si="26"/>
+        <v>86083.199999999997</v>
+      </c>
+      <c r="E30" s="87">
+        <v>93.770491803278688</v>
+      </c>
+      <c r="F30" s="75">
+        <f t="shared" si="27"/>
+        <v>82368</v>
+      </c>
       <c r="H30" s="74">
         <v>104400</v>
       </c>
@@ -13256,15 +13309,27 @@
       <c r="A31" s="73">
         <v>43782</v>
       </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="75"/>
-      <c r="H31" s="184" t="s">
+      <c r="B31" s="159">
+        <v>87840</v>
+      </c>
+      <c r="C31" s="54">
+        <v>0.997</v>
+      </c>
+      <c r="D31" s="75">
+        <f t="shared" si="26"/>
+        <v>87576.48</v>
+      </c>
+      <c r="E31" s="87">
+        <v>98.579234972677597</v>
+      </c>
+      <c r="F31" s="75">
+        <f t="shared" si="27"/>
+        <v>86592</v>
+      </c>
+      <c r="H31" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="185"/>
+      <c r="I31" s="190"/>
       <c r="J31" s="89">
         <f>SUM(J21:J30)</f>
         <v>1005163.2000000001</v>
@@ -13296,20 +13361,32 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="93"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="75"/>
+      <c r="B32" s="159">
+        <v>87840</v>
+      </c>
+      <c r="C32" s="54">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D32" s="75">
+        <f t="shared" si="26"/>
+        <v>87831.216</v>
+      </c>
+      <c r="E32" s="87">
+        <v>98.579234972677597</v>
+      </c>
+      <c r="F32" s="75">
+        <f t="shared" si="27"/>
+        <v>86592</v>
+      </c>
       <c r="H32" s="75"/>
       <c r="I32" s="154"/>
       <c r="J32" s="75"/>
       <c r="K32" s="155"/>
       <c r="L32" s="75"/>
-      <c r="N32" s="184" t="s">
+      <c r="N32" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="O32" s="185"/>
+      <c r="O32" s="190"/>
       <c r="P32" s="89">
         <f>SUM(P26:P31)</f>
         <v>453211.74</v>
@@ -13324,14 +13401,23 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="73">
-        <v>43783</v>
-      </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="75"/>
+      <c r="B33" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="190"/>
+      <c r="D33" s="160">
+        <f>SUM(D27:D32)</f>
+        <v>511220.016</v>
+      </c>
+      <c r="E33" s="122">
+        <f>F33/D33</f>
+        <v>0.95019753686639685</v>
+      </c>
+      <c r="F33" s="89">
+        <f>SUM(F27:F32)</f>
+        <v>485760</v>
+      </c>
+      <c r="G33" s="96"/>
       <c r="H33" s="178" t="s">
         <v>19</v>
       </c>
@@ -13346,214 +13432,469 @@
       <c r="R33" s="75"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="93"/>
-      <c r="C34" s="54"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="106"/>
       <c r="D34" s="75"/>
-      <c r="E34" s="87"/>
+      <c r="E34" s="155"/>
       <c r="F34" s="75"/>
       <c r="G34" s="73">
         <v>43782</v>
       </c>
-      <c r="H34" s="74">
+      <c r="H34" s="93">
         <v>144000</v>
       </c>
       <c r="I34" s="10">
-        <v>0.74099999999999999</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="J34" s="75">
-        <f t="shared" ref="J34" si="26">H34*I34</f>
-        <v>106704</v>
+        <f t="shared" ref="J34" si="28">H34*I34</f>
+        <v>116208.00000000001</v>
       </c>
       <c r="K34" s="87">
-        <v>38.722222222222221</v>
+        <v>33.881944444444443</v>
       </c>
       <c r="L34" s="75">
-        <f t="shared" ref="L34" si="27">H34*K34/100</f>
-        <v>55760</v>
-      </c>
-      <c r="N34" s="194" t="s">
+        <f t="shared" ref="L34" si="29">H34*K34/100</f>
+        <v>48790</v>
+      </c>
+      <c r="M34" s="96"/>
+      <c r="N34" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="O34" s="193"/>
-      <c r="P34" s="193"/>
-      <c r="Q34" s="193"/>
-      <c r="R34" s="193"/>
+      <c r="O34" s="196"/>
+      <c r="P34" s="196"/>
+      <c r="Q34" s="196"/>
+      <c r="R34" s="196"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="73">
-        <v>43784</v>
-      </c>
-      <c r="B35" s="93"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="75"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="196" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="H35" s="93">
+        <v>144000</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="J35" s="75">
+        <f t="shared" ref="J35:J47" si="30">H35*I35</f>
+        <v>139824</v>
+      </c>
+      <c r="K35" s="87">
+        <v>91.965277777777771</v>
+      </c>
+      <c r="L35" s="75">
+        <f t="shared" ref="L35:L47" si="31">H35*K35/100</f>
+        <v>132430</v>
+      </c>
       <c r="M35" s="73">
         <v>43781</v>
       </c>
       <c r="N35" s="93">
-        <v>81720</v>
+        <v>90000</v>
       </c>
       <c r="O35" s="10">
-        <v>0.83250000000000002</v>
+        <v>0.873</v>
       </c>
       <c r="P35" s="75">
-        <f t="shared" ref="P35" si="28">N35*O35</f>
-        <v>68031.899999999994</v>
+        <f t="shared" ref="P35" si="32">N35*O35</f>
+        <v>78570</v>
       </c>
       <c r="Q35" s="87">
-        <v>65.602055800293684</v>
+        <v>49.666666666666664</v>
       </c>
       <c r="R35" s="75">
-        <f t="shared" ref="R35" si="29">N35*Q35/100</f>
-        <v>53610</v>
+        <f t="shared" ref="R35" si="33">N35*Q35/100</f>
+        <v>44700</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="93"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="75"/>
+      <c r="A36" s="73">
+        <v>43783</v>
+      </c>
+      <c r="B36" s="159">
+        <v>86400</v>
+      </c>
+      <c r="C36" s="54">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="D36" s="75">
+        <f t="shared" ref="D36" si="34">B36*C36</f>
+        <v>79833.600000000006</v>
+      </c>
+      <c r="E36" s="87">
+        <v>32.375</v>
+      </c>
+      <c r="F36" s="75">
+        <f t="shared" ref="F36" si="35">B36*E36/100</f>
+        <v>27972</v>
+      </c>
       <c r="G36" s="73">
         <v>43783</v>
       </c>
-      <c r="H36" s="75"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="75"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="75"/>
+      <c r="H36" s="93">
+        <v>144000</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J36" s="75">
+        <f t="shared" si="30"/>
+        <v>138816</v>
+      </c>
+      <c r="K36" s="87">
+        <v>91.965277777777771</v>
+      </c>
+      <c r="L36" s="75">
+        <f t="shared" si="31"/>
+        <v>132430</v>
+      </c>
+      <c r="N36" s="93">
+        <v>90000</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="P36" s="75">
+        <f t="shared" ref="P36:P40" si="36">N36*O36</f>
+        <v>89910</v>
+      </c>
+      <c r="Q36" s="87">
+        <v>97.346666666666664</v>
+      </c>
+      <c r="R36" s="75">
+        <f t="shared" ref="R36:R40" si="37">N36*Q36/100</f>
+        <v>87612</v>
+      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="73">
-        <v>43785</v>
-      </c>
-      <c r="B37" s="93"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="75"/>
+      <c r="B37" s="159">
+        <v>86400</v>
+      </c>
+      <c r="C37" s="54">
+        <v>0.98</v>
+      </c>
+      <c r="D37" s="75">
+        <f t="shared" ref="D37:D43" si="38">B37*C37</f>
+        <v>84672</v>
+      </c>
+      <c r="E37" s="87">
+        <v>94.037037037037038</v>
+      </c>
+      <c r="F37" s="75">
+        <f t="shared" ref="F37:F43" si="39">B37*E37/100</f>
+        <v>81248</v>
+      </c>
+      <c r="H37" s="93">
+        <v>144000</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J37" s="75">
+        <f t="shared" si="30"/>
+        <v>140688</v>
+      </c>
+      <c r="K37" s="87">
+        <v>96.805555555555557</v>
+      </c>
+      <c r="L37" s="75">
+        <f t="shared" si="31"/>
+        <v>139400</v>
+      </c>
       <c r="M37" s="73">
         <v>43782</v>
       </c>
-      <c r="N37" s="93"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="75"/>
+      <c r="N37" s="93">
+        <v>90000</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P37" s="75">
+        <f t="shared" si="36"/>
+        <v>86760</v>
+      </c>
+      <c r="Q37" s="87">
+        <v>89.4</v>
+      </c>
+      <c r="R37" s="75">
+        <f t="shared" si="37"/>
+        <v>80460.000000000015</v>
+      </c>
     </row>
     <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="93"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="75"/>
+      <c r="A38" s="73">
+        <v>43784</v>
+      </c>
+      <c r="B38" s="159">
+        <v>86400</v>
+      </c>
+      <c r="C38" s="54">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D38" s="75">
+        <f t="shared" si="38"/>
+        <v>84931.199999999997</v>
+      </c>
+      <c r="E38" s="87">
+        <v>92.5</v>
+      </c>
+      <c r="F38" s="75">
+        <f t="shared" si="39"/>
+        <v>79920</v>
+      </c>
       <c r="G38" s="73">
         <v>43784</v>
       </c>
-      <c r="H38" s="75"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="75"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="75"/>
+      <c r="H38" s="93">
+        <v>144000</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J38" s="75">
+        <f t="shared" si="30"/>
+        <v>140688</v>
+      </c>
+      <c r="K38" s="87">
+        <v>91.965277777777771</v>
+      </c>
+      <c r="L38" s="75">
+        <f t="shared" si="31"/>
+        <v>132430</v>
+      </c>
+      <c r="N38" s="93">
+        <v>90000</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="P38" s="75">
+        <f t="shared" si="36"/>
+        <v>88020</v>
+      </c>
+      <c r="Q38" s="87">
+        <v>91.38666666666667</v>
+      </c>
+      <c r="R38" s="75">
+        <f t="shared" si="37"/>
+        <v>82248</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="73">
-        <v>43786</v>
-      </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="75"/>
+      <c r="B39" s="159">
+        <v>86400</v>
+      </c>
+      <c r="C39" s="54">
+        <v>0.999</v>
+      </c>
+      <c r="D39" s="75">
+        <f t="shared" si="38"/>
+        <v>86313.600000000006</v>
+      </c>
+      <c r="E39" s="87">
+        <v>99.4375</v>
+      </c>
+      <c r="F39" s="75">
+        <f t="shared" si="39"/>
+        <v>85914</v>
+      </c>
+      <c r="H39" s="93">
+        <v>144000</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="J39" s="75">
+        <f t="shared" si="30"/>
+        <v>138384</v>
+      </c>
+      <c r="K39" s="87">
+        <v>91.965277777777771</v>
+      </c>
+      <c r="L39" s="75">
+        <f t="shared" si="31"/>
+        <v>132430</v>
+      </c>
       <c r="M39" s="73">
         <v>43783</v>
       </c>
-      <c r="N39" s="152"/>
-      <c r="O39" s="152"/>
-      <c r="P39" s="150"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="151"/>
+      <c r="N39" s="93">
+        <v>90000</v>
+      </c>
+      <c r="O39" s="10">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="P39" s="75">
+        <f t="shared" si="36"/>
+        <v>86220</v>
+      </c>
+      <c r="Q39" s="87">
+        <v>91.38666666666667</v>
+      </c>
+      <c r="R39" s="75">
+        <f t="shared" si="37"/>
+        <v>82248</v>
+      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="93"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="75"/>
+      <c r="A40" s="73">
+        <v>43785</v>
+      </c>
+      <c r="B40" s="159">
+        <v>86400</v>
+      </c>
+      <c r="C40" s="54">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D40" s="75">
+        <f t="shared" si="38"/>
+        <v>84585.599999999991</v>
+      </c>
+      <c r="E40" s="87">
+        <v>97.125</v>
+      </c>
+      <c r="F40" s="75">
+        <f t="shared" si="39"/>
+        <v>83916</v>
+      </c>
       <c r="G40" s="73">
         <v>43785</v>
       </c>
-      <c r="H40" s="75"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="75"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="75"/>
+      <c r="H40" s="93">
+        <v>144000</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="J40" s="75">
+        <f t="shared" si="30"/>
+        <v>137808</v>
+      </c>
+      <c r="K40" s="87">
+        <v>91.965277777777771</v>
+      </c>
+      <c r="L40" s="75">
+        <f t="shared" si="31"/>
+        <v>132430</v>
+      </c>
+      <c r="N40" s="93">
+        <v>90000</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="P40" s="75">
+        <f t="shared" si="36"/>
+        <v>89991</v>
+      </c>
+      <c r="Q40" s="87">
+        <v>99.333333333333329</v>
+      </c>
+      <c r="R40" s="75">
+        <f t="shared" si="37"/>
+        <v>89400</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="145"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="60"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="73">
-        <v>43784</v>
-      </c>
-      <c r="N41" s="144"/>
-      <c r="O41" s="110"/>
-      <c r="P41" s="110"/>
-      <c r="Q41" s="110"/>
-      <c r="R41" s="110"/>
+      <c r="B41" s="159">
+        <v>86400</v>
+      </c>
+      <c r="C41" s="54">
+        <v>0.999</v>
+      </c>
+      <c r="D41" s="75">
+        <f t="shared" si="38"/>
+        <v>86313.600000000006</v>
+      </c>
+      <c r="E41" s="87">
+        <v>99.4375</v>
+      </c>
+      <c r="F41" s="75">
+        <f t="shared" si="39"/>
+        <v>85914</v>
+      </c>
+      <c r="H41" s="93">
+        <v>144000</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J41" s="75">
+        <f t="shared" si="30"/>
+        <v>140400</v>
+      </c>
+      <c r="K41" s="87">
+        <v>91.965277777777771</v>
+      </c>
+      <c r="L41" s="75">
+        <f t="shared" si="31"/>
+        <v>132430</v>
+      </c>
+      <c r="N41" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="190"/>
+      <c r="P41" s="89">
+        <f>SUM(P35:P40)</f>
+        <v>519471</v>
+      </c>
+      <c r="Q41" s="141">
+        <f>R41/P41</f>
+        <v>0.8983523623070393</v>
+      </c>
+      <c r="R41" s="89">
+        <f>SUM(R35:R40)</f>
+        <v>466668</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="75"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="75"/>
+      <c r="A42" s="73">
+        <v>43786</v>
+      </c>
+      <c r="B42" s="159">
+        <v>86400</v>
+      </c>
+      <c r="C42" s="54">
+        <v>0.999</v>
+      </c>
+      <c r="D42" s="75">
+        <f t="shared" si="38"/>
+        <v>86313.600000000006</v>
+      </c>
+      <c r="E42" s="87">
+        <v>99.4375</v>
+      </c>
+      <c r="F42" s="75">
+        <f t="shared" si="39"/>
+        <v>85914</v>
+      </c>
       <c r="G42" s="73">
         <v>43786</v>
       </c>
-      <c r="H42" s="75"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="75"/>
+      <c r="H42" s="93">
+        <v>144000</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="J42" s="75">
+        <f t="shared" si="30"/>
+        <v>142128</v>
+      </c>
+      <c r="K42" s="87">
+        <v>91.965277777777771</v>
+      </c>
+      <c r="L42" s="75">
+        <f t="shared" si="31"/>
+        <v>132430</v>
+      </c>
       <c r="N42" s="93"/>
       <c r="O42" s="10"/>
       <c r="P42" s="75"/>
@@ -13561,47 +13902,106 @@
       <c r="R42" s="75"/>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="144"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="148"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="73">
-        <v>43785</v>
-      </c>
-      <c r="N43" s="93"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="75"/>
+      <c r="B43" s="159">
+        <v>86400</v>
+      </c>
+      <c r="C43" s="54">
+        <v>0.999</v>
+      </c>
+      <c r="D43" s="75">
+        <f t="shared" si="38"/>
+        <v>86313.600000000006</v>
+      </c>
+      <c r="E43" s="87">
+        <v>99.4375</v>
+      </c>
+      <c r="F43" s="75">
+        <f t="shared" si="39"/>
+        <v>85914</v>
+      </c>
+      <c r="H43" s="93">
+        <v>144000</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J43" s="75">
+        <f t="shared" si="30"/>
+        <v>140400</v>
+      </c>
+      <c r="K43" s="87">
+        <v>91.965277777777771</v>
+      </c>
+      <c r="L43" s="75">
+        <f t="shared" si="31"/>
+        <v>132430</v>
+      </c>
+      <c r="M43" s="96"/>
+      <c r="N43" s="196" t="s">
+        <v>38</v>
+      </c>
+      <c r="O43" s="196"/>
+      <c r="P43" s="196"/>
+      <c r="Q43" s="196"/>
+      <c r="R43" s="196"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="73">
-        <v>43787</v>
-      </c>
-      <c r="B44" s="93"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="75"/>
+      <c r="B44" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="190"/>
+      <c r="D44" s="160">
+        <f>SUM(D36:D43)</f>
+        <v>679276.79999999993</v>
+      </c>
+      <c r="E44" s="122">
+        <f>F44/D44</f>
+        <v>0.90789498478381725</v>
+      </c>
+      <c r="F44" s="89">
+        <f>SUM(F36:F43)</f>
+        <v>616712</v>
+      </c>
       <c r="G44" s="73">
         <v>43787</v>
       </c>
-      <c r="H44" s="74"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="75"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="75"/>
+      <c r="H44" s="93">
+        <v>145440</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="J44" s="75">
+        <f t="shared" si="30"/>
+        <v>143694.72</v>
+      </c>
+      <c r="K44" s="87">
+        <v>91.0547304730473</v>
+      </c>
+      <c r="L44" s="75">
+        <f t="shared" si="31"/>
+        <v>132430</v>
+      </c>
+      <c r="M44" s="73">
+        <v>43784</v>
+      </c>
+      <c r="N44" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O44" s="10">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="P44" s="75">
+        <f t="shared" ref="P44:P51" si="40">N44*O44</f>
+        <v>67737.600000000006</v>
+      </c>
+      <c r="Q44" s="87">
+        <v>36.833333333333336</v>
+      </c>
+      <c r="R44" s="75">
+        <f t="shared" ref="R44:R51" si="41">N44*Q44/100</f>
+        <v>27846</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B45" s="93"/>
@@ -13609,67 +14009,147 @@
       <c r="D45" s="75"/>
       <c r="E45" s="87"/>
       <c r="F45" s="75"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="73">
-        <v>43786</v>
-      </c>
-      <c r="N45" s="93"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="75"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="75"/>
+      <c r="H45" s="93">
+        <v>146880</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="J45" s="75">
+        <f t="shared" si="30"/>
+        <v>143648.63999999998</v>
+      </c>
+      <c r="K45" s="87">
+        <v>94.907407407407405</v>
+      </c>
+      <c r="L45" s="75">
+        <f t="shared" si="31"/>
+        <v>139400</v>
+      </c>
+      <c r="N45" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O45" s="10">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="P45" s="75">
+        <f t="shared" si="40"/>
+        <v>73029.599999999991</v>
+      </c>
+      <c r="Q45" s="87">
+        <v>82.333333333333343</v>
+      </c>
+      <c r="R45" s="75">
+        <f t="shared" si="41"/>
+        <v>62244.000000000007</v>
+      </c>
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="73">
-        <v>43788</v>
-      </c>
-      <c r="B46" s="93"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="75"/>
+      <c r="B46" s="196" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="196"/>
+      <c r="D46" s="196"/>
+      <c r="E46" s="196"/>
+      <c r="F46" s="196"/>
       <c r="G46" s="73">
         <v>43788</v>
       </c>
-      <c r="H46" s="74"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="75"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="75"/>
+      <c r="H46" s="93">
+        <v>146880</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="J46" s="75">
+        <f t="shared" si="30"/>
+        <v>142914.23999999999</v>
+      </c>
+      <c r="K46" s="87">
+        <v>94.907407407407405</v>
+      </c>
+      <c r="L46" s="75">
+        <f t="shared" si="31"/>
+        <v>139400</v>
+      </c>
+      <c r="M46" s="73">
+        <v>43785</v>
+      </c>
+      <c r="N46" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O46" s="10">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="P46" s="75">
+        <f t="shared" si="40"/>
+        <v>71593.2</v>
+      </c>
+      <c r="Q46" s="87">
+        <v>84.5</v>
+      </c>
+      <c r="R46" s="75">
+        <f t="shared" si="41"/>
+        <v>63882</v>
+      </c>
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="93"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="154"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="155"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="73">
+      <c r="A47" s="73">
         <v>43787</v>
       </c>
-      <c r="N47" s="93"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="75"/>
+      <c r="B47" s="159">
+        <v>87840</v>
+      </c>
+      <c r="C47" s="54">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="D47" s="75">
+        <f t="shared" ref="D47" si="42">B47*C47</f>
+        <v>81164.160000000003</v>
+      </c>
+      <c r="E47" s="87">
+        <v>32.375</v>
+      </c>
+      <c r="F47" s="75">
+        <f t="shared" ref="F47" si="43">B47*E47/100</f>
+        <v>28438.2</v>
+      </c>
+      <c r="H47" s="93">
+        <v>146880</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J47" s="75">
+        <f t="shared" si="30"/>
+        <v>144529.91999999998</v>
+      </c>
+      <c r="K47" s="87">
+        <v>90.162037037037038</v>
+      </c>
+      <c r="L47" s="75">
+        <f t="shared" si="31"/>
+        <v>132430</v>
+      </c>
+      <c r="N47" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O47" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="P47" s="75">
+        <f t="shared" si="40"/>
+        <v>73332</v>
+      </c>
+      <c r="Q47" s="87">
+        <v>91</v>
+      </c>
+      <c r="R47" s="75">
+        <f t="shared" si="41"/>
+        <v>68796</v>
+      </c>
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="73">
-        <v>43789</v>
-      </c>
       <c r="B48" s="93"/>
       <c r="C48" s="54"/>
       <c r="D48" s="75"/>
@@ -13678,18 +14158,47 @@
       <c r="G48" s="73">
         <v>43789</v>
       </c>
-      <c r="H48" s="75"/>
-      <c r="I48" s="154"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="155"/>
-      <c r="L48" s="75"/>
-      <c r="N48" s="93"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="75"/>
-      <c r="Q48" s="87"/>
-      <c r="R48" s="75"/>
+      <c r="H48" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="190"/>
+      <c r="J48" s="89">
+        <f>SUM(J34:J47)</f>
+        <v>1950131.5199999998</v>
+      </c>
+      <c r="K48" s="141">
+        <f>L48/J48</f>
+        <v>0.91854830386003927</v>
+      </c>
+      <c r="L48" s="89">
+        <f>SUM(L34:L47)</f>
+        <v>1791290</v>
+      </c>
+      <c r="M48" s="73">
+        <v>43786</v>
+      </c>
+      <c r="N48" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O48" s="10">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="P48" s="75">
+        <f t="shared" si="40"/>
+        <v>70232.400000000009</v>
+      </c>
+      <c r="Q48" s="87">
+        <v>82.333333333333343</v>
+      </c>
+      <c r="R48" s="75">
+        <f t="shared" si="41"/>
+        <v>62244.000000000007</v>
+      </c>
     </row>
     <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="73">
+        <v>43788</v>
+      </c>
       <c r="B49" s="93"/>
       <c r="C49" s="54"/>
       <c r="D49" s="75"/>
@@ -13700,19 +14209,25 @@
       <c r="J49" s="75"/>
       <c r="K49" s="155"/>
       <c r="L49" s="75"/>
-      <c r="M49" s="73">
-        <v>43788</v>
-      </c>
-      <c r="N49" s="93"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="75"/>
-      <c r="Q49" s="87"/>
-      <c r="R49" s="75"/>
+      <c r="N49" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O49" s="10">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="P49" s="75">
+        <f t="shared" si="40"/>
+        <v>72727.199999999997</v>
+      </c>
+      <c r="Q49" s="87">
+        <v>88.833333333333329</v>
+      </c>
+      <c r="R49" s="75">
+        <f t="shared" si="41"/>
+        <v>67158</v>
+      </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="73">
-        <v>43790</v>
-      </c>
       <c r="B50" s="93"/>
       <c r="C50" s="54"/>
       <c r="D50" s="75"/>
@@ -13721,41 +14236,79 @@
       <c r="G50" s="73">
         <v>43790</v>
       </c>
-      <c r="H50" s="75"/>
-      <c r="I50" s="154"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="155"/>
-      <c r="L50" s="75"/>
-      <c r="N50" s="152"/>
-      <c r="O50" s="152"/>
-      <c r="P50" s="150"/>
-      <c r="Q50" s="95"/>
-      <c r="R50" s="151"/>
+      <c r="H50" s="178" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="179"/>
+      <c r="J50" s="179"/>
+      <c r="K50" s="179"/>
+      <c r="L50" s="179"/>
+      <c r="M50" s="73">
+        <v>43787</v>
+      </c>
+      <c r="N50" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O50" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="P50" s="75">
+        <f t="shared" si="40"/>
+        <v>74466</v>
+      </c>
+      <c r="Q50" s="87">
+        <v>91</v>
+      </c>
+      <c r="R50" s="75">
+        <f t="shared" si="41"/>
+        <v>68796</v>
+      </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="73">
+        <v>43789</v>
+      </c>
       <c r="B51" s="93"/>
       <c r="C51" s="54"/>
       <c r="D51" s="75"/>
       <c r="E51" s="87"/>
       <c r="F51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="155"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="73">
-        <v>43789</v>
-      </c>
-      <c r="N51" s="93"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="75"/>
-      <c r="Q51" s="87"/>
-      <c r="R51" s="75"/>
+      <c r="H51" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I51" s="154">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J51" s="75">
+        <f t="shared" ref="J51" si="44">H51*I51</f>
+        <v>99388.800000000003</v>
+      </c>
+      <c r="K51" s="155">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L51" s="75">
+        <f t="shared" ref="L51" si="45">H51*K51/100</f>
+        <v>94770</v>
+      </c>
+      <c r="N51" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O51" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="P51" s="75">
+        <f t="shared" si="40"/>
+        <v>74314.8</v>
+      </c>
+      <c r="Q51" s="87">
+        <v>93.166666666666657</v>
+      </c>
+      <c r="R51" s="75">
+        <f t="shared" si="41"/>
+        <v>70433.999999999985</v>
+      </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="73">
-        <v>43791</v>
-      </c>
       <c r="B52" s="93"/>
       <c r="C52" s="54"/>
       <c r="D52" s="75"/>
@@ -13769,13 +14322,27 @@
       <c r="J52" s="75"/>
       <c r="K52" s="155"/>
       <c r="L52" s="75"/>
-      <c r="N52" s="144"/>
-      <c r="O52" s="110"/>
-      <c r="P52" s="110"/>
-      <c r="Q52" s="110"/>
-      <c r="R52" s="110"/>
+      <c r="N52" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="O52" s="190"/>
+      <c r="P52" s="89">
+        <f>SUM(P46:P51)</f>
+        <v>436665.60000000003</v>
+      </c>
+      <c r="Q52" s="141">
+        <f>R52/P52</f>
+        <v>0.91903277931671279</v>
+      </c>
+      <c r="R52" s="89">
+        <f>SUM(R46:R51)</f>
+        <v>401310</v>
+      </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="73">
+        <v>43790</v>
+      </c>
       <c r="B53" s="93"/>
       <c r="C53" s="54"/>
       <c r="D53" s="75"/>
@@ -13793,9 +14360,6 @@
       <c r="R53" s="75"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="73">
-        <v>43792</v>
-      </c>
       <c r="B54" s="93"/>
       <c r="C54" s="54"/>
       <c r="D54" s="75"/>
@@ -13809,16 +14373,18 @@
       <c r="J54" s="75"/>
       <c r="K54" s="155"/>
       <c r="L54" s="75"/>
-      <c r="M54" s="73">
-        <v>43790</v>
-      </c>
-      <c r="N54" s="93"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="75"/>
-      <c r="Q54" s="87"/>
-      <c r="R54" s="75"/>
+      <c r="N54" s="196" t="s">
+        <v>42</v>
+      </c>
+      <c r="O54" s="196"/>
+      <c r="P54" s="196"/>
+      <c r="Q54" s="196"/>
+      <c r="R54" s="196"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="73">
+        <v>43791</v>
+      </c>
       <c r="B55" s="93"/>
       <c r="C55" s="54"/>
       <c r="D55" s="75"/>
@@ -13829,16 +14395,28 @@
       <c r="J55" s="75"/>
       <c r="K55" s="155"/>
       <c r="L55" s="75"/>
-      <c r="N55" s="93"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="75"/>
-      <c r="Q55" s="87"/>
-      <c r="R55" s="75"/>
+      <c r="M55" s="73">
+        <v>43788</v>
+      </c>
+      <c r="N55" s="93">
+        <v>75600</v>
+      </c>
+      <c r="O55" s="10">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="P55" s="75">
+        <f t="shared" ref="P55" si="46">N55*O55</f>
+        <v>67737.600000000006</v>
+      </c>
+      <c r="Q55" s="87">
+        <v>36.833333333333336</v>
+      </c>
+      <c r="R55" s="75">
+        <f t="shared" ref="R55" si="47">N55*Q55/100</f>
+        <v>27846</v>
+      </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="73">
-        <v>43793</v>
-      </c>
       <c r="B56" s="93"/>
       <c r="C56" s="54"/>
       <c r="D56" s="75"/>
@@ -13852,9 +14430,6 @@
       <c r="J56" s="75"/>
       <c r="K56" s="155"/>
       <c r="L56" s="75"/>
-      <c r="M56" s="73">
-        <v>43791</v>
-      </c>
       <c r="N56" s="93"/>
       <c r="O56" s="10"/>
       <c r="P56" s="75"/>
@@ -13862,6 +14437,9 @@
       <c r="R56" s="75"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="73">
+        <v>43792</v>
+      </c>
       <c r="B57" s="93"/>
       <c r="C57" s="54"/>
       <c r="D57" s="75"/>
@@ -13873,7 +14451,7 @@
       <c r="K57" s="155"/>
       <c r="L57" s="75"/>
       <c r="M57" s="73">
-        <v>43792</v>
+        <v>43789</v>
       </c>
       <c r="N57" s="93"/>
       <c r="O57" s="10"/>
@@ -13882,9 +14460,6 @@
       <c r="R57" s="75"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="73">
-        <v>43794</v>
-      </c>
       <c r="B58" s="93"/>
       <c r="C58" s="54"/>
       <c r="D58" s="75"/>
@@ -13898,6 +14473,9 @@
       <c r="J58" s="75"/>
       <c r="K58" s="155"/>
       <c r="L58" s="75"/>
+      <c r="M58" s="73">
+        <v>43790</v>
+      </c>
       <c r="N58" s="93"/>
       <c r="O58" s="10"/>
       <c r="P58" s="75"/>
@@ -13905,6 +14483,9 @@
       <c r="R58" s="75"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="73">
+        <v>43793</v>
+      </c>
       <c r="B59" s="93"/>
       <c r="C59" s="54"/>
       <c r="D59" s="75"/>
@@ -13915,9 +14496,6 @@
       <c r="J59" s="75"/>
       <c r="K59" s="155"/>
       <c r="L59" s="75"/>
-      <c r="M59" s="73">
-        <v>43793</v>
-      </c>
       <c r="N59" s="93"/>
       <c r="O59" s="10"/>
       <c r="P59" s="75"/>
@@ -13925,9 +14503,6 @@
       <c r="R59" s="75"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="73">
-        <v>43795</v>
-      </c>
       <c r="B60" s="93"/>
       <c r="C60" s="54"/>
       <c r="D60" s="75"/>
@@ -13941,6 +14516,9 @@
       <c r="J60" s="75"/>
       <c r="K60" s="155"/>
       <c r="L60" s="75"/>
+      <c r="M60" s="73">
+        <v>43791</v>
+      </c>
       <c r="N60" s="93"/>
       <c r="O60" s="10"/>
       <c r="P60" s="75"/>
@@ -13948,6 +14526,9 @@
       <c r="R60" s="75"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="73">
+        <v>43794</v>
+      </c>
       <c r="B61" s="93"/>
       <c r="C61" s="54"/>
       <c r="D61" s="75"/>
@@ -13959,7 +14540,7 @@
       <c r="K61" s="155"/>
       <c r="L61" s="75"/>
       <c r="M61" s="73">
-        <v>43794</v>
+        <v>43792</v>
       </c>
       <c r="N61" s="93"/>
       <c r="O61" s="10"/>
@@ -13968,9 +14549,6 @@
       <c r="R61" s="75"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="73">
-        <v>43796</v>
-      </c>
       <c r="B62" s="93"/>
       <c r="C62" s="54"/>
       <c r="D62" s="75"/>
@@ -13991,6 +14569,9 @@
       <c r="R62" s="75"/>
     </row>
     <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="73">
+        <v>43795</v>
+      </c>
       <c r="B63" s="93"/>
       <c r="C63" s="54"/>
       <c r="D63" s="75"/>
@@ -14002,7 +14583,7 @@
       <c r="K63" s="154"/>
       <c r="L63" s="75"/>
       <c r="M63" s="73">
-        <v>43795</v>
+        <v>43793</v>
       </c>
       <c r="N63" s="93"/>
       <c r="O63" s="10"/>
@@ -14011,9 +14592,6 @@
       <c r="R63" s="75"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="73">
-        <v>43797</v>
-      </c>
       <c r="B64" s="93"/>
       <c r="C64" s="54"/>
       <c r="D64" s="75"/>
@@ -14034,6 +14612,9 @@
       <c r="R64" s="75"/>
     </row>
     <row r="65" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="73">
+        <v>43796</v>
+      </c>
       <c r="B65" s="93"/>
       <c r="C65" s="54"/>
       <c r="D65" s="75"/>
@@ -14045,7 +14626,7 @@
       <c r="K65" s="157"/>
       <c r="L65" s="157"/>
       <c r="M65" s="73">
-        <v>43796</v>
+        <v>43794</v>
       </c>
       <c r="N65" s="93"/>
       <c r="O65" s="10"/>
@@ -14054,9 +14635,6 @@
       <c r="R65" s="75"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="73">
-        <v>43798</v>
-      </c>
       <c r="B66" s="93"/>
       <c r="C66" s="54"/>
       <c r="D66" s="75"/>
@@ -14077,6 +14655,9 @@
       <c r="R66" s="75"/>
     </row>
     <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="73">
+        <v>43797</v>
+      </c>
       <c r="B67" s="93"/>
       <c r="C67" s="54"/>
       <c r="D67" s="75"/>
@@ -14087,6 +14668,9 @@
       <c r="J67" s="75"/>
       <c r="K67" s="155"/>
       <c r="L67" s="75"/>
+      <c r="M67" s="73">
+        <v>43795</v>
+      </c>
       <c r="N67" s="152"/>
       <c r="O67" s="152"/>
       <c r="P67" s="150"/>
@@ -14114,6 +14698,9 @@
       <c r="R68" s="75"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="73">
+        <v>43798</v>
+      </c>
       <c r="B69" s="93"/>
       <c r="C69" s="54"/>
       <c r="D69" s="75"/>
@@ -14124,6 +14711,9 @@
       <c r="J69" s="75"/>
       <c r="K69" s="155"/>
       <c r="L69" s="75"/>
+      <c r="M69" s="73">
+        <v>43796</v>
+      </c>
       <c r="N69" s="153"/>
       <c r="O69" s="91"/>
       <c r="P69" s="91"/>
@@ -14194,9 +14784,7 @@
       <c r="R72" s="60"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="73" t="s">
-        <v>33</v>
-      </c>
+      <c r="A73" s="73"/>
       <c r="B73" s="93"/>
       <c r="C73" s="54"/>
       <c r="D73" s="75"/>
@@ -14251,8 +14839,8 @@
       <c r="R75" s="60"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="190"/>
-      <c r="C76" s="190"/>
+      <c r="B76" s="194"/>
+      <c r="C76" s="194"/>
       <c r="D76" s="136"/>
       <c r="E76" s="137"/>
       <c r="F76" s="136"/>
@@ -14374,19 +14962,19 @@
       <c r="R82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="180"/>
-      <c r="C83" s="180"/>
-      <c r="D83" s="180"/>
+      <c r="B83" s="184"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
       <c r="E83" s="134"/>
       <c r="F83" s="134"/>
-      <c r="H83" s="180"/>
-      <c r="I83" s="180"/>
-      <c r="J83" s="180"/>
+      <c r="H83" s="184"/>
+      <c r="I83" s="184"/>
+      <c r="J83" s="184"/>
       <c r="K83" s="134"/>
       <c r="L83" s="134"/>
-      <c r="N83" s="180"/>
-      <c r="O83" s="180"/>
-      <c r="P83" s="180"/>
+      <c r="N83" s="184"/>
+      <c r="O83" s="184"/>
+      <c r="P83" s="184"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="136"/>
@@ -14482,33 +15070,30 @@
       <c r="P89" s="136"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="180"/>
-      <c r="C90" s="180"/>
+      <c r="B90" s="184"/>
+      <c r="C90" s="184"/>
       <c r="D90" s="136"/>
       <c r="E90" s="136"/>
       <c r="F90" s="136"/>
-      <c r="H90" s="180"/>
-      <c r="I90" s="180"/>
+      <c r="H90" s="184"/>
+      <c r="I90" s="184"/>
       <c r="J90" s="136"/>
       <c r="K90" s="136"/>
       <c r="L90" s="136"/>
-      <c r="N90" s="180"/>
-      <c r="O90" s="180"/>
+      <c r="N90" s="184"/>
+      <c r="O90" s="184"/>
       <c r="P90" s="136"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="N3:R3"/>
+  <mergeCells count="35">
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N54:R54"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H50:L50"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="H90:I90"/>
     <mergeCell ref="N90:O90"/>
@@ -14523,9 +15108,22 @@
     <mergeCell ref="N34:R34"/>
     <mergeCell ref="H33:L33"/>
     <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N32:O32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="14412" windowHeight="12456" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="14412" windowHeight="12456" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Бланк" sheetId="45" r:id="rId1"/>
     <sheet name="Сентябрь" sheetId="53" r:id="rId2"/>
     <sheet name="Октябрь" sheetId="54" r:id="rId3"/>
     <sheet name="Ноябрь" sheetId="55" r:id="rId4"/>
+    <sheet name="Декабрь" sheetId="56" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Бланк!$A$1:$N$82</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Ноябрь!$A$1:$R$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Декабрь!$A$1:$R$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Ноябрь!$A$1:$R$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Октябрь!$A$1:$R$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$R$76</definedName>
   </definedNames>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="43">
   <si>
     <t>% работы</t>
   </si>
@@ -129,9 +131,6 @@
     <t>XIII-В-28-2-500-4 (Фляга 0,5 л.)</t>
   </si>
   <si>
-    <t>31.11.2019</t>
-  </si>
-  <si>
     <t>V-GPI-630-200 (Тоник 0,2 л.)</t>
   </si>
   <si>
@@ -157,6 +156,9 @@
   </si>
   <si>
     <t>ХХI-КПМ-30-1-500-9 (Штофф Земляк)</t>
+  </si>
+  <si>
+    <t>ХХI-КПМ-30-4А-700 (Байрон 0,7 л.)</t>
   </si>
 </sst>
 </file>
@@ -644,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1045,24 +1047,6 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1072,20 +1056,11 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1097,52 +1072,73 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1151,55 +1147,79 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1532,21 +1552,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="176" t="s">
+      <c r="C1" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
       <c r="H1" s="51"/>
-      <c r="I1" s="176" t="s">
+      <c r="I1" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
     </row>
     <row r="2" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -1588,22 +1608,22 @@
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="166" t="s">
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="165"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="160"/>
       <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1849,11 +1869,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="167"/>
-      <c r="D11" s="165"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="160"/>
       <c r="E11" s="24">
         <f>SUM(E4:E10)</f>
         <v>829712.88</v>
@@ -1874,12 +1894,12 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="168"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="170"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="166"/>
       <c r="H12" s="20"/>
       <c r="I12" s="14"/>
       <c r="J12" s="23"/>
@@ -1892,14 +1912,14 @@
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="167"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="171"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="170"/>
       <c r="H13" s="20"/>
       <c r="I13" s="14"/>
       <c r="J13" s="23"/>
@@ -1911,12 +1931,12 @@
       <c r="A14" s="3">
         <v>43439</v>
       </c>
-      <c r="B14" s="173"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="175"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="163"/>
       <c r="H14" s="20"/>
       <c r="I14" s="14"/>
       <c r="J14" s="23"/>
@@ -1951,9 +1971,9 @@
       <c r="E16" s="11"/>
       <c r="F16" s="38"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="165"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="160"/>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
       <c r="M16" s="24"/>
@@ -1965,9 +1985,9 @@
       <c r="E17" s="11"/>
       <c r="F17" s="38"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="170"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="166"/>
       <c r="K17" s="11"/>
       <c r="L17" s="33"/>
       <c r="M17" s="11"/>
@@ -1982,12 +2002,12 @@
       <c r="E18" s="11"/>
       <c r="F18" s="38"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
-      <c r="L18" s="167"/>
-      <c r="M18" s="165"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="160"/>
       <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2076,9 +2096,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="166"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="165"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="160"/>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
       <c r="G24" s="24"/>
@@ -2108,12 +2128,12 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="165"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="160"/>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
       <c r="J26" s="23"/>
@@ -2259,9 +2279,9 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="166"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="165"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="160"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
       <c r="G35" s="24"/>
@@ -2291,12 +2311,12 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="166"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="165"/>
+      <c r="B37" s="158"/>
+      <c r="C37" s="159"/>
+      <c r="D37" s="159"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="160"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
       <c r="J37" s="23"/>
@@ -2444,9 +2464,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="166"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="165"/>
+      <c r="B46" s="158"/>
+      <c r="C46" s="159"/>
+      <c r="D46" s="160"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
       <c r="G46" s="24"/>
@@ -2476,12 +2496,12 @@
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="166"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="165"/>
+      <c r="B48" s="158"/>
+      <c r="C48" s="159"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="159"/>
+      <c r="G48" s="160"/>
       <c r="H48" s="30"/>
       <c r="I48" s="31"/>
       <c r="J48" s="23"/>
@@ -2626,15 +2646,15 @@
       <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="166"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="165"/>
+      <c r="B57" s="158"/>
+      <c r="C57" s="159"/>
+      <c r="D57" s="160"/>
       <c r="E57" s="24"/>
       <c r="F57" s="25"/>
       <c r="G57" s="24"/>
-      <c r="H57" s="166"/>
-      <c r="I57" s="167"/>
-      <c r="J57" s="165"/>
+      <c r="H57" s="158"/>
+      <c r="I57" s="159"/>
+      <c r="J57" s="160"/>
       <c r="K57" s="24"/>
       <c r="L57" s="25"/>
       <c r="M57" s="24"/>
@@ -2654,12 +2674,12 @@
       <c r="M58" s="11"/>
     </row>
     <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="166"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="167"/>
-      <c r="F59" s="167"/>
-      <c r="G59" s="165"/>
+      <c r="B59" s="158"/>
+      <c r="C59" s="159"/>
+      <c r="D59" s="159"/>
+      <c r="E59" s="159"/>
+      <c r="F59" s="159"/>
+      <c r="G59" s="160"/>
       <c r="H59" s="20"/>
       <c r="I59" s="14"/>
       <c r="J59" s="23"/>
@@ -2671,9 +2691,9 @@
       <c r="A60" s="3">
         <v>43456</v>
       </c>
-      <c r="B60" s="166"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="165"/>
+      <c r="B60" s="158"/>
+      <c r="C60" s="159"/>
+      <c r="D60" s="160"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
       <c r="G60" s="24"/>
@@ -2685,12 +2705,12 @@
       <c r="M60" s="11"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="172"/>
-      <c r="C61" s="172"/>
-      <c r="D61" s="172"/>
-      <c r="E61" s="172"/>
-      <c r="F61" s="172"/>
-      <c r="G61" s="172"/>
+      <c r="B61" s="171"/>
+      <c r="C61" s="171"/>
+      <c r="D61" s="171"/>
+      <c r="E61" s="171"/>
+      <c r="F61" s="171"/>
+      <c r="G61" s="171"/>
       <c r="H61" s="20"/>
       <c r="I61" s="14"/>
       <c r="J61" s="23"/>
@@ -2702,12 +2722,12 @@
       <c r="A62" s="3">
         <v>43457</v>
       </c>
-      <c r="B62" s="166"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="164"/>
-      <c r="E62" s="167"/>
-      <c r="F62" s="164"/>
-      <c r="G62" s="171"/>
+      <c r="B62" s="158"/>
+      <c r="C62" s="159"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="159"/>
+      <c r="F62" s="169"/>
+      <c r="G62" s="170"/>
       <c r="H62" s="20"/>
       <c r="I62" s="14"/>
       <c r="J62" s="23"/>
@@ -2770,9 +2790,9 @@
       <c r="E66" s="11"/>
       <c r="F66" s="38"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="166"/>
-      <c r="I66" s="167"/>
-      <c r="J66" s="165"/>
+      <c r="H66" s="158"/>
+      <c r="I66" s="159"/>
+      <c r="J66" s="160"/>
       <c r="K66" s="24"/>
       <c r="L66" s="25"/>
       <c r="M66" s="24"/>
@@ -2801,12 +2821,12 @@
       <c r="E68" s="11"/>
       <c r="F68" s="38"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="163"/>
-      <c r="I68" s="164"/>
-      <c r="J68" s="164"/>
-      <c r="K68" s="164"/>
-      <c r="L68" s="164"/>
-      <c r="M68" s="165"/>
+      <c r="H68" s="173"/>
+      <c r="I68" s="169"/>
+      <c r="J68" s="169"/>
+      <c r="K68" s="169"/>
+      <c r="L68" s="169"/>
+      <c r="M68" s="160"/>
       <c r="N68" s="28"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -2918,9 +2938,9 @@
       <c r="E75" s="11"/>
       <c r="F75" s="38"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="166"/>
-      <c r="I75" s="167"/>
-      <c r="J75" s="165"/>
+      <c r="H75" s="158"/>
+      <c r="I75" s="159"/>
+      <c r="J75" s="160"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
       <c r="M75" s="24"/>
@@ -2940,23 +2960,23 @@
       <c r="M76" s="11"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="166"/>
-      <c r="C77" s="167"/>
-      <c r="D77" s="165"/>
+      <c r="B77" s="158"/>
+      <c r="C77" s="159"/>
+      <c r="D77" s="160"/>
       <c r="E77" s="24"/>
       <c r="F77" s="25"/>
       <c r="G77" s="24"/>
-      <c r="H77" s="163"/>
-      <c r="I77" s="164"/>
-      <c r="J77" s="164"/>
-      <c r="K77" s="164"/>
-      <c r="L77" s="164"/>
-      <c r="M77" s="165"/>
+      <c r="H77" s="173"/>
+      <c r="I77" s="169"/>
+      <c r="J77" s="169"/>
+      <c r="K77" s="169"/>
+      <c r="L77" s="169"/>
+      <c r="M77" s="160"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="168"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="170"/>
+      <c r="B78" s="164"/>
+      <c r="C78" s="165"/>
+      <c r="D78" s="166"/>
       <c r="E78" s="11"/>
       <c r="F78" s="33"/>
       <c r="G78" s="11"/>
@@ -2971,12 +2991,12 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="166"/>
-      <c r="C79" s="167"/>
-      <c r="D79" s="164"/>
-      <c r="E79" s="167"/>
-      <c r="F79" s="164"/>
-      <c r="G79" s="171"/>
+      <c r="B79" s="158"/>
+      <c r="C79" s="159"/>
+      <c r="D79" s="169"/>
+      <c r="E79" s="159"/>
+      <c r="F79" s="169"/>
+      <c r="G79" s="170"/>
       <c r="H79" s="20"/>
       <c r="I79" s="14"/>
       <c r="J79" s="23"/>
@@ -3019,27 +3039,27 @@
       <c r="M81" s="11"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="166"/>
-      <c r="C82" s="167"/>
-      <c r="D82" s="165"/>
+      <c r="B82" s="158"/>
+      <c r="C82" s="159"/>
+      <c r="D82" s="160"/>
       <c r="E82" s="24"/>
       <c r="F82" s="25"/>
       <c r="G82" s="24"/>
-      <c r="H82" s="163"/>
-      <c r="I82" s="164"/>
-      <c r="J82" s="171"/>
+      <c r="H82" s="173"/>
+      <c r="I82" s="169"/>
+      <c r="J82" s="170"/>
       <c r="K82" s="26"/>
       <c r="L82" s="27"/>
       <c r="M82" s="26"/>
       <c r="N82" s="28"/>
     </row>
     <row r="83" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="162"/>
-      <c r="C83" s="162"/>
-      <c r="D83" s="162"/>
-      <c r="E83" s="162"/>
-      <c r="F83" s="162"/>
-      <c r="G83" s="162"/>
+      <c r="B83" s="172"/>
+      <c r="C83" s="172"/>
+      <c r="D83" s="172"/>
+      <c r="E83" s="172"/>
+      <c r="F83" s="172"/>
+      <c r="G83" s="172"/>
       <c r="H83" s="49"/>
       <c r="I83" s="50"/>
       <c r="J83" s="44"/>
@@ -3054,9 +3074,9 @@
       <c r="E84" s="16"/>
       <c r="F84" s="45"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="162"/>
-      <c r="I84" s="162"/>
-      <c r="J84" s="162"/>
+      <c r="H84" s="172"/>
+      <c r="I84" s="172"/>
+      <c r="J84" s="172"/>
       <c r="K84" s="16"/>
       <c r="L84" s="36"/>
       <c r="M84" s="16"/>
@@ -3111,9 +3131,9 @@
       <c r="E88" s="16"/>
       <c r="F88" s="45"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="162"/>
-      <c r="I88" s="162"/>
-      <c r="J88" s="162"/>
+      <c r="H88" s="172"/>
+      <c r="I88" s="172"/>
+      <c r="J88" s="172"/>
       <c r="K88" s="16"/>
       <c r="L88" s="36"/>
       <c r="M88" s="16"/>
@@ -3127,39 +3147,15 @@
       <c r="G89" s="16"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="162"/>
-      <c r="C90" s="162"/>
-      <c r="D90" s="162"/>
+      <c r="B90" s="172"/>
+      <c r="C90" s="172"/>
+      <c r="D90" s="172"/>
       <c r="E90" s="16"/>
       <c r="F90" s="36"/>
       <c r="G90" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B59:G59"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="H68:M68"/>
     <mergeCell ref="H75:J75"/>
@@ -3172,6 +3168,30 @@
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="H84:J84"/>
     <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3211,27 +3231,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="H1" s="182" t="s">
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="H1" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="N1" s="182" t="s">
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="N1" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -3282,29 +3302,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
       <c r="G3" s="97"/>
-      <c r="H3" s="178" t="s">
+      <c r="H3" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
       <c r="M3" s="97"/>
-      <c r="N3" s="180" t="s">
+      <c r="N3" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="181"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="181"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -3886,10 +3906,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="185" t="s">
+      <c r="B14" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="186"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="77">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
@@ -3986,13 +4006,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="96"/>
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
       <c r="G16" s="73">
         <v>43715</v>
       </c>
@@ -4243,10 +4263,10 @@
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="185" t="s">
+      <c r="N20" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="186"/>
+      <c r="O20" s="175"/>
       <c r="P20" s="77">
         <f>SUM(P4:P19)</f>
         <v>1447623.36</v>
@@ -4341,13 +4361,13 @@
         <v>94770</v>
       </c>
       <c r="M22" s="96"/>
-      <c r="N22" s="180" t="s">
+      <c r="N22" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="181"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="181"/>
-      <c r="R22" s="181"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="180"/>
+      <c r="Q22" s="180"/>
+      <c r="R22" s="180"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="73">
@@ -4426,10 +4446,10 @@
         <f t="shared" si="18"/>
         <v>106496</v>
       </c>
-      <c r="H24" s="185" t="s">
+      <c r="H24" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="186"/>
+      <c r="I24" s="175"/>
       <c r="J24" s="77">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
@@ -4526,13 +4546,13 @@
         <v>109824</v>
       </c>
       <c r="G26" s="96"/>
-      <c r="H26" s="178" t="s">
+      <c r="H26" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="179"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
       <c r="N26" s="93">
         <v>84240</v>
       </c>
@@ -4667,10 +4687,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="185" t="s">
+      <c r="B29" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="186"/>
+      <c r="C29" s="175"/>
       <c r="D29" s="77">
         <f>SUM(D17:D28)</f>
         <v>1312507.44</v>
@@ -4767,13 +4787,13 @@
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="96"/>
-      <c r="B31" s="178" t="s">
+      <c r="B31" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="179"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
       <c r="G31" s="73">
         <v>43721</v>
       </c>
@@ -5139,10 +5159,10 @@
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N37" s="187" t="s">
+      <c r="N37" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="187"/>
+      <c r="O37" s="181"/>
       <c r="P37" s="77">
         <f>SUM(P23:P36)</f>
         <v>1133003.52</v>
@@ -5216,10 +5236,10 @@
         <f t="shared" si="30"/>
         <v>65705.999999999985</v>
       </c>
-      <c r="H39" s="189" t="s">
+      <c r="H39" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="190"/>
+      <c r="I39" s="183"/>
       <c r="J39" s="77">
         <f>SUM(J27:J38)</f>
         <v>1647216</v>
@@ -5233,13 +5253,13 @@
         <v>1512490</v>
       </c>
       <c r="M39" s="96"/>
-      <c r="N39" s="180" t="s">
+      <c r="N39" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="O39" s="181"/>
-      <c r="P39" s="181"/>
-      <c r="Q39" s="181"/>
-      <c r="R39" s="181"/>
+      <c r="O39" s="180"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="73">
@@ -5307,13 +5327,13 @@
         <v>67104</v>
       </c>
       <c r="G41" s="96"/>
-      <c r="H41" s="178" t="s">
+      <c r="H41" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="179"/>
-      <c r="J41" s="179"/>
-      <c r="K41" s="179"/>
-      <c r="L41" s="179"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="177"/>
+      <c r="K41" s="177"/>
+      <c r="L41" s="177"/>
       <c r="N41" s="93">
         <v>64080</v>
       </c>
@@ -5448,10 +5468,10 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="185" t="s">
+      <c r="B44" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="186"/>
+      <c r="C44" s="175"/>
       <c r="D44" s="100">
         <f>SUM(D32:D43)</f>
         <v>825840</v>
@@ -5548,13 +5568,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="96"/>
-      <c r="B46" s="180" t="s">
+      <c r="B46" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="181"/>
-      <c r="D46" s="181"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="181"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="180"/>
       <c r="G46" s="73">
         <v>43727</v>
       </c>
@@ -5690,10 +5710,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N48" s="187" t="s">
+      <c r="N48" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="O48" s="187"/>
+      <c r="O48" s="181"/>
       <c r="P48" s="98">
         <f>SUM(P40:P47)</f>
         <v>496705.68</v>
@@ -5788,13 +5808,13 @@
         <v>91125</v>
       </c>
       <c r="M50" s="96"/>
-      <c r="N50" s="180" t="s">
+      <c r="N50" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="O50" s="181"/>
-      <c r="P50" s="181"/>
-      <c r="Q50" s="181"/>
-      <c r="R50" s="181"/>
+      <c r="O50" s="180"/>
+      <c r="P50" s="180"/>
+      <c r="Q50" s="180"/>
+      <c r="R50" s="180"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="73">
@@ -6179,10 +6199,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N57" s="188" t="s">
+      <c r="N57" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="O57" s="188"/>
+      <c r="O57" s="184"/>
       <c r="P57" s="100">
         <f>SUM(P49:P56)</f>
         <v>448449.84</v>
@@ -6241,10 +6261,10 @@
       <c r="R58" s="107"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="185" t="s">
+      <c r="B59" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="186"/>
+      <c r="C59" s="175"/>
       <c r="D59" s="98">
         <f>SUM(D47:D58)</f>
         <v>1010437.2</v>
@@ -6275,13 +6295,13 @@
         <v>91125</v>
       </c>
       <c r="M59" s="96"/>
-      <c r="N59" s="180" t="s">
+      <c r="N59" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="O59" s="181"/>
-      <c r="P59" s="181"/>
-      <c r="Q59" s="181"/>
-      <c r="R59" s="181"/>
+      <c r="O59" s="180"/>
+      <c r="P59" s="180"/>
+      <c r="Q59" s="180"/>
+      <c r="R59" s="180"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60" s="91"/>
@@ -6332,13 +6352,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="96"/>
-      <c r="B61" s="180" t="s">
+      <c r="B61" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="181"/>
-      <c r="D61" s="181"/>
-      <c r="E61" s="181"/>
-      <c r="F61" s="181"/>
+      <c r="C61" s="180"/>
+      <c r="D61" s="180"/>
+      <c r="E61" s="180"/>
+      <c r="F61" s="180"/>
       <c r="H61" s="74">
         <v>100800</v>
       </c>
@@ -6855,10 +6875,10 @@
         <f t="shared" si="54"/>
         <v>86184</v>
       </c>
-      <c r="H70" s="185" t="s">
+      <c r="H70" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="186"/>
+      <c r="I70" s="175"/>
       <c r="J70" s="100">
         <f>SUM(J42:J69)</f>
         <v>2733393.6</v>
@@ -7110,10 +7130,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="185" t="s">
+      <c r="B76" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="186"/>
+      <c r="C76" s="175"/>
       <c r="D76" s="100">
         <f>SUM(D62:D75)</f>
         <v>1243584</v>
@@ -7131,10 +7151,10 @@
       <c r="J76" s="79"/>
       <c r="K76" s="79"/>
       <c r="L76" s="79"/>
-      <c r="N76" s="188" t="s">
+      <c r="N76" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="188"/>
+      <c r="O76" s="184"/>
       <c r="P76" s="100">
         <f>SUM(P60:P75)</f>
         <v>1630498.3199999998</v>
@@ -7252,19 +7272,19 @@
       <c r="R82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="184"/>
-      <c r="C83" s="184"/>
-      <c r="D83" s="184"/>
+      <c r="B83" s="178"/>
+      <c r="C83" s="178"/>
+      <c r="D83" s="178"/>
       <c r="E83" s="80"/>
       <c r="F83" s="80"/>
-      <c r="H83" s="184"/>
-      <c r="I83" s="184"/>
-      <c r="J83" s="184"/>
+      <c r="H83" s="178"/>
+      <c r="I83" s="178"/>
+      <c r="J83" s="178"/>
       <c r="K83" s="80"/>
       <c r="L83" s="80"/>
-      <c r="N83" s="184"/>
-      <c r="O83" s="184"/>
-      <c r="P83" s="184"/>
+      <c r="N83" s="178"/>
+      <c r="O83" s="178"/>
+      <c r="P83" s="178"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -7360,22 +7380,42 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="184"/>
-      <c r="C90" s="184"/>
+      <c r="B90" s="178"/>
+      <c r="C90" s="178"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="184"/>
-      <c r="I90" s="184"/>
+      <c r="H90" s="178"/>
+      <c r="I90" s="178"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="184"/>
-      <c r="O90" s="184"/>
+      <c r="N90" s="178"/>
+      <c r="O90" s="178"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N59:R59"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B16:F16"/>
@@ -7391,26 +7431,6 @@
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="H70:I70"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N50:R50"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N59:R59"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7426,8 +7446,8 @@
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H72" sqref="H72:L72"/>
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7452,27 +7472,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="H1" s="182" t="s">
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="H1" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="N1" s="182" t="s">
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="N1" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -7523,29 +7543,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
       <c r="G3" s="97"/>
-      <c r="H3" s="192" t="s">
+      <c r="H3" s="189" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
       <c r="M3" s="97"/>
-      <c r="N3" s="180" t="s">
+      <c r="N3" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="181"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="181"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -8011,10 +8031,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="190"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="116">
         <f>SUM(D4:D11)</f>
         <v>721644.48</v>
@@ -8112,13 +8132,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="96"/>
-      <c r="B14" s="180" t="s">
+      <c r="B14" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="181"/>
-      <c r="D14" s="181"/>
-      <c r="E14" s="181"/>
-      <c r="F14" s="191"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="187"/>
       <c r="G14" s="73">
         <v>43744</v>
       </c>
@@ -8714,10 +8734,10 @@
         <f t="shared" si="9"/>
         <v>98415</v>
       </c>
-      <c r="N24" s="188" t="s">
+      <c r="N24" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="188"/>
+      <c r="O24" s="184"/>
       <c r="P24" s="117">
         <f>SUM(P4:P23)</f>
         <v>2047806</v>
@@ -8814,13 +8834,13 @@
         <v>94770</v>
       </c>
       <c r="M26" s="96"/>
-      <c r="N26" s="180" t="s">
+      <c r="N26" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="181"/>
-      <c r="P26" s="181"/>
-      <c r="Q26" s="181"/>
-      <c r="R26" s="181"/>
+      <c r="O26" s="180"/>
+      <c r="P26" s="180"/>
+      <c r="Q26" s="180"/>
+      <c r="R26" s="180"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="73">
@@ -9244,10 +9264,10 @@
         <f t="shared" si="21"/>
         <v>85824</v>
       </c>
-      <c r="H34" s="189" t="s">
+      <c r="H34" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="190"/>
+      <c r="I34" s="183"/>
       <c r="J34" s="118">
         <f>SUM(J4:J33)</f>
         <v>2962108.8000000003</v>
@@ -9344,13 +9364,13 @@
         <v>85824</v>
       </c>
       <c r="G36" s="96"/>
-      <c r="H36" s="192" t="s">
+      <c r="H36" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="193"/>
-      <c r="J36" s="193"/>
-      <c r="K36" s="193"/>
-      <c r="L36" s="193"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="190"/>
+      <c r="K36" s="190"/>
+      <c r="L36" s="190"/>
       <c r="N36" s="93">
         <v>104400</v>
       </c>
@@ -9525,10 +9545,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N39" s="188" t="s">
+      <c r="N39" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="O39" s="188"/>
+      <c r="O39" s="184"/>
       <c r="P39" s="119">
         <f>SUM(P27:P38)</f>
         <v>1219183.2</v>
@@ -9584,10 +9604,10 @@
       <c r="R40" s="75"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="189" t="s">
+      <c r="B41" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="190"/>
+      <c r="C41" s="183"/>
       <c r="D41" s="118">
         <f>SUM(D15:D40)</f>
         <v>2335044.96</v>
@@ -9621,13 +9641,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M41" s="96"/>
-      <c r="N41" s="180" t="s">
+      <c r="N41" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="O41" s="181"/>
-      <c r="P41" s="181"/>
-      <c r="Q41" s="181"/>
-      <c r="R41" s="181"/>
+      <c r="O41" s="180"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="180"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" s="74"/>
@@ -9675,13 +9695,13 @@
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="96"/>
-      <c r="B43" s="180" t="s">
+      <c r="B43" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="191"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="187"/>
       <c r="G43" s="73">
         <v>43757</v>
       </c>
@@ -10103,10 +10123,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N50" s="188" t="s">
+      <c r="N50" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="O50" s="188"/>
+      <c r="O50" s="184"/>
       <c r="P50" s="128">
         <f>SUM(P42:P49)</f>
         <v>650324.37600000005</v>
@@ -10203,13 +10223,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M52" s="96"/>
-      <c r="N52" s="180" t="s">
+      <c r="N52" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="O52" s="181"/>
-      <c r="P52" s="181"/>
-      <c r="Q52" s="181"/>
-      <c r="R52" s="181"/>
+      <c r="O52" s="180"/>
+      <c r="P52" s="180"/>
+      <c r="Q52" s="180"/>
+      <c r="R52" s="180"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B53" s="93">
@@ -10804,10 +10824,10 @@
         <f t="shared" si="33"/>
         <v>69900</v>
       </c>
-      <c r="H63" s="189" t="s">
+      <c r="H63" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="190"/>
+      <c r="I63" s="183"/>
       <c r="J63" s="131">
         <f>SUM(J37:J62)</f>
         <v>2734020</v>
@@ -10903,13 +10923,13 @@
         <f t="shared" si="33"/>
         <v>71298.000000000015</v>
       </c>
-      <c r="H65" s="192" t="s">
+      <c r="H65" s="189" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="193"/>
-      <c r="J65" s="193"/>
-      <c r="K65" s="193"/>
-      <c r="L65" s="193"/>
+      <c r="I65" s="190"/>
+      <c r="J65" s="190"/>
+      <c r="K65" s="190"/>
+      <c r="L65" s="190"/>
       <c r="M65" s="73">
         <v>43765</v>
       </c>
@@ -11025,10 +11045,10 @@
         <f t="shared" ref="L67:L71" si="41">H67*K67/100</f>
         <v>94770</v>
       </c>
-      <c r="N67" s="188" t="s">
+      <c r="N67" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="O67" s="188"/>
+      <c r="O67" s="184"/>
       <c r="P67" s="132">
         <f>SUM(P53:P66)</f>
         <v>1031915.1599999998</v>
@@ -11043,10 +11063,10 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="189" t="s">
+      <c r="B68" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="190"/>
+      <c r="C68" s="183"/>
       <c r="D68" s="131">
         <f>SUM(D44:D67)</f>
         <v>1724961.6</v>
@@ -11108,22 +11128,22 @@
         <f t="shared" si="41"/>
         <v>98415</v>
       </c>
-      <c r="N69" s="192" t="s">
+      <c r="N69" s="189" t="s">
         <v>32</v>
       </c>
-      <c r="O69" s="193"/>
-      <c r="P69" s="193"/>
-      <c r="Q69" s="193"/>
-      <c r="R69" s="193"/>
+      <c r="O69" s="190"/>
+      <c r="P69" s="190"/>
+      <c r="Q69" s="190"/>
+      <c r="R69" s="190"/>
     </row>
     <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="180" t="s">
+      <c r="B70" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="181"/>
-      <c r="D70" s="181"/>
-      <c r="E70" s="181"/>
-      <c r="F70" s="191"/>
+      <c r="C70" s="180"/>
+      <c r="D70" s="180"/>
+      <c r="E70" s="180"/>
+      <c r="F70" s="187"/>
       <c r="G70" s="73">
         <v>43769</v>
       </c>
@@ -11239,10 +11259,10 @@
         <f t="shared" ref="F72:F74" si="49">B72*E72/100</f>
         <v>69090</v>
       </c>
-      <c r="H72" s="189" t="s">
+      <c r="H72" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="190"/>
+      <c r="I72" s="183"/>
       <c r="J72" s="133">
         <f>SUM(J66:J71)</f>
         <v>587764.79999999993</v>
@@ -11365,10 +11385,10 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="189" t="s">
+      <c r="B75" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="190"/>
+      <c r="C75" s="183"/>
       <c r="D75" s="133">
         <f>SUM(D71:D74)</f>
         <v>275256</v>
@@ -11405,8 +11425,8 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="194"/>
-      <c r="C76" s="194"/>
+      <c r="B76" s="188"/>
+      <c r="C76" s="188"/>
       <c r="D76" s="79"/>
       <c r="E76" s="137"/>
       <c r="F76" s="79"/>
@@ -11476,10 +11496,10 @@
       <c r="J78" s="79"/>
       <c r="K78" s="79"/>
       <c r="L78" s="79"/>
-      <c r="N78" s="189" t="s">
+      <c r="N78" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="O78" s="190"/>
+      <c r="O78" s="183"/>
       <c r="P78" s="133">
         <f>SUM(P70:P77)</f>
         <v>597582</v>
@@ -11563,19 +11583,19 @@
       <c r="R82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="184"/>
-      <c r="C83" s="184"/>
-      <c r="D83" s="184"/>
+      <c r="B83" s="178"/>
+      <c r="C83" s="178"/>
+      <c r="D83" s="178"/>
       <c r="E83" s="115"/>
       <c r="F83" s="115"/>
-      <c r="H83" s="184"/>
-      <c r="I83" s="184"/>
-      <c r="J83" s="184"/>
+      <c r="H83" s="178"/>
+      <c r="I83" s="178"/>
+      <c r="J83" s="178"/>
       <c r="K83" s="115"/>
       <c r="L83" s="115"/>
-      <c r="N83" s="184"/>
-      <c r="O83" s="184"/>
-      <c r="P83" s="184"/>
+      <c r="N83" s="178"/>
+      <c r="O83" s="178"/>
+      <c r="P83" s="178"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -11671,22 +11691,40 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="184"/>
-      <c r="C90" s="184"/>
+      <c r="B90" s="178"/>
+      <c r="C90" s="178"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="184"/>
-      <c r="I90" s="184"/>
+      <c r="H90" s="178"/>
+      <c r="I90" s="178"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="184"/>
-      <c r="O90" s="184"/>
+      <c r="N90" s="178"/>
+      <c r="O90" s="178"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="N3:R3"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="H90:I90"/>
     <mergeCell ref="N90:O90"/>
@@ -11703,24 +11741,6 @@
     <mergeCell ref="N69:R69"/>
     <mergeCell ref="N52:R52"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="H72:I72"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11732,9 +11752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N55" sqref="N55"/>
+    <sheetView view="pageBreakPreview" topLeftCell="G1" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N41" sqref="N41:R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11759,27 +11779,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="H1" s="182" t="s">
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="H1" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="N1" s="182" t="s">
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="N1" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -11830,35 +11850,35 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
-      <c r="B3" s="196" t="s">
+      <c r="B3" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
       <c r="G3" s="97"/>
-      <c r="H3" s="178" t="s">
+      <c r="H3" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
       <c r="M3" s="97"/>
-      <c r="N3" s="195" t="s">
+      <c r="N3" s="192" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="196"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="196"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="191"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
         <v>43770</v>
       </c>
-      <c r="B4" s="159">
+      <c r="B4" s="150">
         <v>104400</v>
       </c>
       <c r="C4" s="106">
@@ -11868,7 +11888,7 @@
         <f t="shared" ref="D4" si="0">B4*C4</f>
         <v>91767.6</v>
       </c>
-      <c r="E4" s="155">
+      <c r="E4" s="148">
         <v>47.954022988505749</v>
       </c>
       <c r="F4" s="75">
@@ -11881,14 +11901,14 @@
       <c r="H4" s="74">
         <v>100800</v>
       </c>
-      <c r="I4" s="154">
+      <c r="I4" s="147">
         <v>0.98599999999999999</v>
       </c>
       <c r="J4" s="75">
         <f t="shared" ref="J4" si="2">H4*I4</f>
         <v>99388.800000000003</v>
       </c>
-      <c r="K4" s="155">
+      <c r="K4" s="148">
         <v>94.017857142857139</v>
       </c>
       <c r="L4" s="75">
@@ -11898,17 +11918,17 @@
       <c r="M4" s="73">
         <v>43770</v>
       </c>
-      <c r="N4" s="159">
+      <c r="N4" s="150">
         <v>77040</v>
       </c>
-      <c r="O4" s="154">
+      <c r="O4" s="147">
         <v>0.96899999999999997</v>
       </c>
       <c r="P4" s="75">
         <f t="shared" ref="P4" si="4">N4*O4</f>
         <v>74651.759999999995</v>
       </c>
-      <c r="Q4" s="155">
+      <c r="Q4" s="148">
         <v>87.009345794392516</v>
       </c>
       <c r="R4" s="75">
@@ -11917,7 +11937,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="159">
+      <c r="B5" s="150">
         <v>104400</v>
       </c>
       <c r="C5" s="106">
@@ -11927,7 +11947,7 @@
         <f t="shared" ref="D5:D23" si="6">B5*C5</f>
         <v>101163.59999999999</v>
       </c>
-      <c r="E5" s="155">
+      <c r="E5" s="148">
         <v>93.624521072796938</v>
       </c>
       <c r="F5" s="75">
@@ -11937,31 +11957,31 @@
       <c r="H5" s="74">
         <v>100800</v>
       </c>
-      <c r="I5" s="154">
+      <c r="I5" s="147">
         <v>0.98199999999999998</v>
       </c>
       <c r="J5" s="75">
         <f t="shared" ref="J5:J17" si="8">H5*I5</f>
         <v>98985.599999999991</v>
       </c>
-      <c r="K5" s="155">
+      <c r="K5" s="148">
         <v>94.017857142857139</v>
       </c>
       <c r="L5" s="75">
         <f t="shared" ref="L5:L17" si="9">H5*K5/100</f>
         <v>94770</v>
       </c>
-      <c r="N5" s="161">
+      <c r="N5" s="152">
         <v>77040</v>
       </c>
-      <c r="O5" s="154">
+      <c r="O5" s="147">
         <v>0.96299999999999997</v>
       </c>
       <c r="P5" s="75">
         <f t="shared" ref="P5:P11" si="10">N5*O5</f>
         <v>74189.52</v>
       </c>
-      <c r="Q5" s="155">
+      <c r="Q5" s="148">
         <v>89.299065420560751</v>
       </c>
       <c r="R5" s="75">
@@ -11973,7 +11993,7 @@
       <c r="A6" s="73">
         <v>43771</v>
       </c>
-      <c r="B6" s="159">
+      <c r="B6" s="150">
         <v>104400</v>
       </c>
       <c r="C6" s="106">
@@ -11983,7 +12003,7 @@
         <f t="shared" si="6"/>
         <v>102416.4</v>
       </c>
-      <c r="E6" s="155">
+      <c r="E6" s="148">
         <v>93.624521072796938</v>
       </c>
       <c r="F6" s="75">
@@ -11996,14 +12016,14 @@
       <c r="H6" s="74">
         <v>100800</v>
       </c>
-      <c r="I6" s="154">
+      <c r="I6" s="147">
         <v>0.98399999999999999</v>
       </c>
       <c r="J6" s="75">
         <f t="shared" si="8"/>
         <v>99187.199999999997</v>
       </c>
-      <c r="K6" s="155">
+      <c r="K6" s="148">
         <v>94.017857142857139</v>
       </c>
       <c r="L6" s="75">
@@ -12016,14 +12036,14 @@
       <c r="N6" s="93">
         <v>77040</v>
       </c>
-      <c r="O6" s="154">
+      <c r="O6" s="147">
         <v>0.97499999999999998</v>
       </c>
       <c r="P6" s="75">
         <f t="shared" si="10"/>
         <v>75114</v>
       </c>
-      <c r="Q6" s="155">
+      <c r="Q6" s="148">
         <v>91.588785046728972</v>
       </c>
       <c r="R6" s="75">
@@ -12032,7 +12052,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="159">
+      <c r="B7" s="150">
         <v>104400</v>
       </c>
       <c r="C7" s="106">
@@ -12042,7 +12062,7 @@
         <f t="shared" si="6"/>
         <v>101476.8</v>
       </c>
-      <c r="E7" s="155">
+      <c r="E7" s="148">
         <v>93.624521072796938</v>
       </c>
       <c r="F7" s="75">
@@ -12052,14 +12072,14 @@
       <c r="H7" s="74">
         <v>100800</v>
       </c>
-      <c r="I7" s="154">
+      <c r="I7" s="147">
         <v>0.98599999999999999</v>
       </c>
       <c r="J7" s="75">
         <f t="shared" si="8"/>
         <v>99388.800000000003</v>
       </c>
-      <c r="K7" s="155">
+      <c r="K7" s="148">
         <v>94.017857142857139</v>
       </c>
       <c r="L7" s="75">
@@ -12069,14 +12089,14 @@
       <c r="N7" s="93">
         <v>77040</v>
       </c>
-      <c r="O7" s="154">
+      <c r="O7" s="147">
         <v>0.97399999999999998</v>
       </c>
       <c r="P7" s="75">
         <f t="shared" si="10"/>
         <v>75036.959999999992</v>
       </c>
-      <c r="Q7" s="155">
+      <c r="Q7" s="148">
         <v>89.299065420560751</v>
       </c>
       <c r="R7" s="75">
@@ -12088,7 +12108,7 @@
       <c r="A8" s="73">
         <v>43772</v>
       </c>
-      <c r="B8" s="159">
+      <c r="B8" s="150">
         <v>104400</v>
       </c>
       <c r="C8" s="106">
@@ -12098,7 +12118,7 @@
         <f t="shared" si="6"/>
         <v>101685.59999999999</v>
       </c>
-      <c r="E8" s="155">
+      <c r="E8" s="148">
         <v>93.624521072796938</v>
       </c>
       <c r="F8" s="75">
@@ -12111,14 +12131,14 @@
       <c r="H8" s="74">
         <v>100800</v>
       </c>
-      <c r="I8" s="154">
+      <c r="I8" s="147">
         <v>0.97399999999999998</v>
       </c>
       <c r="J8" s="75">
         <f t="shared" si="8"/>
         <v>98179.199999999997</v>
       </c>
-      <c r="K8" s="155">
+      <c r="K8" s="148">
         <v>94.017857142857139</v>
       </c>
       <c r="L8" s="75">
@@ -12131,14 +12151,14 @@
       <c r="N8" s="93">
         <v>77760</v>
       </c>
-      <c r="O8" s="154">
+      <c r="O8" s="147">
         <v>0.97699999999999998</v>
       </c>
       <c r="P8" s="75">
         <f t="shared" si="10"/>
         <v>75971.520000000004</v>
       </c>
-      <c r="Q8" s="155">
+      <c r="Q8" s="148">
         <v>88.472222222222214</v>
       </c>
       <c r="R8" s="75">
@@ -12147,7 +12167,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="159">
+      <c r="B9" s="150">
         <v>104400</v>
       </c>
       <c r="C9" s="106">
@@ -12157,7 +12177,7 @@
         <f t="shared" si="6"/>
         <v>103669.2</v>
       </c>
-      <c r="E9" s="155">
+      <c r="E9" s="148">
         <v>93.624521072796938</v>
       </c>
       <c r="F9" s="75">
@@ -12167,14 +12187,14 @@
       <c r="H9" s="74">
         <v>100800</v>
       </c>
-      <c r="I9" s="154">
+      <c r="I9" s="147">
         <v>0.98499999999999999</v>
       </c>
       <c r="J9" s="75">
         <f t="shared" si="8"/>
         <v>99288</v>
       </c>
-      <c r="K9" s="155">
+      <c r="K9" s="148">
         <v>94.017857142857139</v>
       </c>
       <c r="L9" s="75">
@@ -12184,14 +12204,14 @@
       <c r="N9" s="93">
         <v>78480</v>
       </c>
-      <c r="O9" s="154">
+      <c r="O9" s="147">
         <v>0.97599999999999998</v>
       </c>
       <c r="P9" s="75">
         <f t="shared" si="10"/>
         <v>76596.479999999996</v>
       </c>
-      <c r="Q9" s="155">
+      <c r="Q9" s="148">
         <v>87.660550458715591</v>
       </c>
       <c r="R9" s="75">
@@ -12203,7 +12223,7 @@
       <c r="A10" s="73">
         <v>43773</v>
       </c>
-      <c r="B10" s="159">
+      <c r="B10" s="150">
         <v>104400</v>
       </c>
       <c r="C10" s="106">
@@ -12213,7 +12233,7 @@
         <f t="shared" si="6"/>
         <v>102729.59999999999</v>
       </c>
-      <c r="E10" s="155">
+      <c r="E10" s="148">
         <v>95.908045977011497</v>
       </c>
       <c r="F10" s="75">
@@ -12226,14 +12246,14 @@
       <c r="H10" s="74">
         <v>100800</v>
       </c>
-      <c r="I10" s="154">
+      <c r="I10" s="147">
         <v>0.97299999999999998</v>
       </c>
       <c r="J10" s="75">
         <f t="shared" si="8"/>
         <v>98078.399999999994</v>
       </c>
-      <c r="K10" s="155">
+      <c r="K10" s="148">
         <v>94.017857142857139</v>
       </c>
       <c r="L10" s="75">
@@ -12246,14 +12266,14 @@
       <c r="N10" s="93">
         <v>78480</v>
       </c>
-      <c r="O10" s="154">
+      <c r="O10" s="147">
         <v>0.97</v>
       </c>
       <c r="P10" s="75">
         <f t="shared" si="10"/>
         <v>76125.599999999991</v>
       </c>
-      <c r="Q10" s="155">
+      <c r="Q10" s="148">
         <v>94.403669724770651</v>
       </c>
       <c r="R10" s="75">
@@ -12263,7 +12283,7 @@
     </row>
     <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="111"/>
-      <c r="B11" s="159">
+      <c r="B11" s="150">
         <v>104400</v>
       </c>
       <c r="C11" s="106">
@@ -12273,7 +12293,7 @@
         <f t="shared" si="6"/>
         <v>102625.2</v>
       </c>
-      <c r="E11" s="155">
+      <c r="E11" s="148">
         <v>93.624521072796938</v>
       </c>
       <c r="F11" s="75">
@@ -12284,14 +12304,14 @@
       <c r="H11" s="74">
         <v>100800</v>
       </c>
-      <c r="I11" s="154">
+      <c r="I11" s="147">
         <v>0.98699999999999999</v>
       </c>
       <c r="J11" s="75">
         <f t="shared" si="8"/>
         <v>99489.600000000006</v>
       </c>
-      <c r="K11" s="155">
+      <c r="K11" s="148">
         <v>94.017857142857139</v>
       </c>
       <c r="L11" s="75">
@@ -12302,14 +12322,14 @@
       <c r="N11" s="93">
         <v>78480</v>
       </c>
-      <c r="O11" s="154">
+      <c r="O11" s="147">
         <v>0.98199999999999998</v>
       </c>
       <c r="P11" s="75">
         <f t="shared" si="10"/>
         <v>77067.360000000001</v>
       </c>
-      <c r="Q11" s="155">
+      <c r="Q11" s="148">
         <v>92.155963302752298</v>
       </c>
       <c r="R11" s="75">
@@ -12318,10 +12338,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="158">
+      <c r="A12" s="149">
         <v>43774</v>
       </c>
-      <c r="B12" s="159">
+      <c r="B12" s="150">
         <v>104400</v>
       </c>
       <c r="C12" s="106">
@@ -12331,7 +12351,7 @@
         <f t="shared" si="6"/>
         <v>100537.2</v>
       </c>
-      <c r="E12" s="155">
+      <c r="E12" s="148">
         <v>89.05747126436782</v>
       </c>
       <c r="F12" s="75">
@@ -12344,24 +12364,24 @@
       <c r="H12" s="74">
         <v>100800</v>
       </c>
-      <c r="I12" s="154">
+      <c r="I12" s="147">
         <v>0.96799999999999997</v>
       </c>
       <c r="J12" s="75">
         <f t="shared" si="8"/>
         <v>97574.399999999994</v>
       </c>
-      <c r="K12" s="155">
+      <c r="K12" s="148">
         <v>94.017857142857139</v>
       </c>
       <c r="L12" s="75">
         <f t="shared" si="9"/>
         <v>94770</v>
       </c>
-      <c r="N12" s="189" t="s">
+      <c r="N12" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="O12" s="190"/>
+      <c r="O12" s="183"/>
       <c r="P12" s="89">
         <f>SUM(P4:P11)</f>
         <v>604753.19999999995</v>
@@ -12376,7 +12396,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="159">
+      <c r="B13" s="150">
         <v>104400</v>
       </c>
       <c r="C13" s="106">
@@ -12386,7 +12406,7 @@
         <f t="shared" si="6"/>
         <v>101268</v>
       </c>
-      <c r="E13" s="155">
+      <c r="E13" s="148">
         <v>93.624521072796938</v>
       </c>
       <c r="F13" s="75">
@@ -12396,14 +12416,14 @@
       <c r="H13" s="74">
         <v>100800</v>
       </c>
-      <c r="I13" s="154">
+      <c r="I13" s="147">
         <v>0.98399999999999999</v>
       </c>
       <c r="J13" s="75">
         <f t="shared" si="8"/>
         <v>99187.199999999997</v>
       </c>
-      <c r="K13" s="155">
+      <c r="K13" s="148">
         <v>94.017857142857139</v>
       </c>
       <c r="L13" s="75">
@@ -12420,7 +12440,7 @@
       <c r="A14" s="73">
         <v>43775</v>
       </c>
-      <c r="B14" s="159">
+      <c r="B14" s="150">
         <v>104400</v>
       </c>
       <c r="C14" s="106">
@@ -12430,7 +12450,7 @@
         <f t="shared" si="6"/>
         <v>100954.8</v>
       </c>
-      <c r="E14" s="155">
+      <c r="E14" s="148">
         <v>95.908045977011497</v>
       </c>
       <c r="F14" s="75">
@@ -12443,14 +12463,14 @@
       <c r="H14" s="74">
         <v>100800</v>
       </c>
-      <c r="I14" s="154">
+      <c r="I14" s="147">
         <v>0.99</v>
       </c>
       <c r="J14" s="75">
         <f t="shared" si="8"/>
         <v>99792</v>
       </c>
-      <c r="K14" s="155">
+      <c r="K14" s="148">
         <v>97.633928571428569</v>
       </c>
       <c r="L14" s="75">
@@ -12458,16 +12478,16 @@
         <v>98415</v>
       </c>
       <c r="M14" s="96"/>
-      <c r="N14" s="195" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="196"/>
-      <c r="P14" s="196"/>
-      <c r="Q14" s="196"/>
-      <c r="R14" s="196"/>
+      <c r="N14" s="192" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="191"/>
+      <c r="P14" s="191"/>
+      <c r="Q14" s="191"/>
+      <c r="R14" s="191"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="159">
+      <c r="B15" s="150">
         <v>104400</v>
       </c>
       <c r="C15" s="106">
@@ -12477,7 +12497,7 @@
         <f t="shared" si="6"/>
         <v>101581.2</v>
       </c>
-      <c r="E15" s="155">
+      <c r="E15" s="148">
         <v>93.624521072796938</v>
       </c>
       <c r="F15" s="75">
@@ -12487,14 +12507,14 @@
       <c r="H15" s="74">
         <v>100800</v>
       </c>
-      <c r="I15" s="154">
+      <c r="I15" s="147">
         <v>0.98099999999999998</v>
       </c>
       <c r="J15" s="75">
         <f t="shared" si="8"/>
         <v>98884.800000000003</v>
       </c>
-      <c r="K15" s="155">
+      <c r="K15" s="148">
         <v>97.633928571428569</v>
       </c>
       <c r="L15" s="75">
@@ -12504,17 +12524,17 @@
       <c r="M15" s="78">
         <v>43774</v>
       </c>
-      <c r="N15" s="159">
+      <c r="N15" s="150">
         <v>84960</v>
       </c>
-      <c r="O15" s="154">
+      <c r="O15" s="147">
         <v>0.96899999999999997</v>
       </c>
       <c r="P15" s="75">
         <f t="shared" ref="P15" si="12">N15*O15</f>
         <v>82326.239999999991</v>
       </c>
-      <c r="Q15" s="155">
+      <c r="Q15" s="148">
         <v>87.009345794392516</v>
       </c>
       <c r="R15" s="75">
@@ -12526,7 +12546,7 @@
       <c r="A16" s="73">
         <v>43776</v>
       </c>
-      <c r="B16" s="159">
+      <c r="B16" s="150">
         <v>104400</v>
       </c>
       <c r="C16" s="106">
@@ -12536,7 +12556,7 @@
         <f t="shared" si="6"/>
         <v>101790</v>
       </c>
-      <c r="E16" s="155">
+      <c r="E16" s="148">
         <v>95.908045977011497</v>
       </c>
       <c r="F16" s="75">
@@ -12549,31 +12569,31 @@
       <c r="H16" s="74">
         <v>100800</v>
       </c>
-      <c r="I16" s="154">
+      <c r="I16" s="147">
         <v>0.98199999999999998</v>
       </c>
       <c r="J16" s="75">
         <f t="shared" si="8"/>
         <v>98985.599999999991</v>
       </c>
-      <c r="K16" s="155">
+      <c r="K16" s="148">
         <v>97.633928571428569</v>
       </c>
       <c r="L16" s="75">
         <f t="shared" si="9"/>
         <v>98415</v>
       </c>
-      <c r="N16" s="159">
+      <c r="N16" s="150">
         <v>84960</v>
       </c>
-      <c r="O16" s="154">
+      <c r="O16" s="147">
         <v>0.96899999999999997</v>
       </c>
       <c r="P16" s="75">
         <f t="shared" ref="P16:P22" si="14">N16*O16</f>
         <v>82326.239999999991</v>
       </c>
-      <c r="Q16" s="155">
+      <c r="Q16" s="148">
         <v>87.009345794392516</v>
       </c>
       <c r="R16" s="75">
@@ -12582,7 +12602,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="159">
+      <c r="B17" s="150">
         <v>104400</v>
       </c>
       <c r="C17" s="106">
@@ -12592,7 +12612,7 @@
         <f t="shared" si="6"/>
         <v>101268</v>
       </c>
-      <c r="E17" s="155">
+      <c r="E17" s="148">
         <v>91.340996168582379</v>
       </c>
       <c r="F17" s="75">
@@ -12602,14 +12622,14 @@
       <c r="H17" s="74">
         <v>100800</v>
       </c>
-      <c r="I17" s="154">
+      <c r="I17" s="147">
         <v>0.98199999999999998</v>
       </c>
       <c r="J17" s="75">
         <f t="shared" si="8"/>
         <v>98985.599999999991</v>
       </c>
-      <c r="K17" s="155">
+      <c r="K17" s="148">
         <v>94.017857142857139</v>
       </c>
       <c r="L17" s="75">
@@ -12619,17 +12639,17 @@
       <c r="M17" s="73">
         <v>43775</v>
       </c>
-      <c r="N17" s="159">
+      <c r="N17" s="150">
         <v>84960</v>
       </c>
-      <c r="O17" s="154">
+      <c r="O17" s="147">
         <v>0.96899999999999997</v>
       </c>
       <c r="P17" s="75">
         <f t="shared" si="14"/>
         <v>82326.239999999991</v>
       </c>
-      <c r="Q17" s="155">
+      <c r="Q17" s="148">
         <v>87.009345794392516</v>
       </c>
       <c r="R17" s="75">
@@ -12641,7 +12661,7 @@
       <c r="A18" s="73">
         <v>43777</v>
       </c>
-      <c r="B18" s="159">
+      <c r="B18" s="150">
         <v>104400</v>
       </c>
       <c r="C18" s="106">
@@ -12651,17 +12671,17 @@
         <f t="shared" si="6"/>
         <v>101476.8</v>
       </c>
-      <c r="E18" s="155">
+      <c r="E18" s="148">
         <v>93.624521072796938</v>
       </c>
       <c r="F18" s="75">
         <f t="shared" si="7"/>
         <v>97744</v>
       </c>
-      <c r="H18" s="189" t="s">
+      <c r="H18" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="190"/>
+      <c r="I18" s="183"/>
       <c r="J18" s="89">
         <f>SUM(J4:J17)</f>
         <v>1385395.2000000002</v>
@@ -12674,17 +12694,17 @@
         <f>SUM(L4:L17)</f>
         <v>1337715</v>
       </c>
-      <c r="N18" s="159">
+      <c r="N18" s="150">
         <v>84960</v>
       </c>
-      <c r="O18" s="154">
+      <c r="O18" s="147">
         <v>0.96899999999999997</v>
       </c>
       <c r="P18" s="75">
         <f t="shared" si="14"/>
         <v>82326.239999999991</v>
       </c>
-      <c r="Q18" s="155">
+      <c r="Q18" s="148">
         <v>87.009345794392516</v>
       </c>
       <c r="R18" s="75">
@@ -12693,7 +12713,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="159">
+      <c r="B19" s="150">
         <v>104400</v>
       </c>
       <c r="C19" s="106">
@@ -12703,7 +12723,7 @@
         <f t="shared" si="6"/>
         <v>100328.4</v>
       </c>
-      <c r="E19" s="155">
+      <c r="E19" s="148">
         <v>93.624521072796938</v>
       </c>
       <c r="F19" s="75">
@@ -12711,24 +12731,24 @@
         <v>97744</v>
       </c>
       <c r="H19" s="75"/>
-      <c r="I19" s="154"/>
+      <c r="I19" s="147"/>
       <c r="J19" s="75"/>
-      <c r="K19" s="155"/>
+      <c r="K19" s="148"/>
       <c r="L19" s="75"/>
       <c r="M19" s="73">
         <v>43776</v>
       </c>
-      <c r="N19" s="159">
+      <c r="N19" s="150">
         <v>84960</v>
       </c>
-      <c r="O19" s="154">
+      <c r="O19" s="147">
         <v>0.96899999999999997</v>
       </c>
       <c r="P19" s="75">
         <f t="shared" si="14"/>
         <v>82326.239999999991</v>
       </c>
-      <c r="Q19" s="155">
+      <c r="Q19" s="148">
         <v>87.009345794392516</v>
       </c>
       <c r="R19" s="75">
@@ -12740,7 +12760,7 @@
       <c r="A20" s="73">
         <v>43778</v>
       </c>
-      <c r="B20" s="159">
+      <c r="B20" s="150">
         <v>104400</v>
       </c>
       <c r="C20" s="106">
@@ -12750,7 +12770,7 @@
         <f t="shared" si="6"/>
         <v>103460.4</v>
       </c>
-      <c r="E20" s="155">
+      <c r="E20" s="148">
         <v>93.624521072796938</v>
       </c>
       <c r="F20" s="75">
@@ -12758,24 +12778,24 @@
         <v>97744</v>
       </c>
       <c r="G20" s="96"/>
-      <c r="H20" s="178" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="179"/>
-      <c r="N20" s="159">
+      <c r="H20" s="176" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="N20" s="150">
         <v>84960</v>
       </c>
-      <c r="O20" s="154">
+      <c r="O20" s="147">
         <v>0.96899999999999997</v>
       </c>
       <c r="P20" s="75">
         <f t="shared" si="14"/>
         <v>82326.239999999991</v>
       </c>
-      <c r="Q20" s="155">
+      <c r="Q20" s="148">
         <v>87.009345794392516</v>
       </c>
       <c r="R20" s="75">
@@ -12784,7 +12804,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="159">
+      <c r="B21" s="150">
         <v>104400</v>
       </c>
       <c r="C21" s="106">
@@ -12794,7 +12814,7 @@
         <f t="shared" si="6"/>
         <v>101059.2</v>
       </c>
-      <c r="E21" s="155">
+      <c r="E21" s="148">
         <v>95.908045977011497</v>
       </c>
       <c r="F21" s="75">
@@ -12824,17 +12844,17 @@
       <c r="M21" s="73">
         <v>43777</v>
       </c>
-      <c r="N21" s="159">
+      <c r="N21" s="150">
         <v>84960</v>
       </c>
-      <c r="O21" s="154">
+      <c r="O21" s="147">
         <v>0.96899999999999997</v>
       </c>
       <c r="P21" s="75">
         <f t="shared" si="14"/>
         <v>82326.239999999991</v>
       </c>
-      <c r="Q21" s="155">
+      <c r="Q21" s="148">
         <v>87.009345794392516</v>
       </c>
       <c r="R21" s="75">
@@ -12846,7 +12866,7 @@
       <c r="A22" s="73">
         <v>43779</v>
       </c>
-      <c r="B22" s="159">
+      <c r="B22" s="150">
         <v>104400</v>
       </c>
       <c r="C22" s="106">
@@ -12856,7 +12876,7 @@
         <f t="shared" si="6"/>
         <v>103460.4</v>
       </c>
-      <c r="E22" s="155">
+      <c r="E22" s="148">
         <v>95.908045977011497</v>
       </c>
       <c r="F22" s="75">
@@ -12880,17 +12900,17 @@
         <f t="shared" ref="L22:L30" si="19">H22*K22/100</f>
         <v>92575</v>
       </c>
-      <c r="N22" s="159">
+      <c r="N22" s="150">
         <v>84960</v>
       </c>
-      <c r="O22" s="154">
+      <c r="O22" s="147">
         <v>0.96899999999999997</v>
       </c>
       <c r="P22" s="75">
         <f t="shared" si="14"/>
         <v>82326.239999999991</v>
       </c>
-      <c r="Q22" s="155">
+      <c r="Q22" s="148">
         <v>87.009345794392516</v>
       </c>
       <c r="R22" s="75">
@@ -12899,7 +12919,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="159">
+      <c r="B23" s="150">
         <v>104400</v>
       </c>
       <c r="C23" s="106">
@@ -12909,7 +12929,7 @@
         <f t="shared" si="6"/>
         <v>100746</v>
       </c>
-      <c r="E23" s="155">
+      <c r="E23" s="148">
         <v>95.908045977011497</v>
       </c>
       <c r="F23" s="75">
@@ -12936,10 +12956,10 @@
         <f t="shared" si="19"/>
         <v>96278</v>
       </c>
-      <c r="N23" s="189" t="s">
+      <c r="N23" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="O23" s="190"/>
+      <c r="O23" s="183"/>
       <c r="P23" s="89">
         <f>SUM(P15:P22)</f>
         <v>658609.91999999993</v>
@@ -12954,10 +12974,10 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="189" t="s">
+      <c r="B24" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="190"/>
+      <c r="C24" s="183"/>
       <c r="D24" s="135">
         <f>SUM(D4:D23)</f>
         <v>2025464.3999999994</v>
@@ -12987,11 +13007,11 @@
         <f t="shared" si="19"/>
         <v>96278</v>
       </c>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="150"/>
+      <c r="N24" s="146"/>
+      <c r="O24" s="146"/>
+      <c r="P24" s="144"/>
       <c r="Q24" s="95"/>
-      <c r="R24" s="151"/>
+      <c r="R24" s="145"/>
     </row>
     <row r="25" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="93"/>
@@ -13020,23 +13040,23 @@
         <v>96278</v>
       </c>
       <c r="M25" s="96"/>
-      <c r="N25" s="195" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" s="196"/>
-      <c r="P25" s="196"/>
-      <c r="Q25" s="196"/>
-      <c r="R25" s="196"/>
+      <c r="N25" s="192" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="191"/>
+      <c r="P25" s="191"/>
+      <c r="Q25" s="191"/>
+      <c r="R25" s="191"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="96"/>
-      <c r="B26" s="196" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="196"/>
-      <c r="D26" s="196"/>
-      <c r="E26" s="196"/>
-      <c r="F26" s="196"/>
+      <c r="B26" s="191" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="191"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="191"/>
       <c r="H26" s="74">
         <v>104400</v>
       </c>
@@ -13079,7 +13099,7 @@
       <c r="A27" s="73">
         <v>43780</v>
       </c>
-      <c r="B27" s="159">
+      <c r="B27" s="150">
         <v>87840</v>
       </c>
       <c r="C27" s="54">
@@ -13135,21 +13155,21 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="159">
+      <c r="B28" s="150">
         <v>87840</v>
       </c>
       <c r="C28" s="54">
         <v>0.995</v>
       </c>
       <c r="D28" s="75">
-        <f t="shared" ref="D28:D40" si="26">B28*C28</f>
+        <f t="shared" ref="D28:D32" si="26">B28*C28</f>
         <v>87400.8</v>
       </c>
       <c r="E28" s="87">
         <v>96.174863387978135</v>
       </c>
       <c r="F28" s="75">
-        <f t="shared" ref="F28:F40" si="27">B28*E28/100</f>
+        <f t="shared" ref="F28:F32" si="27">B28*E28/100</f>
         <v>84480</v>
       </c>
       <c r="H28" s="74">
@@ -13194,7 +13214,7 @@
       <c r="A29" s="73">
         <v>43781</v>
       </c>
-      <c r="B29" s="159">
+      <c r="B29" s="150">
         <v>87840</v>
       </c>
       <c r="C29" s="54">
@@ -13250,7 +13270,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="159">
+      <c r="B30" s="150">
         <v>87840</v>
       </c>
       <c r="C30" s="54">
@@ -13309,7 +13329,7 @@
       <c r="A31" s="73">
         <v>43782</v>
       </c>
-      <c r="B31" s="159">
+      <c r="B31" s="150">
         <v>87840</v>
       </c>
       <c r="C31" s="54">
@@ -13326,10 +13346,10 @@
         <f t="shared" si="27"/>
         <v>86592</v>
       </c>
-      <c r="H31" s="189" t="s">
+      <c r="H31" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="190"/>
+      <c r="I31" s="183"/>
       <c r="J31" s="89">
         <f>SUM(J21:J30)</f>
         <v>1005163.2000000001</v>
@@ -13361,7 +13381,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="159">
+      <c r="B32" s="150">
         <v>87840</v>
       </c>
       <c r="C32" s="54">
@@ -13379,14 +13399,14 @@
         <v>86592</v>
       </c>
       <c r="H32" s="75"/>
-      <c r="I32" s="154"/>
+      <c r="I32" s="147"/>
       <c r="J32" s="75"/>
-      <c r="K32" s="155"/>
+      <c r="K32" s="148"/>
       <c r="L32" s="75"/>
-      <c r="N32" s="189" t="s">
+      <c r="N32" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="O32" s="190"/>
+      <c r="O32" s="183"/>
       <c r="P32" s="89">
         <f>SUM(P26:P31)</f>
         <v>453211.74</v>
@@ -13401,11 +13421,11 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="189" t="s">
+      <c r="B33" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="190"/>
-      <c r="D33" s="160">
+      <c r="C33" s="183"/>
+      <c r="D33" s="151">
         <f>SUM(D27:D32)</f>
         <v>511220.016</v>
       </c>
@@ -13418,13 +13438,13 @@
         <v>485760</v>
       </c>
       <c r="G33" s="96"/>
-      <c r="H33" s="178" t="s">
+      <c r="H33" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="179"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="179"/>
-      <c r="L33" s="179"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="177"/>
       <c r="N33" s="93"/>
       <c r="O33" s="10"/>
       <c r="P33" s="75"/>
@@ -13432,10 +13452,10 @@
       <c r="R33" s="75"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="159"/>
+      <c r="B34" s="150"/>
       <c r="C34" s="106"/>
       <c r="D34" s="75"/>
-      <c r="E34" s="155"/>
+      <c r="E34" s="148"/>
       <c r="F34" s="75"/>
       <c r="G34" s="73">
         <v>43782</v>
@@ -13458,23 +13478,23 @@
         <v>48790</v>
       </c>
       <c r="M34" s="96"/>
-      <c r="N34" s="195" t="s">
-        <v>37</v>
-      </c>
-      <c r="O34" s="196"/>
-      <c r="P34" s="196"/>
-      <c r="Q34" s="196"/>
-      <c r="R34" s="196"/>
+      <c r="N34" s="192" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" s="191"/>
+      <c r="P34" s="191"/>
+      <c r="Q34" s="191"/>
+      <c r="R34" s="191"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="96"/>
-      <c r="B35" s="196" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="196"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="196"/>
-      <c r="F35" s="196"/>
+      <c r="B35" s="191" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="191"/>
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="191"/>
       <c r="H35" s="93">
         <v>144000</v>
       </c>
@@ -13517,7 +13537,7 @@
       <c r="A36" s="73">
         <v>43783</v>
       </c>
-      <c r="B36" s="159">
+      <c r="B36" s="150">
         <v>86400</v>
       </c>
       <c r="C36" s="54">
@@ -13573,7 +13593,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="159">
+      <c r="B37" s="150">
         <v>86400</v>
       </c>
       <c r="C37" s="54">
@@ -13632,7 +13652,7 @@
       <c r="A38" s="73">
         <v>43784</v>
       </c>
-      <c r="B38" s="159">
+      <c r="B38" s="150">
         <v>86400</v>
       </c>
       <c r="C38" s="54">
@@ -13688,7 +13708,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="159">
+      <c r="B39" s="150">
         <v>86400</v>
       </c>
       <c r="C39" s="54">
@@ -13747,7 +13767,7 @@
       <c r="A40" s="73">
         <v>43785</v>
       </c>
-      <c r="B40" s="159">
+      <c r="B40" s="150">
         <v>86400</v>
       </c>
       <c r="C40" s="54">
@@ -13803,7 +13823,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="159">
+      <c r="B41" s="150">
         <v>86400</v>
       </c>
       <c r="C41" s="54">
@@ -13837,10 +13857,10 @@
         <f t="shared" si="31"/>
         <v>132430</v>
       </c>
-      <c r="N41" s="189" t="s">
+      <c r="N41" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="O41" s="190"/>
+      <c r="O41" s="183"/>
       <c r="P41" s="89">
         <f>SUM(P35:P40)</f>
         <v>519471</v>
@@ -13858,7 +13878,7 @@
       <c r="A42" s="73">
         <v>43786</v>
       </c>
-      <c r="B42" s="159">
+      <c r="B42" s="150">
         <v>86400</v>
       </c>
       <c r="C42" s="54">
@@ -13902,7 +13922,7 @@
       <c r="R42" s="75"/>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="159">
+      <c r="B43" s="150">
         <v>86400</v>
       </c>
       <c r="C43" s="54">
@@ -13937,20 +13957,20 @@
         <v>132430</v>
       </c>
       <c r="M43" s="96"/>
-      <c r="N43" s="196" t="s">
-        <v>38</v>
-      </c>
-      <c r="O43" s="196"/>
-      <c r="P43" s="196"/>
-      <c r="Q43" s="196"/>
-      <c r="R43" s="196"/>
+      <c r="N43" s="191" t="s">
+        <v>37</v>
+      </c>
+      <c r="O43" s="191"/>
+      <c r="P43" s="191"/>
+      <c r="Q43" s="191"/>
+      <c r="R43" s="191"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="189" t="s">
+      <c r="B44" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="190"/>
-      <c r="D44" s="160">
+      <c r="C44" s="183"/>
+      <c r="D44" s="151">
         <f>SUM(D36:D43)</f>
         <v>679276.79999999993</v>
       </c>
@@ -14045,13 +14065,14 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="196" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="196"/>
-      <c r="D46" s="196"/>
-      <c r="E46" s="196"/>
-      <c r="F46" s="196"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="191" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="191"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="191"/>
       <c r="G46" s="73">
         <v>43788</v>
       </c>
@@ -14097,22 +14118,22 @@
       <c r="A47" s="73">
         <v>43787</v>
       </c>
-      <c r="B47" s="159">
-        <v>87840</v>
+      <c r="B47" s="93">
+        <v>84960</v>
       </c>
       <c r="C47" s="54">
-        <v>0.92400000000000004</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="D47" s="75">
         <f t="shared" ref="D47" si="42">B47*C47</f>
-        <v>81164.160000000003</v>
+        <v>82836</v>
       </c>
       <c r="E47" s="87">
-        <v>32.375</v>
+        <v>91.716101694915253</v>
       </c>
       <c r="F47" s="75">
         <f t="shared" ref="F47" si="43">B47*E47/100</f>
-        <v>28438.2</v>
+        <v>77922</v>
       </c>
       <c r="H47" s="93">
         <v>146880</v>
@@ -14150,18 +14171,27 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="93"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="73">
-        <v>43789</v>
-      </c>
-      <c r="H48" s="189" t="s">
+      <c r="B48" s="93">
+        <v>83520</v>
+      </c>
+      <c r="C48" s="54">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D48" s="75">
+        <f t="shared" ref="D48:D60" si="44">B48*C48</f>
+        <v>82100.160000000003</v>
+      </c>
+      <c r="E48" s="87">
+        <v>95.689655172413794</v>
+      </c>
+      <c r="F48" s="75">
+        <f t="shared" ref="F48:F60" si="45">B48*E48/100</f>
+        <v>79920</v>
+      </c>
+      <c r="H48" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="I48" s="190"/>
+      <c r="I48" s="183"/>
       <c r="J48" s="89">
         <f>SUM(J34:J47)</f>
         <v>1950131.5199999998</v>
@@ -14199,15 +14229,27 @@
       <c r="A49" s="73">
         <v>43788</v>
       </c>
-      <c r="B49" s="93"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="75"/>
+      <c r="B49" s="93">
+        <v>83520</v>
+      </c>
+      <c r="C49" s="54">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D49" s="75">
+        <f t="shared" si="44"/>
+        <v>81432</v>
+      </c>
+      <c r="E49" s="87">
+        <v>93.297413793103445</v>
+      </c>
+      <c r="F49" s="75">
+        <f t="shared" si="45"/>
+        <v>77922</v>
+      </c>
       <c r="H49" s="75"/>
-      <c r="I49" s="154"/>
+      <c r="I49" s="147"/>
       <c r="J49" s="75"/>
-      <c r="K49" s="155"/>
+      <c r="K49" s="148"/>
       <c r="L49" s="75"/>
       <c r="N49" s="93">
         <v>75600</v>
@@ -14228,21 +14270,31 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="93"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="73">
-        <v>43790</v>
-      </c>
-      <c r="H50" s="178" t="s">
+      <c r="B50" s="93">
+        <v>83520</v>
+      </c>
+      <c r="C50" s="54">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D50" s="75">
+        <f t="shared" si="44"/>
+        <v>82935.360000000001</v>
+      </c>
+      <c r="E50" s="87">
+        <v>95.689655172413794</v>
+      </c>
+      <c r="F50" s="75">
+        <f t="shared" si="45"/>
+        <v>79920</v>
+      </c>
+      <c r="G50" s="96"/>
+      <c r="H50" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="179"/>
-      <c r="J50" s="179"/>
-      <c r="K50" s="179"/>
-      <c r="L50" s="179"/>
+      <c r="I50" s="177"/>
+      <c r="J50" s="177"/>
+      <c r="K50" s="177"/>
+      <c r="L50" s="177"/>
       <c r="M50" s="73">
         <v>43787</v>
       </c>
@@ -14268,27 +14320,42 @@
       <c r="A51" s="73">
         <v>43789</v>
       </c>
-      <c r="B51" s="93"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="75"/>
+      <c r="B51" s="93">
+        <v>83520</v>
+      </c>
+      <c r="C51" s="54">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D51" s="75">
+        <f t="shared" si="44"/>
+        <v>82100.160000000003</v>
+      </c>
+      <c r="E51" s="87">
+        <v>95.689655172413794</v>
+      </c>
+      <c r="F51" s="75">
+        <f t="shared" si="45"/>
+        <v>79920</v>
+      </c>
+      <c r="G51" s="73">
+        <v>43789</v>
+      </c>
       <c r="H51" s="74">
         <v>100800</v>
       </c>
-      <c r="I51" s="154">
-        <v>0.98599999999999999</v>
+      <c r="I51" s="10">
+        <v>0.88100000000000001</v>
       </c>
       <c r="J51" s="75">
-        <f t="shared" ref="J51" si="44">H51*I51</f>
-        <v>99388.800000000003</v>
-      </c>
-      <c r="K51" s="155">
-        <v>94.017857142857139</v>
+        <f t="shared" ref="J51" si="46">H51*I51</f>
+        <v>88804.800000000003</v>
+      </c>
+      <c r="K51" s="87">
+        <v>57.857142857142861</v>
       </c>
       <c r="L51" s="75">
-        <f t="shared" ref="L51" si="45">H51*K51/100</f>
-        <v>94770</v>
+        <f t="shared" ref="L51" si="47">H51*K51/100</f>
+        <v>58320</v>
       </c>
       <c r="N51" s="93">
         <v>75600</v>
@@ -14309,50 +14376,98 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="93"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="73">
-        <v>43791</v>
-      </c>
-      <c r="H52" s="75"/>
-      <c r="I52" s="154"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="155"/>
-      <c r="L52" s="75"/>
-      <c r="N52" s="189" t="s">
+      <c r="B52" s="93">
+        <v>83520</v>
+      </c>
+      <c r="C52" s="54">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D52" s="75">
+        <f t="shared" si="44"/>
+        <v>82768.319999999992</v>
+      </c>
+      <c r="E52" s="87">
+        <v>95.689655172413794</v>
+      </c>
+      <c r="F52" s="75">
+        <f t="shared" si="45"/>
+        <v>79920</v>
+      </c>
+      <c r="H52" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J52" s="75">
+        <f t="shared" ref="J52:J72" si="48">H52*I52</f>
+        <v>99388.800000000003</v>
+      </c>
+      <c r="K52" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L52" s="75">
+        <f t="shared" ref="L52:L72" si="49">H52*K52/100</f>
+        <v>94770</v>
+      </c>
+      <c r="N52" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="O52" s="190"/>
+      <c r="O52" s="183"/>
       <c r="P52" s="89">
-        <f>SUM(P46:P51)</f>
-        <v>436665.60000000003</v>
+        <f>SUM(P44:P51)</f>
+        <v>577432.80000000005</v>
       </c>
       <c r="Q52" s="141">
         <f>R52/P52</f>
-        <v>0.91903277931671279</v>
+        <v>0.85100811730819581</v>
       </c>
       <c r="R52" s="89">
-        <f>SUM(R46:R51)</f>
-        <v>401310</v>
+        <f>SUM(R44:R51)</f>
+        <v>491400</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="73">
         <v>43790</v>
       </c>
-      <c r="B53" s="93"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="154"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="155"/>
-      <c r="L53" s="75"/>
+      <c r="B53" s="93">
+        <v>83520</v>
+      </c>
+      <c r="C53" s="54">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D53" s="75">
+        <f t="shared" si="44"/>
+        <v>81348.479999999996</v>
+      </c>
+      <c r="E53" s="87">
+        <v>95.689655172413794</v>
+      </c>
+      <c r="F53" s="75">
+        <f t="shared" si="45"/>
+        <v>79920</v>
+      </c>
+      <c r="G53" s="73">
+        <v>43790</v>
+      </c>
+      <c r="H53" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J53" s="75">
+        <f t="shared" si="48"/>
+        <v>98683.199999999997</v>
+      </c>
+      <c r="K53" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L53" s="75">
+        <f t="shared" si="49"/>
+        <v>94770</v>
+      </c>
       <c r="N53" s="93"/>
       <c r="O53" s="10"/>
       <c r="P53" s="75"/>
@@ -14360,193 +14475,447 @@
       <c r="R53" s="75"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B54" s="93"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="73">
-        <v>43792</v>
-      </c>
-      <c r="H54" s="75"/>
-      <c r="I54" s="154"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="155"/>
-      <c r="L54" s="75"/>
-      <c r="N54" s="196" t="s">
-        <v>42</v>
-      </c>
-      <c r="O54" s="196"/>
-      <c r="P54" s="196"/>
-      <c r="Q54" s="196"/>
-      <c r="R54" s="196"/>
+      <c r="B54" s="93">
+        <v>83520</v>
+      </c>
+      <c r="C54" s="54">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D54" s="75">
+        <f t="shared" si="44"/>
+        <v>82016.639999999999</v>
+      </c>
+      <c r="E54" s="87">
+        <v>95.689655172413794</v>
+      </c>
+      <c r="F54" s="75">
+        <f t="shared" si="45"/>
+        <v>79920</v>
+      </c>
+      <c r="H54" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I54" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="J54" s="75">
+        <f t="shared" si="48"/>
+        <v>100699.2</v>
+      </c>
+      <c r="K54" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L54" s="75">
+        <f t="shared" si="49"/>
+        <v>98415</v>
+      </c>
+      <c r="M54" s="96"/>
+      <c r="N54" s="191" t="s">
+        <v>41</v>
+      </c>
+      <c r="O54" s="191"/>
+      <c r="P54" s="191"/>
+      <c r="Q54" s="191"/>
+      <c r="R54" s="191"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="73">
         <v>43791</v>
       </c>
-      <c r="B55" s="93"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="154"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="155"/>
-      <c r="L55" s="75"/>
+      <c r="B55" s="93">
+        <v>83520</v>
+      </c>
+      <c r="C55" s="54">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D55" s="75">
+        <f t="shared" si="44"/>
+        <v>81599.039999999994</v>
+      </c>
+      <c r="E55" s="87">
+        <v>93.297413793103445</v>
+      </c>
+      <c r="F55" s="75">
+        <f t="shared" si="45"/>
+        <v>77922</v>
+      </c>
+      <c r="G55" s="73">
+        <v>43791</v>
+      </c>
+      <c r="H55" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="J55" s="75">
+        <f t="shared" si="48"/>
+        <v>100699.2</v>
+      </c>
+      <c r="K55" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L55" s="75">
+        <f t="shared" si="49"/>
+        <v>98415</v>
+      </c>
       <c r="M55" s="73">
         <v>43788</v>
       </c>
       <c r="N55" s="93">
-        <v>75600</v>
+        <v>74880</v>
       </c>
       <c r="O55" s="10">
-        <v>0.89600000000000002</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="P55" s="75">
-        <f t="shared" ref="P55" si="46">N55*O55</f>
-        <v>67737.600000000006</v>
+        <f t="shared" ref="P55" si="50">N55*O55</f>
+        <v>66867.839999999997</v>
       </c>
       <c r="Q55" s="87">
-        <v>36.833333333333336</v>
+        <v>48.46153846153846</v>
       </c>
       <c r="R55" s="75">
-        <f t="shared" ref="R55" si="47">N55*Q55/100</f>
-        <v>27846</v>
+        <f t="shared" ref="R55" si="51">N55*Q55/100</f>
+        <v>36288</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="93"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="73">
-        <v>43793</v>
-      </c>
-      <c r="H56" s="75"/>
-      <c r="I56" s="154"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="155"/>
-      <c r="L56" s="75"/>
-      <c r="N56" s="93"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="75"/>
-      <c r="Q56" s="87"/>
-      <c r="R56" s="75"/>
+      <c r="B56" s="93">
+        <v>83520</v>
+      </c>
+      <c r="C56" s="54">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D56" s="75">
+        <f t="shared" si="44"/>
+        <v>81515.520000000004</v>
+      </c>
+      <c r="E56" s="87">
+        <v>95.689655172413794</v>
+      </c>
+      <c r="F56" s="75">
+        <f t="shared" si="45"/>
+        <v>79920</v>
+      </c>
+      <c r="H56" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J56" s="75">
+        <f t="shared" si="48"/>
+        <v>99187.199999999997</v>
+      </c>
+      <c r="K56" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L56" s="75">
+        <f t="shared" si="49"/>
+        <v>98415</v>
+      </c>
+      <c r="N56" s="93">
+        <v>74880</v>
+      </c>
+      <c r="O56" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="P56" s="75">
+        <f t="shared" ref="P56:P60" si="52">N56*O56</f>
+        <v>73082.880000000005</v>
+      </c>
+      <c r="Q56" s="87">
+        <v>88.84615384615384</v>
+      </c>
+      <c r="R56" s="75">
+        <f t="shared" ref="R56:R60" si="53">N56*Q56/100</f>
+        <v>66527.999999999985</v>
+      </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="73">
         <v>43792</v>
       </c>
-      <c r="B57" s="93"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="154"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="155"/>
-      <c r="L57" s="75"/>
+      <c r="B57" s="93">
+        <v>83520</v>
+      </c>
+      <c r="C57" s="54">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D57" s="75">
+        <f t="shared" si="44"/>
+        <v>81348.479999999996</v>
+      </c>
+      <c r="E57" s="87">
+        <v>93.297413793103445</v>
+      </c>
+      <c r="F57" s="75">
+        <f t="shared" si="45"/>
+        <v>77922</v>
+      </c>
+      <c r="G57" s="73">
+        <v>43792</v>
+      </c>
+      <c r="H57" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J57" s="75">
+        <f t="shared" si="48"/>
+        <v>98280</v>
+      </c>
+      <c r="K57" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L57" s="75">
+        <f t="shared" si="49"/>
+        <v>94770</v>
+      </c>
       <c r="M57" s="73">
         <v>43789</v>
       </c>
-      <c r="N57" s="93"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="75"/>
-      <c r="Q57" s="87"/>
-      <c r="R57" s="75"/>
+      <c r="N57" s="93">
+        <v>74880</v>
+      </c>
+      <c r="O57" s="10">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="P57" s="75">
+        <f t="shared" si="52"/>
+        <v>73906.559999999998</v>
+      </c>
+      <c r="Q57" s="87">
+        <v>96.92307692307692</v>
+      </c>
+      <c r="R57" s="75">
+        <f t="shared" si="53"/>
+        <v>72576</v>
+      </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B58" s="93"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="73">
-        <v>43794</v>
-      </c>
-      <c r="H58" s="75"/>
-      <c r="I58" s="154"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="155"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="73">
-        <v>43790</v>
-      </c>
-      <c r="N58" s="93"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="75"/>
-      <c r="Q58" s="87"/>
-      <c r="R58" s="75"/>
+      <c r="B58" s="93">
+        <v>83520</v>
+      </c>
+      <c r="C58" s="54">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D58" s="75">
+        <f t="shared" si="44"/>
+        <v>81682.559999999998</v>
+      </c>
+      <c r="E58" s="87">
+        <v>93.297413793103445</v>
+      </c>
+      <c r="F58" s="75">
+        <f t="shared" si="45"/>
+        <v>77922</v>
+      </c>
+      <c r="H58" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I58" s="10">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="J58" s="75">
+        <f t="shared" si="48"/>
+        <v>97977.599999999991</v>
+      </c>
+      <c r="K58" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L58" s="75">
+        <f t="shared" si="49"/>
+        <v>94770</v>
+      </c>
+      <c r="N58" s="93">
+        <v>74880</v>
+      </c>
+      <c r="O58" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="P58" s="75">
+        <f t="shared" si="52"/>
+        <v>73532.160000000003</v>
+      </c>
+      <c r="Q58" s="87">
+        <v>94.230769230769226</v>
+      </c>
+      <c r="R58" s="75">
+        <f t="shared" si="53"/>
+        <v>70560</v>
+      </c>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="73">
         <v>43793</v>
       </c>
-      <c r="B59" s="93"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="154"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="155"/>
-      <c r="L59" s="75"/>
-      <c r="N59" s="93"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="75"/>
-      <c r="Q59" s="87"/>
-      <c r="R59" s="75"/>
+      <c r="B59" s="93">
+        <v>83520</v>
+      </c>
+      <c r="C59" s="54">
+        <v>0.999</v>
+      </c>
+      <c r="D59" s="75">
+        <f t="shared" si="44"/>
+        <v>83436.479999999996</v>
+      </c>
+      <c r="E59" s="87">
+        <v>98.081896551724128</v>
+      </c>
+      <c r="F59" s="75">
+        <f t="shared" si="45"/>
+        <v>81917.999999999985</v>
+      </c>
+      <c r="G59" s="73">
+        <v>43793</v>
+      </c>
+      <c r="H59" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J59" s="75">
+        <f t="shared" si="48"/>
+        <v>98481.599999999991</v>
+      </c>
+      <c r="K59" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L59" s="75">
+        <f t="shared" si="49"/>
+        <v>94770</v>
+      </c>
+      <c r="M59" s="73">
+        <v>43790</v>
+      </c>
+      <c r="N59" s="93">
+        <v>74880</v>
+      </c>
+      <c r="O59" s="10">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="P59" s="75">
+        <f t="shared" si="52"/>
+        <v>72783.360000000001</v>
+      </c>
+      <c r="Q59" s="87">
+        <v>94.230769230769226</v>
+      </c>
+      <c r="R59" s="75">
+        <f t="shared" si="53"/>
+        <v>70560</v>
+      </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B60" s="93"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="73">
-        <v>43795</v>
-      </c>
-      <c r="H60" s="75"/>
-      <c r="I60" s="154"/>
-      <c r="J60" s="75"/>
-      <c r="K60" s="155"/>
-      <c r="L60" s="75"/>
-      <c r="M60" s="73">
-        <v>43791</v>
-      </c>
-      <c r="N60" s="93"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="75"/>
-      <c r="Q60" s="87"/>
-      <c r="R60" s="75"/>
+      <c r="B60" s="93">
+        <v>83520</v>
+      </c>
+      <c r="C60" s="54">
+        <v>0.998</v>
+      </c>
+      <c r="D60" s="75">
+        <f t="shared" si="44"/>
+        <v>83352.960000000006</v>
+      </c>
+      <c r="E60" s="87">
+        <v>98.081896551724128</v>
+      </c>
+      <c r="F60" s="75">
+        <f t="shared" si="45"/>
+        <v>81917.999999999985</v>
+      </c>
+      <c r="H60" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I60" s="10">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J60" s="75">
+        <f t="shared" si="48"/>
+        <v>98683.199999999997</v>
+      </c>
+      <c r="K60" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L60" s="75">
+        <f t="shared" si="49"/>
+        <v>94770</v>
+      </c>
+      <c r="N60" s="93">
+        <v>74880</v>
+      </c>
+      <c r="O60" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="P60" s="75">
+        <f t="shared" si="52"/>
+        <v>72633.599999999991</v>
+      </c>
+      <c r="Q60" s="87">
+        <v>94.230769230769226</v>
+      </c>
+      <c r="R60" s="75">
+        <f t="shared" si="53"/>
+        <v>70560</v>
+      </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="73">
+      <c r="B61" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="183"/>
+      <c r="D61" s="153">
+        <f>SUM(D47:D60)</f>
+        <v>1150472.1600000001</v>
+      </c>
+      <c r="E61" s="122">
+        <f>F61/D61</f>
+        <v>0.96732979614213332</v>
+      </c>
+      <c r="F61" s="89">
+        <f>SUM(F47:F60)</f>
+        <v>1112886</v>
+      </c>
+      <c r="G61" s="73">
         <v>43794</v>
       </c>
-      <c r="B61" s="93"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="154"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="155"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="73">
-        <v>43792</v>
-      </c>
-      <c r="N61" s="93"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="75"/>
-      <c r="Q61" s="87"/>
-      <c r="R61" s="75"/>
+      <c r="H61" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I61" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J61" s="75">
+        <f t="shared" si="48"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="K61" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L61" s="75">
+        <f t="shared" si="49"/>
+        <v>94770</v>
+      </c>
+      <c r="N61" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="O61" s="183"/>
+      <c r="P61" s="89">
+        <f>SUM(P55:P60)</f>
+        <v>432806.39999999997</v>
+      </c>
+      <c r="Q61" s="141">
+        <f>R61/P61</f>
+        <v>0.89433058291189782</v>
+      </c>
+      <c r="R61" s="89">
+        <f>SUM(R55:R60)</f>
+        <v>387072</v>
+      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B62" s="93"/>
@@ -14554,14 +14923,23 @@
       <c r="D62" s="75"/>
       <c r="E62" s="87"/>
       <c r="F62" s="75"/>
-      <c r="G62" s="73">
-        <v>43796</v>
-      </c>
-      <c r="H62" s="75"/>
-      <c r="I62" s="154"/>
-      <c r="J62" s="75"/>
-      <c r="K62" s="155"/>
-      <c r="L62" s="75"/>
+      <c r="H62" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I62" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J62" s="75">
+        <f t="shared" si="48"/>
+        <v>98481.599999999991</v>
+      </c>
+      <c r="K62" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L62" s="75">
+        <f t="shared" si="49"/>
+        <v>98415</v>
+      </c>
       <c r="N62" s="93"/>
       <c r="O62" s="10"/>
       <c r="P62" s="75"/>
@@ -14569,296 +14947,717 @@
       <c r="R62" s="75"/>
     </row>
     <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="73">
+      <c r="B63" s="179" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="180"/>
+      <c r="D63" s="180"/>
+      <c r="E63" s="180"/>
+      <c r="F63" s="180"/>
+      <c r="G63" s="73">
         <v>43795</v>
       </c>
-      <c r="B63" s="93"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="75"/>
-      <c r="H63" s="156"/>
-      <c r="I63" s="156"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="154"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="73">
+      <c r="H63" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I63" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J63" s="75">
+        <f t="shared" si="48"/>
+        <v>99187.199999999997</v>
+      </c>
+      <c r="K63" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L63" s="75">
+        <f t="shared" si="49"/>
+        <v>98415</v>
+      </c>
+      <c r="M63" s="96"/>
+      <c r="N63" s="191" t="s">
+        <v>42</v>
+      </c>
+      <c r="O63" s="191"/>
+      <c r="P63" s="191"/>
+      <c r="Q63" s="191"/>
+      <c r="R63" s="191"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="73">
+        <v>43794</v>
+      </c>
+      <c r="B64" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C64" s="54">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D64" s="75">
+        <f t="shared" ref="D64" si="54">B64*C64</f>
+        <v>98240.4</v>
+      </c>
+      <c r="E64" s="87">
+        <v>72.138888888888886</v>
+      </c>
+      <c r="F64" s="75">
+        <f t="shared" ref="F64" si="55">B64*E64/100</f>
+        <v>75313</v>
+      </c>
+      <c r="H64" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I64" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J64" s="75">
+        <f t="shared" si="48"/>
+        <v>98481.599999999991</v>
+      </c>
+      <c r="K64" s="87">
+        <v>97.700396825396822</v>
+      </c>
+      <c r="L64" s="75">
+        <f t="shared" si="49"/>
+        <v>98482</v>
+      </c>
+      <c r="M64" s="73">
+        <v>43791</v>
+      </c>
+      <c r="N64" s="93">
+        <v>68400</v>
+      </c>
+      <c r="O64" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="P64" s="75">
+        <f t="shared" ref="P64" si="56">N64*O64</f>
+        <v>58140</v>
+      </c>
+      <c r="Q64" s="87">
+        <v>49.605263157894733</v>
+      </c>
+      <c r="R64" s="75">
+        <f t="shared" ref="R64" si="57">N64*Q64/100</f>
+        <v>33929.999999999993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C65" s="54">
+        <v>0.99</v>
+      </c>
+      <c r="D65" s="75">
+        <f t="shared" ref="D65:D75" si="58">B65*C65</f>
+        <v>103356</v>
+      </c>
+      <c r="E65" s="87">
+        <v>97.014367816091948</v>
+      </c>
+      <c r="F65" s="75">
+        <f t="shared" ref="F65:F75" si="59">B65*E65/100</f>
+        <v>101283</v>
+      </c>
+      <c r="G65" s="73">
+        <v>43796</v>
+      </c>
+      <c r="H65" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I65" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="J65" s="75">
+        <f t="shared" si="48"/>
+        <v>98784</v>
+      </c>
+      <c r="K65" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L65" s="75">
+        <f t="shared" si="49"/>
+        <v>94770</v>
+      </c>
+      <c r="N65" s="93">
+        <v>68400</v>
+      </c>
+      <c r="O65" s="10">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="P65" s="75">
+        <f t="shared" ref="P65:P71" si="60">N65*O65</f>
+        <v>66553.2</v>
+      </c>
+      <c r="Q65" s="87">
+        <v>92.368421052631575</v>
+      </c>
+      <c r="R65" s="75">
+        <f t="shared" ref="R65:R71" si="61">N65*Q65/100</f>
+        <v>63180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="73">
+        <v>43795</v>
+      </c>
+      <c r="B66" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C66" s="54">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D66" s="75">
+        <f t="shared" si="58"/>
+        <v>103773.6</v>
+      </c>
+      <c r="E66" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="F66" s="75">
+        <f t="shared" si="59"/>
+        <v>98686</v>
+      </c>
+      <c r="H66" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I66" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J66" s="75">
+        <f t="shared" si="48"/>
+        <v>99388.800000000003</v>
+      </c>
+      <c r="K66" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L66" s="75">
+        <f t="shared" si="49"/>
+        <v>94770</v>
+      </c>
+      <c r="M66" s="73">
+        <v>43792</v>
+      </c>
+      <c r="N66" s="93">
+        <v>68400</v>
+      </c>
+      <c r="O66" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P66" s="75">
+        <f t="shared" si="60"/>
+        <v>66416.399999999994</v>
+      </c>
+      <c r="Q66" s="87">
+        <v>90.65789473684211</v>
+      </c>
+      <c r="R66" s="75">
+        <f t="shared" si="61"/>
+        <v>62010</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C67" s="54">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D67" s="75">
+        <f t="shared" si="58"/>
+        <v>101476.8</v>
+      </c>
+      <c r="E67" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="F67" s="75">
+        <f t="shared" si="59"/>
+        <v>98686</v>
+      </c>
+      <c r="G67" s="73">
+        <v>43797</v>
+      </c>
+      <c r="H67" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I67" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J67" s="75">
+        <f t="shared" si="48"/>
+        <v>99086.399999999994</v>
+      </c>
+      <c r="K67" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L67" s="75">
+        <f t="shared" si="49"/>
+        <v>94770</v>
+      </c>
+      <c r="N67" s="93">
+        <v>68400</v>
+      </c>
+      <c r="O67" s="10">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="P67" s="75">
+        <f t="shared" si="60"/>
+        <v>65048.399999999994</v>
+      </c>
+      <c r="Q67" s="87">
+        <v>90.65789473684211</v>
+      </c>
+      <c r="R67" s="75">
+        <f t="shared" si="61"/>
+        <v>62010</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="73">
+        <v>43796</v>
+      </c>
+      <c r="B68" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C68" s="54">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D68" s="75">
+        <f t="shared" si="58"/>
+        <v>102834</v>
+      </c>
+      <c r="E68" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="F68" s="75">
+        <f t="shared" si="59"/>
+        <v>98686</v>
+      </c>
+      <c r="H68" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I68" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J68" s="75">
+        <f t="shared" si="48"/>
+        <v>99388.800000000003</v>
+      </c>
+      <c r="K68" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L68" s="75">
+        <f t="shared" si="49"/>
+        <v>94770</v>
+      </c>
+      <c r="M68" s="73">
         <v>43793</v>
       </c>
-      <c r="N63" s="93"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="75"/>
-      <c r="Q63" s="87"/>
-      <c r="R63" s="75"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="93"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="73">
+      <c r="N68" s="93">
+        <v>68400</v>
+      </c>
+      <c r="O68" s="10">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="P68" s="75">
+        <f t="shared" si="60"/>
+        <v>65869.2</v>
+      </c>
+      <c r="Q68" s="87">
+        <v>88.94736842105263</v>
+      </c>
+      <c r="R68" s="75">
+        <f t="shared" si="61"/>
+        <v>60840</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B69" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C69" s="54">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D69" s="75">
+        <f t="shared" si="58"/>
+        <v>103669.2</v>
+      </c>
+      <c r="E69" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="F69" s="75">
+        <f t="shared" si="59"/>
+        <v>98686</v>
+      </c>
+      <c r="G69" s="73">
+        <v>43798</v>
+      </c>
+      <c r="H69" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I69" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="J69" s="75">
+        <f t="shared" si="48"/>
+        <v>97776</v>
+      </c>
+      <c r="K69" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L69" s="75">
+        <f t="shared" si="49"/>
+        <v>94770</v>
+      </c>
+      <c r="N69" s="93">
+        <v>68400</v>
+      </c>
+      <c r="O69" s="10">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="P69" s="75">
+        <f t="shared" si="60"/>
+        <v>66553.2</v>
+      </c>
+      <c r="Q69" s="87">
+        <v>92.368421052631575</v>
+      </c>
+      <c r="R69" s="75">
+        <f t="shared" si="61"/>
+        <v>63180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="73">
         <v>43797</v>
       </c>
-      <c r="H64" s="75"/>
-      <c r="I64" s="154"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="155"/>
-      <c r="L64" s="75"/>
-      <c r="N64" s="93"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="75"/>
-      <c r="Q64" s="87"/>
-      <c r="R64" s="75"/>
-    </row>
-    <row r="65" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="73">
-        <v>43796</v>
-      </c>
-      <c r="B65" s="93"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="75"/>
-      <c r="H65" s="157"/>
-      <c r="I65" s="157"/>
-      <c r="J65" s="157"/>
-      <c r="K65" s="157"/>
-      <c r="L65" s="157"/>
-      <c r="M65" s="73">
+      <c r="B70" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C70" s="54">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D70" s="75">
+        <f t="shared" si="58"/>
+        <v>101894.39999999999</v>
+      </c>
+      <c r="E70" s="87">
+        <v>74.6264367816092</v>
+      </c>
+      <c r="F70" s="75">
+        <f t="shared" si="59"/>
+        <v>77910.000000000015</v>
+      </c>
+      <c r="H70" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I70" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J70" s="75">
+        <f t="shared" si="48"/>
+        <v>99086.399999999994</v>
+      </c>
+      <c r="K70" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L70" s="75">
+        <f t="shared" si="49"/>
+        <v>98415</v>
+      </c>
+      <c r="M70" s="73">
         <v>43794</v>
       </c>
-      <c r="N65" s="93"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="75"/>
-      <c r="Q65" s="87"/>
-      <c r="R65" s="75"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="93"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="73">
+      <c r="N70" s="93">
+        <v>68400</v>
+      </c>
+      <c r="O70" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="P70" s="75">
+        <f t="shared" si="60"/>
+        <v>66758.399999999994</v>
+      </c>
+      <c r="Q70" s="87">
+        <v>88.94736842105263</v>
+      </c>
+      <c r="R70" s="75">
+        <f t="shared" si="61"/>
+        <v>60840</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B71" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C71" s="54">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D71" s="75">
+        <f t="shared" si="58"/>
+        <v>103460.4</v>
+      </c>
+      <c r="E71" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="F71" s="75">
+        <f t="shared" si="59"/>
+        <v>98686</v>
+      </c>
+      <c r="G71" s="73">
+        <v>43799</v>
+      </c>
+      <c r="H71" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I71" s="10">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="J71" s="75">
+        <f t="shared" si="48"/>
+        <v>98078.399999999994</v>
+      </c>
+      <c r="K71" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L71" s="75">
+        <f t="shared" si="49"/>
+        <v>94770</v>
+      </c>
+      <c r="N71" s="93">
+        <v>68400</v>
+      </c>
+      <c r="O71" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P71" s="75">
+        <f t="shared" si="60"/>
+        <v>66416.399999999994</v>
+      </c>
+      <c r="Q71" s="87">
+        <v>90.65789473684211</v>
+      </c>
+      <c r="R71" s="75">
+        <f t="shared" si="61"/>
+        <v>62010</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="73">
         <v>43798</v>
       </c>
-      <c r="H66" s="75"/>
-      <c r="I66" s="154"/>
-      <c r="J66" s="75"/>
-      <c r="K66" s="155"/>
-      <c r="L66" s="75"/>
-      <c r="N66" s="93"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="75"/>
-      <c r="Q66" s="87"/>
-      <c r="R66" s="75"/>
-    </row>
-    <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="73">
-        <v>43797</v>
-      </c>
-      <c r="B67" s="93"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="75"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="154"/>
-      <c r="J67" s="75"/>
-      <c r="K67" s="155"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="73">
-        <v>43795</v>
-      </c>
-      <c r="N67" s="152"/>
-      <c r="O67" s="152"/>
-      <c r="P67" s="150"/>
-      <c r="Q67" s="95"/>
-      <c r="R67" s="151"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="145"/>
-      <c r="C68" s="146"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="147"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="73">
-        <v>43799</v>
-      </c>
-      <c r="H68" s="75"/>
-      <c r="I68" s="154"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="155"/>
-      <c r="L68" s="75"/>
-      <c r="N68" s="93"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="75"/>
-      <c r="Q68" s="87"/>
-      <c r="R68" s="75"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="73">
-        <v>43798</v>
-      </c>
-      <c r="B69" s="93"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="75"/>
-      <c r="H69" s="75"/>
-      <c r="I69" s="154"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="155"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="73">
-        <v>43796</v>
-      </c>
-      <c r="N69" s="153"/>
-      <c r="O69" s="91"/>
-      <c r="P69" s="91"/>
-      <c r="Q69" s="91"/>
-      <c r="R69" s="91"/>
-    </row>
-    <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="144"/>
-      <c r="C70" s="110"/>
-      <c r="D70" s="110"/>
-      <c r="E70" s="110"/>
-      <c r="F70" s="148"/>
-      <c r="G70" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70" s="75"/>
-      <c r="I70" s="154"/>
-      <c r="J70" s="75"/>
-      <c r="K70" s="155"/>
-      <c r="L70" s="75"/>
-      <c r="M70" s="73">
-        <v>43797</v>
-      </c>
-      <c r="N70" s="93"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="60"/>
-      <c r="Q70" s="87"/>
-      <c r="R70" s="60"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="73">
-        <v>43799</v>
-      </c>
-      <c r="B71" s="93"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="75"/>
-      <c r="H71" s="75"/>
-      <c r="I71" s="154"/>
-      <c r="J71" s="75"/>
-      <c r="K71" s="155"/>
-      <c r="L71" s="75"/>
-      <c r="N71" s="93"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="60"/>
-      <c r="Q71" s="87"/>
-      <c r="R71" s="60"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B72" s="93"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="75"/>
-      <c r="H72" s="156"/>
-      <c r="I72" s="156"/>
-      <c r="J72" s="75"/>
-      <c r="K72" s="154"/>
-      <c r="L72" s="75"/>
-      <c r="M72" s="73">
-        <v>43798</v>
-      </c>
-      <c r="N72" s="93"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="87"/>
-      <c r="R72" s="60"/>
+      <c r="B72" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C72" s="54">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="D72" s="75">
+        <f t="shared" si="58"/>
+        <v>98344.799999999988</v>
+      </c>
+      <c r="E72" s="87">
+        <v>89.551724137931032</v>
+      </c>
+      <c r="F72" s="75">
+        <f t="shared" si="59"/>
+        <v>93492</v>
+      </c>
+      <c r="H72" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I72" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J72" s="75">
+        <f t="shared" si="48"/>
+        <v>99288</v>
+      </c>
+      <c r="K72" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L72" s="75">
+        <f t="shared" si="49"/>
+        <v>94770</v>
+      </c>
+      <c r="N72" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="O72" s="183"/>
+      <c r="P72" s="89">
+        <f>SUM(P64:P71)</f>
+        <v>521755.19999999995</v>
+      </c>
+      <c r="Q72" s="141">
+        <f>R72/P72</f>
+        <v>0.89697237325090395</v>
+      </c>
+      <c r="R72" s="89">
+        <f>SUM(R64:R71)</f>
+        <v>468000</v>
+      </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="73"/>
-      <c r="B73" s="93"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="138"/>
-      <c r="F73" s="75"/>
-      <c r="H73" s="136"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="136"/>
-      <c r="K73" s="136"/>
-      <c r="L73" s="136"/>
+      <c r="B73" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C73" s="54">
+        <v>0.98</v>
+      </c>
+      <c r="D73" s="75">
+        <f t="shared" si="58"/>
+        <v>102312</v>
+      </c>
+      <c r="E73" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="F73" s="75">
+        <f t="shared" si="59"/>
+        <v>98686</v>
+      </c>
+      <c r="H73" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" s="183"/>
+      <c r="J73" s="89">
+        <f>SUM(J51:J72)</f>
+        <v>2166292.7999999998</v>
+      </c>
+      <c r="K73" s="141">
+        <f>L73/J73</f>
+        <v>0.95742920809227638</v>
+      </c>
+      <c r="L73" s="89">
+        <f>SUM(L51:L72)</f>
+        <v>2074072</v>
+      </c>
       <c r="N73" s="93"/>
       <c r="O73" s="10"/>
       <c r="P73" s="60"/>
       <c r="Q73" s="87"/>
       <c r="R73" s="60"/>
     </row>
-    <row r="74" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="93"/>
-      <c r="C74" s="140"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="139"/>
-      <c r="F74" s="75"/>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="73">
+        <v>43799</v>
+      </c>
+      <c r="B74" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C74" s="54">
+        <v>0.97</v>
+      </c>
+      <c r="D74" s="75">
+        <f t="shared" si="58"/>
+        <v>101268</v>
+      </c>
+      <c r="E74" s="87">
+        <v>92.039272030651347</v>
+      </c>
+      <c r="F74" s="75">
+        <f t="shared" si="59"/>
+        <v>96089</v>
+      </c>
       <c r="H74" s="136"/>
       <c r="I74" s="56"/>
       <c r="J74" s="136"/>
       <c r="K74" s="136"/>
       <c r="L74" s="136"/>
-      <c r="M74" s="73">
-        <v>43799</v>
-      </c>
-      <c r="N74" s="93"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="60"/>
-      <c r="Q74" s="87"/>
-      <c r="R74" s="60"/>
+      <c r="M74" s="96"/>
+      <c r="N74" s="191" t="s">
+        <v>39</v>
+      </c>
+      <c r="O74" s="191"/>
+      <c r="P74" s="191"/>
+      <c r="Q74" s="191"/>
+      <c r="R74" s="191"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="145"/>
-      <c r="C75" s="146"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="147"/>
-      <c r="F75" s="60"/>
+      <c r="B75" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C75" s="54">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D75" s="75">
+        <f t="shared" si="58"/>
+        <v>101894.39999999999</v>
+      </c>
+      <c r="E75" s="87">
+        <v>92.039272030651347</v>
+      </c>
+      <c r="F75" s="75">
+        <f t="shared" si="59"/>
+        <v>96089</v>
+      </c>
       <c r="H75" s="136"/>
       <c r="I75" s="56"/>
       <c r="J75" s="136"/>
       <c r="K75" s="136"/>
       <c r="L75" s="136"/>
-      <c r="N75" s="93"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="60"/>
-      <c r="Q75" s="87"/>
-      <c r="R75" s="60"/>
+      <c r="M75" s="73">
+        <v>43795</v>
+      </c>
+      <c r="N75" s="150">
+        <v>86400</v>
+      </c>
+      <c r="O75" s="10">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="P75" s="75">
+        <f t="shared" ref="P75" si="62">N75*O75</f>
+        <v>76464</v>
+      </c>
+      <c r="Q75" s="87">
+        <v>69.375</v>
+      </c>
+      <c r="R75" s="75">
+        <f t="shared" ref="R75" si="63">N75*Q75/100</f>
+        <v>59940</v>
+      </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="194"/>
-      <c r="C76" s="194"/>
-      <c r="D76" s="136"/>
-      <c r="E76" s="137"/>
-      <c r="F76" s="136"/>
+      <c r="B76" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="183"/>
+      <c r="D76" s="154">
+        <f>SUM(D64:D75)</f>
+        <v>1222524</v>
+      </c>
+      <c r="E76" s="122">
+        <f>F76/D76</f>
+        <v>0.92619204203762051</v>
+      </c>
+      <c r="F76" s="89">
+        <f>SUM(F64:F75)</f>
+        <v>1132292</v>
+      </c>
       <c r="H76" s="136"/>
       <c r="I76" s="56"/>
       <c r="J76" s="136"/>
       <c r="K76" s="136"/>
       <c r="L76" s="136"/>
-      <c r="M76" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="N76" s="93"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="60"/>
-      <c r="Q76" s="138"/>
-      <c r="R76" s="60"/>
-    </row>
-    <row r="77" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N76" s="150">
+        <v>86400</v>
+      </c>
+      <c r="O76" s="10">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="P76" s="75">
+        <f t="shared" ref="P76:P84" si="64">N76*O76</f>
+        <v>84240</v>
+      </c>
+      <c r="Q76" s="87">
+        <v>92.5</v>
+      </c>
+      <c r="R76" s="75">
+        <f t="shared" ref="R76:R84" si="65">N76*Q76/100</f>
+        <v>79920</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B77" s="110"/>
       <c r="C77" s="110"/>
       <c r="D77" s="136"/>
@@ -14869,11 +15668,26 @@
       <c r="J77" s="136"/>
       <c r="K77" s="136"/>
       <c r="L77" s="136"/>
-      <c r="N77" s="142"/>
-      <c r="O77" s="143"/>
-      <c r="P77" s="60"/>
-      <c r="Q77" s="139"/>
-      <c r="R77" s="60"/>
+      <c r="M77" s="73">
+        <v>43796</v>
+      </c>
+      <c r="N77" s="150">
+        <v>86400</v>
+      </c>
+      <c r="O77" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="P77" s="75">
+        <f t="shared" si="64"/>
+        <v>84672</v>
+      </c>
+      <c r="Q77" s="87">
+        <v>94.8125</v>
+      </c>
+      <c r="R77" s="75">
+        <f t="shared" si="65"/>
+        <v>81918</v>
+      </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B78" s="110"/>
@@ -14886,11 +15700,23 @@
       <c r="J78" s="136"/>
       <c r="K78" s="136"/>
       <c r="L78" s="136"/>
-      <c r="N78" s="145"/>
-      <c r="O78" s="146"/>
-      <c r="P78" s="75"/>
-      <c r="Q78" s="149"/>
-      <c r="R78" s="60"/>
+      <c r="N78" s="150">
+        <v>86400</v>
+      </c>
+      <c r="O78" s="10">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="P78" s="75">
+        <f t="shared" si="64"/>
+        <v>85622.399999999994</v>
+      </c>
+      <c r="Q78" s="87">
+        <v>94.8125</v>
+      </c>
+      <c r="R78" s="75">
+        <f t="shared" si="65"/>
+        <v>81918</v>
+      </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B79" s="110"/>
@@ -14903,11 +15729,26 @@
       <c r="J79" s="110"/>
       <c r="K79" s="134"/>
       <c r="L79" s="134"/>
-      <c r="N79" s="110"/>
-      <c r="O79" s="110"/>
-      <c r="P79" s="110"/>
-      <c r="Q79" s="111"/>
-      <c r="R79" s="111"/>
+      <c r="M79" s="73">
+        <v>43797</v>
+      </c>
+      <c r="N79" s="150">
+        <v>86400</v>
+      </c>
+      <c r="O79" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="P79" s="75">
+        <f t="shared" si="64"/>
+        <v>85017.600000000006</v>
+      </c>
+      <c r="Q79" s="87">
+        <v>94.8125</v>
+      </c>
+      <c r="R79" s="75">
+        <f t="shared" si="65"/>
+        <v>81918</v>
+      </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B80" s="136"/>
@@ -14921,11 +15762,23 @@
       <c r="J80" s="136"/>
       <c r="K80" s="136"/>
       <c r="L80" s="136"/>
-      <c r="N80" s="136"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="136"/>
-      <c r="Q80" s="111"/>
-      <c r="R80" s="111"/>
+      <c r="N80" s="150">
+        <v>86400</v>
+      </c>
+      <c r="O80" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="P80" s="75">
+        <f t="shared" si="64"/>
+        <v>85017.600000000006</v>
+      </c>
+      <c r="Q80" s="87">
+        <v>92.5</v>
+      </c>
+      <c r="R80" s="75">
+        <f t="shared" si="65"/>
+        <v>79920</v>
+      </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B81" s="136"/>
@@ -14938,11 +15791,26 @@
       <c r="J81" s="136"/>
       <c r="K81" s="136"/>
       <c r="L81" s="136"/>
-      <c r="N81" s="136"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="136"/>
-      <c r="Q81" s="111"/>
-      <c r="R81" s="111"/>
+      <c r="M81" s="73">
+        <v>43798</v>
+      </c>
+      <c r="N81" s="150">
+        <v>86400</v>
+      </c>
+      <c r="O81" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P81" s="75">
+        <f t="shared" si="64"/>
+        <v>83894.399999999994</v>
+      </c>
+      <c r="Q81" s="87">
+        <v>92.5</v>
+      </c>
+      <c r="R81" s="75">
+        <f t="shared" si="65"/>
+        <v>79920</v>
+      </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B82" s="110"/>
@@ -14955,26 +15823,55 @@
       <c r="J82" s="136"/>
       <c r="K82" s="136"/>
       <c r="L82" s="136"/>
-      <c r="N82" s="110"/>
-      <c r="O82" s="110"/>
-      <c r="P82" s="136"/>
-      <c r="Q82" s="111"/>
-      <c r="R82" s="111"/>
+      <c r="N82" s="150">
+        <v>86400</v>
+      </c>
+      <c r="O82" s="10">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="P82" s="75">
+        <f t="shared" si="64"/>
+        <v>85449.600000000006</v>
+      </c>
+      <c r="Q82" s="87">
+        <v>94.8125</v>
+      </c>
+      <c r="R82" s="75">
+        <f t="shared" si="65"/>
+        <v>81918</v>
+      </c>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="184"/>
-      <c r="C83" s="184"/>
-      <c r="D83" s="184"/>
+      <c r="B83" s="178"/>
+      <c r="C83" s="178"/>
+      <c r="D83" s="178"/>
       <c r="E83" s="134"/>
       <c r="F83" s="134"/>
-      <c r="H83" s="184"/>
-      <c r="I83" s="184"/>
-      <c r="J83" s="184"/>
+      <c r="H83" s="178"/>
+      <c r="I83" s="178"/>
+      <c r="J83" s="178"/>
       <c r="K83" s="134"/>
       <c r="L83" s="134"/>
-      <c r="N83" s="184"/>
-      <c r="O83" s="184"/>
-      <c r="P83" s="184"/>
+      <c r="M83" s="73">
+        <v>43799</v>
+      </c>
+      <c r="N83" s="150">
+        <v>86400</v>
+      </c>
+      <c r="O83" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="P83" s="75">
+        <f t="shared" si="64"/>
+        <v>83808</v>
+      </c>
+      <c r="Q83" s="87">
+        <v>92.5</v>
+      </c>
+      <c r="R83" s="75">
+        <f t="shared" si="65"/>
+        <v>79920</v>
+      </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="136"/>
@@ -14987,9 +15884,23 @@
       <c r="J84" s="136"/>
       <c r="K84" s="136"/>
       <c r="L84" s="136"/>
-      <c r="N84" s="136"/>
-      <c r="O84" s="56"/>
-      <c r="P84" s="136"/>
+      <c r="N84" s="150">
+        <v>86400</v>
+      </c>
+      <c r="O84" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="P84" s="75">
+        <f t="shared" si="64"/>
+        <v>85363.199999999997</v>
+      </c>
+      <c r="Q84" s="87">
+        <v>92.5</v>
+      </c>
+      <c r="R84" s="75">
+        <f t="shared" si="65"/>
+        <v>79920</v>
+      </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B85" s="136"/>
@@ -15002,9 +15913,22 @@
       <c r="J85" s="136"/>
       <c r="K85" s="136"/>
       <c r="L85" s="136"/>
-      <c r="N85" s="136"/>
-      <c r="O85" s="56"/>
-      <c r="P85" s="136"/>
+      <c r="N85" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="O85" s="183"/>
+      <c r="P85" s="89">
+        <f>SUM(P75:P84)</f>
+        <v>839548.79999999993</v>
+      </c>
+      <c r="Q85" s="141">
+        <f>R85/P85</f>
+        <v>0.93766080065863955</v>
+      </c>
+      <c r="R85" s="89">
+        <f>SUM(R75:R84)</f>
+        <v>787212</v>
+      </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B86" s="136"/>
@@ -15070,22 +15994,22 @@
       <c r="P89" s="136"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="184"/>
-      <c r="C90" s="184"/>
+      <c r="B90" s="178"/>
+      <c r="C90" s="178"/>
       <c r="D90" s="136"/>
       <c r="E90" s="136"/>
       <c r="F90" s="136"/>
-      <c r="H90" s="184"/>
-      <c r="I90" s="184"/>
+      <c r="H90" s="178"/>
+      <c r="I90" s="178"/>
       <c r="J90" s="136"/>
       <c r="K90" s="136"/>
       <c r="L90" s="136"/>
-      <c r="N90" s="184"/>
-      <c r="O90" s="184"/>
+      <c r="N90" s="178"/>
+      <c r="O90" s="178"/>
       <c r="P90" s="136"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="42">
     <mergeCell ref="N41:O41"/>
     <mergeCell ref="N52:O52"/>
     <mergeCell ref="N54:R54"/>
@@ -15093,7 +16017,17 @@
     <mergeCell ref="B46:F46"/>
     <mergeCell ref="N43:R43"/>
     <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="N3:R3"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="H90:I90"/>
     <mergeCell ref="N90:O90"/>
@@ -15104,26 +16038,2004 @@
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="H83:J83"/>
-    <mergeCell ref="N83:P83"/>
     <mergeCell ref="N34:R34"/>
     <mergeCell ref="H33:L33"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="N74:R74"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N63:R63"/>
+    <mergeCell ref="N72:O72"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="62" max="17" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="62" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="63" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" style="63" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="63" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="62" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="63" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="63" customWidth="1"/>
+    <col min="10" max="11" width="11.6640625" style="63" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="63" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="62" customWidth="1"/>
+    <col min="14" max="14" width="11" style="63" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="63" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="63" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="63" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" style="63" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="H1" s="185" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="N1" s="185" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+    </row>
+    <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B2" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="179" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="189" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="191" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="191"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="191"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="73">
+        <v>43800</v>
+      </c>
+      <c r="B4" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C4" s="54">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D4" s="75">
+        <f t="shared" ref="D4" si="0">B4*C4</f>
+        <v>98240.4</v>
+      </c>
+      <c r="E4" s="87">
+        <v>72.138888888888886</v>
+      </c>
+      <c r="F4" s="75">
+        <f t="shared" ref="F4" si="1">B4*E4/100</f>
+        <v>75313</v>
+      </c>
+      <c r="G4" s="73">
+        <v>43800</v>
+      </c>
+      <c r="H4" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I4" s="147">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J4" s="75">
+        <f t="shared" ref="J4:J17" si="2">H4*I4</f>
+        <v>99388.800000000003</v>
+      </c>
+      <c r="K4" s="148">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L4" s="75">
+        <f t="shared" ref="L4:L17" si="3">H4*K4/100</f>
+        <v>94770</v>
+      </c>
+      <c r="M4" s="73">
+        <v>43800</v>
+      </c>
+      <c r="N4" s="202">
+        <v>86400</v>
+      </c>
+      <c r="O4" s="129">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="P4" s="60">
+        <f t="shared" ref="P4" si="4">N4*O4</f>
+        <v>84844.800000000003</v>
+      </c>
+      <c r="Q4" s="130">
+        <v>97.125</v>
+      </c>
+      <c r="R4" s="60">
+        <f t="shared" ref="R4" si="5">N4*Q4/100</f>
+        <v>83916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="150"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="75"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="75"/>
+      <c r="N5" s="150">
+        <v>86400</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="P5" s="75">
+        <f t="shared" ref="P5:P7" si="6">N5*O5</f>
+        <v>85017.600000000006</v>
+      </c>
+      <c r="Q5" s="87">
+        <v>97.125</v>
+      </c>
+      <c r="R5" s="75">
+        <f t="shared" ref="R5:R7" si="7">N5*Q5/100</f>
+        <v>83916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="73">
+        <v>43801</v>
+      </c>
+      <c r="B6" s="150"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="73">
+        <v>43801</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="73">
+        <v>43801</v>
+      </c>
+      <c r="N6" s="150">
+        <v>86400</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0.998</v>
+      </c>
+      <c r="P6" s="75">
+        <f t="shared" si="6"/>
+        <v>86227.199999999997</v>
+      </c>
+      <c r="Q6" s="87">
+        <v>99.4375</v>
+      </c>
+      <c r="R6" s="75">
+        <f t="shared" si="7"/>
+        <v>85914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="150"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="75"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="75"/>
+      <c r="N7" s="150">
+        <v>86400</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="P7" s="75">
+        <f t="shared" si="6"/>
+        <v>86313.600000000006</v>
+      </c>
+      <c r="Q7" s="87">
+        <v>99.4375</v>
+      </c>
+      <c r="R7" s="75">
+        <f t="shared" si="7"/>
+        <v>85914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="73">
+        <v>43802</v>
+      </c>
+      <c r="B8" s="150"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="73">
+        <v>43802</v>
+      </c>
+      <c r="H8" s="74"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="75"/>
+      <c r="N8" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="183"/>
+      <c r="P8" s="89">
+        <f>SUM(P4:P7)</f>
+        <v>342403.20000000007</v>
+      </c>
+      <c r="Q8" s="141">
+        <f>R8/P8</f>
+        <v>0.99198839263184435</v>
+      </c>
+      <c r="R8" s="89">
+        <f>SUM(R4:R7)</f>
+        <v>339660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="150"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="75"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="75"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="75"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="73">
+        <v>43803</v>
+      </c>
+      <c r="B10" s="150"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="73">
+        <v>43803</v>
+      </c>
+      <c r="H10" s="74"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="75"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="148"/>
+      <c r="R10" s="75"/>
+    </row>
+    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="111"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="73">
+        <v>43802</v>
+      </c>
+      <c r="N11" s="93"/>
+      <c r="O11" s="147"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="75"/>
+    </row>
+    <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="149">
+        <v>43804</v>
+      </c>
+      <c r="B12" s="150"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="78">
+        <v>43804</v>
+      </c>
+      <c r="H12" s="74"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="75"/>
+      <c r="N12" s="193"/>
+      <c r="O12" s="194"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="141"/>
+      <c r="R12" s="89"/>
+    </row>
+    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="150"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="75"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="73">
+        <v>43803</v>
+      </c>
+      <c r="N13" s="93"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="75"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="73">
+        <v>43805</v>
+      </c>
+      <c r="B14" s="150"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="73">
+        <v>43805</v>
+      </c>
+      <c r="H14" s="74"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="75"/>
+      <c r="N14" s="198"/>
+      <c r="O14" s="195"/>
+      <c r="P14" s="195"/>
+      <c r="Q14" s="195"/>
+      <c r="R14" s="195"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="150"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="75"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="78">
+        <v>43804</v>
+      </c>
+      <c r="N15" s="150"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="75"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="73">
+        <v>43806</v>
+      </c>
+      <c r="B16" s="150"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="73">
+        <v>43806</v>
+      </c>
+      <c r="H16" s="74"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="75"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="75"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="150"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="75"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="73">
+        <v>43805</v>
+      </c>
+      <c r="N17" s="150"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="75"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="73">
+        <v>43807</v>
+      </c>
+      <c r="B18" s="150"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="75"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="89"/>
+      <c r="N18" s="150"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="75"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="150"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="73">
+        <v>43806</v>
+      </c>
+      <c r="N19" s="150"/>
+      <c r="O19" s="147"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="75"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="73">
+        <v>43808</v>
+      </c>
+      <c r="B20" s="150"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="75"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="200"/>
+      <c r="L20" s="200"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="75"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="150"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="73">
+        <v>43807</v>
+      </c>
+      <c r="H21" s="74"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="73">
+        <v>43807</v>
+      </c>
+      <c r="N21" s="150"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="75"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="73">
+        <v>43809</v>
+      </c>
+      <c r="B22" s="150"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="75"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="75"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="147"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="75"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="150"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="73">
+        <v>43808</v>
+      </c>
+      <c r="H23" s="74"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="75"/>
+      <c r="N23" s="193"/>
+      <c r="O23" s="194"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="89"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="193"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="89"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="75"/>
+      <c r="N24" s="146"/>
+      <c r="O24" s="146"/>
+      <c r="P24" s="144"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="145"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="93"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="73">
+        <v>43809</v>
+      </c>
+      <c r="H25" s="74"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="75"/>
+      <c r="N25" s="198"/>
+      <c r="O25" s="195"/>
+      <c r="P25" s="195"/>
+      <c r="Q25" s="195"/>
+      <c r="R25" s="195"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="195"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="73">
+        <v>43808</v>
+      </c>
+      <c r="N26" s="93"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="75"/>
+    </row>
+    <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73">
+        <v>43810</v>
+      </c>
+      <c r="B27" s="150"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="73">
+        <v>43810</v>
+      </c>
+      <c r="H27" s="74"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="75"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="75"/>
+    </row>
+    <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="150"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="75"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="73">
+        <v>43809</v>
+      </c>
+      <c r="N28" s="93"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="75"/>
+    </row>
+    <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="73">
+        <v>43811</v>
+      </c>
+      <c r="B29" s="150"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="73">
+        <v>43811</v>
+      </c>
+      <c r="H29" s="74"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="75"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="75"/>
+    </row>
+    <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="150"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="75"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="73">
+        <v>43810</v>
+      </c>
+      <c r="N30" s="93"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="75"/>
+    </row>
+    <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="73">
+        <v>43812</v>
+      </c>
+      <c r="B31" s="150"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="75"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="89"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="75"/>
+    </row>
+    <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="150"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="75"/>
+      <c r="N32" s="193"/>
+      <c r="O32" s="194"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="141"/>
+      <c r="R32" s="89"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="193"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="89"/>
+      <c r="H33" s="199"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="200"/>
+      <c r="L33" s="200"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="75"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="150"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="73">
+        <v>43812</v>
+      </c>
+      <c r="H34" s="93"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="75"/>
+      <c r="N34" s="198"/>
+      <c r="O34" s="195"/>
+      <c r="P34" s="195"/>
+      <c r="Q34" s="195"/>
+      <c r="R34" s="195"/>
+    </row>
+    <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="195"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="73">
+        <v>43811</v>
+      </c>
+      <c r="N35" s="93"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="75"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="73">
+        <v>43813</v>
+      </c>
+      <c r="B36" s="150"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="73">
+        <v>43813</v>
+      </c>
+      <c r="H36" s="93"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="75"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="75"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="150"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="75"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="73">
+        <v>43812</v>
+      </c>
+      <c r="N37" s="93"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="75"/>
+    </row>
+    <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="73">
+        <v>43814</v>
+      </c>
+      <c r="B38" s="150"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="73">
+        <v>43814</v>
+      </c>
+      <c r="H38" s="93"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="75"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="75"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="150"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="75"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="73">
+        <v>43813</v>
+      </c>
+      <c r="N39" s="93"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="87"/>
+      <c r="R39" s="75"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="73">
+        <v>43815</v>
+      </c>
+      <c r="B40" s="150"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="73">
+        <v>43815</v>
+      </c>
+      <c r="H40" s="93"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="75"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="75"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="150"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="75"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="75"/>
+      <c r="N41" s="193"/>
+      <c r="O41" s="194"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="141"/>
+      <c r="R41" s="89"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="73">
+        <v>43816</v>
+      </c>
+      <c r="B42" s="150"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="73">
+        <v>43816</v>
+      </c>
+      <c r="H42" s="93"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="75"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="75"/>
+    </row>
+    <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="150"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="75"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="75"/>
+      <c r="N43" s="195"/>
+      <c r="O43" s="195"/>
+      <c r="P43" s="195"/>
+      <c r="Q43" s="195"/>
+      <c r="R43" s="195"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="193"/>
+      <c r="C44" s="194"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="73">
+        <v>43817</v>
+      </c>
+      <c r="H44" s="93"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="73">
+        <v>43814</v>
+      </c>
+      <c r="N44" s="93"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="75"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="93"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="75"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="75"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="75"/>
+      <c r="Q45" s="87"/>
+      <c r="R45" s="75"/>
+    </row>
+    <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="195"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="195"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="195"/>
+      <c r="G46" s="73">
+        <v>43818</v>
+      </c>
+      <c r="H46" s="93"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="73">
+        <v>43815</v>
+      </c>
+      <c r="N46" s="93"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="75"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="75"/>
+    </row>
+    <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="73">
+        <v>43817</v>
+      </c>
+      <c r="B47" s="93"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="75"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="75"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="75"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="75"/>
+    </row>
+    <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="93"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="75"/>
+      <c r="H48" s="193"/>
+      <c r="I48" s="194"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="141"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="73">
+        <v>43816</v>
+      </c>
+      <c r="N48" s="93"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="75"/>
+      <c r="Q48" s="87"/>
+      <c r="R48" s="75"/>
+    </row>
+    <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="73">
+        <v>43818</v>
+      </c>
+      <c r="B49" s="93"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="147"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="148"/>
+      <c r="L49" s="75"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="75"/>
+      <c r="Q49" s="87"/>
+      <c r="R49" s="75"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="93"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="75"/>
+      <c r="H50" s="199"/>
+      <c r="I50" s="200"/>
+      <c r="J50" s="200"/>
+      <c r="K50" s="200"/>
+      <c r="L50" s="200"/>
+      <c r="M50" s="73">
+        <v>43817</v>
+      </c>
+      <c r="N50" s="93"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="75"/>
+      <c r="Q50" s="87"/>
+      <c r="R50" s="75"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="73">
+        <v>43819</v>
+      </c>
+      <c r="B51" s="93"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="73">
+        <v>43819</v>
+      </c>
+      <c r="H51" s="74"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="75"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="75"/>
+      <c r="Q51" s="87"/>
+      <c r="R51" s="75"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B52" s="93"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="75"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="75"/>
+      <c r="N52" s="193"/>
+      <c r="O52" s="194"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="141"/>
+      <c r="R52" s="89"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="73">
+        <v>43820</v>
+      </c>
+      <c r="B53" s="93"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="73">
+        <v>43820</v>
+      </c>
+      <c r="H53" s="74"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="87"/>
+      <c r="L53" s="75"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="87"/>
+      <c r="R53" s="75"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B54" s="93"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="75"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="75"/>
+      <c r="N54" s="195"/>
+      <c r="O54" s="195"/>
+      <c r="P54" s="195"/>
+      <c r="Q54" s="195"/>
+      <c r="R54" s="195"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="73">
+        <v>43821</v>
+      </c>
+      <c r="B55" s="93"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="73">
+        <v>43821</v>
+      </c>
+      <c r="H55" s="74"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="73">
+        <v>43818</v>
+      </c>
+      <c r="N55" s="93"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="87"/>
+      <c r="R55" s="75"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B56" s="93"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="75"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="75"/>
+      <c r="N56" s="93"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="75"/>
+      <c r="Q56" s="87"/>
+      <c r="R56" s="75"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="73">
+        <v>43822</v>
+      </c>
+      <c r="B57" s="93"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="73">
+        <v>43822</v>
+      </c>
+      <c r="H57" s="74"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="73">
+        <v>43819</v>
+      </c>
+      <c r="N57" s="93"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="75"/>
+      <c r="Q57" s="87"/>
+      <c r="R57" s="75"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="93"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="75"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="75"/>
+      <c r="N58" s="93"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="75"/>
+      <c r="Q58" s="87"/>
+      <c r="R58" s="75"/>
+    </row>
+    <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="73">
+        <v>43823</v>
+      </c>
+      <c r="B59" s="93"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="73">
+        <v>43823</v>
+      </c>
+      <c r="H59" s="74"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="75"/>
+      <c r="M59" s="73">
+        <v>43820</v>
+      </c>
+      <c r="N59" s="93"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="75"/>
+      <c r="Q59" s="87"/>
+      <c r="R59" s="75"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B60" s="93"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="75"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="87"/>
+      <c r="L60" s="75"/>
+      <c r="N60" s="93"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="75"/>
+      <c r="Q60" s="87"/>
+      <c r="R60" s="75"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B61" s="193"/>
+      <c r="C61" s="194"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="73">
+        <v>43824</v>
+      </c>
+      <c r="H61" s="74"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="87"/>
+      <c r="L61" s="75"/>
+      <c r="N61" s="193"/>
+      <c r="O61" s="194"/>
+      <c r="P61" s="89"/>
+      <c r="Q61" s="141"/>
+      <c r="R61" s="89"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B62" s="93"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="75"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="75"/>
+      <c r="K62" s="87"/>
+      <c r="L62" s="75"/>
+      <c r="N62" s="93"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="75"/>
+      <c r="Q62" s="87"/>
+      <c r="R62" s="75"/>
+    </row>
+    <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="196"/>
+      <c r="C63" s="197"/>
+      <c r="D63" s="197"/>
+      <c r="E63" s="197"/>
+      <c r="F63" s="197"/>
+      <c r="G63" s="73">
+        <v>43825</v>
+      </c>
+      <c r="H63" s="74"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="87"/>
+      <c r="L63" s="75"/>
+      <c r="N63" s="195"/>
+      <c r="O63" s="195"/>
+      <c r="P63" s="195"/>
+      <c r="Q63" s="195"/>
+      <c r="R63" s="195"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="73">
+        <v>43824</v>
+      </c>
+      <c r="B64" s="93"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="75"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="87"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="73">
+        <v>43821</v>
+      </c>
+      <c r="N64" s="93"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="75"/>
+      <c r="Q64" s="87"/>
+      <c r="R64" s="75"/>
+    </row>
+    <row r="65" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="93"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="73">
+        <v>43826</v>
+      </c>
+      <c r="H65" s="74"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="75"/>
+      <c r="K65" s="87"/>
+      <c r="L65" s="75"/>
+      <c r="N65" s="93"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="75"/>
+      <c r="Q65" s="87"/>
+      <c r="R65" s="75"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="73">
+        <v>43825</v>
+      </c>
+      <c r="B66" s="93"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="75"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="87"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="73">
+        <v>43822</v>
+      </c>
+      <c r="N66" s="93"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="75"/>
+      <c r="Q66" s="87"/>
+      <c r="R66" s="75"/>
+    </row>
+    <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="93"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="73">
+        <v>43827</v>
+      </c>
+      <c r="H67" s="74"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="87"/>
+      <c r="L67" s="75"/>
+      <c r="N67" s="93"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="75"/>
+      <c r="Q67" s="87"/>
+      <c r="R67" s="75"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="73">
+        <v>43826</v>
+      </c>
+      <c r="B68" s="93"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="75"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="87"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="73">
+        <v>43823</v>
+      </c>
+      <c r="N68" s="93"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="75"/>
+      <c r="Q68" s="87"/>
+      <c r="R68" s="75"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B69" s="93"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="73">
+        <v>43828</v>
+      </c>
+      <c r="H69" s="74"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="87"/>
+      <c r="L69" s="75"/>
+      <c r="N69" s="93"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="75"/>
+      <c r="Q69" s="87"/>
+      <c r="R69" s="75"/>
+    </row>
+    <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="73">
+        <v>43827</v>
+      </c>
+      <c r="B70" s="93"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="75"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="75"/>
+      <c r="K70" s="87"/>
+      <c r="L70" s="75"/>
+      <c r="M70" s="73">
+        <v>43824</v>
+      </c>
+      <c r="N70" s="93"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="75"/>
+      <c r="Q70" s="87"/>
+      <c r="R70" s="75"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B71" s="93"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="73">
+        <v>43829</v>
+      </c>
+      <c r="H71" s="74"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="75"/>
+      <c r="K71" s="87"/>
+      <c r="L71" s="75"/>
+      <c r="N71" s="93"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="75"/>
+      <c r="Q71" s="87"/>
+      <c r="R71" s="75"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="73">
+        <v>43828</v>
+      </c>
+      <c r="B72" s="93"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="75"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="75"/>
+      <c r="K72" s="87"/>
+      <c r="L72" s="75"/>
+      <c r="N72" s="193"/>
+      <c r="O72" s="194"/>
+      <c r="P72" s="89"/>
+      <c r="Q72" s="141"/>
+      <c r="R72" s="89"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B73" s="93"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="75"/>
+      <c r="H73" s="193"/>
+      <c r="I73" s="194"/>
+      <c r="J73" s="89"/>
+      <c r="K73" s="141"/>
+      <c r="L73" s="89"/>
+      <c r="N73" s="93"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="60"/>
+      <c r="Q73" s="87"/>
+      <c r="R73" s="60"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="73">
+        <v>43829</v>
+      </c>
+      <c r="B74" s="93"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="75"/>
+      <c r="H74" s="157"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="157"/>
+      <c r="K74" s="157"/>
+      <c r="L74" s="157"/>
+      <c r="N74" s="195"/>
+      <c r="O74" s="195"/>
+      <c r="P74" s="195"/>
+      <c r="Q74" s="195"/>
+      <c r="R74" s="195"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="93"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="75"/>
+      <c r="H75" s="157"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="157"/>
+      <c r="K75" s="157"/>
+      <c r="L75" s="157"/>
+      <c r="M75" s="73">
+        <v>43825</v>
+      </c>
+      <c r="N75" s="150"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="75"/>
+      <c r="Q75" s="87"/>
+      <c r="R75" s="75"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B76" s="193"/>
+      <c r="C76" s="194"/>
+      <c r="D76" s="156"/>
+      <c r="E76" s="122"/>
+      <c r="F76" s="89"/>
+      <c r="H76" s="157"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="157"/>
+      <c r="K76" s="157"/>
+      <c r="L76" s="157"/>
+      <c r="N76" s="150"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="75"/>
+      <c r="Q76" s="87"/>
+      <c r="R76" s="75"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B77" s="110"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="157"/>
+      <c r="E77" s="157"/>
+      <c r="F77" s="157"/>
+      <c r="H77" s="110"/>
+      <c r="I77" s="110"/>
+      <c r="J77" s="157"/>
+      <c r="K77" s="157"/>
+      <c r="L77" s="157"/>
+      <c r="M77" s="73">
+        <v>43826</v>
+      </c>
+      <c r="N77" s="150"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="75"/>
+      <c r="Q77" s="87"/>
+      <c r="R77" s="75"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B78" s="110"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="157"/>
+      <c r="E78" s="157"/>
+      <c r="F78" s="157"/>
+      <c r="H78" s="110"/>
+      <c r="I78" s="110"/>
+      <c r="J78" s="157"/>
+      <c r="K78" s="157"/>
+      <c r="L78" s="157"/>
+      <c r="N78" s="150"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="75"/>
+      <c r="Q78" s="87"/>
+      <c r="R78" s="75"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B79" s="110"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="110"/>
+      <c r="E79" s="155"/>
+      <c r="F79" s="155"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="110"/>
+      <c r="J79" s="110"/>
+      <c r="K79" s="155"/>
+      <c r="L79" s="155"/>
+      <c r="M79" s="73">
+        <v>43827</v>
+      </c>
+      <c r="N79" s="150"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="75"/>
+      <c r="Q79" s="87"/>
+      <c r="R79" s="75"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B80" s="157"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="157"/>
+      <c r="E80" s="157"/>
+      <c r="F80" s="157"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="157"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="157"/>
+      <c r="K80" s="157"/>
+      <c r="L80" s="157"/>
+      <c r="N80" s="150"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="75"/>
+      <c r="Q80" s="87"/>
+      <c r="R80" s="75"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B81" s="157"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="157"/>
+      <c r="E81" s="157"/>
+      <c r="F81" s="157"/>
+      <c r="H81" s="157"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="157"/>
+      <c r="K81" s="157"/>
+      <c r="L81" s="157"/>
+      <c r="M81" s="73">
+        <v>43828</v>
+      </c>
+      <c r="N81" s="150"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="75"/>
+      <c r="Q81" s="87"/>
+      <c r="R81" s="75"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="157"/>
+      <c r="E82" s="157"/>
+      <c r="F82" s="157"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="110"/>
+      <c r="J82" s="157"/>
+      <c r="K82" s="157"/>
+      <c r="L82" s="157"/>
+      <c r="N82" s="150"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="75"/>
+      <c r="Q82" s="87"/>
+      <c r="R82" s="75"/>
+    </row>
+    <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="178"/>
+      <c r="C83" s="178"/>
+      <c r="D83" s="178"/>
+      <c r="E83" s="155"/>
+      <c r="F83" s="155"/>
+      <c r="H83" s="178"/>
+      <c r="I83" s="178"/>
+      <c r="J83" s="178"/>
+      <c r="K83" s="155"/>
+      <c r="L83" s="155"/>
+      <c r="M83" s="73">
+        <v>43829</v>
+      </c>
+      <c r="N83" s="150"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="75"/>
+      <c r="Q83" s="87"/>
+      <c r="R83" s="75"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B84" s="157"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="157"/>
+      <c r="E84" s="157"/>
+      <c r="F84" s="157"/>
+      <c r="H84" s="157"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="157"/>
+      <c r="K84" s="157"/>
+      <c r="L84" s="157"/>
+      <c r="N84" s="150"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="75"/>
+      <c r="Q84" s="87"/>
+      <c r="R84" s="75"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B85" s="157"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="157"/>
+      <c r="E85" s="157"/>
+      <c r="F85" s="157"/>
+      <c r="H85" s="157"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="157"/>
+      <c r="K85" s="157"/>
+      <c r="L85" s="157"/>
+      <c r="N85" s="193"/>
+      <c r="O85" s="194"/>
+      <c r="P85" s="89"/>
+      <c r="Q85" s="141"/>
+      <c r="R85" s="89"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B86" s="157"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="157"/>
+      <c r="E86" s="157"/>
+      <c r="F86" s="157"/>
+      <c r="H86" s="157"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="157"/>
+      <c r="K86" s="157"/>
+      <c r="L86" s="157"/>
+      <c r="N86" s="157"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="157"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B87" s="157"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="157"/>
+      <c r="E87" s="157"/>
+      <c r="F87" s="157"/>
+      <c r="H87" s="157"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="157"/>
+      <c r="K87" s="157"/>
+      <c r="L87" s="157"/>
+      <c r="N87" s="157"/>
+      <c r="O87" s="56"/>
+      <c r="P87" s="157"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="73"/>
+      <c r="B88" s="157"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="157"/>
+      <c r="E88" s="157"/>
+      <c r="F88" s="157"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="157"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="157"/>
+      <c r="K88" s="157"/>
+      <c r="L88" s="157"/>
+      <c r="M88" s="73"/>
+      <c r="N88" s="157"/>
+      <c r="O88" s="56"/>
+      <c r="P88" s="157"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B89" s="157"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="157"/>
+      <c r="E89" s="157"/>
+      <c r="F89" s="157"/>
+      <c r="H89" s="157"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="157"/>
+      <c r="K89" s="157"/>
+      <c r="L89" s="157"/>
+      <c r="N89" s="157"/>
+      <c r="O89" s="56"/>
+      <c r="P89" s="157"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B90" s="178"/>
+      <c r="C90" s="178"/>
+      <c r="D90" s="157"/>
+      <c r="E90" s="157"/>
+      <c r="F90" s="157"/>
+      <c r="H90" s="178"/>
+      <c r="I90" s="178"/>
+      <c r="J90" s="157"/>
+      <c r="K90" s="157"/>
+      <c r="L90" s="157"/>
+      <c r="N90" s="178"/>
+      <c r="O90" s="178"/>
+      <c r="P90" s="157"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="N90:O90"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N32:O32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="62" max="17" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Расчет капель по машинам/Расчет капель по машинам (УРФ) 2019.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Бланк!$A$1:$N$82</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Декабрь!$A$1:$R$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Декабрь!$A$1:$R$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Ноябрь!$A$1:$R$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Октябрь!$A$1:$R$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$R$76</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="43">
   <si>
     <t>% работы</t>
   </si>
@@ -287,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -641,12 +641,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1081,10 +1212,91 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1192,34 +1404,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1552,21 +1740,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="167" t="s">
+      <c r="C1" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
       <c r="H1" s="51"/>
-      <c r="I1" s="167" t="s">
+      <c r="I1" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
     </row>
     <row r="2" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -1608,22 +1796,22 @@
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="158" t="s">
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="160"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="187"/>
       <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1869,11 +2057,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="187"/>
       <c r="E11" s="24">
         <f>SUM(E4:E10)</f>
         <v>829712.88</v>
@@ -1894,12 +2082,12 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="164"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="166"/>
+      <c r="B12" s="191"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="192"/>
+      <c r="E12" s="192"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="193"/>
       <c r="H12" s="20"/>
       <c r="I12" s="14"/>
       <c r="J12" s="23"/>
@@ -1912,14 +2100,14 @@
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="170"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="197"/>
       <c r="H13" s="20"/>
       <c r="I13" s="14"/>
       <c r="J13" s="23"/>
@@ -1931,12 +2119,12 @@
       <c r="A14" s="3">
         <v>43439</v>
       </c>
-      <c r="B14" s="161"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="163"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="190"/>
       <c r="H14" s="20"/>
       <c r="I14" s="14"/>
       <c r="J14" s="23"/>
@@ -1971,9 +2159,9 @@
       <c r="E16" s="11"/>
       <c r="F16" s="38"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="160"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="187"/>
       <c r="K16" s="24"/>
       <c r="L16" s="25"/>
       <c r="M16" s="24"/>
@@ -1985,9 +2173,9 @@
       <c r="E17" s="11"/>
       <c r="F17" s="38"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="166"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="193"/>
       <c r="K17" s="11"/>
       <c r="L17" s="33"/>
       <c r="M17" s="11"/>
@@ -2002,12 +2190,12 @@
       <c r="E18" s="11"/>
       <c r="F18" s="38"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="160"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="186"/>
+      <c r="L18" s="186"/>
+      <c r="M18" s="187"/>
       <c r="N18" s="39"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2096,9 +2284,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="158"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="160"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="187"/>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
       <c r="G24" s="24"/>
@@ -2128,12 +2316,12 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="160"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="187"/>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
       <c r="J26" s="23"/>
@@ -2279,9 +2467,9 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="158"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="160"/>
+      <c r="B35" s="185"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="187"/>
       <c r="E35" s="24"/>
       <c r="F35" s="25"/>
       <c r="G35" s="24"/>
@@ -2311,12 +2499,12 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="159"/>
-      <c r="D37" s="159"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="160"/>
+      <c r="B37" s="185"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="187"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
       <c r="J37" s="23"/>
@@ -2464,9 +2652,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="158"/>
-      <c r="C46" s="159"/>
-      <c r="D46" s="160"/>
+      <c r="B46" s="185"/>
+      <c r="C46" s="186"/>
+      <c r="D46" s="187"/>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
       <c r="G46" s="24"/>
@@ -2496,12 +2684,12 @@
     </row>
     <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="158"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="159"/>
-      <c r="F48" s="159"/>
-      <c r="G48" s="160"/>
+      <c r="B48" s="185"/>
+      <c r="C48" s="186"/>
+      <c r="D48" s="186"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="187"/>
       <c r="H48" s="30"/>
       <c r="I48" s="31"/>
       <c r="J48" s="23"/>
@@ -2646,15 +2834,15 @@
       <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="158"/>
-      <c r="C57" s="159"/>
-      <c r="D57" s="160"/>
+      <c r="B57" s="185"/>
+      <c r="C57" s="186"/>
+      <c r="D57" s="187"/>
       <c r="E57" s="24"/>
       <c r="F57" s="25"/>
       <c r="G57" s="24"/>
-      <c r="H57" s="158"/>
-      <c r="I57" s="159"/>
-      <c r="J57" s="160"/>
+      <c r="H57" s="185"/>
+      <c r="I57" s="186"/>
+      <c r="J57" s="187"/>
       <c r="K57" s="24"/>
       <c r="L57" s="25"/>
       <c r="M57" s="24"/>
@@ -2674,12 +2862,12 @@
       <c r="M58" s="11"/>
     </row>
     <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="158"/>
-      <c r="C59" s="159"/>
-      <c r="D59" s="159"/>
-      <c r="E59" s="159"/>
-      <c r="F59" s="159"/>
-      <c r="G59" s="160"/>
+      <c r="B59" s="185"/>
+      <c r="C59" s="186"/>
+      <c r="D59" s="186"/>
+      <c r="E59" s="186"/>
+      <c r="F59" s="186"/>
+      <c r="G59" s="187"/>
       <c r="H59" s="20"/>
       <c r="I59" s="14"/>
       <c r="J59" s="23"/>
@@ -2691,9 +2879,9 @@
       <c r="A60" s="3">
         <v>43456</v>
       </c>
-      <c r="B60" s="158"/>
-      <c r="C60" s="159"/>
-      <c r="D60" s="160"/>
+      <c r="B60" s="185"/>
+      <c r="C60" s="186"/>
+      <c r="D60" s="187"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
       <c r="G60" s="24"/>
@@ -2705,12 +2893,12 @@
       <c r="M60" s="11"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="171"/>
-      <c r="C61" s="171"/>
-      <c r="D61" s="171"/>
-      <c r="E61" s="171"/>
-      <c r="F61" s="171"/>
-      <c r="G61" s="171"/>
+      <c r="B61" s="198"/>
+      <c r="C61" s="198"/>
+      <c r="D61" s="198"/>
+      <c r="E61" s="198"/>
+      <c r="F61" s="198"/>
+      <c r="G61" s="198"/>
       <c r="H61" s="20"/>
       <c r="I61" s="14"/>
       <c r="J61" s="23"/>
@@ -2722,12 +2910,12 @@
       <c r="A62" s="3">
         <v>43457</v>
       </c>
-      <c r="B62" s="158"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="169"/>
-      <c r="E62" s="159"/>
-      <c r="F62" s="169"/>
-      <c r="G62" s="170"/>
+      <c r="B62" s="185"/>
+      <c r="C62" s="186"/>
+      <c r="D62" s="196"/>
+      <c r="E62" s="186"/>
+      <c r="F62" s="196"/>
+      <c r="G62" s="197"/>
       <c r="H62" s="20"/>
       <c r="I62" s="14"/>
       <c r="J62" s="23"/>
@@ -2790,9 +2978,9 @@
       <c r="E66" s="11"/>
       <c r="F66" s="38"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="158"/>
-      <c r="I66" s="159"/>
-      <c r="J66" s="160"/>
+      <c r="H66" s="185"/>
+      <c r="I66" s="186"/>
+      <c r="J66" s="187"/>
       <c r="K66" s="24"/>
       <c r="L66" s="25"/>
       <c r="M66" s="24"/>
@@ -2821,12 +3009,12 @@
       <c r="E68" s="11"/>
       <c r="F68" s="38"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="173"/>
-      <c r="I68" s="169"/>
-      <c r="J68" s="169"/>
-      <c r="K68" s="169"/>
-      <c r="L68" s="169"/>
-      <c r="M68" s="160"/>
+      <c r="H68" s="200"/>
+      <c r="I68" s="196"/>
+      <c r="J68" s="196"/>
+      <c r="K68" s="196"/>
+      <c r="L68" s="196"/>
+      <c r="M68" s="187"/>
       <c r="N68" s="28"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -2938,9 +3126,9 @@
       <c r="E75" s="11"/>
       <c r="F75" s="38"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="158"/>
-      <c r="I75" s="159"/>
-      <c r="J75" s="160"/>
+      <c r="H75" s="185"/>
+      <c r="I75" s="186"/>
+      <c r="J75" s="187"/>
       <c r="K75" s="24"/>
       <c r="L75" s="25"/>
       <c r="M75" s="24"/>
@@ -2960,23 +3148,23 @@
       <c r="M76" s="11"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="158"/>
-      <c r="C77" s="159"/>
-      <c r="D77" s="160"/>
+      <c r="B77" s="185"/>
+      <c r="C77" s="186"/>
+      <c r="D77" s="187"/>
       <c r="E77" s="24"/>
       <c r="F77" s="25"/>
       <c r="G77" s="24"/>
-      <c r="H77" s="173"/>
-      <c r="I77" s="169"/>
-      <c r="J77" s="169"/>
-      <c r="K77" s="169"/>
-      <c r="L77" s="169"/>
-      <c r="M77" s="160"/>
+      <c r="H77" s="200"/>
+      <c r="I77" s="196"/>
+      <c r="J77" s="196"/>
+      <c r="K77" s="196"/>
+      <c r="L77" s="196"/>
+      <c r="M77" s="187"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="164"/>
-      <c r="C78" s="165"/>
-      <c r="D78" s="166"/>
+      <c r="B78" s="191"/>
+      <c r="C78" s="192"/>
+      <c r="D78" s="193"/>
       <c r="E78" s="11"/>
       <c r="F78" s="33"/>
       <c r="G78" s="11"/>
@@ -2991,12 +3179,12 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="158"/>
-      <c r="C79" s="159"/>
-      <c r="D79" s="169"/>
-      <c r="E79" s="159"/>
-      <c r="F79" s="169"/>
-      <c r="G79" s="170"/>
+      <c r="B79" s="185"/>
+      <c r="C79" s="186"/>
+      <c r="D79" s="196"/>
+      <c r="E79" s="186"/>
+      <c r="F79" s="196"/>
+      <c r="G79" s="197"/>
       <c r="H79" s="20"/>
       <c r="I79" s="14"/>
       <c r="J79" s="23"/>
@@ -3039,27 +3227,27 @@
       <c r="M81" s="11"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="158"/>
-      <c r="C82" s="159"/>
-      <c r="D82" s="160"/>
+      <c r="B82" s="185"/>
+      <c r="C82" s="186"/>
+      <c r="D82" s="187"/>
       <c r="E82" s="24"/>
       <c r="F82" s="25"/>
       <c r="G82" s="24"/>
-      <c r="H82" s="173"/>
-      <c r="I82" s="169"/>
-      <c r="J82" s="170"/>
+      <c r="H82" s="200"/>
+      <c r="I82" s="196"/>
+      <c r="J82" s="197"/>
       <c r="K82" s="26"/>
       <c r="L82" s="27"/>
       <c r="M82" s="26"/>
       <c r="N82" s="28"/>
     </row>
     <row r="83" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="172"/>
-      <c r="C83" s="172"/>
-      <c r="D83" s="172"/>
-      <c r="E83" s="172"/>
-      <c r="F83" s="172"/>
-      <c r="G83" s="172"/>
+      <c r="B83" s="199"/>
+      <c r="C83" s="199"/>
+      <c r="D83" s="199"/>
+      <c r="E83" s="199"/>
+      <c r="F83" s="199"/>
+      <c r="G83" s="199"/>
       <c r="H83" s="49"/>
       <c r="I83" s="50"/>
       <c r="J83" s="44"/>
@@ -3074,9 +3262,9 @@
       <c r="E84" s="16"/>
       <c r="F84" s="45"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="172"/>
-      <c r="I84" s="172"/>
-      <c r="J84" s="172"/>
+      <c r="H84" s="199"/>
+      <c r="I84" s="199"/>
+      <c r="J84" s="199"/>
       <c r="K84" s="16"/>
       <c r="L84" s="36"/>
       <c r="M84" s="16"/>
@@ -3131,9 +3319,9 @@
       <c r="E88" s="16"/>
       <c r="F88" s="45"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="172"/>
-      <c r="I88" s="172"/>
-      <c r="J88" s="172"/>
+      <c r="H88" s="199"/>
+      <c r="I88" s="199"/>
+      <c r="J88" s="199"/>
       <c r="K88" s="16"/>
       <c r="L88" s="36"/>
       <c r="M88" s="16"/>
@@ -3147,9 +3335,9 @@
       <c r="G89" s="16"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="172"/>
-      <c r="C90" s="172"/>
-      <c r="D90" s="172"/>
+      <c r="B90" s="199"/>
+      <c r="C90" s="199"/>
+      <c r="D90" s="199"/>
       <c r="E90" s="16"/>
       <c r="F90" s="36"/>
       <c r="G90" s="16"/>
@@ -3206,9 +3394,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26:L27"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3231,27 +3419,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="H1" s="185" t="s">
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="H1" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="N1" s="185" t="s">
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="N1" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="186"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
     </row>
     <row r="2" spans="1:18" ht="66" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -3302,29 +3490,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
       <c r="G3" s="97"/>
-      <c r="H3" s="176" t="s">
+      <c r="H3" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
       <c r="M3" s="97"/>
-      <c r="N3" s="179" t="s">
+      <c r="N3" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="180"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="180"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -3906,10 +4094,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="174" t="s">
+      <c r="B14" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="175"/>
+      <c r="C14" s="202"/>
       <c r="D14" s="77">
         <f>SUM(D4:D13)</f>
         <v>1125849.5999999999</v>
@@ -4006,13 +4194,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="96"/>
-      <c r="B16" s="176" t="s">
+      <c r="B16" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
       <c r="G16" s="73">
         <v>43715</v>
       </c>
@@ -4263,10 +4451,10 @@
         <f t="shared" si="10"/>
         <v>98415</v>
       </c>
-      <c r="N20" s="174" t="s">
+      <c r="N20" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="175"/>
+      <c r="O20" s="202"/>
       <c r="P20" s="77">
         <f>SUM(P4:P19)</f>
         <v>1447623.36</v>
@@ -4361,13 +4549,13 @@
         <v>94770</v>
       </c>
       <c r="M22" s="96"/>
-      <c r="N22" s="179" t="s">
+      <c r="N22" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="180"/>
-      <c r="P22" s="180"/>
-      <c r="Q22" s="180"/>
-      <c r="R22" s="180"/>
+      <c r="O22" s="207"/>
+      <c r="P22" s="207"/>
+      <c r="Q22" s="207"/>
+      <c r="R22" s="207"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="73">
@@ -4446,10 +4634,10 @@
         <f t="shared" si="18"/>
         <v>106496</v>
       </c>
-      <c r="H24" s="174" t="s">
+      <c r="H24" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="175"/>
+      <c r="I24" s="202"/>
       <c r="J24" s="77">
         <f>SUM(J4:J23)</f>
         <v>1974470.4000000004</v>
@@ -4546,13 +4734,13 @@
         <v>109824</v>
       </c>
       <c r="G26" s="96"/>
-      <c r="H26" s="176" t="s">
+      <c r="H26" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="177"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="177"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="204"/>
+      <c r="K26" s="204"/>
+      <c r="L26" s="204"/>
       <c r="N26" s="93">
         <v>84240</v>
       </c>
@@ -4687,10 +4875,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="174" t="s">
+      <c r="B29" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="175"/>
+      <c r="C29" s="202"/>
       <c r="D29" s="77">
         <f>SUM(D17:D28)</f>
         <v>1312507.44</v>
@@ -4787,13 +4975,13 @@
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="96"/>
-      <c r="B31" s="176" t="s">
+      <c r="B31" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="177"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="177"/>
+      <c r="C31" s="204"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
       <c r="G31" s="73">
         <v>43721</v>
       </c>
@@ -5159,10 +5347,10 @@
         <f t="shared" si="26"/>
         <v>132430</v>
       </c>
-      <c r="N37" s="181" t="s">
+      <c r="N37" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="181"/>
+      <c r="O37" s="208"/>
       <c r="P37" s="77">
         <f>SUM(P23:P36)</f>
         <v>1133003.52</v>
@@ -5236,10 +5424,10 @@
         <f t="shared" si="30"/>
         <v>65705.999999999985</v>
       </c>
-      <c r="H39" s="182" t="s">
+      <c r="H39" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="183"/>
+      <c r="I39" s="210"/>
       <c r="J39" s="77">
         <f>SUM(J27:J38)</f>
         <v>1647216</v>
@@ -5253,13 +5441,13 @@
         <v>1512490</v>
       </c>
       <c r="M39" s="96"/>
-      <c r="N39" s="179" t="s">
+      <c r="N39" s="206" t="s">
         <v>21</v>
       </c>
-      <c r="O39" s="180"/>
-      <c r="P39" s="180"/>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="180"/>
+      <c r="O39" s="207"/>
+      <c r="P39" s="207"/>
+      <c r="Q39" s="207"/>
+      <c r="R39" s="207"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="73">
@@ -5327,13 +5515,13 @@
         <v>67104</v>
       </c>
       <c r="G41" s="96"/>
-      <c r="H41" s="176" t="s">
+      <c r="H41" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="177"/>
-      <c r="J41" s="177"/>
-      <c r="K41" s="177"/>
-      <c r="L41" s="177"/>
+      <c r="I41" s="204"/>
+      <c r="J41" s="204"/>
+      <c r="K41" s="204"/>
+      <c r="L41" s="204"/>
       <c r="N41" s="93">
         <v>64080</v>
       </c>
@@ -5468,10 +5656,10 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="174" t="s">
+      <c r="B44" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="175"/>
+      <c r="C44" s="202"/>
       <c r="D44" s="100">
         <f>SUM(D32:D43)</f>
         <v>825840</v>
@@ -5568,13 +5756,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="96"/>
-      <c r="B46" s="179" t="s">
+      <c r="B46" s="206" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="180"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="180"/>
-      <c r="F46" s="180"/>
+      <c r="C46" s="207"/>
+      <c r="D46" s="207"/>
+      <c r="E46" s="207"/>
+      <c r="F46" s="207"/>
       <c r="G46" s="73">
         <v>43727</v>
       </c>
@@ -5710,10 +5898,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N48" s="181" t="s">
+      <c r="N48" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="O48" s="181"/>
+      <c r="O48" s="208"/>
       <c r="P48" s="98">
         <f>SUM(P40:P47)</f>
         <v>496705.68</v>
@@ -5808,13 +5996,13 @@
         <v>91125</v>
       </c>
       <c r="M50" s="96"/>
-      <c r="N50" s="179" t="s">
+      <c r="N50" s="206" t="s">
         <v>24</v>
       </c>
-      <c r="O50" s="180"/>
-      <c r="P50" s="180"/>
-      <c r="Q50" s="180"/>
-      <c r="R50" s="180"/>
+      <c r="O50" s="207"/>
+      <c r="P50" s="207"/>
+      <c r="Q50" s="207"/>
+      <c r="R50" s="207"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="73">
@@ -6199,10 +6387,10 @@
         <f t="shared" si="38"/>
         <v>91125</v>
       </c>
-      <c r="N57" s="184" t="s">
+      <c r="N57" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="O57" s="184"/>
+      <c r="O57" s="211"/>
       <c r="P57" s="100">
         <f>SUM(P49:P56)</f>
         <v>448449.84</v>
@@ -6261,10 +6449,10 @@
       <c r="R58" s="107"/>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="174" t="s">
+      <c r="B59" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="175"/>
+      <c r="C59" s="202"/>
       <c r="D59" s="98">
         <f>SUM(D47:D58)</f>
         <v>1010437.2</v>
@@ -6295,13 +6483,13 @@
         <v>91125</v>
       </c>
       <c r="M59" s="96"/>
-      <c r="N59" s="179" t="s">
+      <c r="N59" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="O59" s="180"/>
-      <c r="P59" s="180"/>
-      <c r="Q59" s="180"/>
-      <c r="R59" s="180"/>
+      <c r="O59" s="207"/>
+      <c r="P59" s="207"/>
+      <c r="Q59" s="207"/>
+      <c r="R59" s="207"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60" s="91"/>
@@ -6352,13 +6540,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="96"/>
-      <c r="B61" s="179" t="s">
+      <c r="B61" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="180"/>
-      <c r="D61" s="180"/>
-      <c r="E61" s="180"/>
-      <c r="F61" s="180"/>
+      <c r="C61" s="207"/>
+      <c r="D61" s="207"/>
+      <c r="E61" s="207"/>
+      <c r="F61" s="207"/>
       <c r="H61" s="74">
         <v>100800</v>
       </c>
@@ -6875,10 +7063,10 @@
         <f t="shared" si="54"/>
         <v>86184</v>
       </c>
-      <c r="H70" s="174" t="s">
+      <c r="H70" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="175"/>
+      <c r="I70" s="202"/>
       <c r="J70" s="100">
         <f>SUM(J42:J69)</f>
         <v>2733393.6</v>
@@ -7130,10 +7318,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="174" t="s">
+      <c r="B76" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="175"/>
+      <c r="C76" s="202"/>
       <c r="D76" s="100">
         <f>SUM(D62:D75)</f>
         <v>1243584</v>
@@ -7151,10 +7339,10 @@
       <c r="J76" s="79"/>
       <c r="K76" s="79"/>
       <c r="L76" s="79"/>
-      <c r="N76" s="184" t="s">
+      <c r="N76" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="O76" s="184"/>
+      <c r="O76" s="211"/>
       <c r="P76" s="100">
         <f>SUM(P60:P75)</f>
         <v>1630498.3199999998</v>
@@ -7272,19 +7460,19 @@
       <c r="R82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="178"/>
-      <c r="C83" s="178"/>
-      <c r="D83" s="178"/>
+      <c r="B83" s="205"/>
+      <c r="C83" s="205"/>
+      <c r="D83" s="205"/>
       <c r="E83" s="80"/>
       <c r="F83" s="80"/>
-      <c r="H83" s="178"/>
-      <c r="I83" s="178"/>
-      <c r="J83" s="178"/>
+      <c r="H83" s="205"/>
+      <c r="I83" s="205"/>
+      <c r="J83" s="205"/>
       <c r="K83" s="80"/>
       <c r="L83" s="80"/>
-      <c r="N83" s="178"/>
-      <c r="O83" s="178"/>
-      <c r="P83" s="178"/>
+      <c r="N83" s="205"/>
+      <c r="O83" s="205"/>
+      <c r="P83" s="205"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -7380,18 +7568,18 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="178"/>
-      <c r="C90" s="178"/>
+      <c r="B90" s="205"/>
+      <c r="C90" s="205"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="178"/>
-      <c r="I90" s="178"/>
+      <c r="H90" s="205"/>
+      <c r="I90" s="205"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="178"/>
-      <c r="O90" s="178"/>
+      <c r="N90" s="205"/>
+      <c r="O90" s="205"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
@@ -7445,9 +7633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3:R4"/>
+    <sheetView view="pageBreakPreview" topLeftCell="G1" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7472,27 +7660,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="H1" s="185" t="s">
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="H1" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="N1" s="185" t="s">
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="N1" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="186"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -7543,29 +7731,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
       <c r="G3" s="97"/>
-      <c r="H3" s="189" t="s">
+      <c r="H3" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
       <c r="M3" s="97"/>
-      <c r="N3" s="179" t="s">
+      <c r="N3" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="180"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="180"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -8031,10 +8219,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="183"/>
+      <c r="C12" s="210"/>
       <c r="D12" s="116">
         <f>SUM(D4:D11)</f>
         <v>721644.48</v>
@@ -8132,13 +8320,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="96"/>
-      <c r="B14" s="179" t="s">
+      <c r="B14" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="180"/>
-      <c r="D14" s="180"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="187"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="214"/>
       <c r="G14" s="73">
         <v>43744</v>
       </c>
@@ -8734,10 +8922,10 @@
         <f t="shared" si="9"/>
         <v>98415</v>
       </c>
-      <c r="N24" s="184" t="s">
+      <c r="N24" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="184"/>
+      <c r="O24" s="211"/>
       <c r="P24" s="117">
         <f>SUM(P4:P23)</f>
         <v>2047806</v>
@@ -8834,13 +9022,13 @@
         <v>94770</v>
       </c>
       <c r="M26" s="96"/>
-      <c r="N26" s="179" t="s">
+      <c r="N26" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="180"/>
-      <c r="P26" s="180"/>
-      <c r="Q26" s="180"/>
-      <c r="R26" s="180"/>
+      <c r="O26" s="207"/>
+      <c r="P26" s="207"/>
+      <c r="Q26" s="207"/>
+      <c r="R26" s="207"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="73">
@@ -9264,10 +9452,10 @@
         <f t="shared" si="21"/>
         <v>85824</v>
       </c>
-      <c r="H34" s="182" t="s">
+      <c r="H34" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="I34" s="183"/>
+      <c r="I34" s="210"/>
       <c r="J34" s="118">
         <f>SUM(J4:J33)</f>
         <v>2962108.8000000003</v>
@@ -9364,13 +9552,13 @@
         <v>85824</v>
       </c>
       <c r="G36" s="96"/>
-      <c r="H36" s="189" t="s">
+      <c r="H36" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="190"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="190"/>
-      <c r="L36" s="190"/>
+      <c r="I36" s="217"/>
+      <c r="J36" s="217"/>
+      <c r="K36" s="217"/>
+      <c r="L36" s="217"/>
       <c r="N36" s="93">
         <v>104400</v>
       </c>
@@ -9545,10 +9733,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N39" s="184" t="s">
+      <c r="N39" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="O39" s="184"/>
+      <c r="O39" s="211"/>
       <c r="P39" s="119">
         <f>SUM(P27:P38)</f>
         <v>1219183.2</v>
@@ -9604,10 +9792,10 @@
       <c r="R40" s="75"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="182" t="s">
+      <c r="B41" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="183"/>
+      <c r="C41" s="210"/>
       <c r="D41" s="118">
         <f>SUM(D15:D40)</f>
         <v>2335044.96</v>
@@ -9641,13 +9829,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M41" s="96"/>
-      <c r="N41" s="179" t="s">
+      <c r="N41" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="O41" s="180"/>
-      <c r="P41" s="180"/>
-      <c r="Q41" s="180"/>
-      <c r="R41" s="180"/>
+      <c r="O41" s="207"/>
+      <c r="P41" s="207"/>
+      <c r="Q41" s="207"/>
+      <c r="R41" s="207"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" s="74"/>
@@ -9695,13 +9883,13 @@
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="96"/>
-      <c r="B43" s="179" t="s">
+      <c r="B43" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="180"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="187"/>
+      <c r="C43" s="207"/>
+      <c r="D43" s="207"/>
+      <c r="E43" s="207"/>
+      <c r="F43" s="214"/>
       <c r="G43" s="73">
         <v>43757</v>
       </c>
@@ -10123,10 +10311,10 @@
         <f t="shared" si="25"/>
         <v>97379.999999999985</v>
       </c>
-      <c r="N50" s="184" t="s">
+      <c r="N50" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="O50" s="184"/>
+      <c r="O50" s="211"/>
       <c r="P50" s="128">
         <f>SUM(P42:P49)</f>
         <v>650324.37600000005</v>
@@ -10223,13 +10411,13 @@
         <v>97379.999999999985</v>
       </c>
       <c r="M52" s="96"/>
-      <c r="N52" s="179" t="s">
+      <c r="N52" s="206" t="s">
         <v>30</v>
       </c>
-      <c r="O52" s="180"/>
-      <c r="P52" s="180"/>
-      <c r="Q52" s="180"/>
-      <c r="R52" s="180"/>
+      <c r="O52" s="207"/>
+      <c r="P52" s="207"/>
+      <c r="Q52" s="207"/>
+      <c r="R52" s="207"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B53" s="93">
@@ -10824,10 +11012,10 @@
         <f t="shared" si="33"/>
         <v>69900</v>
       </c>
-      <c r="H63" s="182" t="s">
+      <c r="H63" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="183"/>
+      <c r="I63" s="210"/>
       <c r="J63" s="131">
         <f>SUM(J37:J62)</f>
         <v>2734020</v>
@@ -10923,13 +11111,14 @@
         <f t="shared" si="33"/>
         <v>71298.000000000015</v>
       </c>
-      <c r="H65" s="189" t="s">
+      <c r="G65" s="96"/>
+      <c r="H65" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="190"/>
-      <c r="J65" s="190"/>
-      <c r="K65" s="190"/>
-      <c r="L65" s="190"/>
+      <c r="I65" s="217"/>
+      <c r="J65" s="217"/>
+      <c r="K65" s="217"/>
+      <c r="L65" s="217"/>
       <c r="M65" s="73">
         <v>43765</v>
       </c>
@@ -11045,10 +11234,10 @@
         <f t="shared" ref="L67:L71" si="41">H67*K67/100</f>
         <v>94770</v>
       </c>
-      <c r="N67" s="184" t="s">
+      <c r="N67" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="O67" s="184"/>
+      <c r="O67" s="211"/>
       <c r="P67" s="132">
         <f>SUM(P53:P66)</f>
         <v>1031915.1599999998</v>
@@ -11063,10 +11252,10 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="182" t="s">
+      <c r="B68" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="183"/>
+      <c r="C68" s="210"/>
       <c r="D68" s="131">
         <f>SUM(D44:D67)</f>
         <v>1724961.6</v>
@@ -11128,22 +11317,23 @@
         <f t="shared" si="41"/>
         <v>98415</v>
       </c>
-      <c r="N69" s="189" t="s">
+      <c r="M69" s="96"/>
+      <c r="N69" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="O69" s="190"/>
-      <c r="P69" s="190"/>
-      <c r="Q69" s="190"/>
-      <c r="R69" s="190"/>
+      <c r="O69" s="217"/>
+      <c r="P69" s="217"/>
+      <c r="Q69" s="217"/>
+      <c r="R69" s="217"/>
     </row>
     <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="179" t="s">
+      <c r="B70" s="206" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="180"/>
-      <c r="D70" s="180"/>
-      <c r="E70" s="180"/>
-      <c r="F70" s="187"/>
+      <c r="C70" s="207"/>
+      <c r="D70" s="207"/>
+      <c r="E70" s="207"/>
+      <c r="F70" s="214"/>
       <c r="G70" s="73">
         <v>43769</v>
       </c>
@@ -11259,10 +11449,10 @@
         <f t="shared" ref="F72:F74" si="49">B72*E72/100</f>
         <v>69090</v>
       </c>
-      <c r="H72" s="182" t="s">
+      <c r="H72" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="I72" s="183"/>
+      <c r="I72" s="210"/>
       <c r="J72" s="133">
         <f>SUM(J66:J71)</f>
         <v>587764.79999999993</v>
@@ -11385,10 +11575,10 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="182" t="s">
+      <c r="B75" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="183"/>
+      <c r="C75" s="210"/>
       <c r="D75" s="133">
         <f>SUM(D71:D74)</f>
         <v>275256</v>
@@ -11425,8 +11615,8 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="188"/>
-      <c r="C76" s="188"/>
+      <c r="B76" s="215"/>
+      <c r="C76" s="215"/>
       <c r="D76" s="79"/>
       <c r="E76" s="137"/>
       <c r="F76" s="79"/>
@@ -11496,10 +11686,10 @@
       <c r="J78" s="79"/>
       <c r="K78" s="79"/>
       <c r="L78" s="79"/>
-      <c r="N78" s="182" t="s">
+      <c r="N78" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="O78" s="183"/>
+      <c r="O78" s="210"/>
       <c r="P78" s="133">
         <f>SUM(P70:P77)</f>
         <v>597582</v>
@@ -11583,19 +11773,19 @@
       <c r="R82" s="111"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="178"/>
-      <c r="C83" s="178"/>
-      <c r="D83" s="178"/>
+      <c r="B83" s="205"/>
+      <c r="C83" s="205"/>
+      <c r="D83" s="205"/>
       <c r="E83" s="115"/>
       <c r="F83" s="115"/>
-      <c r="H83" s="178"/>
-      <c r="I83" s="178"/>
-      <c r="J83" s="178"/>
+      <c r="H83" s="205"/>
+      <c r="I83" s="205"/>
+      <c r="J83" s="205"/>
       <c r="K83" s="115"/>
       <c r="L83" s="115"/>
-      <c r="N83" s="178"/>
-      <c r="O83" s="178"/>
-      <c r="P83" s="178"/>
+      <c r="N83" s="205"/>
+      <c r="O83" s="205"/>
+      <c r="P83" s="205"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
@@ -11691,18 +11881,18 @@
       <c r="P89" s="79"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="178"/>
-      <c r="C90" s="178"/>
+      <c r="B90" s="205"/>
+      <c r="C90" s="205"/>
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="178"/>
-      <c r="I90" s="178"/>
+      <c r="H90" s="205"/>
+      <c r="I90" s="205"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="79"/>
-      <c r="N90" s="178"/>
-      <c r="O90" s="178"/>
+      <c r="N90" s="205"/>
+      <c r="O90" s="205"/>
       <c r="P90" s="79"/>
     </row>
   </sheetData>
@@ -11753,8 +11943,8 @@
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="G1" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N41" sqref="N41:R41"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N34" sqref="N34:R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11779,27 +11969,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="H1" s="185" t="s">
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="H1" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="N1" s="185" t="s">
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="N1" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="186"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -11850,29 +12040,29 @@
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="97"/>
-      <c r="H3" s="176" t="s">
+      <c r="H3" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
       <c r="M3" s="97"/>
-      <c r="N3" s="192" t="s">
+      <c r="N3" s="219" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="191"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="191"/>
+      <c r="O3" s="218"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="218"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
@@ -12378,10 +12568,10 @@
         <f t="shared" si="9"/>
         <v>94770</v>
       </c>
-      <c r="N12" s="182" t="s">
+      <c r="N12" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="O12" s="183"/>
+      <c r="O12" s="210"/>
       <c r="P12" s="89">
         <f>SUM(P4:P11)</f>
         <v>604753.19999999995</v>
@@ -12478,13 +12668,13 @@
         <v>98415</v>
       </c>
       <c r="M14" s="96"/>
-      <c r="N14" s="192" t="s">
+      <c r="N14" s="219" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="191"/>
-      <c r="P14" s="191"/>
-      <c r="Q14" s="191"/>
-      <c r="R14" s="191"/>
+      <c r="O14" s="218"/>
+      <c r="P14" s="218"/>
+      <c r="Q14" s="218"/>
+      <c r="R14" s="218"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="150">
@@ -12678,10 +12868,10 @@
         <f t="shared" si="7"/>
         <v>97744</v>
       </c>
-      <c r="H18" s="182" t="s">
+      <c r="H18" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="183"/>
+      <c r="I18" s="210"/>
       <c r="J18" s="89">
         <f>SUM(J4:J17)</f>
         <v>1385395.2000000002</v>
@@ -12778,13 +12968,13 @@
         <v>97744</v>
       </c>
       <c r="G20" s="96"/>
-      <c r="H20" s="176" t="s">
+      <c r="H20" s="203" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="177"/>
-      <c r="J20" s="177"/>
-      <c r="K20" s="177"/>
-      <c r="L20" s="177"/>
+      <c r="I20" s="204"/>
+      <c r="J20" s="204"/>
+      <c r="K20" s="204"/>
+      <c r="L20" s="204"/>
       <c r="N20" s="150">
         <v>84960</v>
       </c>
@@ -12956,10 +13146,10 @@
         <f t="shared" si="19"/>
         <v>96278</v>
       </c>
-      <c r="N23" s="182" t="s">
+      <c r="N23" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="O23" s="183"/>
+      <c r="O23" s="210"/>
       <c r="P23" s="89">
         <f>SUM(P15:P22)</f>
         <v>658609.91999999993</v>
@@ -12974,10 +13164,10 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="182" t="s">
+      <c r="B24" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="183"/>
+      <c r="C24" s="210"/>
       <c r="D24" s="135">
         <f>SUM(D4:D23)</f>
         <v>2025464.3999999994</v>
@@ -13040,23 +13230,23 @@
         <v>96278</v>
       </c>
       <c r="M25" s="96"/>
-      <c r="N25" s="192" t="s">
+      <c r="N25" s="219" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="191"/>
-      <c r="P25" s="191"/>
-      <c r="Q25" s="191"/>
-      <c r="R25" s="191"/>
+      <c r="O25" s="218"/>
+      <c r="P25" s="218"/>
+      <c r="Q25" s="218"/>
+      <c r="R25" s="218"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="96"/>
-      <c r="B26" s="191" t="s">
+      <c r="B26" s="218" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="191"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="191"/>
-      <c r="F26" s="191"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
       <c r="H26" s="74">
         <v>104400</v>
       </c>
@@ -13346,10 +13536,10 @@
         <f t="shared" si="27"/>
         <v>86592</v>
       </c>
-      <c r="H31" s="182" t="s">
+      <c r="H31" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="183"/>
+      <c r="I31" s="210"/>
       <c r="J31" s="89">
         <f>SUM(J21:J30)</f>
         <v>1005163.2000000001</v>
@@ -13403,10 +13593,10 @@
       <c r="J32" s="75"/>
       <c r="K32" s="148"/>
       <c r="L32" s="75"/>
-      <c r="N32" s="182" t="s">
+      <c r="N32" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="O32" s="183"/>
+      <c r="O32" s="210"/>
       <c r="P32" s="89">
         <f>SUM(P26:P31)</f>
         <v>453211.74</v>
@@ -13421,10 +13611,10 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="183"/>
+      <c r="C33" s="210"/>
       <c r="D33" s="151">
         <f>SUM(D27:D32)</f>
         <v>511220.016</v>
@@ -13438,13 +13628,13 @@
         <v>485760</v>
       </c>
       <c r="G33" s="96"/>
-      <c r="H33" s="176" t="s">
+      <c r="H33" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="177"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="177"/>
+      <c r="I33" s="204"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="204"/>
+      <c r="L33" s="204"/>
       <c r="N33" s="93"/>
       <c r="O33" s="10"/>
       <c r="P33" s="75"/>
@@ -13478,23 +13668,23 @@
         <v>48790</v>
       </c>
       <c r="M34" s="96"/>
-      <c r="N34" s="192" t="s">
+      <c r="N34" s="219" t="s">
         <v>36</v>
       </c>
-      <c r="O34" s="191"/>
-      <c r="P34" s="191"/>
-      <c r="Q34" s="191"/>
-      <c r="R34" s="191"/>
+      <c r="O34" s="218"/>
+      <c r="P34" s="218"/>
+      <c r="Q34" s="218"/>
+      <c r="R34" s="218"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="96"/>
-      <c r="B35" s="191" t="s">
+      <c r="B35" s="218" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="191"/>
-      <c r="D35" s="191"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="191"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="218"/>
       <c r="H35" s="93">
         <v>144000</v>
       </c>
@@ -13857,10 +14047,10 @@
         <f t="shared" si="31"/>
         <v>132430</v>
       </c>
-      <c r="N41" s="182" t="s">
+      <c r="N41" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="O41" s="183"/>
+      <c r="O41" s="210"/>
       <c r="P41" s="89">
         <f>SUM(P35:P40)</f>
         <v>519471</v>
@@ -13957,19 +14147,19 @@
         <v>132430</v>
       </c>
       <c r="M43" s="96"/>
-      <c r="N43" s="191" t="s">
+      <c r="N43" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="O43" s="191"/>
-      <c r="P43" s="191"/>
-      <c r="Q43" s="191"/>
-      <c r="R43" s="191"/>
+      <c r="O43" s="218"/>
+      <c r="P43" s="218"/>
+      <c r="Q43" s="218"/>
+      <c r="R43" s="218"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="182" t="s">
+      <c r="B44" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="183"/>
+      <c r="C44" s="210"/>
       <c r="D44" s="151">
         <f>SUM(D36:D43)</f>
         <v>679276.79999999993</v>
@@ -14066,13 +14256,13 @@
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="96"/>
-      <c r="B46" s="191" t="s">
+      <c r="B46" s="218" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="191"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="191"/>
-      <c r="F46" s="191"/>
+      <c r="C46" s="218"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="218"/>
+      <c r="F46" s="218"/>
       <c r="G46" s="73">
         <v>43788</v>
       </c>
@@ -14188,10 +14378,10 @@
         <f t="shared" ref="F48:F60" si="45">B48*E48/100</f>
         <v>79920</v>
       </c>
-      <c r="H48" s="182" t="s">
+      <c r="H48" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="I48" s="183"/>
+      <c r="I48" s="210"/>
       <c r="J48" s="89">
         <f>SUM(J34:J47)</f>
         <v>1950131.5199999998</v>
@@ -14288,13 +14478,13 @@
         <v>79920</v>
       </c>
       <c r="G50" s="96"/>
-      <c r="H50" s="176" t="s">
+      <c r="H50" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="177"/>
-      <c r="J50" s="177"/>
-      <c r="K50" s="177"/>
-      <c r="L50" s="177"/>
+      <c r="I50" s="204"/>
+      <c r="J50" s="204"/>
+      <c r="K50" s="204"/>
+      <c r="L50" s="204"/>
       <c r="M50" s="73">
         <v>43787</v>
       </c>
@@ -14410,10 +14600,10 @@
         <f t="shared" ref="L52:L72" si="49">H52*K52/100</f>
         <v>94770</v>
       </c>
-      <c r="N52" s="182" t="s">
+      <c r="N52" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="O52" s="183"/>
+      <c r="O52" s="210"/>
       <c r="P52" s="89">
         <f>SUM(P44:P51)</f>
         <v>577432.80000000005</v>
@@ -14510,13 +14700,13 @@
         <v>98415</v>
       </c>
       <c r="M54" s="96"/>
-      <c r="N54" s="191" t="s">
+      <c r="N54" s="218" t="s">
         <v>41</v>
       </c>
-      <c r="O54" s="191"/>
-      <c r="P54" s="191"/>
-      <c r="Q54" s="191"/>
-      <c r="R54" s="191"/>
+      <c r="O54" s="218"/>
+      <c r="P54" s="218"/>
+      <c r="Q54" s="218"/>
+      <c r="R54" s="218"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="73">
@@ -14864,10 +15054,10 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="182" t="s">
+      <c r="B61" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="183"/>
+      <c r="C61" s="210"/>
       <c r="D61" s="153">
         <f>SUM(D47:D60)</f>
         <v>1150472.1600000001</v>
@@ -14900,10 +15090,10 @@
         <f t="shared" si="49"/>
         <v>94770</v>
       </c>
-      <c r="N61" s="182" t="s">
+      <c r="N61" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="O61" s="183"/>
+      <c r="O61" s="210"/>
       <c r="P61" s="89">
         <f>SUM(P55:P60)</f>
         <v>432806.39999999997</v>
@@ -14947,13 +15137,13 @@
       <c r="R62" s="75"/>
     </row>
     <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="179" t="s">
+      <c r="B63" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="180"/>
-      <c r="D63" s="180"/>
-      <c r="E63" s="180"/>
-      <c r="F63" s="180"/>
+      <c r="C63" s="207"/>
+      <c r="D63" s="207"/>
+      <c r="E63" s="207"/>
+      <c r="F63" s="207"/>
       <c r="G63" s="73">
         <v>43795</v>
       </c>
@@ -14975,13 +15165,13 @@
         <v>98415</v>
       </c>
       <c r="M63" s="96"/>
-      <c r="N63" s="191" t="s">
+      <c r="N63" s="218" t="s">
         <v>42</v>
       </c>
-      <c r="O63" s="191"/>
-      <c r="P63" s="191"/>
-      <c r="Q63" s="191"/>
-      <c r="R63" s="191"/>
+      <c r="O63" s="218"/>
+      <c r="P63" s="218"/>
+      <c r="Q63" s="218"/>
+      <c r="R63" s="218"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="73">
@@ -15481,10 +15671,10 @@
         <f t="shared" si="49"/>
         <v>94770</v>
       </c>
-      <c r="N72" s="182" t="s">
+      <c r="N72" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="O72" s="183"/>
+      <c r="O72" s="210"/>
       <c r="P72" s="89">
         <f>SUM(P64:P71)</f>
         <v>521755.19999999995</v>
@@ -15516,10 +15706,10 @@
         <f t="shared" si="59"/>
         <v>98686</v>
       </c>
-      <c r="H73" s="182" t="s">
+      <c r="H73" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="I73" s="183"/>
+      <c r="I73" s="210"/>
       <c r="J73" s="89">
         <f>SUM(J51:J72)</f>
         <v>2166292.7999999998</v>
@@ -15565,13 +15755,13 @@
       <c r="K74" s="136"/>
       <c r="L74" s="136"/>
       <c r="M74" s="96"/>
-      <c r="N74" s="191" t="s">
+      <c r="N74" s="218" t="s">
         <v>39</v>
       </c>
-      <c r="O74" s="191"/>
-      <c r="P74" s="191"/>
-      <c r="Q74" s="191"/>
-      <c r="R74" s="191"/>
+      <c r="O74" s="218"/>
+      <c r="P74" s="218"/>
+      <c r="Q74" s="218"/>
+      <c r="R74" s="218"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B75" s="93">
@@ -15618,10 +15808,10 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="182" t="s">
+      <c r="B76" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="183"/>
+      <c r="C76" s="210"/>
       <c r="D76" s="154">
         <f>SUM(D64:D75)</f>
         <v>1222524</v>
@@ -15842,14 +16032,14 @@
       </c>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="178"/>
-      <c r="C83" s="178"/>
-      <c r="D83" s="178"/>
+      <c r="B83" s="205"/>
+      <c r="C83" s="205"/>
+      <c r="D83" s="205"/>
       <c r="E83" s="134"/>
       <c r="F83" s="134"/>
-      <c r="H83" s="178"/>
-      <c r="I83" s="178"/>
-      <c r="J83" s="178"/>
+      <c r="H83" s="205"/>
+      <c r="I83" s="205"/>
+      <c r="J83" s="205"/>
       <c r="K83" s="134"/>
       <c r="L83" s="134"/>
       <c r="M83" s="73">
@@ -15913,10 +16103,10 @@
       <c r="J85" s="136"/>
       <c r="K85" s="136"/>
       <c r="L85" s="136"/>
-      <c r="N85" s="182" t="s">
+      <c r="N85" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="O85" s="183"/>
+      <c r="O85" s="210"/>
       <c r="P85" s="89">
         <f>SUM(P75:P84)</f>
         <v>839548.79999999993</v>
@@ -15994,18 +16184,18 @@
       <c r="P89" s="136"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="178"/>
-      <c r="C90" s="178"/>
+      <c r="B90" s="205"/>
+      <c r="C90" s="205"/>
       <c r="D90" s="136"/>
       <c r="E90" s="136"/>
       <c r="F90" s="136"/>
-      <c r="H90" s="178"/>
-      <c r="I90" s="178"/>
+      <c r="H90" s="205"/>
+      <c r="I90" s="205"/>
       <c r="J90" s="136"/>
       <c r="K90" s="136"/>
       <c r="L90" s="136"/>
-      <c r="N90" s="178"/>
-      <c r="O90" s="178"/>
+      <c r="N90" s="205"/>
+      <c r="O90" s="205"/>
       <c r="P90" s="136"/>
     </row>
   </sheetData>
@@ -16017,6 +16207,7 @@
     <mergeCell ref="B46:F46"/>
     <mergeCell ref="N43:R43"/>
     <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H50:L50"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="N14:R14"/>
     <mergeCell ref="N23:O23"/>
@@ -16044,7 +16235,6 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="H50:L50"/>
     <mergeCell ref="B63:F63"/>
     <mergeCell ref="H73:I73"/>
     <mergeCell ref="N74:R74"/>
@@ -16067,8 +16257,8 @@
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <pane ySplit="2" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16093,27 +16283,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="H1" s="185" t="s">
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="H1" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="N1" s="185" t="s">
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="N1" s="212" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="186"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
     </row>
     <row r="2" spans="1:18" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
@@ -16163,76 +16353,76 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="179" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="189" t="s">
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="201"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="220"/>
       <c r="M3" s="97"/>
-      <c r="N3" s="191" t="s">
+      <c r="N3" s="218" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="191"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="191"/>
+      <c r="O3" s="218"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="218"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
         <v>43800</v>
       </c>
-      <c r="B4" s="93">
+      <c r="B4" s="152">
         <v>104400</v>
       </c>
-      <c r="C4" s="54">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="D4" s="75">
+      <c r="C4" s="53">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="D4" s="60">
         <f t="shared" ref="D4" si="0">B4*C4</f>
-        <v>98240.4</v>
-      </c>
-      <c r="E4" s="87">
-        <v>72.138888888888886</v>
-      </c>
-      <c r="F4" s="75">
+        <v>100954.8</v>
+      </c>
+      <c r="E4" s="130">
+        <v>92.039272030651347</v>
+      </c>
+      <c r="F4" s="60">
         <f t="shared" ref="F4" si="1">B4*E4/100</f>
-        <v>75313</v>
+        <v>96089</v>
       </c>
       <c r="G4" s="73">
         <v>43800</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="58">
         <v>100800</v>
       </c>
-      <c r="I4" s="147">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="J4" s="75">
-        <f t="shared" ref="J4:J17" si="2">H4*I4</f>
-        <v>99388.800000000003</v>
-      </c>
-      <c r="K4" s="148">
+      <c r="I4" s="129">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="J4" s="60">
+        <f t="shared" ref="J4" si="2">H4*I4</f>
+        <v>98179.199999999997</v>
+      </c>
+      <c r="K4" s="130">
         <v>94.017857142857139</v>
       </c>
-      <c r="L4" s="75">
-        <f t="shared" ref="L4:L17" si="3">H4*K4/100</f>
+      <c r="L4" s="60">
+        <f t="shared" ref="L4" si="3">H4*K4/100</f>
         <v>94770</v>
       </c>
       <c r="M4" s="73">
         <v>43800</v>
       </c>
-      <c r="N4" s="202">
+      <c r="N4" s="157">
         <v>86400</v>
       </c>
       <c r="O4" s="129">
@@ -16251,16 +16441,40 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="150"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="75"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="75"/>
+      <c r="B5" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C5" s="54">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D5" s="75">
+        <f t="shared" ref="D5:D21" si="6">B5*C5</f>
+        <v>101476.8</v>
+      </c>
+      <c r="E5" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="F5" s="75">
+        <f t="shared" ref="F5:F21" si="7">B5*E5/100</f>
+        <v>98686</v>
+      </c>
+      <c r="H5" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J5" s="75">
+        <f t="shared" ref="J5:J39" si="8">H5*I5</f>
+        <v>98985.599999999991</v>
+      </c>
+      <c r="K5" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L5" s="75">
+        <f t="shared" ref="L5:L39" si="9">H5*K5/100</f>
+        <v>98415</v>
+      </c>
       <c r="N5" s="150">
         <v>86400</v>
       </c>
@@ -16268,14 +16482,14 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="P5" s="75">
-        <f t="shared" ref="P5:P7" si="6">N5*O5</f>
+        <f t="shared" ref="P5:P7" si="10">N5*O5</f>
         <v>85017.600000000006</v>
       </c>
       <c r="Q5" s="87">
         <v>97.125</v>
       </c>
       <c r="R5" s="75">
-        <f t="shared" ref="R5:R7" si="7">N5*Q5/100</f>
+        <f t="shared" ref="R5:R7" si="11">N5*Q5/100</f>
         <v>83916</v>
       </c>
     </row>
@@ -16283,19 +16497,43 @@
       <c r="A6" s="73">
         <v>43801</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="75"/>
+      <c r="B6" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C6" s="54">
+        <v>0.98</v>
+      </c>
+      <c r="D6" s="75">
+        <f t="shared" si="6"/>
+        <v>102312</v>
+      </c>
+      <c r="E6" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="F6" s="75">
+        <f t="shared" si="7"/>
+        <v>98686</v>
+      </c>
       <c r="G6" s="73">
         <v>43801</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="75"/>
+      <c r="H6" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="J6" s="75">
+        <f t="shared" si="8"/>
+        <v>99792</v>
+      </c>
+      <c r="K6" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L6" s="75">
+        <f t="shared" si="9"/>
+        <v>98415</v>
+      </c>
       <c r="M6" s="73">
         <v>43801</v>
       </c>
@@ -16306,28 +16544,52 @@
         <v>0.998</v>
       </c>
       <c r="P6" s="75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>86227.199999999997</v>
       </c>
       <c r="Q6" s="87">
         <v>99.4375</v>
       </c>
       <c r="R6" s="75">
+        <f t="shared" si="11"/>
+        <v>85914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D7" s="75">
+        <f t="shared" si="6"/>
+        <v>102416.4</v>
+      </c>
+      <c r="E7" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="F7" s="75">
         <f t="shared" si="7"/>
-        <v>85914</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="150"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="75"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="75"/>
+        <v>98686</v>
+      </c>
+      <c r="H7" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="J7" s="75">
+        <f t="shared" si="8"/>
+        <v>97776</v>
+      </c>
+      <c r="K7" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L7" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="N7" s="150">
         <v>86400</v>
       </c>
@@ -16335,14 +16597,14 @@
         <v>0.999</v>
       </c>
       <c r="P7" s="75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>86313.600000000006</v>
       </c>
       <c r="Q7" s="87">
         <v>99.4375</v>
       </c>
       <c r="R7" s="75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>85914</v>
       </c>
     </row>
@@ -16350,23 +16612,47 @@
       <c r="A8" s="73">
         <v>43802</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="75"/>
+      <c r="B8" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C8" s="54">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D8" s="75">
+        <f t="shared" si="6"/>
+        <v>102625.2</v>
+      </c>
+      <c r="E8" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="F8" s="75">
+        <f t="shared" si="7"/>
+        <v>98686</v>
+      </c>
       <c r="G8" s="73">
         <v>43802</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="75"/>
-      <c r="N8" s="182" t="s">
+      <c r="H8" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J8" s="75">
+        <f t="shared" si="8"/>
+        <v>99086.399999999994</v>
+      </c>
+      <c r="K8" s="87">
+        <v>90.401785714285708</v>
+      </c>
+      <c r="L8" s="75">
+        <f t="shared" si="9"/>
+        <v>91125</v>
+      </c>
+      <c r="N8" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="183"/>
+      <c r="O8" s="210"/>
       <c r="P8" s="89">
         <f>SUM(P4:P7)</f>
         <v>342403.20000000007</v>
@@ -16381,16 +16667,40 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="150"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="75"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="75"/>
+      <c r="B9" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C9" s="54">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D9" s="75">
+        <f t="shared" si="6"/>
+        <v>102625.2</v>
+      </c>
+      <c r="E9" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="F9" s="75">
+        <f t="shared" si="7"/>
+        <v>98686</v>
+      </c>
+      <c r="H9" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="J9" s="75">
+        <f t="shared" si="8"/>
+        <v>97776</v>
+      </c>
+      <c r="K9" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L9" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="N9" s="93"/>
       <c r="O9" s="147"/>
       <c r="P9" s="75"/>
@@ -16401,230 +16711,607 @@
       <c r="A10" s="73">
         <v>43803</v>
       </c>
-      <c r="B10" s="150"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="75"/>
+      <c r="B10" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C10" s="54">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D10" s="75">
+        <f t="shared" si="6"/>
+        <v>102938.4</v>
+      </c>
+      <c r="E10" s="87">
+        <v>97.014367816091948</v>
+      </c>
+      <c r="F10" s="75">
+        <f t="shared" si="7"/>
+        <v>101283</v>
+      </c>
       <c r="G10" s="73">
         <v>43803</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="75"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="148"/>
-      <c r="R10" s="75"/>
+      <c r="H10" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J10" s="75">
+        <f t="shared" si="8"/>
+        <v>98884.800000000003</v>
+      </c>
+      <c r="K10" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L10" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="M10" s="96"/>
+      <c r="N10" s="206" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="207"/>
+      <c r="P10" s="207"/>
+      <c r="Q10" s="207"/>
+      <c r="R10" s="207"/>
     </row>
     <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="111"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="75"/>
+      <c r="B11" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C11" s="54">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D11" s="75">
+        <f t="shared" si="6"/>
+        <v>101894.39999999999</v>
+      </c>
+      <c r="E11" s="87">
+        <v>97.014367816091948</v>
+      </c>
+      <c r="F11" s="75">
+        <f t="shared" si="7"/>
+        <v>101283</v>
+      </c>
       <c r="G11" s="76"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="75"/>
+      <c r="H11" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J11" s="75">
+        <f t="shared" si="8"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="K11" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L11" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M11" s="73">
         <v>43802</v>
       </c>
-      <c r="N11" s="93"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="75"/>
+      <c r="N11" s="93">
+        <v>65520</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="P11" s="75">
+        <f t="shared" ref="P11" si="12">N11*O11</f>
+        <v>60278.400000000001</v>
+      </c>
+      <c r="Q11" s="87">
+        <v>67.857142857142861</v>
+      </c>
+      <c r="R11" s="75">
+        <f t="shared" ref="R11" si="13">N11*Q11/100</f>
+        <v>44460</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="149">
         <v>43804</v>
       </c>
-      <c r="B12" s="150"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="75"/>
+      <c r="B12" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C12" s="54">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D12" s="75">
+        <f t="shared" si="6"/>
+        <v>101998.8</v>
+      </c>
+      <c r="E12" s="87">
+        <v>94.526819923371647</v>
+      </c>
+      <c r="F12" s="75">
+        <f t="shared" si="7"/>
+        <v>98686</v>
+      </c>
       <c r="G12" s="78">
         <v>43804</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="75"/>
-      <c r="N12" s="193"/>
-      <c r="O12" s="194"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="141"/>
-      <c r="R12" s="89"/>
+      <c r="H12" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J12" s="75">
+        <f t="shared" si="8"/>
+        <v>98985.599999999991</v>
+      </c>
+      <c r="K12" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L12" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N12" s="93">
+        <v>65520</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="P12" s="75">
+        <f t="shared" ref="P12:P18" si="14">N12*O12</f>
+        <v>61850.879999999997</v>
+      </c>
+      <c r="Q12" s="87">
+        <v>88.736263736263737</v>
+      </c>
+      <c r="R12" s="75">
+        <f t="shared" ref="R12:R18" si="15">N12*Q12/100</f>
+        <v>58140</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="150"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="75"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="75"/>
+      <c r="B13" s="93">
+        <v>104400</v>
+      </c>
+      <c r="C13" s="54">
+        <v>0.98</v>
+      </c>
+      <c r="D13" s="75">
+        <f t="shared" si="6"/>
+        <v>102312</v>
+      </c>
+      <c r="E13" s="87">
+        <v>92.039272030651347</v>
+      </c>
+      <c r="F13" s="75">
+        <f t="shared" si="7"/>
+        <v>96089</v>
+      </c>
+      <c r="H13" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J13" s="75">
+        <f t="shared" si="8"/>
+        <v>99388.800000000003</v>
+      </c>
+      <c r="K13" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L13" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M13" s="73">
         <v>43803</v>
       </c>
-      <c r="N13" s="93"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="75"/>
+      <c r="N13" s="93">
+        <v>65520</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="P13" s="75">
+        <f t="shared" si="14"/>
+        <v>63947.519999999997</v>
+      </c>
+      <c r="Q13" s="87">
+        <v>91.34615384615384</v>
+      </c>
+      <c r="R13" s="75">
+        <f t="shared" si="15"/>
+        <v>59850</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="73">
         <v>43805</v>
       </c>
-      <c r="B14" s="150"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="75"/>
+      <c r="B14" s="93">
+        <v>105840</v>
+      </c>
+      <c r="C14" s="54">
+        <v>0.97</v>
+      </c>
+      <c r="D14" s="75">
+        <f t="shared" si="6"/>
+        <v>102664.8</v>
+      </c>
+      <c r="E14" s="87">
+        <v>93.240740740740748</v>
+      </c>
+      <c r="F14" s="75">
+        <f t="shared" si="7"/>
+        <v>98686</v>
+      </c>
       <c r="G14" s="73">
         <v>43805</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="75"/>
-      <c r="N14" s="198"/>
-      <c r="O14" s="195"/>
-      <c r="P14" s="195"/>
-      <c r="Q14" s="195"/>
-      <c r="R14" s="195"/>
+      <c r="H14" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J14" s="75">
+        <f t="shared" si="8"/>
+        <v>98884.800000000003</v>
+      </c>
+      <c r="K14" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L14" s="75">
+        <f t="shared" si="9"/>
+        <v>98415</v>
+      </c>
+      <c r="N14" s="93">
+        <v>65520</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="P14" s="75">
+        <f t="shared" si="14"/>
+        <v>62702.64</v>
+      </c>
+      <c r="Q14" s="87">
+        <v>88.736263736263737</v>
+      </c>
+      <c r="R14" s="75">
+        <f t="shared" si="15"/>
+        <v>58140</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="150"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="75"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="75"/>
+      <c r="B15" s="93">
+        <v>107280</v>
+      </c>
+      <c r="C15" s="54">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D15" s="75">
+        <f t="shared" si="6"/>
+        <v>105241.68</v>
+      </c>
+      <c r="E15" s="87">
+        <v>94.409955257270695</v>
+      </c>
+      <c r="F15" s="75">
+        <f t="shared" si="7"/>
+        <v>101283</v>
+      </c>
+      <c r="H15" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="J15" s="75">
+        <f t="shared" si="8"/>
+        <v>99489.600000000006</v>
+      </c>
+      <c r="K15" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L15" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M15" s="78">
         <v>43804</v>
       </c>
-      <c r="N15" s="150"/>
-      <c r="O15" s="147"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="75"/>
+      <c r="N15" s="93">
+        <v>65520</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="P15" s="75">
+        <f t="shared" si="14"/>
+        <v>63816.479999999996</v>
+      </c>
+      <c r="Q15" s="87">
+        <v>91.34615384615384</v>
+      </c>
+      <c r="R15" s="75">
+        <f t="shared" si="15"/>
+        <v>59850</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="73">
         <v>43806</v>
       </c>
-      <c r="B16" s="150"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="75"/>
+      <c r="B16" s="93">
+        <v>107280</v>
+      </c>
+      <c r="C16" s="54">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="D16" s="75">
+        <f t="shared" si="6"/>
+        <v>103954.31999999999</v>
+      </c>
+      <c r="E16" s="87">
+        <v>94.409955257270695</v>
+      </c>
+      <c r="F16" s="75">
+        <f t="shared" si="7"/>
+        <v>101283</v>
+      </c>
       <c r="G16" s="73">
         <v>43806</v>
       </c>
-      <c r="H16" s="74"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="75"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="75"/>
+      <c r="H16" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="J16" s="75">
+        <f t="shared" si="8"/>
+        <v>98179.199999999997</v>
+      </c>
+      <c r="K16" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L16" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N16" s="93">
+        <v>65520</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="P16" s="75">
+        <f t="shared" si="14"/>
+        <v>64799.28</v>
+      </c>
+      <c r="Q16" s="87">
+        <v>93.956043956043956</v>
+      </c>
+      <c r="R16" s="75">
+        <f t="shared" si="15"/>
+        <v>61560</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="150"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="75"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="148"/>
-      <c r="L17" s="75"/>
+      <c r="B17" s="93">
+        <v>107280</v>
+      </c>
+      <c r="C17" s="54">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D17" s="75">
+        <f t="shared" si="6"/>
+        <v>105027.12</v>
+      </c>
+      <c r="E17" s="87">
+        <v>94.409955257270695</v>
+      </c>
+      <c r="F17" s="75">
+        <f t="shared" si="7"/>
+        <v>101283</v>
+      </c>
+      <c r="H17" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J17" s="75">
+        <f t="shared" si="8"/>
+        <v>98985.599999999991</v>
+      </c>
+      <c r="K17" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L17" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M17" s="73">
         <v>43805</v>
       </c>
-      <c r="N17" s="150"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="75"/>
+      <c r="N17" s="93">
+        <v>65520</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="P17" s="75">
+        <f t="shared" si="14"/>
+        <v>63947.519999999997</v>
+      </c>
+      <c r="Q17" s="87">
+        <v>93.956043956043956</v>
+      </c>
+      <c r="R17" s="75">
+        <f t="shared" si="15"/>
+        <v>61560</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="73">
         <v>43807</v>
       </c>
-      <c r="B18" s="150"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="75"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="89"/>
-      <c r="N18" s="150"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="75"/>
+      <c r="B18" s="93">
+        <v>107280</v>
+      </c>
+      <c r="C18" s="54">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D18" s="75">
+        <f t="shared" si="6"/>
+        <v>104812.56</v>
+      </c>
+      <c r="E18" s="87">
+        <v>96.830723340790456</v>
+      </c>
+      <c r="F18" s="75">
+        <f t="shared" si="7"/>
+        <v>103880</v>
+      </c>
+      <c r="G18" s="73">
+        <v>43807</v>
+      </c>
+      <c r="H18" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J18" s="75">
+        <f t="shared" si="8"/>
+        <v>97574.399999999994</v>
+      </c>
+      <c r="K18" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L18" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N18" s="93">
+        <v>65520</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="P18" s="75">
+        <f t="shared" si="14"/>
+        <v>63750.96</v>
+      </c>
+      <c r="Q18" s="87">
+        <v>91.34615384615384</v>
+      </c>
+      <c r="R18" s="75">
+        <f t="shared" si="15"/>
+        <v>59850</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="150"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="73">
-        <v>43806</v>
-      </c>
-      <c r="N19" s="150"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="75"/>
+      <c r="B19" s="93">
+        <v>107280</v>
+      </c>
+      <c r="C19" s="54">
+        <v>0.99</v>
+      </c>
+      <c r="D19" s="75">
+        <f t="shared" si="6"/>
+        <v>106207.2</v>
+      </c>
+      <c r="E19" s="87">
+        <v>96.830723340790456</v>
+      </c>
+      <c r="F19" s="75">
+        <f t="shared" si="7"/>
+        <v>103880</v>
+      </c>
+      <c r="H19" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J19" s="75">
+        <f t="shared" si="8"/>
+        <v>98985.599999999991</v>
+      </c>
+      <c r="K19" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L19" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N19" s="209" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="210"/>
+      <c r="P19" s="89">
+        <f>SUM(P11:P18)</f>
+        <v>505093.68</v>
+      </c>
+      <c r="Q19" s="141">
+        <f>R19/P19</f>
+        <v>0.91747336850463068</v>
+      </c>
+      <c r="R19" s="89">
+        <f>SUM(R11:R18)</f>
+        <v>463410</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="73">
         <v>43808</v>
       </c>
-      <c r="B20" s="150"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="75"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="200"/>
-      <c r="L20" s="200"/>
+      <c r="B20" s="93">
+        <v>107280</v>
+      </c>
+      <c r="C20" s="54">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D20" s="75">
+        <f t="shared" si="6"/>
+        <v>105027.12</v>
+      </c>
+      <c r="E20" s="87">
+        <v>96.830723340790456</v>
+      </c>
+      <c r="F20" s="75">
+        <f t="shared" si="7"/>
+        <v>103880</v>
+      </c>
+      <c r="G20" s="73">
+        <v>43808</v>
+      </c>
+      <c r="H20" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="J20" s="75">
+        <f t="shared" si="8"/>
+        <v>97977.599999999991</v>
+      </c>
+      <c r="K20" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L20" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="N20" s="150"/>
       <c r="O20" s="147"/>
       <c r="P20" s="75"/>
@@ -16632,47 +17319,106 @@
       <c r="R20" s="75"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="150"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="73">
-        <v>43807</v>
-      </c>
-      <c r="H21" s="74"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="73">
-        <v>43807</v>
-      </c>
-      <c r="N21" s="150"/>
-      <c r="O21" s="147"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="75"/>
+      <c r="B21" s="93">
+        <v>107280</v>
+      </c>
+      <c r="C21" s="54">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D21" s="75">
+        <f t="shared" si="6"/>
+        <v>104812.56</v>
+      </c>
+      <c r="E21" s="87">
+        <v>96.830723340790456</v>
+      </c>
+      <c r="F21" s="75">
+        <f t="shared" si="7"/>
+        <v>103880</v>
+      </c>
+      <c r="H21" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J21" s="75">
+        <f t="shared" si="8"/>
+        <v>98280</v>
+      </c>
+      <c r="K21" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L21" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="M21" s="96"/>
+      <c r="N21" s="219" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="218"/>
+      <c r="P21" s="218"/>
+      <c r="Q21" s="218"/>
+      <c r="R21" s="218"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="73">
+      <c r="B22" s="209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="210"/>
+      <c r="D22" s="89">
+        <f>SUM(D4:D21)</f>
+        <v>1859301.3599999999</v>
+      </c>
+      <c r="E22" s="141">
+        <f>F22/D22</f>
+        <v>0.97074903446528971</v>
+      </c>
+      <c r="F22" s="89">
+        <f>SUM(F4:F21)</f>
+        <v>1804915</v>
+      </c>
+      <c r="G22" s="73">
         <v>43809</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="75"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="75"/>
-      <c r="N22" s="150"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="75"/>
+      <c r="H22" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="J22" s="75">
+        <f t="shared" si="8"/>
+        <v>97876.800000000003</v>
+      </c>
+      <c r="K22" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L22" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="M22" s="73">
+        <v>43806</v>
+      </c>
+      <c r="N22" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="P22" s="75">
+        <f t="shared" ref="P22" si="16">N22*O22</f>
+        <v>73614.239999999991</v>
+      </c>
+      <c r="Q22" s="87">
+        <v>56.192660550458719</v>
+      </c>
+      <c r="R22" s="75">
+        <f t="shared" ref="R22" si="17">N22*Q22/100</f>
+        <v>44100</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="150"/>
@@ -16680,912 +17426,2404 @@
       <c r="D23" s="75"/>
       <c r="E23" s="148"/>
       <c r="F23" s="75"/>
-      <c r="G23" s="73">
-        <v>43808</v>
-      </c>
-      <c r="H23" s="74"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="75"/>
-      <c r="N23" s="193"/>
-      <c r="O23" s="194"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="89"/>
+      <c r="H23" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J23" s="75">
+        <f t="shared" si="8"/>
+        <v>98481.599999999991</v>
+      </c>
+      <c r="K23" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L23" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N23" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="P23" s="75">
+        <f t="shared" ref="P23:P39" si="18">N23*O23</f>
+        <v>76125.599999999991</v>
+      </c>
+      <c r="Q23" s="87">
+        <v>94.403669724770651</v>
+      </c>
+      <c r="R23" s="75">
+        <f t="shared" ref="R23:R39" si="19">N23*Q23/100</f>
+        <v>74088.000000000015</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="193"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="89"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="75"/>
-      <c r="N24" s="146"/>
-      <c r="O24" s="146"/>
-      <c r="P24" s="144"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="145"/>
+      <c r="B24" s="203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="204"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="204"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="73">
+        <v>43810</v>
+      </c>
+      <c r="H24" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J24" s="75">
+        <f t="shared" si="8"/>
+        <v>98985.599999999991</v>
+      </c>
+      <c r="K24" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L24" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="M24" s="73">
+        <v>43807</v>
+      </c>
+      <c r="N24" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O24" s="10">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="P24" s="75">
+        <f t="shared" si="18"/>
+        <v>75262.319999999992</v>
+      </c>
+      <c r="Q24" s="87">
+        <v>74.174311926605512</v>
+      </c>
+      <c r="R24" s="75">
+        <f t="shared" si="19"/>
+        <v>58212.000000000007</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="93"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="73">
+      <c r="A25" s="73">
         <v>43809</v>
       </c>
-      <c r="H25" s="74"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="75"/>
-      <c r="N25" s="198"/>
-      <c r="O25" s="195"/>
-      <c r="P25" s="195"/>
-      <c r="Q25" s="195"/>
-      <c r="R25" s="195"/>
+      <c r="B25" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C25" s="54">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D25" s="75">
+        <f t="shared" ref="D25" si="20">B25*C25</f>
+        <v>104371.2</v>
+      </c>
+      <c r="E25" s="87">
+        <v>47.384548611111107</v>
+      </c>
+      <c r="F25" s="75">
+        <f t="shared" ref="F25" si="21">B25*E25/100</f>
+        <v>54587</v>
+      </c>
+      <c r="H25" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J25" s="75">
+        <f t="shared" si="8"/>
+        <v>98683.199999999997</v>
+      </c>
+      <c r="K25" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L25" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N25" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="P25" s="75">
+        <f t="shared" si="18"/>
+        <v>78401.52</v>
+      </c>
+      <c r="Q25" s="87">
+        <v>96.651376146788991</v>
+      </c>
+      <c r="R25" s="75">
+        <f t="shared" si="19"/>
+        <v>75852</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="195"/>
-      <c r="C26" s="195"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="195"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="75"/>
+      <c r="B26" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C26" s="54">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="D26" s="75">
+        <f t="shared" ref="D26:D44" si="22">B26*C26</f>
+        <v>113932.8</v>
+      </c>
+      <c r="E26" s="87">
+        <v>94.769097222222214</v>
+      </c>
+      <c r="F26" s="75">
+        <f t="shared" ref="F26:F44" si="23">B26*E26/100</f>
+        <v>109174</v>
+      </c>
+      <c r="G26" s="73">
+        <v>43811</v>
+      </c>
+      <c r="H26" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J26" s="75">
+        <f t="shared" si="8"/>
+        <v>98884.800000000003</v>
+      </c>
+      <c r="K26" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L26" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M26" s="73">
         <v>43808</v>
       </c>
-      <c r="N26" s="93"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="75"/>
+      <c r="N26" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P26" s="75">
+        <f t="shared" si="18"/>
+        <v>76047.12</v>
+      </c>
+      <c r="Q26" s="87">
+        <v>92.155963302752298</v>
+      </c>
+      <c r="R26" s="75">
+        <f t="shared" si="19"/>
+        <v>72324</v>
+      </c>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="73">
         <v>43810</v>
       </c>
-      <c r="B27" s="150"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="73">
-        <v>43810</v>
-      </c>
-      <c r="H27" s="74"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="75"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="75"/>
+      <c r="B27" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C27" s="54">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D27" s="75">
+        <f t="shared" si="22"/>
+        <v>115188.48</v>
+      </c>
+      <c r="E27" s="87">
+        <v>99.756944444444443</v>
+      </c>
+      <c r="F27" s="75">
+        <f t="shared" si="23"/>
+        <v>114920</v>
+      </c>
+      <c r="H27" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J27" s="75">
+        <f t="shared" si="8"/>
+        <v>98380.800000000003</v>
+      </c>
+      <c r="K27" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L27" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N27" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="P27" s="75">
+        <f t="shared" si="18"/>
+        <v>76831.92</v>
+      </c>
+      <c r="Q27" s="87">
+        <v>92.155963302752298</v>
+      </c>
+      <c r="R27" s="75">
+        <f t="shared" si="19"/>
+        <v>72324</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="150"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="75"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="75"/>
+      <c r="B28" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C28" s="54">
+        <v>0.98</v>
+      </c>
+      <c r="D28" s="75">
+        <f t="shared" si="22"/>
+        <v>112896</v>
+      </c>
+      <c r="E28" s="87">
+        <v>97.263020833333343</v>
+      </c>
+      <c r="F28" s="75">
+        <f t="shared" si="23"/>
+        <v>112047.00000000001</v>
+      </c>
+      <c r="G28" s="73">
+        <v>43812</v>
+      </c>
+      <c r="H28" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J28" s="75">
+        <f t="shared" si="8"/>
+        <v>99187.199999999997</v>
+      </c>
+      <c r="K28" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L28" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M28" s="73">
         <v>43809</v>
       </c>
-      <c r="N28" s="93"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="75"/>
+      <c r="N28" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="P28" s="75">
+        <f t="shared" si="18"/>
+        <v>76753.440000000002</v>
+      </c>
+      <c r="Q28" s="87">
+        <v>92.155963302752298</v>
+      </c>
+      <c r="R28" s="75">
+        <f t="shared" si="19"/>
+        <v>72324</v>
+      </c>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="73">
         <v>43811</v>
       </c>
-      <c r="B29" s="150"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="73">
-        <v>43811</v>
-      </c>
-      <c r="H29" s="74"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="75"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="75"/>
+      <c r="B29" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C29" s="54">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="D29" s="75">
+        <f t="shared" si="22"/>
+        <v>111859.2</v>
+      </c>
+      <c r="E29" s="87">
+        <v>94.769097222222214</v>
+      </c>
+      <c r="F29" s="75">
+        <f t="shared" si="23"/>
+        <v>109174</v>
+      </c>
+      <c r="H29" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="J29" s="75">
+        <f t="shared" si="8"/>
+        <v>99590.399999999994</v>
+      </c>
+      <c r="K29" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L29" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N29" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="P29" s="75">
+        <f t="shared" si="18"/>
+        <v>76910.399999999994</v>
+      </c>
+      <c r="Q29" s="87">
+        <v>92.155963302752298</v>
+      </c>
+      <c r="R29" s="75">
+        <f t="shared" si="19"/>
+        <v>72324</v>
+      </c>
     </row>
     <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="150"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="75"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="75"/>
+      <c r="B30" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C30" s="54">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D30" s="75">
+        <f t="shared" si="22"/>
+        <v>109324.79999999999</v>
+      </c>
+      <c r="E30" s="87">
+        <v>92.275173611111114</v>
+      </c>
+      <c r="F30" s="75">
+        <f t="shared" si="23"/>
+        <v>106301</v>
+      </c>
+      <c r="G30" s="73">
+        <v>43813</v>
+      </c>
+      <c r="H30" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J30" s="75">
+        <f t="shared" si="8"/>
+        <v>99187.199999999997</v>
+      </c>
+      <c r="K30" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L30" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
       <c r="M30" s="73">
         <v>43810</v>
       </c>
-      <c r="N30" s="93"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="75"/>
+      <c r="N30" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="P30" s="75">
+        <f t="shared" si="18"/>
+        <v>77381.279999999999</v>
+      </c>
+      <c r="Q30" s="87">
+        <v>92.155963302752298</v>
+      </c>
+      <c r="R30" s="75">
+        <f t="shared" si="19"/>
+        <v>72324</v>
+      </c>
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="73">
         <v>43812</v>
       </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="75"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="89"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="75"/>
+      <c r="B31" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C31" s="54">
+        <v>0.95</v>
+      </c>
+      <c r="D31" s="75">
+        <f t="shared" si="22"/>
+        <v>109440</v>
+      </c>
+      <c r="E31" s="87">
+        <v>92.275173611111114</v>
+      </c>
+      <c r="F31" s="75">
+        <f t="shared" si="23"/>
+        <v>106301</v>
+      </c>
+      <c r="H31" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J31" s="75">
+        <f t="shared" si="8"/>
+        <v>99388.800000000003</v>
+      </c>
+      <c r="K31" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L31" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N31" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="P31" s="75">
+        <f t="shared" si="18"/>
+        <v>77224.319999999992</v>
+      </c>
+      <c r="Q31" s="87">
+        <v>94.403669724770651</v>
+      </c>
+      <c r="R31" s="75">
+        <f t="shared" si="19"/>
+        <v>74088.000000000015</v>
+      </c>
     </row>
     <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="150"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="75"/>
-      <c r="N32" s="193"/>
-      <c r="O32" s="194"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="141"/>
-      <c r="R32" s="89"/>
+      <c r="B32" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C32" s="54">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D32" s="75">
+        <f t="shared" si="22"/>
+        <v>112665.59999999999</v>
+      </c>
+      <c r="E32" s="87">
+        <v>94.769097222222214</v>
+      </c>
+      <c r="F32" s="75">
+        <f t="shared" si="23"/>
+        <v>109174</v>
+      </c>
+      <c r="G32" s="73">
+        <v>43814</v>
+      </c>
+      <c r="H32" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J32" s="75">
+        <f t="shared" si="8"/>
+        <v>98280</v>
+      </c>
+      <c r="K32" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L32" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="M32" s="73">
+        <v>43811</v>
+      </c>
+      <c r="N32" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="P32" s="75">
+        <f t="shared" si="18"/>
+        <v>77224.319999999992</v>
+      </c>
+      <c r="Q32" s="87">
+        <v>92.155963302752298</v>
+      </c>
+      <c r="R32" s="75">
+        <f t="shared" si="19"/>
+        <v>72324</v>
+      </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="193"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="89"/>
-      <c r="H33" s="199"/>
-      <c r="I33" s="200"/>
-      <c r="J33" s="200"/>
-      <c r="K33" s="200"/>
-      <c r="L33" s="200"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="75"/>
+      <c r="A33" s="73">
+        <v>43813</v>
+      </c>
+      <c r="B33" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C33" s="54">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D33" s="75">
+        <f t="shared" si="22"/>
+        <v>113241.59999999999</v>
+      </c>
+      <c r="E33" s="87">
+        <v>94.769097222222214</v>
+      </c>
+      <c r="F33" s="75">
+        <f t="shared" si="23"/>
+        <v>109174</v>
+      </c>
+      <c r="H33" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J33" s="75">
+        <f t="shared" si="8"/>
+        <v>99288</v>
+      </c>
+      <c r="K33" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L33" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N33" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="P33" s="75">
+        <f t="shared" si="18"/>
+        <v>76596.479999999996</v>
+      </c>
+      <c r="Q33" s="87">
+        <v>94.403669724770651</v>
+      </c>
+      <c r="R33" s="75">
+        <f t="shared" si="19"/>
+        <v>74088.000000000015</v>
+      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="150"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="75"/>
+      <c r="B34" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C34" s="54">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D34" s="75">
+        <f t="shared" si="22"/>
+        <v>113126.39999999999</v>
+      </c>
+      <c r="E34" s="87">
+        <v>94.769097222222214</v>
+      </c>
+      <c r="F34" s="75">
+        <f t="shared" si="23"/>
+        <v>109174</v>
+      </c>
       <c r="G34" s="73">
+        <v>43815</v>
+      </c>
+      <c r="H34" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="J34" s="75">
+        <f t="shared" si="8"/>
+        <v>97372.800000000003</v>
+      </c>
+      <c r="K34" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L34" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="M34" s="73">
         <v>43812</v>
       </c>
-      <c r="H34" s="93"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="75"/>
-      <c r="N34" s="198"/>
-      <c r="O34" s="195"/>
-      <c r="P34" s="195"/>
-      <c r="Q34" s="195"/>
-      <c r="R34" s="195"/>
+      <c r="N34" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="P34" s="75">
+        <f t="shared" si="18"/>
+        <v>77145.84</v>
+      </c>
+      <c r="Q34" s="87">
+        <v>94.403669724770651</v>
+      </c>
+      <c r="R34" s="75">
+        <f t="shared" si="19"/>
+        <v>74088.000000000015</v>
+      </c>
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="195"/>
-      <c r="C35" s="195"/>
-      <c r="D35" s="195"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="73">
-        <v>43811</v>
-      </c>
-      <c r="N35" s="93"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="75"/>
+      <c r="A35" s="73">
+        <v>43814</v>
+      </c>
+      <c r="B35" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C35" s="54">
+        <v>0.96</v>
+      </c>
+      <c r="D35" s="75">
+        <f t="shared" si="22"/>
+        <v>110592</v>
+      </c>
+      <c r="E35" s="87">
+        <v>94.769097222222214</v>
+      </c>
+      <c r="F35" s="75">
+        <f t="shared" si="23"/>
+        <v>109174</v>
+      </c>
+      <c r="H35" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J35" s="75">
+        <f t="shared" si="8"/>
+        <v>98683.199999999997</v>
+      </c>
+      <c r="K35" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L35" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N35" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O35" s="10">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="P35" s="75">
+        <f t="shared" si="18"/>
+        <v>77773.679999999993</v>
+      </c>
+      <c r="Q35" s="87">
+        <v>94.403669724770651</v>
+      </c>
+      <c r="R35" s="75">
+        <f t="shared" si="19"/>
+        <v>74088.000000000015</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="73">
+      <c r="B36" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C36" s="54">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D36" s="75">
+        <f t="shared" si="22"/>
+        <v>113011.2</v>
+      </c>
+      <c r="E36" s="87">
+        <v>94.769097222222214</v>
+      </c>
+      <c r="F36" s="75">
+        <f t="shared" si="23"/>
+        <v>109174</v>
+      </c>
+      <c r="G36" s="73">
+        <v>43816</v>
+      </c>
+      <c r="H36" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="J36" s="75">
+        <f t="shared" si="8"/>
+        <v>96768</v>
+      </c>
+      <c r="K36" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L36" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="M36" s="73">
         <v>43813</v>
       </c>
-      <c r="B36" s="150"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="73">
-        <v>43813</v>
-      </c>
-      <c r="H36" s="93"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="75"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="75"/>
+      <c r="N36" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="P36" s="75">
+        <f t="shared" si="18"/>
+        <v>76988.88</v>
+      </c>
+      <c r="Q36" s="87">
+        <v>94.403669724770651</v>
+      </c>
+      <c r="R36" s="75">
+        <f t="shared" si="19"/>
+        <v>74088.000000000015</v>
+      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="150"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="75"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="73">
-        <v>43812</v>
-      </c>
-      <c r="N37" s="93"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="75"/>
+      <c r="A37" s="73">
+        <v>43815</v>
+      </c>
+      <c r="B37" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C37" s="54">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D37" s="75">
+        <f t="shared" si="22"/>
+        <v>111974.39999999999</v>
+      </c>
+      <c r="E37" s="87">
+        <v>94.769097222222214</v>
+      </c>
+      <c r="F37" s="75">
+        <f t="shared" si="23"/>
+        <v>109174</v>
+      </c>
+      <c r="H37" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J37" s="75">
+        <f t="shared" si="8"/>
+        <v>97171.199999999997</v>
+      </c>
+      <c r="K37" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L37" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N37" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="P37" s="75">
+        <f t="shared" si="18"/>
+        <v>77302.8</v>
+      </c>
+      <c r="Q37" s="87">
+        <v>92.155963302752298</v>
+      </c>
+      <c r="R37" s="75">
+        <f t="shared" si="19"/>
+        <v>72324</v>
+      </c>
     </row>
     <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73">
+      <c r="B38" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C38" s="54">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D38" s="75">
+        <f t="shared" si="22"/>
+        <v>113241.59999999999</v>
+      </c>
+      <c r="E38" s="87">
+        <v>94.769097222222214</v>
+      </c>
+      <c r="F38" s="75">
+        <f t="shared" si="23"/>
+        <v>109174</v>
+      </c>
+      <c r="G38" s="73">
+        <v>43817</v>
+      </c>
+      <c r="H38" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J38" s="75">
+        <f t="shared" si="8"/>
+        <v>100094.39999999999</v>
+      </c>
+      <c r="K38" s="87">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L38" s="75">
+        <f t="shared" si="9"/>
+        <v>98415</v>
+      </c>
+      <c r="M38" s="73">
         <v>43814</v>
       </c>
-      <c r="B38" s="150"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="73">
-        <v>43814</v>
-      </c>
-      <c r="H38" s="93"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="75"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="75"/>
+      <c r="N38" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="P38" s="75">
+        <f t="shared" si="18"/>
+        <v>76753.440000000002</v>
+      </c>
+      <c r="Q38" s="87">
+        <v>94.403669724770651</v>
+      </c>
+      <c r="R38" s="75">
+        <f t="shared" si="19"/>
+        <v>74088.000000000015</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="150"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="75"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="73">
-        <v>43813</v>
-      </c>
-      <c r="N39" s="93"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="75"/>
+      <c r="A39" s="73">
+        <v>43816</v>
+      </c>
+      <c r="B39" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C39" s="54">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D39" s="75">
+        <f t="shared" si="22"/>
+        <v>112550.39999999999</v>
+      </c>
+      <c r="E39" s="87">
+        <v>94.769097222222214</v>
+      </c>
+      <c r="F39" s="75">
+        <f t="shared" si="23"/>
+        <v>109174</v>
+      </c>
+      <c r="H39" s="74">
+        <v>100800</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="J39" s="75">
+        <f t="shared" si="8"/>
+        <v>98784</v>
+      </c>
+      <c r="K39" s="87">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L39" s="75">
+        <f t="shared" si="9"/>
+        <v>94770</v>
+      </c>
+      <c r="N39" s="93">
+        <v>78480</v>
+      </c>
+      <c r="O39" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="P39" s="75">
+        <f t="shared" si="18"/>
+        <v>77302.8</v>
+      </c>
+      <c r="Q39" s="87">
+        <v>96.651376146788991</v>
+      </c>
+      <c r="R39" s="75">
+        <f t="shared" si="19"/>
+        <v>75852</v>
+      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="73">
-        <v>43815</v>
-      </c>
-      <c r="B40" s="150"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="73">
-        <v>43815</v>
-      </c>
-      <c r="H40" s="93"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="75"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="75"/>
+      <c r="B40" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C40" s="54">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="D40" s="75">
+        <f t="shared" si="22"/>
+        <v>111513.59999999999</v>
+      </c>
+      <c r="E40" s="87">
+        <v>94.769097222222214</v>
+      </c>
+      <c r="F40" s="75">
+        <f t="shared" si="23"/>
+        <v>109174</v>
+      </c>
+      <c r="H40" s="209" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="210"/>
+      <c r="J40" s="89">
+        <f>SUM(J4:J39)</f>
+        <v>3550680.0000000005</v>
+      </c>
+      <c r="K40" s="141">
+        <f>L40/J40</f>
+        <v>0.9639435263104531</v>
+      </c>
+      <c r="L40" s="89">
+        <f>SUM(L4:L39)</f>
+        <v>3422655</v>
+      </c>
+      <c r="N40" s="209" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" s="210"/>
+      <c r="P40" s="89">
+        <f>SUM(P22:P39)</f>
+        <v>1381640.4</v>
+      </c>
+      <c r="Q40" s="141">
+        <f>R40/P40</f>
+        <v>0.92563882758494909</v>
+      </c>
+      <c r="R40" s="89">
+        <f>SUM(R22:R39)</f>
+        <v>1278900</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="150"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="75"/>
+      <c r="A41" s="73">
+        <v>43817</v>
+      </c>
+      <c r="B41" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C41" s="54">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D41" s="75">
+        <f t="shared" si="22"/>
+        <v>112665.59999999999</v>
+      </c>
+      <c r="E41" s="87">
+        <v>94.769097222222214</v>
+      </c>
+      <c r="F41" s="75">
+        <f t="shared" si="23"/>
+        <v>109174</v>
+      </c>
       <c r="H41" s="93"/>
       <c r="I41" s="10"/>
       <c r="J41" s="75"/>
       <c r="K41" s="87"/>
       <c r="L41" s="75"/>
-      <c r="N41" s="193"/>
-      <c r="O41" s="194"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="141"/>
-      <c r="R41" s="89"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="73">
+      <c r="N41" s="175"/>
+      <c r="O41" s="176"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="60"/>
+    </row>
+    <row r="42" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C42" s="54">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="D42" s="75">
+        <f t="shared" si="22"/>
+        <v>111398.39999999999</v>
+      </c>
+      <c r="E42" s="87">
+        <v>94.769097222222214</v>
+      </c>
+      <c r="F42" s="75">
+        <f t="shared" si="23"/>
+        <v>109174</v>
+      </c>
+      <c r="G42" s="96"/>
+      <c r="H42" s="216" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="217"/>
+      <c r="J42" s="217"/>
+      <c r="K42" s="217"/>
+      <c r="L42" s="217"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="218" t="s">
+        <v>41</v>
+      </c>
+      <c r="O42" s="218"/>
+      <c r="P42" s="218"/>
+      <c r="Q42" s="218"/>
+      <c r="R42" s="218"/>
+    </row>
+    <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="73">
+        <v>43818</v>
+      </c>
+      <c r="B43" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C43" s="54">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D43" s="75">
+        <f t="shared" si="22"/>
+        <v>112780.8</v>
+      </c>
+      <c r="E43" s="87">
+        <v>94.769097222222214</v>
+      </c>
+      <c r="F43" s="75">
+        <f t="shared" si="23"/>
+        <v>109174</v>
+      </c>
+      <c r="G43" s="73">
+        <v>43818</v>
+      </c>
+      <c r="H43" s="58">
+        <v>108000</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="J43" s="60">
+        <f t="shared" ref="J43" si="24">H43*I43</f>
+        <v>98604</v>
+      </c>
+      <c r="K43" s="87">
+        <v>54.1</v>
+      </c>
+      <c r="L43" s="60">
+        <f t="shared" ref="L43" si="25">H43*K43/100</f>
+        <v>58428</v>
+      </c>
+      <c r="M43" s="73">
+        <v>43815</v>
+      </c>
+      <c r="N43" s="93">
+        <v>74880</v>
+      </c>
+      <c r="O43" s="10">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="P43" s="75">
+        <f t="shared" ref="P43" si="26">N43*O43</f>
+        <v>64771.199999999997</v>
+      </c>
+      <c r="Q43" s="87">
+        <v>56.53846153846154</v>
+      </c>
+      <c r="R43" s="75">
+        <f t="shared" ref="R43" si="27">N43*Q43/100</f>
+        <v>42336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="74">
+        <v>115200</v>
+      </c>
+      <c r="C44" s="54">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D44" s="75">
+        <f t="shared" si="22"/>
+        <v>112320</v>
+      </c>
+      <c r="E44" s="87">
+        <v>92.275173611111114</v>
+      </c>
+      <c r="F44" s="75">
+        <f t="shared" si="23"/>
+        <v>106301</v>
+      </c>
+      <c r="H44" s="58">
+        <v>110880</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="J44" s="60">
+        <f t="shared" ref="J44" si="28">H44*I44</f>
+        <v>105114.23999999999</v>
+      </c>
+      <c r="K44" s="87">
+        <v>92.215909090909093</v>
+      </c>
+      <c r="L44" s="60">
+        <f t="shared" ref="L44" si="29">H44*K44/100</f>
+        <v>102249</v>
+      </c>
+      <c r="N44" s="93">
+        <v>74880</v>
+      </c>
+      <c r="O44" s="10">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="P44" s="75">
+        <f t="shared" ref="P44:P52" si="30">N44*O44</f>
+        <v>72408.959999999992</v>
+      </c>
+      <c r="Q44" s="87">
+        <v>91.538461538461533</v>
+      </c>
+      <c r="R44" s="75">
+        <f t="shared" ref="R44:R52" si="31">N44*Q44/100</f>
+        <v>68544</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="210"/>
+      <c r="D45" s="89">
+        <f>SUM(D25:D44)</f>
+        <v>2238094.0799999996</v>
+      </c>
+      <c r="E45" s="141">
+        <f>F45/D45</f>
+        <v>0.95120800283784335</v>
+      </c>
+      <c r="F45" s="89">
+        <f>SUM(F25:F44)</f>
+        <v>2128893</v>
+      </c>
+      <c r="G45" s="73">
+        <v>43819</v>
+      </c>
+      <c r="H45" s="58">
+        <v>110880</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J45" s="60">
+        <f t="shared" ref="J45:J58" si="32">H45*I45</f>
+        <v>108995.04</v>
+      </c>
+      <c r="K45" s="87">
+        <v>92.215909090909093</v>
+      </c>
+      <c r="L45" s="60">
+        <f t="shared" ref="L45:L58" si="33">H45*K45/100</f>
+        <v>102249</v>
+      </c>
+      <c r="M45" s="73">
         <v>43816</v>
       </c>
-      <c r="B42" s="150"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="73">
-        <v>43816</v>
-      </c>
-      <c r="H42" s="93"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="75"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="75"/>
-    </row>
-    <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="150"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="75"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="75"/>
-      <c r="N43" s="195"/>
-      <c r="O43" s="195"/>
-      <c r="P43" s="195"/>
-      <c r="Q43" s="195"/>
-      <c r="R43" s="195"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="193"/>
-      <c r="C44" s="194"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="73">
+      <c r="N45" s="93">
+        <v>74880</v>
+      </c>
+      <c r="O45" s="10">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="P45" s="75">
+        <f t="shared" si="30"/>
+        <v>71210.87999999999</v>
+      </c>
+      <c r="Q45" s="87">
+        <v>80.769230769230774</v>
+      </c>
+      <c r="R45" s="75">
+        <f t="shared" si="31"/>
+        <v>60480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="160"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="160"/>
+      <c r="H46" s="58">
+        <v>110880</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J46" s="60">
+        <f t="shared" si="32"/>
+        <v>107331.84</v>
+      </c>
+      <c r="K46" s="87">
+        <v>92.215909090909093</v>
+      </c>
+      <c r="L46" s="60">
+        <f t="shared" si="33"/>
+        <v>102249</v>
+      </c>
+      <c r="N46" s="93">
+        <v>74880</v>
+      </c>
+      <c r="O46" s="10">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="P46" s="75">
+        <f t="shared" si="30"/>
+        <v>72483.839999999997</v>
+      </c>
+      <c r="Q46" s="87">
+        <v>94.230769230769226</v>
+      </c>
+      <c r="R46" s="75">
+        <f t="shared" si="31"/>
+        <v>70560</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="203" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="204"/>
+      <c r="D47" s="204"/>
+      <c r="E47" s="204"/>
+      <c r="F47" s="221"/>
+      <c r="G47" s="73">
+        <v>43820</v>
+      </c>
+      <c r="H47" s="58">
+        <v>110880</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="J47" s="60">
+        <f t="shared" si="32"/>
+        <v>107664.48</v>
+      </c>
+      <c r="K47" s="87">
+        <v>86.592987804878049</v>
+      </c>
+      <c r="L47" s="60">
+        <f t="shared" si="33"/>
+        <v>96014.304878048788</v>
+      </c>
+      <c r="M47" s="73">
         <v>43817</v>
       </c>
-      <c r="H44" s="93"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="73">
-        <v>43814</v>
-      </c>
-      <c r="N44" s="93"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="75"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="93"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="75"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="75"/>
-      <c r="N45" s="93"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="75"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="75"/>
-    </row>
-    <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="195"/>
-      <c r="C46" s="195"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="195"/>
-      <c r="F46" s="195"/>
-      <c r="G46" s="73">
+      <c r="N47" s="93">
+        <v>74880</v>
+      </c>
+      <c r="O47" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="P47" s="75">
+        <f t="shared" si="30"/>
+        <v>72633.599999999991</v>
+      </c>
+      <c r="Q47" s="87">
+        <v>91.939102564102555</v>
+      </c>
+      <c r="R47" s="75">
+        <f t="shared" si="31"/>
+        <v>68843.999999999985</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="73">
+        <v>43819</v>
+      </c>
+      <c r="B48" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C48" s="54">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="D48" s="75">
+        <f t="shared" ref="D48" si="34">B48*C48</f>
+        <v>106935.84</v>
+      </c>
+      <c r="E48" s="87">
+        <v>74.734607218683649</v>
+      </c>
+      <c r="F48" s="75">
+        <f t="shared" ref="F48" si="35">B48*E48/100</f>
+        <v>84480</v>
+      </c>
+      <c r="H48" s="58">
+        <v>110880</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J48" s="60">
+        <f t="shared" si="32"/>
+        <v>108884.16</v>
+      </c>
+      <c r="K48" s="87">
+        <v>92.215909090909093</v>
+      </c>
+      <c r="L48" s="60">
+        <f t="shared" si="33"/>
+        <v>102249</v>
+      </c>
+      <c r="N48" s="93">
+        <v>74880</v>
+      </c>
+      <c r="O48" s="10">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P48" s="75">
+        <f t="shared" si="30"/>
+        <v>72558.720000000001</v>
+      </c>
+      <c r="Q48" s="87">
+        <v>91.538461538461533</v>
+      </c>
+      <c r="R48" s="75">
+        <f t="shared" si="31"/>
+        <v>68544</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C49" s="54">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D49" s="75">
+        <f t="shared" ref="D49:D71" si="36">B49*C49</f>
+        <v>108179.28</v>
+      </c>
+      <c r="E49" s="87">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F49" s="75">
+        <f t="shared" ref="F49:F71" si="37">B49*E49/100</f>
+        <v>107008</v>
+      </c>
+      <c r="G49" s="73">
+        <v>43821</v>
+      </c>
+      <c r="H49" s="58">
+        <v>110880</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="J49" s="60">
+        <f t="shared" si="32"/>
+        <v>107442.72</v>
+      </c>
+      <c r="K49" s="87">
+        <v>87.824675324675326</v>
+      </c>
+      <c r="L49" s="60">
+        <f t="shared" si="33"/>
+        <v>97380</v>
+      </c>
+      <c r="M49" s="73">
         <v>43818</v>
       </c>
-      <c r="H46" s="93"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="73">
-        <v>43815</v>
-      </c>
-      <c r="N46" s="93"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="75"/>
-    </row>
-    <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="73">
-        <v>43817</v>
-      </c>
-      <c r="B47" s="93"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="75"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="75"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="75"/>
-    </row>
-    <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="93"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="75"/>
-      <c r="H48" s="193"/>
-      <c r="I48" s="194"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="141"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="73">
-        <v>43816</v>
-      </c>
-      <c r="N48" s="93"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="75"/>
-      <c r="Q48" s="87"/>
-      <c r="R48" s="75"/>
-    </row>
-    <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="73">
-        <v>43818</v>
-      </c>
-      <c r="B49" s="93"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="147"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="148"/>
-      <c r="L49" s="75"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="75"/>
-      <c r="Q49" s="87"/>
-      <c r="R49" s="75"/>
+      <c r="N49" s="93">
+        <v>74880</v>
+      </c>
+      <c r="O49" s="10">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="P49" s="75">
+        <f t="shared" si="30"/>
+        <v>74056.319999999992</v>
+      </c>
+      <c r="Q49" s="87">
+        <v>94.230769230769226</v>
+      </c>
+      <c r="R49" s="75">
+        <f t="shared" si="31"/>
+        <v>70560</v>
+      </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="93"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="75"/>
-      <c r="H50" s="199"/>
-      <c r="I50" s="200"/>
-      <c r="J50" s="200"/>
-      <c r="K50" s="200"/>
-      <c r="L50" s="200"/>
-      <c r="M50" s="73">
-        <v>43817</v>
-      </c>
-      <c r="N50" s="93"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="75"/>
-      <c r="Q50" s="87"/>
-      <c r="R50" s="75"/>
+      <c r="A50" s="73">
+        <v>43820</v>
+      </c>
+      <c r="B50" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C50" s="54">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D50" s="75">
+        <f t="shared" si="36"/>
+        <v>110327.03999999999</v>
+      </c>
+      <c r="E50" s="87">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F50" s="75">
+        <f t="shared" si="37"/>
+        <v>107008</v>
+      </c>
+      <c r="H50" s="58">
+        <v>110880</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J50" s="60">
+        <f t="shared" si="32"/>
+        <v>108884.16</v>
+      </c>
+      <c r="K50" s="87">
+        <v>87.824675324675326</v>
+      </c>
+      <c r="L50" s="60">
+        <f t="shared" si="33"/>
+        <v>97380</v>
+      </c>
+      <c r="N50" s="93">
+        <v>74880</v>
+      </c>
+      <c r="O50" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="P50" s="75">
+        <f t="shared" si="30"/>
+        <v>73457.279999999999</v>
+      </c>
+      <c r="Q50" s="87">
+        <v>94.230769230769226</v>
+      </c>
+      <c r="R50" s="75">
+        <f t="shared" si="31"/>
+        <v>70560</v>
+      </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="73">
+      <c r="B51" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C51" s="54">
+        <v>0.98</v>
+      </c>
+      <c r="D51" s="75">
+        <f t="shared" si="36"/>
+        <v>110779.2</v>
+      </c>
+      <c r="E51" s="87">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F51" s="75">
+        <f t="shared" si="37"/>
+        <v>107008</v>
+      </c>
+      <c r="G51" s="73">
+        <v>43822</v>
+      </c>
+      <c r="H51" s="58">
+        <v>110880</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="J51" s="60">
+        <f t="shared" si="32"/>
+        <v>104227.2</v>
+      </c>
+      <c r="K51" s="87">
+        <v>87.824675324675326</v>
+      </c>
+      <c r="L51" s="60">
+        <f t="shared" si="33"/>
+        <v>97380</v>
+      </c>
+      <c r="M51" s="73">
         <v>43819</v>
       </c>
-      <c r="B51" s="93"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="73">
-        <v>43819</v>
-      </c>
-      <c r="H51" s="74"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="75"/>
-      <c r="N51" s="93"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="75"/>
-      <c r="Q51" s="87"/>
-      <c r="R51" s="75"/>
+      <c r="N51" s="93">
+        <v>74880</v>
+      </c>
+      <c r="O51" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="P51" s="75">
+        <f t="shared" si="30"/>
+        <v>73831.679999999993</v>
+      </c>
+      <c r="Q51" s="87">
+        <v>96.92307692307692</v>
+      </c>
+      <c r="R51" s="75">
+        <f t="shared" si="31"/>
+        <v>72576</v>
+      </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="93"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="75"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="75"/>
-      <c r="N52" s="193"/>
-      <c r="O52" s="194"/>
-      <c r="P52" s="89"/>
-      <c r="Q52" s="141"/>
-      <c r="R52" s="89"/>
+      <c r="A52" s="73">
+        <v>43821</v>
+      </c>
+      <c r="B52" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C52" s="54">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D52" s="75">
+        <f t="shared" si="36"/>
+        <v>110214</v>
+      </c>
+      <c r="E52" s="87">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F52" s="75">
+        <f t="shared" si="37"/>
+        <v>107008</v>
+      </c>
+      <c r="H52" s="58">
+        <v>110880</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="J52" s="60">
+        <f t="shared" si="32"/>
+        <v>107664.48</v>
+      </c>
+      <c r="K52" s="87">
+        <v>87.824675324675326</v>
+      </c>
+      <c r="L52" s="60">
+        <f t="shared" si="33"/>
+        <v>97380</v>
+      </c>
+      <c r="N52" s="93">
+        <v>74880</v>
+      </c>
+      <c r="O52" s="10">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="P52" s="75">
+        <f t="shared" si="30"/>
+        <v>72259.199999999997</v>
+      </c>
+      <c r="Q52" s="87">
+        <v>91.538461538461533</v>
+      </c>
+      <c r="R52" s="75">
+        <f t="shared" si="31"/>
+        <v>68544</v>
+      </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="73">
+      <c r="B53" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C53" s="54">
+        <v>0.98</v>
+      </c>
+      <c r="D53" s="75">
+        <f t="shared" si="36"/>
+        <v>110779.2</v>
+      </c>
+      <c r="E53" s="87">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F53" s="75">
+        <f t="shared" si="37"/>
+        <v>104192</v>
+      </c>
+      <c r="G53" s="73">
+        <v>43823</v>
+      </c>
+      <c r="H53" s="58">
+        <v>110880</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J53" s="60">
+        <f t="shared" si="32"/>
+        <v>106888.31999999999</v>
+      </c>
+      <c r="K53" s="87">
+        <v>87.824675324675326</v>
+      </c>
+      <c r="L53" s="60">
+        <f t="shared" si="33"/>
+        <v>97380</v>
+      </c>
+      <c r="N53" s="209" t="s">
+        <v>1</v>
+      </c>
+      <c r="O53" s="210"/>
+      <c r="P53" s="89">
+        <f>SUM(P43:P52)</f>
+        <v>719671.67999999993</v>
+      </c>
+      <c r="Q53" s="141">
+        <f>R53/P53</f>
+        <v>0.91923583820888999</v>
+      </c>
+      <c r="R53" s="89">
+        <f>SUM(R43:R52)</f>
+        <v>661548</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="73">
+        <v>43822</v>
+      </c>
+      <c r="B54" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C54" s="54">
+        <v>0.98</v>
+      </c>
+      <c r="D54" s="75">
+        <f t="shared" si="36"/>
+        <v>110779.2</v>
+      </c>
+      <c r="E54" s="87">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F54" s="75">
+        <f t="shared" si="37"/>
+        <v>104192</v>
+      </c>
+      <c r="H54" s="58">
+        <v>110880</v>
+      </c>
+      <c r="I54" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="J54" s="60">
+        <f t="shared" si="32"/>
+        <v>107553.59999999999</v>
+      </c>
+      <c r="K54" s="87">
+        <v>92.215909090909093</v>
+      </c>
+      <c r="L54" s="60">
+        <f t="shared" si="33"/>
+        <v>102249</v>
+      </c>
+      <c r="N54" s="160"/>
+      <c r="O54" s="160"/>
+      <c r="P54" s="160"/>
+      <c r="Q54" s="160"/>
+      <c r="R54" s="160"/>
+    </row>
+    <row r="55" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C55" s="54">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D55" s="75">
+        <f t="shared" si="36"/>
+        <v>111005.28</v>
+      </c>
+      <c r="E55" s="87">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F55" s="75">
+        <f t="shared" si="37"/>
+        <v>107008</v>
+      </c>
+      <c r="G55" s="73">
+        <v>43824</v>
+      </c>
+      <c r="H55" s="58">
+        <v>110880</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J55" s="60">
+        <f t="shared" si="32"/>
+        <v>107331.84</v>
+      </c>
+      <c r="K55" s="87">
+        <v>92.215909090909093</v>
+      </c>
+      <c r="L55" s="60">
+        <f t="shared" si="33"/>
+        <v>102249</v>
+      </c>
+      <c r="M55" s="96"/>
+      <c r="N55" s="219" t="s">
+        <v>36</v>
+      </c>
+      <c r="O55" s="218"/>
+      <c r="P55" s="218"/>
+      <c r="Q55" s="218"/>
+      <c r="R55" s="218"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="73">
+        <v>43823</v>
+      </c>
+      <c r="B56" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C56" s="54">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D56" s="75">
+        <f t="shared" si="36"/>
+        <v>110327.03999999999</v>
+      </c>
+      <c r="E56" s="87">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F56" s="75">
+        <f t="shared" si="37"/>
+        <v>107008</v>
+      </c>
+      <c r="H56" s="58">
+        <v>110880</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J56" s="60">
+        <f t="shared" si="32"/>
+        <v>108884.16</v>
+      </c>
+      <c r="K56" s="87">
+        <v>96.607142857142861</v>
+      </c>
+      <c r="L56" s="60">
+        <f t="shared" si="33"/>
+        <v>107118</v>
+      </c>
+      <c r="M56" s="73">
         <v>43820</v>
       </c>
-      <c r="B53" s="93"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="73">
-        <v>43820</v>
-      </c>
-      <c r="H53" s="74"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="75"/>
-      <c r="N53" s="93"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="75"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B54" s="93"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="75"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="87"/>
-      <c r="L54" s="75"/>
-      <c r="N54" s="195"/>
-      <c r="O54" s="195"/>
-      <c r="P54" s="195"/>
-      <c r="Q54" s="195"/>
-      <c r="R54" s="195"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="73">
+      <c r="N56" s="93">
+        <v>90000</v>
+      </c>
+      <c r="O56" s="10">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="P56" s="75">
+        <f t="shared" ref="P56" si="38">N56*O56</f>
+        <v>85590</v>
+      </c>
+      <c r="Q56" s="87">
+        <v>71.52</v>
+      </c>
+      <c r="R56" s="75">
+        <f t="shared" ref="R56" si="39">N56*Q56/100</f>
+        <v>64368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B57" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C57" s="54">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D57" s="75">
+        <f t="shared" si="36"/>
+        <v>110553.12</v>
+      </c>
+      <c r="E57" s="87">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F57" s="75">
+        <f t="shared" si="37"/>
+        <v>107008</v>
+      </c>
+      <c r="G57" s="73">
+        <v>43825</v>
+      </c>
+      <c r="H57" s="58">
+        <v>110880</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0.999</v>
+      </c>
+      <c r="J57" s="60">
+        <f t="shared" si="32"/>
+        <v>110769.12</v>
+      </c>
+      <c r="K57" s="87">
+        <v>96.607142857142861</v>
+      </c>
+      <c r="L57" s="60">
+        <f t="shared" si="33"/>
+        <v>107118</v>
+      </c>
+      <c r="N57" s="93">
+        <v>90000</v>
+      </c>
+      <c r="O57" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="P57" s="75">
+        <f t="shared" ref="P57:P65" si="40">N57*O57</f>
+        <v>88650</v>
+      </c>
+      <c r="Q57" s="87">
+        <v>89.4</v>
+      </c>
+      <c r="R57" s="75">
+        <f t="shared" ref="R57:R65" si="41">N57*Q57/100</f>
+        <v>80460.000000000015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="73">
+        <v>43824</v>
+      </c>
+      <c r="B58" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C58" s="54">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D58" s="75">
+        <f t="shared" si="36"/>
+        <v>107953.2</v>
+      </c>
+      <c r="E58" s="87">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F58" s="75">
+        <f t="shared" si="37"/>
+        <v>104192</v>
+      </c>
+      <c r="H58" s="58">
+        <v>110880</v>
+      </c>
+      <c r="I58" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J58" s="60">
+        <f t="shared" si="32"/>
+        <v>108773.28</v>
+      </c>
+      <c r="K58" s="87">
+        <v>96.607142857142861</v>
+      </c>
+      <c r="L58" s="60">
+        <f t="shared" si="33"/>
+        <v>107118</v>
+      </c>
+      <c r="M58" s="73">
         <v>43821</v>
       </c>
-      <c r="B55" s="93"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="73">
-        <v>43821</v>
-      </c>
-      <c r="H55" s="74"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="73">
-        <v>43818</v>
-      </c>
-      <c r="N55" s="93"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="75"/>
-      <c r="Q55" s="87"/>
-      <c r="R55" s="75"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="93"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="75"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="75"/>
-      <c r="N56" s="93"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="75"/>
-      <c r="Q56" s="87"/>
-      <c r="R56" s="75"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="73">
-        <v>43822</v>
-      </c>
-      <c r="B57" s="93"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="73">
-        <v>43822</v>
-      </c>
-      <c r="H57" s="74"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="73">
-        <v>43819</v>
-      </c>
-      <c r="N57" s="93"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="75"/>
-      <c r="Q57" s="87"/>
-      <c r="R57" s="75"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B58" s="93"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="75"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="75"/>
-      <c r="N58" s="93"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="75"/>
-      <c r="Q58" s="87"/>
-      <c r="R58" s="75"/>
+      <c r="N58" s="93">
+        <v>90000</v>
+      </c>
+      <c r="O58" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="P58" s="75">
+        <f t="shared" si="40"/>
+        <v>88470</v>
+      </c>
+      <c r="Q58" s="87">
+        <v>93.373333333333335</v>
+      </c>
+      <c r="R58" s="75">
+        <f t="shared" si="41"/>
+        <v>84036</v>
+      </c>
     </row>
     <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="73">
-        <v>43823</v>
-      </c>
-      <c r="B59" s="93"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="73">
-        <v>43823</v>
-      </c>
-      <c r="H59" s="74"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="73">
-        <v>43820</v>
-      </c>
-      <c r="N59" s="93"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="75"/>
-      <c r="Q59" s="87"/>
-      <c r="R59" s="75"/>
+      <c r="B59" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C59" s="54">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D59" s="75">
+        <f t="shared" si="36"/>
+        <v>110100.95999999999</v>
+      </c>
+      <c r="E59" s="87">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F59" s="75">
+        <f t="shared" si="37"/>
+        <v>104192</v>
+      </c>
+      <c r="H59" s="209" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="210"/>
+      <c r="J59" s="89">
+        <f>SUM(J43:J58)</f>
+        <v>1715012.6400000004</v>
+      </c>
+      <c r="K59" s="141">
+        <f>L59/J59</f>
+        <v>0.91905462858748876</v>
+      </c>
+      <c r="L59" s="89">
+        <f>SUM(L43:L58)</f>
+        <v>1576190.3048780488</v>
+      </c>
+      <c r="N59" s="93">
+        <v>90000</v>
+      </c>
+      <c r="O59" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="P59" s="75">
+        <f t="shared" si="40"/>
+        <v>89100</v>
+      </c>
+      <c r="Q59" s="87">
+        <v>93.373333333333335</v>
+      </c>
+      <c r="R59" s="75">
+        <f t="shared" si="41"/>
+        <v>84036</v>
+      </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B60" s="93"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="75"/>
+      <c r="A60" s="73">
+        <v>43825</v>
+      </c>
+      <c r="B60" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C60" s="54">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D60" s="75">
+        <f t="shared" si="36"/>
+        <v>107614.08</v>
+      </c>
+      <c r="E60" s="87">
+        <v>88.251946213729653</v>
+      </c>
+      <c r="F60" s="75">
+        <f t="shared" si="37"/>
+        <v>99760</v>
+      </c>
       <c r="H60" s="74"/>
       <c r="I60" s="10"/>
       <c r="J60" s="75"/>
       <c r="K60" s="87"/>
       <c r="L60" s="75"/>
-      <c r="N60" s="93"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="75"/>
-      <c r="Q60" s="87"/>
-      <c r="R60" s="75"/>
+      <c r="M60" s="73">
+        <v>43822</v>
+      </c>
+      <c r="N60" s="93">
+        <v>90000</v>
+      </c>
+      <c r="O60" s="10">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="P60" s="75">
+        <f t="shared" si="40"/>
+        <v>86490</v>
+      </c>
+      <c r="Q60" s="87">
+        <v>93.373333333333335</v>
+      </c>
+      <c r="R60" s="75">
+        <f t="shared" si="41"/>
+        <v>84036</v>
+      </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="193"/>
-      <c r="C61" s="194"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="73">
-        <v>43824</v>
-      </c>
-      <c r="H61" s="74"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="87"/>
-      <c r="L61" s="75"/>
-      <c r="N61" s="193"/>
-      <c r="O61" s="194"/>
-      <c r="P61" s="89"/>
-      <c r="Q61" s="141"/>
-      <c r="R61" s="89"/>
+      <c r="B61" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C61" s="54">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D61" s="75">
+        <f t="shared" si="36"/>
+        <v>110892.24</v>
+      </c>
+      <c r="E61" s="87">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F61" s="75">
+        <f t="shared" si="37"/>
+        <v>104192</v>
+      </c>
+      <c r="G61" s="96"/>
+      <c r="H61" s="216" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="217"/>
+      <c r="J61" s="217"/>
+      <c r="K61" s="217"/>
+      <c r="L61" s="220"/>
+      <c r="N61" s="93">
+        <v>90000</v>
+      </c>
+      <c r="O61" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="P61" s="75">
+        <f t="shared" si="40"/>
+        <v>89100</v>
+      </c>
+      <c r="Q61" s="87">
+        <v>95.36</v>
+      </c>
+      <c r="R61" s="75">
+        <f t="shared" si="41"/>
+        <v>85824</v>
+      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="93"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="75"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="75"/>
-      <c r="K62" s="87"/>
-      <c r="L62" s="75"/>
-      <c r="N62" s="93"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="75"/>
-      <c r="Q62" s="87"/>
-      <c r="R62" s="75"/>
+      <c r="A62" s="73">
+        <v>43826</v>
+      </c>
+      <c r="B62" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C62" s="54">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D62" s="75">
+        <f t="shared" si="36"/>
+        <v>110892.24</v>
+      </c>
+      <c r="E62" s="87">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F62" s="75">
+        <f t="shared" si="37"/>
+        <v>104192</v>
+      </c>
+      <c r="G62" s="73">
+        <v>43826</v>
+      </c>
+      <c r="H62" s="58">
+        <v>105840</v>
+      </c>
+      <c r="I62" s="169">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="J62" s="75">
+        <f t="shared" ref="J62" si="42">H62*I62</f>
+        <v>77951.16</v>
+      </c>
+      <c r="K62" s="170">
+        <v>63.146258503401363</v>
+      </c>
+      <c r="L62" s="60">
+        <f t="shared" ref="L62" si="43">H62*K62/100</f>
+        <v>66834</v>
+      </c>
+      <c r="M62" s="73">
+        <v>43823</v>
+      </c>
+      <c r="N62" s="93">
+        <v>90000</v>
+      </c>
+      <c r="O62" s="10">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="P62" s="75">
+        <f t="shared" si="40"/>
+        <v>87030</v>
+      </c>
+      <c r="Q62" s="87">
+        <v>95.36</v>
+      </c>
+      <c r="R62" s="75">
+        <f t="shared" si="41"/>
+        <v>85824</v>
+      </c>
     </row>
     <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="196"/>
-      <c r="C63" s="197"/>
-      <c r="D63" s="197"/>
-      <c r="E63" s="197"/>
-      <c r="F63" s="197"/>
-      <c r="G63" s="73">
-        <v>43825</v>
-      </c>
-      <c r="H63" s="74"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="75"/>
-      <c r="N63" s="195"/>
-      <c r="O63" s="195"/>
-      <c r="P63" s="195"/>
-      <c r="Q63" s="195"/>
-      <c r="R63" s="195"/>
+      <c r="B63" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C63" s="54">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="D63" s="75">
+        <f t="shared" si="36"/>
+        <v>108857.51999999999</v>
+      </c>
+      <c r="E63" s="87">
+        <v>89.681528662420391</v>
+      </c>
+      <c r="F63" s="75">
+        <f t="shared" si="37"/>
+        <v>101376.00000000001</v>
+      </c>
+      <c r="H63" s="58">
+        <v>100800</v>
+      </c>
+      <c r="I63" s="171">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="J63" s="60">
+        <f t="shared" ref="J63:J71" si="44">H63*I63</f>
+        <v>98582.399999999994</v>
+      </c>
+      <c r="K63" s="172">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L63" s="60">
+        <f t="shared" ref="L63:L71" si="45">H63*K63/100</f>
+        <v>98415</v>
+      </c>
+      <c r="N63" s="93">
+        <v>90000</v>
+      </c>
+      <c r="O63" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="P63" s="75">
+        <f t="shared" si="40"/>
+        <v>88740</v>
+      </c>
+      <c r="Q63" s="87">
+        <v>95.36</v>
+      </c>
+      <c r="R63" s="75">
+        <f t="shared" si="41"/>
+        <v>85824</v>
+      </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="73">
+        <v>43827</v>
+      </c>
+      <c r="B64" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C64" s="54">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D64" s="75">
+        <f t="shared" si="36"/>
+        <v>110440.08</v>
+      </c>
+      <c r="E64" s="87">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F64" s="75">
+        <f t="shared" si="37"/>
+        <v>104192</v>
+      </c>
+      <c r="G64" s="73">
+        <v>43827</v>
+      </c>
+      <c r="H64" s="58">
+        <v>100800</v>
+      </c>
+      <c r="I64" s="171">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J64" s="60">
+        <f t="shared" si="44"/>
+        <v>99691.199999999997</v>
+      </c>
+      <c r="K64" s="172">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L64" s="60">
+        <f t="shared" si="45"/>
+        <v>98415</v>
+      </c>
+      <c r="M64" s="73">
         <v>43824</v>
       </c>
-      <c r="B64" s="93"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="75"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="87"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="73">
-        <v>43821</v>
-      </c>
-      <c r="N64" s="93"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="75"/>
-      <c r="Q64" s="87"/>
-      <c r="R64" s="75"/>
+      <c r="N64" s="93">
+        <v>90000</v>
+      </c>
+      <c r="O64" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="P64" s="75">
+        <f t="shared" si="40"/>
+        <v>88290</v>
+      </c>
+      <c r="Q64" s="87">
+        <v>97.346666666666664</v>
+      </c>
+      <c r="R64" s="75">
+        <f t="shared" si="41"/>
+        <v>87612</v>
+      </c>
     </row>
     <row r="65" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="93"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="73">
-        <v>43826</v>
-      </c>
-      <c r="H65" s="74"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="75"/>
-      <c r="K65" s="87"/>
-      <c r="L65" s="75"/>
-      <c r="N65" s="93"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="75"/>
-      <c r="Q65" s="87"/>
-      <c r="R65" s="75"/>
+      <c r="B65" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C65" s="54">
+        <v>0.96</v>
+      </c>
+      <c r="D65" s="75">
+        <f t="shared" si="36"/>
+        <v>108518.39999999999</v>
+      </c>
+      <c r="E65" s="87">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F65" s="75">
+        <f t="shared" si="37"/>
+        <v>104192</v>
+      </c>
+      <c r="H65" s="58">
+        <v>100800</v>
+      </c>
+      <c r="I65" s="171">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J65" s="60">
+        <f t="shared" si="44"/>
+        <v>98683.199999999997</v>
+      </c>
+      <c r="K65" s="172">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L65" s="60">
+        <f t="shared" si="45"/>
+        <v>94770</v>
+      </c>
+      <c r="N65" s="93">
+        <v>90000</v>
+      </c>
+      <c r="O65" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="P65" s="75">
+        <f t="shared" si="40"/>
+        <v>88920</v>
+      </c>
+      <c r="Q65" s="87">
+        <v>97.346666666666664</v>
+      </c>
+      <c r="R65" s="75">
+        <f t="shared" si="41"/>
+        <v>87612</v>
+      </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="73">
-        <v>43825</v>
-      </c>
-      <c r="B66" s="93"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="75"/>
-      <c r="H66" s="74"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="75"/>
-      <c r="K66" s="87"/>
-      <c r="L66" s="75"/>
-      <c r="M66" s="73">
-        <v>43822</v>
-      </c>
-      <c r="N66" s="93"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="75"/>
-      <c r="Q66" s="87"/>
-      <c r="R66" s="75"/>
+        <v>43828</v>
+      </c>
+      <c r="B66" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C66" s="54">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D66" s="75">
+        <f t="shared" si="36"/>
+        <v>109987.92</v>
+      </c>
+      <c r="E66" s="87">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F66" s="75">
+        <f t="shared" si="37"/>
+        <v>107008</v>
+      </c>
+      <c r="G66" s="73">
+        <v>43828</v>
+      </c>
+      <c r="H66" s="58">
+        <v>100800</v>
+      </c>
+      <c r="I66" s="171">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J66" s="60">
+        <f t="shared" si="44"/>
+        <v>99388.800000000003</v>
+      </c>
+      <c r="K66" s="172">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L66" s="60">
+        <f t="shared" si="45"/>
+        <v>94770</v>
+      </c>
+      <c r="N66" s="209" t="s">
+        <v>1</v>
+      </c>
+      <c r="O66" s="210"/>
+      <c r="P66" s="89">
+        <f>SUM(P56:P65)</f>
+        <v>880380</v>
+      </c>
+      <c r="Q66" s="141">
+        <f>R66/P66</f>
+        <v>0.94235670960267159</v>
+      </c>
+      <c r="R66" s="89">
+        <f>SUM(R56:R65)</f>
+        <v>829632</v>
+      </c>
     </row>
     <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="93"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="73">
-        <v>43827</v>
-      </c>
-      <c r="H67" s="74"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="75"/>
-      <c r="K67" s="87"/>
-      <c r="L67" s="75"/>
+      <c r="B67" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C67" s="54">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D67" s="75">
+        <f t="shared" si="36"/>
+        <v>111457.44</v>
+      </c>
+      <c r="E67" s="87">
+        <v>94.663835810332628</v>
+      </c>
+      <c r="F67" s="75">
+        <f t="shared" si="37"/>
+        <v>107008</v>
+      </c>
+      <c r="H67" s="58">
+        <v>100800</v>
+      </c>
+      <c r="I67" s="171">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="J67" s="60">
+        <f t="shared" si="44"/>
+        <v>99590.399999999994</v>
+      </c>
+      <c r="K67" s="172">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L67" s="60">
+        <f t="shared" si="45"/>
+        <v>94770</v>
+      </c>
       <c r="N67" s="93"/>
       <c r="O67" s="10"/>
       <c r="P67" s="75"/>
@@ -17594,220 +19832,458 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="73">
-        <v>43826</v>
-      </c>
-      <c r="B68" s="93"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="75"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="87"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="73">
-        <v>43823</v>
-      </c>
-      <c r="N68" s="93"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="75"/>
-      <c r="Q68" s="87"/>
-      <c r="R68" s="75"/>
+        <v>43829</v>
+      </c>
+      <c r="B68" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C68" s="54">
+        <v>0.98</v>
+      </c>
+      <c r="D68" s="75">
+        <f t="shared" si="36"/>
+        <v>110779.2</v>
+      </c>
+      <c r="E68" s="87">
+        <v>97.154989384288754</v>
+      </c>
+      <c r="F68" s="75">
+        <f t="shared" si="37"/>
+        <v>109824</v>
+      </c>
+      <c r="G68" s="73">
+        <v>43829</v>
+      </c>
+      <c r="H68" s="58">
+        <v>100800</v>
+      </c>
+      <c r="I68" s="171">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J68" s="60">
+        <f t="shared" si="44"/>
+        <v>98683.199999999997</v>
+      </c>
+      <c r="K68" s="172">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L68" s="60">
+        <f t="shared" si="45"/>
+        <v>98415</v>
+      </c>
+      <c r="M68" s="96"/>
+      <c r="N68" s="206" t="s">
+        <v>15</v>
+      </c>
+      <c r="O68" s="207"/>
+      <c r="P68" s="207"/>
+      <c r="Q68" s="207"/>
+      <c r="R68" s="207"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="93"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="73">
-        <v>43828</v>
-      </c>
-      <c r="H69" s="74"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="87"/>
-      <c r="L69" s="75"/>
-      <c r="N69" s="93"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="75"/>
-      <c r="Q69" s="87"/>
-      <c r="R69" s="75"/>
+      <c r="B69" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C69" s="54">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="D69" s="75">
+        <f t="shared" si="36"/>
+        <v>111796.56</v>
+      </c>
+      <c r="E69" s="87">
+        <v>97.154989384288754</v>
+      </c>
+      <c r="F69" s="75">
+        <f t="shared" si="37"/>
+        <v>109824</v>
+      </c>
+      <c r="H69" s="58">
+        <v>100800</v>
+      </c>
+      <c r="I69" s="171">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J69" s="60">
+        <f t="shared" si="44"/>
+        <v>98985.599999999991</v>
+      </c>
+      <c r="K69" s="172">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L69" s="60">
+        <f t="shared" si="45"/>
+        <v>94770</v>
+      </c>
+      <c r="M69" s="73">
+        <v>43825</v>
+      </c>
+      <c r="N69" s="93">
+        <v>92160</v>
+      </c>
+      <c r="O69" s="10">
+        <v>0.89</v>
+      </c>
+      <c r="P69" s="75">
+        <f t="shared" ref="P69" si="46">N69*O69</f>
+        <v>82022.399999999994</v>
+      </c>
+      <c r="Q69" s="180">
+        <v>65.963541666666671</v>
+      </c>
+      <c r="R69" s="75">
+        <f t="shared" ref="R69" si="47">N69*Q69/100</f>
+        <v>60792</v>
+      </c>
     </row>
     <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="73">
+        <v>43830</v>
+      </c>
+      <c r="B70" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C70" s="54">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D70" s="75">
+        <f t="shared" si="36"/>
+        <v>109196.64</v>
+      </c>
+      <c r="E70" s="138">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F70" s="75">
+        <f t="shared" si="37"/>
+        <v>104192</v>
+      </c>
+      <c r="G70" s="73">
+        <v>43830</v>
+      </c>
+      <c r="H70" s="58">
+        <v>100800</v>
+      </c>
+      <c r="I70" s="171">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J70" s="60">
+        <f t="shared" si="44"/>
+        <v>98683.199999999997</v>
+      </c>
+      <c r="K70" s="173">
+        <v>97.633928571428569</v>
+      </c>
+      <c r="L70" s="60">
+        <f t="shared" si="45"/>
+        <v>98415</v>
+      </c>
+      <c r="N70" s="93">
+        <v>92160</v>
+      </c>
+      <c r="O70" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="P70" s="75">
+        <f t="shared" ref="P70:P80" si="48">N70*O70</f>
+        <v>88473.599999999991</v>
+      </c>
+      <c r="Q70" s="180">
+        <v>93.125</v>
+      </c>
+      <c r="R70" s="75">
+        <f t="shared" ref="R70:R80" si="49">N70*Q70/100</f>
+        <v>85824</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B71" s="74">
+        <v>113040</v>
+      </c>
+      <c r="C71" s="161">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="D71" s="75">
+        <f t="shared" si="36"/>
+        <v>109309.68</v>
+      </c>
+      <c r="E71" s="162">
+        <v>92.172682236376502</v>
+      </c>
+      <c r="F71" s="75">
+        <f t="shared" si="37"/>
+        <v>104192</v>
+      </c>
+      <c r="H71" s="58">
+        <v>100800</v>
+      </c>
+      <c r="I71" s="174">
+        <v>0.98</v>
+      </c>
+      <c r="J71" s="60">
+        <f t="shared" si="44"/>
+        <v>98784</v>
+      </c>
+      <c r="K71" s="162">
+        <v>94.017857142857139</v>
+      </c>
+      <c r="L71" s="60">
+        <f t="shared" si="45"/>
+        <v>94770</v>
+      </c>
+      <c r="M71" s="73">
+        <v>43826</v>
+      </c>
+      <c r="N71" s="93">
+        <v>92160</v>
+      </c>
+      <c r="O71" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="P71" s="75">
+        <f t="shared" si="48"/>
+        <v>90501.119999999995</v>
+      </c>
+      <c r="Q71" s="180">
+        <v>93.125</v>
+      </c>
+      <c r="R71" s="75">
+        <f t="shared" si="49"/>
+        <v>85824</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B72" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="202"/>
+      <c r="D72" s="102">
+        <f>SUM(D48:D71)</f>
+        <v>2637675.3600000003</v>
+      </c>
+      <c r="E72" s="163">
+        <f>F72/D72</f>
+        <v>0.95169255400710107</v>
+      </c>
+      <c r="F72" s="102">
+        <f>SUM(F48:F71)</f>
+        <v>2510256</v>
+      </c>
+      <c r="H72" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="I72" s="202"/>
+      <c r="J72" s="102">
+        <f>SUM(J62:J71)</f>
+        <v>969023.15999999992</v>
+      </c>
+      <c r="K72" s="163">
+        <f>L72/J72</f>
+        <v>0.96421224854935361</v>
+      </c>
+      <c r="L72" s="102">
+        <f>SUM(L62:L71)</f>
+        <v>934344</v>
+      </c>
+      <c r="N72" s="93">
+        <v>92880</v>
+      </c>
+      <c r="O72" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P72" s="75">
+        <f t="shared" si="48"/>
+        <v>90186.48</v>
+      </c>
+      <c r="Q72" s="180">
+        <v>92.403100775193806</v>
+      </c>
+      <c r="R72" s="75">
+        <f t="shared" si="49"/>
+        <v>85824</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B73" s="167"/>
+      <c r="C73" s="114"/>
+      <c r="D73" s="112"/>
+      <c r="E73" s="168"/>
+      <c r="F73" s="112"/>
+      <c r="H73" s="178"/>
+      <c r="I73" s="178"/>
+      <c r="J73" s="112"/>
+      <c r="K73" s="179"/>
+      <c r="L73" s="112"/>
+      <c r="M73" s="73">
         <v>43827</v>
       </c>
-      <c r="B70" s="93"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="75"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="75"/>
-      <c r="K70" s="87"/>
-      <c r="L70" s="75"/>
-      <c r="M70" s="73">
-        <v>43824</v>
-      </c>
-      <c r="N70" s="93"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="75"/>
-      <c r="Q70" s="87"/>
-      <c r="R70" s="75"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B71" s="93"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="73">
-        <v>43829</v>
-      </c>
-      <c r="H71" s="74"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="75"/>
-      <c r="K71" s="87"/>
-      <c r="L71" s="75"/>
-      <c r="N71" s="93"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="75"/>
-      <c r="Q71" s="87"/>
-      <c r="R71" s="75"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="73">
+      <c r="N73" s="93">
+        <v>92880</v>
+      </c>
+      <c r="O73" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="P73" s="75">
+        <f t="shared" si="48"/>
+        <v>91765.440000000002</v>
+      </c>
+      <c r="Q73" s="180">
+        <v>94.328165374676999</v>
+      </c>
+      <c r="R73" s="75">
+        <f t="shared" si="49"/>
+        <v>87612</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B74" s="164"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="158"/>
+      <c r="E74" s="165"/>
+      <c r="F74" s="158"/>
+      <c r="H74" s="156"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="156"/>
+      <c r="K74" s="156"/>
+      <c r="L74" s="156"/>
+      <c r="N74" s="93">
+        <v>92880</v>
+      </c>
+      <c r="O74" s="10">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="P74" s="75">
+        <f t="shared" si="48"/>
+        <v>91301.04</v>
+      </c>
+      <c r="Q74" s="180">
+        <v>94.328165374676999</v>
+      </c>
+      <c r="R74" s="75">
+        <f t="shared" si="49"/>
+        <v>87612</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="164"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="158"/>
+      <c r="E75" s="165"/>
+      <c r="F75" s="158"/>
+      <c r="H75" s="156"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="156"/>
+      <c r="K75" s="156"/>
+      <c r="L75" s="156"/>
+      <c r="M75" s="73">
         <v>43828</v>
       </c>
-      <c r="B72" s="93"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="75"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="75"/>
-      <c r="K72" s="87"/>
-      <c r="L72" s="75"/>
-      <c r="N72" s="193"/>
-      <c r="O72" s="194"/>
-      <c r="P72" s="89"/>
-      <c r="Q72" s="141"/>
-      <c r="R72" s="89"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B73" s="93"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="75"/>
-      <c r="H73" s="193"/>
-      <c r="I73" s="194"/>
-      <c r="J73" s="89"/>
-      <c r="K73" s="141"/>
-      <c r="L73" s="89"/>
-      <c r="N73" s="93"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="60"/>
-      <c r="Q73" s="87"/>
-      <c r="R73" s="60"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="73">
-        <v>43829</v>
-      </c>
-      <c r="B74" s="93"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="75"/>
-      <c r="H74" s="157"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="157"/>
-      <c r="K74" s="157"/>
-      <c r="L74" s="157"/>
-      <c r="N74" s="195"/>
-      <c r="O74" s="195"/>
-      <c r="P74" s="195"/>
-      <c r="Q74" s="195"/>
-      <c r="R74" s="195"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="93"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="75"/>
-      <c r="H75" s="157"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="157"/>
-      <c r="K75" s="157"/>
-      <c r="L75" s="157"/>
-      <c r="M75" s="73">
-        <v>43825</v>
-      </c>
-      <c r="N75" s="150"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="75"/>
-      <c r="Q75" s="87"/>
-      <c r="R75" s="75"/>
+      <c r="N75" s="93">
+        <v>92880</v>
+      </c>
+      <c r="O75" s="10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="P75" s="75">
+        <f t="shared" si="48"/>
+        <v>90836.64</v>
+      </c>
+      <c r="Q75" s="180">
+        <v>94.328165374676999</v>
+      </c>
+      <c r="R75" s="75">
+        <f t="shared" si="49"/>
+        <v>87612</v>
+      </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="193"/>
-      <c r="C76" s="194"/>
-      <c r="D76" s="156"/>
-      <c r="E76" s="122"/>
-      <c r="F76" s="89"/>
-      <c r="H76" s="157"/>
+      <c r="B76" s="166"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="158"/>
+      <c r="E76" s="137"/>
+      <c r="F76" s="158"/>
+      <c r="H76" s="156"/>
       <c r="I76" s="56"/>
-      <c r="J76" s="157"/>
-      <c r="K76" s="157"/>
-      <c r="L76" s="157"/>
-      <c r="N76" s="150"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="75"/>
-      <c r="Q76" s="87"/>
-      <c r="R76" s="75"/>
+      <c r="J76" s="156"/>
+      <c r="K76" s="156"/>
+      <c r="L76" s="156"/>
+      <c r="N76" s="93">
+        <v>92880</v>
+      </c>
+      <c r="O76" s="10">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="P76" s="75">
+        <f t="shared" si="48"/>
+        <v>92229.84</v>
+      </c>
+      <c r="Q76" s="180">
+        <v>94.328165374676999</v>
+      </c>
+      <c r="R76" s="75">
+        <f t="shared" si="49"/>
+        <v>87612</v>
+      </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B77" s="110"/>
       <c r="C77" s="110"/>
-      <c r="D77" s="157"/>
-      <c r="E77" s="157"/>
-      <c r="F77" s="157"/>
+      <c r="D77" s="156"/>
+      <c r="E77" s="156"/>
+      <c r="F77" s="156"/>
       <c r="H77" s="110"/>
       <c r="I77" s="110"/>
-      <c r="J77" s="157"/>
-      <c r="K77" s="157"/>
-      <c r="L77" s="157"/>
+      <c r="J77" s="156"/>
+      <c r="K77" s="156"/>
+      <c r="L77" s="156"/>
       <c r="M77" s="73">
-        <v>43826</v>
-      </c>
-      <c r="N77" s="150"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="75"/>
-      <c r="Q77" s="87"/>
-      <c r="R77" s="75"/>
+        <v>43829</v>
+      </c>
+      <c r="N77" s="93">
+        <v>92880</v>
+      </c>
+      <c r="O77" s="10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="P77" s="75">
+        <f t="shared" si="48"/>
+        <v>90836.64</v>
+      </c>
+      <c r="Q77" s="180">
+        <v>94.328165374676999</v>
+      </c>
+      <c r="R77" s="75">
+        <f t="shared" si="49"/>
+        <v>87612</v>
+      </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B78" s="110"/>
       <c r="C78" s="110"/>
-      <c r="D78" s="157"/>
-      <c r="E78" s="157"/>
-      <c r="F78" s="157"/>
+      <c r="D78" s="156"/>
+      <c r="E78" s="156"/>
+      <c r="F78" s="156"/>
       <c r="H78" s="110"/>
       <c r="I78" s="110"/>
-      <c r="J78" s="157"/>
-      <c r="K78" s="157"/>
-      <c r="L78" s="157"/>
-      <c r="N78" s="150"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="75"/>
-      <c r="Q78" s="87"/>
-      <c r="R78" s="75"/>
+      <c r="J78" s="156"/>
+      <c r="K78" s="156"/>
+      <c r="L78" s="156"/>
+      <c r="N78" s="93">
+        <v>92880</v>
+      </c>
+      <c r="O78" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="P78" s="75">
+        <f t="shared" si="48"/>
+        <v>91765.440000000002</v>
+      </c>
+      <c r="Q78" s="180">
+        <v>94.328165374676999</v>
+      </c>
+      <c r="R78" s="75">
+        <f t="shared" si="49"/>
+        <v>87612</v>
+      </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B79" s="110"/>
@@ -17821,209 +20297,258 @@
       <c r="K79" s="155"/>
       <c r="L79" s="155"/>
       <c r="M79" s="73">
-        <v>43827</v>
-      </c>
-      <c r="N79" s="150"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="75"/>
-      <c r="Q79" s="87"/>
-      <c r="R79" s="75"/>
+        <v>43830</v>
+      </c>
+      <c r="N79" s="93">
+        <v>92880</v>
+      </c>
+      <c r="O79" s="10">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="P79" s="75">
+        <f t="shared" si="48"/>
+        <v>90836.64</v>
+      </c>
+      <c r="Q79" s="181">
+        <v>92.403100775193806</v>
+      </c>
+      <c r="R79" s="75">
+        <f t="shared" si="49"/>
+        <v>85824</v>
+      </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="157"/>
+      <c r="B80" s="156"/>
       <c r="C80" s="56"/>
-      <c r="D80" s="157"/>
-      <c r="E80" s="157"/>
-      <c r="F80" s="157"/>
+      <c r="D80" s="156"/>
+      <c r="E80" s="156"/>
+      <c r="F80" s="156"/>
       <c r="G80" s="73"/>
-      <c r="H80" s="157"/>
+      <c r="H80" s="156"/>
       <c r="I80" s="56"/>
-      <c r="J80" s="157"/>
-      <c r="K80" s="157"/>
-      <c r="L80" s="157"/>
-      <c r="N80" s="150"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="75"/>
-      <c r="Q80" s="87"/>
-      <c r="R80" s="75"/>
+      <c r="J80" s="156"/>
+      <c r="K80" s="156"/>
+      <c r="L80" s="156"/>
+      <c r="N80" s="182">
+        <v>92880</v>
+      </c>
+      <c r="O80" s="183">
+        <v>0.99</v>
+      </c>
+      <c r="P80" s="75">
+        <f t="shared" si="48"/>
+        <v>91951.2</v>
+      </c>
+      <c r="Q80" s="184">
+        <v>94.328165374676999</v>
+      </c>
+      <c r="R80" s="75">
+        <f t="shared" si="49"/>
+        <v>87612</v>
+      </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B81" s="157"/>
+      <c r="B81" s="156"/>
       <c r="C81" s="56"/>
-      <c r="D81" s="157"/>
-      <c r="E81" s="157"/>
-      <c r="F81" s="157"/>
-      <c r="H81" s="157"/>
+      <c r="D81" s="156"/>
+      <c r="E81" s="156"/>
+      <c r="F81" s="156"/>
+      <c r="H81" s="156"/>
       <c r="I81" s="56"/>
-      <c r="J81" s="157"/>
-      <c r="K81" s="157"/>
-      <c r="L81" s="157"/>
-      <c r="M81" s="73">
-        <v>43828</v>
-      </c>
-      <c r="N81" s="150"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="75"/>
-      <c r="Q81" s="87"/>
-      <c r="R81" s="75"/>
+      <c r="J81" s="156"/>
+      <c r="K81" s="156"/>
+      <c r="L81" s="156"/>
+      <c r="N81" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="O81" s="202"/>
+      <c r="P81" s="102">
+        <f>SUM(P69:P80)</f>
+        <v>1082706.48</v>
+      </c>
+      <c r="Q81" s="163">
+        <f>R81/P81</f>
+        <v>0.93965633234226142</v>
+      </c>
+      <c r="R81" s="102">
+        <f>SUM(R69:R80)</f>
+        <v>1017372</v>
+      </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B82" s="110"/>
       <c r="C82" s="110"/>
-      <c r="D82" s="157"/>
-      <c r="E82" s="157"/>
-      <c r="F82" s="157"/>
+      <c r="D82" s="156"/>
+      <c r="E82" s="156"/>
+      <c r="F82" s="156"/>
       <c r="H82" s="110"/>
       <c r="I82" s="110"/>
-      <c r="J82" s="157"/>
-      <c r="K82" s="157"/>
-      <c r="L82" s="157"/>
-      <c r="N82" s="150"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="75"/>
-      <c r="Q82" s="87"/>
-      <c r="R82" s="75"/>
+      <c r="J82" s="156"/>
+      <c r="K82" s="156"/>
+      <c r="L82" s="156"/>
+      <c r="N82" s="167"/>
+      <c r="O82" s="179"/>
+      <c r="P82" s="112"/>
+      <c r="Q82" s="168"/>
+      <c r="R82" s="112"/>
     </row>
     <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="178"/>
-      <c r="C83" s="178"/>
-      <c r="D83" s="178"/>
+      <c r="B83" s="205"/>
+      <c r="C83" s="205"/>
+      <c r="D83" s="205"/>
       <c r="E83" s="155"/>
       <c r="F83" s="155"/>
-      <c r="H83" s="178"/>
-      <c r="I83" s="178"/>
-      <c r="J83" s="178"/>
+      <c r="H83" s="205"/>
+      <c r="I83" s="205"/>
+      <c r="J83" s="205"/>
       <c r="K83" s="155"/>
       <c r="L83" s="155"/>
-      <c r="M83" s="73">
-        <v>43829</v>
-      </c>
-      <c r="N83" s="150"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="75"/>
-      <c r="Q83" s="87"/>
-      <c r="R83" s="75"/>
+      <c r="N83" s="164"/>
+      <c r="O83" s="137"/>
+      <c r="P83" s="159"/>
+      <c r="Q83" s="165"/>
+      <c r="R83" s="159"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B84" s="157"/>
+      <c r="B84" s="156"/>
       <c r="C84" s="56"/>
-      <c r="D84" s="157"/>
-      <c r="E84" s="157"/>
-      <c r="F84" s="157"/>
-      <c r="H84" s="157"/>
+      <c r="D84" s="156"/>
+      <c r="E84" s="156"/>
+      <c r="F84" s="156"/>
+      <c r="H84" s="156"/>
       <c r="I84" s="56"/>
-      <c r="J84" s="157"/>
-      <c r="K84" s="157"/>
-      <c r="L84" s="157"/>
-      <c r="N84" s="150"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="75"/>
-      <c r="Q84" s="87"/>
-      <c r="R84" s="75"/>
+      <c r="J84" s="156"/>
+      <c r="K84" s="156"/>
+      <c r="L84" s="156"/>
+      <c r="N84" s="164"/>
+      <c r="O84" s="137"/>
+      <c r="P84" s="159"/>
+      <c r="Q84" s="165"/>
+      <c r="R84" s="159"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B85" s="157"/>
+      <c r="B85" s="156"/>
       <c r="C85" s="56"/>
-      <c r="D85" s="157"/>
-      <c r="E85" s="157"/>
-      <c r="F85" s="157"/>
-      <c r="H85" s="157"/>
+      <c r="D85" s="156"/>
+      <c r="E85" s="156"/>
+      <c r="F85" s="156"/>
+      <c r="H85" s="156"/>
       <c r="I85" s="56"/>
-      <c r="J85" s="157"/>
-      <c r="K85" s="157"/>
-      <c r="L85" s="157"/>
-      <c r="N85" s="193"/>
-      <c r="O85" s="194"/>
-      <c r="P85" s="89"/>
-      <c r="Q85" s="141"/>
-      <c r="R85" s="89"/>
+      <c r="J85" s="156"/>
+      <c r="K85" s="156"/>
+      <c r="L85" s="156"/>
+      <c r="N85" s="166"/>
+      <c r="O85" s="166"/>
+      <c r="P85" s="159"/>
+      <c r="Q85" s="137"/>
+      <c r="R85" s="159"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B86" s="157"/>
+      <c r="B86" s="156"/>
       <c r="C86" s="56"/>
-      <c r="D86" s="157"/>
-      <c r="E86" s="157"/>
-      <c r="F86" s="157"/>
-      <c r="H86" s="157"/>
+      <c r="D86" s="156"/>
+      <c r="E86" s="156"/>
+      <c r="F86" s="156"/>
+      <c r="H86" s="156"/>
       <c r="I86" s="56"/>
-      <c r="J86" s="157"/>
-      <c r="K86" s="157"/>
-      <c r="L86" s="157"/>
-      <c r="N86" s="157"/>
+      <c r="J86" s="156"/>
+      <c r="K86" s="156"/>
+      <c r="L86" s="156"/>
+      <c r="N86" s="156"/>
       <c r="O86" s="56"/>
-      <c r="P86" s="157"/>
+      <c r="P86" s="156"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B87" s="157"/>
+      <c r="B87" s="156"/>
       <c r="C87" s="56"/>
-      <c r="D87" s="157"/>
-      <c r="E87" s="157"/>
-      <c r="F87" s="157"/>
-      <c r="H87" s="157"/>
+      <c r="D87" s="156"/>
+      <c r="E87" s="156"/>
+      <c r="F87" s="156"/>
+      <c r="H87" s="156"/>
       <c r="I87" s="56"/>
-      <c r="J87" s="157"/>
-      <c r="K87" s="157"/>
-      <c r="L87" s="157"/>
-      <c r="N87" s="157"/>
+      <c r="J87" s="156"/>
+      <c r="K87" s="156"/>
+      <c r="L87" s="156"/>
+      <c r="N87" s="156"/>
       <c r="O87" s="56"/>
-      <c r="P87" s="157"/>
+      <c r="P87" s="156"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="73"/>
-      <c r="B88" s="157"/>
+      <c r="B88" s="156"/>
       <c r="C88" s="56"/>
-      <c r="D88" s="157"/>
-      <c r="E88" s="157"/>
-      <c r="F88" s="157"/>
+      <c r="D88" s="156"/>
+      <c r="E88" s="156"/>
+      <c r="F88" s="156"/>
       <c r="G88" s="73"/>
-      <c r="H88" s="157"/>
+      <c r="H88" s="156"/>
       <c r="I88" s="56"/>
-      <c r="J88" s="157"/>
-      <c r="K88" s="157"/>
-      <c r="L88" s="157"/>
+      <c r="J88" s="156"/>
+      <c r="K88" s="156"/>
+      <c r="L88" s="156"/>
       <c r="M88" s="73"/>
-      <c r="N88" s="157"/>
+      <c r="N88" s="156"/>
       <c r="O88" s="56"/>
-      <c r="P88" s="157"/>
+      <c r="P88" s="156"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B89" s="157"/>
+      <c r="B89" s="156"/>
       <c r="C89" s="56"/>
-      <c r="D89" s="157"/>
-      <c r="E89" s="157"/>
-      <c r="F89" s="157"/>
-      <c r="H89" s="157"/>
+      <c r="D89" s="156"/>
+      <c r="E89" s="156"/>
+      <c r="F89" s="156"/>
+      <c r="H89" s="156"/>
       <c r="I89" s="56"/>
-      <c r="J89" s="157"/>
-      <c r="K89" s="157"/>
-      <c r="L89" s="157"/>
-      <c r="N89" s="157"/>
+      <c r="J89" s="156"/>
+      <c r="K89" s="156"/>
+      <c r="L89" s="156"/>
+      <c r="N89" s="156"/>
       <c r="O89" s="56"/>
-      <c r="P89" s="157"/>
+      <c r="P89" s="156"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="178"/>
-      <c r="C90" s="178"/>
-      <c r="D90" s="157"/>
-      <c r="E90" s="157"/>
-      <c r="F90" s="157"/>
-      <c r="H90" s="178"/>
-      <c r="I90" s="178"/>
-      <c r="J90" s="157"/>
-      <c r="K90" s="157"/>
-      <c r="L90" s="157"/>
-      <c r="N90" s="178"/>
-      <c r="O90" s="178"/>
-      <c r="P90" s="157"/>
+      <c r="B90" s="205"/>
+      <c r="C90" s="205"/>
+      <c r="D90" s="156"/>
+      <c r="E90" s="156"/>
+      <c r="F90" s="156"/>
+      <c r="H90" s="205"/>
+      <c r="I90" s="205"/>
+      <c r="J90" s="156"/>
+      <c r="K90" s="156"/>
+      <c r="L90" s="156"/>
+      <c r="N90" s="205"/>
+      <c r="O90" s="205"/>
+      <c r="P90" s="156"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="32">
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N55:R55"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N68:R68"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="H83:J83"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="H90:I90"/>
     <mergeCell ref="N90:O90"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="H40:I40"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="N1:R1"/>
@@ -18034,8 +20559,5 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="62" max="17" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>